--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.307529</v>
+        <v>0.348753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.221855</v>
+        <v>0.25132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238002</v>
+        <v>0.269848</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.312172</v>
+        <v>0.354125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226306</v>
+        <v>0.257491</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243332</v>
+        <v>0.276566</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.315987</v>
+        <v>0.358165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230919</v>
+        <v>0.261732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247845</v>
+        <v>0.280984</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.322843</v>
+        <v>0.365436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236178</v>
+        <v>0.268256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252127</v>
+        <v>0.28598</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.329573</v>
+        <v>0.373681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241145</v>
+        <v>0.273283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.257249</v>
+        <v>0.290526</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.336268</v>
+        <v>0.378741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195245</v>
+        <v>0.219468</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217837</v>
+        <v>0.24518</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.280371</v>
+        <v>0.318022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198622</v>
+        <v>0.225387</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22114</v>
+        <v>0.250973</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2852</v>
+        <v>0.323925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201941</v>
+        <v>0.229163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.225504</v>
+        <v>0.256041</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.288938</v>
+        <v>0.329035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206032</v>
+        <v>0.233714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229692</v>
+        <v>0.260765</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.294397</v>
+        <v>0.333792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209551</v>
+        <v>0.237549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233007</v>
+        <v>0.264023</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.298882</v>
+        <v>0.340601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212991</v>
+        <v>0.241823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236475</v>
+        <v>0.269294</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.307183</v>
+        <v>0.34648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220422</v>
+        <v>0.24593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.241004</v>
+        <v>0.272234</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312643</v>
+        <v>0.352657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221366</v>
+        <v>0.250704</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245658</v>
+        <v>0.277531</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320977</v>
+        <v>0.360663</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226293</v>
+        <v>0.2553</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254757</v>
+        <v>0.282655</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.328763</v>
+        <v>0.366773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232692</v>
+        <v>0.260651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25595</v>
+        <v>0.289044</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.336899</v>
+        <v>0.372945</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238329</v>
+        <v>0.26677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.260969</v>
+        <v>0.292753</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34492</v>
+        <v>0.378705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244559</v>
+        <v>0.273043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.268783</v>
+        <v>0.298795</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.353446</v>
+        <v>0.386303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248082</v>
+        <v>0.276286</v>
       </c>
       <c r="D19" t="n">
-        <v>0.274222</v>
+        <v>0.30563</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.363856</v>
+        <v>0.394498</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25499</v>
+        <v>0.280407</v>
       </c>
       <c r="D20" t="n">
-        <v>0.280948</v>
+        <v>0.310089</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.374446</v>
+        <v>0.400517</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213832</v>
+        <v>0.237218</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239501</v>
+        <v>0.267195</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.337887</v>
+        <v>0.364002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.21892</v>
+        <v>0.243681</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246498</v>
+        <v>0.274781</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.346979</v>
+        <v>0.372753</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227509</v>
+        <v>0.250951</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253246</v>
+        <v>0.279722</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.354621</v>
+        <v>0.383965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231583</v>
+        <v>0.254696</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257721</v>
+        <v>0.284628</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.363209</v>
+        <v>0.392241</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238571</v>
+        <v>0.260082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264887</v>
+        <v>0.291979</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.371465</v>
+        <v>0.400676</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243605</v>
+        <v>0.266466</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271194</v>
+        <v>0.296595</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.379248</v>
+        <v>0.409968</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248267</v>
+        <v>0.272637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276542</v>
+        <v>0.302758</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.384586</v>
+        <v>0.416647</v>
       </c>
       <c r="C28" t="n">
-        <v>0.254603</v>
+        <v>0.279453</v>
       </c>
       <c r="D28" t="n">
-        <v>0.283019</v>
+        <v>0.31138</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.391584</v>
+        <v>0.424399</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262586</v>
+        <v>0.287209</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292536</v>
+        <v>0.320152</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.399886</v>
+        <v>0.433444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.268824</v>
+        <v>0.294049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.298866</v>
+        <v>0.326776</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.407404</v>
+        <v>0.441451</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276453</v>
+        <v>0.301563</v>
       </c>
       <c r="D31" t="n">
-        <v>0.305876</v>
+        <v>0.334208</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.415121</v>
+        <v>0.450108</v>
       </c>
       <c r="C32" t="n">
-        <v>0.282937</v>
+        <v>0.308278</v>
       </c>
       <c r="D32" t="n">
-        <v>0.313466</v>
+        <v>0.341939</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.425984</v>
+        <v>0.459017</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290258</v>
+        <v>0.316579</v>
       </c>
       <c r="D33" t="n">
-        <v>0.321068</v>
+        <v>0.351454</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434292</v>
+        <v>0.468686</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296814</v>
+        <v>0.324533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.328937</v>
+        <v>0.361248</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.442851</v>
+        <v>0.480257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26137</v>
+        <v>0.285064</v>
       </c>
       <c r="D35" t="n">
-        <v>0.293374</v>
+        <v>0.317997</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.417613</v>
+        <v>0.441383</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267145</v>
+        <v>0.28872</v>
       </c>
       <c r="D36" t="n">
-        <v>0.299723</v>
+        <v>0.321898</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422403</v>
+        <v>0.447053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272751</v>
+        <v>0.294389</v>
       </c>
       <c r="D37" t="n">
-        <v>0.30392</v>
+        <v>0.326551</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.428494</v>
+        <v>0.454141</v>
       </c>
       <c r="C38" t="n">
-        <v>0.279213</v>
+        <v>0.302107</v>
       </c>
       <c r="D38" t="n">
-        <v>0.310561</v>
+        <v>0.333993</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.434623</v>
+        <v>0.460446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28372</v>
+        <v>0.306462</v>
       </c>
       <c r="D39" t="n">
-        <v>0.317703</v>
+        <v>0.341568</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.439476</v>
+        <v>0.467028</v>
       </c>
       <c r="C40" t="n">
-        <v>0.290699</v>
+        <v>0.312821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323476</v>
+        <v>0.347365</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.446926</v>
+        <v>0.471806</v>
       </c>
       <c r="C41" t="n">
-        <v>0.296122</v>
+        <v>0.316848</v>
       </c>
       <c r="D41" t="n">
-        <v>0.331808</v>
+        <v>0.353171</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.452068</v>
+        <v>0.47765</v>
       </c>
       <c r="C42" t="n">
-        <v>0.302244</v>
+        <v>0.322796</v>
       </c>
       <c r="D42" t="n">
-        <v>0.335793</v>
+        <v>0.357873</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.459705</v>
+        <v>0.485225</v>
       </c>
       <c r="C43" t="n">
-        <v>0.308294</v>
+        <v>0.329179</v>
       </c>
       <c r="D43" t="n">
-        <v>0.342125</v>
+        <v>0.364544</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.466465</v>
+        <v>0.492488</v>
       </c>
       <c r="C44" t="n">
-        <v>0.314725</v>
+        <v>0.336353</v>
       </c>
       <c r="D44" t="n">
-        <v>0.346999</v>
+        <v>0.370847</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.472004</v>
+        <v>0.500049</v>
       </c>
       <c r="C45" t="n">
-        <v>0.320475</v>
+        <v>0.342837</v>
       </c>
       <c r="D45" t="n">
-        <v>0.353147</v>
+        <v>0.378212</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.478425</v>
+        <v>0.506956</v>
       </c>
       <c r="C46" t="n">
-        <v>0.327627</v>
+        <v>0.34996</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36078</v>
+        <v>0.385309</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487533</v>
+        <v>0.517844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.333414</v>
+        <v>0.356363</v>
       </c>
       <c r="D47" t="n">
-        <v>0.367377</v>
+        <v>0.392511</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.494944</v>
+        <v>0.524786</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340157</v>
+        <v>0.363363</v>
       </c>
       <c r="D48" t="n">
-        <v>0.374714</v>
+        <v>0.401185</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.505461</v>
+        <v>0.532514</v>
       </c>
       <c r="C49" t="n">
-        <v>0.34709</v>
+        <v>0.370272</v>
       </c>
       <c r="D49" t="n">
-        <v>0.381135</v>
+        <v>0.408549</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.514293</v>
+        <v>0.550025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.296692</v>
+        <v>0.316303</v>
       </c>
       <c r="D50" t="n">
-        <v>0.328751</v>
+        <v>0.352574</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.461097</v>
+        <v>0.495148</v>
       </c>
       <c r="C51" t="n">
-        <v>0.302019</v>
+        <v>0.324324</v>
       </c>
       <c r="D51" t="n">
-        <v>0.33631</v>
+        <v>0.359528</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.466103</v>
+        <v>0.508247</v>
       </c>
       <c r="C52" t="n">
-        <v>0.307239</v>
+        <v>0.330509</v>
       </c>
       <c r="D52" t="n">
-        <v>0.338582</v>
+        <v>0.366501</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471146</v>
+        <v>0.507076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.313138</v>
+        <v>0.341316</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347773</v>
+        <v>0.387884</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.478606</v>
+        <v>0.521692</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319068</v>
+        <v>0.346873</v>
       </c>
       <c r="D54" t="n">
-        <v>0.351137</v>
+        <v>0.415286</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482936</v>
+        <v>0.615905</v>
       </c>
       <c r="C55" t="n">
-        <v>0.324902</v>
+        <v>0.366759</v>
       </c>
       <c r="D55" t="n">
-        <v>0.358839</v>
+        <v>0.441522</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487235</v>
+        <v>0.579344</v>
       </c>
       <c r="C56" t="n">
-        <v>0.329975</v>
+        <v>0.381891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.364144</v>
+        <v>0.417786</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.494924</v>
+        <v>0.588495</v>
       </c>
       <c r="C57" t="n">
-        <v>0.33654</v>
+        <v>0.382463</v>
       </c>
       <c r="D57" t="n">
-        <v>0.370651</v>
+        <v>0.417406</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.507341</v>
+        <v>0.604535</v>
       </c>
       <c r="C58" t="n">
-        <v>0.344797</v>
+        <v>0.38999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378196</v>
+        <v>0.454759</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.519663</v>
+        <v>0.614135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35213</v>
+        <v>0.406484</v>
       </c>
       <c r="D59" t="n">
-        <v>0.387393</v>
+        <v>0.460224</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.529205</v>
+        <v>0.66597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.362098</v>
+        <v>0.424859</v>
       </c>
       <c r="D60" t="n">
-        <v>0.397039</v>
+        <v>0.476057</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.544579</v>
+        <v>0.6759230000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.37111</v>
+        <v>0.437507</v>
       </c>
       <c r="D61" t="n">
-        <v>0.404349</v>
+        <v>0.49486</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555582</v>
+        <v>0.704928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.379523</v>
+        <v>0.445151</v>
       </c>
       <c r="D62" t="n">
-        <v>0.415744</v>
+        <v>0.566858</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5926709999999999</v>
+        <v>0.776662</v>
       </c>
       <c r="C63" t="n">
-        <v>0.41017</v>
+        <v>0.468878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.440639</v>
+        <v>0.594687</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.612602</v>
+        <v>0.923025</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334983</v>
+        <v>0.406135</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382473</v>
+        <v>0.530288</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.541461</v>
+        <v>0.749482</v>
       </c>
       <c r="C65" t="n">
-        <v>0.343306</v>
+        <v>0.471288</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376493</v>
+        <v>0.537234</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.573507</v>
+        <v>0.984645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.335093</v>
+        <v>0.459737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.379356</v>
+        <v>0.562389</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.540774</v>
+        <v>1.03659</v>
       </c>
       <c r="C67" t="n">
-        <v>0.342037</v>
+        <v>0.541591</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387733</v>
+        <v>0.656138</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.557063</v>
+        <v>0.956326</v>
       </c>
       <c r="C68" t="n">
-        <v>0.349144</v>
+        <v>0.516329</v>
       </c>
       <c r="D68" t="n">
-        <v>0.396291</v>
+        <v>0.572168</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.604727</v>
+        <v>0.854026</v>
       </c>
       <c r="C69" t="n">
-        <v>0.358143</v>
+        <v>0.496654</v>
       </c>
       <c r="D69" t="n">
-        <v>0.400065</v>
+        <v>0.558203</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.568429</v>
+        <v>0.862764</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366931</v>
+        <v>0.517709</v>
       </c>
       <c r="D70" t="n">
-        <v>0.417954</v>
+        <v>0.588106</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.571829</v>
+        <v>0.9296720000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.376754</v>
+        <v>0.537438</v>
       </c>
       <c r="D71" t="n">
-        <v>0.423257</v>
+        <v>0.635135</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.589171</v>
+        <v>1.00174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.394999</v>
+        <v>0.5303060000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.421312</v>
+        <v>0.605117</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.597112</v>
+        <v>1.01508</v>
       </c>
       <c r="C73" t="n">
-        <v>0.382031</v>
+        <v>0.57162</v>
       </c>
       <c r="D73" t="n">
-        <v>0.414719</v>
+        <v>0.631515</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.603239</v>
+        <v>1.00374</v>
       </c>
       <c r="C74" t="n">
-        <v>0.387564</v>
+        <v>0.577439</v>
       </c>
       <c r="D74" t="n">
-        <v>0.447223</v>
+        <v>0.666042</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.653088</v>
+        <v>1.06447</v>
       </c>
       <c r="C75" t="n">
-        <v>0.416399</v>
+        <v>0.709257</v>
       </c>
       <c r="D75" t="n">
-        <v>0.483608</v>
+        <v>0.796001</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6576149999999999</v>
+        <v>1.26281</v>
       </c>
       <c r="C76" t="n">
-        <v>0.421325</v>
+        <v>0.680247</v>
       </c>
       <c r="D76" t="n">
-        <v>0.473824</v>
+        <v>0.77249</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.711307</v>
+        <v>1.21787</v>
       </c>
       <c r="C77" t="n">
-        <v>0.427301</v>
+        <v>0.788691</v>
       </c>
       <c r="D77" t="n">
-        <v>0.475395</v>
+        <v>0.965273</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.702507</v>
+        <v>1.37782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.360181</v>
+        <v>0.847987</v>
       </c>
       <c r="D78" t="n">
-        <v>0.414948</v>
+        <v>1.00296</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.60658</v>
+        <v>1.38003</v>
       </c>
       <c r="C79" t="n">
-        <v>0.361771</v>
+        <v>0.769255</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44363</v>
+        <v>0.8917659999999999</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.608811</v>
+        <v>1.35572</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385578</v>
+        <v>0.726424</v>
       </c>
       <c r="D80" t="n">
-        <v>0.459209</v>
+        <v>0.7902130000000001</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.734657</v>
+        <v>1.25865</v>
       </c>
       <c r="C81" t="n">
-        <v>0.432358</v>
+        <v>0.713378</v>
       </c>
       <c r="D81" t="n">
-        <v>0.475532</v>
+        <v>0.825001</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9547369999999999</v>
+        <v>1.38615</v>
       </c>
       <c r="C82" t="n">
-        <v>0.480486</v>
+        <v>0.809939</v>
       </c>
       <c r="D82" t="n">
-        <v>0.571285</v>
+        <v>0.868518</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.948097</v>
+        <v>1.38687</v>
       </c>
       <c r="C83" t="n">
-        <v>0.613152</v>
+        <v>0.773663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.578528</v>
+        <v>0.855165</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.00576</v>
+        <v>1.3861</v>
       </c>
       <c r="C84" t="n">
-        <v>0.617963</v>
+        <v>0.838688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.635108</v>
+        <v>0.9531500000000001</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.910375</v>
+        <v>1.42801</v>
       </c>
       <c r="C85" t="n">
-        <v>0.462829</v>
+        <v>0.844674</v>
       </c>
       <c r="D85" t="n">
-        <v>0.525544</v>
+        <v>0.97196</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.794934</v>
+        <v>1.43587</v>
       </c>
       <c r="C86" t="n">
-        <v>0.461381</v>
+        <v>0.885495</v>
       </c>
       <c r="D86" t="n">
-        <v>0.733704</v>
+        <v>0.986712</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04086</v>
+        <v>1.4411</v>
       </c>
       <c r="C87" t="n">
-        <v>0.562035</v>
+        <v>0.870596</v>
       </c>
       <c r="D87" t="n">
-        <v>0.644756</v>
+        <v>0.926666</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.12925</v>
+        <v>1.48417</v>
       </c>
       <c r="C88" t="n">
-        <v>0.54525</v>
+        <v>0.9353630000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.699273</v>
+        <v>1.00038</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.26627</v>
+        <v>1.50605</v>
       </c>
       <c r="C89" t="n">
-        <v>0.705058</v>
+        <v>0.930665</v>
       </c>
       <c r="D89" t="n">
-        <v>0.984001</v>
+        <v>1.00026</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.27834</v>
+        <v>1.56703</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7499130000000001</v>
+        <v>0.986912</v>
       </c>
       <c r="D90" t="n">
-        <v>0.715036</v>
+        <v>1.04149</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.35372</v>
+        <v>1.53126</v>
       </c>
       <c r="C91" t="n">
-        <v>0.642652</v>
+        <v>0.982503</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7056480000000001</v>
+        <v>1.12032</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.15711</v>
+        <v>1.63637</v>
       </c>
       <c r="C92" t="n">
-        <v>0.569011</v>
+        <v>0.902553</v>
       </c>
       <c r="D92" t="n">
-        <v>0.706437</v>
+        <v>1.04466</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.12965</v>
+        <v>1.52734</v>
       </c>
       <c r="C93" t="n">
-        <v>0.591847</v>
+        <v>0.926711</v>
       </c>
       <c r="D93" t="n">
-        <v>0.726955</v>
+        <v>1.06089</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.20183</v>
+        <v>1.52839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.629041</v>
+        <v>0.964959</v>
       </c>
       <c r="D94" t="n">
-        <v>0.695191</v>
+        <v>1.01966</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22409</v>
+        <v>1.50441</v>
       </c>
       <c r="C95" t="n">
-        <v>0.575618</v>
+        <v>0.9017269999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.711305</v>
+        <v>0.978062</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19939</v>
+        <v>1.48878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.610795</v>
+        <v>0.936268</v>
       </c>
       <c r="D96" t="n">
-        <v>0.731094</v>
+        <v>1.0427</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20681</v>
+        <v>1.56718</v>
       </c>
       <c r="C97" t="n">
-        <v>0.623686</v>
+        <v>0.972925</v>
       </c>
       <c r="D97" t="n">
-        <v>0.769605</v>
+        <v>1.07776</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.25828</v>
+        <v>1.56076</v>
       </c>
       <c r="C98" t="n">
-        <v>0.672885</v>
+        <v>1.01559</v>
       </c>
       <c r="D98" t="n">
-        <v>0.753809</v>
+        <v>1.09764</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27936</v>
+        <v>1.60428</v>
       </c>
       <c r="C99" t="n">
-        <v>0.738681</v>
+        <v>1.02363</v>
       </c>
       <c r="D99" t="n">
-        <v>0.763537</v>
+        <v>1.15302</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.31329</v>
+        <v>1.62265</v>
       </c>
       <c r="C100" t="n">
-        <v>0.700435</v>
+        <v>1.02896</v>
       </c>
       <c r="D100" t="n">
-        <v>0.920762</v>
+        <v>1.15921</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30422</v>
+        <v>1.62512</v>
       </c>
       <c r="C101" t="n">
-        <v>0.734328</v>
+        <v>1.04127</v>
       </c>
       <c r="D101" t="n">
-        <v>0.848102</v>
+        <v>1.17136</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.39493</v>
+        <v>1.64349</v>
       </c>
       <c r="C102" t="n">
-        <v>0.797316</v>
+        <v>1.05576</v>
       </c>
       <c r="D102" t="n">
-        <v>0.927789</v>
+        <v>1.22121</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31791</v>
+        <v>1.65906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.839819</v>
+        <v>1.06881</v>
       </c>
       <c r="D103" t="n">
-        <v>0.957053</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.38594</v>
+        <v>1.653</v>
       </c>
       <c r="C104" t="n">
-        <v>0.810893</v>
+        <v>1.12208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.974395</v>
+        <v>1.2661</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.5325</v>
+        <v>1.56041</v>
       </c>
       <c r="C105" t="n">
-        <v>0.868888</v>
+        <v>1.10954</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08541</v>
+        <v>1.2333</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.46764</v>
+        <v>1.56492</v>
       </c>
       <c r="C106" t="n">
-        <v>0.833769</v>
+        <v>1.0956</v>
       </c>
       <c r="D106" t="n">
-        <v>0.981504</v>
+        <v>1.18382</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.40965</v>
+        <v>1.45007</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8410530000000001</v>
+        <v>0.929057</v>
       </c>
       <c r="D107" t="n">
-        <v>0.92464</v>
+        <v>1.06507</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38074</v>
+        <v>1.46759</v>
       </c>
       <c r="C108" t="n">
-        <v>0.832106</v>
+        <v>0.980316</v>
       </c>
       <c r="D108" t="n">
-        <v>1.00072</v>
+        <v>1.0954</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46537</v>
+        <v>1.5437</v>
       </c>
       <c r="C109" t="n">
-        <v>0.874633</v>
+        <v>0.991864</v>
       </c>
       <c r="D109" t="n">
-        <v>1.02601</v>
+        <v>1.13908</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48188</v>
+        <v>1.55881</v>
       </c>
       <c r="C110" t="n">
-        <v>0.905802</v>
+        <v>1.01373</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08732</v>
+        <v>1.17113</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.49977</v>
+        <v>1.5497</v>
       </c>
       <c r="C111" t="n">
-        <v>0.864895</v>
+        <v>1.02333</v>
       </c>
       <c r="D111" t="n">
-        <v>0.941479</v>
+        <v>1.14034</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.3916</v>
+        <v>1.56626</v>
       </c>
       <c r="C112" t="n">
-        <v>0.863915</v>
+        <v>1.04653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.996886</v>
+        <v>1.15603</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44033</v>
+        <v>1.5747</v>
       </c>
       <c r="C113" t="n">
-        <v>0.912753</v>
+        <v>1.06969</v>
       </c>
       <c r="D113" t="n">
-        <v>1.00719</v>
+        <v>1.18773</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46825</v>
+        <v>1.58887</v>
       </c>
       <c r="C114" t="n">
-        <v>0.897802</v>
+        <v>1.06898</v>
       </c>
       <c r="D114" t="n">
-        <v>1.01033</v>
+        <v>1.18232</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.42073</v>
+        <v>1.5842</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9077460000000001</v>
+        <v>1.10023</v>
       </c>
       <c r="D115" t="n">
-        <v>1.04062</v>
+        <v>1.23877</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.41433</v>
+        <v>1.61194</v>
       </c>
       <c r="C116" t="n">
-        <v>0.956291</v>
+        <v>1.11567</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03814</v>
+        <v>1.26622</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.44291</v>
+        <v>1.65854</v>
       </c>
       <c r="C117" t="n">
-        <v>0.95002</v>
+        <v>1.14416</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02364</v>
+        <v>1.31012</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.44826</v>
+        <v>1.69838</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00253</v>
+        <v>1.17325</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06572</v>
+        <v>1.29244</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.50428</v>
+        <v>1.7044</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02784</v>
+        <v>1.20546</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17117</v>
+        <v>1.33036</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.325937</v>
+        <v>0.454673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237337</v>
+        <v>0.317019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.209503</v>
+        <v>0.30931</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293329</v>
+        <v>0.451826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215374</v>
+        <v>0.320464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209332</v>
+        <v>0.303835</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29942</v>
+        <v>0.473606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.217456</v>
+        <v>0.331417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212408</v>
+        <v>0.319132</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.301275</v>
+        <v>0.484212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222192</v>
+        <v>0.333162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213249</v>
+        <v>0.322236</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.300531</v>
+        <v>0.486274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227453</v>
+        <v>0.351885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217612</v>
+        <v>0.320251</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.312236</v>
+        <v>0.504012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236797</v>
+        <v>0.332593</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24584</v>
+        <v>0.33282</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.338663</v>
+        <v>0.51227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241516</v>
+        <v>0.336348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.249182</v>
+        <v>0.338559</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.341047</v>
+        <v>0.522006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.245012</v>
+        <v>0.342914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25065</v>
+        <v>0.339463</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339899</v>
+        <v>0.535724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246563</v>
+        <v>0.347667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251413</v>
+        <v>0.346673</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345038</v>
+        <v>0.547509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243583</v>
+        <v>0.357131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250666</v>
+        <v>0.347346</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.34501</v>
+        <v>0.551554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25152</v>
+        <v>0.371483</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253444</v>
+        <v>0.357673</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.351509</v>
+        <v>0.5648840000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249485</v>
+        <v>0.364794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255305</v>
+        <v>0.364243</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351869</v>
+        <v>0.5739919999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.252187</v>
+        <v>0.40061</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2603</v>
+        <v>0.35944</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.36623</v>
+        <v>0.592645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.259137</v>
+        <v>0.385007</v>
       </c>
       <c r="D15" t="n">
-        <v>0.261465</v>
+        <v>0.370461</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.365406</v>
+        <v>0.599642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.263565</v>
+        <v>0.402801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.262366</v>
+        <v>0.375883</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.371025</v>
+        <v>0.612725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.266579</v>
+        <v>0.403619</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265404</v>
+        <v>0.373968</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.371652</v>
+        <v>0.624995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273999</v>
+        <v>0.409187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.267544</v>
+        <v>0.380109</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.37542</v>
+        <v>0.625123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.275184</v>
+        <v>0.417153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.270674</v>
+        <v>0.388331</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.380351</v>
+        <v>0.634617</v>
       </c>
       <c r="C20" t="n">
-        <v>0.282207</v>
+        <v>0.436959</v>
       </c>
       <c r="D20" t="n">
-        <v>0.271389</v>
+        <v>0.399942</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.387643</v>
+        <v>0.645936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.259593</v>
+        <v>0.395702</v>
       </c>
       <c r="D21" t="n">
-        <v>0.266434</v>
+        <v>0.398106</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.362014</v>
+        <v>0.614559</v>
       </c>
       <c r="C22" t="n">
-        <v>0.264401</v>
+        <v>0.407628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269658</v>
+        <v>0.404293</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.371484</v>
+        <v>0.633424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266889</v>
+        <v>0.407196</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267433</v>
+        <v>0.399303</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.373264</v>
+        <v>0.636116</v>
       </c>
       <c r="C24" t="n">
-        <v>0.272449</v>
+        <v>0.428647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269857</v>
+        <v>0.414432</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.378039</v>
+        <v>0.654052</v>
       </c>
       <c r="C25" t="n">
-        <v>0.279953</v>
+        <v>0.450288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274899</v>
+        <v>0.416107</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.378699</v>
+        <v>0.650162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.281326</v>
+        <v>0.439872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278008</v>
+        <v>0.429047</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.394852</v>
+        <v>0.672129</v>
       </c>
       <c r="C27" t="n">
-        <v>0.288432</v>
+        <v>0.451881</v>
       </c>
       <c r="D27" t="n">
-        <v>0.27844</v>
+        <v>0.42345</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.398312</v>
+        <v>0.668766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.291666</v>
+        <v>0.463234</v>
       </c>
       <c r="D28" t="n">
-        <v>0.280134</v>
+        <v>0.435179</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.411425</v>
+        <v>0.698406</v>
       </c>
       <c r="C29" t="n">
-        <v>0.294414</v>
+        <v>0.463728</v>
       </c>
       <c r="D29" t="n">
-        <v>0.282598</v>
+        <v>0.435426</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.416442</v>
+        <v>0.686901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.305875</v>
+        <v>0.484226</v>
       </c>
       <c r="D30" t="n">
-        <v>0.288125</v>
+        <v>0.44444</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.427183</v>
+        <v>0.703375</v>
       </c>
       <c r="C31" t="n">
-        <v>0.304981</v>
+        <v>0.482221</v>
       </c>
       <c r="D31" t="n">
-        <v>0.289032</v>
+        <v>0.449699</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.438064</v>
+        <v>0.711261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.316819</v>
+        <v>0.494421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293509</v>
+        <v>0.448935</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.445418</v>
+        <v>0.724526</v>
       </c>
       <c r="C33" t="n">
-        <v>0.327073</v>
+        <v>0.508567</v>
       </c>
       <c r="D33" t="n">
-        <v>0.300313</v>
+        <v>0.455304</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.450571</v>
+        <v>0.727615</v>
       </c>
       <c r="C34" t="n">
-        <v>0.330541</v>
+        <v>0.518104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.304584</v>
+        <v>0.461268</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.465696</v>
+        <v>0.7272149999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273517</v>
+        <v>0.423512</v>
       </c>
       <c r="D35" t="n">
-        <v>0.279152</v>
+        <v>0.432641</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.460491</v>
+        <v>0.708497</v>
       </c>
       <c r="C36" t="n">
-        <v>0.28416</v>
+        <v>0.450204</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282713</v>
+        <v>0.450369</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.471222</v>
+        <v>0.718655</v>
       </c>
       <c r="C37" t="n">
-        <v>0.290199</v>
+        <v>0.439864</v>
       </c>
       <c r="D37" t="n">
-        <v>0.285679</v>
+        <v>0.437649</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.477363</v>
+        <v>0.723946</v>
       </c>
       <c r="C38" t="n">
-        <v>0.298741</v>
+        <v>0.448417</v>
       </c>
       <c r="D38" t="n">
-        <v>0.289502</v>
+        <v>0.443551</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.488501</v>
+        <v>0.7302959999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.307278</v>
+        <v>0.450411</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296831</v>
+        <v>0.446696</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.497943</v>
+        <v>0.734189</v>
       </c>
       <c r="C40" t="n">
-        <v>0.314988</v>
+        <v>0.456625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.303988</v>
+        <v>0.448377</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5105460000000001</v>
+        <v>0.742601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322596</v>
+        <v>0.468171</v>
       </c>
       <c r="D41" t="n">
-        <v>0.306322</v>
+        <v>0.458201</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.521128</v>
+        <v>0.7719</v>
       </c>
       <c r="C42" t="n">
-        <v>0.326937</v>
+        <v>0.466976</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313895</v>
+        <v>0.44715</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.53368</v>
+        <v>0.7558510000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.336753</v>
+        <v>0.476832</v>
       </c>
       <c r="D43" t="n">
-        <v>0.317582</v>
+        <v>0.456203</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542782</v>
+        <v>0.772358</v>
       </c>
       <c r="C44" t="n">
-        <v>0.344787</v>
+        <v>0.47685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.322358</v>
+        <v>0.465504</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.549943</v>
+        <v>0.775741</v>
       </c>
       <c r="C45" t="n">
-        <v>0.352855</v>
+        <v>0.480381</v>
       </c>
       <c r="D45" t="n">
-        <v>0.330624</v>
+        <v>0.467513</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562304</v>
+        <v>0.773479</v>
       </c>
       <c r="C46" t="n">
-        <v>0.359515</v>
+        <v>0.488038</v>
       </c>
       <c r="D46" t="n">
-        <v>0.335306</v>
+        <v>0.46591</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5829299999999999</v>
+        <v>0.797309</v>
       </c>
       <c r="C47" t="n">
-        <v>0.369545</v>
+        <v>0.493456</v>
       </c>
       <c r="D47" t="n">
-        <v>0.341943</v>
+        <v>0.473859</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.58557</v>
+        <v>0.816076</v>
       </c>
       <c r="C48" t="n">
-        <v>0.379848</v>
+        <v>0.5023339999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.349326</v>
+        <v>0.480905</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.60204</v>
+        <v>0.828423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.388017</v>
+        <v>0.520439</v>
       </c>
       <c r="D49" t="n">
-        <v>0.356381</v>
+        <v>0.484637</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.615192</v>
+        <v>0.8481070000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.368462</v>
+        <v>0.518724</v>
       </c>
       <c r="D50" t="n">
-        <v>0.350497</v>
+        <v>0.477748</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.569858</v>
+        <v>0.86892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.376141</v>
+        <v>0.529336</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356234</v>
+        <v>0.480032</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575583</v>
+        <v>0.870785</v>
       </c>
       <c r="C52" t="n">
-        <v>0.382558</v>
+        <v>0.512684</v>
       </c>
       <c r="D52" t="n">
-        <v>0.35994</v>
+        <v>0.465507</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.588346</v>
+        <v>0.884425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.389934</v>
+        <v>0.5303369999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.367677</v>
+        <v>0.48453</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.592731</v>
+        <v>0.891871</v>
       </c>
       <c r="C54" t="n">
-        <v>0.398519</v>
+        <v>0.535843</v>
       </c>
       <c r="D54" t="n">
-        <v>0.376631</v>
+        <v>0.49279</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.609396</v>
+        <v>0.920422</v>
       </c>
       <c r="C55" t="n">
-        <v>0.407132</v>
+        <v>0.564771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.378536</v>
+        <v>0.499885</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.633351</v>
+        <v>0.962467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.410739</v>
+        <v>0.553862</v>
       </c>
       <c r="D56" t="n">
-        <v>0.382694</v>
+        <v>0.500687</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.609609</v>
+        <v>0.946811</v>
       </c>
       <c r="C57" t="n">
-        <v>0.420528</v>
+        <v>0.562629</v>
       </c>
       <c r="D57" t="n">
-        <v>0.385891</v>
+        <v>0.506443</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.630101</v>
+        <v>0.987523</v>
       </c>
       <c r="C58" t="n">
-        <v>0.436592</v>
+        <v>0.589225</v>
       </c>
       <c r="D58" t="n">
-        <v>0.394874</v>
+        <v>0.518714</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6432020000000001</v>
+        <v>0.96875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.452808</v>
+        <v>0.597403</v>
       </c>
       <c r="D59" t="n">
-        <v>0.406508</v>
+        <v>0.526347</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.663548</v>
+        <v>1.02613</v>
       </c>
       <c r="C60" t="n">
-        <v>0.463979</v>
+        <v>0.621031</v>
       </c>
       <c r="D60" t="n">
-        <v>0.412845</v>
+        <v>0.531381</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.696781</v>
+        <v>1.04553</v>
       </c>
       <c r="C61" t="n">
-        <v>0.486262</v>
+        <v>0.63731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.421883</v>
+        <v>0.534466</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.711016</v>
+        <v>1.04289</v>
       </c>
       <c r="C62" t="n">
-        <v>0.49639</v>
+        <v>0.650621</v>
       </c>
       <c r="D62" t="n">
-        <v>0.429719</v>
+        <v>0.545144</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.715077</v>
+        <v>1.08693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.513549</v>
+        <v>0.659402</v>
       </c>
       <c r="D63" t="n">
-        <v>0.446674</v>
+        <v>0.565011</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7611</v>
+        <v>1.11041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.436786</v>
+        <v>0.607623</v>
       </c>
       <c r="D64" t="n">
-        <v>0.401801</v>
+        <v>0.558379</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.687504</v>
+        <v>1.10528</v>
       </c>
       <c r="C65" t="n">
-        <v>0.449987</v>
+        <v>0.550009</v>
       </c>
       <c r="D65" t="n">
-        <v>0.43394</v>
+        <v>0.51463</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.718954</v>
+        <v>1.14216</v>
       </c>
       <c r="C66" t="n">
-        <v>0.460442</v>
+        <v>0.631348</v>
       </c>
       <c r="D66" t="n">
-        <v>0.415069</v>
+        <v>0.570116</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.737251</v>
+        <v>1.17377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.46056</v>
+        <v>0.647443</v>
       </c>
       <c r="D67" t="n">
-        <v>0.415244</v>
+        <v>0.585525</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.705807</v>
+        <v>1.14715</v>
       </c>
       <c r="C68" t="n">
-        <v>0.468167</v>
+        <v>0.647903</v>
       </c>
       <c r="D68" t="n">
-        <v>0.424943</v>
+        <v>0.578272</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.818773</v>
+        <v>1.01998</v>
       </c>
       <c r="C69" t="n">
-        <v>0.472236</v>
+        <v>0.646234</v>
       </c>
       <c r="D69" t="n">
-        <v>0.422777</v>
+        <v>0.592774</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.754688</v>
+        <v>1.07157</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5084649999999999</v>
+        <v>0.659087</v>
       </c>
       <c r="D70" t="n">
-        <v>0.447583</v>
+        <v>0.592709</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.874553</v>
+        <v>1.27958</v>
       </c>
       <c r="C71" t="n">
-        <v>0.510781</v>
+        <v>0.682831</v>
       </c>
       <c r="D71" t="n">
-        <v>0.452861</v>
+        <v>0.591248</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04306</v>
+        <v>1.27189</v>
       </c>
       <c r="C72" t="n">
-        <v>0.57284</v>
+        <v>0.706193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484145</v>
+        <v>0.6108980000000001</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.05448</v>
+        <v>1.28252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.622933</v>
+        <v>0.718282</v>
       </c>
       <c r="D73" t="n">
-        <v>0.524273</v>
+        <v>0.6104619999999999</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.22227</v>
+        <v>1.33673</v>
       </c>
       <c r="C74" t="n">
-        <v>0.637575</v>
+        <v>0.744603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.511614</v>
+        <v>0.624408</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.961433</v>
+        <v>1.39439</v>
       </c>
       <c r="C75" t="n">
-        <v>0.56569</v>
+        <v>0.7345120000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.503368</v>
+        <v>0.638177</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.25844</v>
+        <v>1.40498</v>
       </c>
       <c r="C76" t="n">
-        <v>0.691733</v>
+        <v>0.761653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.561781</v>
+        <v>0.688339</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31753</v>
+        <v>1.61153</v>
       </c>
       <c r="C77" t="n">
-        <v>0.839346</v>
+        <v>0.801011</v>
       </c>
       <c r="D77" t="n">
-        <v>0.624021</v>
+        <v>0.663675</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.42457</v>
+        <v>1.51563</v>
       </c>
       <c r="C78" t="n">
-        <v>0.687398</v>
+        <v>0.602041</v>
       </c>
       <c r="D78" t="n">
-        <v>0.637794</v>
+        <v>0.607981</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.29068</v>
+        <v>1.30257</v>
       </c>
       <c r="C79" t="n">
-        <v>0.628522</v>
+        <v>0.632305</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5947170000000001</v>
+        <v>0.569393</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.22742</v>
+        <v>1.36393</v>
       </c>
       <c r="C80" t="n">
-        <v>0.631621</v>
+        <v>0.6444530000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.578249</v>
+        <v>0.563754</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12902</v>
+        <v>1.36494</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6460939999999999</v>
+        <v>0.649165</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6224229999999999</v>
+        <v>0.578116</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3747</v>
+        <v>1.5323</v>
       </c>
       <c r="C82" t="n">
-        <v>0.793093</v>
+        <v>0.680729</v>
       </c>
       <c r="D82" t="n">
-        <v>0.680426</v>
+        <v>0.606968</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.29295</v>
+        <v>1.47865</v>
       </c>
       <c r="C83" t="n">
-        <v>0.849028</v>
+        <v>0.75919</v>
       </c>
       <c r="D83" t="n">
-        <v>0.700202</v>
+        <v>0.637468</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.54208</v>
+        <v>1.73777</v>
       </c>
       <c r="C84" t="n">
-        <v>0.758539</v>
+        <v>0.710771</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6831199999999999</v>
+        <v>0.635208</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.24622</v>
+        <v>1.66469</v>
       </c>
       <c r="C85" t="n">
-        <v>0.890585</v>
+        <v>0.752055</v>
       </c>
       <c r="D85" t="n">
-        <v>0.771295</v>
+        <v>0.653491</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57778</v>
+        <v>1.27564</v>
       </c>
       <c r="C86" t="n">
-        <v>0.925826</v>
+        <v>0.519566</v>
       </c>
       <c r="D86" t="n">
-        <v>0.768937</v>
+        <v>0.49349</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.54682</v>
+        <v>1.12751</v>
       </c>
       <c r="C87" t="n">
-        <v>0.948376</v>
+        <v>0.564553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6598619999999999</v>
+        <v>0.49762</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66391</v>
+        <v>1.04188</v>
       </c>
       <c r="C88" t="n">
-        <v>1.00405</v>
+        <v>0.549272</v>
       </c>
       <c r="D88" t="n">
-        <v>0.894747</v>
+        <v>0.54755</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.79927</v>
+        <v>1.38804</v>
       </c>
       <c r="C89" t="n">
-        <v>1.16835</v>
+        <v>0.62577</v>
       </c>
       <c r="D89" t="n">
-        <v>1.02623</v>
+        <v>0.529832</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.81659</v>
+        <v>1.39473</v>
       </c>
       <c r="C90" t="n">
-        <v>1.20388</v>
+        <v>0.61032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.961008</v>
+        <v>0.542595</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.83445</v>
+        <v>1.36465</v>
       </c>
       <c r="C91" t="n">
-        <v>1.22919</v>
+        <v>0.634001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.876214</v>
+        <v>0.574723</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.86686</v>
+        <v>1.72428</v>
       </c>
       <c r="C92" t="n">
-        <v>1.02946</v>
+        <v>0.579918</v>
       </c>
       <c r="D92" t="n">
-        <v>0.97694</v>
+        <v>0.626565</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.71656</v>
+        <v>1.73959</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07085</v>
+        <v>0.689469</v>
       </c>
       <c r="D93" t="n">
-        <v>0.852119</v>
+        <v>0.694393</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.67366</v>
+        <v>2.03051</v>
       </c>
       <c r="C94" t="n">
-        <v>1.09187</v>
+        <v>0.790541</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03649</v>
+        <v>0.63128</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.70785</v>
+        <v>2.02348</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12805</v>
+        <v>0.7705</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03155</v>
+        <v>0.76129</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.6963</v>
+        <v>2.28775</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15852</v>
+        <v>0.844862</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02923</v>
+        <v>0.755104</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.80115</v>
+        <v>2.31203</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19375</v>
+        <v>0.907085</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03338</v>
+        <v>0.77563</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.87692</v>
+        <v>2.01015</v>
       </c>
       <c r="C98" t="n">
-        <v>1.236</v>
+        <v>0.83639</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06621</v>
+        <v>0.737783</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.85591</v>
+        <v>2.22976</v>
       </c>
       <c r="C99" t="n">
-        <v>1.23769</v>
+        <v>1.02682</v>
       </c>
       <c r="D99" t="n">
-        <v>1.06852</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.94569</v>
+        <v>2.38218</v>
       </c>
       <c r="C100" t="n">
-        <v>1.32144</v>
+        <v>0.952219</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10781</v>
+        <v>0.765312</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.94525</v>
+        <v>2.263</v>
       </c>
       <c r="C101" t="n">
-        <v>1.31644</v>
+        <v>0.96285</v>
       </c>
       <c r="D101" t="n">
-        <v>1.12222</v>
+        <v>0.846839</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.99126</v>
+        <v>2.48112</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33941</v>
+        <v>0.9996620000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20806</v>
+        <v>0.953882</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.0648</v>
+        <v>2.55743</v>
       </c>
       <c r="C103" t="n">
-        <v>1.38786</v>
+        <v>1.07656</v>
       </c>
       <c r="D103" t="n">
-        <v>1.22894</v>
+        <v>0.935052</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.11656</v>
+        <v>2.58605</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41705</v>
+        <v>1.03552</v>
       </c>
       <c r="D104" t="n">
-        <v>1.25333</v>
+        <v>1.00216</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.14036</v>
+        <v>2.88115</v>
       </c>
       <c r="C105" t="n">
-        <v>1.47557</v>
+        <v>1.19358</v>
       </c>
       <c r="D105" t="n">
-        <v>1.2468</v>
+        <v>1.05276</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.17833</v>
+        <v>2.82436</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45215</v>
+        <v>1.19849</v>
       </c>
       <c r="D106" t="n">
-        <v>1.26356</v>
+        <v>0.965229</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.93265</v>
+        <v>2.64101</v>
       </c>
       <c r="C107" t="n">
-        <v>1.29399</v>
+        <v>1.0616</v>
       </c>
       <c r="D107" t="n">
-        <v>1.22977</v>
+        <v>1.00971</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.90942</v>
+        <v>2.68356</v>
       </c>
       <c r="C108" t="n">
-        <v>1.28312</v>
+        <v>1.08091</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18594</v>
+        <v>0.956777</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91431</v>
+        <v>2.62393</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32096</v>
+        <v>1.22094</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20696</v>
+        <v>0.975536</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.93813</v>
+        <v>2.7201</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33642</v>
+        <v>1.19394</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20417</v>
+        <v>1.04658</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.9472</v>
+        <v>2.77325</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33441</v>
+        <v>1.22333</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17357</v>
+        <v>1.00448</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.91874</v>
+        <v>2.84276</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31323</v>
+        <v>1.27656</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20526</v>
+        <v>1.14834</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.94298</v>
+        <v>3.09065</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33485</v>
+        <v>1.341</v>
       </c>
       <c r="D113" t="n">
-        <v>1.2132</v>
+        <v>1.17126</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.88412</v>
+        <v>3.11675</v>
       </c>
       <c r="C114" t="n">
-        <v>1.28831</v>
+        <v>1.41808</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17586</v>
+        <v>1.18152</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.88624</v>
+        <v>3.15942</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2889</v>
+        <v>1.35633</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16332</v>
+        <v>1.18081</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.85657</v>
+        <v>3.15863</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32935</v>
+        <v>1.36968</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18213</v>
+        <v>1.21325</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.97127</v>
+        <v>3.20476</v>
       </c>
       <c r="C117" t="n">
-        <v>1.36311</v>
+        <v>1.40719</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21468</v>
+        <v>1.25868</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.97942</v>
+        <v>3.3042</v>
       </c>
       <c r="C118" t="n">
-        <v>1.40156</v>
+        <v>1.50437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23865</v>
+        <v>1.27229</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.02295</v>
+        <v>3.40984</v>
       </c>
       <c r="C119" t="n">
-        <v>1.41346</v>
+        <v>1.50679</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26199</v>
+        <v>1.35737</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.544019</v>
+        <v>0.6799230000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.394408</v>
+        <v>0.492914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313991</v>
+        <v>0.385157</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.55714</v>
+        <v>0.691395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.40032</v>
+        <v>0.5087390000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319218</v>
+        <v>0.39379</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.581249</v>
+        <v>0.739399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419267</v>
+        <v>0.529131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.330083</v>
+        <v>0.394656</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.602066</v>
+        <v>0.759977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.429988</v>
+        <v>0.535878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.336917</v>
+        <v>0.406777</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.599419</v>
+        <v>0.784801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.429309</v>
+        <v>0.540734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.338895</v>
+        <v>0.404266</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.616522</v>
+        <v>0.823065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.453838</v>
+        <v>0.572114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350657</v>
+        <v>0.415698</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.642003</v>
+        <v>0.837463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.471261</v>
+        <v>0.619565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3607</v>
+        <v>0.436916</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661354</v>
+        <v>0.870501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.487933</v>
+        <v>0.647257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374133</v>
+        <v>0.448102</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.659386</v>
+        <v>0.897558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.509294</v>
+        <v>0.674518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.386835</v>
+        <v>0.465259</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.682719</v>
+        <v>0.9484320000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.392015</v>
+        <v>0.5334449999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31303</v>
+        <v>0.386138</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.499923</v>
+        <v>0.716663</v>
       </c>
       <c r="C12" t="n">
-        <v>0.392025</v>
+        <v>0.548129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.312508</v>
+        <v>0.387807</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.51631</v>
+        <v>0.723073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.402555</v>
+        <v>0.564364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325552</v>
+        <v>0.412124</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.516806</v>
+        <v>0.759165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.418874</v>
+        <v>0.5792119999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327697</v>
+        <v>0.415118</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.543458</v>
+        <v>0.810366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429389</v>
+        <v>0.6103460000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.335648</v>
+        <v>0.42711</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.541682</v>
+        <v>0.817588</v>
       </c>
       <c r="C16" t="n">
-        <v>0.444706</v>
+        <v>0.646163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.345039</v>
+        <v>0.449515</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.565753</v>
+        <v>0.875657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.456076</v>
+        <v>0.672422</v>
       </c>
       <c r="D17" t="n">
-        <v>0.354205</v>
+        <v>0.47509</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.578385</v>
+        <v>0.8946730000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.461915</v>
+        <v>0.711519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.354478</v>
+        <v>0.481753</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.600882</v>
+        <v>0.950623</v>
       </c>
       <c r="C19" t="n">
-        <v>0.483346</v>
+        <v>0.724743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.367134</v>
+        <v>0.482122</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.606394</v>
+        <v>0.954035</v>
       </c>
       <c r="C20" t="n">
-        <v>0.502854</v>
+        <v>0.756676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.376941</v>
+        <v>0.499866</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.62627</v>
+        <v>0.985816</v>
       </c>
       <c r="C21" t="n">
-        <v>0.515765</v>
+        <v>0.781271</v>
       </c>
       <c r="D21" t="n">
-        <v>0.389567</v>
+        <v>0.531929</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.651847</v>
+        <v>1.03019</v>
       </c>
       <c r="C22" t="n">
-        <v>0.532627</v>
+        <v>0.812254</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397655</v>
+        <v>0.528527</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.685441</v>
+        <v>1.07692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5510620000000001</v>
+        <v>0.872146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.418505</v>
+        <v>0.563935</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.689974</v>
+        <v>1.10795</v>
       </c>
       <c r="C24" t="n">
-        <v>0.568765</v>
+        <v>0.910064</v>
       </c>
       <c r="D24" t="n">
-        <v>0.422354</v>
+        <v>0.592316</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.706026</v>
+        <v>1.13551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.591898</v>
+        <v>0.93368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.434477</v>
+        <v>0.602054</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.73707</v>
+        <v>1.18813</v>
       </c>
       <c r="C26" t="n">
-        <v>0.39049</v>
+        <v>0.6089560000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.314498</v>
+        <v>0.453595</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.540093</v>
+        <v>0.884002</v>
       </c>
       <c r="C27" t="n">
-        <v>0.395183</v>
+        <v>0.641471</v>
       </c>
       <c r="D27" t="n">
-        <v>0.31658</v>
+        <v>0.473544</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.54827</v>
+        <v>0.914761</v>
       </c>
       <c r="C28" t="n">
-        <v>0.405667</v>
+        <v>0.647248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324014</v>
+        <v>0.483287</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.570903</v>
+        <v>0.928657</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410918</v>
+        <v>0.647888</v>
       </c>
       <c r="D29" t="n">
-        <v>0.326801</v>
+        <v>0.483949</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.597077</v>
+        <v>0.9819</v>
       </c>
       <c r="C30" t="n">
-        <v>0.425323</v>
+        <v>0.688419</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334142</v>
+        <v>0.495995</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.628548</v>
+        <v>1.0184</v>
       </c>
       <c r="C31" t="n">
-        <v>0.439247</v>
+        <v>0.709801</v>
       </c>
       <c r="D31" t="n">
-        <v>0.341832</v>
+        <v>0.517417</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.650487</v>
+        <v>1.02983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.45713</v>
+        <v>0.729436</v>
       </c>
       <c r="D32" t="n">
-        <v>0.350035</v>
+        <v>0.5208700000000001</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.673956</v>
+        <v>1.04196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.477492</v>
+        <v>0.749718</v>
       </c>
       <c r="D33" t="n">
-        <v>0.35973</v>
+        <v>0.53672</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.712978</v>
+        <v>1.10333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.498875</v>
+        <v>0.781104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.369759</v>
+        <v>0.547153</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.747014</v>
+        <v>1.13607</v>
       </c>
       <c r="C35" t="n">
-        <v>0.526811</v>
+        <v>0.853383</v>
       </c>
       <c r="D35" t="n">
-        <v>0.379559</v>
+        <v>0.579252</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.776937</v>
+        <v>1.20693</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5594479999999999</v>
+        <v>0.859066</v>
       </c>
       <c r="D36" t="n">
-        <v>0.392052</v>
+        <v>0.590834</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.825986</v>
+        <v>1.19671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.586959</v>
+        <v>0.887935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.404298</v>
+        <v>0.590418</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.862285</v>
+        <v>1.23198</v>
       </c>
       <c r="C38" t="n">
-        <v>0.618909</v>
+        <v>0.916887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.427325</v>
+        <v>0.635208</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.914845</v>
+        <v>1.29151</v>
       </c>
       <c r="C39" t="n">
-        <v>0.654836</v>
+        <v>0.973936</v>
       </c>
       <c r="D39" t="n">
-        <v>0.435908</v>
+        <v>0.6306</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.959604</v>
+        <v>1.32591</v>
       </c>
       <c r="C40" t="n">
-        <v>0.469103</v>
+        <v>0.695175</v>
       </c>
       <c r="D40" t="n">
-        <v>0.355179</v>
+        <v>0.544816</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689131</v>
+        <v>1.00609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487951</v>
+        <v>0.715427</v>
       </c>
       <c r="D41" t="n">
-        <v>0.368033</v>
+        <v>0.552348</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.726951</v>
+        <v>1.02941</v>
       </c>
       <c r="C42" t="n">
-        <v>0.513549</v>
+        <v>0.744432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.380001</v>
+        <v>0.552455</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.755372</v>
+        <v>1.03795</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53517</v>
+        <v>0.749041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.391212</v>
+        <v>0.573318</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.783107</v>
+        <v>1.05964</v>
       </c>
       <c r="C44" t="n">
-        <v>0.569148</v>
+        <v>0.772837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.405357</v>
+        <v>0.581626</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.821562</v>
+        <v>1.08927</v>
       </c>
       <c r="C45" t="n">
-        <v>0.594038</v>
+        <v>0.805195</v>
       </c>
       <c r="D45" t="n">
-        <v>0.419844</v>
+        <v>0.586398</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.851278</v>
+        <v>1.11722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.623928</v>
+        <v>0.835714</v>
       </c>
       <c r="D46" t="n">
-        <v>0.440726</v>
+        <v>0.616015</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.893003</v>
+        <v>1.15347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.653955</v>
+        <v>0.849409</v>
       </c>
       <c r="D47" t="n">
-        <v>0.455944</v>
+        <v>0.626166</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.922813</v>
+        <v>1.17085</v>
       </c>
       <c r="C48" t="n">
-        <v>0.684868</v>
+        <v>0.871829</v>
       </c>
       <c r="D48" t="n">
-        <v>0.47258</v>
+        <v>0.626396</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.968451</v>
+        <v>1.22925</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7214699999999999</v>
+        <v>0.914957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.485379</v>
+        <v>0.636865</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0358</v>
+        <v>1.26233</v>
       </c>
       <c r="C50" t="n">
-        <v>0.765186</v>
+        <v>0.956647</v>
       </c>
       <c r="D50" t="n">
-        <v>0.502956</v>
+        <v>0.653377</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.06962</v>
+        <v>1.28343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.806382</v>
+        <v>0.979235</v>
       </c>
       <c r="D51" t="n">
-        <v>0.538343</v>
+        <v>0.688115</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.12927</v>
+        <v>1.32818</v>
       </c>
       <c r="C52" t="n">
-        <v>0.853441</v>
+        <v>1.03429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.559568</v>
+        <v>0.7170800000000001</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1755</v>
+        <v>1.36419</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8949240000000001</v>
+        <v>1.06175</v>
       </c>
       <c r="D53" t="n">
-        <v>0.583101</v>
+        <v>0.734121</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.20165</v>
+        <v>1.44235</v>
       </c>
       <c r="C54" t="n">
-        <v>0.652426</v>
+        <v>0.869734</v>
       </c>
       <c r="D54" t="n">
-        <v>0.463021</v>
+        <v>0.6040720000000001</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.884592</v>
+        <v>1.12156</v>
       </c>
       <c r="C55" t="n">
-        <v>0.660257</v>
+        <v>0.825323</v>
       </c>
       <c r="D55" t="n">
-        <v>0.498018</v>
+        <v>0.62071</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.998072</v>
+        <v>1.15762</v>
       </c>
       <c r="C56" t="n">
-        <v>0.733595</v>
+        <v>0.870748</v>
       </c>
       <c r="D56" t="n">
-        <v>0.523163</v>
+        <v>0.646232</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.06267</v>
+        <v>1.21705</v>
       </c>
       <c r="C57" t="n">
-        <v>0.735418</v>
+        <v>0.906</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5098200000000001</v>
+        <v>0.6414069999999999</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.05219</v>
+        <v>1.2956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7467240000000001</v>
+        <v>0.941909</v>
       </c>
       <c r="D58" t="n">
-        <v>0.538188</v>
+        <v>0.664494</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.11342</v>
+        <v>1.31879</v>
       </c>
       <c r="C59" t="n">
-        <v>0.828917</v>
+        <v>0.988333</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5829569999999999</v>
+        <v>0.687562</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.17157</v>
+        <v>1.34501</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8343970000000001</v>
+        <v>1.02835</v>
       </c>
       <c r="D60" t="n">
-        <v>0.585217</v>
+        <v>0.708197</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.38517</v>
+        <v>1.44</v>
       </c>
       <c r="C61" t="n">
-        <v>0.896985</v>
+        <v>1.07132</v>
       </c>
       <c r="D61" t="n">
-        <v>0.581022</v>
+        <v>0.73348</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.26303</v>
+        <v>1.5044</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9111590000000001</v>
+        <v>1.10193</v>
       </c>
       <c r="D62" t="n">
-        <v>0.613544</v>
+        <v>0.73815</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.76468</v>
+        <v>1.54019</v>
       </c>
       <c r="C63" t="n">
-        <v>1.21502</v>
+        <v>1.14833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.695481</v>
+        <v>0.796076</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.71676</v>
+        <v>1.56766</v>
       </c>
       <c r="C64" t="n">
-        <v>1.2408</v>
+        <v>1.20999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.703747</v>
+        <v>0.7913559999999999</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.01009</v>
+        <v>1.72321</v>
       </c>
       <c r="C65" t="n">
-        <v>1.44908</v>
+        <v>1.28005</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7693990000000001</v>
+        <v>0.822805</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.01555</v>
+        <v>1.82232</v>
       </c>
       <c r="C66" t="n">
-        <v>1.49067</v>
+        <v>1.39304</v>
       </c>
       <c r="D66" t="n">
-        <v>0.81107</v>
+        <v>0.863827</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.39649</v>
+        <v>1.82773</v>
       </c>
       <c r="C67" t="n">
-        <v>1.7975</v>
+        <v>1.51741</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9286140000000001</v>
+        <v>0.8878509999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.39935</v>
+        <v>1.94285</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0768</v>
+        <v>0.959288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.720794</v>
+        <v>0.702012</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.67097</v>
+        <v>1.51055</v>
       </c>
       <c r="C69" t="n">
-        <v>1.14505</v>
+        <v>1.02787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.707919</v>
+        <v>0.752702</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.94749</v>
+        <v>1.92231</v>
       </c>
       <c r="C70" t="n">
-        <v>1.22671</v>
+        <v>1.10328</v>
       </c>
       <c r="D70" t="n">
-        <v>0.812728</v>
+        <v>0.771298</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.12803</v>
+        <v>1.63861</v>
       </c>
       <c r="C71" t="n">
-        <v>1.27657</v>
+        <v>1.08358</v>
       </c>
       <c r="D71" t="n">
-        <v>0.868323</v>
+        <v>0.755475</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08407</v>
+        <v>1.66447</v>
       </c>
       <c r="C72" t="n">
-        <v>1.33585</v>
+        <v>1.09978</v>
       </c>
       <c r="D72" t="n">
-        <v>0.931779</v>
+        <v>0.7664299999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.39101</v>
+        <v>1.75464</v>
       </c>
       <c r="C73" t="n">
-        <v>1.35527</v>
+        <v>1.15962</v>
       </c>
       <c r="D73" t="n">
-        <v>0.887452</v>
+        <v>0.800603</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.25347</v>
+        <v>1.73567</v>
       </c>
       <c r="C74" t="n">
-        <v>1.66039</v>
+        <v>1.21912</v>
       </c>
       <c r="D74" t="n">
-        <v>0.944116</v>
+        <v>0.828565</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.3571</v>
+        <v>1.93013</v>
       </c>
       <c r="C75" t="n">
-        <v>1.62741</v>
+        <v>1.38475</v>
       </c>
       <c r="D75" t="n">
-        <v>1.04232</v>
+        <v>0.8662</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.60961</v>
+        <v>2.13573</v>
       </c>
       <c r="C76" t="n">
-        <v>1.86224</v>
+        <v>1.36544</v>
       </c>
       <c r="D76" t="n">
-        <v>1.12275</v>
+        <v>0.90565</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.62279</v>
+        <v>2.18805</v>
       </c>
       <c r="C77" t="n">
-        <v>1.98126</v>
+        <v>1.55439</v>
       </c>
       <c r="D77" t="n">
-        <v>1.22419</v>
+        <v>0.960033</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.903</v>
+        <v>2.20081</v>
       </c>
       <c r="C78" t="n">
-        <v>2.13028</v>
+        <v>1.46378</v>
       </c>
       <c r="D78" t="n">
-        <v>1.09508</v>
+        <v>0.945667</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.88033</v>
+        <v>2.1939</v>
       </c>
       <c r="C79" t="n">
-        <v>2.11911</v>
+        <v>1.68052</v>
       </c>
       <c r="D79" t="n">
-        <v>1.32431</v>
+        <v>0.961919</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.27712</v>
+        <v>2.28646</v>
       </c>
       <c r="C80" t="n">
-        <v>2.33927</v>
+        <v>1.62588</v>
       </c>
       <c r="D80" t="n">
-        <v>1.30936</v>
+        <v>1.04192</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.2732</v>
+        <v>2.58791</v>
       </c>
       <c r="C81" t="n">
-        <v>2.43843</v>
+        <v>1.80397</v>
       </c>
       <c r="D81" t="n">
-        <v>1.20231</v>
+        <v>1.07707</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.31515</v>
+        <v>2.79397</v>
       </c>
       <c r="C82" t="n">
-        <v>2.49007</v>
+        <v>1.96976</v>
       </c>
       <c r="D82" t="n">
-        <v>1.39701</v>
+        <v>1.13941</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.40369</v>
+        <v>2.82091</v>
       </c>
       <c r="C83" t="n">
-        <v>1.89237</v>
+        <v>1.44976</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0981</v>
+        <v>0.903245</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.39823</v>
+        <v>2.70742</v>
       </c>
       <c r="C84" t="n">
-        <v>1.73074</v>
+        <v>1.41261</v>
       </c>
       <c r="D84" t="n">
-        <v>1.0601</v>
+        <v>0.934149</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.59937</v>
+        <v>2.33626</v>
       </c>
       <c r="C85" t="n">
-        <v>1.8712</v>
+        <v>1.5181</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12731</v>
+        <v>0.927857</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.69567</v>
+        <v>2.68147</v>
       </c>
       <c r="C86" t="n">
-        <v>1.99805</v>
+        <v>1.82292</v>
       </c>
       <c r="D86" t="n">
-        <v>1.34738</v>
+        <v>1.01259</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.99445</v>
+        <v>2.70744</v>
       </c>
       <c r="C87" t="n">
-        <v>2.07042</v>
+        <v>2.10213</v>
       </c>
       <c r="D87" t="n">
-        <v>1.2787</v>
+        <v>1.07216</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.88946</v>
+        <v>2.66921</v>
       </c>
       <c r="C88" t="n">
-        <v>2.18654</v>
+        <v>1.90918</v>
       </c>
       <c r="D88" t="n">
-        <v>1.38361</v>
+        <v>1.10532</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>3.11046</v>
+        <v>2.69263</v>
       </c>
       <c r="C89" t="n">
-        <v>2.28236</v>
+        <v>1.82196</v>
       </c>
       <c r="D89" t="n">
-        <v>1.43181</v>
+        <v>1.07678</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.15255</v>
+        <v>3.09354</v>
       </c>
       <c r="C90" t="n">
-        <v>2.4132</v>
+        <v>1.96952</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5919</v>
+        <v>1.18918</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.3957</v>
+        <v>3.04079</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48323</v>
+        <v>2.09951</v>
       </c>
       <c r="D91" t="n">
-        <v>1.45851</v>
+        <v>1.265</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.37607</v>
+        <v>4.00985</v>
       </c>
       <c r="C92" t="n">
-        <v>2.56533</v>
+        <v>2.36596</v>
       </c>
       <c r="D92" t="n">
-        <v>1.52867</v>
+        <v>1.36121</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.63859</v>
+        <v>3.95332</v>
       </c>
       <c r="C93" t="n">
-        <v>2.65334</v>
+        <v>2.69421</v>
       </c>
       <c r="D93" t="n">
-        <v>1.69646</v>
+        <v>1.31619</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.66345</v>
+        <v>3.53145</v>
       </c>
       <c r="C94" t="n">
-        <v>2.85482</v>
+        <v>2.50249</v>
       </c>
       <c r="D94" t="n">
-        <v>1.78059</v>
+        <v>1.40919</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.80986</v>
+        <v>3.82913</v>
       </c>
       <c r="C95" t="n">
-        <v>3.08603</v>
+        <v>2.63091</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93147</v>
+        <v>1.47261</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.84003</v>
+        <v>4.11185</v>
       </c>
       <c r="C96" t="n">
-        <v>2.97002</v>
+        <v>3.0951</v>
       </c>
       <c r="D96" t="n">
-        <v>1.90727</v>
+        <v>1.63141</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.10621</v>
+        <v>4.31559</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02918</v>
+        <v>1.87871</v>
       </c>
       <c r="D97" t="n">
-        <v>3.04746</v>
+        <v>1.14016</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.8691</v>
+        <v>3.25251</v>
       </c>
       <c r="C98" t="n">
-        <v>2.086</v>
+        <v>1.91065</v>
       </c>
       <c r="D98" t="n">
-        <v>1.51172</v>
+        <v>1.07221</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.98574</v>
+        <v>3.34704</v>
       </c>
       <c r="C99" t="n">
-        <v>2.15926</v>
+        <v>1.94266</v>
       </c>
       <c r="D99" t="n">
-        <v>1.61821</v>
+        <v>1.16777</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.19649</v>
+        <v>3.69212</v>
       </c>
       <c r="C100" t="n">
-        <v>2.24115</v>
+        <v>2.20302</v>
       </c>
       <c r="D100" t="n">
-        <v>1.52486</v>
+        <v>1.37767</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.16859</v>
+        <v>4.02976</v>
       </c>
       <c r="C101" t="n">
-        <v>2.29739</v>
+        <v>2.24002</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66761</v>
+        <v>1.36532</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.26503</v>
+        <v>3.75225</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31153</v>
+        <v>2.29024</v>
       </c>
       <c r="D102" t="n">
-        <v>1.60687</v>
+        <v>1.43003</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.32565</v>
+        <v>3.92122</v>
       </c>
       <c r="C103" t="n">
-        <v>2.40543</v>
+        <v>2.54496</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67481</v>
+        <v>1.57895</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.41781</v>
+        <v>4.10597</v>
       </c>
       <c r="C104" t="n">
-        <v>2.46835</v>
+        <v>2.58269</v>
       </c>
       <c r="D104" t="n">
-        <v>1.64231</v>
+        <v>1.61641</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.50256</v>
+        <v>4.37083</v>
       </c>
       <c r="C105" t="n">
-        <v>2.62005</v>
+        <v>2.9572</v>
       </c>
       <c r="D105" t="n">
-        <v>1.66027</v>
+        <v>1.46474</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.68187</v>
+        <v>4.63566</v>
       </c>
       <c r="C106" t="n">
-        <v>2.66566</v>
+        <v>2.90378</v>
       </c>
       <c r="D106" t="n">
-        <v>1.91818</v>
+        <v>1.65261</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.77178</v>
+        <v>4.71458</v>
       </c>
       <c r="C107" t="n">
-        <v>2.6877</v>
+        <v>3.04394</v>
       </c>
       <c r="D107" t="n">
-        <v>1.87487</v>
+        <v>1.77272</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.85696</v>
+        <v>4.70997</v>
       </c>
       <c r="C108" t="n">
-        <v>2.90594</v>
+        <v>3.28945</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89036</v>
+        <v>1.87564</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.0313</v>
+        <v>5.11236</v>
       </c>
       <c r="C109" t="n">
-        <v>3.03666</v>
+        <v>3.34791</v>
       </c>
       <c r="D109" t="n">
-        <v>2.04205</v>
+        <v>1.87617</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.20889</v>
+        <v>5.03146</v>
       </c>
       <c r="C110" t="n">
-        <v>3.23068</v>
+        <v>3.49252</v>
       </c>
       <c r="D110" t="n">
-        <v>2.11359</v>
+        <v>2.15412</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.32421</v>
+        <v>5.34619</v>
       </c>
       <c r="C111" t="n">
-        <v>2.13034</v>
+        <v>2.25847</v>
       </c>
       <c r="D111" t="n">
-        <v>1.57843</v>
+        <v>1.43446</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.08373</v>
+        <v>4.22251</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19663</v>
+        <v>2.31587</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62422</v>
+        <v>1.47211</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.19008</v>
+        <v>4.21155</v>
       </c>
       <c r="C113" t="n">
-        <v>2.35542</v>
+        <v>2.55022</v>
       </c>
       <c r="D113" t="n">
-        <v>1.695</v>
+        <v>1.54671</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.25927</v>
+        <v>4.39159</v>
       </c>
       <c r="C114" t="n">
-        <v>2.41563</v>
+        <v>2.57656</v>
       </c>
       <c r="D114" t="n">
-        <v>1.73648</v>
+        <v>1.53628</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.42758</v>
+        <v>4.61982</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42702</v>
+        <v>2.75399</v>
       </c>
       <c r="D115" t="n">
-        <v>1.63877</v>
+        <v>1.62941</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.52569</v>
+        <v>4.6308</v>
       </c>
       <c r="C116" t="n">
-        <v>2.55134</v>
+        <v>2.41978</v>
       </c>
       <c r="D116" t="n">
-        <v>1.76351</v>
+        <v>1.51399</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.67858</v>
+        <v>3.99364</v>
       </c>
       <c r="C117" t="n">
-        <v>2.71327</v>
+        <v>2.30002</v>
       </c>
       <c r="D117" t="n">
-        <v>1.92632</v>
+        <v>1.57089</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.68646</v>
+        <v>3.7873</v>
       </c>
       <c r="C118" t="n">
-        <v>2.79186</v>
+        <v>2.31227</v>
       </c>
       <c r="D118" t="n">
-        <v>2.08053</v>
+        <v>1.40003</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.77577</v>
+        <v>3.84861</v>
       </c>
       <c r="C119" t="n">
-        <v>2.88635</v>
+        <v>2.41543</v>
       </c>
       <c r="D119" t="n">
-        <v>1.9992</v>
+        <v>1.42605</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.348753</v>
+        <v>0.291125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25132</v>
+        <v>0.232654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269848</v>
+        <v>0.242312</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.354125</v>
+        <v>0.29615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.257491</v>
+        <v>0.236081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276566</v>
+        <v>0.246395</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.358165</v>
+        <v>0.2993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261732</v>
+        <v>0.242521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.280984</v>
+        <v>0.251151</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.365436</v>
+        <v>0.307088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268256</v>
+        <v>0.249627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28598</v>
+        <v>0.256407</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.373681</v>
+        <v>0.310911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273283</v>
+        <v>0.254839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290526</v>
+        <v>0.262524</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.378741</v>
+        <v>0.317877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.219468</v>
+        <v>0.214829</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24518</v>
+        <v>0.229492</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.318022</v>
+        <v>0.286315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225387</v>
+        <v>0.217033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.250973</v>
+        <v>0.233899</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.323925</v>
+        <v>0.29216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229163</v>
+        <v>0.220931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256041</v>
+        <v>0.237644</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.329035</v>
+        <v>0.297895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233714</v>
+        <v>0.225529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260765</v>
+        <v>0.242009</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.333792</v>
+        <v>0.303401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237549</v>
+        <v>0.229288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.264023</v>
+        <v>0.24552</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.340601</v>
+        <v>0.310625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241823</v>
+        <v>0.234181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269294</v>
+        <v>0.250938</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.34648</v>
+        <v>0.318732</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24593</v>
+        <v>0.240581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272234</v>
+        <v>0.25626</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.352657</v>
+        <v>0.323651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.250704</v>
+        <v>0.246034</v>
       </c>
       <c r="D14" t="n">
-        <v>0.277531</v>
+        <v>0.262363</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.360663</v>
+        <v>0.330994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2553</v>
+        <v>0.252788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282655</v>
+        <v>0.267255</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.366773</v>
+        <v>0.340923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260651</v>
+        <v>0.260469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289044</v>
+        <v>0.274758</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.372945</v>
+        <v>0.347889</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26677</v>
+        <v>0.267149</v>
       </c>
       <c r="D17" t="n">
-        <v>0.292753</v>
+        <v>0.28117</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378705</v>
+        <v>0.354632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273043</v>
+        <v>0.273078</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298795</v>
+        <v>0.28678</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.386303</v>
+        <v>0.362079</v>
       </c>
       <c r="C19" t="n">
-        <v>0.276286</v>
+        <v>0.278984</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30563</v>
+        <v>0.293021</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.394498</v>
+        <v>0.368357</v>
       </c>
       <c r="C20" t="n">
-        <v>0.280407</v>
+        <v>0.28543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310089</v>
+        <v>0.298607</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.400517</v>
+        <v>0.376329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237218</v>
+        <v>0.238662</v>
       </c>
       <c r="D21" t="n">
-        <v>0.267195</v>
+        <v>0.256029</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.364002</v>
+        <v>0.330895</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243681</v>
+        <v>0.244473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.274781</v>
+        <v>0.26191</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.372753</v>
+        <v>0.335305</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250951</v>
+        <v>0.248148</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279722</v>
+        <v>0.266519</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.383965</v>
+        <v>0.339863</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254696</v>
+        <v>0.254595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.284628</v>
+        <v>0.27342</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.392241</v>
+        <v>0.345099</v>
       </c>
       <c r="C25" t="n">
-        <v>0.260082</v>
+        <v>0.25851</v>
       </c>
       <c r="D25" t="n">
-        <v>0.291979</v>
+        <v>0.276896</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.400676</v>
+        <v>0.350554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266466</v>
+        <v>0.26397</v>
       </c>
       <c r="D26" t="n">
-        <v>0.296595</v>
+        <v>0.281709</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.409968</v>
+        <v>0.356483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.272637</v>
+        <v>0.269757</v>
       </c>
       <c r="D27" t="n">
-        <v>0.302758</v>
+        <v>0.288507</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.416647</v>
+        <v>0.361252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.279453</v>
+        <v>0.277939</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31138</v>
+        <v>0.295123</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.424399</v>
+        <v>0.367651</v>
       </c>
       <c r="C29" t="n">
-        <v>0.287209</v>
+        <v>0.28408</v>
       </c>
       <c r="D29" t="n">
-        <v>0.320152</v>
+        <v>0.302103</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.433444</v>
+        <v>0.37387</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294049</v>
+        <v>0.290528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326776</v>
+        <v>0.306454</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.441451</v>
+        <v>0.380331</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301563</v>
+        <v>0.29698</v>
       </c>
       <c r="D31" t="n">
-        <v>0.334208</v>
+        <v>0.31352</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.450108</v>
+        <v>0.38587</v>
       </c>
       <c r="C32" t="n">
-        <v>0.308278</v>
+        <v>0.301856</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341939</v>
+        <v>0.319836</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.459017</v>
+        <v>0.391212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316579</v>
+        <v>0.308421</v>
       </c>
       <c r="D33" t="n">
-        <v>0.351454</v>
+        <v>0.325341</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.468686</v>
+        <v>0.398306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324533</v>
+        <v>0.314777</v>
       </c>
       <c r="D34" t="n">
-        <v>0.361248</v>
+        <v>0.33142</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.480257</v>
+        <v>0.405227</v>
       </c>
       <c r="C35" t="n">
-        <v>0.285064</v>
+        <v>0.251923</v>
       </c>
       <c r="D35" t="n">
-        <v>0.317997</v>
+        <v>0.27126</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441383</v>
+        <v>0.349627</v>
       </c>
       <c r="C36" t="n">
-        <v>0.28872</v>
+        <v>0.256024</v>
       </c>
       <c r="D36" t="n">
-        <v>0.321898</v>
+        <v>0.275045</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447053</v>
+        <v>0.353471</v>
       </c>
       <c r="C37" t="n">
-        <v>0.294389</v>
+        <v>0.260942</v>
       </c>
       <c r="D37" t="n">
-        <v>0.326551</v>
+        <v>0.279385</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.454141</v>
+        <v>0.357749</v>
       </c>
       <c r="C38" t="n">
-        <v>0.302107</v>
+        <v>0.267073</v>
       </c>
       <c r="D38" t="n">
-        <v>0.333993</v>
+        <v>0.285118</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.460446</v>
+        <v>0.362276</v>
       </c>
       <c r="C39" t="n">
-        <v>0.306462</v>
+        <v>0.271752</v>
       </c>
       <c r="D39" t="n">
-        <v>0.341568</v>
+        <v>0.292007</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.467028</v>
+        <v>0.366962</v>
       </c>
       <c r="C40" t="n">
-        <v>0.312821</v>
+        <v>0.277768</v>
       </c>
       <c r="D40" t="n">
-        <v>0.347365</v>
+        <v>0.29653</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.471806</v>
+        <v>0.371621</v>
       </c>
       <c r="C41" t="n">
-        <v>0.316848</v>
+        <v>0.28329</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353171</v>
+        <v>0.302412</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.47765</v>
+        <v>0.378387</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322796</v>
+        <v>0.288961</v>
       </c>
       <c r="D42" t="n">
-        <v>0.357873</v>
+        <v>0.308161</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.485225</v>
+        <v>0.383789</v>
       </c>
       <c r="C43" t="n">
-        <v>0.329179</v>
+        <v>0.295976</v>
       </c>
       <c r="D43" t="n">
-        <v>0.364544</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.492488</v>
+        <v>0.3898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.336353</v>
+        <v>0.301397</v>
       </c>
       <c r="D44" t="n">
-        <v>0.370847</v>
+        <v>0.320949</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.500049</v>
+        <v>0.395958</v>
       </c>
       <c r="C45" t="n">
-        <v>0.342837</v>
+        <v>0.30787</v>
       </c>
       <c r="D45" t="n">
-        <v>0.378212</v>
+        <v>0.327012</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506956</v>
+        <v>0.402384</v>
       </c>
       <c r="C46" t="n">
-        <v>0.34996</v>
+        <v>0.313442</v>
       </c>
       <c r="D46" t="n">
-        <v>0.385309</v>
+        <v>0.333195</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.517844</v>
+        <v>0.408571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.356363</v>
+        <v>0.320131</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392511</v>
+        <v>0.339709</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.524786</v>
+        <v>0.414619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.363363</v>
+        <v>0.325702</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401185</v>
+        <v>0.345167</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.532514</v>
+        <v>0.419791</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370272</v>
+        <v>0.330742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.408549</v>
+        <v>0.349548</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.550025</v>
+        <v>0.427015</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316303</v>
+        <v>0.263921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.352574</v>
+        <v>0.276731</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.495148</v>
+        <v>0.362991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.324324</v>
+        <v>0.268879</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359528</v>
+        <v>0.281414</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.508247</v>
+        <v>0.367021</v>
       </c>
       <c r="C52" t="n">
-        <v>0.330509</v>
+        <v>0.273523</v>
       </c>
       <c r="D52" t="n">
-        <v>0.366501</v>
+        <v>0.285972</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.507076</v>
+        <v>0.371644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.341316</v>
+        <v>0.278926</v>
       </c>
       <c r="D53" t="n">
-        <v>0.387884</v>
+        <v>0.291121</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.521692</v>
+        <v>0.376105</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346873</v>
+        <v>0.285617</v>
       </c>
       <c r="D54" t="n">
-        <v>0.415286</v>
+        <v>0.296712</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615905</v>
+        <v>0.379365</v>
       </c>
       <c r="C55" t="n">
-        <v>0.366759</v>
+        <v>0.292</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441522</v>
+        <v>0.303374</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.579344</v>
+        <v>0.385997</v>
       </c>
       <c r="C56" t="n">
-        <v>0.381891</v>
+        <v>0.297807</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417786</v>
+        <v>0.30846</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.588495</v>
+        <v>0.39192</v>
       </c>
       <c r="C57" t="n">
-        <v>0.382463</v>
+        <v>0.302173</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417406</v>
+        <v>0.314224</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.604535</v>
+        <v>0.3982</v>
       </c>
       <c r="C58" t="n">
-        <v>0.38999</v>
+        <v>0.308317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.454759</v>
+        <v>0.320524</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.614135</v>
+        <v>0.403744</v>
       </c>
       <c r="C59" t="n">
-        <v>0.406484</v>
+        <v>0.314377</v>
       </c>
       <c r="D59" t="n">
-        <v>0.460224</v>
+        <v>0.326274</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.66597</v>
+        <v>0.409951</v>
       </c>
       <c r="C60" t="n">
-        <v>0.424859</v>
+        <v>0.32182</v>
       </c>
       <c r="D60" t="n">
-        <v>0.476057</v>
+        <v>0.332368</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6759230000000001</v>
+        <v>0.41571</v>
       </c>
       <c r="C61" t="n">
-        <v>0.437507</v>
+        <v>0.326719</v>
       </c>
       <c r="D61" t="n">
-        <v>0.49486</v>
+        <v>0.338349</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.704928</v>
+        <v>0.422443</v>
       </c>
       <c r="C62" t="n">
-        <v>0.445151</v>
+        <v>0.333392</v>
       </c>
       <c r="D62" t="n">
-        <v>0.566858</v>
+        <v>0.344519</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.776662</v>
+        <v>0.428407</v>
       </c>
       <c r="C63" t="n">
-        <v>0.468878</v>
+        <v>0.33829</v>
       </c>
       <c r="D63" t="n">
-        <v>0.594687</v>
+        <v>0.350361</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.923025</v>
+        <v>0.434422</v>
       </c>
       <c r="C64" t="n">
-        <v>0.406135</v>
+        <v>0.274691</v>
       </c>
       <c r="D64" t="n">
-        <v>0.530288</v>
+        <v>0.28893</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.749482</v>
+        <v>0.396513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.471288</v>
+        <v>0.28035</v>
       </c>
       <c r="D65" t="n">
-        <v>0.537234</v>
+        <v>0.300264</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.984645</v>
+        <v>0.401195</v>
       </c>
       <c r="C66" t="n">
-        <v>0.459737</v>
+        <v>0.286972</v>
       </c>
       <c r="D66" t="n">
-        <v>0.562389</v>
+        <v>0.302122</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.03659</v>
+        <v>0.409319</v>
       </c>
       <c r="C67" t="n">
-        <v>0.541591</v>
+        <v>0.293829</v>
       </c>
       <c r="D67" t="n">
-        <v>0.656138</v>
+        <v>0.307131</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.956326</v>
+        <v>0.419126</v>
       </c>
       <c r="C68" t="n">
-        <v>0.516329</v>
+        <v>0.30071</v>
       </c>
       <c r="D68" t="n">
-        <v>0.572168</v>
+        <v>0.314522</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.854026</v>
+        <v>0.43387</v>
       </c>
       <c r="C69" t="n">
-        <v>0.496654</v>
+        <v>0.307926</v>
       </c>
       <c r="D69" t="n">
-        <v>0.558203</v>
+        <v>0.32401</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.862764</v>
+        <v>0.444827</v>
       </c>
       <c r="C70" t="n">
-        <v>0.517709</v>
+        <v>0.316114</v>
       </c>
       <c r="D70" t="n">
-        <v>0.588106</v>
+        <v>0.32722</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9296720000000001</v>
+        <v>0.448629</v>
       </c>
       <c r="C71" t="n">
-        <v>0.537438</v>
+        <v>0.322074</v>
       </c>
       <c r="D71" t="n">
-        <v>0.635135</v>
+        <v>0.335957</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.00174</v>
+        <v>0.464174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5303060000000001</v>
+        <v>0.331171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.605117</v>
+        <v>0.345719</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.01508</v>
+        <v>0.477577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.57162</v>
+        <v>0.340385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.631515</v>
+        <v>0.35506</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.00374</v>
+        <v>0.500923</v>
       </c>
       <c r="C74" t="n">
-        <v>0.577439</v>
+        <v>0.353513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.666042</v>
+        <v>0.365946</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.06447</v>
+        <v>0.523135</v>
       </c>
       <c r="C75" t="n">
-        <v>0.709257</v>
+        <v>0.367698</v>
       </c>
       <c r="D75" t="n">
-        <v>0.796001</v>
+        <v>0.380813</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26281</v>
+        <v>0.5460199999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.680247</v>
+        <v>0.380793</v>
       </c>
       <c r="D76" t="n">
-        <v>0.77249</v>
+        <v>0.393659</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.21787</v>
+        <v>0.57587</v>
       </c>
       <c r="C77" t="n">
-        <v>0.788691</v>
+        <v>0.397434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.965273</v>
+        <v>0.411461</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37782</v>
+        <v>0.598691</v>
       </c>
       <c r="C78" t="n">
-        <v>0.847987</v>
+        <v>0.343119</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00296</v>
+        <v>0.364283</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.38003</v>
+        <v>0.693174</v>
       </c>
       <c r="C79" t="n">
-        <v>0.769255</v>
+        <v>0.365835</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8917659999999999</v>
+        <v>0.376984</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.35572</v>
+        <v>0.7089259999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.726424</v>
+        <v>0.379357</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7902130000000001</v>
+        <v>0.388836</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.25865</v>
+        <v>0.728019</v>
       </c>
       <c r="C81" t="n">
-        <v>0.713378</v>
+        <v>0.396859</v>
       </c>
       <c r="D81" t="n">
-        <v>0.825001</v>
+        <v>0.40373</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.38615</v>
+        <v>0.756267</v>
       </c>
       <c r="C82" t="n">
-        <v>0.809939</v>
+        <v>0.423699</v>
       </c>
       <c r="D82" t="n">
-        <v>0.868518</v>
+        <v>0.430296</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.38687</v>
+        <v>0.777072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.773663</v>
+        <v>0.436662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.855165</v>
+        <v>0.441856</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.3861</v>
+        <v>0.812692</v>
       </c>
       <c r="C84" t="n">
-        <v>0.838688</v>
+        <v>0.453523</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9531500000000001</v>
+        <v>0.462587</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.42801</v>
+        <v>0.831307</v>
       </c>
       <c r="C85" t="n">
-        <v>0.844674</v>
+        <v>0.478716</v>
       </c>
       <c r="D85" t="n">
-        <v>0.97196</v>
+        <v>0.4851</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.43587</v>
+        <v>0.855309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.885495</v>
+        <v>0.497772</v>
       </c>
       <c r="D86" t="n">
-        <v>0.986712</v>
+        <v>0.505111</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.4411</v>
+        <v>0.880533</v>
       </c>
       <c r="C87" t="n">
-        <v>0.870596</v>
+        <v>0.515308</v>
       </c>
       <c r="D87" t="n">
-        <v>0.926666</v>
+        <v>0.519642</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.48417</v>
+        <v>0.907973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9353630000000001</v>
+        <v>0.53838</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00038</v>
+        <v>0.542299</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.50605</v>
+        <v>0.935015</v>
       </c>
       <c r="C89" t="n">
-        <v>0.930665</v>
+        <v>0.561578</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00026</v>
+        <v>0.566423</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.56703</v>
+        <v>0.966236</v>
       </c>
       <c r="C90" t="n">
-        <v>0.986912</v>
+        <v>0.584759</v>
       </c>
       <c r="D90" t="n">
-        <v>1.04149</v>
+        <v>0.589427</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.53126</v>
+        <v>0.99348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.982503</v>
+        <v>0.608139</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12032</v>
+        <v>0.6125620000000001</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.63637</v>
+        <v>1.02478</v>
       </c>
       <c r="C92" t="n">
-        <v>0.902553</v>
+        <v>0.621193</v>
       </c>
       <c r="D92" t="n">
-        <v>1.04466</v>
+        <v>0.630569</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.52734</v>
+        <v>1.14508</v>
       </c>
       <c r="C93" t="n">
-        <v>0.926711</v>
+        <v>0.644056</v>
       </c>
       <c r="D93" t="n">
-        <v>1.06089</v>
+        <v>0.643258</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.52839</v>
+        <v>1.14928</v>
       </c>
       <c r="C94" t="n">
-        <v>0.964959</v>
+        <v>0.660568</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01966</v>
+        <v>0.671811</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.50441</v>
+        <v>1.1572</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.673273</v>
       </c>
       <c r="D95" t="n">
-        <v>0.978062</v>
+        <v>0.6818340000000001</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48878</v>
+        <v>1.1765</v>
       </c>
       <c r="C96" t="n">
-        <v>0.936268</v>
+        <v>0.694479</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0427</v>
+        <v>0.703348</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.56718</v>
+        <v>1.16482</v>
       </c>
       <c r="C97" t="n">
-        <v>0.972925</v>
+        <v>0.686902</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07776</v>
+        <v>0.697997</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56076</v>
+        <v>1.17915</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01559</v>
+        <v>0.704376</v>
       </c>
       <c r="D98" t="n">
-        <v>1.09764</v>
+        <v>0.714608</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.60428</v>
+        <v>1.19961</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02363</v>
+        <v>0.724248</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15302</v>
+        <v>0.735399</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.62265</v>
+        <v>1.21738</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02896</v>
+        <v>0.7432800000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15921</v>
+        <v>0.7600749999999999</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.62512</v>
+        <v>1.23288</v>
       </c>
       <c r="C101" t="n">
-        <v>1.04127</v>
+        <v>0.762616</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17136</v>
+        <v>0.78102</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.64349</v>
+        <v>1.25355</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05576</v>
+        <v>0.784449</v>
       </c>
       <c r="D102" t="n">
-        <v>1.22121</v>
+        <v>0.8104170000000001</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.65906</v>
+        <v>1.27818</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06881</v>
+        <v>0.803288</v>
       </c>
       <c r="D103" t="n">
-        <v>1.256</v>
+        <v>0.832368</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.653</v>
+        <v>1.301</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12208</v>
+        <v>0.825956</v>
       </c>
       <c r="D104" t="n">
-        <v>1.2661</v>
+        <v>0.854868</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.56041</v>
+        <v>1.32451</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10954</v>
+        <v>0.849629</v>
       </c>
       <c r="D105" t="n">
-        <v>1.2333</v>
+        <v>0.880708</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.56492</v>
+        <v>1.34867</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0956</v>
+        <v>0.869533</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18382</v>
+        <v>0.905108</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.45007</v>
+        <v>1.37507</v>
       </c>
       <c r="C107" t="n">
-        <v>0.929057</v>
+        <v>0.823752</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06507</v>
+        <v>0.838678</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.46759</v>
+        <v>1.36331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.980316</v>
+        <v>0.840597</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0954</v>
+        <v>0.851722</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.5437</v>
+        <v>1.37438</v>
       </c>
       <c r="C109" t="n">
-        <v>0.991864</v>
+        <v>0.878628</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13908</v>
+        <v>0.892142</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.55881</v>
+        <v>1.3955</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01373</v>
+        <v>0.894335</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17113</v>
+        <v>0.908563</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5497</v>
+        <v>1.40873</v>
       </c>
       <c r="C111" t="n">
-        <v>1.02333</v>
+        <v>0.910593</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14034</v>
+        <v>0.923419</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.56626</v>
+        <v>1.42113</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04653</v>
+        <v>0.928191</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15603</v>
+        <v>0.942124</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.5747</v>
+        <v>1.43196</v>
       </c>
       <c r="C113" t="n">
-        <v>1.06969</v>
+        <v>0.945749</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18773</v>
+        <v>0.959658</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.58887</v>
+        <v>1.44808</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06898</v>
+        <v>0.966916</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18232</v>
+        <v>0.977813</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.5842</v>
+        <v>1.46162</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10023</v>
+        <v>0.9837089999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23877</v>
+        <v>0.997051</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.61194</v>
+        <v>1.48037</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11567</v>
+        <v>1.0034</v>
       </c>
       <c r="D116" t="n">
-        <v>1.26622</v>
+        <v>1.01782</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.65854</v>
+        <v>1.50118</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14416</v>
+        <v>1.02404</v>
       </c>
       <c r="D117" t="n">
-        <v>1.31012</v>
+        <v>1.03874</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.69838</v>
+        <v>1.5217</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17325</v>
+        <v>1.04665</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29244</v>
+        <v>1.05803</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.7044</v>
+        <v>1.54001</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20546</v>
+        <v>1.06739</v>
       </c>
       <c r="D119" t="n">
-        <v>1.33036</v>
+        <v>1.08053</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.454673</v>
+        <v>0.267908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317019</v>
+        <v>0.201671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.30931</v>
+        <v>0.205061</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.451826</v>
+        <v>0.278627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320464</v>
+        <v>0.206244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.303835</v>
+        <v>0.206636</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.473606</v>
+        <v>0.280645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.331417</v>
+        <v>0.207948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319132</v>
+        <v>0.208383</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.484212</v>
+        <v>0.28343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333162</v>
+        <v>0.211432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.322236</v>
+        <v>0.210188</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.486274</v>
+        <v>0.283652</v>
       </c>
       <c r="C6" t="n">
-        <v>0.351885</v>
+        <v>0.220627</v>
       </c>
       <c r="D6" t="n">
-        <v>0.320251</v>
+        <v>0.213976</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.504012</v>
+        <v>0.293665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.332593</v>
+        <v>0.203386</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33282</v>
+        <v>0.215305</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.51227</v>
+        <v>0.283301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.336348</v>
+        <v>0.204315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.338559</v>
+        <v>0.219085</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522006</v>
+        <v>0.287521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.342914</v>
+        <v>0.209619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.339463</v>
+        <v>0.219866</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.535724</v>
+        <v>0.291631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347667</v>
+        <v>0.211414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346673</v>
+        <v>0.221707</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.547509</v>
+        <v>0.293768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.357131</v>
+        <v>0.209292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.347346</v>
+        <v>0.218875</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.551554</v>
+        <v>0.297107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.371483</v>
+        <v>0.215472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.357673</v>
+        <v>0.223035</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5648840000000001</v>
+        <v>0.312127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.364794</v>
+        <v>0.214924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.364243</v>
+        <v>0.224792</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5739919999999999</v>
+        <v>0.308692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.40061</v>
+        <v>0.217976</v>
       </c>
       <c r="D14" t="n">
-        <v>0.35944</v>
+        <v>0.22414</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.592645</v>
+        <v>0.31482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.385007</v>
+        <v>0.2201</v>
       </c>
       <c r="D15" t="n">
-        <v>0.370461</v>
+        <v>0.22648</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.599642</v>
+        <v>0.320465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.402801</v>
+        <v>0.22622</v>
       </c>
       <c r="D16" t="n">
-        <v>0.375883</v>
+        <v>0.233196</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.612725</v>
+        <v>0.328372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.403619</v>
+        <v>0.229908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373968</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.624995</v>
+        <v>0.328271</v>
       </c>
       <c r="C18" t="n">
-        <v>0.409187</v>
+        <v>0.234659</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380109</v>
+        <v>0.23916</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.625123</v>
+        <v>0.330822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.417153</v>
+        <v>0.238323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.388331</v>
+        <v>0.237586</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.634617</v>
+        <v>0.338173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.436959</v>
+        <v>0.245252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.399942</v>
+        <v>0.24012</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.645936</v>
+        <v>0.348412</v>
       </c>
       <c r="C21" t="n">
-        <v>0.395702</v>
+        <v>0.234244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.398106</v>
+        <v>0.241508</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.614559</v>
+        <v>0.335132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.407628</v>
+        <v>0.23882</v>
       </c>
       <c r="D22" t="n">
-        <v>0.404293</v>
+        <v>0.247436</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.633424</v>
+        <v>0.350831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.407196</v>
+        <v>0.241475</v>
       </c>
       <c r="D23" t="n">
-        <v>0.399303</v>
+        <v>0.244997</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.636116</v>
+        <v>0.348316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.428647</v>
+        <v>0.253011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.414432</v>
+        <v>0.252619</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.654052</v>
+        <v>0.353122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.450288</v>
+        <v>0.270643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.416107</v>
+        <v>0.260823</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.650162</v>
+        <v>0.365008</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439872</v>
+        <v>0.271036</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429047</v>
+        <v>0.25971</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.672129</v>
+        <v>0.372416</v>
       </c>
       <c r="C27" t="n">
-        <v>0.451881</v>
+        <v>0.280787</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42345</v>
+        <v>0.266434</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.668766</v>
+        <v>0.377327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.463234</v>
+        <v>0.284328</v>
       </c>
       <c r="D28" t="n">
-        <v>0.435179</v>
+        <v>0.270219</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.698406</v>
+        <v>0.383296</v>
       </c>
       <c r="C29" t="n">
-        <v>0.463728</v>
+        <v>0.289183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.435426</v>
+        <v>0.273287</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.686901</v>
+        <v>0.389015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.484226</v>
+        <v>0.303194</v>
       </c>
       <c r="D30" t="n">
-        <v>0.44444</v>
+        <v>0.280256</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.703375</v>
+        <v>0.396071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.482221</v>
+        <v>0.301102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.449699</v>
+        <v>0.28205</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.711261</v>
+        <v>0.399066</v>
       </c>
       <c r="C32" t="n">
-        <v>0.494421</v>
+        <v>0.3117</v>
       </c>
       <c r="D32" t="n">
-        <v>0.448935</v>
+        <v>0.286808</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.724526</v>
+        <v>0.40465</v>
       </c>
       <c r="C33" t="n">
-        <v>0.508567</v>
+        <v>0.321256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.455304</v>
+        <v>0.293212</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.727615</v>
+        <v>0.410132</v>
       </c>
       <c r="C34" t="n">
-        <v>0.518104</v>
+        <v>0.32977</v>
       </c>
       <c r="D34" t="n">
-        <v>0.461268</v>
+        <v>0.296804</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7272149999999999</v>
+        <v>0.418157</v>
       </c>
       <c r="C35" t="n">
-        <v>0.423512</v>
+        <v>0.273965</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432641</v>
+        <v>0.278201</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.708497</v>
+        <v>0.402204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.450204</v>
+        <v>0.279298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.450369</v>
+        <v>0.279788</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.718655</v>
+        <v>0.408236</v>
       </c>
       <c r="C37" t="n">
-        <v>0.439864</v>
+        <v>0.282708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.437649</v>
+        <v>0.283104</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.723946</v>
+        <v>0.409929</v>
       </c>
       <c r="C38" t="n">
-        <v>0.448417</v>
+        <v>0.288102</v>
       </c>
       <c r="D38" t="n">
-        <v>0.443551</v>
+        <v>0.284803</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7302959999999999</v>
+        <v>0.41493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.450411</v>
+        <v>0.295065</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446696</v>
+        <v>0.289731</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.734189</v>
+        <v>0.418798</v>
       </c>
       <c r="C40" t="n">
-        <v>0.456625</v>
+        <v>0.298212</v>
       </c>
       <c r="D40" t="n">
-        <v>0.448377</v>
+        <v>0.292263</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.742601</v>
+        <v>0.42337</v>
       </c>
       <c r="C41" t="n">
-        <v>0.468171</v>
+        <v>0.302424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.458201</v>
+        <v>0.293812</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7719</v>
+        <v>0.43001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.466976</v>
+        <v>0.303558</v>
       </c>
       <c r="D42" t="n">
-        <v>0.44715</v>
+        <v>0.296206</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7558510000000001</v>
+        <v>0.435854</v>
       </c>
       <c r="C43" t="n">
-        <v>0.476832</v>
+        <v>0.309263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.456203</v>
+        <v>0.298134</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.772358</v>
+        <v>0.439818</v>
       </c>
       <c r="C44" t="n">
-        <v>0.47685</v>
+        <v>0.313475</v>
       </c>
       <c r="D44" t="n">
-        <v>0.465504</v>
+        <v>0.30098</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.775741</v>
+        <v>0.442541</v>
       </c>
       <c r="C45" t="n">
-        <v>0.480381</v>
+        <v>0.317029</v>
       </c>
       <c r="D45" t="n">
-        <v>0.467513</v>
+        <v>0.304647</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.773479</v>
+        <v>0.449364</v>
       </c>
       <c r="C46" t="n">
-        <v>0.488038</v>
+        <v>0.318249</v>
       </c>
       <c r="D46" t="n">
-        <v>0.46591</v>
+        <v>0.305389</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.797309</v>
+        <v>0.455635</v>
       </c>
       <c r="C47" t="n">
-        <v>0.493456</v>
+        <v>0.324384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.473859</v>
+        <v>0.30894</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.816076</v>
+        <v>0.461394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5023339999999999</v>
+        <v>0.329874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.480905</v>
+        <v>0.311136</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.828423</v>
+        <v>0.467227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.520439</v>
+        <v>0.33491</v>
       </c>
       <c r="D49" t="n">
-        <v>0.484637</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8481070000000001</v>
+        <v>0.476713</v>
       </c>
       <c r="C50" t="n">
-        <v>0.518724</v>
+        <v>0.304071</v>
       </c>
       <c r="D50" t="n">
-        <v>0.477748</v>
+        <v>0.293531</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.86892</v>
+        <v>0.429377</v>
       </c>
       <c r="C51" t="n">
-        <v>0.529336</v>
+        <v>0.30779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.480032</v>
+        <v>0.296029</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.870785</v>
+        <v>0.430773</v>
       </c>
       <c r="C52" t="n">
-        <v>0.512684</v>
+        <v>0.311012</v>
       </c>
       <c r="D52" t="n">
-        <v>0.465507</v>
+        <v>0.297097</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.884425</v>
+        <v>0.438684</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.315689</v>
       </c>
       <c r="D53" t="n">
-        <v>0.48453</v>
+        <v>0.300173</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.891871</v>
+        <v>0.441958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.535843</v>
+        <v>0.321245</v>
       </c>
       <c r="D54" t="n">
-        <v>0.49279</v>
+        <v>0.303536</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.920422</v>
+        <v>0.445048</v>
       </c>
       <c r="C55" t="n">
-        <v>0.564771</v>
+        <v>0.326865</v>
       </c>
       <c r="D55" t="n">
-        <v>0.499885</v>
+        <v>0.305488</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.962467</v>
+        <v>0.450602</v>
       </c>
       <c r="C56" t="n">
-        <v>0.553862</v>
+        <v>0.326516</v>
       </c>
       <c r="D56" t="n">
-        <v>0.500687</v>
+        <v>0.307362</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.946811</v>
+        <v>0.453131</v>
       </c>
       <c r="C57" t="n">
-        <v>0.562629</v>
+        <v>0.334629</v>
       </c>
       <c r="D57" t="n">
-        <v>0.506443</v>
+        <v>0.309852</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.987523</v>
+        <v>0.456971</v>
       </c>
       <c r="C58" t="n">
-        <v>0.589225</v>
+        <v>0.342244</v>
       </c>
       <c r="D58" t="n">
-        <v>0.518714</v>
+        <v>0.31407</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.96875</v>
+        <v>0.461492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.597403</v>
+        <v>0.349457</v>
       </c>
       <c r="D59" t="n">
-        <v>0.526347</v>
+        <v>0.31848</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02613</v>
+        <v>0.466724</v>
       </c>
       <c r="C60" t="n">
-        <v>0.621031</v>
+        <v>0.354109</v>
       </c>
       <c r="D60" t="n">
-        <v>0.531381</v>
+        <v>0.320706</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.04553</v>
+        <v>0.470576</v>
       </c>
       <c r="C61" t="n">
-        <v>0.63731</v>
+        <v>0.359332</v>
       </c>
       <c r="D61" t="n">
-        <v>0.534466</v>
+        <v>0.323647</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.04289</v>
+        <v>0.479338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.650621</v>
+        <v>0.364506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.545144</v>
+        <v>0.325123</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.08693</v>
+        <v>0.483522</v>
       </c>
       <c r="C63" t="n">
-        <v>0.659402</v>
+        <v>0.370139</v>
       </c>
       <c r="D63" t="n">
-        <v>0.565011</v>
+        <v>0.328683</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.11041</v>
+        <v>0.489795</v>
       </c>
       <c r="C64" t="n">
-        <v>0.607623</v>
+        <v>0.333186</v>
       </c>
       <c r="D64" t="n">
-        <v>0.558379</v>
+        <v>0.310479</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10528</v>
+        <v>0.461028</v>
       </c>
       <c r="C65" t="n">
-        <v>0.550009</v>
+        <v>0.342647</v>
       </c>
       <c r="D65" t="n">
-        <v>0.51463</v>
+        <v>0.316291</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.14216</v>
+        <v>0.467302</v>
       </c>
       <c r="C66" t="n">
-        <v>0.631348</v>
+        <v>0.34438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.570116</v>
+        <v>0.316912</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.17377</v>
+        <v>0.47813</v>
       </c>
       <c r="C67" t="n">
-        <v>0.647443</v>
+        <v>0.351731</v>
       </c>
       <c r="D67" t="n">
-        <v>0.585525</v>
+        <v>0.320172</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.14715</v>
+        <v>0.489082</v>
       </c>
       <c r="C68" t="n">
-        <v>0.647903</v>
+        <v>0.355797</v>
       </c>
       <c r="D68" t="n">
-        <v>0.578272</v>
+        <v>0.325303</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01998</v>
+        <v>0.494854</v>
       </c>
       <c r="C69" t="n">
-        <v>0.646234</v>
+        <v>0.36068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.592774</v>
+        <v>0.32742</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.07157</v>
+        <v>0.507412</v>
       </c>
       <c r="C70" t="n">
-        <v>0.659087</v>
+        <v>0.367896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.592709</v>
+        <v>0.330644</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.27958</v>
+        <v>0.516579</v>
       </c>
       <c r="C71" t="n">
-        <v>0.682831</v>
+        <v>0.377757</v>
       </c>
       <c r="D71" t="n">
-        <v>0.591248</v>
+        <v>0.33467</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.27189</v>
+        <v>0.528973</v>
       </c>
       <c r="C72" t="n">
-        <v>0.706193</v>
+        <v>0.383941</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6108980000000001</v>
+        <v>0.338725</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.28252</v>
+        <v>0.545814</v>
       </c>
       <c r="C73" t="n">
-        <v>0.718282</v>
+        <v>0.393435</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6104619999999999</v>
+        <v>0.344279</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.33673</v>
+        <v>0.55821</v>
       </c>
       <c r="C74" t="n">
-        <v>0.744603</v>
+        <v>0.400025</v>
       </c>
       <c r="D74" t="n">
-        <v>0.624408</v>
+        <v>0.34668</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.39439</v>
+        <v>0.572998</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7345120000000001</v>
+        <v>0.406453</v>
       </c>
       <c r="D75" t="n">
-        <v>0.638177</v>
+        <v>0.353081</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.40498</v>
+        <v>0.590486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.761653</v>
+        <v>0.418637</v>
       </c>
       <c r="D76" t="n">
-        <v>0.688339</v>
+        <v>0.359934</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.61153</v>
+        <v>0.601011</v>
       </c>
       <c r="C77" t="n">
-        <v>0.801011</v>
+        <v>0.430087</v>
       </c>
       <c r="D77" t="n">
-        <v>0.663675</v>
+        <v>0.3642</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51563</v>
+        <v>0.638988</v>
       </c>
       <c r="C78" t="n">
-        <v>0.602041</v>
+        <v>0.361068</v>
       </c>
       <c r="D78" t="n">
-        <v>0.607981</v>
+        <v>0.345489</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.30257</v>
+        <v>0.646015</v>
       </c>
       <c r="C79" t="n">
-        <v>0.632305</v>
+        <v>0.402183</v>
       </c>
       <c r="D79" t="n">
-        <v>0.569393</v>
+        <v>0.355608</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.36393</v>
+        <v>0.682211</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6444530000000001</v>
+        <v>0.416997</v>
       </c>
       <c r="D80" t="n">
-        <v>0.563754</v>
+        <v>0.36413</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.36494</v>
+        <v>0.702398</v>
       </c>
       <c r="C81" t="n">
-        <v>0.649165</v>
+        <v>0.435547</v>
       </c>
       <c r="D81" t="n">
-        <v>0.578116</v>
+        <v>0.372204</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.5323</v>
+        <v>0.750685</v>
       </c>
       <c r="C82" t="n">
-        <v>0.680729</v>
+        <v>0.45646</v>
       </c>
       <c r="D82" t="n">
-        <v>0.606968</v>
+        <v>0.377324</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.47865</v>
+        <v>0.810508</v>
       </c>
       <c r="C83" t="n">
-        <v>0.75919</v>
+        <v>0.484256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.637468</v>
+        <v>0.385039</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.73777</v>
+        <v>0.8527400000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.710771</v>
+        <v>0.504375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.635208</v>
+        <v>0.395261</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.66469</v>
+        <v>0.88368</v>
       </c>
       <c r="C85" t="n">
-        <v>0.752055</v>
+        <v>0.530738</v>
       </c>
       <c r="D85" t="n">
-        <v>0.653491</v>
+        <v>0.407407</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.27564</v>
+        <v>0.946977</v>
       </c>
       <c r="C86" t="n">
-        <v>0.519566</v>
+        <v>0.555094</v>
       </c>
       <c r="D86" t="n">
-        <v>0.49349</v>
+        <v>0.422043</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.12751</v>
+        <v>1.00188</v>
       </c>
       <c r="C87" t="n">
-        <v>0.564553</v>
+        <v>0.584588</v>
       </c>
       <c r="D87" t="n">
-        <v>0.49762</v>
+        <v>0.434577</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.04188</v>
+        <v>1.05134</v>
       </c>
       <c r="C88" t="n">
-        <v>0.549272</v>
+        <v>0.611413</v>
       </c>
       <c r="D88" t="n">
-        <v>0.54755</v>
+        <v>0.448678</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.38804</v>
+        <v>1.09291</v>
       </c>
       <c r="C89" t="n">
-        <v>0.62577</v>
+        <v>0.650342</v>
       </c>
       <c r="D89" t="n">
-        <v>0.529832</v>
+        <v>0.474306</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39473</v>
+        <v>1.14795</v>
       </c>
       <c r="C90" t="n">
-        <v>0.61032</v>
+        <v>0.6848919999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.542595</v>
+        <v>0.489338</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.36465</v>
+        <v>1.22314</v>
       </c>
       <c r="C91" t="n">
-        <v>0.634001</v>
+        <v>0.726362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.574723</v>
+        <v>0.5097930000000001</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.72428</v>
+        <v>1.2646</v>
       </c>
       <c r="C92" t="n">
-        <v>0.579918</v>
+        <v>0.74183</v>
       </c>
       <c r="D92" t="n">
-        <v>0.626565</v>
+        <v>0.618129</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.73959</v>
+        <v>1.31631</v>
       </c>
       <c r="C93" t="n">
-        <v>0.689469</v>
+        <v>0.7762</v>
       </c>
       <c r="D93" t="n">
-        <v>0.694393</v>
+        <v>0.630269</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.03051</v>
+        <v>1.35137</v>
       </c>
       <c r="C94" t="n">
-        <v>0.790541</v>
+        <v>0.832043</v>
       </c>
       <c r="D94" t="n">
-        <v>0.63128</v>
+        <v>0.6798380000000001</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.02348</v>
+        <v>1.39424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7705</v>
+        <v>0.842533</v>
       </c>
       <c r="D95" t="n">
-        <v>0.76129</v>
+        <v>0.6756450000000001</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.28775</v>
+        <v>1.43189</v>
       </c>
       <c r="C96" t="n">
-        <v>0.844862</v>
+        <v>0.876426</v>
       </c>
       <c r="D96" t="n">
-        <v>0.755104</v>
+        <v>0.699986</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.31203</v>
+        <v>1.49065</v>
       </c>
       <c r="C97" t="n">
-        <v>0.907085</v>
+        <v>0.913018</v>
       </c>
       <c r="D97" t="n">
-        <v>0.77563</v>
+        <v>0.724712</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.01015</v>
+        <v>1.56565</v>
       </c>
       <c r="C98" t="n">
-        <v>0.83639</v>
+        <v>0.954419</v>
       </c>
       <c r="D98" t="n">
-        <v>0.737783</v>
+        <v>0.781289</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.22976</v>
+        <v>1.59732</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02682</v>
+        <v>1.01198</v>
       </c>
       <c r="D99" t="n">
-        <v>0.872</v>
+        <v>0.796943</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.38218</v>
+        <v>1.63274</v>
       </c>
       <c r="C100" t="n">
-        <v>0.952219</v>
+        <v>1.04325</v>
       </c>
       <c r="D100" t="n">
-        <v>0.765312</v>
+        <v>0.83081</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.263</v>
+        <v>1.66716</v>
       </c>
       <c r="C101" t="n">
-        <v>0.96285</v>
+        <v>1.07678</v>
       </c>
       <c r="D101" t="n">
-        <v>0.846839</v>
+        <v>0.850128</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.48112</v>
+        <v>1.72465</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9996620000000001</v>
+        <v>1.11789</v>
       </c>
       <c r="D102" t="n">
-        <v>0.953882</v>
+        <v>0.880915</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.55743</v>
+        <v>1.77545</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07656</v>
+        <v>1.15306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.935052</v>
+        <v>0.914274</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.58605</v>
+        <v>1.82221</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03552</v>
+        <v>1.19071</v>
       </c>
       <c r="D104" t="n">
-        <v>1.00216</v>
+        <v>0.940573</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.88115</v>
+        <v>1.85164</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19358</v>
+        <v>1.23167</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05276</v>
+        <v>0.954901</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.82436</v>
+        <v>1.91237</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19849</v>
+        <v>1.27291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.965229</v>
+        <v>0.987044</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.64101</v>
+        <v>1.81501</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0616</v>
+        <v>1.17141</v>
       </c>
       <c r="D107" t="n">
-        <v>1.00971</v>
+        <v>1.0342</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68356</v>
+        <v>1.84842</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08091</v>
+        <v>1.21932</v>
       </c>
       <c r="D108" t="n">
-        <v>0.956777</v>
+        <v>1.06313</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.62393</v>
+        <v>1.88019</v>
       </c>
       <c r="C109" t="n">
-        <v>1.22094</v>
+        <v>1.24825</v>
       </c>
       <c r="D109" t="n">
-        <v>0.975536</v>
+        <v>1.0835</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.7201</v>
+        <v>1.91872</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19394</v>
+        <v>1.27673</v>
       </c>
       <c r="D110" t="n">
-        <v>1.04658</v>
+        <v>1.1013</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.77325</v>
+        <v>1.94897</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22333</v>
+        <v>1.30232</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00448</v>
+        <v>1.12228</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.84276</v>
+        <v>1.96392</v>
       </c>
       <c r="C112" t="n">
-        <v>1.27656</v>
+        <v>1.33167</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14834</v>
+        <v>1.14896</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.09065</v>
+        <v>2.01688</v>
       </c>
       <c r="C113" t="n">
-        <v>1.341</v>
+        <v>1.36459</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17126</v>
+        <v>1.16551</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.11675</v>
+        <v>2.05169</v>
       </c>
       <c r="C114" t="n">
-        <v>1.41808</v>
+        <v>1.39243</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18152</v>
+        <v>1.18537</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.15942</v>
+        <v>2.08037</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35633</v>
+        <v>1.42728</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18081</v>
+        <v>1.21043</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.15863</v>
+        <v>2.11915</v>
       </c>
       <c r="C116" t="n">
-        <v>1.36968</v>
+        <v>1.45874</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21325</v>
+        <v>1.23003</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.20476</v>
+        <v>2.15059</v>
       </c>
       <c r="C117" t="n">
-        <v>1.40719</v>
+        <v>1.48825</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25868</v>
+        <v>1.24826</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.3042</v>
+        <v>2.18178</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50437</v>
+        <v>1.52861</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27229</v>
+        <v>1.27208</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.40984</v>
+        <v>2.22854</v>
       </c>
       <c r="C119" t="n">
-        <v>1.50679</v>
+        <v>1.56465</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35737</v>
+        <v>1.30375</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6799230000000001</v>
+        <v>0.427151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.492914</v>
+        <v>0.313374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.385157</v>
+        <v>0.271777</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.691395</v>
+        <v>0.436714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5087390000000001</v>
+        <v>0.316024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39379</v>
+        <v>0.274111</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.739399</v>
+        <v>0.452092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.529131</v>
+        <v>0.33356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.394656</v>
+        <v>0.28388</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.759977</v>
+        <v>0.459879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.535878</v>
+        <v>0.342644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.406777</v>
+        <v>0.287326</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.784801</v>
+        <v>0.46715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.540734</v>
+        <v>0.353476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.404266</v>
+        <v>0.292118</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.823065</v>
+        <v>0.490831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.572114</v>
+        <v>0.37005</v>
       </c>
       <c r="D7" t="n">
-        <v>0.415698</v>
+        <v>0.30048</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.837463</v>
+        <v>0.497013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.619565</v>
+        <v>0.389749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.436916</v>
+        <v>0.309041</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.870501</v>
+        <v>0.52154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.647257</v>
+        <v>0.40478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.448102</v>
+        <v>0.321556</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.897558</v>
+        <v>0.540248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.674518</v>
+        <v>0.427348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.465259</v>
+        <v>0.332979</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9484320000000001</v>
+        <v>0.555984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5334449999999999</v>
+        <v>0.322866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.386138</v>
+        <v>0.271987</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.716663</v>
+        <v>0.398121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.548129</v>
+        <v>0.324495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.387807</v>
+        <v>0.271104</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.723073</v>
+        <v>0.415161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.564364</v>
+        <v>0.336383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.412124</v>
+        <v>0.28231</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.759165</v>
+        <v>0.418932</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5792119999999999</v>
+        <v>0.350666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415118</v>
+        <v>0.282707</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.810366</v>
+        <v>0.441251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6103460000000001</v>
+        <v>0.364862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.42711</v>
+        <v>0.29181</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.817588</v>
+        <v>0.445553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.646163</v>
+        <v>0.379369</v>
       </c>
       <c r="D16" t="n">
-        <v>0.449515</v>
+        <v>0.298529</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.875657</v>
+        <v>0.466039</v>
       </c>
       <c r="C17" t="n">
-        <v>0.672422</v>
+        <v>0.393057</v>
       </c>
       <c r="D17" t="n">
-        <v>0.47509</v>
+        <v>0.307363</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8946730000000001</v>
+        <v>0.485456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.711519</v>
+        <v>0.407175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.481753</v>
+        <v>0.305911</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.950623</v>
+        <v>0.512622</v>
       </c>
       <c r="C19" t="n">
-        <v>0.724743</v>
+        <v>0.422567</v>
       </c>
       <c r="D19" t="n">
-        <v>0.482122</v>
+        <v>0.320027</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.954035</v>
+        <v>0.521995</v>
       </c>
       <c r="C20" t="n">
-        <v>0.756676</v>
+        <v>0.443859</v>
       </c>
       <c r="D20" t="n">
-        <v>0.499866</v>
+        <v>0.329792</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.985816</v>
+        <v>0.542362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.781271</v>
+        <v>0.463775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.531929</v>
+        <v>0.341704</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.03019</v>
+        <v>0.561452</v>
       </c>
       <c r="C22" t="n">
-        <v>0.812254</v>
+        <v>0.487771</v>
       </c>
       <c r="D22" t="n">
-        <v>0.528527</v>
+        <v>0.347606</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.07692</v>
+        <v>0.598147</v>
       </c>
       <c r="C23" t="n">
-        <v>0.872146</v>
+        <v>0.515669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.563935</v>
+        <v>0.365275</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.10795</v>
+        <v>0.618317</v>
       </c>
       <c r="C24" t="n">
-        <v>0.910064</v>
+        <v>0.536233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.592316</v>
+        <v>0.376139</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.13551</v>
+        <v>0.64359</v>
       </c>
       <c r="C25" t="n">
-        <v>0.93368</v>
+        <v>0.5618030000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.602054</v>
+        <v>0.390161</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.18813</v>
+        <v>0.6782319999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6089560000000001</v>
+        <v>0.354741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.453595</v>
+        <v>0.277165</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.884002</v>
+        <v>0.487805</v>
       </c>
       <c r="C27" t="n">
-        <v>0.641471</v>
+        <v>0.380251</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473544</v>
+        <v>0.284367</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.914761</v>
+        <v>0.508835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.647248</v>
+        <v>0.392085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.483287</v>
+        <v>0.295118</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.928657</v>
+        <v>0.533987</v>
       </c>
       <c r="C29" t="n">
-        <v>0.647888</v>
+        <v>0.409596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.483949</v>
+        <v>0.300123</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9819</v>
+        <v>0.557806</v>
       </c>
       <c r="C30" t="n">
-        <v>0.688419</v>
+        <v>0.429899</v>
       </c>
       <c r="D30" t="n">
-        <v>0.495995</v>
+        <v>0.31033</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0184</v>
+        <v>0.578693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.709801</v>
+        <v>0.445358</v>
       </c>
       <c r="D31" t="n">
-        <v>0.517417</v>
+        <v>0.321055</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.02983</v>
+        <v>0.599445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.729436</v>
+        <v>0.463922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5208700000000001</v>
+        <v>0.330137</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.04196</v>
+        <v>0.613469</v>
       </c>
       <c r="C33" t="n">
-        <v>0.749718</v>
+        <v>0.482864</v>
       </c>
       <c r="D33" t="n">
-        <v>0.53672</v>
+        <v>0.342784</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.10333</v>
+        <v>0.641947</v>
       </c>
       <c r="C34" t="n">
-        <v>0.781104</v>
+        <v>0.503478</v>
       </c>
       <c r="D34" t="n">
-        <v>0.547153</v>
+        <v>0.356794</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.13607</v>
+        <v>0.663643</v>
       </c>
       <c r="C35" t="n">
-        <v>0.853383</v>
+        <v>0.52499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.579252</v>
+        <v>0.367726</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.20693</v>
+        <v>0.685948</v>
       </c>
       <c r="C36" t="n">
-        <v>0.859066</v>
+        <v>0.550574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.590834</v>
+        <v>0.378251</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.19671</v>
+        <v>0.716992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.887935</v>
+        <v>0.573902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.590418</v>
+        <v>0.390469</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.23198</v>
+        <v>0.738498</v>
       </c>
       <c r="C38" t="n">
-        <v>0.916887</v>
+        <v>0.5966939999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.635208</v>
+        <v>0.408974</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.29151</v>
+        <v>0.773522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.973936</v>
+        <v>0.6244150000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6306</v>
+        <v>0.421932</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.32591</v>
+        <v>0.796168</v>
       </c>
       <c r="C40" t="n">
-        <v>0.695175</v>
+        <v>0.453316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.544816</v>
+        <v>0.351866</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.00609</v>
+        <v>0.579639</v>
       </c>
       <c r="C41" t="n">
-        <v>0.715427</v>
+        <v>0.469443</v>
       </c>
       <c r="D41" t="n">
-        <v>0.552348</v>
+        <v>0.359685</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.02941</v>
+        <v>0.59831</v>
       </c>
       <c r="C42" t="n">
-        <v>0.744432</v>
+        <v>0.48751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.552455</v>
+        <v>0.367588</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.03795</v>
+        <v>0.616915</v>
       </c>
       <c r="C43" t="n">
-        <v>0.749041</v>
+        <v>0.50074</v>
       </c>
       <c r="D43" t="n">
-        <v>0.573318</v>
+        <v>0.376441</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.05964</v>
+        <v>0.629621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.772837</v>
+        <v>0.523805</v>
       </c>
       <c r="D44" t="n">
-        <v>0.581626</v>
+        <v>0.387545</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.08927</v>
+        <v>0.652067</v>
       </c>
       <c r="C45" t="n">
-        <v>0.805195</v>
+        <v>0.536521</v>
       </c>
       <c r="D45" t="n">
-        <v>0.586398</v>
+        <v>0.391356</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.11722</v>
+        <v>0.664397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.835714</v>
+        <v>0.556525</v>
       </c>
       <c r="D46" t="n">
-        <v>0.616015</v>
+        <v>0.406961</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.15347</v>
+        <v>0.684588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.849409</v>
+        <v>0.574547</v>
       </c>
       <c r="D47" t="n">
-        <v>0.626166</v>
+        <v>0.416212</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.17085</v>
+        <v>0.701259</v>
       </c>
       <c r="C48" t="n">
-        <v>0.871829</v>
+        <v>0.590538</v>
       </c>
       <c r="D48" t="n">
-        <v>0.626396</v>
+        <v>0.427297</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.22925</v>
+        <v>0.7228</v>
       </c>
       <c r="C49" t="n">
-        <v>0.914957</v>
+        <v>0.615389</v>
       </c>
       <c r="D49" t="n">
-        <v>0.636865</v>
+        <v>0.432137</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.26233</v>
+        <v>0.744623</v>
       </c>
       <c r="C50" t="n">
-        <v>0.956647</v>
+        <v>0.63296</v>
       </c>
       <c r="D50" t="n">
-        <v>0.653377</v>
+        <v>0.443672</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.28343</v>
+        <v>0.765754</v>
       </c>
       <c r="C51" t="n">
-        <v>0.979235</v>
+        <v>0.658081</v>
       </c>
       <c r="D51" t="n">
-        <v>0.688115</v>
+        <v>0.462987</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.32818</v>
+        <v>0.79009</v>
       </c>
       <c r="C52" t="n">
-        <v>1.03429</v>
+        <v>0.684777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7170800000000001</v>
+        <v>0.476922</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.36419</v>
+        <v>0.808218</v>
       </c>
       <c r="C53" t="n">
-        <v>1.06175</v>
+        <v>0.707623</v>
       </c>
       <c r="D53" t="n">
-        <v>0.734121</v>
+        <v>0.493543</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.44235</v>
+        <v>0.83296</v>
       </c>
       <c r="C54" t="n">
-        <v>0.869734</v>
+        <v>0.515012</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6040720000000001</v>
+        <v>0.395584</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.12156</v>
+        <v>0.622773</v>
       </c>
       <c r="C55" t="n">
-        <v>0.825323</v>
+        <v>0.526517</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62071</v>
+        <v>0.405313</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.15762</v>
+        <v>0.638524</v>
       </c>
       <c r="C56" t="n">
-        <v>0.870748</v>
+        <v>0.54336</v>
       </c>
       <c r="D56" t="n">
-        <v>0.646232</v>
+        <v>0.413212</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.21705</v>
+        <v>0.654604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.906</v>
+        <v>0.558124</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6414069999999999</v>
+        <v>0.419834</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.2956</v>
+        <v>0.668665</v>
       </c>
       <c r="C58" t="n">
-        <v>0.941909</v>
+        <v>0.572703</v>
       </c>
       <c r="D58" t="n">
-        <v>0.664494</v>
+        <v>0.4282</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.31879</v>
+        <v>0.688353</v>
       </c>
       <c r="C59" t="n">
-        <v>0.988333</v>
+        <v>0.5881729999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.687562</v>
+        <v>0.43768</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.34501</v>
+        <v>0.702244</v>
       </c>
       <c r="C60" t="n">
-        <v>1.02835</v>
+        <v>0.606359</v>
       </c>
       <c r="D60" t="n">
-        <v>0.708197</v>
+        <v>0.444521</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.44</v>
+        <v>0.720148</v>
       </c>
       <c r="C61" t="n">
-        <v>1.07132</v>
+        <v>0.623844</v>
       </c>
       <c r="D61" t="n">
-        <v>0.73348</v>
+        <v>0.454907</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.5044</v>
+        <v>0.737859</v>
       </c>
       <c r="C62" t="n">
-        <v>1.10193</v>
+        <v>0.639551</v>
       </c>
       <c r="D62" t="n">
-        <v>0.73815</v>
+        <v>0.462668</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.54019</v>
+        <v>0.757047</v>
       </c>
       <c r="C63" t="n">
-        <v>1.14833</v>
+        <v>0.66308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.796076</v>
+        <v>0.475737</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.56766</v>
+        <v>0.769468</v>
       </c>
       <c r="C64" t="n">
-        <v>1.20999</v>
+        <v>0.679707</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7913559999999999</v>
+        <v>0.485958</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.72321</v>
+        <v>0.796343</v>
       </c>
       <c r="C65" t="n">
-        <v>1.28005</v>
+        <v>0.707251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.822805</v>
+        <v>0.497649</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.82232</v>
+        <v>0.818496</v>
       </c>
       <c r="C66" t="n">
-        <v>1.39304</v>
+        <v>0.726095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863827</v>
+        <v>0.509476</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.82773</v>
+        <v>0.850133</v>
       </c>
       <c r="C67" t="n">
-        <v>1.51741</v>
+        <v>0.75691</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8878509999999999</v>
+        <v>0.5258969999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94285</v>
+        <v>0.877507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.959288</v>
+        <v>0.512435</v>
       </c>
       <c r="D68" t="n">
-        <v>0.702012</v>
+        <v>0.404924</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.51055</v>
+        <v>0.656489</v>
       </c>
       <c r="C69" t="n">
-        <v>1.02787</v>
+        <v>0.529656</v>
       </c>
       <c r="D69" t="n">
-        <v>0.752702</v>
+        <v>0.411578</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.92231</v>
+        <v>0.676002</v>
       </c>
       <c r="C70" t="n">
-        <v>1.10328</v>
+        <v>0.550056</v>
       </c>
       <c r="D70" t="n">
-        <v>0.771298</v>
+        <v>0.42249</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.63861</v>
+        <v>0.701379</v>
       </c>
       <c r="C71" t="n">
-        <v>1.08358</v>
+        <v>0.571574</v>
       </c>
       <c r="D71" t="n">
-        <v>0.755475</v>
+        <v>0.433202</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.66447</v>
+        <v>0.726956</v>
       </c>
       <c r="C72" t="n">
-        <v>1.09978</v>
+        <v>0.5947249999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7664299999999999</v>
+        <v>0.444339</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.75464</v>
+        <v>0.75274</v>
       </c>
       <c r="C73" t="n">
-        <v>1.15962</v>
+        <v>0.621421</v>
       </c>
       <c r="D73" t="n">
-        <v>0.800603</v>
+        <v>0.455467</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.73567</v>
+        <v>0.772746</v>
       </c>
       <c r="C74" t="n">
-        <v>1.21912</v>
+        <v>0.643589</v>
       </c>
       <c r="D74" t="n">
-        <v>0.828565</v>
+        <v>0.464757</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.93013</v>
+        <v>0.807684</v>
       </c>
       <c r="C75" t="n">
-        <v>1.38475</v>
+        <v>0.677267</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8662</v>
+        <v>0.479281</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.13573</v>
+        <v>0.837214</v>
       </c>
       <c r="C76" t="n">
-        <v>1.36544</v>
+        <v>0.7022969999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.90565</v>
+        <v>0.489053</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.18805</v>
+        <v>0.874385</v>
       </c>
       <c r="C77" t="n">
-        <v>1.55439</v>
+        <v>0.738986</v>
       </c>
       <c r="D77" t="n">
-        <v>0.960033</v>
+        <v>0.506044</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.20081</v>
+        <v>0.915147</v>
       </c>
       <c r="C78" t="n">
-        <v>1.46378</v>
+        <v>0.775939</v>
       </c>
       <c r="D78" t="n">
-        <v>0.945667</v>
+        <v>0.517644</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.1939</v>
+        <v>0.968971</v>
       </c>
       <c r="C79" t="n">
-        <v>1.68052</v>
+        <v>0.817179</v>
       </c>
       <c r="D79" t="n">
-        <v>0.961919</v>
+        <v>0.534312</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.28646</v>
+        <v>1.02815</v>
       </c>
       <c r="C80" t="n">
-        <v>1.62588</v>
+        <v>0.869967</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04192</v>
+        <v>0.557054</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.58791</v>
+        <v>1.10232</v>
       </c>
       <c r="C81" t="n">
-        <v>1.80397</v>
+        <v>0.936972</v>
       </c>
       <c r="D81" t="n">
-        <v>1.07707</v>
+        <v>0.578201</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.79397</v>
+        <v>1.18842</v>
       </c>
       <c r="C82" t="n">
-        <v>1.96976</v>
+        <v>1.00869</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13941</v>
+        <v>0.601538</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.82091</v>
+        <v>1.28523</v>
       </c>
       <c r="C83" t="n">
-        <v>1.44976</v>
+        <v>0.719919</v>
       </c>
       <c r="D83" t="n">
-        <v>0.903245</v>
+        <v>0.473295</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.70742</v>
+        <v>0.994831</v>
       </c>
       <c r="C84" t="n">
-        <v>1.41261</v>
+        <v>0.775269</v>
       </c>
       <c r="D84" t="n">
-        <v>0.934149</v>
+        <v>0.48546</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.33626</v>
+        <v>1.05787</v>
       </c>
       <c r="C85" t="n">
-        <v>1.5181</v>
+        <v>0.827745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.927857</v>
+        <v>0.500786</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.68147</v>
+        <v>1.1506</v>
       </c>
       <c r="C86" t="n">
-        <v>1.82292</v>
+        <v>0.904313</v>
       </c>
       <c r="D86" t="n">
-        <v>1.01259</v>
+        <v>0.5237619999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.70744</v>
+        <v>1.24134</v>
       </c>
       <c r="C87" t="n">
-        <v>2.10213</v>
+        <v>0.9871490000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.07216</v>
+        <v>0.551969</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.66921</v>
+        <v>1.36403</v>
       </c>
       <c r="C88" t="n">
-        <v>1.90918</v>
+        <v>1.08945</v>
       </c>
       <c r="D88" t="n">
-        <v>1.10532</v>
+        <v>0.575387</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.69263</v>
+        <v>1.46589</v>
       </c>
       <c r="C89" t="n">
-        <v>1.82196</v>
+        <v>1.1886</v>
       </c>
       <c r="D89" t="n">
-        <v>1.07678</v>
+        <v>0.615395</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.09354</v>
+        <v>1.60353</v>
       </c>
       <c r="C90" t="n">
-        <v>1.96952</v>
+        <v>1.29967</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18918</v>
+        <v>0.654702</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.04079</v>
+        <v>1.74339</v>
       </c>
       <c r="C91" t="n">
-        <v>2.09951</v>
+        <v>1.42544</v>
       </c>
       <c r="D91" t="n">
-        <v>1.265</v>
+        <v>0.694862</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>4.00985</v>
+        <v>1.88544</v>
       </c>
       <c r="C92" t="n">
-        <v>2.36596</v>
+        <v>1.55585</v>
       </c>
       <c r="D92" t="n">
-        <v>1.36121</v>
+        <v>0.749853</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.95332</v>
+        <v>2.03261</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69421</v>
+        <v>1.69287</v>
       </c>
       <c r="D93" t="n">
-        <v>1.31619</v>
+        <v>0.8028419999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.53145</v>
+        <v>2.17834</v>
       </c>
       <c r="C94" t="n">
-        <v>2.50249</v>
+        <v>1.84029</v>
       </c>
       <c r="D94" t="n">
-        <v>1.40919</v>
+        <v>0.865188</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.82913</v>
+        <v>2.34816</v>
       </c>
       <c r="C95" t="n">
-        <v>2.63091</v>
+        <v>1.99285</v>
       </c>
       <c r="D95" t="n">
-        <v>1.47261</v>
+        <v>0.940867</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.11185</v>
+        <v>2.51672</v>
       </c>
       <c r="C96" t="n">
-        <v>3.0951</v>
+        <v>2.17899</v>
       </c>
       <c r="D96" t="n">
-        <v>1.63141</v>
+        <v>1.02434</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.31559</v>
+        <v>2.70313</v>
       </c>
       <c r="C97" t="n">
-        <v>1.87871</v>
+        <v>1.38989</v>
       </c>
       <c r="D97" t="n">
-        <v>1.14016</v>
+        <v>0.777595</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.25251</v>
+        <v>2.0118</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91065</v>
+        <v>1.49148</v>
       </c>
       <c r="D98" t="n">
-        <v>1.07221</v>
+        <v>0.818818</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.34704</v>
+        <v>2.12032</v>
       </c>
       <c r="C99" t="n">
-        <v>1.94266</v>
+        <v>1.57917</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16777</v>
+        <v>0.881379</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.69212</v>
+        <v>2.21989</v>
       </c>
       <c r="C100" t="n">
-        <v>2.20302</v>
+        <v>1.68838</v>
       </c>
       <c r="D100" t="n">
-        <v>1.37767</v>
+        <v>0.932964</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.02976</v>
+        <v>2.37345</v>
       </c>
       <c r="C101" t="n">
-        <v>2.24002</v>
+        <v>1.79236</v>
       </c>
       <c r="D101" t="n">
-        <v>1.36532</v>
+        <v>0.970992</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.75225</v>
+        <v>2.47997</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29024</v>
+        <v>1.90213</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43003</v>
+        <v>1.03444</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.92122</v>
+        <v>2.59832</v>
       </c>
       <c r="C103" t="n">
-        <v>2.54496</v>
+        <v>2.02226</v>
       </c>
       <c r="D103" t="n">
-        <v>1.57895</v>
+        <v>1.10291</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.10597</v>
+        <v>2.73354</v>
       </c>
       <c r="C104" t="n">
-        <v>2.58269</v>
+        <v>2.14806</v>
       </c>
       <c r="D104" t="n">
-        <v>1.61641</v>
+        <v>1.15045</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37083</v>
+        <v>2.86079</v>
       </c>
       <c r="C105" t="n">
-        <v>2.9572</v>
+        <v>2.27979</v>
       </c>
       <c r="D105" t="n">
-        <v>1.46474</v>
+        <v>1.21008</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.63566</v>
+        <v>2.99586</v>
       </c>
       <c r="C106" t="n">
-        <v>2.90378</v>
+        <v>2.40583</v>
       </c>
       <c r="D106" t="n">
-        <v>1.65261</v>
+        <v>1.28895</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.71458</v>
+        <v>3.16586</v>
       </c>
       <c r="C107" t="n">
-        <v>3.04394</v>
+        <v>2.54572</v>
       </c>
       <c r="D107" t="n">
-        <v>1.77272</v>
+        <v>1.35959</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.70997</v>
+        <v>3.3129</v>
       </c>
       <c r="C108" t="n">
-        <v>3.28945</v>
+        <v>2.71393</v>
       </c>
       <c r="D108" t="n">
-        <v>1.87564</v>
+        <v>1.43201</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.11236</v>
+        <v>3.48168</v>
       </c>
       <c r="C109" t="n">
-        <v>3.34791</v>
+        <v>2.88119</v>
       </c>
       <c r="D109" t="n">
-        <v>1.87617</v>
+        <v>1.50614</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.03146</v>
+        <v>3.64804</v>
       </c>
       <c r="C110" t="n">
-        <v>3.49252</v>
+        <v>3.04159</v>
       </c>
       <c r="D110" t="n">
-        <v>2.15412</v>
+        <v>1.59375</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>5.34619</v>
+        <v>3.83185</v>
       </c>
       <c r="C111" t="n">
-        <v>2.25847</v>
+        <v>2.0134</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43446</v>
+        <v>1.28106</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.22251</v>
+        <v>2.77706</v>
       </c>
       <c r="C112" t="n">
-        <v>2.31587</v>
+        <v>2.11291</v>
       </c>
       <c r="D112" t="n">
-        <v>1.47211</v>
+        <v>1.32192</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.21155</v>
+        <v>2.88458</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55022</v>
+        <v>2.21485</v>
       </c>
       <c r="D113" t="n">
-        <v>1.54671</v>
+        <v>1.37257</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.39159</v>
+        <v>2.97741</v>
       </c>
       <c r="C114" t="n">
-        <v>2.57656</v>
+        <v>2.31594</v>
       </c>
       <c r="D114" t="n">
-        <v>1.53628</v>
+        <v>1.42441</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.61982</v>
+        <v>3.09309</v>
       </c>
       <c r="C115" t="n">
-        <v>2.75399</v>
+        <v>2.42015</v>
       </c>
       <c r="D115" t="n">
-        <v>1.62941</v>
+        <v>1.47749</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.6308</v>
+        <v>3.20008</v>
       </c>
       <c r="C116" t="n">
-        <v>2.41978</v>
+        <v>2.52911</v>
       </c>
       <c r="D116" t="n">
-        <v>1.51399</v>
+        <v>1.52666</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.99364</v>
+        <v>3.32265</v>
       </c>
       <c r="C117" t="n">
-        <v>2.30002</v>
+        <v>2.65057</v>
       </c>
       <c r="D117" t="n">
-        <v>1.57089</v>
+        <v>1.59987</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.7873</v>
+        <v>3.45107</v>
       </c>
       <c r="C118" t="n">
-        <v>2.31227</v>
+        <v>2.78686</v>
       </c>
       <c r="D118" t="n">
-        <v>1.40003</v>
+        <v>1.66165</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.84861</v>
+        <v>3.56317</v>
       </c>
       <c r="C119" t="n">
-        <v>2.41543</v>
+        <v>2.91546</v>
       </c>
       <c r="D119" t="n">
-        <v>1.42605</v>
+        <v>1.7146</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291125</v>
+        <v>0.301546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232654</v>
+        <v>0.235396</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242312</v>
+        <v>0.247698</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29615</v>
+        <v>0.306198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236081</v>
+        <v>0.240645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246395</v>
+        <v>0.251729</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2993</v>
+        <v>0.311117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242521</v>
+        <v>0.248125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251151</v>
+        <v>0.258249</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.307088</v>
+        <v>0.319336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249627</v>
+        <v>0.255537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256407</v>
+        <v>0.266373</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.310911</v>
+        <v>0.32411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254839</v>
+        <v>0.261545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262524</v>
+        <v>0.271202</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317877</v>
+        <v>0.333171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214829</v>
+        <v>0.217096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229492</v>
+        <v>0.231269</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286315</v>
+        <v>0.289749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217033</v>
+        <v>0.219727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233899</v>
+        <v>0.23579</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29216</v>
+        <v>0.295699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220931</v>
+        <v>0.224329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237644</v>
+        <v>0.240775</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297895</v>
+        <v>0.30281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225529</v>
+        <v>0.228965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242009</v>
+        <v>0.246452</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303401</v>
+        <v>0.307744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229288</v>
+        <v>0.232864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24552</v>
+        <v>0.248456</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310625</v>
+        <v>0.312619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234181</v>
+        <v>0.237919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250938</v>
+        <v>0.252953</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318732</v>
+        <v>0.319846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240581</v>
+        <v>0.243975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25626</v>
+        <v>0.258516</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323651</v>
+        <v>0.327367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246034</v>
+        <v>0.2502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262363</v>
+        <v>0.266315</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330994</v>
+        <v>0.336219</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252788</v>
+        <v>0.25653</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267255</v>
+        <v>0.271111</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340923</v>
+        <v>0.344005</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260469</v>
+        <v>0.263196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274758</v>
+        <v>0.277035</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347889</v>
+        <v>0.350483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267149</v>
+        <v>0.271072</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28117</v>
+        <v>0.284969</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354632</v>
+        <v>0.356616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273078</v>
+        <v>0.27566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28678</v>
+        <v>0.289836</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.362079</v>
+        <v>0.363914</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278984</v>
+        <v>0.281533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293021</v>
+        <v>0.29522</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.368357</v>
+        <v>0.37117</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28543</v>
+        <v>0.287502</v>
       </c>
       <c r="D20" t="n">
-        <v>0.298607</v>
+        <v>0.303005</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376329</v>
+        <v>0.378187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238662</v>
+        <v>0.238625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256029</v>
+        <v>0.254992</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330895</v>
+        <v>0.329299</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244473</v>
+        <v>0.244016</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26191</v>
+        <v>0.261206</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335305</v>
+        <v>0.33372</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248148</v>
+        <v>0.247498</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266519</v>
+        <v>0.26593</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339863</v>
+        <v>0.338505</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254595</v>
+        <v>0.253269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27342</v>
+        <v>0.270922</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345099</v>
+        <v>0.344151</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25851</v>
+        <v>0.258224</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276896</v>
+        <v>0.276014</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350554</v>
+        <v>0.349526</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26397</v>
+        <v>0.263382</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281709</v>
+        <v>0.280751</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356483</v>
+        <v>0.356113</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269757</v>
+        <v>0.270172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288507</v>
+        <v>0.287835</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361252</v>
+        <v>0.360709</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277939</v>
+        <v>0.276105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295123</v>
+        <v>0.293882</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367651</v>
+        <v>0.36671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28408</v>
+        <v>0.282522</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302103</v>
+        <v>0.299743</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.37387</v>
+        <v>0.373555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290528</v>
+        <v>0.289518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306454</v>
+        <v>0.305821</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380331</v>
+        <v>0.379691</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29698</v>
+        <v>0.295688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31352</v>
+        <v>0.312449</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38587</v>
+        <v>0.385625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301856</v>
+        <v>0.301922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319836</v>
+        <v>0.318392</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391212</v>
+        <v>0.390791</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308421</v>
+        <v>0.308096</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325341</v>
+        <v>0.324341</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398306</v>
+        <v>0.397665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314777</v>
+        <v>0.313562</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33142</v>
+        <v>0.330331</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405227</v>
+        <v>0.404357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251923</v>
+        <v>0.251741</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27126</v>
+        <v>0.272262</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349627</v>
+        <v>0.349188</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256024</v>
+        <v>0.255648</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275045</v>
+        <v>0.276005</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353471</v>
+        <v>0.352925</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260942</v>
+        <v>0.260439</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279385</v>
+        <v>0.281014</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357749</v>
+        <v>0.357254</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267073</v>
+        <v>0.267904</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285118</v>
+        <v>0.286581</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362276</v>
+        <v>0.362081</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271752</v>
+        <v>0.271389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.292007</v>
+        <v>0.291662</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366962</v>
+        <v>0.366687</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277768</v>
+        <v>0.278418</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29653</v>
+        <v>0.297852</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371621</v>
+        <v>0.372266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28329</v>
+        <v>0.282868</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302412</v>
+        <v>0.30321</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378387</v>
+        <v>0.37801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288961</v>
+        <v>0.288432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308161</v>
+        <v>0.308985</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383789</v>
+        <v>0.382886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295976</v>
+        <v>0.295574</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3145</v>
+        <v>0.314882</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3898</v>
+        <v>0.389142</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301397</v>
+        <v>0.301</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320949</v>
+        <v>0.321425</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395958</v>
+        <v>0.395241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30787</v>
+        <v>0.307382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327012</v>
+        <v>0.327346</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402384</v>
+        <v>0.401771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313442</v>
+        <v>0.313687</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333195</v>
+        <v>0.333196</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408571</v>
+        <v>0.40785</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320131</v>
+        <v>0.320607</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339709</v>
+        <v>0.338911</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414619</v>
+        <v>0.413993</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325702</v>
+        <v>0.325757</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345167</v>
+        <v>0.344548</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419791</v>
+        <v>0.41938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330742</v>
+        <v>0.330138</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349548</v>
+        <v>0.350036</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.427015</v>
+        <v>0.425229</v>
       </c>
       <c r="C50" t="n">
-        <v>0.263921</v>
+        <v>0.26397</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276731</v>
+        <v>0.278547</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362991</v>
+        <v>0.362671</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268879</v>
+        <v>0.2688</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281414</v>
+        <v>0.283071</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367021</v>
+        <v>0.366324</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273523</v>
+        <v>0.273276</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285972</v>
+        <v>0.28871</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371644</v>
+        <v>0.371346</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278926</v>
+        <v>0.278609</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291121</v>
+        <v>0.293229</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376105</v>
+        <v>0.375707</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285617</v>
+        <v>0.28646</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296712</v>
+        <v>0.298561</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.379365</v>
+        <v>0.383249</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292</v>
+        <v>0.290045</v>
       </c>
       <c r="D55" t="n">
-        <v>0.303374</v>
+        <v>0.304519</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385997</v>
+        <v>0.386656</v>
       </c>
       <c r="C56" t="n">
-        <v>0.297807</v>
+        <v>0.296134</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30846</v>
+        <v>0.31051</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.39192</v>
+        <v>0.3945</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302173</v>
+        <v>0.302384</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314224</v>
+        <v>0.316483</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3982</v>
+        <v>0.39991</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308317</v>
+        <v>0.308815</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320524</v>
+        <v>0.322446</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403744</v>
+        <v>0.405766</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314377</v>
+        <v>0.314409</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326274</v>
+        <v>0.328736</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409951</v>
+        <v>0.413061</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32182</v>
+        <v>0.322331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332368</v>
+        <v>0.335631</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41571</v>
+        <v>0.420099</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326719</v>
+        <v>0.328406</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338349</v>
+        <v>0.341698</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.422443</v>
+        <v>0.425851</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333392</v>
+        <v>0.333665</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344519</v>
+        <v>0.347628</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428407</v>
+        <v>0.433183</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33829</v>
+        <v>0.339643</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350361</v>
+        <v>0.353227</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434422</v>
+        <v>0.439</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274691</v>
+        <v>0.274785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.28893</v>
+        <v>0.290773</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.396513</v>
+        <v>0.406122</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28035</v>
+        <v>0.28594</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300264</v>
+        <v>0.296175</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.401195</v>
+        <v>0.411905</v>
       </c>
       <c r="C66" t="n">
-        <v>0.286972</v>
+        <v>0.287527</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302122</v>
+        <v>0.301711</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409319</v>
+        <v>0.425764</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293829</v>
+        <v>0.297417</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307131</v>
+        <v>0.309084</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.419126</v>
+        <v>0.423215</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30071</v>
+        <v>0.302715</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314522</v>
+        <v>0.316722</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43387</v>
+        <v>0.416521</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307926</v>
+        <v>0.310271</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32401</v>
+        <v>0.323277</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.444827</v>
+        <v>0.435844</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316114</v>
+        <v>0.31927</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32722</v>
+        <v>0.329512</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.448629</v>
+        <v>0.455024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.322074</v>
+        <v>0.325322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335957</v>
+        <v>0.337919</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.464174</v>
+        <v>0.468336</v>
       </c>
       <c r="C72" t="n">
-        <v>0.331171</v>
+        <v>0.334386</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345719</v>
+        <v>0.345328</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.477577</v>
+        <v>0.48431</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340385</v>
+        <v>0.343271</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35506</v>
+        <v>0.355255</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500923</v>
+        <v>0.498073</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353513</v>
+        <v>0.354004</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365946</v>
+        <v>0.364666</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.523135</v>
+        <v>0.5136810000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367698</v>
+        <v>0.365665</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380813</v>
+        <v>0.374753</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5460199999999999</v>
+        <v>0.532784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380793</v>
+        <v>0.37607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393659</v>
+        <v>0.385053</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57587</v>
+        <v>0.558149</v>
       </c>
       <c r="C77" t="n">
-        <v>0.397434</v>
+        <v>0.388535</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411461</v>
+        <v>0.397507</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.598691</v>
+        <v>0.582782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.343119</v>
+        <v>0.349468</v>
       </c>
       <c r="D78" t="n">
-        <v>0.364283</v>
+        <v>0.37551</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.693174</v>
+        <v>0.704206</v>
       </c>
       <c r="C79" t="n">
-        <v>0.365835</v>
+        <v>0.376514</v>
       </c>
       <c r="D79" t="n">
-        <v>0.376984</v>
+        <v>0.387491</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7089259999999999</v>
+        <v>0.721452</v>
       </c>
       <c r="C80" t="n">
-        <v>0.379357</v>
+        <v>0.391547</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388836</v>
+        <v>0.399652</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.728019</v>
+        <v>0.74359</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396859</v>
+        <v>0.413271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.40373</v>
+        <v>0.417171</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.756267</v>
+        <v>0.774777</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423699</v>
+        <v>0.429691</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430296</v>
+        <v>0.435542</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.777072</v>
+        <v>0.790273</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436662</v>
+        <v>0.442643</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441856</v>
+        <v>0.449382</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.812692</v>
+        <v>0.814742</v>
       </c>
       <c r="C84" t="n">
-        <v>0.453523</v>
+        <v>0.46345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.462587</v>
+        <v>0.473376</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.831307</v>
+        <v>0.839979</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478716</v>
+        <v>0.4851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4851</v>
+        <v>0.492945</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.855309</v>
+        <v>0.866182</v>
       </c>
       <c r="C86" t="n">
-        <v>0.497772</v>
+        <v>0.505501</v>
       </c>
       <c r="D86" t="n">
-        <v>0.505111</v>
+        <v>0.5115</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.880533</v>
+        <v>0.8931480000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.515308</v>
+        <v>0.526347</v>
       </c>
       <c r="D87" t="n">
-        <v>0.519642</v>
+        <v>0.533094</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.907973</v>
+        <v>0.921356</v>
       </c>
       <c r="C88" t="n">
-        <v>0.53838</v>
+        <v>0.548332</v>
       </c>
       <c r="D88" t="n">
-        <v>0.542299</v>
+        <v>0.554947</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.935015</v>
+        <v>0.949627</v>
       </c>
       <c r="C89" t="n">
-        <v>0.561578</v>
+        <v>0.570495</v>
       </c>
       <c r="D89" t="n">
-        <v>0.566423</v>
+        <v>0.577423</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.966236</v>
+        <v>0.978805</v>
       </c>
       <c r="C90" t="n">
-        <v>0.584759</v>
+        <v>0.593203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589427</v>
+        <v>0.600238</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.99348</v>
+        <v>1.00892</v>
       </c>
       <c r="C91" t="n">
-        <v>0.608139</v>
+        <v>0.617966</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6125620000000001</v>
+        <v>0.6240059999999999</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02478</v>
+        <v>1.04089</v>
       </c>
       <c r="C92" t="n">
-        <v>0.621193</v>
+        <v>0.635694</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630569</v>
+        <v>0.6382679999999999</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14508</v>
+        <v>1.14627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.644056</v>
+        <v>0.6503370000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.643258</v>
+        <v>0.656308</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14928</v>
+        <v>1.15754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.660568</v>
+        <v>0.661321</v>
       </c>
       <c r="D94" t="n">
-        <v>0.671811</v>
+        <v>0.667292</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1572</v>
+        <v>1.1672</v>
       </c>
       <c r="C95" t="n">
-        <v>0.673273</v>
+        <v>0.653884</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6818340000000001</v>
+        <v>0.65964</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1765</v>
+        <v>1.15834</v>
       </c>
       <c r="C96" t="n">
-        <v>0.694479</v>
+        <v>0.6694600000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.703348</v>
+        <v>0.67699</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16482</v>
+        <v>1.17211</v>
       </c>
       <c r="C97" t="n">
-        <v>0.686902</v>
+        <v>0.686682</v>
       </c>
       <c r="D97" t="n">
-        <v>0.697997</v>
+        <v>0.69502</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17915</v>
+        <v>1.18713</v>
       </c>
       <c r="C98" t="n">
-        <v>0.704376</v>
+        <v>0.705696</v>
       </c>
       <c r="D98" t="n">
-        <v>0.714608</v>
+        <v>0.713396</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.19961</v>
+        <v>1.20439</v>
       </c>
       <c r="C99" t="n">
-        <v>0.724248</v>
+        <v>0.7241340000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.735399</v>
+        <v>0.738294</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21738</v>
+        <v>1.22163</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7432800000000001</v>
+        <v>0.743941</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.757647</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.23288</v>
+        <v>1.24127</v>
       </c>
       <c r="C101" t="n">
-        <v>0.762616</v>
+        <v>0.763507</v>
       </c>
       <c r="D101" t="n">
-        <v>0.78102</v>
+        <v>0.777855</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25355</v>
+        <v>1.26124</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784449</v>
+        <v>0.785365</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8104170000000001</v>
+        <v>0.804349</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27818</v>
+        <v>1.283</v>
       </c>
       <c r="C103" t="n">
-        <v>0.803288</v>
+        <v>0.805801</v>
       </c>
       <c r="D103" t="n">
-        <v>0.832368</v>
+        <v>0.826655</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.301</v>
+        <v>1.30547</v>
       </c>
       <c r="C104" t="n">
-        <v>0.825956</v>
+        <v>0.8269</v>
       </c>
       <c r="D104" t="n">
-        <v>0.854868</v>
+        <v>0.848169</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.32451</v>
+        <v>1.3288</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849629</v>
+        <v>0.850106</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880708</v>
+        <v>0.8700329999999999</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34867</v>
+        <v>1.35386</v>
       </c>
       <c r="C106" t="n">
-        <v>0.869533</v>
+        <v>0.872266</v>
       </c>
       <c r="D106" t="n">
-        <v>0.905108</v>
+        <v>0.8931</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37507</v>
+        <v>1.37969</v>
       </c>
       <c r="C107" t="n">
-        <v>0.823752</v>
+        <v>0.851149</v>
       </c>
       <c r="D107" t="n">
-        <v>0.838678</v>
+        <v>0.864578</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36331</v>
+        <v>1.38499</v>
       </c>
       <c r="C108" t="n">
-        <v>0.840597</v>
+        <v>0.844204</v>
       </c>
       <c r="D108" t="n">
-        <v>0.851722</v>
+        <v>0.853383</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37438</v>
+        <v>1.37882</v>
       </c>
       <c r="C109" t="n">
-        <v>0.878628</v>
+        <v>0.8569830000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.892142</v>
+        <v>0.869237</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3955</v>
+        <v>1.40288</v>
       </c>
       <c r="C110" t="n">
-        <v>0.894335</v>
+        <v>0.899398</v>
       </c>
       <c r="D110" t="n">
-        <v>0.908563</v>
+        <v>0.909965</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40873</v>
+        <v>1.39593</v>
       </c>
       <c r="C111" t="n">
-        <v>0.910593</v>
+        <v>0.895437</v>
       </c>
       <c r="D111" t="n">
-        <v>0.923419</v>
+        <v>0.905676</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42113</v>
+        <v>1.40973</v>
       </c>
       <c r="C112" t="n">
-        <v>0.928191</v>
+        <v>0.909525</v>
       </c>
       <c r="D112" t="n">
-        <v>0.942124</v>
+        <v>0.922419</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43196</v>
+        <v>1.42095</v>
       </c>
       <c r="C113" t="n">
-        <v>0.945749</v>
+        <v>0.929376</v>
       </c>
       <c r="D113" t="n">
-        <v>0.959658</v>
+        <v>0.940766</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44808</v>
+        <v>1.43792</v>
       </c>
       <c r="C114" t="n">
-        <v>0.966916</v>
+        <v>0.946353</v>
       </c>
       <c r="D114" t="n">
-        <v>0.977813</v>
+        <v>0.959736</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.46162</v>
+        <v>1.45239</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9837089999999999</v>
+        <v>0.965429</v>
       </c>
       <c r="D115" t="n">
-        <v>0.997051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48037</v>
+        <v>1.47357</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0034</v>
+        <v>0.985471</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01782</v>
+        <v>1.02112</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50118</v>
+        <v>1.49525</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02404</v>
+        <v>1.00772</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03874</v>
+        <v>1.04224</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.5217</v>
+        <v>1.51784</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04665</v>
+        <v>1.02769</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05803</v>
+        <v>1.06253</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.54001</v>
+        <v>1.53311</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06739</v>
+        <v>1.05211</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08053</v>
+        <v>1.08394</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267908</v>
+        <v>0.274626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201671</v>
+        <v>0.204342</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205061</v>
+        <v>0.206616</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278627</v>
+        <v>0.280349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206244</v>
+        <v>0.211018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206636</v>
+        <v>0.208808</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280645</v>
+        <v>0.285602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207948</v>
+        <v>0.212377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208383</v>
+        <v>0.211037</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28343</v>
+        <v>0.28878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211432</v>
+        <v>0.2163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210188</v>
+        <v>0.212426</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283652</v>
+        <v>0.287654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220627</v>
+        <v>0.222938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213976</v>
+        <v>0.216468</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293665</v>
+        <v>0.297042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203386</v>
+        <v>0.206919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215305</v>
+        <v>0.217893</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283301</v>
+        <v>0.2904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204315</v>
+        <v>0.210704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219085</v>
+        <v>0.222277</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287521</v>
+        <v>0.296407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209619</v>
+        <v>0.215952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219866</v>
+        <v>0.223206</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291631</v>
+        <v>0.3004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211414</v>
+        <v>0.216531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221707</v>
+        <v>0.22542</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293768</v>
+        <v>0.306536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209292</v>
+        <v>0.216827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218875</v>
+        <v>0.224655</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297107</v>
+        <v>0.306329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215472</v>
+        <v>0.223285</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223035</v>
+        <v>0.227799</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312127</v>
+        <v>0.314463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214924</v>
+        <v>0.222923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224792</v>
+        <v>0.231473</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308692</v>
+        <v>0.317912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217976</v>
+        <v>0.225055</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22414</v>
+        <v>0.229217</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31482</v>
+        <v>0.325144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201</v>
+        <v>0.228415</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22648</v>
+        <v>0.233647</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.320465</v>
+        <v>0.334767</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22622</v>
+        <v>0.242881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233196</v>
+        <v>0.237811</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328372</v>
+        <v>0.339498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229908</v>
+        <v>0.237627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231861</v>
+        <v>0.239125</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.328271</v>
+        <v>0.338613</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234659</v>
+        <v>0.246876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23916</v>
+        <v>0.242153</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.330822</v>
+        <v>0.349293</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238323</v>
+        <v>0.25686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237586</v>
+        <v>0.249168</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.338173</v>
+        <v>0.352056</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245252</v>
+        <v>0.256611</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24012</v>
+        <v>0.246295</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.348412</v>
+        <v>0.358834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234244</v>
+        <v>0.242466</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241508</v>
+        <v>0.246059</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.335132</v>
+        <v>0.344443</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23882</v>
+        <v>0.249411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247436</v>
+        <v>0.24776</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.350831</v>
+        <v>0.352214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241475</v>
+        <v>0.253494</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244997</v>
+        <v>0.250718</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348316</v>
+        <v>0.356826</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253011</v>
+        <v>0.263296</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252619</v>
+        <v>0.255385</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.353122</v>
+        <v>0.364271</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270643</v>
+        <v>0.280354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260823</v>
+        <v>0.263283</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.365008</v>
+        <v>0.368299</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271036</v>
+        <v>0.280347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25971</v>
+        <v>0.268083</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.372416</v>
+        <v>0.374489</v>
       </c>
       <c r="C27" t="n">
-        <v>0.280787</v>
+        <v>0.290298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.266434</v>
+        <v>0.270668</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.377327</v>
+        <v>0.379466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.284328</v>
+        <v>0.292532</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270219</v>
+        <v>0.273195</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383296</v>
+        <v>0.386483</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289183</v>
+        <v>0.297565</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273287</v>
+        <v>0.27689</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.389015</v>
+        <v>0.39232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303194</v>
+        <v>0.311</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280256</v>
+        <v>0.281627</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.396071</v>
+        <v>0.398996</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301102</v>
+        <v>0.308891</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28205</v>
+        <v>0.284856</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.399066</v>
+        <v>0.401838</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3117</v>
+        <v>0.318254</v>
       </c>
       <c r="D32" t="n">
-        <v>0.286808</v>
+        <v>0.290165</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40465</v>
+        <v>0.406797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321256</v>
+        <v>0.327846</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293212</v>
+        <v>0.292895</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410132</v>
+        <v>0.411779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32977</v>
+        <v>0.331952</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296804</v>
+        <v>0.298311</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418157</v>
+        <v>0.420609</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273965</v>
+        <v>0.273529</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278201</v>
+        <v>0.278466</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402204</v>
+        <v>0.402312</v>
       </c>
       <c r="C36" t="n">
-        <v>0.279298</v>
+        <v>0.279997</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279788</v>
+        <v>0.280868</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408236</v>
+        <v>0.408942</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282708</v>
+        <v>0.285831</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283104</v>
+        <v>0.28358</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409929</v>
+        <v>0.411087</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288102</v>
+        <v>0.288085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284803</v>
+        <v>0.285378</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.41493</v>
+        <v>0.415123</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295065</v>
+        <v>0.295629</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289731</v>
+        <v>0.290115</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418798</v>
+        <v>0.419212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298212</v>
+        <v>0.29933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292263</v>
+        <v>0.291989</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.42337</v>
+        <v>0.423902</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302424</v>
+        <v>0.303152</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293812</v>
+        <v>0.293899</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43001</v>
+        <v>0.430693</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303558</v>
+        <v>0.304735</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296206</v>
+        <v>0.296084</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435854</v>
+        <v>0.437631</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309263</v>
+        <v>0.309701</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298134</v>
+        <v>0.298782</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439818</v>
+        <v>0.44098</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313475</v>
+        <v>0.314766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.30098</v>
+        <v>0.300966</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442541</v>
+        <v>0.44253</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317029</v>
+        <v>0.317991</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304647</v>
+        <v>0.30464</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449364</v>
+        <v>0.44944</v>
       </c>
       <c r="C46" t="n">
-        <v>0.318249</v>
+        <v>0.319234</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305389</v>
+        <v>0.305699</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455635</v>
+        <v>0.455568</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324384</v>
+        <v>0.324891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30894</v>
+        <v>0.308346</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461394</v>
+        <v>0.461337</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329874</v>
+        <v>0.330961</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311136</v>
+        <v>0.311041</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467227</v>
+        <v>0.466994</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33491</v>
+        <v>0.334903</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315</v>
+        <v>0.314672</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476713</v>
+        <v>0.477036</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304071</v>
+        <v>0.305073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293531</v>
+        <v>0.293873</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429377</v>
+        <v>0.430369</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30779</v>
+        <v>0.308428</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296029</v>
+        <v>0.297042</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430773</v>
+        <v>0.433545</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311012</v>
+        <v>0.311954</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297097</v>
+        <v>0.297153</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438684</v>
+        <v>0.439116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315689</v>
+        <v>0.316064</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300173</v>
+        <v>0.299969</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441958</v>
+        <v>0.442681</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321245</v>
+        <v>0.321249</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303536</v>
+        <v>0.303115</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445048</v>
+        <v>0.444447</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326865</v>
+        <v>0.326855</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305488</v>
+        <v>0.305475</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450602</v>
+        <v>0.450185</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326516</v>
+        <v>0.326834</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307362</v>
+        <v>0.307114</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453131</v>
+        <v>0.453003</v>
       </c>
       <c r="C57" t="n">
-        <v>0.334629</v>
+        <v>0.33506</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309852</v>
+        <v>0.309722</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456971</v>
+        <v>0.457492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342244</v>
+        <v>0.342646</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31407</v>
+        <v>0.31399</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461492</v>
+        <v>0.461191</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349457</v>
+        <v>0.349856</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31848</v>
+        <v>0.318068</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466724</v>
+        <v>0.468027</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354109</v>
+        <v>0.35435</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320706</v>
+        <v>0.321027</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470576</v>
+        <v>0.471191</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359332</v>
+        <v>0.359663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323647</v>
+        <v>0.323517</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.479338</v>
+        <v>0.47762</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364506</v>
+        <v>0.364044</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325123</v>
+        <v>0.325353</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483522</v>
+        <v>0.482501</v>
       </c>
       <c r="C63" t="n">
-        <v>0.370139</v>
+        <v>0.369754</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328683</v>
+        <v>0.328492</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489795</v>
+        <v>0.488495</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333186</v>
+        <v>0.326194</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310479</v>
+        <v>0.31845</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461028</v>
+        <v>0.46487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.342647</v>
+        <v>0.343689</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316291</v>
+        <v>0.316213</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467302</v>
+        <v>0.458705</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34438</v>
+        <v>0.343404</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316912</v>
+        <v>0.317523</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.47813</v>
+        <v>0.474782</v>
       </c>
       <c r="C67" t="n">
-        <v>0.351731</v>
+        <v>0.351654</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320172</v>
+        <v>0.31985</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489082</v>
+        <v>0.489034</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355797</v>
+        <v>0.355879</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325303</v>
+        <v>0.32332</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494854</v>
+        <v>0.493035</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36068</v>
+        <v>0.360812</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32742</v>
+        <v>0.322238</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507412</v>
+        <v>0.505316</v>
       </c>
       <c r="C70" t="n">
-        <v>0.367896</v>
+        <v>0.363365</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330644</v>
+        <v>0.327033</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.516579</v>
+        <v>0.510661</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377757</v>
+        <v>0.374073</v>
       </c>
       <c r="D71" t="n">
-        <v>0.33467</v>
+        <v>0.332497</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.528973</v>
+        <v>0.524356</v>
       </c>
       <c r="C72" t="n">
-        <v>0.383941</v>
+        <v>0.38321</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338725</v>
+        <v>0.336982</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.545814</v>
+        <v>0.547037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.393435</v>
+        <v>0.393313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344279</v>
+        <v>0.338972</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.55821</v>
+        <v>0.559607</v>
       </c>
       <c r="C74" t="n">
-        <v>0.400025</v>
+        <v>0.399958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34668</v>
+        <v>0.344065</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.572998</v>
+        <v>0.571589</v>
       </c>
       <c r="C75" t="n">
-        <v>0.406453</v>
+        <v>0.407861</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353081</v>
+        <v>0.350427</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590486</v>
+        <v>0.586136</v>
       </c>
       <c r="C76" t="n">
-        <v>0.418637</v>
+        <v>0.419911</v>
       </c>
       <c r="D76" t="n">
-        <v>0.359934</v>
+        <v>0.357602</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.601011</v>
+        <v>0.604735</v>
       </c>
       <c r="C77" t="n">
-        <v>0.430087</v>
+        <v>0.434482</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3642</v>
+        <v>0.362291</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.638988</v>
+        <v>0.636496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361068</v>
+        <v>0.413716</v>
       </c>
       <c r="D78" t="n">
-        <v>0.345489</v>
+        <v>0.349154</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646015</v>
+        <v>0.681721</v>
       </c>
       <c r="C79" t="n">
-        <v>0.402183</v>
+        <v>0.421529</v>
       </c>
       <c r="D79" t="n">
-        <v>0.355608</v>
+        <v>0.368037</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.682211</v>
+        <v>0.716122</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416997</v>
+        <v>0.439319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36413</v>
+        <v>0.368433</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.702398</v>
+        <v>0.75664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435547</v>
+        <v>0.45924</v>
       </c>
       <c r="D81" t="n">
-        <v>0.372204</v>
+        <v>0.377698</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.750685</v>
+        <v>0.789516</v>
       </c>
       <c r="C82" t="n">
-        <v>0.45646</v>
+        <v>0.483826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377324</v>
+        <v>0.391355</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.810508</v>
+        <v>0.834873</v>
       </c>
       <c r="C83" t="n">
-        <v>0.484256</v>
+        <v>0.5025539999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.385039</v>
+        <v>0.406878</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8527400000000001</v>
+        <v>0.841297</v>
       </c>
       <c r="C84" t="n">
-        <v>0.504375</v>
+        <v>0.534424</v>
       </c>
       <c r="D84" t="n">
-        <v>0.395261</v>
+        <v>0.421116</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.88368</v>
+        <v>0.894814</v>
       </c>
       <c r="C85" t="n">
-        <v>0.530738</v>
+        <v>0.540822</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407407</v>
+        <v>0.411991</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.946977</v>
+        <v>0.957004</v>
       </c>
       <c r="C86" t="n">
-        <v>0.555094</v>
+        <v>0.565719</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422043</v>
+        <v>0.423692</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00188</v>
+        <v>1.00026</v>
       </c>
       <c r="C87" t="n">
-        <v>0.584588</v>
+        <v>0.595125</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434577</v>
+        <v>0.444295</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05134</v>
+        <v>1.06853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611413</v>
+        <v>0.62566</v>
       </c>
       <c r="D88" t="n">
-        <v>0.448678</v>
+        <v>0.459506</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.09291</v>
+        <v>1.11161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.650342</v>
+        <v>0.662937</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474306</v>
+        <v>0.482859</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14795</v>
+        <v>1.16406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6848919999999999</v>
+        <v>0.695804</v>
       </c>
       <c r="D90" t="n">
-        <v>0.489338</v>
+        <v>0.491815</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.22314</v>
+        <v>1.24215</v>
       </c>
       <c r="C91" t="n">
-        <v>0.726362</v>
+        <v>0.739734</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5097930000000001</v>
+        <v>0.51697</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2646</v>
+        <v>1.28796</v>
       </c>
       <c r="C92" t="n">
-        <v>0.74183</v>
+        <v>0.775342</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618129</v>
+        <v>0.630856</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31631</v>
+        <v>1.28346</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7762</v>
+        <v>0.771211</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630269</v>
+        <v>0.624212</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.35137</v>
+        <v>1.34433</v>
       </c>
       <c r="C94" t="n">
-        <v>0.832043</v>
+        <v>0.843728</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6798380000000001</v>
+        <v>0.6860270000000001</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39424</v>
+        <v>1.42237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.842533</v>
+        <v>0.878949</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6756450000000001</v>
+        <v>0.709696</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43189</v>
+        <v>1.46922</v>
       </c>
       <c r="C96" t="n">
-        <v>0.876426</v>
+        <v>0.914367</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699986</v>
+        <v>0.733443</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49065</v>
+        <v>1.51106</v>
       </c>
       <c r="C97" t="n">
-        <v>0.913018</v>
+        <v>0.951121</v>
       </c>
       <c r="D97" t="n">
-        <v>0.724712</v>
+        <v>0.762859</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56565</v>
+        <v>1.55643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.954419</v>
+        <v>0.986622</v>
       </c>
       <c r="D98" t="n">
-        <v>0.781289</v>
+        <v>0.7664339999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59732</v>
+        <v>1.59467</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01198</v>
+        <v>1.00631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796943</v>
+        <v>0.816777</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63274</v>
+        <v>1.65894</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04325</v>
+        <v>1.06585</v>
       </c>
       <c r="D100" t="n">
-        <v>0.83081</v>
+        <v>0.84272</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.66716</v>
+        <v>1.70504</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07678</v>
+        <v>1.09724</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850128</v>
+        <v>0.866825</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72465</v>
+        <v>1.74457</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11789</v>
+        <v>1.13876</v>
       </c>
       <c r="D102" t="n">
-        <v>0.880915</v>
+        <v>0.892182</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77545</v>
+        <v>1.77503</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15306</v>
+        <v>1.17241</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914274</v>
+        <v>0.917907</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.82221</v>
+        <v>1.83435</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19071</v>
+        <v>1.20736</v>
       </c>
       <c r="D104" t="n">
-        <v>0.940573</v>
+        <v>0.9458220000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.85164</v>
+        <v>1.87896</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23167</v>
+        <v>1.24863</v>
       </c>
       <c r="D105" t="n">
-        <v>0.954901</v>
+        <v>0.9548450000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91237</v>
+        <v>1.91734</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27291</v>
+        <v>1.26679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987044</v>
+        <v>0.981697</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.81501</v>
+        <v>1.82919</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17141</v>
+        <v>1.19881</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0342</v>
+        <v>1.04964</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.84842</v>
+        <v>1.84553</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21932</v>
+        <v>1.22621</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06313</v>
+        <v>1.06616</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88019</v>
+        <v>1.88759</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24825</v>
+        <v>1.25758</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0835</v>
+        <v>1.0855</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91872</v>
+        <v>1.92984</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27673</v>
+        <v>1.28439</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1013</v>
+        <v>1.10649</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.94897</v>
+        <v>1.95563</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30232</v>
+        <v>1.30928</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12228</v>
+        <v>1.12928</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.96392</v>
+        <v>1.9961</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33167</v>
+        <v>1.34374</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14896</v>
+        <v>1.14654</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.01688</v>
+        <v>2.02354</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36459</v>
+        <v>1.37286</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16551</v>
+        <v>1.17023</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05169</v>
+        <v>2.05987</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39243</v>
+        <v>1.40084</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18537</v>
+        <v>1.19254</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.08037</v>
+        <v>2.09365</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42728</v>
+        <v>1.43544</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21043</v>
+        <v>1.20965</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.11915</v>
+        <v>2.12708</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45874</v>
+        <v>1.46629</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23003</v>
+        <v>1.23242</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15059</v>
+        <v>2.16707</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48825</v>
+        <v>1.49641</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24826</v>
+        <v>1.26073</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.18178</v>
+        <v>2.19378</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52861</v>
+        <v>1.53649</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27208</v>
+        <v>1.28171</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.22854</v>
+        <v>2.22904</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56465</v>
+        <v>1.57099</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30375</v>
+        <v>1.29546</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427151</v>
+        <v>0.436566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.313374</v>
+        <v>0.324791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.271777</v>
+        <v>0.274143</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436714</v>
+        <v>0.445041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316024</v>
+        <v>0.325495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.274111</v>
+        <v>0.277457</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.452092</v>
+        <v>0.462446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33356</v>
+        <v>0.345965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28388</v>
+        <v>0.286873</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459879</v>
+        <v>0.471852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.342644</v>
+        <v>0.3525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.287326</v>
+        <v>0.291893</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46715</v>
+        <v>0.478865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353476</v>
+        <v>0.356287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292118</v>
+        <v>0.296194</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.490831</v>
+        <v>0.496417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37005</v>
+        <v>0.376253</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30048</v>
+        <v>0.302568</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.497013</v>
+        <v>0.508408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389749</v>
+        <v>0.393496</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309041</v>
+        <v>0.313844</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52154</v>
+        <v>0.525647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.40478</v>
+        <v>0.409547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321556</v>
+        <v>0.325646</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.540248</v>
+        <v>0.542516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427348</v>
+        <v>0.427753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.332979</v>
+        <v>0.33796</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555984</v>
+        <v>0.560935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322866</v>
+        <v>0.329762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271987</v>
+        <v>0.275321</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398121</v>
+        <v>0.419397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.324495</v>
+        <v>0.337073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271104</v>
+        <v>0.27695</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.415161</v>
+        <v>0.430508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336383</v>
+        <v>0.348834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28231</v>
+        <v>0.287081</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.418932</v>
+        <v>0.44477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.350666</v>
+        <v>0.374322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282707</v>
+        <v>0.288903</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441251</v>
+        <v>0.457907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.364862</v>
+        <v>0.38106</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29181</v>
+        <v>0.29594</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445553</v>
+        <v>0.4648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.379369</v>
+        <v>0.393666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298529</v>
+        <v>0.302748</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466039</v>
+        <v>0.497286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393057</v>
+        <v>0.419829</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307363</v>
+        <v>0.314155</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485456</v>
+        <v>0.505764</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407175</v>
+        <v>0.416948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305911</v>
+        <v>0.312551</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.512622</v>
+        <v>0.530504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422567</v>
+        <v>0.442583</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320027</v>
+        <v>0.323578</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.521995</v>
+        <v>0.540204</v>
       </c>
       <c r="C20" t="n">
-        <v>0.443859</v>
+        <v>0.473441</v>
       </c>
       <c r="D20" t="n">
-        <v>0.329792</v>
+        <v>0.34386</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.542362</v>
+        <v>0.567618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463775</v>
+        <v>0.480968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341704</v>
+        <v>0.349844</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.561452</v>
+        <v>0.582006</v>
       </c>
       <c r="C22" t="n">
-        <v>0.487771</v>
+        <v>0.516466</v>
       </c>
       <c r="D22" t="n">
-        <v>0.347606</v>
+        <v>0.357605</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.598147</v>
+        <v>0.623957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.515669</v>
+        <v>0.542362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.365275</v>
+        <v>0.376195</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618317</v>
+        <v>0.643135</v>
       </c>
       <c r="C24" t="n">
-        <v>0.536233</v>
+        <v>0.56133</v>
       </c>
       <c r="D24" t="n">
-        <v>0.376139</v>
+        <v>0.390127</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64359</v>
+        <v>0.662037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5618030000000001</v>
+        <v>0.589545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.390161</v>
+        <v>0.400167</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6782319999999999</v>
+        <v>0.7001039999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.354741</v>
+        <v>0.385563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277165</v>
+        <v>0.287553</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.487805</v>
+        <v>0.510786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.380251</v>
+        <v>0.396014</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284367</v>
+        <v>0.296434</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.508835</v>
+        <v>0.526531</v>
       </c>
       <c r="C28" t="n">
-        <v>0.392085</v>
+        <v>0.409356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295118</v>
+        <v>0.30485</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533987</v>
+        <v>0.546843</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409596</v>
+        <v>0.417957</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300123</v>
+        <v>0.308145</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.557806</v>
+        <v>0.56789</v>
       </c>
       <c r="C30" t="n">
-        <v>0.429899</v>
+        <v>0.42994</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31033</v>
+        <v>0.316663</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.578693</v>
+        <v>0.587861</v>
       </c>
       <c r="C31" t="n">
-        <v>0.445358</v>
+        <v>0.452892</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321055</v>
+        <v>0.325863</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.599445</v>
+        <v>0.605507</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463922</v>
+        <v>0.471731</v>
       </c>
       <c r="D32" t="n">
-        <v>0.330137</v>
+        <v>0.333059</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.613469</v>
+        <v>0.615213</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482864</v>
+        <v>0.484927</v>
       </c>
       <c r="D33" t="n">
-        <v>0.342784</v>
+        <v>0.343706</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.641947</v>
+        <v>0.643015</v>
       </c>
       <c r="C34" t="n">
-        <v>0.503478</v>
+        <v>0.510008</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356794</v>
+        <v>0.355243</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.663643</v>
+        <v>0.66801</v>
       </c>
       <c r="C35" t="n">
-        <v>0.52499</v>
+        <v>0.5314489999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367726</v>
+        <v>0.361544</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685948</v>
+        <v>0.682959</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550574</v>
+        <v>0.554604</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378251</v>
+        <v>0.383347</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716992</v>
+        <v>0.716402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.573902</v>
+        <v>0.578682</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390469</v>
+        <v>0.394226</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738498</v>
+        <v>0.740758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5966939999999999</v>
+        <v>0.602629</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408974</v>
+        <v>0.408654</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.773522</v>
+        <v>0.777345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6244150000000001</v>
+        <v>0.626495</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421932</v>
+        <v>0.418865</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.796168</v>
+        <v>0.799212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453316</v>
+        <v>0.458844</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351866</v>
+        <v>0.351037</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579639</v>
+        <v>0.579657</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469443</v>
+        <v>0.471003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.359685</v>
+        <v>0.358933</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.59831</v>
+        <v>0.601845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48751</v>
+        <v>0.48804</v>
       </c>
       <c r="D42" t="n">
-        <v>0.367588</v>
+        <v>0.370281</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616915</v>
+        <v>0.618214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.50074</v>
+        <v>0.501895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376441</v>
+        <v>0.379023</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629621</v>
+        <v>0.630274</v>
       </c>
       <c r="C44" t="n">
-        <v>0.523805</v>
+        <v>0.524707</v>
       </c>
       <c r="D44" t="n">
-        <v>0.387545</v>
+        <v>0.382906</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652067</v>
+        <v>0.649766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.536521</v>
+        <v>0.5386609999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.391356</v>
+        <v>0.397196</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664397</v>
+        <v>0.662986</v>
       </c>
       <c r="C46" t="n">
-        <v>0.556525</v>
+        <v>0.557105</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406961</v>
+        <v>0.408223</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684588</v>
+        <v>0.6844710000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.574547</v>
+        <v>0.575933</v>
       </c>
       <c r="D47" t="n">
-        <v>0.416212</v>
+        <v>0.412538</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701259</v>
+        <v>0.700554</v>
       </c>
       <c r="C48" t="n">
-        <v>0.590538</v>
+        <v>0.591715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.427297</v>
+        <v>0.431119</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7228</v>
+        <v>0.722532</v>
       </c>
       <c r="C49" t="n">
-        <v>0.615389</v>
+        <v>0.614989</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432137</v>
+        <v>0.436103</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744623</v>
+        <v>0.744336</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63296</v>
+        <v>0.635381</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443672</v>
+        <v>0.45127</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.765754</v>
+        <v>0.760278</v>
       </c>
       <c r="C51" t="n">
-        <v>0.658081</v>
+        <v>0.659882</v>
       </c>
       <c r="D51" t="n">
-        <v>0.462987</v>
+        <v>0.466205</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.79009</v>
+        <v>0.788231</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684777</v>
+        <v>0.6848109999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476922</v>
+        <v>0.472373</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808218</v>
+        <v>0.809414</v>
       </c>
       <c r="C53" t="n">
-        <v>0.707623</v>
+        <v>0.710108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493543</v>
+        <v>0.495756</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83296</v>
+        <v>0.82958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515012</v>
+        <v>0.515351</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395584</v>
+        <v>0.398417</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622773</v>
+        <v>0.623015</v>
       </c>
       <c r="C55" t="n">
-        <v>0.526517</v>
+        <v>0.527373</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405313</v>
+        <v>0.404276</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638524</v>
+        <v>0.638031</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54336</v>
+        <v>0.547362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413212</v>
+        <v>0.413187</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.654604</v>
+        <v>0.652285</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558124</v>
+        <v>0.558724</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419834</v>
+        <v>0.421613</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668665</v>
+        <v>0.668634</v>
       </c>
       <c r="C58" t="n">
-        <v>0.572703</v>
+        <v>0.573395</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4282</v>
+        <v>0.428636</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.688353</v>
+        <v>0.686244</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5881729999999999</v>
+        <v>0.5888600000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43768</v>
+        <v>0.438702</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702244</v>
+        <v>0.701081</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606359</v>
+        <v>0.606673</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444521</v>
+        <v>0.44622</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720148</v>
+        <v>0.720095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.623844</v>
+        <v>0.623818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454907</v>
+        <v>0.455931</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737859</v>
+        <v>0.737236</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639551</v>
+        <v>0.639949</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462668</v>
+        <v>0.464695</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757047</v>
+        <v>0.758335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.66308</v>
+        <v>0.663226</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475737</v>
+        <v>0.476798</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769468</v>
+        <v>0.769711</v>
       </c>
       <c r="C64" t="n">
-        <v>0.679707</v>
+        <v>0.680404</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485958</v>
+        <v>0.483006</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796343</v>
+        <v>0.795883</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707251</v>
+        <v>0.707815</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497649</v>
+        <v>0.501006</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818496</v>
+        <v>0.818204</v>
       </c>
       <c r="C66" t="n">
-        <v>0.726095</v>
+        <v>0.726665</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509476</v>
+        <v>0.512274</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850133</v>
+        <v>0.845448</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75691</v>
+        <v>0.757294</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5258969999999999</v>
+        <v>0.528875</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877507</v>
+        <v>0.876341</v>
       </c>
       <c r="C68" t="n">
-        <v>0.512435</v>
+        <v>0.509808</v>
       </c>
       <c r="D68" t="n">
-        <v>0.404924</v>
+        <v>0.406335</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.656489</v>
+        <v>0.65463</v>
       </c>
       <c r="C69" t="n">
-        <v>0.529656</v>
+        <v>0.526313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411578</v>
+        <v>0.412921</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676002</v>
+        <v>0.677027</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550056</v>
+        <v>0.550028</v>
       </c>
       <c r="D70" t="n">
-        <v>0.42249</v>
+        <v>0.424131</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701379</v>
+        <v>0.705766</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571574</v>
+        <v>0.57216</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433202</v>
+        <v>0.435048</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726956</v>
+        <v>0.729421</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5947249999999999</v>
+        <v>0.594729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.444339</v>
+        <v>0.446736</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75274</v>
+        <v>0.760813</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621421</v>
+        <v>0.625799</v>
       </c>
       <c r="D73" t="n">
-        <v>0.455467</v>
+        <v>0.458026</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.772746</v>
+        <v>0.785934</v>
       </c>
       <c r="C74" t="n">
-        <v>0.643589</v>
+        <v>0.649934</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464757</v>
+        <v>0.469117</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.807684</v>
+        <v>0.8175559999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677267</v>
+        <v>0.681909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.479281</v>
+        <v>0.481738</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.837214</v>
+        <v>0.850742</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7022969999999999</v>
+        <v>0.713574</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489053</v>
+        <v>0.494329</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874385</v>
+        <v>0.892896</v>
       </c>
       <c r="C77" t="n">
-        <v>0.738986</v>
+        <v>0.751406</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506044</v>
+        <v>0.509479</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.915147</v>
+        <v>0.937084</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775939</v>
+        <v>0.7904369999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517644</v>
+        <v>0.52258</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.968971</v>
+        <v>0.99426</v>
       </c>
       <c r="C79" t="n">
-        <v>0.817179</v>
+        <v>0.835476</v>
       </c>
       <c r="D79" t="n">
-        <v>0.534312</v>
+        <v>0.5414639999999999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02815</v>
+        <v>1.0612</v>
       </c>
       <c r="C80" t="n">
-        <v>0.869967</v>
+        <v>0.89558</v>
       </c>
       <c r="D80" t="n">
-        <v>0.557054</v>
+        <v>0.56546</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10232</v>
+        <v>1.14785</v>
       </c>
       <c r="C81" t="n">
-        <v>0.936972</v>
+        <v>0.973444</v>
       </c>
       <c r="D81" t="n">
-        <v>0.578201</v>
+        <v>0.590063</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.18842</v>
+        <v>1.237</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00869</v>
+        <v>1.04468</v>
       </c>
       <c r="D82" t="n">
-        <v>0.601538</v>
+        <v>0.612704</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.28523</v>
+        <v>1.34897</v>
       </c>
       <c r="C83" t="n">
-        <v>0.719919</v>
+        <v>0.76413</v>
       </c>
       <c r="D83" t="n">
-        <v>0.473295</v>
+        <v>0.487706</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.994831</v>
+        <v>1.05287</v>
       </c>
       <c r="C84" t="n">
-        <v>0.775269</v>
+        <v>0.823367</v>
       </c>
       <c r="D84" t="n">
-        <v>0.48546</v>
+        <v>0.503174</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05787</v>
+        <v>1.14307</v>
       </c>
       <c r="C85" t="n">
-        <v>0.827745</v>
+        <v>0.883889</v>
       </c>
       <c r="D85" t="n">
-        <v>0.500786</v>
+        <v>0.519612</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1506</v>
+        <v>1.2116</v>
       </c>
       <c r="C86" t="n">
-        <v>0.904313</v>
+        <v>0.961193</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5237619999999999</v>
+        <v>0.545031</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.24134</v>
+        <v>1.30524</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9871490000000001</v>
+        <v>1.03957</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551969</v>
+        <v>0.570693</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36403</v>
+        <v>1.40461</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08945</v>
+        <v>1.13791</v>
       </c>
       <c r="D88" t="n">
-        <v>0.575387</v>
+        <v>0.6074270000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.46589</v>
+        <v>1.52713</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1886</v>
+        <v>1.24337</v>
       </c>
       <c r="D89" t="n">
-        <v>0.615395</v>
+        <v>0.648909</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.60353</v>
+        <v>1.65696</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29967</v>
+        <v>1.34897</v>
       </c>
       <c r="D90" t="n">
-        <v>0.654702</v>
+        <v>0.692568</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.74339</v>
+        <v>1.776</v>
       </c>
       <c r="C91" t="n">
-        <v>1.42544</v>
+        <v>1.46686</v>
       </c>
       <c r="D91" t="n">
-        <v>0.694862</v>
+        <v>0.734581</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88544</v>
+        <v>1.92463</v>
       </c>
       <c r="C92" t="n">
-        <v>1.55585</v>
+        <v>1.59464</v>
       </c>
       <c r="D92" t="n">
-        <v>0.749853</v>
+        <v>0.78048</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.03261</v>
+        <v>2.06468</v>
       </c>
       <c r="C93" t="n">
-        <v>1.69287</v>
+        <v>1.7291</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8028419999999999</v>
+        <v>0.835827</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.17834</v>
+        <v>2.21869</v>
       </c>
       <c r="C94" t="n">
-        <v>1.84029</v>
+        <v>1.87878</v>
       </c>
       <c r="D94" t="n">
-        <v>0.865188</v>
+        <v>0.899715</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.34816</v>
+        <v>2.39081</v>
       </c>
       <c r="C95" t="n">
-        <v>1.99285</v>
+        <v>2.03051</v>
       </c>
       <c r="D95" t="n">
-        <v>0.940867</v>
+        <v>0.972649</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.51672</v>
+        <v>2.54915</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17899</v>
+        <v>2.2154</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02434</v>
+        <v>1.05917</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70313</v>
+        <v>2.71608</v>
       </c>
       <c r="C97" t="n">
-        <v>1.38989</v>
+        <v>1.40278</v>
       </c>
       <c r="D97" t="n">
-        <v>0.777595</v>
+        <v>0.780462</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0118</v>
+        <v>2.02348</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49148</v>
+        <v>1.49699</v>
       </c>
       <c r="D98" t="n">
-        <v>0.818818</v>
+        <v>0.827217</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12032</v>
+        <v>2.13388</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57917</v>
+        <v>1.59143</v>
       </c>
       <c r="D99" t="n">
-        <v>0.881379</v>
+        <v>0.880504</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.21989</v>
+        <v>2.24087</v>
       </c>
       <c r="C100" t="n">
-        <v>1.68838</v>
+        <v>1.69764</v>
       </c>
       <c r="D100" t="n">
-        <v>0.932964</v>
+        <v>0.941746</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.37345</v>
+        <v>2.37395</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79236</v>
+        <v>1.80448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.970992</v>
+        <v>0.996498</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.47997</v>
+        <v>2.49246</v>
       </c>
       <c r="C102" t="n">
-        <v>1.90213</v>
+        <v>1.9149</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03444</v>
+        <v>1.0617</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59832</v>
+        <v>2.61446</v>
       </c>
       <c r="C103" t="n">
-        <v>2.02226</v>
+        <v>2.03255</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10291</v>
+        <v>1.1101</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.73354</v>
+        <v>2.73057</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14806</v>
+        <v>2.15824</v>
       </c>
       <c r="D104" t="n">
-        <v>1.15045</v>
+        <v>1.18161</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86079</v>
+        <v>2.86935</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27979</v>
+        <v>2.28943</v>
       </c>
       <c r="D105" t="n">
-        <v>1.21008</v>
+        <v>1.24043</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99586</v>
+        <v>3.02643</v>
       </c>
       <c r="C106" t="n">
-        <v>2.40583</v>
+        <v>2.42192</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28895</v>
+        <v>1.30094</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.16586</v>
+        <v>3.17525</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54572</v>
+        <v>2.55787</v>
       </c>
       <c r="D107" t="n">
-        <v>1.35959</v>
+        <v>1.3803</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3129</v>
+        <v>3.32404</v>
       </c>
       <c r="C108" t="n">
-        <v>2.71393</v>
+        <v>2.72155</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43201</v>
+        <v>1.46118</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.48168</v>
+        <v>3.49412</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88119</v>
+        <v>2.89222</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50614</v>
+        <v>1.54169</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.64804</v>
+        <v>3.65139</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04159</v>
+        <v>3.06159</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59375</v>
+        <v>1.61852</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.83185</v>
+        <v>3.8414</v>
       </c>
       <c r="C111" t="n">
-        <v>2.0134</v>
+        <v>2.02574</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28106</v>
+        <v>1.28896</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.77706</v>
+        <v>2.79905</v>
       </c>
       <c r="C112" t="n">
-        <v>2.11291</v>
+        <v>2.12466</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32192</v>
+        <v>1.33761</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88458</v>
+        <v>2.88998</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21485</v>
+        <v>2.22947</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37257</v>
+        <v>1.39149</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.97741</v>
+        <v>2.98344</v>
       </c>
       <c r="C114" t="n">
-        <v>2.31594</v>
+        <v>2.3278</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42441</v>
+        <v>1.44129</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09309</v>
+        <v>3.08891</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42015</v>
+        <v>2.43237</v>
       </c>
       <c r="D115" t="n">
-        <v>1.47749</v>
+        <v>1.49558</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.20008</v>
+        <v>3.20568</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52911</v>
+        <v>2.54474</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52666</v>
+        <v>1.55185</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.32265</v>
+        <v>3.31229</v>
       </c>
       <c r="C117" t="n">
-        <v>2.65057</v>
+        <v>2.6658</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59987</v>
+        <v>1.60814</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.45107</v>
+        <v>3.45771</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78686</v>
+        <v>2.80064</v>
       </c>
       <c r="D118" t="n">
-        <v>1.66165</v>
+        <v>1.66909</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56317</v>
+        <v>3.57612</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91546</v>
+        <v>2.92892</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7146</v>
+        <v>1.73867</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301546</v>
+        <v>0.297763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235396</v>
+        <v>0.249395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247698</v>
+        <v>0.244947</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.306198</v>
+        <v>0.302564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240645</v>
+        <v>0.252824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251729</v>
+        <v>0.248391</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.311117</v>
+        <v>0.305474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248125</v>
+        <v>0.259805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258249</v>
+        <v>0.253097</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.319336</v>
+        <v>0.312398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.255537</v>
+        <v>0.26567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266373</v>
+        <v>0.260211</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.32411</v>
+        <v>0.317168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.261545</v>
+        <v>0.271755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271202</v>
+        <v>0.264272</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.333171</v>
+        <v>0.323848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217096</v>
+        <v>0.227392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231269</v>
+        <v>0.228884</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.289749</v>
+        <v>0.284949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219727</v>
+        <v>0.231156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23579</v>
+        <v>0.232808</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295699</v>
+        <v>0.290533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224329</v>
+        <v>0.232896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240775</v>
+        <v>0.234473</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30281</v>
+        <v>0.294678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.228965</v>
+        <v>0.239076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246452</v>
+        <v>0.24021</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307744</v>
+        <v>0.303393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232864</v>
+        <v>0.245483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248456</v>
+        <v>0.246108</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.312619</v>
+        <v>0.30862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237919</v>
+        <v>0.251112</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252953</v>
+        <v>0.25078</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319846</v>
+        <v>0.318901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243975</v>
+        <v>0.256793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258516</v>
+        <v>0.256675</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327367</v>
+        <v>0.325641</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2502</v>
+        <v>0.263055</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266315</v>
+        <v>0.261754</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.336219</v>
+        <v>0.332214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.25653</v>
+        <v>0.269837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271111</v>
+        <v>0.267002</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.344005</v>
+        <v>0.340861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.263196</v>
+        <v>0.277315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277035</v>
+        <v>0.273601</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.350483</v>
+        <v>0.348413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271072</v>
+        <v>0.284482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284969</v>
+        <v>0.279618</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.356616</v>
+        <v>0.355213</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27566</v>
+        <v>0.290947</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289836</v>
+        <v>0.286187</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.363914</v>
+        <v>0.363551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.281533</v>
+        <v>0.297871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29522</v>
+        <v>0.29258</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.37117</v>
+        <v>0.37088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.287502</v>
+        <v>0.305899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.303005</v>
+        <v>0.300003</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378187</v>
+        <v>0.377844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238625</v>
+        <v>0.254594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.254992</v>
+        <v>0.256562</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.329299</v>
+        <v>0.331026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244016</v>
+        <v>0.260265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261206</v>
+        <v>0.260971</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.33372</v>
+        <v>0.335793</v>
       </c>
       <c r="C23" t="n">
-        <v>0.247498</v>
+        <v>0.264445</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26593</v>
+        <v>0.265229</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338505</v>
+        <v>0.339299</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253269</v>
+        <v>0.26873</v>
       </c>
       <c r="D24" t="n">
-        <v>0.270922</v>
+        <v>0.269391</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.344151</v>
+        <v>0.344728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258224</v>
+        <v>0.274467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276014</v>
+        <v>0.274943</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.349526</v>
+        <v>0.350208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263382</v>
+        <v>0.280017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.280751</v>
+        <v>0.281111</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356113</v>
+        <v>0.356464</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270172</v>
+        <v>0.287547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287835</v>
+        <v>0.28672</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.360709</v>
+        <v>0.361835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.276105</v>
+        <v>0.293946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293882</v>
+        <v>0.29403</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.36671</v>
+        <v>0.367389</v>
       </c>
       <c r="C29" t="n">
-        <v>0.282522</v>
+        <v>0.301163</v>
       </c>
       <c r="D29" t="n">
-        <v>0.299743</v>
+        <v>0.298782</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.373555</v>
+        <v>0.373752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289518</v>
+        <v>0.307394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.305821</v>
+        <v>0.304682</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.379691</v>
+        <v>0.380532</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295688</v>
+        <v>0.313646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.312449</v>
+        <v>0.311398</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.385625</v>
+        <v>0.38665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301922</v>
+        <v>0.320344</v>
       </c>
       <c r="D32" t="n">
-        <v>0.318392</v>
+        <v>0.318468</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.390791</v>
+        <v>0.392021</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308096</v>
+        <v>0.328301</v>
       </c>
       <c r="D33" t="n">
-        <v>0.324341</v>
+        <v>0.32368</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.397665</v>
+        <v>0.398373</v>
       </c>
       <c r="C34" t="n">
-        <v>0.313562</v>
+        <v>0.334081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.330331</v>
+        <v>0.330582</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404357</v>
+        <v>0.405652</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251741</v>
+        <v>0.26745</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272262</v>
+        <v>0.27075</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349188</v>
+        <v>0.349192</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255648</v>
+        <v>0.272464</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276005</v>
+        <v>0.27569</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.352925</v>
+        <v>0.352921</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260439</v>
+        <v>0.276664</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281014</v>
+        <v>0.279012</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357254</v>
+        <v>0.357379</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267904</v>
+        <v>0.282893</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286581</v>
+        <v>0.28472</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362081</v>
+        <v>0.361948</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271389</v>
+        <v>0.288279</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291662</v>
+        <v>0.291616</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366687</v>
+        <v>0.366778</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278418</v>
+        <v>0.294211</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297852</v>
+        <v>0.296824</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372266</v>
+        <v>0.372081</v>
       </c>
       <c r="C41" t="n">
-        <v>0.282868</v>
+        <v>0.301335</v>
       </c>
       <c r="D41" t="n">
-        <v>0.30321</v>
+        <v>0.302418</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.37801</v>
+        <v>0.377452</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288432</v>
+        <v>0.307236</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308985</v>
+        <v>0.307779</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.382886</v>
+        <v>0.383052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295574</v>
+        <v>0.313231</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314882</v>
+        <v>0.314504</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389142</v>
+        <v>0.389576</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301</v>
+        <v>0.319836</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321425</v>
+        <v>0.319815</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395241</v>
+        <v>0.395596</v>
       </c>
       <c r="C45" t="n">
-        <v>0.307382</v>
+        <v>0.326509</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327346</v>
+        <v>0.325956</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401771</v>
+        <v>0.40194</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313687</v>
+        <v>0.332798</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333196</v>
+        <v>0.331791</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.40785</v>
+        <v>0.407879</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320607</v>
+        <v>0.339054</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338911</v>
+        <v>0.337578</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413993</v>
+        <v>0.414089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325757</v>
+        <v>0.345243</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344548</v>
+        <v>0.343201</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.41938</v>
+        <v>0.419882</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330138</v>
+        <v>0.350326</v>
       </c>
       <c r="D49" t="n">
-        <v>0.350036</v>
+        <v>0.348332</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425229</v>
+        <v>0.425774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.26397</v>
+        <v>0.279682</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278547</v>
+        <v>0.276155</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362671</v>
+        <v>0.363779</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2688</v>
+        <v>0.284631</v>
       </c>
       <c r="D51" t="n">
-        <v>0.283071</v>
+        <v>0.281385</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366324</v>
+        <v>0.367906</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273276</v>
+        <v>0.289785</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28871</v>
+        <v>0.285881</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371346</v>
+        <v>0.372217</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278609</v>
+        <v>0.29567</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293229</v>
+        <v>0.291246</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375707</v>
+        <v>0.376755</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28646</v>
+        <v>0.301649</v>
       </c>
       <c r="D54" t="n">
-        <v>0.298561</v>
+        <v>0.296801</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.383249</v>
+        <v>0.383234</v>
       </c>
       <c r="C55" t="n">
-        <v>0.290045</v>
+        <v>0.307248</v>
       </c>
       <c r="D55" t="n">
-        <v>0.304519</v>
+        <v>0.302229</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.386656</v>
+        <v>0.386514</v>
       </c>
       <c r="C56" t="n">
-        <v>0.296134</v>
+        <v>0.313598</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31051</v>
+        <v>0.307617</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3945</v>
+        <v>0.392239</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302384</v>
+        <v>0.320009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.316483</v>
+        <v>0.313799</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39991</v>
+        <v>0.398125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308815</v>
+        <v>0.326357</v>
       </c>
       <c r="D58" t="n">
-        <v>0.322446</v>
+        <v>0.320232</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.405766</v>
+        <v>0.404465</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314409</v>
+        <v>0.33265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328736</v>
+        <v>0.326457</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413061</v>
+        <v>0.410505</v>
       </c>
       <c r="C60" t="n">
-        <v>0.322331</v>
+        <v>0.338894</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335631</v>
+        <v>0.332432</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.420099</v>
+        <v>0.417686</v>
       </c>
       <c r="C61" t="n">
-        <v>0.328406</v>
+        <v>0.345533</v>
       </c>
       <c r="D61" t="n">
-        <v>0.341698</v>
+        <v>0.338889</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.425851</v>
+        <v>0.424517</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333665</v>
+        <v>0.351604</v>
       </c>
       <c r="D62" t="n">
-        <v>0.347628</v>
+        <v>0.344255</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.433183</v>
+        <v>0.430563</v>
       </c>
       <c r="C63" t="n">
-        <v>0.339643</v>
+        <v>0.357676</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353227</v>
+        <v>0.350044</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.439</v>
+        <v>0.437901</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274785</v>
+        <v>0.289693</v>
       </c>
       <c r="D64" t="n">
-        <v>0.290773</v>
+        <v>0.281218</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.406122</v>
+        <v>0.381236</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28594</v>
+        <v>0.294775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296175</v>
+        <v>0.291582</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411905</v>
+        <v>0.404867</v>
       </c>
       <c r="C66" t="n">
-        <v>0.287527</v>
+        <v>0.3011</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301711</v>
+        <v>0.29946</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.425764</v>
+        <v>0.40785</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297417</v>
+        <v>0.311098</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309084</v>
+        <v>0.305508</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.423215</v>
+        <v>0.419561</v>
       </c>
       <c r="C68" t="n">
-        <v>0.302715</v>
+        <v>0.318364</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316722</v>
+        <v>0.312434</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.416521</v>
+        <v>0.420777</v>
       </c>
       <c r="C69" t="n">
-        <v>0.310271</v>
+        <v>0.326132</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323277</v>
+        <v>0.317233</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.435844</v>
+        <v>0.42753</v>
       </c>
       <c r="C70" t="n">
-        <v>0.31927</v>
+        <v>0.331123</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329512</v>
+        <v>0.324754</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.455024</v>
+        <v>0.44525</v>
       </c>
       <c r="C71" t="n">
-        <v>0.325322</v>
+        <v>0.339821</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337919</v>
+        <v>0.335064</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.468336</v>
+        <v>0.457918</v>
       </c>
       <c r="C72" t="n">
-        <v>0.334386</v>
+        <v>0.348632</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345328</v>
+        <v>0.342327</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.48431</v>
+        <v>0.473435</v>
       </c>
       <c r="C73" t="n">
-        <v>0.343271</v>
+        <v>0.358547</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355255</v>
+        <v>0.351868</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.498073</v>
+        <v>0.491694</v>
       </c>
       <c r="C74" t="n">
-        <v>0.354004</v>
+        <v>0.370537</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364666</v>
+        <v>0.362823</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5136810000000001</v>
+        <v>0.511414</v>
       </c>
       <c r="C75" t="n">
-        <v>0.365665</v>
+        <v>0.383226</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374753</v>
+        <v>0.375951</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.532784</v>
+        <v>0.529645</v>
       </c>
       <c r="C76" t="n">
-        <v>0.37607</v>
+        <v>0.39592</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385053</v>
+        <v>0.385698</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.558149</v>
+        <v>0.5527840000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.388535</v>
+        <v>0.40862</v>
       </c>
       <c r="D77" t="n">
-        <v>0.397507</v>
+        <v>0.398218</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.582782</v>
+        <v>0.57772</v>
       </c>
       <c r="C78" t="n">
-        <v>0.349468</v>
+        <v>0.372319</v>
       </c>
       <c r="D78" t="n">
-        <v>0.37551</v>
+        <v>0.356659</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.704206</v>
+        <v>0.684897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.376514</v>
+        <v>0.401757</v>
       </c>
       <c r="D79" t="n">
-        <v>0.387491</v>
+        <v>0.384753</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.721452</v>
+        <v>0.726507</v>
       </c>
       <c r="C80" t="n">
-        <v>0.391547</v>
+        <v>0.399201</v>
       </c>
       <c r="D80" t="n">
-        <v>0.399652</v>
+        <v>0.379414</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.74359</v>
+        <v>0.718763</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413271</v>
+        <v>0.416103</v>
       </c>
       <c r="D81" t="n">
-        <v>0.417171</v>
+        <v>0.395447</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.774777</v>
+        <v>0.765008</v>
       </c>
       <c r="C82" t="n">
-        <v>0.429691</v>
+        <v>0.451029</v>
       </c>
       <c r="D82" t="n">
-        <v>0.435542</v>
+        <v>0.427414</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.790273</v>
+        <v>0.7649860000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.442643</v>
+        <v>0.452567</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449382</v>
+        <v>0.431381</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.814742</v>
+        <v>0.789753</v>
       </c>
       <c r="C84" t="n">
-        <v>0.46345</v>
+        <v>0.476376</v>
       </c>
       <c r="D84" t="n">
-        <v>0.473376</v>
+        <v>0.462391</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.839979</v>
+        <v>0.834075</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4851</v>
+        <v>0.506004</v>
       </c>
       <c r="D85" t="n">
-        <v>0.492945</v>
+        <v>0.484302</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.866182</v>
+        <v>0.8598170000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.505501</v>
+        <v>0.52758</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5115</v>
+        <v>0.504533</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8931480000000001</v>
+        <v>0.886433</v>
       </c>
       <c r="C87" t="n">
-        <v>0.526347</v>
+        <v>0.549417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.533094</v>
+        <v>0.527101</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.921356</v>
+        <v>0.914374</v>
       </c>
       <c r="C88" t="n">
-        <v>0.548332</v>
+        <v>0.57219</v>
       </c>
       <c r="D88" t="n">
-        <v>0.554947</v>
+        <v>0.5511</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.949627</v>
+        <v>0.943864</v>
       </c>
       <c r="C89" t="n">
-        <v>0.570495</v>
+        <v>0.593986</v>
       </c>
       <c r="D89" t="n">
-        <v>0.577423</v>
+        <v>0.571508</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.978805</v>
+        <v>0.972235</v>
       </c>
       <c r="C90" t="n">
-        <v>0.593203</v>
+        <v>0.61731</v>
       </c>
       <c r="D90" t="n">
-        <v>0.600238</v>
+        <v>0.595167</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00892</v>
+        <v>1.00288</v>
       </c>
       <c r="C91" t="n">
-        <v>0.617966</v>
+        <v>0.640882</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6240059999999999</v>
+        <v>0.619019</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04089</v>
+        <v>1.03411</v>
       </c>
       <c r="C92" t="n">
-        <v>0.635694</v>
+        <v>0.6641860000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6382679999999999</v>
+        <v>0.638984</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14627</v>
+        <v>1.14336</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6503370000000001</v>
+        <v>0.677265</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656308</v>
+        <v>0.654518</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15754</v>
+        <v>1.15572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.661321</v>
+        <v>0.692379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.667292</v>
+        <v>0.67191</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1672</v>
+        <v>1.16128</v>
       </c>
       <c r="C95" t="n">
-        <v>0.653884</v>
+        <v>0.707205</v>
       </c>
       <c r="D95" t="n">
-        <v>0.65964</v>
+        <v>0.683877</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.15834</v>
+        <v>1.17681</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6694600000000001</v>
+        <v>0.724356</v>
       </c>
       <c r="D96" t="n">
-        <v>0.67699</v>
+        <v>0.699801</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17211</v>
+        <v>1.18976</v>
       </c>
       <c r="C97" t="n">
-        <v>0.686682</v>
+        <v>0.742201</v>
       </c>
       <c r="D97" t="n">
-        <v>0.69502</v>
+        <v>0.717328</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.18713</v>
+        <v>1.20408</v>
       </c>
       <c r="C98" t="n">
-        <v>0.705696</v>
+        <v>0.760592</v>
       </c>
       <c r="D98" t="n">
-        <v>0.713396</v>
+        <v>0.7355</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20439</v>
+        <v>1.22147</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7241340000000001</v>
+        <v>0.779143</v>
       </c>
       <c r="D99" t="n">
-        <v>0.738294</v>
+        <v>0.7557430000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.22163</v>
+        <v>1.23769</v>
       </c>
       <c r="C100" t="n">
-        <v>0.743941</v>
+        <v>0.798342</v>
       </c>
       <c r="D100" t="n">
-        <v>0.757647</v>
+        <v>0.7743989999999999</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24127</v>
+        <v>1.2566</v>
       </c>
       <c r="C101" t="n">
-        <v>0.763507</v>
+        <v>0.817569</v>
       </c>
       <c r="D101" t="n">
-        <v>0.777855</v>
+        <v>0.794605</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26124</v>
+        <v>1.27662</v>
       </c>
       <c r="C102" t="n">
-        <v>0.785365</v>
+        <v>0.838875</v>
       </c>
       <c r="D102" t="n">
-        <v>0.804349</v>
+        <v>0.818927</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.283</v>
+        <v>1.29899</v>
       </c>
       <c r="C103" t="n">
-        <v>0.805801</v>
+        <v>0.8592340000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.826655</v>
+        <v>0.839745</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.30547</v>
+        <v>1.3221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8269</v>
+        <v>0.881887</v>
       </c>
       <c r="D104" t="n">
-        <v>0.848169</v>
+        <v>0.861988</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.3288</v>
+        <v>1.34601</v>
       </c>
       <c r="C105" t="n">
-        <v>0.850106</v>
+        <v>0.9053369999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8700329999999999</v>
+        <v>0.885001</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35386</v>
+        <v>1.37144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.872266</v>
+        <v>0.928939</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8931</v>
+        <v>0.9088540000000001</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37969</v>
+        <v>1.36211</v>
       </c>
       <c r="C107" t="n">
-        <v>0.851149</v>
+        <v>0.87361</v>
       </c>
       <c r="D107" t="n">
-        <v>0.864578</v>
+        <v>0.861438</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38499</v>
+        <v>1.3853</v>
       </c>
       <c r="C108" t="n">
-        <v>0.844204</v>
+        <v>0.88725</v>
       </c>
       <c r="D108" t="n">
-        <v>0.853383</v>
+        <v>0.8742</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37882</v>
+        <v>1.39155</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8569830000000001</v>
+        <v>0.903663</v>
       </c>
       <c r="D109" t="n">
-        <v>0.869237</v>
+        <v>0.890072</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.40288</v>
+        <v>1.40064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.899398</v>
+        <v>0.919088</v>
       </c>
       <c r="D110" t="n">
-        <v>0.909965</v>
+        <v>0.906245</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.39593</v>
+        <v>1.41131</v>
       </c>
       <c r="C111" t="n">
-        <v>0.895437</v>
+        <v>0.934507</v>
       </c>
       <c r="D111" t="n">
-        <v>0.905676</v>
+        <v>0.923138</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40973</v>
+        <v>1.42497</v>
       </c>
       <c r="C112" t="n">
-        <v>0.909525</v>
+        <v>0.951242</v>
       </c>
       <c r="D112" t="n">
-        <v>0.922419</v>
+        <v>0.938638</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.42095</v>
+        <v>1.43672</v>
       </c>
       <c r="C113" t="n">
-        <v>0.929376</v>
+        <v>0.969535</v>
       </c>
       <c r="D113" t="n">
-        <v>0.940766</v>
+        <v>0.956949</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.43792</v>
+        <v>1.45421</v>
       </c>
       <c r="C114" t="n">
-        <v>0.946353</v>
+        <v>0.985851</v>
       </c>
       <c r="D114" t="n">
-        <v>0.959736</v>
+        <v>0.976282</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45239</v>
+        <v>1.46673</v>
       </c>
       <c r="C115" t="n">
-        <v>0.965429</v>
+        <v>1.00771</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.987667</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.47357</v>
+        <v>1.48428</v>
       </c>
       <c r="C116" t="n">
-        <v>0.985471</v>
+        <v>1.02769</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02112</v>
+        <v>1.00811</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.49525</v>
+        <v>1.50049</v>
       </c>
       <c r="C117" t="n">
-        <v>1.00772</v>
+        <v>1.04755</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04224</v>
+        <v>1.0262</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.51784</v>
+        <v>1.52077</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02769</v>
+        <v>1.06867</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06253</v>
+        <v>1.05609</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.53311</v>
+        <v>1.5467</v>
       </c>
       <c r="C119" t="n">
-        <v>1.05211</v>
+        <v>1.09128</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08394</v>
+        <v>1.07871</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274626</v>
+        <v>0.274353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204342</v>
+        <v>0.218921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206616</v>
+        <v>0.206782</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.280349</v>
+        <v>0.280199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211018</v>
+        <v>0.225143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208808</v>
+        <v>0.209002</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285602</v>
+        <v>0.285393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212377</v>
+        <v>0.227062</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211037</v>
+        <v>0.211142</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28878</v>
+        <v>0.28689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2163</v>
+        <v>0.230362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212426</v>
+        <v>0.212905</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.287654</v>
+        <v>0.288776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222938</v>
+        <v>0.238058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216468</v>
+        <v>0.216428</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297042</v>
+        <v>0.296598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206919</v>
+        <v>0.219128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217893</v>
+        <v>0.219468</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2904</v>
+        <v>0.287386</v>
       </c>
       <c r="C8" t="n">
-        <v>0.210704</v>
+        <v>0.222765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222277</v>
+        <v>0.221115</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.296407</v>
+        <v>0.290447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215952</v>
+        <v>0.226522</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223206</v>
+        <v>0.22265</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3004</v>
+        <v>0.291703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216531</v>
+        <v>0.229547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22542</v>
+        <v>0.223927</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306536</v>
+        <v>0.295793</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216827</v>
+        <v>0.227201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224655</v>
+        <v>0.222858</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.306329</v>
+        <v>0.299271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223285</v>
+        <v>0.233111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.227799</v>
+        <v>0.225353</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.314463</v>
+        <v>0.311166</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222923</v>
+        <v>0.233733</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231473</v>
+        <v>0.229322</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317912</v>
+        <v>0.313341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225055</v>
+        <v>0.238905</v>
       </c>
       <c r="D14" t="n">
-        <v>0.229217</v>
+        <v>0.228668</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.325144</v>
+        <v>0.320707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228415</v>
+        <v>0.24236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233647</v>
+        <v>0.23001</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.334767</v>
+        <v>0.323763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242881</v>
+        <v>0.24767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237811</v>
+        <v>0.232871</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.339498</v>
+        <v>0.330369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237627</v>
+        <v>0.250586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.239125</v>
+        <v>0.235422</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338613</v>
+        <v>0.337531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246876</v>
+        <v>0.25854</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242153</v>
+        <v>0.238796</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.349293</v>
+        <v>0.342636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.25686</v>
+        <v>0.262578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249168</v>
+        <v>0.242663</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.352056</v>
+        <v>0.348157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256611</v>
+        <v>0.269452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246295</v>
+        <v>0.242318</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.358834</v>
+        <v>0.356114</v>
       </c>
       <c r="C21" t="n">
-        <v>0.242466</v>
+        <v>0.248648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246059</v>
+        <v>0.238642</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.344443</v>
+        <v>0.332738</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249411</v>
+        <v>0.256211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24776</v>
+        <v>0.242359</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.352214</v>
+        <v>0.341498</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253494</v>
+        <v>0.259335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.250718</v>
+        <v>0.242328</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.356826</v>
+        <v>0.346452</v>
       </c>
       <c r="C24" t="n">
-        <v>0.263296</v>
+        <v>0.277554</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255385</v>
+        <v>0.253496</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.364271</v>
+        <v>0.360466</v>
       </c>
       <c r="C25" t="n">
-        <v>0.280354</v>
+        <v>0.287093</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263283</v>
+        <v>0.258451</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368299</v>
+        <v>0.36584</v>
       </c>
       <c r="C26" t="n">
-        <v>0.280347</v>
+        <v>0.28884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268083</v>
+        <v>0.261843</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.374489</v>
+        <v>0.374371</v>
       </c>
       <c r="C27" t="n">
-        <v>0.290298</v>
+        <v>0.297056</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270668</v>
+        <v>0.26143</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.379466</v>
+        <v>0.368869</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292532</v>
+        <v>0.292529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.273195</v>
+        <v>0.262887</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.386483</v>
+        <v>0.375585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297565</v>
+        <v>0.308151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.27689</v>
+        <v>0.273329</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.39232</v>
+        <v>0.389643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.311</v>
+        <v>0.32109</v>
       </c>
       <c r="D30" t="n">
-        <v>0.281627</v>
+        <v>0.279097</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398996</v>
+        <v>0.396691</v>
       </c>
       <c r="C31" t="n">
-        <v>0.308891</v>
+        <v>0.319523</v>
       </c>
       <c r="D31" t="n">
-        <v>0.284856</v>
+        <v>0.281413</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401838</v>
+        <v>0.399016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.318254</v>
+        <v>0.329371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.290165</v>
+        <v>0.285507</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.406797</v>
+        <v>0.404916</v>
       </c>
       <c r="C33" t="n">
-        <v>0.327846</v>
+        <v>0.339648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.292895</v>
+        <v>0.289861</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411779</v>
+        <v>0.408828</v>
       </c>
       <c r="C34" t="n">
-        <v>0.331952</v>
+        <v>0.343577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.298311</v>
+        <v>0.294391</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420609</v>
+        <v>0.417303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273529</v>
+        <v>0.280008</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278466</v>
+        <v>0.277484</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402312</v>
+        <v>0.393264</v>
       </c>
       <c r="C36" t="n">
-        <v>0.279997</v>
+        <v>0.293985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280868</v>
+        <v>0.279066</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408942</v>
+        <v>0.407009</v>
       </c>
       <c r="C37" t="n">
-        <v>0.285831</v>
+        <v>0.298838</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28358</v>
+        <v>0.282687</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411087</v>
+        <v>0.409628</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288085</v>
+        <v>0.302968</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285378</v>
+        <v>0.285845</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415123</v>
+        <v>0.414076</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295629</v>
+        <v>0.309509</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290115</v>
+        <v>0.289295</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419212</v>
+        <v>0.417756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.29933</v>
+        <v>0.313246</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291989</v>
+        <v>0.290928</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423902</v>
+        <v>0.422373</v>
       </c>
       <c r="C41" t="n">
-        <v>0.303152</v>
+        <v>0.311487</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293899</v>
+        <v>0.29141</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430693</v>
+        <v>0.428801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304735</v>
+        <v>0.319001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296084</v>
+        <v>0.295359</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.437631</v>
+        <v>0.43461</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309701</v>
+        <v>0.324518</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298782</v>
+        <v>0.29827</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.44098</v>
+        <v>0.439483</v>
       </c>
       <c r="C44" t="n">
-        <v>0.314766</v>
+        <v>0.329406</v>
       </c>
       <c r="D44" t="n">
-        <v>0.300966</v>
+        <v>0.299901</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.44253</v>
+        <v>0.441304</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317991</v>
+        <v>0.333104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.30464</v>
+        <v>0.303698</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.44944</v>
+        <v>0.449309</v>
       </c>
       <c r="C46" t="n">
-        <v>0.319234</v>
+        <v>0.334998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305699</v>
+        <v>0.304819</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455568</v>
+        <v>0.454585</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324891</v>
+        <v>0.340892</v>
       </c>
       <c r="D47" t="n">
-        <v>0.308346</v>
+        <v>0.307512</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461337</v>
+        <v>0.459935</v>
       </c>
       <c r="C48" t="n">
-        <v>0.330961</v>
+        <v>0.347788</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311041</v>
+        <v>0.310448</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.466994</v>
+        <v>0.466117</v>
       </c>
       <c r="C49" t="n">
-        <v>0.334903</v>
+        <v>0.352126</v>
       </c>
       <c r="D49" t="n">
-        <v>0.314672</v>
+        <v>0.313706</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.477036</v>
+        <v>0.475163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.305073</v>
+        <v>0.318627</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293873</v>
+        <v>0.288941</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430369</v>
+        <v>0.429768</v>
       </c>
       <c r="C51" t="n">
-        <v>0.308428</v>
+        <v>0.323383</v>
       </c>
       <c r="D51" t="n">
-        <v>0.297042</v>
+        <v>0.296241</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433545</v>
+        <v>0.433191</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311954</v>
+        <v>0.330387</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297153</v>
+        <v>0.296962</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.439116</v>
+        <v>0.438535</v>
       </c>
       <c r="C53" t="n">
-        <v>0.316064</v>
+        <v>0.336664</v>
       </c>
       <c r="D53" t="n">
-        <v>0.299969</v>
+        <v>0.299781</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442681</v>
+        <v>0.442053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321249</v>
+        <v>0.340103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303115</v>
+        <v>0.30268</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.444447</v>
+        <v>0.441536</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326855</v>
+        <v>0.34257</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305475</v>
+        <v>0.305385</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450185</v>
+        <v>0.446745</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326834</v>
+        <v>0.346564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307114</v>
+        <v>0.306474</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453003</v>
+        <v>0.452957</v>
       </c>
       <c r="C57" t="n">
-        <v>0.33506</v>
+        <v>0.354436</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309722</v>
+        <v>0.309467</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457492</v>
+        <v>0.457241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342646</v>
+        <v>0.36264</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31399</v>
+        <v>0.313342</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461191</v>
+        <v>0.461053</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349856</v>
+        <v>0.370024</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318068</v>
+        <v>0.317892</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.468027</v>
+        <v>0.466009</v>
       </c>
       <c r="C60" t="n">
-        <v>0.35435</v>
+        <v>0.374655</v>
       </c>
       <c r="D60" t="n">
-        <v>0.321027</v>
+        <v>0.32058</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.471191</v>
+        <v>0.47123</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359663</v>
+        <v>0.382598</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323517</v>
+        <v>0.322886</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.47762</v>
+        <v>0.47716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364044</v>
+        <v>0.384752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325353</v>
+        <v>0.32513</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482501</v>
+        <v>0.481916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.369754</v>
+        <v>0.39001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328492</v>
+        <v>0.327977</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.488495</v>
+        <v>0.48806</v>
       </c>
       <c r="C64" t="n">
-        <v>0.326194</v>
+        <v>0.357509</v>
       </c>
       <c r="D64" t="n">
-        <v>0.31845</v>
+        <v>0.308009</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.46487</v>
+        <v>0.445074</v>
       </c>
       <c r="C65" t="n">
-        <v>0.343689</v>
+        <v>0.3611</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316213</v>
+        <v>0.315537</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.458705</v>
+        <v>0.461587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343404</v>
+        <v>0.359955</v>
       </c>
       <c r="D66" t="n">
-        <v>0.317523</v>
+        <v>0.314878</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.474782</v>
+        <v>0.467341</v>
       </c>
       <c r="C67" t="n">
-        <v>0.351654</v>
+        <v>0.371867</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31985</v>
+        <v>0.320797</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489034</v>
+        <v>0.484507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355879</v>
+        <v>0.376533</v>
       </c>
       <c r="D68" t="n">
-        <v>0.32332</v>
+        <v>0.324011</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.493035</v>
+        <v>0.4908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.360812</v>
+        <v>0.382382</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322238</v>
+        <v>0.324753</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.505316</v>
+        <v>0.509033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.363365</v>
+        <v>0.387792</v>
       </c>
       <c r="D70" t="n">
-        <v>0.327033</v>
+        <v>0.32417</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.510661</v>
+        <v>0.510103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.374073</v>
+        <v>0.388391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332497</v>
+        <v>0.328633</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.524356</v>
+        <v>0.521488</v>
       </c>
       <c r="C72" t="n">
-        <v>0.38321</v>
+        <v>0.396595</v>
       </c>
       <c r="D72" t="n">
-        <v>0.336982</v>
+        <v>0.333058</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.547037</v>
+        <v>0.534191</v>
       </c>
       <c r="C73" t="n">
-        <v>0.393313</v>
+        <v>0.406011</v>
       </c>
       <c r="D73" t="n">
-        <v>0.338972</v>
+        <v>0.339101</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.559607</v>
+        <v>0.547554</v>
       </c>
       <c r="C74" t="n">
-        <v>0.399958</v>
+        <v>0.412105</v>
       </c>
       <c r="D74" t="n">
-        <v>0.344065</v>
+        <v>0.340671</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.571589</v>
+        <v>0.567448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.407861</v>
+        <v>0.41978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350427</v>
+        <v>0.346053</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.586136</v>
+        <v>0.587902</v>
       </c>
       <c r="C76" t="n">
-        <v>0.419911</v>
+        <v>0.431255</v>
       </c>
       <c r="D76" t="n">
-        <v>0.357602</v>
+        <v>0.351987</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.604735</v>
+        <v>0.611146</v>
       </c>
       <c r="C77" t="n">
-        <v>0.434482</v>
+        <v>0.443575</v>
       </c>
       <c r="D77" t="n">
-        <v>0.362291</v>
+        <v>0.357207</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.636496</v>
+        <v>0.633785</v>
       </c>
       <c r="C78" t="n">
-        <v>0.413716</v>
+        <v>0.418763</v>
       </c>
       <c r="D78" t="n">
-        <v>0.349154</v>
+        <v>0.352602</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.681721</v>
+        <v>0.700024</v>
       </c>
       <c r="C79" t="n">
-        <v>0.421529</v>
+        <v>0.400207</v>
       </c>
       <c r="D79" t="n">
-        <v>0.368037</v>
+        <v>0.334238</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.716122</v>
+        <v>0.727078</v>
       </c>
       <c r="C80" t="n">
-        <v>0.439319</v>
+        <v>0.443481</v>
       </c>
       <c r="D80" t="n">
-        <v>0.368433</v>
+        <v>0.363172</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.75664</v>
+        <v>0.77238</v>
       </c>
       <c r="C81" t="n">
-        <v>0.45924</v>
+        <v>0.459805</v>
       </c>
       <c r="D81" t="n">
-        <v>0.377698</v>
+        <v>0.367536</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789516</v>
+        <v>0.810646</v>
       </c>
       <c r="C82" t="n">
-        <v>0.483826</v>
+        <v>0.492591</v>
       </c>
       <c r="D82" t="n">
-        <v>0.391355</v>
+        <v>0.387044</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.834873</v>
+        <v>0.876909</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5025539999999999</v>
+        <v>0.517427</v>
       </c>
       <c r="D83" t="n">
-        <v>0.406878</v>
+        <v>0.392133</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.841297</v>
+        <v>0.919911</v>
       </c>
       <c r="C84" t="n">
-        <v>0.534424</v>
+        <v>0.548918</v>
       </c>
       <c r="D84" t="n">
-        <v>0.421116</v>
+        <v>0.41073</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.894814</v>
+        <v>0.9725279999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.540822</v>
+        <v>0.569851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411991</v>
+        <v>0.422203</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.957004</v>
+        <v>1.04371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.565719</v>
+        <v>0.598319</v>
       </c>
       <c r="D86" t="n">
-        <v>0.423692</v>
+        <v>0.434465</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00026</v>
+        <v>1.09408</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595125</v>
+        <v>0.636128</v>
       </c>
       <c r="D87" t="n">
-        <v>0.444295</v>
+        <v>0.459878</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06853</v>
+        <v>1.16943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.62566</v>
+        <v>0.675644</v>
       </c>
       <c r="D88" t="n">
-        <v>0.459506</v>
+        <v>0.477446</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.11161</v>
+        <v>1.21883</v>
       </c>
       <c r="C89" t="n">
-        <v>0.662937</v>
+        <v>0.72065</v>
       </c>
       <c r="D89" t="n">
-        <v>0.482859</v>
+        <v>0.497292</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16406</v>
+        <v>1.28658</v>
       </c>
       <c r="C90" t="n">
-        <v>0.695804</v>
+        <v>0.762248</v>
       </c>
       <c r="D90" t="n">
-        <v>0.491815</v>
+        <v>0.523814</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24215</v>
+        <v>1.36718</v>
       </c>
       <c r="C91" t="n">
-        <v>0.739734</v>
+        <v>0.812158</v>
       </c>
       <c r="D91" t="n">
-        <v>0.51697</v>
+        <v>0.555495</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.28796</v>
+        <v>1.41679</v>
       </c>
       <c r="C92" t="n">
-        <v>0.775342</v>
+        <v>0.851953</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630856</v>
+        <v>0.65917</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.28346</v>
+        <v>1.46946</v>
       </c>
       <c r="C93" t="n">
-        <v>0.771211</v>
+        <v>0.890535</v>
       </c>
       <c r="D93" t="n">
-        <v>0.624212</v>
+        <v>0.687782</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.34433</v>
+        <v>1.51081</v>
       </c>
       <c r="C94" t="n">
-        <v>0.843728</v>
+        <v>0.931418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6860270000000001</v>
+        <v>0.714205</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.42237</v>
+        <v>1.56014</v>
       </c>
       <c r="C95" t="n">
-        <v>0.878949</v>
+        <v>0.970377</v>
       </c>
       <c r="D95" t="n">
-        <v>0.709696</v>
+        <v>0.744679</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.46922</v>
+        <v>1.64228</v>
       </c>
       <c r="C96" t="n">
-        <v>0.914367</v>
+        <v>1.03305</v>
       </c>
       <c r="D96" t="n">
-        <v>0.733443</v>
+        <v>0.800878</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51106</v>
+        <v>1.6861</v>
       </c>
       <c r="C97" t="n">
-        <v>0.951121</v>
+        <v>1.07717</v>
       </c>
       <c r="D97" t="n">
-        <v>0.762859</v>
+        <v>0.831045</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.55643</v>
+        <v>1.74615</v>
       </c>
       <c r="C98" t="n">
-        <v>0.986622</v>
+        <v>1.11782</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7664339999999999</v>
+        <v>0.86348</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59467</v>
+        <v>1.80563</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00631</v>
+        <v>1.16606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.816777</v>
+        <v>0.899356</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65894</v>
+        <v>1.85991</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06585</v>
+        <v>1.21121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.84272</v>
+        <v>0.927821</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70504</v>
+        <v>1.92261</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09724</v>
+        <v>1.24943</v>
       </c>
       <c r="D101" t="n">
-        <v>0.866825</v>
+        <v>0.956518</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.74457</v>
+        <v>1.96295</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13876</v>
+        <v>1.29676</v>
       </c>
       <c r="D102" t="n">
-        <v>0.892182</v>
+        <v>0.988464</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77503</v>
+        <v>2.01036</v>
       </c>
       <c r="C103" t="n">
-        <v>1.17241</v>
+        <v>1.33631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.917907</v>
+        <v>1.01733</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.83435</v>
+        <v>2.06586</v>
       </c>
       <c r="C104" t="n">
-        <v>1.20736</v>
+        <v>1.37685</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9458220000000001</v>
+        <v>1.05106</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.87896</v>
+        <v>2.13282</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24863</v>
+        <v>1.42562</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9548450000000001</v>
+        <v>1.06417</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91734</v>
+        <v>2.16738</v>
       </c>
       <c r="C106" t="n">
-        <v>1.26679</v>
+        <v>1.46456</v>
       </c>
       <c r="D106" t="n">
-        <v>0.981697</v>
+        <v>1.10177</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.82919</v>
+        <v>2.05589</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19881</v>
+        <v>1.35326</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04964</v>
+        <v>1.17167</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.84553</v>
+        <v>2.0865</v>
       </c>
       <c r="C108" t="n">
-        <v>1.22621</v>
+        <v>1.40631</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06616</v>
+        <v>1.19035</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88759</v>
+        <v>2.13381</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25758</v>
+        <v>1.44178</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0855</v>
+        <v>1.21812</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.92984</v>
+        <v>2.17489</v>
       </c>
       <c r="C110" t="n">
-        <v>1.28439</v>
+        <v>1.47173</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10649</v>
+        <v>1.2386</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.95563</v>
+        <v>2.19618</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30928</v>
+        <v>1.48764</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12928</v>
+        <v>1.24571</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.9961</v>
+        <v>2.2491</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34374</v>
+        <v>1.5277</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14654</v>
+        <v>1.2913</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.02354</v>
+        <v>2.28387</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37286</v>
+        <v>1.57676</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17023</v>
+        <v>1.31615</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05987</v>
+        <v>2.32658</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40084</v>
+        <v>1.60883</v>
       </c>
       <c r="D114" t="n">
-        <v>1.19254</v>
+        <v>1.34006</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.09365</v>
+        <v>2.36528</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43544</v>
+        <v>1.64856</v>
       </c>
       <c r="D115" t="n">
-        <v>1.20965</v>
+        <v>1.36146</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.12708</v>
+        <v>2.40993</v>
       </c>
       <c r="C116" t="n">
-        <v>1.46629</v>
+        <v>1.68501</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23242</v>
+        <v>1.38348</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.16707</v>
+        <v>2.44848</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49641</v>
+        <v>1.71955</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26073</v>
+        <v>1.41175</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.19378</v>
+        <v>2.48319</v>
       </c>
       <c r="C118" t="n">
-        <v>1.53649</v>
+        <v>1.76279</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28171</v>
+        <v>1.4354</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.22904</v>
+        <v>2.53218</v>
       </c>
       <c r="C119" t="n">
-        <v>1.57099</v>
+        <v>1.80276</v>
       </c>
       <c r="D119" t="n">
-        <v>1.29546</v>
+        <v>1.46232</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.436566</v>
+        <v>0.436453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324791</v>
+        <v>0.339924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.274143</v>
+        <v>0.274494</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.445041</v>
+        <v>0.451443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.325495</v>
+        <v>0.344306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277457</v>
+        <v>0.278006</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462446</v>
+        <v>0.465282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.345965</v>
+        <v>0.36337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.286873</v>
+        <v>0.288411</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.471852</v>
+        <v>0.470721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3525</v>
+        <v>0.371958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.291893</v>
+        <v>0.293021</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.478865</v>
+        <v>0.486836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.356287</v>
+        <v>0.374542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.296194</v>
+        <v>0.297357</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.496417</v>
+        <v>0.492448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376253</v>
+        <v>0.399842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.302568</v>
+        <v>0.303069</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.508408</v>
+        <v>0.512796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.393496</v>
+        <v>0.413781</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313844</v>
+        <v>0.314664</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525647</v>
+        <v>0.527339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.409547</v>
+        <v>0.436012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.325646</v>
+        <v>0.322687</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.542516</v>
+        <v>0.549363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427753</v>
+        <v>0.45165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.33796</v>
+        <v>0.339997</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560935</v>
+        <v>0.566174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.329762</v>
+        <v>0.345734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.275321</v>
+        <v>0.275374</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.419397</v>
+        <v>0.408933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.337073</v>
+        <v>0.351238</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27695</v>
+        <v>0.275326</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.430508</v>
+        <v>0.426504</v>
       </c>
       <c r="C13" t="n">
-        <v>0.348834</v>
+        <v>0.363479</v>
       </c>
       <c r="D13" t="n">
-        <v>0.287081</v>
+        <v>0.285362</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.44477</v>
+        <v>0.42856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.374322</v>
+        <v>0.381274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.288903</v>
+        <v>0.286289</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.457907</v>
+        <v>0.451971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38106</v>
+        <v>0.393278</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29594</v>
+        <v>0.295622</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4648</v>
+        <v>0.459084</v>
       </c>
       <c r="C16" t="n">
-        <v>0.393666</v>
+        <v>0.408472</v>
       </c>
       <c r="D16" t="n">
-        <v>0.302748</v>
+        <v>0.300242</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.497286</v>
+        <v>0.482304</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419829</v>
+        <v>0.423099</v>
       </c>
       <c r="D17" t="n">
-        <v>0.314155</v>
+        <v>0.308728</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.505764</v>
+        <v>0.498437</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416948</v>
+        <v>0.432964</v>
       </c>
       <c r="D18" t="n">
-        <v>0.312551</v>
+        <v>0.309217</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.530504</v>
+        <v>0.525278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.442583</v>
+        <v>0.456456</v>
       </c>
       <c r="D19" t="n">
-        <v>0.323578</v>
+        <v>0.325851</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.540204</v>
+        <v>0.531209</v>
       </c>
       <c r="C20" t="n">
-        <v>0.473441</v>
+        <v>0.482456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34386</v>
+        <v>0.33271</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.567618</v>
+        <v>0.558245</v>
       </c>
       <c r="C21" t="n">
-        <v>0.480968</v>
+        <v>0.501386</v>
       </c>
       <c r="D21" t="n">
-        <v>0.349844</v>
+        <v>0.345884</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.582006</v>
+        <v>0.572433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.516466</v>
+        <v>0.520821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.357605</v>
+        <v>0.355738</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.623957</v>
+        <v>0.60891</v>
       </c>
       <c r="C23" t="n">
-        <v>0.542362</v>
+        <v>0.550409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.376195</v>
+        <v>0.37318</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.643135</v>
+        <v>0.6278629999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.56133</v>
+        <v>0.569798</v>
       </c>
       <c r="D24" t="n">
-        <v>0.390127</v>
+        <v>0.378766</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.662037</v>
+        <v>0.654554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.589545</v>
+        <v>0.598566</v>
       </c>
       <c r="D25" t="n">
-        <v>0.400167</v>
+        <v>0.393763</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7001039999999999</v>
+        <v>0.685762</v>
       </c>
       <c r="C26" t="n">
-        <v>0.385563</v>
+        <v>0.392176</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287553</v>
+        <v>0.288125</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.510786</v>
+        <v>0.5020289999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.396014</v>
+        <v>0.400472</v>
       </c>
       <c r="D27" t="n">
-        <v>0.296434</v>
+        <v>0.289987</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.526531</v>
+        <v>0.51132</v>
       </c>
       <c r="C28" t="n">
-        <v>0.409356</v>
+        <v>0.415029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.30485</v>
+        <v>0.296491</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.546843</v>
+        <v>0.535225</v>
       </c>
       <c r="C29" t="n">
-        <v>0.417957</v>
+        <v>0.426916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.308145</v>
+        <v>0.300666</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56789</v>
+        <v>0.558549</v>
       </c>
       <c r="C30" t="n">
-        <v>0.42994</v>
+        <v>0.448004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316663</v>
+        <v>0.31376</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.587861</v>
+        <v>0.578746</v>
       </c>
       <c r="C31" t="n">
-        <v>0.452892</v>
+        <v>0.463719</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325863</v>
+        <v>0.320508</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.605507</v>
+        <v>0.5992420000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.471731</v>
+        <v>0.482078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.333059</v>
+        <v>0.330571</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.615213</v>
+        <v>0.6118</v>
       </c>
       <c r="C33" t="n">
-        <v>0.484927</v>
+        <v>0.502279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343706</v>
+        <v>0.343113</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.643015</v>
+        <v>0.639411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.510008</v>
+        <v>0.522671</v>
       </c>
       <c r="D34" t="n">
-        <v>0.355243</v>
+        <v>0.354463</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.66801</v>
+        <v>0.66265</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5314489999999999</v>
+        <v>0.545747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.361544</v>
+        <v>0.36637</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.682959</v>
+        <v>0.6830540000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554604</v>
+        <v>0.570456</v>
       </c>
       <c r="D36" t="n">
-        <v>0.383347</v>
+        <v>0.376789</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716402</v>
+        <v>0.711432</v>
       </c>
       <c r="C37" t="n">
-        <v>0.578682</v>
+        <v>0.597163</v>
       </c>
       <c r="D37" t="n">
-        <v>0.394226</v>
+        <v>0.392525</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.740758</v>
+        <v>0.737082</v>
       </c>
       <c r="C38" t="n">
-        <v>0.602629</v>
+        <v>0.620409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408654</v>
+        <v>0.408025</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.777345</v>
+        <v>0.774878</v>
       </c>
       <c r="C39" t="n">
-        <v>0.626495</v>
+        <v>0.649249</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418865</v>
+        <v>0.415967</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.799212</v>
+        <v>0.795145</v>
       </c>
       <c r="C40" t="n">
-        <v>0.458844</v>
+        <v>0.475417</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351037</v>
+        <v>0.350988</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579657</v>
+        <v>0.579263</v>
       </c>
       <c r="C41" t="n">
-        <v>0.471003</v>
+        <v>0.48798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.358933</v>
+        <v>0.357825</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.601845</v>
+        <v>0.599199</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48804</v>
+        <v>0.507757</v>
       </c>
       <c r="D42" t="n">
-        <v>0.370281</v>
+        <v>0.36817</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.618214</v>
+        <v>0.616201</v>
       </c>
       <c r="C43" t="n">
-        <v>0.501895</v>
+        <v>0.521104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.379023</v>
+        <v>0.374569</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.630274</v>
+        <v>0.630205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.524707</v>
+        <v>0.544926</v>
       </c>
       <c r="D44" t="n">
-        <v>0.382906</v>
+        <v>0.386339</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.649766</v>
+        <v>0.6514799999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5386609999999999</v>
+        <v>0.558522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397196</v>
+        <v>0.391015</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.662986</v>
+        <v>0.6644139999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.557105</v>
+        <v>0.578962</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408223</v>
+        <v>0.404061</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6844710000000001</v>
+        <v>0.684432</v>
       </c>
       <c r="C47" t="n">
-        <v>0.575933</v>
+        <v>0.596749</v>
       </c>
       <c r="D47" t="n">
-        <v>0.412538</v>
+        <v>0.414706</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.700554</v>
+        <v>0.700421</v>
       </c>
       <c r="C48" t="n">
-        <v>0.591715</v>
+        <v>0.613181</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431119</v>
+        <v>0.426256</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.722532</v>
+        <v>0.722136</v>
       </c>
       <c r="C49" t="n">
-        <v>0.614989</v>
+        <v>0.637235</v>
       </c>
       <c r="D49" t="n">
-        <v>0.436103</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744336</v>
+        <v>0.744221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.635381</v>
+        <v>0.658214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.45127</v>
+        <v>0.443499</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.760278</v>
+        <v>0.764281</v>
       </c>
       <c r="C51" t="n">
-        <v>0.659882</v>
+        <v>0.684048</v>
       </c>
       <c r="D51" t="n">
-        <v>0.466205</v>
+        <v>0.461239</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.788231</v>
+        <v>0.788577</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6848109999999999</v>
+        <v>0.709523</v>
       </c>
       <c r="D52" t="n">
-        <v>0.472373</v>
+        <v>0.474902</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.809414</v>
+        <v>0.809403</v>
       </c>
       <c r="C53" t="n">
-        <v>0.710108</v>
+        <v>0.734691</v>
       </c>
       <c r="D53" t="n">
-        <v>0.495756</v>
+        <v>0.490132</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.82958</v>
+        <v>0.829969</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515351</v>
+        <v>0.5393</v>
       </c>
       <c r="D54" t="n">
-        <v>0.398417</v>
+        <v>0.394996</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.623015</v>
+        <v>0.621668</v>
       </c>
       <c r="C55" t="n">
-        <v>0.527373</v>
+        <v>0.549841</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404276</v>
+        <v>0.4062</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638031</v>
+        <v>0.637614</v>
       </c>
       <c r="C56" t="n">
-        <v>0.547362</v>
+        <v>0.566967</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413187</v>
+        <v>0.410965</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.652285</v>
+        <v>0.650509</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558724</v>
+        <v>0.584342</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421613</v>
+        <v>0.418051</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668634</v>
+        <v>0.667493</v>
       </c>
       <c r="C58" t="n">
-        <v>0.573395</v>
+        <v>0.596512</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428636</v>
+        <v>0.425362</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.686244</v>
+        <v>0.685607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5888600000000001</v>
+        <v>0.61278</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438702</v>
+        <v>0.435089</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.701081</v>
+        <v>0.700368</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606673</v>
+        <v>0.631217</v>
       </c>
       <c r="D60" t="n">
-        <v>0.44622</v>
+        <v>0.442659</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720095</v>
+        <v>0.7196979999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.623818</v>
+        <v>0.647792</v>
       </c>
       <c r="D61" t="n">
-        <v>0.455931</v>
+        <v>0.451889</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737236</v>
+        <v>0.736932</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639949</v>
+        <v>0.664613</v>
       </c>
       <c r="D62" t="n">
-        <v>0.464695</v>
+        <v>0.460793</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.758335</v>
+        <v>0.756298</v>
       </c>
       <c r="C63" t="n">
-        <v>0.663226</v>
+        <v>0.68851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476798</v>
+        <v>0.473717</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769711</v>
+        <v>0.769018</v>
       </c>
       <c r="C64" t="n">
-        <v>0.680404</v>
+        <v>0.705603</v>
       </c>
       <c r="D64" t="n">
-        <v>0.483006</v>
+        <v>0.484025</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.795883</v>
+        <v>0.7949270000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707815</v>
+        <v>0.732935</v>
       </c>
       <c r="D65" t="n">
-        <v>0.501006</v>
+        <v>0.496021</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818204</v>
+        <v>0.815764</v>
       </c>
       <c r="C66" t="n">
-        <v>0.726665</v>
+        <v>0.751737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.512274</v>
+        <v>0.507571</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.845448</v>
+        <v>0.846781</v>
       </c>
       <c r="C67" t="n">
-        <v>0.757294</v>
+        <v>0.781887</v>
       </c>
       <c r="D67" t="n">
-        <v>0.528875</v>
+        <v>0.523753</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.876341</v>
+        <v>0.876424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.509808</v>
+        <v>0.53717</v>
       </c>
       <c r="D68" t="n">
-        <v>0.406335</v>
+        <v>0.404058</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.65463</v>
+        <v>0.659467</v>
       </c>
       <c r="C69" t="n">
-        <v>0.526313</v>
+        <v>0.554635</v>
       </c>
       <c r="D69" t="n">
-        <v>0.412921</v>
+        <v>0.411474</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.677027</v>
+        <v>0.680707</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550028</v>
+        <v>0.577082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.424131</v>
+        <v>0.422096</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.705766</v>
+        <v>0.706952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.57216</v>
+        <v>0.601376</v>
       </c>
       <c r="D71" t="n">
-        <v>0.435048</v>
+        <v>0.432464</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.729421</v>
+        <v>0.731627</v>
       </c>
       <c r="C72" t="n">
-        <v>0.594729</v>
+        <v>0.622802</v>
       </c>
       <c r="D72" t="n">
-        <v>0.446736</v>
+        <v>0.443724</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760813</v>
+        <v>0.760545</v>
       </c>
       <c r="C73" t="n">
-        <v>0.625799</v>
+        <v>0.650088</v>
       </c>
       <c r="D73" t="n">
-        <v>0.458026</v>
+        <v>0.45555</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.785934</v>
+        <v>0.7806920000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.649934</v>
+        <v>0.673946</v>
       </c>
       <c r="D74" t="n">
-        <v>0.469117</v>
+        <v>0.464809</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8175559999999999</v>
+        <v>0.815759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.681909</v>
+        <v>0.7065399999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.481738</v>
+        <v>0.477578</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.850742</v>
+        <v>0.853685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.713574</v>
+        <v>0.737991</v>
       </c>
       <c r="D76" t="n">
-        <v>0.494329</v>
+        <v>0.491838</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.892896</v>
+        <v>0.901165</v>
       </c>
       <c r="C77" t="n">
-        <v>0.751406</v>
+        <v>0.780262</v>
       </c>
       <c r="D77" t="n">
-        <v>0.509479</v>
+        <v>0.5074959999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.937084</v>
+        <v>0.95322</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7904369999999999</v>
+        <v>0.820433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.52258</v>
+        <v>0.51993</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.99426</v>
+        <v>1.00635</v>
       </c>
       <c r="C79" t="n">
-        <v>0.835476</v>
+        <v>0.863908</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5414639999999999</v>
+        <v>0.540548</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0612</v>
+        <v>1.07345</v>
       </c>
       <c r="C80" t="n">
-        <v>0.89558</v>
+        <v>0.923298</v>
       </c>
       <c r="D80" t="n">
-        <v>0.56546</v>
+        <v>0.560524</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14785</v>
+        <v>1.14797</v>
       </c>
       <c r="C81" t="n">
-        <v>0.973444</v>
+        <v>0.989044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590063</v>
+        <v>0.581206</v>
       </c>
     </row>
     <row r="82">
@@ -12187,10 +12187,10 @@
         <v>1.237</v>
       </c>
       <c r="C82" t="n">
-        <v>1.04468</v>
+        <v>1.06377</v>
       </c>
       <c r="D82" t="n">
-        <v>0.612704</v>
+        <v>0.603986</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.34897</v>
+        <v>1.32945</v>
       </c>
       <c r="C83" t="n">
-        <v>0.76413</v>
+        <v>0.754957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.487706</v>
+        <v>0.473765</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05287</v>
+        <v>1.03752</v>
       </c>
       <c r="C84" t="n">
-        <v>0.823367</v>
+        <v>0.813663</v>
       </c>
       <c r="D84" t="n">
-        <v>0.503174</v>
+        <v>0.490767</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.14307</v>
+        <v>1.13784</v>
       </c>
       <c r="C85" t="n">
-        <v>0.883889</v>
+        <v>0.870792</v>
       </c>
       <c r="D85" t="n">
-        <v>0.519612</v>
+        <v>0.511435</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.2116</v>
+        <v>1.22904</v>
       </c>
       <c r="C86" t="n">
-        <v>0.961193</v>
+        <v>0.966329</v>
       </c>
       <c r="D86" t="n">
-        <v>0.545031</v>
+        <v>0.53477</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.30524</v>
+        <v>1.33847</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03957</v>
+        <v>1.0609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.570693</v>
+        <v>0.564771</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.40461</v>
+        <v>1.45759</v>
       </c>
       <c r="C88" t="n">
-        <v>1.13791</v>
+        <v>1.17557</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6074270000000001</v>
+        <v>0.584892</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.52713</v>
+        <v>1.59459</v>
       </c>
       <c r="C89" t="n">
-        <v>1.24337</v>
+        <v>1.29806</v>
       </c>
       <c r="D89" t="n">
-        <v>0.648909</v>
+        <v>0.628022</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.65696</v>
+        <v>1.75115</v>
       </c>
       <c r="C90" t="n">
-        <v>1.34897</v>
+        <v>1.42881</v>
       </c>
       <c r="D90" t="n">
-        <v>0.692568</v>
+        <v>0.6714290000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.776</v>
+        <v>1.90989</v>
       </c>
       <c r="C91" t="n">
-        <v>1.46686</v>
+        <v>1.57742</v>
       </c>
       <c r="D91" t="n">
-        <v>0.734581</v>
+        <v>0.714418</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.92463</v>
+        <v>2.07474</v>
       </c>
       <c r="C92" t="n">
-        <v>1.59464</v>
+        <v>1.72876</v>
       </c>
       <c r="D92" t="n">
-        <v>0.78048</v>
+        <v>0.785349</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06468</v>
+        <v>2.23252</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7291</v>
+        <v>1.88456</v>
       </c>
       <c r="D93" t="n">
-        <v>0.835827</v>
+        <v>0.84128</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.21869</v>
+        <v>2.39854</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87878</v>
+        <v>2.05705</v>
       </c>
       <c r="D94" t="n">
-        <v>0.899715</v>
+        <v>0.910423</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.39081</v>
+        <v>2.59939</v>
       </c>
       <c r="C95" t="n">
-        <v>2.03051</v>
+        <v>2.23881</v>
       </c>
       <c r="D95" t="n">
-        <v>0.972649</v>
+        <v>0.996283</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.54915</v>
+        <v>2.78893</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2154</v>
+        <v>2.45137</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05917</v>
+        <v>1.08282</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.71608</v>
+        <v>3.00109</v>
       </c>
       <c r="C97" t="n">
-        <v>1.40278</v>
+        <v>1.55776</v>
       </c>
       <c r="D97" t="n">
-        <v>0.780462</v>
+        <v>0.821901</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.02348</v>
+        <v>2.22104</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49699</v>
+        <v>1.67427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.827217</v>
+        <v>0.867055</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.13388</v>
+        <v>2.36323</v>
       </c>
       <c r="C99" t="n">
-        <v>1.59143</v>
+        <v>1.77491</v>
       </c>
       <c r="D99" t="n">
-        <v>0.880504</v>
+        <v>0.920986</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24087</v>
+        <v>2.48988</v>
       </c>
       <c r="C100" t="n">
-        <v>1.69764</v>
+        <v>1.90616</v>
       </c>
       <c r="D100" t="n">
-        <v>0.941746</v>
+        <v>0.990438</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.37395</v>
+        <v>2.6381</v>
       </c>
       <c r="C101" t="n">
-        <v>1.80448</v>
+        <v>2.03133</v>
       </c>
       <c r="D101" t="n">
-        <v>0.996498</v>
+        <v>1.05238</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.49246</v>
+        <v>2.75796</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9149</v>
+        <v>2.15759</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0617</v>
+        <v>1.1212</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.61446</v>
+        <v>2.89467</v>
       </c>
       <c r="C103" t="n">
-        <v>2.03255</v>
+        <v>2.29744</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1101</v>
+        <v>1.18367</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.73057</v>
+        <v>3.05118</v>
       </c>
       <c r="C104" t="n">
-        <v>2.15824</v>
+        <v>2.44062</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18161</v>
+        <v>1.25294</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86935</v>
+        <v>3.21359</v>
       </c>
       <c r="C105" t="n">
-        <v>2.28943</v>
+        <v>2.59474</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24043</v>
+        <v>1.33277</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.02643</v>
+        <v>3.35691</v>
       </c>
       <c r="C106" t="n">
-        <v>2.42192</v>
+        <v>2.74876</v>
       </c>
       <c r="D106" t="n">
-        <v>1.30094</v>
+        <v>1.40976</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.17525</v>
+        <v>3.53126</v>
       </c>
       <c r="C107" t="n">
-        <v>2.55787</v>
+        <v>2.90451</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3803</v>
+        <v>1.48983</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.32404</v>
+        <v>3.67997</v>
       </c>
       <c r="C108" t="n">
-        <v>2.72155</v>
+        <v>3.09176</v>
       </c>
       <c r="D108" t="n">
-        <v>1.46118</v>
+        <v>1.57826</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.49412</v>
+        <v>3.8383</v>
       </c>
       <c r="C109" t="n">
-        <v>2.89222</v>
+        <v>3.26167</v>
       </c>
       <c r="D109" t="n">
-        <v>1.54169</v>
+        <v>1.65416</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.65139</v>
+        <v>4.05042</v>
       </c>
       <c r="C110" t="n">
-        <v>3.06159</v>
+        <v>3.41953</v>
       </c>
       <c r="D110" t="n">
-        <v>1.61852</v>
+        <v>1.74995</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.8414</v>
+        <v>4.2106</v>
       </c>
       <c r="C111" t="n">
-        <v>2.02574</v>
+        <v>2.30934</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28896</v>
+        <v>1.40554</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.79905</v>
+        <v>3.1229</v>
       </c>
       <c r="C112" t="n">
-        <v>2.12466</v>
+        <v>2.42349</v>
       </c>
       <c r="D112" t="n">
-        <v>1.33761</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88998</v>
+        <v>3.20354</v>
       </c>
       <c r="C113" t="n">
-        <v>2.22947</v>
+        <v>2.53201</v>
       </c>
       <c r="D113" t="n">
-        <v>1.39149</v>
+        <v>1.52492</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.98344</v>
+        <v>3.29946</v>
       </c>
       <c r="C114" t="n">
-        <v>2.3278</v>
+        <v>2.63224</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44129</v>
+        <v>1.57629</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.08891</v>
+        <v>3.44193</v>
       </c>
       <c r="C115" t="n">
-        <v>2.43237</v>
+        <v>2.74575</v>
       </c>
       <c r="D115" t="n">
-        <v>1.49558</v>
+        <v>1.64342</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.20568</v>
+        <v>3.55398</v>
       </c>
       <c r="C116" t="n">
-        <v>2.54474</v>
+        <v>2.85594</v>
       </c>
       <c r="D116" t="n">
-        <v>1.55185</v>
+        <v>1.70336</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.31229</v>
+        <v>3.67761</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6658</v>
+        <v>2.98526</v>
       </c>
       <c r="D117" t="n">
-        <v>1.60814</v>
+        <v>1.77269</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.45771</v>
+        <v>3.80835</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80064</v>
+        <v>3.12691</v>
       </c>
       <c r="D118" t="n">
-        <v>1.66909</v>
+        <v>1.84009</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.57612</v>
+        <v>3.9334</v>
       </c>
       <c r="C119" t="n">
-        <v>2.92892</v>
+        <v>3.26512</v>
       </c>
       <c r="D119" t="n">
-        <v>1.73867</v>
+        <v>1.90998</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291125</v>
+        <v>0.291046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232654</v>
+        <v>0.235711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242312</v>
+        <v>0.243287</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29615</v>
+        <v>0.29725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236081</v>
+        <v>0.24112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246395</v>
+        <v>0.248466</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2993</v>
+        <v>0.303794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242521</v>
+        <v>0.246276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251151</v>
+        <v>0.253447</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.307088</v>
+        <v>0.311611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249627</v>
+        <v>0.253893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256407</v>
+        <v>0.260399</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.310911</v>
+        <v>0.314224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254839</v>
+        <v>0.258455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262524</v>
+        <v>0.264424</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317877</v>
+        <v>0.321753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214829</v>
+        <v>0.218762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229492</v>
+        <v>0.232498</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286315</v>
+        <v>0.286543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217033</v>
+        <v>0.220913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233899</v>
+        <v>0.231055</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29216</v>
+        <v>0.289271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220931</v>
+        <v>0.224514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237644</v>
+        <v>0.237542</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297895</v>
+        <v>0.298071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225529</v>
+        <v>0.228619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242009</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303401</v>
+        <v>0.304073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229288</v>
+        <v>0.232945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24552</v>
+        <v>0.246281</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310625</v>
+        <v>0.309108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234181</v>
+        <v>0.23748</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250938</v>
+        <v>0.250591</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318732</v>
+        <v>0.318606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240581</v>
+        <v>0.243852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25626</v>
+        <v>0.256134</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323651</v>
+        <v>0.32486</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246034</v>
+        <v>0.249656</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262363</v>
+        <v>0.262226</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330994</v>
+        <v>0.332609</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252788</v>
+        <v>0.2556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267255</v>
+        <v>0.267696</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340923</v>
+        <v>0.340887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260469</v>
+        <v>0.261913</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274758</v>
+        <v>0.274679</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347889</v>
+        <v>0.348682</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267149</v>
+        <v>0.26798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28117</v>
+        <v>0.280776</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354632</v>
+        <v>0.355175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273078</v>
+        <v>0.27455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28678</v>
+        <v>0.286851</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.362079</v>
+        <v>0.362768</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278984</v>
+        <v>0.279805</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293021</v>
+        <v>0.293279</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.368357</v>
+        <v>0.367796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28543</v>
+        <v>0.285622</v>
       </c>
       <c r="D20" t="n">
-        <v>0.298607</v>
+        <v>0.29798</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376329</v>
+        <v>0.376206</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238662</v>
+        <v>0.238806</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256029</v>
+        <v>0.255147</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330895</v>
+        <v>0.330114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244473</v>
+        <v>0.243825</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26191</v>
+        <v>0.260617</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335305</v>
+        <v>0.334518</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248148</v>
+        <v>0.250162</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266519</v>
+        <v>0.266075</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339863</v>
+        <v>0.339666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254595</v>
+        <v>0.255433</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27342</v>
+        <v>0.271189</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345099</v>
+        <v>0.345183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25851</v>
+        <v>0.259375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276896</v>
+        <v>0.275555</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350554</v>
+        <v>0.350665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26397</v>
+        <v>0.265367</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281709</v>
+        <v>0.282927</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356483</v>
+        <v>0.355411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269757</v>
+        <v>0.270041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288507</v>
+        <v>0.286969</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361252</v>
+        <v>0.361389</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277939</v>
+        <v>0.27683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295123</v>
+        <v>0.294363</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367651</v>
+        <v>0.366792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28408</v>
+        <v>0.283784</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302103</v>
+        <v>0.300939</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.37387</v>
+        <v>0.373371</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290528</v>
+        <v>0.289539</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306454</v>
+        <v>0.305158</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380331</v>
+        <v>0.379198</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29698</v>
+        <v>0.295703</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31352</v>
+        <v>0.313853</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38587</v>
+        <v>0.384977</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301856</v>
+        <v>0.301611</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319836</v>
+        <v>0.319693</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391212</v>
+        <v>0.390967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308421</v>
+        <v>0.307645</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325341</v>
+        <v>0.325007</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398306</v>
+        <v>0.398428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314777</v>
+        <v>0.313939</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33142</v>
+        <v>0.331964</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405227</v>
+        <v>0.404153</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251923</v>
+        <v>0.25293</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27126</v>
+        <v>0.271848</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349627</v>
+        <v>0.349427</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256024</v>
+        <v>0.257148</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275045</v>
+        <v>0.275396</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353471</v>
+        <v>0.353659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260942</v>
+        <v>0.262564</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279385</v>
+        <v>0.280674</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357749</v>
+        <v>0.35809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267073</v>
+        <v>0.267534</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285118</v>
+        <v>0.286458</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362276</v>
+        <v>0.362358</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271752</v>
+        <v>0.273098</v>
       </c>
       <c r="D39" t="n">
-        <v>0.292007</v>
+        <v>0.290775</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366962</v>
+        <v>0.367021</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277768</v>
+        <v>0.278348</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29653</v>
+        <v>0.296925</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371621</v>
+        <v>0.371926</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28329</v>
+        <v>0.284508</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302412</v>
+        <v>0.302478</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378387</v>
+        <v>0.377776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288961</v>
+        <v>0.289536</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308161</v>
+        <v>0.308412</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383789</v>
+        <v>0.383218</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295976</v>
+        <v>0.294996</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3145</v>
+        <v>0.315818</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3898</v>
+        <v>0.389986</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301397</v>
+        <v>0.30164</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320949</v>
+        <v>0.321541</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395958</v>
+        <v>0.39503</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30787</v>
+        <v>0.308143</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327012</v>
+        <v>0.327083</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402384</v>
+        <v>0.401168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313442</v>
+        <v>0.3153</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333195</v>
+        <v>0.333879</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408571</v>
+        <v>0.407179</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320131</v>
+        <v>0.320479</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339709</v>
+        <v>0.338392</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414619</v>
+        <v>0.413404</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325702</v>
+        <v>0.325732</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345167</v>
+        <v>0.344625</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419791</v>
+        <v>0.419269</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330742</v>
+        <v>0.331142</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349548</v>
+        <v>0.349847</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.427015</v>
+        <v>0.424478</v>
       </c>
       <c r="C50" t="n">
-        <v>0.263921</v>
+        <v>0.265017</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276731</v>
+        <v>0.278947</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362991</v>
+        <v>0.362409</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268879</v>
+        <v>0.269462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281414</v>
+        <v>0.283598</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367021</v>
+        <v>0.366664</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273523</v>
+        <v>0.274289</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285972</v>
+        <v>0.288452</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371644</v>
+        <v>0.371172</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278926</v>
+        <v>0.279411</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291121</v>
+        <v>0.293602</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376105</v>
+        <v>0.375509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285617</v>
+        <v>0.28506</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296712</v>
+        <v>0.299188</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.379365</v>
+        <v>0.380059</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292</v>
+        <v>0.291695</v>
       </c>
       <c r="D55" t="n">
-        <v>0.303374</v>
+        <v>0.304922</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385997</v>
+        <v>0.385235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.297807</v>
+        <v>0.296629</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30846</v>
+        <v>0.310389</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.39192</v>
+        <v>0.390869</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302173</v>
+        <v>0.303142</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314224</v>
+        <v>0.316739</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3982</v>
+        <v>0.39776</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308317</v>
+        <v>0.308575</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320524</v>
+        <v>0.322847</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403744</v>
+        <v>0.403415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314377</v>
+        <v>0.314959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326274</v>
+        <v>0.330202</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409951</v>
+        <v>0.409516</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32182</v>
+        <v>0.321161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332368</v>
+        <v>0.335151</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41571</v>
+        <v>0.416113</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326719</v>
+        <v>0.327661</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338349</v>
+        <v>0.341195</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.422443</v>
+        <v>0.424086</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333392</v>
+        <v>0.333278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344519</v>
+        <v>0.347692</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428407</v>
+        <v>0.430362</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33829</v>
+        <v>0.339541</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350361</v>
+        <v>0.354038</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434422</v>
+        <v>0.436713</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274691</v>
+        <v>0.274736</v>
       </c>
       <c r="D64" t="n">
-        <v>0.28893</v>
+        <v>0.287872</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.396513</v>
+        <v>0.388381</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28035</v>
+        <v>0.280191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300264</v>
+        <v>0.298381</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.401195</v>
+        <v>0.390104</v>
       </c>
       <c r="C66" t="n">
-        <v>0.286972</v>
+        <v>0.289041</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302122</v>
+        <v>0.30273</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409319</v>
+        <v>0.409126</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293829</v>
+        <v>0.296366</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307131</v>
+        <v>0.307633</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.419126</v>
+        <v>0.422953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30071</v>
+        <v>0.304838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314522</v>
+        <v>0.315781</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43387</v>
+        <v>0.437011</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307926</v>
+        <v>0.310318</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32401</v>
+        <v>0.323594</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.444827</v>
+        <v>0.448247</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316114</v>
+        <v>0.320277</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32722</v>
+        <v>0.331178</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.448629</v>
+        <v>0.456013</v>
       </c>
       <c r="C71" t="n">
-        <v>0.322074</v>
+        <v>0.326907</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335957</v>
+        <v>0.338854</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.464174</v>
+        <v>0.467109</v>
       </c>
       <c r="C72" t="n">
-        <v>0.331171</v>
+        <v>0.335323</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345719</v>
+        <v>0.34699</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.477577</v>
+        <v>0.484937</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340385</v>
+        <v>0.345653</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35506</v>
+        <v>0.357857</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500923</v>
+        <v>0.499745</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353513</v>
+        <v>0.355882</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365946</v>
+        <v>0.367614</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.523135</v>
+        <v>0.51776</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367698</v>
+        <v>0.367175</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380813</v>
+        <v>0.377907</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5460199999999999</v>
+        <v>0.5383869999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380793</v>
+        <v>0.378535</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393659</v>
+        <v>0.389765</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57587</v>
+        <v>0.559817</v>
       </c>
       <c r="C77" t="n">
-        <v>0.397434</v>
+        <v>0.392379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411461</v>
+        <v>0.40139</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.598691</v>
+        <v>0.5834009999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.343119</v>
+        <v>0.369692</v>
       </c>
       <c r="D78" t="n">
-        <v>0.364283</v>
+        <v>0.37098</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.693174</v>
+        <v>0.708127</v>
       </c>
       <c r="C79" t="n">
-        <v>0.365835</v>
+        <v>0.374957</v>
       </c>
       <c r="D79" t="n">
-        <v>0.376984</v>
+        <v>0.388756</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7089259999999999</v>
+        <v>0.699754</v>
       </c>
       <c r="C80" t="n">
-        <v>0.379357</v>
+        <v>0.389192</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388836</v>
+        <v>0.397553</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.728019</v>
+        <v>0.741693</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396859</v>
+        <v>0.404613</v>
       </c>
       <c r="D81" t="n">
-        <v>0.40373</v>
+        <v>0.412344</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.756267</v>
+        <v>0.763965</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423699</v>
+        <v>0.421899</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430296</v>
+        <v>0.430722</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.777072</v>
+        <v>0.788597</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436662</v>
+        <v>0.441859</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441856</v>
+        <v>0.449546</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.812692</v>
+        <v>0.818047</v>
       </c>
       <c r="C84" t="n">
-        <v>0.453523</v>
+        <v>0.462003</v>
       </c>
       <c r="D84" t="n">
-        <v>0.462587</v>
+        <v>0.457945</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.831307</v>
+        <v>0.822267</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478716</v>
+        <v>0.466198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4851</v>
+        <v>0.477292</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.855309</v>
+        <v>0.848822</v>
       </c>
       <c r="C86" t="n">
-        <v>0.497772</v>
+        <v>0.487868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.505111</v>
+        <v>0.49679</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.880533</v>
+        <v>0.876946</v>
       </c>
       <c r="C87" t="n">
-        <v>0.515308</v>
+        <v>0.509757</v>
       </c>
       <c r="D87" t="n">
-        <v>0.519642</v>
+        <v>0.516815</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.907973</v>
+        <v>0.90235</v>
       </c>
       <c r="C88" t="n">
-        <v>0.53838</v>
+        <v>0.531087</v>
       </c>
       <c r="D88" t="n">
-        <v>0.542299</v>
+        <v>0.540083</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.935015</v>
+        <v>0.930683</v>
       </c>
       <c r="C89" t="n">
-        <v>0.561578</v>
+        <v>0.553837</v>
       </c>
       <c r="D89" t="n">
-        <v>0.566423</v>
+        <v>0.560428</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.966236</v>
+        <v>0.9585090000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.584759</v>
+        <v>0.575659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589427</v>
+        <v>0.583664</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.99348</v>
+        <v>0.9878710000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.608139</v>
+        <v>0.59783</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6125620000000001</v>
+        <v>0.6054079999999999</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02478</v>
+        <v>1.01958</v>
       </c>
       <c r="C92" t="n">
-        <v>0.621193</v>
+        <v>0.613268</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630569</v>
+        <v>0.643663</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14508</v>
+        <v>1.15184</v>
       </c>
       <c r="C93" t="n">
-        <v>0.644056</v>
+        <v>0.651077</v>
       </c>
       <c r="D93" t="n">
-        <v>0.643258</v>
+        <v>0.6583290000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14928</v>
+        <v>1.15839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.660568</v>
+        <v>0.666994</v>
       </c>
       <c r="D94" t="n">
-        <v>0.671811</v>
+        <v>0.677463</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1572</v>
+        <v>1.1724</v>
       </c>
       <c r="C95" t="n">
-        <v>0.673273</v>
+        <v>0.658352</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6818340000000001</v>
+        <v>0.663907</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1765</v>
+        <v>1.18601</v>
       </c>
       <c r="C96" t="n">
-        <v>0.694479</v>
+        <v>0.703308</v>
       </c>
       <c r="D96" t="n">
-        <v>0.703348</v>
+        <v>0.707263</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16482</v>
+        <v>1.19481</v>
       </c>
       <c r="C97" t="n">
-        <v>0.686902</v>
+        <v>0.715703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.697997</v>
+        <v>0.725558</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17915</v>
+        <v>1.20957</v>
       </c>
       <c r="C98" t="n">
-        <v>0.704376</v>
+        <v>0.734199</v>
       </c>
       <c r="D98" t="n">
-        <v>0.714608</v>
+        <v>0.743082</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.19961</v>
+        <v>1.22948</v>
       </c>
       <c r="C99" t="n">
-        <v>0.724248</v>
+        <v>0.7524729999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.735399</v>
+        <v>0.763026</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21738</v>
+        <v>1.2475</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7432800000000001</v>
+        <v>0.772524</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.784215</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.23288</v>
+        <v>1.2627</v>
       </c>
       <c r="C101" t="n">
-        <v>0.762616</v>
+        <v>0.792467</v>
       </c>
       <c r="D101" t="n">
-        <v>0.78102</v>
+        <v>0.8046140000000001</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25355</v>
+        <v>1.28256</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784449</v>
+        <v>0.812682</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8104170000000001</v>
+        <v>0.825288</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27818</v>
+        <v>1.30754</v>
       </c>
       <c r="C103" t="n">
-        <v>0.803288</v>
+        <v>0.834001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.832368</v>
+        <v>0.846804</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.301</v>
+        <v>1.3309</v>
       </c>
       <c r="C104" t="n">
-        <v>0.825956</v>
+        <v>0.855813</v>
       </c>
       <c r="D104" t="n">
-        <v>0.854868</v>
+        <v>0.871132</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.32451</v>
+        <v>1.35451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849629</v>
+        <v>0.877733</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880708</v>
+        <v>0.894979</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34867</v>
+        <v>1.37868</v>
       </c>
       <c r="C106" t="n">
-        <v>0.869533</v>
+        <v>0.900881</v>
       </c>
       <c r="D106" t="n">
-        <v>0.905108</v>
+        <v>0.919129</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37507</v>
+        <v>1.38232</v>
       </c>
       <c r="C107" t="n">
-        <v>0.823752</v>
+        <v>0.855702</v>
       </c>
       <c r="D107" t="n">
-        <v>0.838678</v>
+        <v>0.86289</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36331</v>
+        <v>1.38715</v>
       </c>
       <c r="C108" t="n">
-        <v>0.840597</v>
+        <v>0.870036</v>
       </c>
       <c r="D108" t="n">
-        <v>0.851722</v>
+        <v>0.877552</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37438</v>
+        <v>1.39703</v>
       </c>
       <c r="C109" t="n">
-        <v>0.878628</v>
+        <v>0.883506</v>
       </c>
       <c r="D109" t="n">
-        <v>0.892142</v>
+        <v>0.894211</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3955</v>
+        <v>1.38848</v>
       </c>
       <c r="C110" t="n">
-        <v>0.894335</v>
+        <v>0.878651</v>
       </c>
       <c r="D110" t="n">
-        <v>0.908563</v>
+        <v>0.889014</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40873</v>
+        <v>1.41654</v>
       </c>
       <c r="C111" t="n">
-        <v>0.910593</v>
+        <v>0.916763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.923419</v>
+        <v>0.924944</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42113</v>
+        <v>1.42906</v>
       </c>
       <c r="C112" t="n">
-        <v>0.928191</v>
+        <v>0.933596</v>
       </c>
       <c r="D112" t="n">
-        <v>0.942124</v>
+        <v>0.9439109999999999</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43196</v>
+        <v>1.43988</v>
       </c>
       <c r="C113" t="n">
-        <v>0.945749</v>
+        <v>0.951318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.959658</v>
+        <v>0.961081</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44808</v>
+        <v>1.45526</v>
       </c>
       <c r="C114" t="n">
-        <v>0.966916</v>
+        <v>0.970167</v>
       </c>
       <c r="D114" t="n">
-        <v>0.977813</v>
+        <v>0.978824</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.46162</v>
+        <v>1.46812</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9837089999999999</v>
+        <v>0.98674</v>
       </c>
       <c r="D115" t="n">
-        <v>0.997051</v>
+        <v>1.00099</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48037</v>
+        <v>1.48725</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0034</v>
+        <v>1.0068</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01782</v>
+        <v>1.02175</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50118</v>
+        <v>1.50488</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02404</v>
+        <v>1.02656</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03874</v>
+        <v>1.04122</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.5217</v>
+        <v>1.52356</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04665</v>
+        <v>1.04788</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05803</v>
+        <v>1.05864</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.54001</v>
+        <v>1.54764</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06739</v>
+        <v>1.06985</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08053</v>
+        <v>1.08191</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267908</v>
+        <v>0.273212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201671</v>
+        <v>0.206345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205061</v>
+        <v>0.20699</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278627</v>
+        <v>0.278672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206244</v>
+        <v>0.212156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206636</v>
+        <v>0.209072</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280645</v>
+        <v>0.285309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207948</v>
+        <v>0.213755</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208383</v>
+        <v>0.211291</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28343</v>
+        <v>0.290775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211432</v>
+        <v>0.220428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210188</v>
+        <v>0.213877</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283652</v>
+        <v>0.294439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220627</v>
+        <v>0.229008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213976</v>
+        <v>0.216768</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293665</v>
+        <v>0.299703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203386</v>
+        <v>0.207459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215305</v>
+        <v>0.217619</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283301</v>
+        <v>0.296629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204315</v>
+        <v>0.212088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219085</v>
+        <v>0.220999</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287521</v>
+        <v>0.300324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209619</v>
+        <v>0.218943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219866</v>
+        <v>0.222691</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291631</v>
+        <v>0.29728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211414</v>
+        <v>0.214917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221707</v>
+        <v>0.225887</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293768</v>
+        <v>0.300589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209292</v>
+        <v>0.212756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218875</v>
+        <v>0.221036</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297107</v>
+        <v>0.303685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215472</v>
+        <v>0.221535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223035</v>
+        <v>0.224219</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312127</v>
+        <v>0.320143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214924</v>
+        <v>0.223218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224792</v>
+        <v>0.232591</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308692</v>
+        <v>0.316742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217976</v>
+        <v>0.22607</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22414</v>
+        <v>0.228469</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31482</v>
+        <v>0.32491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201</v>
+        <v>0.22434</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22648</v>
+        <v>0.231461</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.320465</v>
+        <v>0.326057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22622</v>
+        <v>0.230803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233196</v>
+        <v>0.236248</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328372</v>
+        <v>0.333435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229908</v>
+        <v>0.238777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231861</v>
+        <v>0.247384</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.328271</v>
+        <v>0.339634</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234659</v>
+        <v>0.246395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23916</v>
+        <v>0.240204</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.330822</v>
+        <v>0.347956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238323</v>
+        <v>0.251752</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237586</v>
+        <v>0.253343</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.338173</v>
+        <v>0.356894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245252</v>
+        <v>0.258783</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24012</v>
+        <v>0.253431</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.348412</v>
+        <v>0.35988</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234244</v>
+        <v>0.238431</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241508</v>
+        <v>0.243552</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.335132</v>
+        <v>0.347316</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23882</v>
+        <v>0.249307</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247436</v>
+        <v>0.25181</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.350831</v>
+        <v>0.354815</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241475</v>
+        <v>0.254665</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244997</v>
+        <v>0.254279</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348316</v>
+        <v>0.360676</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253011</v>
+        <v>0.266996</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252619</v>
+        <v>0.254016</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.353122</v>
+        <v>0.366136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270643</v>
+        <v>0.273995</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260823</v>
+        <v>0.262858</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.365008</v>
+        <v>0.368892</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271036</v>
+        <v>0.273939</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25971</v>
+        <v>0.266873</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.372416</v>
+        <v>0.377232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.280787</v>
+        <v>0.282844</v>
       </c>
       <c r="D27" t="n">
-        <v>0.266434</v>
+        <v>0.272631</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.377327</v>
+        <v>0.380517</v>
       </c>
       <c r="C28" t="n">
-        <v>0.284328</v>
+        <v>0.285634</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270219</v>
+        <v>0.276033</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383296</v>
+        <v>0.387476</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289183</v>
+        <v>0.290139</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273287</v>
+        <v>0.278882</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.389015</v>
+        <v>0.392059</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303194</v>
+        <v>0.304214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280256</v>
+        <v>0.283269</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.396071</v>
+        <v>0.400172</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301102</v>
+        <v>0.302932</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28205</v>
+        <v>0.286165</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.399066</v>
+        <v>0.402927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3117</v>
+        <v>0.312967</v>
       </c>
       <c r="D32" t="n">
-        <v>0.286808</v>
+        <v>0.29018</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40465</v>
+        <v>0.408332</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321256</v>
+        <v>0.323256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293212</v>
+        <v>0.294466</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410132</v>
+        <v>0.411843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32977</v>
+        <v>0.327884</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296804</v>
+        <v>0.29868</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418157</v>
+        <v>0.420372</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273965</v>
+        <v>0.267284</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278201</v>
+        <v>0.279527</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402204</v>
+        <v>0.403154</v>
       </c>
       <c r="C36" t="n">
-        <v>0.279298</v>
+        <v>0.273605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279788</v>
+        <v>0.280628</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408236</v>
+        <v>0.409547</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282708</v>
+        <v>0.277884</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283104</v>
+        <v>0.282723</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409929</v>
+        <v>0.41121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288102</v>
+        <v>0.283349</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284803</v>
+        <v>0.287179</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.41493</v>
+        <v>0.415618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295065</v>
+        <v>0.288623</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289731</v>
+        <v>0.291131</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418798</v>
+        <v>0.419852</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298212</v>
+        <v>0.292859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292263</v>
+        <v>0.293882</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.42337</v>
+        <v>0.423658</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302424</v>
+        <v>0.296578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293812</v>
+        <v>0.294554</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43001</v>
+        <v>0.430675</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303558</v>
+        <v>0.299611</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296206</v>
+        <v>0.296704</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435854</v>
+        <v>0.436108</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309263</v>
+        <v>0.305407</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298134</v>
+        <v>0.298782</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439818</v>
+        <v>0.440037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313475</v>
+        <v>0.312668</v>
       </c>
       <c r="D44" t="n">
-        <v>0.30098</v>
+        <v>0.301256</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442541</v>
+        <v>0.443099</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317029</v>
+        <v>0.314633</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304647</v>
+        <v>0.305808</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449364</v>
+        <v>0.449395</v>
       </c>
       <c r="C46" t="n">
-        <v>0.318249</v>
+        <v>0.316238</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305389</v>
+        <v>0.306141</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455635</v>
+        <v>0.456036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324384</v>
+        <v>0.322548</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30894</v>
+        <v>0.309363</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461394</v>
+        <v>0.46097</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329874</v>
+        <v>0.327581</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311136</v>
+        <v>0.311996</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467227</v>
+        <v>0.466988</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33491</v>
+        <v>0.334041</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315</v>
+        <v>0.315634</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476713</v>
+        <v>0.476221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304071</v>
+        <v>0.301711</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293531</v>
+        <v>0.293744</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429377</v>
+        <v>0.430358</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30779</v>
+        <v>0.306596</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296029</v>
+        <v>0.297143</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430773</v>
+        <v>0.432529</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311012</v>
+        <v>0.309765</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297097</v>
+        <v>0.29744</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438684</v>
+        <v>0.438653</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315689</v>
+        <v>0.315674</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300173</v>
+        <v>0.300464</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441958</v>
+        <v>0.442374</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321245</v>
+        <v>0.320368</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303536</v>
+        <v>0.303903</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445048</v>
+        <v>0.445258</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326865</v>
+        <v>0.325581</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305488</v>
+        <v>0.305481</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450602</v>
+        <v>0.450031</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326516</v>
+        <v>0.325269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307362</v>
+        <v>0.307865</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453131</v>
+        <v>0.452459</v>
       </c>
       <c r="C57" t="n">
-        <v>0.334629</v>
+        <v>0.33455</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309852</v>
+        <v>0.310351</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456971</v>
+        <v>0.457668</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342244</v>
+        <v>0.341637</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31407</v>
+        <v>0.314519</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461492</v>
+        <v>0.461088</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349457</v>
+        <v>0.348576</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31848</v>
+        <v>0.318909</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466724</v>
+        <v>0.466572</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354109</v>
+        <v>0.354444</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320706</v>
+        <v>0.320921</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470576</v>
+        <v>0.470615</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359332</v>
+        <v>0.359226</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323647</v>
+        <v>0.32398</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.479338</v>
+        <v>0.477436</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364506</v>
+        <v>0.364554</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325123</v>
+        <v>0.325983</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483522</v>
+        <v>0.482151</v>
       </c>
       <c r="C63" t="n">
-        <v>0.370139</v>
+        <v>0.371193</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328683</v>
+        <v>0.329016</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489795</v>
+        <v>0.488488</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333186</v>
+        <v>0.332986</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310479</v>
+        <v>0.314044</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461028</v>
+        <v>0.462442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.342647</v>
+        <v>0.32592</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316291</v>
+        <v>0.311745</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467302</v>
+        <v>0.466662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34438</v>
+        <v>0.341934</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316912</v>
+        <v>0.315835</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.47813</v>
+        <v>0.474783</v>
       </c>
       <c r="C67" t="n">
-        <v>0.351731</v>
+        <v>0.349014</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320172</v>
+        <v>0.320619</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489082</v>
+        <v>0.48952</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355797</v>
+        <v>0.353412</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325303</v>
+        <v>0.325135</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494854</v>
+        <v>0.495181</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36068</v>
+        <v>0.358187</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32742</v>
+        <v>0.326544</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507412</v>
+        <v>0.509344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.367896</v>
+        <v>0.363417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330644</v>
+        <v>0.329209</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.516579</v>
+        <v>0.520593</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377757</v>
+        <v>0.37221</v>
       </c>
       <c r="D71" t="n">
-        <v>0.33467</v>
+        <v>0.334984</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.528973</v>
+        <v>0.530707</v>
       </c>
       <c r="C72" t="n">
-        <v>0.383941</v>
+        <v>0.38043</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338725</v>
+        <v>0.339365</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.545814</v>
+        <v>0.551863</v>
       </c>
       <c r="C73" t="n">
-        <v>0.393435</v>
+        <v>0.390146</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344279</v>
+        <v>0.342662</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.55821</v>
+        <v>0.563096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.400025</v>
+        <v>0.397205</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34668</v>
+        <v>0.347891</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.572998</v>
+        <v>0.575836</v>
       </c>
       <c r="C75" t="n">
-        <v>0.406453</v>
+        <v>0.404382</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353081</v>
+        <v>0.353002</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590486</v>
+        <v>0.5930879999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.418637</v>
+        <v>0.417276</v>
       </c>
       <c r="D76" t="n">
-        <v>0.359934</v>
+        <v>0.361128</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.601011</v>
+        <v>0.609684</v>
       </c>
       <c r="C77" t="n">
-        <v>0.430087</v>
+        <v>0.42879</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3642</v>
+        <v>0.366076</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.638988</v>
+        <v>0.638211</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361068</v>
+        <v>0.376983</v>
       </c>
       <c r="D78" t="n">
-        <v>0.345489</v>
+        <v>0.354565</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646015</v>
+        <v>0.686373</v>
       </c>
       <c r="C79" t="n">
-        <v>0.402183</v>
+        <v>0.389457</v>
       </c>
       <c r="D79" t="n">
-        <v>0.355608</v>
+        <v>0.361292</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.682211</v>
+        <v>0.698941</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416997</v>
+        <v>0.403035</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36413</v>
+        <v>0.367614</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.702398</v>
+        <v>0.743771</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435547</v>
+        <v>0.422631</v>
       </c>
       <c r="D81" t="n">
-        <v>0.372204</v>
+        <v>0.376752</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.750685</v>
+        <v>0.777581</v>
       </c>
       <c r="C82" t="n">
-        <v>0.45646</v>
+        <v>0.43998</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377324</v>
+        <v>0.387488</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.810508</v>
+        <v>0.818492</v>
       </c>
       <c r="C83" t="n">
-        <v>0.484256</v>
+        <v>0.454165</v>
       </c>
       <c r="D83" t="n">
-        <v>0.385039</v>
+        <v>0.386674</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8527400000000001</v>
+        <v>0.885771</v>
       </c>
       <c r="C84" t="n">
-        <v>0.504375</v>
+        <v>0.472189</v>
       </c>
       <c r="D84" t="n">
-        <v>0.395261</v>
+        <v>0.40269</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.88368</v>
+        <v>0.916505</v>
       </c>
       <c r="C85" t="n">
-        <v>0.530738</v>
+        <v>0.492183</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407407</v>
+        <v>0.416708</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.946977</v>
+        <v>0.961144</v>
       </c>
       <c r="C86" t="n">
-        <v>0.555094</v>
+        <v>0.511066</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422043</v>
+        <v>0.432852</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00188</v>
+        <v>1.02714</v>
       </c>
       <c r="C87" t="n">
-        <v>0.584588</v>
+        <v>0.541639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434577</v>
+        <v>0.450944</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05134</v>
+        <v>1.06693</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611413</v>
+        <v>0.571684</v>
       </c>
       <c r="D88" t="n">
-        <v>0.448678</v>
+        <v>0.470118</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.09291</v>
+        <v>1.12305</v>
       </c>
       <c r="C89" t="n">
-        <v>0.650342</v>
+        <v>0.607182</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474306</v>
+        <v>0.488717</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14795</v>
+        <v>1.17946</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6848919999999999</v>
+        <v>0.641886</v>
       </c>
       <c r="D90" t="n">
-        <v>0.489338</v>
+        <v>0.507361</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.22314</v>
+        <v>1.25017</v>
       </c>
       <c r="C91" t="n">
-        <v>0.726362</v>
+        <v>0.684024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5097930000000001</v>
+        <v>0.533707</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2646</v>
+        <v>1.29449</v>
       </c>
       <c r="C92" t="n">
-        <v>0.74183</v>
+        <v>0.7091190000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618129</v>
+        <v>0.622112</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31631</v>
+        <v>1.34221</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7762</v>
+        <v>0.750072</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630269</v>
+        <v>0.674315</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.35137</v>
+        <v>1.39483</v>
       </c>
       <c r="C94" t="n">
-        <v>0.832043</v>
+        <v>0.756852</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6798380000000001</v>
+        <v>0.674057</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39424</v>
+        <v>1.43516</v>
       </c>
       <c r="C95" t="n">
-        <v>0.842533</v>
+        <v>0.7991239999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6756450000000001</v>
+        <v>0.710388</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43189</v>
+        <v>1.4729</v>
       </c>
       <c r="C96" t="n">
-        <v>0.876426</v>
+        <v>0.835745</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699986</v>
+        <v>0.735117</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49065</v>
+        <v>1.52525</v>
       </c>
       <c r="C97" t="n">
-        <v>0.913018</v>
+        <v>0.870431</v>
       </c>
       <c r="D97" t="n">
-        <v>0.724712</v>
+        <v>0.758509</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56565</v>
+        <v>1.59107</v>
       </c>
       <c r="C98" t="n">
-        <v>0.954419</v>
+        <v>0.910386</v>
       </c>
       <c r="D98" t="n">
-        <v>0.781289</v>
+        <v>0.800791</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59732</v>
+        <v>1.62779</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01198</v>
+        <v>0.962911</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796943</v>
+        <v>0.804709</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63274</v>
+        <v>1.65869</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04325</v>
+        <v>0.97778</v>
       </c>
       <c r="D100" t="n">
-        <v>0.83081</v>
+        <v>0.825675</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.66716</v>
+        <v>1.6901</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07678</v>
+        <v>1.01398</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850128</v>
+        <v>0.855411</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72465</v>
+        <v>1.75192</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11789</v>
+        <v>1.05929</v>
       </c>
       <c r="D102" t="n">
-        <v>0.880915</v>
+        <v>0.900294</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77545</v>
+        <v>1.79888</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15306</v>
+        <v>1.09736</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914274</v>
+        <v>0.912187</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.82221</v>
+        <v>1.83813</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19071</v>
+        <v>1.13743</v>
       </c>
       <c r="D104" t="n">
-        <v>0.940573</v>
+        <v>0.93947</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.85164</v>
+        <v>1.88488</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23167</v>
+        <v>1.18105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.954901</v>
+        <v>0.991053</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91237</v>
+        <v>1.95806</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27291</v>
+        <v>1.24246</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987044</v>
+        <v>1.01541</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.81501</v>
+        <v>1.84505</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17141</v>
+        <v>1.15583</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0342</v>
+        <v>1.06204</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.84842</v>
+        <v>1.87401</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21932</v>
+        <v>1.17932</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06313</v>
+        <v>1.07582</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88019</v>
+        <v>1.88308</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24825</v>
+        <v>1.19633</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0835</v>
+        <v>1.08616</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91872</v>
+        <v>1.9204</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27673</v>
+        <v>1.23935</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1013</v>
+        <v>1.11541</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.94897</v>
+        <v>1.96941</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30232</v>
+        <v>1.26886</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12228</v>
+        <v>1.13375</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.96392</v>
+        <v>2.00207</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33167</v>
+        <v>1.30315</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14896</v>
+        <v>1.16464</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.01688</v>
+        <v>2.04371</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36459</v>
+        <v>1.33801</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16551</v>
+        <v>1.18062</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05169</v>
+        <v>2.08041</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39243</v>
+        <v>1.36684</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18537</v>
+        <v>1.19669</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.08037</v>
+        <v>2.11156</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42728</v>
+        <v>1.40451</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21043</v>
+        <v>1.22704</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.11915</v>
+        <v>2.15351</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45874</v>
+        <v>1.43883</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23003</v>
+        <v>1.24895</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15059</v>
+        <v>2.18928</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48825</v>
+        <v>1.4715</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24826</v>
+        <v>1.26778</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.18178</v>
+        <v>2.21633</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52861</v>
+        <v>1.51217</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27208</v>
+        <v>1.29399</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.22854</v>
+        <v>2.25556</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56465</v>
+        <v>1.54796</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30375</v>
+        <v>1.31748</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427151</v>
+        <v>0.43626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.313374</v>
+        <v>0.324452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.271777</v>
+        <v>0.273995</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436714</v>
+        <v>0.44504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316024</v>
+        <v>0.335566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.274111</v>
+        <v>0.277491</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.452092</v>
+        <v>0.462394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33356</v>
+        <v>0.351594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28388</v>
+        <v>0.287006</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459879</v>
+        <v>0.469593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.342644</v>
+        <v>0.36253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.287326</v>
+        <v>0.292821</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46715</v>
+        <v>0.475411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353476</v>
+        <v>0.374583</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292118</v>
+        <v>0.295928</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.490831</v>
+        <v>0.489135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37005</v>
+        <v>0.382294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30048</v>
+        <v>0.303411</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.497013</v>
+        <v>0.5026040000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389749</v>
+        <v>0.41215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309041</v>
+        <v>0.312993</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52154</v>
+        <v>0.528966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.40478</v>
+        <v>0.423274</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321556</v>
+        <v>0.327734</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.540248</v>
+        <v>0.547847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427348</v>
+        <v>0.451788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.332979</v>
+        <v>0.339177</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555984</v>
+        <v>0.564117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322866</v>
+        <v>0.3403</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271987</v>
+        <v>0.275418</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398121</v>
+        <v>0.409244</v>
       </c>
       <c r="C12" t="n">
-        <v>0.324495</v>
+        <v>0.341619</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271104</v>
+        <v>0.275281</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.415161</v>
+        <v>0.425414</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336383</v>
+        <v>0.355133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28231</v>
+        <v>0.288941</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.418932</v>
+        <v>0.425845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.350666</v>
+        <v>0.378696</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282707</v>
+        <v>0.286397</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441251</v>
+        <v>0.45813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.364862</v>
+        <v>0.379916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29181</v>
+        <v>0.296435</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445553</v>
+        <v>0.460113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.379369</v>
+        <v>0.408922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298529</v>
+        <v>0.301843</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466039</v>
+        <v>0.487761</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393057</v>
+        <v>0.413179</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307363</v>
+        <v>0.314881</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485456</v>
+        <v>0.503824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407175</v>
+        <v>0.430609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305911</v>
+        <v>0.312751</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.512622</v>
+        <v>0.533789</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422567</v>
+        <v>0.451803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320027</v>
+        <v>0.324614</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.521995</v>
+        <v>0.533488</v>
       </c>
       <c r="C20" t="n">
-        <v>0.443859</v>
+        <v>0.471536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.329792</v>
+        <v>0.334097</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.542362</v>
+        <v>0.557331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463775</v>
+        <v>0.492641</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341704</v>
+        <v>0.346479</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.561452</v>
+        <v>0.577587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.487771</v>
+        <v>0.5157389999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.347606</v>
+        <v>0.354155</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.598147</v>
+        <v>0.614367</v>
       </c>
       <c r="C23" t="n">
-        <v>0.515669</v>
+        <v>0.542201</v>
       </c>
       <c r="D23" t="n">
-        <v>0.365275</v>
+        <v>0.370617</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618317</v>
+        <v>0.63143</v>
       </c>
       <c r="C24" t="n">
-        <v>0.536233</v>
+        <v>0.561366</v>
       </c>
       <c r="D24" t="n">
-        <v>0.376139</v>
+        <v>0.381713</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64359</v>
+        <v>0.656521</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5618030000000001</v>
+        <v>0.593149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.390161</v>
+        <v>0.395173</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6782319999999999</v>
+        <v>0.686999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.354741</v>
+        <v>0.379055</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277165</v>
+        <v>0.288675</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.487805</v>
+        <v>0.505562</v>
       </c>
       <c r="C27" t="n">
-        <v>0.380251</v>
+        <v>0.389732</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284367</v>
+        <v>0.289764</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.508835</v>
+        <v>0.5161210000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.392085</v>
+        <v>0.400341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295118</v>
+        <v>0.29499</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533987</v>
+        <v>0.536554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409596</v>
+        <v>0.410001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300123</v>
+        <v>0.300823</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.557806</v>
+        <v>0.560537</v>
       </c>
       <c r="C30" t="n">
-        <v>0.429899</v>
+        <v>0.430724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31033</v>
+        <v>0.311849</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.578693</v>
+        <v>0.583024</v>
       </c>
       <c r="C31" t="n">
-        <v>0.445358</v>
+        <v>0.443586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321055</v>
+        <v>0.321761</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.599445</v>
+        <v>0.60063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463922</v>
+        <v>0.464652</v>
       </c>
       <c r="D32" t="n">
-        <v>0.330137</v>
+        <v>0.333216</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.613469</v>
+        <v>0.615065</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482864</v>
+        <v>0.483704</v>
       </c>
       <c r="D33" t="n">
-        <v>0.342784</v>
+        <v>0.343165</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.641947</v>
+        <v>0.645082</v>
       </c>
       <c r="C34" t="n">
-        <v>0.503478</v>
+        <v>0.503709</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356794</v>
+        <v>0.351734</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.663643</v>
+        <v>0.666287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.52499</v>
+        <v>0.527268</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367726</v>
+        <v>0.3707</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685948</v>
+        <v>0.686887</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550574</v>
+        <v>0.550639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378251</v>
+        <v>0.379727</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716992</v>
+        <v>0.714998</v>
       </c>
       <c r="C37" t="n">
-        <v>0.573902</v>
+        <v>0.575065</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390469</v>
+        <v>0.390537</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738498</v>
+        <v>0.740893</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5966939999999999</v>
+        <v>0.600258</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408974</v>
+        <v>0.410382</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.773522</v>
+        <v>0.778886</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6244150000000001</v>
+        <v>0.621687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421932</v>
+        <v>0.42389</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.796168</v>
+        <v>0.799069</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453316</v>
+        <v>0.453507</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351866</v>
+        <v>0.352234</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579639</v>
+        <v>0.581727</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469443</v>
+        <v>0.46748</v>
       </c>
       <c r="D41" t="n">
-        <v>0.359685</v>
+        <v>0.361763</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.59831</v>
+        <v>0.600174</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48751</v>
+        <v>0.483617</v>
       </c>
       <c r="D42" t="n">
-        <v>0.367588</v>
+        <v>0.369458</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616915</v>
+        <v>0.617851</v>
       </c>
       <c r="C43" t="n">
-        <v>0.50074</v>
+        <v>0.498604</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376441</v>
+        <v>0.37818</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629621</v>
+        <v>0.631512</v>
       </c>
       <c r="C44" t="n">
-        <v>0.523805</v>
+        <v>0.520296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.387545</v>
+        <v>0.388296</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652067</v>
+        <v>0.65351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.536521</v>
+        <v>0.533351</v>
       </c>
       <c r="D45" t="n">
-        <v>0.391356</v>
+        <v>0.392483</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664397</v>
+        <v>0.666055</v>
       </c>
       <c r="C46" t="n">
-        <v>0.556525</v>
+        <v>0.5528650000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406961</v>
+        <v>0.40932</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684588</v>
+        <v>0.685874</v>
       </c>
       <c r="C47" t="n">
-        <v>0.574547</v>
+        <v>0.570138</v>
       </c>
       <c r="D47" t="n">
-        <v>0.416212</v>
+        <v>0.417186</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701259</v>
+        <v>0.70248</v>
       </c>
       <c r="C48" t="n">
-        <v>0.590538</v>
+        <v>0.587298</v>
       </c>
       <c r="D48" t="n">
-        <v>0.427297</v>
+        <v>0.430138</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7228</v>
+        <v>0.723601</v>
       </c>
       <c r="C49" t="n">
-        <v>0.615389</v>
+        <v>0.609971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432137</v>
+        <v>0.436866</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744623</v>
+        <v>0.744913</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63296</v>
+        <v>0.628918</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443672</v>
+        <v>0.4467</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.765754</v>
+        <v>0.766144</v>
       </c>
       <c r="C51" t="n">
-        <v>0.658081</v>
+        <v>0.653015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.462987</v>
+        <v>0.463981</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.79009</v>
+        <v>0.789726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684777</v>
+        <v>0.677512</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476922</v>
+        <v>0.478194</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808218</v>
+        <v>0.81152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.707623</v>
+        <v>0.701457</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493543</v>
+        <v>0.494389</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83296</v>
+        <v>0.835153</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515012</v>
+        <v>0.512993</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395584</v>
+        <v>0.395978</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622773</v>
+        <v>0.623031</v>
       </c>
       <c r="C55" t="n">
-        <v>0.526517</v>
+        <v>0.523705</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405313</v>
+        <v>0.405084</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638524</v>
+        <v>0.63859</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54336</v>
+        <v>0.53948</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413212</v>
+        <v>0.413201</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.654604</v>
+        <v>0.652574</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558124</v>
+        <v>0.552584</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419834</v>
+        <v>0.419776</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668665</v>
+        <v>0.668778</v>
       </c>
       <c r="C58" t="n">
-        <v>0.572703</v>
+        <v>0.5674940000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4282</v>
+        <v>0.428741</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.688353</v>
+        <v>0.686607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5881729999999999</v>
+        <v>0.584384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43768</v>
+        <v>0.43917</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702244</v>
+        <v>0.701367</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606359</v>
+        <v>0.600535</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444521</v>
+        <v>0.44661</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720148</v>
+        <v>0.719437</v>
       </c>
       <c r="C61" t="n">
-        <v>0.623844</v>
+        <v>0.616295</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454907</v>
+        <v>0.454756</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737859</v>
+        <v>0.737779</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639551</v>
+        <v>0.632486</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462668</v>
+        <v>0.462752</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757047</v>
+        <v>0.7592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.66308</v>
+        <v>0.654544</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475737</v>
+        <v>0.476789</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769468</v>
+        <v>0.769473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.679707</v>
+        <v>0.669647</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485958</v>
+        <v>0.486444</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796343</v>
+        <v>0.7955989999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707251</v>
+        <v>0.69672</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497649</v>
+        <v>0.498226</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818496</v>
+        <v>0.817916</v>
       </c>
       <c r="C66" t="n">
-        <v>0.726095</v>
+        <v>0.716353</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509476</v>
+        <v>0.510888</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850133</v>
+        <v>0.84787</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75691</v>
+        <v>0.739687</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5258969999999999</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877507</v>
+        <v>0.875479</v>
       </c>
       <c r="C68" t="n">
-        <v>0.512435</v>
+        <v>0.510957</v>
       </c>
       <c r="D68" t="n">
-        <v>0.404924</v>
+        <v>0.407287</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.656489</v>
+        <v>0.659967</v>
       </c>
       <c r="C69" t="n">
-        <v>0.529656</v>
+        <v>0.524644</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411578</v>
+        <v>0.412789</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676002</v>
+        <v>0.680418</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550056</v>
+        <v>0.5468499999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.42249</v>
+        <v>0.42381</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701379</v>
+        <v>0.71157</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571574</v>
+        <v>0.567119</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433202</v>
+        <v>0.434641</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726956</v>
+        <v>0.733285</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5947249999999999</v>
+        <v>0.587079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.444339</v>
+        <v>0.445363</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75274</v>
+        <v>0.7629</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621421</v>
+        <v>0.613693</v>
       </c>
       <c r="D73" t="n">
-        <v>0.455467</v>
+        <v>0.457364</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.772746</v>
+        <v>0.782228</v>
       </c>
       <c r="C74" t="n">
-        <v>0.643589</v>
+        <v>0.634109</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464757</v>
+        <v>0.46693</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.807684</v>
+        <v>0.815057</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677267</v>
+        <v>0.662618</v>
       </c>
       <c r="D75" t="n">
-        <v>0.479281</v>
+        <v>0.481143</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.837214</v>
+        <v>0.851164</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7022969999999999</v>
+        <v>0.691106</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489053</v>
+        <v>0.494008</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874385</v>
+        <v>0.896279</v>
       </c>
       <c r="C77" t="n">
-        <v>0.738986</v>
+        <v>0.7266359999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506044</v>
+        <v>0.512122</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.915147</v>
+        <v>0.9407799999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775939</v>
+        <v>0.761059</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517644</v>
+        <v>0.521994</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.968971</v>
+        <v>0.999001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.817179</v>
+        <v>0.798915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.534312</v>
+        <v>0.540469</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02815</v>
+        <v>1.06207</v>
       </c>
       <c r="C80" t="n">
-        <v>0.869967</v>
+        <v>0.84726</v>
       </c>
       <c r="D80" t="n">
-        <v>0.557054</v>
+        <v>0.56362</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10232</v>
+        <v>1.12857</v>
       </c>
       <c r="C81" t="n">
-        <v>0.936972</v>
+        <v>0.904146</v>
       </c>
       <c r="D81" t="n">
-        <v>0.578201</v>
+        <v>0.583869</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.18842</v>
+        <v>1.21688</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00869</v>
+        <v>0.965805</v>
       </c>
       <c r="D82" t="n">
-        <v>0.601538</v>
+        <v>0.611877</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.28523</v>
+        <v>1.33124</v>
       </c>
       <c r="C83" t="n">
-        <v>0.719919</v>
+        <v>0.7190839999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.473295</v>
+        <v>0.482631</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.994831</v>
+        <v>1.05138</v>
       </c>
       <c r="C84" t="n">
-        <v>0.775269</v>
+        <v>0.769387</v>
       </c>
       <c r="D84" t="n">
-        <v>0.48546</v>
+        <v>0.499743</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05787</v>
+        <v>1.12794</v>
       </c>
       <c r="C85" t="n">
-        <v>0.827745</v>
+        <v>0.819254</v>
       </c>
       <c r="D85" t="n">
-        <v>0.500786</v>
+        <v>0.520078</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1506</v>
+        <v>1.20675</v>
       </c>
       <c r="C86" t="n">
-        <v>0.904313</v>
+        <v>0.883838</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5237619999999999</v>
+        <v>0.542349</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.24134</v>
+        <v>1.29825</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9871490000000001</v>
+        <v>0.953061</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551969</v>
+        <v>0.566271</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36403</v>
+        <v>1.40181</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08945</v>
+        <v>1.04516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.575387</v>
+        <v>0.598234</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.46589</v>
+        <v>1.52485</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1886</v>
+        <v>1.12893</v>
       </c>
       <c r="D89" t="n">
-        <v>0.615395</v>
+        <v>0.633261</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.60353</v>
+        <v>1.65671</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29967</v>
+        <v>1.22546</v>
       </c>
       <c r="D90" t="n">
-        <v>0.654702</v>
+        <v>0.674807</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.74339</v>
+        <v>1.79438</v>
       </c>
       <c r="C91" t="n">
-        <v>1.42544</v>
+        <v>1.33589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.694862</v>
+        <v>0.723449</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88544</v>
+        <v>1.93982</v>
       </c>
       <c r="C92" t="n">
-        <v>1.55585</v>
+        <v>1.44369</v>
       </c>
       <c r="D92" t="n">
-        <v>0.749853</v>
+        <v>0.778902</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.03261</v>
+        <v>2.07689</v>
       </c>
       <c r="C93" t="n">
-        <v>1.69287</v>
+        <v>1.56286</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8028419999999999</v>
+        <v>0.831909</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.17834</v>
+        <v>2.23747</v>
       </c>
       <c r="C94" t="n">
-        <v>1.84029</v>
+        <v>1.68835</v>
       </c>
       <c r="D94" t="n">
-        <v>0.865188</v>
+        <v>0.885028</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.34816</v>
+        <v>2.40377</v>
       </c>
       <c r="C95" t="n">
-        <v>1.99285</v>
+        <v>1.82213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.940867</v>
+        <v>0.961587</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.51672</v>
+        <v>2.57015</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17899</v>
+        <v>1.97268</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02434</v>
+        <v>1.04972</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70313</v>
+        <v>2.7419</v>
       </c>
       <c r="C97" t="n">
-        <v>1.38989</v>
+        <v>1.31304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.777595</v>
+        <v>0.793672</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0118</v>
+        <v>2.0498</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49148</v>
+        <v>1.39136</v>
       </c>
       <c r="D98" t="n">
-        <v>0.818818</v>
+        <v>0.841533</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12032</v>
+        <v>2.15189</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57917</v>
+        <v>1.47842</v>
       </c>
       <c r="D99" t="n">
-        <v>0.881379</v>
+        <v>0.891097</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.21989</v>
+        <v>2.26406</v>
       </c>
       <c r="C100" t="n">
-        <v>1.68838</v>
+        <v>1.57349</v>
       </c>
       <c r="D100" t="n">
-        <v>0.932964</v>
+        <v>0.945219</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.37345</v>
+        <v>2.38802</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79236</v>
+        <v>1.66889</v>
       </c>
       <c r="D101" t="n">
-        <v>0.970992</v>
+        <v>0.991671</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.47997</v>
+        <v>2.52034</v>
       </c>
       <c r="C102" t="n">
-        <v>1.90213</v>
+        <v>1.76815</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03444</v>
+        <v>1.05977</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59832</v>
+        <v>2.64134</v>
       </c>
       <c r="C103" t="n">
-        <v>2.02226</v>
+        <v>1.86973</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10291</v>
+        <v>1.11301</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.73354</v>
+        <v>2.77394</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14806</v>
+        <v>1.9813</v>
       </c>
       <c r="D104" t="n">
-        <v>1.15045</v>
+        <v>1.18088</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86079</v>
+        <v>2.89983</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27979</v>
+        <v>2.09247</v>
       </c>
       <c r="D105" t="n">
-        <v>1.21008</v>
+        <v>1.23152</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99586</v>
+        <v>3.05963</v>
       </c>
       <c r="C106" t="n">
-        <v>2.40583</v>
+        <v>2.20538</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28895</v>
+        <v>1.30995</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.16586</v>
+        <v>3.19864</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54572</v>
+        <v>2.3195</v>
       </c>
       <c r="D107" t="n">
-        <v>1.35959</v>
+        <v>1.39065</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3129</v>
+        <v>3.35486</v>
       </c>
       <c r="C108" t="n">
-        <v>2.71393</v>
+        <v>2.45582</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43201</v>
+        <v>1.47185</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.48168</v>
+        <v>3.53007</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88119</v>
+        <v>2.59324</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50614</v>
+        <v>1.52607</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.64804</v>
+        <v>3.69121</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04159</v>
+        <v>2.72222</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59375</v>
+        <v>1.60272</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.83185</v>
+        <v>3.86899</v>
       </c>
       <c r="C111" t="n">
-        <v>2.0134</v>
+        <v>1.918</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28106</v>
+        <v>1.29861</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.77706</v>
+        <v>2.81744</v>
       </c>
       <c r="C112" t="n">
-        <v>2.11291</v>
+        <v>2.00464</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32192</v>
+        <v>1.33918</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88458</v>
+        <v>2.88514</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21485</v>
+        <v>2.09329</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37257</v>
+        <v>1.3924</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.97741</v>
+        <v>3.00019</v>
       </c>
       <c r="C114" t="n">
-        <v>2.31594</v>
+        <v>2.1766</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42441</v>
+        <v>1.43161</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09309</v>
+        <v>3.13573</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42015</v>
+        <v>2.26679</v>
       </c>
       <c r="D115" t="n">
-        <v>1.47749</v>
+        <v>1.48909</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.20008</v>
+        <v>3.24642</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52911</v>
+        <v>2.36557</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52666</v>
+        <v>1.54075</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.32265</v>
+        <v>3.35894</v>
       </c>
       <c r="C117" t="n">
-        <v>2.65057</v>
+        <v>2.46608</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59987</v>
+        <v>1.61706</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.45107</v>
+        <v>3.48865</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78686</v>
+        <v>2.57987</v>
       </c>
       <c r="D118" t="n">
-        <v>1.66165</v>
+        <v>1.68588</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56317</v>
+        <v>3.60792</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91546</v>
+        <v>2.68381</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7146</v>
+        <v>1.7384</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291046</v>
+        <v>0.305068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235711</v>
+        <v>0.240464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243287</v>
+        <v>0.247993</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29725</v>
+        <v>0.309771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24112</v>
+        <v>0.245783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248466</v>
+        <v>0.252543</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.303794</v>
+        <v>0.315196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246276</v>
+        <v>0.251132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.253447</v>
+        <v>0.256715</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.311611</v>
+        <v>0.324207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.253893</v>
+        <v>0.25958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260399</v>
+        <v>0.263032</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.314224</v>
+        <v>0.330325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.258455</v>
+        <v>0.265222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.264424</v>
+        <v>0.268537</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.321753</v>
+        <v>0.33626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218762</v>
+        <v>0.220781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232498</v>
+        <v>0.235461</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286543</v>
+        <v>0.298172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220913</v>
+        <v>0.226906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231055</v>
+        <v>0.235088</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.289271</v>
+        <v>0.298038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224514</v>
+        <v>0.22729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237542</v>
+        <v>0.241818</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.298071</v>
+        <v>0.304477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.228619</v>
+        <v>0.233297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2417</v>
+        <v>0.246684</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304073</v>
+        <v>0.311027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232945</v>
+        <v>0.238147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246281</v>
+        <v>0.252216</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.309108</v>
+        <v>0.314894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23748</v>
+        <v>0.243562</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250591</v>
+        <v>0.257499</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318606</v>
+        <v>0.323106</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243852</v>
+        <v>0.247988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256134</v>
+        <v>0.261833</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.32486</v>
+        <v>0.328634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.249656</v>
+        <v>0.252889</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262226</v>
+        <v>0.266972</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.332609</v>
+        <v>0.337653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2556</v>
+        <v>0.25983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267696</v>
+        <v>0.272531</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340887</v>
+        <v>0.34562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.261913</v>
+        <v>0.265878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274679</v>
+        <v>0.279672</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.348682</v>
+        <v>0.352667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26798</v>
+        <v>0.271574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280776</v>
+        <v>0.285518</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.355175</v>
+        <v>0.358541</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27455</v>
+        <v>0.278752</v>
       </c>
       <c r="D18" t="n">
-        <v>0.286851</v>
+        <v>0.292229</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.362768</v>
+        <v>0.365031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.279805</v>
+        <v>0.282513</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293279</v>
+        <v>0.298479</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.367796</v>
+        <v>0.374249</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285622</v>
+        <v>0.290032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29798</v>
+        <v>0.305209</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376206</v>
+        <v>0.380755</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238806</v>
+        <v>0.240284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.255147</v>
+        <v>0.256673</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330114</v>
+        <v>0.331772</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243825</v>
+        <v>0.244654</v>
       </c>
       <c r="D22" t="n">
-        <v>0.260617</v>
+        <v>0.262159</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.334518</v>
+        <v>0.335899</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250162</v>
+        <v>0.249269</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266075</v>
+        <v>0.266079</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339666</v>
+        <v>0.34107</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255433</v>
+        <v>0.255529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271189</v>
+        <v>0.271649</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345183</v>
+        <v>0.345586</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259375</v>
+        <v>0.258873</v>
       </c>
       <c r="D25" t="n">
-        <v>0.275555</v>
+        <v>0.275604</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350665</v>
+        <v>0.351602</v>
       </c>
       <c r="C26" t="n">
-        <v>0.265367</v>
+        <v>0.264765</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282927</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.355411</v>
+        <v>0.356284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270041</v>
+        <v>0.272621</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286969</v>
+        <v>0.288531</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361389</v>
+        <v>0.362578</v>
       </c>
       <c r="C28" t="n">
-        <v>0.27683</v>
+        <v>0.277398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294363</v>
+        <v>0.293566</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.366792</v>
+        <v>0.368299</v>
       </c>
       <c r="C29" t="n">
-        <v>0.283784</v>
+        <v>0.284064</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300939</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.373371</v>
+        <v>0.374508</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289539</v>
+        <v>0.289642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.305158</v>
+        <v>0.306373</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.379198</v>
+        <v>0.38102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295703</v>
+        <v>0.296344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313853</v>
+        <v>0.313652</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.384977</v>
+        <v>0.386428</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301611</v>
+        <v>0.301964</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319693</v>
+        <v>0.318664</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.390967</v>
+        <v>0.391694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.307645</v>
+        <v>0.307937</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325007</v>
+        <v>0.325148</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398428</v>
+        <v>0.398612</v>
       </c>
       <c r="C34" t="n">
-        <v>0.313939</v>
+        <v>0.314235</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331964</v>
+        <v>0.330569</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404153</v>
+        <v>0.404933</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25293</v>
+        <v>0.253329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271848</v>
+        <v>0.271223</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349427</v>
+        <v>0.349584</v>
       </c>
       <c r="C36" t="n">
-        <v>0.257148</v>
+        <v>0.256734</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275396</v>
+        <v>0.276281</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353659</v>
+        <v>0.35341</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262564</v>
+        <v>0.261571</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280674</v>
+        <v>0.280852</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35809</v>
+        <v>0.357895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267534</v>
+        <v>0.268426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286458</v>
+        <v>0.285124</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362358</v>
+        <v>0.362371</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273098</v>
+        <v>0.272872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290775</v>
+        <v>0.290278</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.367021</v>
+        <v>0.366994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278348</v>
+        <v>0.27845</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296925</v>
+        <v>0.296734</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371926</v>
+        <v>0.372327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.284508</v>
+        <v>0.284409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302478</v>
+        <v>0.302036</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.377776</v>
+        <v>0.378029</v>
       </c>
       <c r="C42" t="n">
-        <v>0.289536</v>
+        <v>0.289529</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308412</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383218</v>
+        <v>0.383087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.294996</v>
+        <v>0.294917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.315818</v>
+        <v>0.313929</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389986</v>
+        <v>0.389324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30164</v>
+        <v>0.301626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321541</v>
+        <v>0.320435</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.39503</v>
+        <v>0.395265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.308143</v>
+        <v>0.308942</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327083</v>
+        <v>0.326162</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401168</v>
+        <v>0.401386</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3153</v>
+        <v>0.315</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333879</v>
+        <v>0.332675</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407179</v>
+        <v>0.4072</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320479</v>
+        <v>0.320998</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338392</v>
+        <v>0.338406</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413404</v>
+        <v>0.413581</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325732</v>
+        <v>0.326149</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344625</v>
+        <v>0.344202</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419269</v>
+        <v>0.41913</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331142</v>
+        <v>0.331134</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349847</v>
+        <v>0.349292</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.424478</v>
+        <v>0.424328</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265017</v>
+        <v>0.263676</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278947</v>
+        <v>0.278736</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362409</v>
+        <v>0.362477</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269462</v>
+        <v>0.269701</v>
       </c>
       <c r="D51" t="n">
-        <v>0.283598</v>
+        <v>0.284134</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366664</v>
+        <v>0.36696</v>
       </c>
       <c r="C52" t="n">
-        <v>0.274289</v>
+        <v>0.275021</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288452</v>
+        <v>0.288197</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371172</v>
+        <v>0.37134</v>
       </c>
       <c r="C53" t="n">
-        <v>0.279411</v>
+        <v>0.280247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293602</v>
+        <v>0.293388</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375509</v>
+        <v>0.375284</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28506</v>
+        <v>0.285594</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299188</v>
+        <v>0.299085</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380059</v>
+        <v>0.381472</v>
       </c>
       <c r="C55" t="n">
-        <v>0.291695</v>
+        <v>0.291247</v>
       </c>
       <c r="D55" t="n">
-        <v>0.304922</v>
+        <v>0.305834</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385235</v>
+        <v>0.384968</v>
       </c>
       <c r="C56" t="n">
-        <v>0.296629</v>
+        <v>0.296699</v>
       </c>
       <c r="D56" t="n">
-        <v>0.310389</v>
+        <v>0.310936</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390869</v>
+        <v>0.390699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.303142</v>
+        <v>0.302982</v>
       </c>
       <c r="D57" t="n">
-        <v>0.316739</v>
+        <v>0.317582</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39776</v>
+        <v>0.398822</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308575</v>
+        <v>0.309069</v>
       </c>
       <c r="D58" t="n">
-        <v>0.322847</v>
+        <v>0.322859</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403415</v>
+        <v>0.402687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314959</v>
+        <v>0.315258</v>
       </c>
       <c r="D59" t="n">
-        <v>0.330202</v>
+        <v>0.329253</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409516</v>
+        <v>0.408985</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321161</v>
+        <v>0.321373</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335151</v>
+        <v>0.335127</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.416113</v>
+        <v>0.414704</v>
       </c>
       <c r="C61" t="n">
-        <v>0.327661</v>
+        <v>0.327673</v>
       </c>
       <c r="D61" t="n">
-        <v>0.341195</v>
+        <v>0.342087</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.424086</v>
+        <v>0.420637</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333278</v>
+        <v>0.3337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.347692</v>
+        <v>0.347386</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.430362</v>
+        <v>0.426561</v>
       </c>
       <c r="C63" t="n">
-        <v>0.339541</v>
+        <v>0.338385</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354038</v>
+        <v>0.352526</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.436713</v>
+        <v>0.43247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274736</v>
+        <v>0.275882</v>
       </c>
       <c r="D64" t="n">
-        <v>0.287872</v>
+        <v>0.28764</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.388381</v>
+        <v>0.400818</v>
       </c>
       <c r="C65" t="n">
-        <v>0.280191</v>
+        <v>0.287232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298381</v>
+        <v>0.299249</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.390104</v>
+        <v>0.420363</v>
       </c>
       <c r="C66" t="n">
-        <v>0.289041</v>
+        <v>0.291091</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30273</v>
+        <v>0.303263</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409126</v>
+        <v>0.420917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.296366</v>
+        <v>0.29692</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307633</v>
+        <v>0.309398</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.422953</v>
+        <v>0.427161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304838</v>
+        <v>0.305587</v>
       </c>
       <c r="D68" t="n">
-        <v>0.315781</v>
+        <v>0.317051</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.437011</v>
+        <v>0.434475</v>
       </c>
       <c r="C69" t="n">
-        <v>0.310318</v>
+        <v>0.31327</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323594</v>
+        <v>0.323156</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.448247</v>
+        <v>0.433238</v>
       </c>
       <c r="C70" t="n">
-        <v>0.320277</v>
+        <v>0.320282</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331178</v>
+        <v>0.332867</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.456013</v>
+        <v>0.466742</v>
       </c>
       <c r="C71" t="n">
-        <v>0.326907</v>
+        <v>0.329649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338854</v>
+        <v>0.341866</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467109</v>
+        <v>0.481444</v>
       </c>
       <c r="C72" t="n">
-        <v>0.335323</v>
+        <v>0.339656</v>
       </c>
       <c r="D72" t="n">
-        <v>0.34699</v>
+        <v>0.350904</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.484937</v>
+        <v>0.499085</v>
       </c>
       <c r="C73" t="n">
-        <v>0.345653</v>
+        <v>0.349687</v>
       </c>
       <c r="D73" t="n">
-        <v>0.357857</v>
+        <v>0.360375</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.499745</v>
+        <v>0.51944</v>
       </c>
       <c r="C74" t="n">
-        <v>0.355882</v>
+        <v>0.361905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.367614</v>
+        <v>0.371885</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.51776</v>
+        <v>0.538392</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367175</v>
+        <v>0.374435</v>
       </c>
       <c r="D75" t="n">
-        <v>0.377907</v>
+        <v>0.383713</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5383869999999999</v>
+        <v>0.559947</v>
       </c>
       <c r="C76" t="n">
-        <v>0.378535</v>
+        <v>0.386659</v>
       </c>
       <c r="D76" t="n">
-        <v>0.389765</v>
+        <v>0.397044</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.559817</v>
+        <v>0.583047</v>
       </c>
       <c r="C77" t="n">
-        <v>0.392379</v>
+        <v>0.399737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.40139</v>
+        <v>0.411675</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5834009999999999</v>
+        <v>0.606724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.369692</v>
+        <v>0.355735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.37098</v>
+        <v>0.383665</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.708127</v>
+        <v>0.688317</v>
       </c>
       <c r="C79" t="n">
-        <v>0.374957</v>
+        <v>0.365206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.388756</v>
+        <v>0.384516</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.699754</v>
+        <v>0.706354</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389192</v>
+        <v>0.398303</v>
       </c>
       <c r="D80" t="n">
-        <v>0.397553</v>
+        <v>0.404939</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.741693</v>
+        <v>0.752775</v>
       </c>
       <c r="C81" t="n">
-        <v>0.404613</v>
+        <v>0.412515</v>
       </c>
       <c r="D81" t="n">
-        <v>0.412344</v>
+        <v>0.421458</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.763965</v>
+        <v>0.773969</v>
       </c>
       <c r="C82" t="n">
-        <v>0.421899</v>
+        <v>0.428278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430722</v>
+        <v>0.435861</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.788597</v>
+        <v>0.797809</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441859</v>
+        <v>0.449429</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449546</v>
+        <v>0.456295</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.818047</v>
+        <v>0.805589</v>
       </c>
       <c r="C84" t="n">
-        <v>0.462003</v>
+        <v>0.467355</v>
       </c>
       <c r="D84" t="n">
-        <v>0.457945</v>
+        <v>0.476836</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.822267</v>
+        <v>0.843544</v>
       </c>
       <c r="C85" t="n">
-        <v>0.466198</v>
+        <v>0.483769</v>
       </c>
       <c r="D85" t="n">
-        <v>0.477292</v>
+        <v>0.493668</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.848822</v>
+        <v>0.869577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.487868</v>
+        <v>0.505609</v>
       </c>
       <c r="D86" t="n">
-        <v>0.49679</v>
+        <v>0.515949</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.876946</v>
+        <v>0.895573</v>
       </c>
       <c r="C87" t="n">
-        <v>0.509757</v>
+        <v>0.525097</v>
       </c>
       <c r="D87" t="n">
-        <v>0.516815</v>
+        <v>0.534212</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.90235</v>
+        <v>0.921389</v>
       </c>
       <c r="C88" t="n">
-        <v>0.531087</v>
+        <v>0.546778</v>
       </c>
       <c r="D88" t="n">
-        <v>0.540083</v>
+        <v>0.5564829999999999</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.930683</v>
+        <v>0.947577</v>
       </c>
       <c r="C89" t="n">
-        <v>0.553837</v>
+        <v>0.5689650000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.560428</v>
+        <v>0.5775130000000001</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9585090000000001</v>
+        <v>0.975931</v>
       </c>
       <c r="C90" t="n">
-        <v>0.575659</v>
+        <v>0.591483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.583664</v>
+        <v>0.599925</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9878710000000001</v>
+        <v>1.00503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.59783</v>
+        <v>0.614854</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6054079999999999</v>
+        <v>0.622127</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.01958</v>
+        <v>1.03631</v>
       </c>
       <c r="C92" t="n">
-        <v>0.613268</v>
+        <v>0.633545</v>
       </c>
       <c r="D92" t="n">
-        <v>0.643663</v>
+        <v>0.626742</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15184</v>
+        <v>1.15376</v>
       </c>
       <c r="C93" t="n">
-        <v>0.651077</v>
+        <v>0.641001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6583290000000001</v>
+        <v>0.6402910000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15839</v>
+        <v>1.14471</v>
       </c>
       <c r="C94" t="n">
-        <v>0.666994</v>
+        <v>0.6651319999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.677463</v>
+        <v>0.672976</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1724</v>
+        <v>1.16503</v>
       </c>
       <c r="C95" t="n">
-        <v>0.658352</v>
+        <v>0.657488</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663907</v>
+        <v>0.662413</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18601</v>
+        <v>1.16045</v>
       </c>
       <c r="C96" t="n">
-        <v>0.703308</v>
+        <v>0.678611</v>
       </c>
       <c r="D96" t="n">
-        <v>0.707263</v>
+        <v>0.68433</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19481</v>
+        <v>1.19321</v>
       </c>
       <c r="C97" t="n">
-        <v>0.715703</v>
+        <v>0.716258</v>
       </c>
       <c r="D97" t="n">
-        <v>0.725558</v>
+        <v>0.724529</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20957</v>
+        <v>1.20778</v>
       </c>
       <c r="C98" t="n">
-        <v>0.734199</v>
+        <v>0.734351</v>
       </c>
       <c r="D98" t="n">
-        <v>0.743082</v>
+        <v>0.742063</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.22948</v>
+        <v>1.22787</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7524729999999999</v>
+        <v>0.752177</v>
       </c>
       <c r="D99" t="n">
-        <v>0.763026</v>
+        <v>0.762301</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2475</v>
+        <v>1.24471</v>
       </c>
       <c r="C100" t="n">
-        <v>0.772524</v>
+        <v>0.771568</v>
       </c>
       <c r="D100" t="n">
-        <v>0.784215</v>
+        <v>0.780931</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2627</v>
+        <v>1.25975</v>
       </c>
       <c r="C101" t="n">
-        <v>0.792467</v>
+        <v>0.791432</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8046140000000001</v>
+        <v>0.802395</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28256</v>
+        <v>1.28009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.812682</v>
+        <v>0.812378</v>
       </c>
       <c r="D102" t="n">
-        <v>0.825288</v>
+        <v>0.823001</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30754</v>
+        <v>1.30626</v>
       </c>
       <c r="C103" t="n">
-        <v>0.834001</v>
+        <v>0.832446</v>
       </c>
       <c r="D103" t="n">
-        <v>0.846804</v>
+        <v>0.845537</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3309</v>
+        <v>1.32853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.855813</v>
+        <v>0.854766</v>
       </c>
       <c r="D104" t="n">
-        <v>0.871132</v>
+        <v>0.86861</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.35451</v>
+        <v>1.35266</v>
       </c>
       <c r="C105" t="n">
-        <v>0.877733</v>
+        <v>0.8776350000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.894979</v>
+        <v>0.892969</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.37868</v>
+        <v>1.37745</v>
       </c>
       <c r="C106" t="n">
-        <v>0.900881</v>
+        <v>0.900852</v>
       </c>
       <c r="D106" t="n">
-        <v>0.919129</v>
+        <v>0.917587</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38232</v>
+        <v>1.38212</v>
       </c>
       <c r="C107" t="n">
-        <v>0.855702</v>
+        <v>0.855807</v>
       </c>
       <c r="D107" t="n">
-        <v>0.86289</v>
+        <v>0.864745</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38715</v>
+        <v>1.38604</v>
       </c>
       <c r="C108" t="n">
-        <v>0.870036</v>
+        <v>0.870543</v>
       </c>
       <c r="D108" t="n">
-        <v>0.877552</v>
+        <v>0.881039</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.39703</v>
+        <v>1.39512</v>
       </c>
       <c r="C109" t="n">
-        <v>0.883506</v>
+        <v>0.884908</v>
       </c>
       <c r="D109" t="n">
-        <v>0.894211</v>
+        <v>0.896804</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38848</v>
+        <v>1.40453</v>
       </c>
       <c r="C110" t="n">
-        <v>0.878651</v>
+        <v>0.900429</v>
       </c>
       <c r="D110" t="n">
-        <v>0.889014</v>
+        <v>0.912503</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41654</v>
+        <v>1.41562</v>
       </c>
       <c r="C111" t="n">
-        <v>0.916763</v>
+        <v>0.915955</v>
       </c>
       <c r="D111" t="n">
-        <v>0.924944</v>
+        <v>0.926362</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42906</v>
+        <v>1.42709</v>
       </c>
       <c r="C112" t="n">
-        <v>0.933596</v>
+        <v>0.933447</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9439109999999999</v>
+        <v>0.945203</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43988</v>
+        <v>1.4387</v>
       </c>
       <c r="C113" t="n">
-        <v>0.951318</v>
+        <v>0.9510960000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.961081</v>
+        <v>0.963288</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45526</v>
+        <v>1.45528</v>
       </c>
       <c r="C114" t="n">
-        <v>0.970167</v>
+        <v>0.96992</v>
       </c>
       <c r="D114" t="n">
-        <v>0.978824</v>
+        <v>0.980492</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.46812</v>
+        <v>1.45259</v>
       </c>
       <c r="C115" t="n">
-        <v>0.98674</v>
+        <v>0.968639</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00099</v>
+        <v>1.00189</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48725</v>
+        <v>1.47137</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0068</v>
+        <v>0.988838</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02175</v>
+        <v>1.02049</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50488</v>
+        <v>1.49528</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02656</v>
+        <v>1.00942</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04122</v>
+        <v>1.04413</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.52356</v>
+        <v>1.51643</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04788</v>
+        <v>1.03076</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05864</v>
+        <v>1.06222</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.54764</v>
+        <v>1.53004</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06985</v>
+        <v>1.05142</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08191</v>
+        <v>1.08302</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273212</v>
+        <v>0.265622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206345</v>
+        <v>0.20273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20699</v>
+        <v>0.204699</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278672</v>
+        <v>0.270188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.212156</v>
+        <v>0.207927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209072</v>
+        <v>0.207076</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285309</v>
+        <v>0.280205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213755</v>
+        <v>0.208789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211291</v>
+        <v>0.20873</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.290775</v>
+        <v>0.279305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220428</v>
+        <v>0.214019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213877</v>
+        <v>0.210748</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.294439</v>
+        <v>0.280068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229008</v>
+        <v>0.219718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216768</v>
+        <v>0.214128</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.299703</v>
+        <v>0.288054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207459</v>
+        <v>0.203855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217619</v>
+        <v>0.215015</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.296629</v>
+        <v>0.280629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.212088</v>
+        <v>0.206917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220999</v>
+        <v>0.219314</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.300324</v>
+        <v>0.29241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218943</v>
+        <v>0.212664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222691</v>
+        <v>0.221034</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.29728</v>
+        <v>0.292349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214917</v>
+        <v>0.214427</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225887</v>
+        <v>0.222893</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300589</v>
+        <v>0.30035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212756</v>
+        <v>0.211324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221036</v>
+        <v>0.223818</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.303685</v>
+        <v>0.301949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221535</v>
+        <v>0.219717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.224219</v>
+        <v>0.223081</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320143</v>
+        <v>0.303712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223218</v>
+        <v>0.219134</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232591</v>
+        <v>0.226421</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316742</v>
+        <v>0.314508</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22607</v>
+        <v>0.225383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228469</v>
+        <v>0.227125</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.32491</v>
+        <v>0.319902</v>
       </c>
       <c r="C15" t="n">
-        <v>0.22434</v>
+        <v>0.224821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.231461</v>
+        <v>0.229669</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.326057</v>
+        <v>0.324648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230803</v>
+        <v>0.230867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236248</v>
+        <v>0.230421</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.333435</v>
+        <v>0.328973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238777</v>
+        <v>0.233009</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247384</v>
+        <v>0.234254</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.339634</v>
+        <v>0.333849</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246395</v>
+        <v>0.240192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240204</v>
+        <v>0.233962</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.347956</v>
+        <v>0.342566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.251752</v>
+        <v>0.247655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253343</v>
+        <v>0.240931</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.356894</v>
+        <v>0.348157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.258783</v>
+        <v>0.25598</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253431</v>
+        <v>0.243008</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.35988</v>
+        <v>0.356098</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238431</v>
+        <v>0.234445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243552</v>
+        <v>0.239752</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.347316</v>
+        <v>0.345529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249307</v>
+        <v>0.247973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25181</v>
+        <v>0.250468</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.354815</v>
+        <v>0.353235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254665</v>
+        <v>0.25251</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254279</v>
+        <v>0.252751</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.360676</v>
+        <v>0.357588</v>
       </c>
       <c r="C24" t="n">
-        <v>0.266996</v>
+        <v>0.25577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254016</v>
+        <v>0.253264</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.366136</v>
+        <v>0.36485</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273995</v>
+        <v>0.273002</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262858</v>
+        <v>0.261768</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368892</v>
+        <v>0.368189</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273939</v>
+        <v>0.273146</v>
       </c>
       <c r="D26" t="n">
-        <v>0.266873</v>
+        <v>0.265311</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.377232</v>
+        <v>0.374013</v>
       </c>
       <c r="C27" t="n">
-        <v>0.282844</v>
+        <v>0.275252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.272631</v>
+        <v>0.27006</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.380517</v>
+        <v>0.379567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.285634</v>
+        <v>0.28429</v>
       </c>
       <c r="D28" t="n">
-        <v>0.276033</v>
+        <v>0.274237</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.387476</v>
+        <v>0.386665</v>
       </c>
       <c r="C29" t="n">
-        <v>0.290139</v>
+        <v>0.289593</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278882</v>
+        <v>0.27761</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392059</v>
+        <v>0.395165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.304214</v>
+        <v>0.306134</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283269</v>
+        <v>0.283532</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400172</v>
+        <v>0.398575</v>
       </c>
       <c r="C31" t="n">
-        <v>0.302932</v>
+        <v>0.301888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.286165</v>
+        <v>0.285108</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.402927</v>
+        <v>0.401272</v>
       </c>
       <c r="C32" t="n">
-        <v>0.312967</v>
+        <v>0.310852</v>
       </c>
       <c r="D32" t="n">
-        <v>0.29018</v>
+        <v>0.289012</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.408332</v>
+        <v>0.407282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.323256</v>
+        <v>0.321957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294466</v>
+        <v>0.29254</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411843</v>
+        <v>0.410238</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327884</v>
+        <v>0.32275</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29868</v>
+        <v>0.297545</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420372</v>
+        <v>0.420462</v>
       </c>
       <c r="C35" t="n">
-        <v>0.267284</v>
+        <v>0.266791</v>
       </c>
       <c r="D35" t="n">
-        <v>0.279527</v>
+        <v>0.277906</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.403154</v>
+        <v>0.402409</v>
       </c>
       <c r="C36" t="n">
-        <v>0.273605</v>
+        <v>0.273599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280628</v>
+        <v>0.28089</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.409547</v>
+        <v>0.408247</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277884</v>
+        <v>0.276788</v>
       </c>
       <c r="D37" t="n">
-        <v>0.282723</v>
+        <v>0.283219</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.41121</v>
+        <v>0.411121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.283349</v>
+        <v>0.283381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.287179</v>
+        <v>0.285667</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415618</v>
+        <v>0.415097</v>
       </c>
       <c r="C39" t="n">
-        <v>0.288623</v>
+        <v>0.289665</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291131</v>
+        <v>0.291125</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419852</v>
+        <v>0.419586</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292859</v>
+        <v>0.293531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293882</v>
+        <v>0.293399</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423658</v>
+        <v>0.422951</v>
       </c>
       <c r="C41" t="n">
-        <v>0.296578</v>
+        <v>0.29671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.294554</v>
+        <v>0.293422</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430675</v>
+        <v>0.43013</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299611</v>
+        <v>0.29897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296704</v>
+        <v>0.296026</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436108</v>
+        <v>0.436391</v>
       </c>
       <c r="C43" t="n">
-        <v>0.305407</v>
+        <v>0.30499</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298782</v>
+        <v>0.298744</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440037</v>
+        <v>0.440499</v>
       </c>
       <c r="C44" t="n">
-        <v>0.312668</v>
+        <v>0.308629</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301256</v>
+        <v>0.301604</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.443099</v>
+        <v>0.442479</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314633</v>
+        <v>0.313905</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305808</v>
+        <v>0.305233</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449395</v>
+        <v>0.448877</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316238</v>
+        <v>0.315292</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306141</v>
+        <v>0.305813</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.456036</v>
+        <v>0.456735</v>
       </c>
       <c r="C47" t="n">
-        <v>0.322548</v>
+        <v>0.32228</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309363</v>
+        <v>0.309383</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.46097</v>
+        <v>0.460653</v>
       </c>
       <c r="C48" t="n">
-        <v>0.327581</v>
+        <v>0.326836</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311996</v>
+        <v>0.311591</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.466988</v>
+        <v>0.465888</v>
       </c>
       <c r="C49" t="n">
-        <v>0.334041</v>
+        <v>0.333235</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315634</v>
+        <v>0.313661</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476221</v>
+        <v>0.476265</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301711</v>
+        <v>0.297649</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293744</v>
+        <v>0.292516</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430358</v>
+        <v>0.430194</v>
       </c>
       <c r="C51" t="n">
-        <v>0.306596</v>
+        <v>0.306419</v>
       </c>
       <c r="D51" t="n">
-        <v>0.297143</v>
+        <v>0.296249</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.432529</v>
+        <v>0.4332</v>
       </c>
       <c r="C52" t="n">
-        <v>0.309765</v>
+        <v>0.3087</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29744</v>
+        <v>0.297241</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438653</v>
+        <v>0.438928</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315674</v>
+        <v>0.314713</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300464</v>
+        <v>0.300085</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442374</v>
+        <v>0.442376</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320368</v>
+        <v>0.320678</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303903</v>
+        <v>0.303563</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445258</v>
+        <v>0.445535</v>
       </c>
       <c r="C55" t="n">
-        <v>0.325581</v>
+        <v>0.325159</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305481</v>
+        <v>0.305172</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450031</v>
+        <v>0.450242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.325269</v>
+        <v>0.324099</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307865</v>
+        <v>0.307314</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.452459</v>
+        <v>0.453087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.33455</v>
+        <v>0.333959</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310351</v>
+        <v>0.310033</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457668</v>
+        <v>0.457593</v>
       </c>
       <c r="C58" t="n">
-        <v>0.341637</v>
+        <v>0.341423</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314519</v>
+        <v>0.314248</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461088</v>
+        <v>0.461064</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348576</v>
+        <v>0.348365</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318909</v>
+        <v>0.318612</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466572</v>
+        <v>0.46703</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354444</v>
+        <v>0.354358</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320921</v>
+        <v>0.320671</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470615</v>
+        <v>0.471094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359226</v>
+        <v>0.359031</v>
       </c>
       <c r="D61" t="n">
-        <v>0.32398</v>
+        <v>0.323503</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477436</v>
+        <v>0.477925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364554</v>
+        <v>0.364245</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325983</v>
+        <v>0.325299</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482151</v>
+        <v>0.483243</v>
       </c>
       <c r="C63" t="n">
-        <v>0.371193</v>
+        <v>0.370973</v>
       </c>
       <c r="D63" t="n">
-        <v>0.329016</v>
+        <v>0.328775</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.488488</v>
+        <v>0.490497</v>
       </c>
       <c r="C64" t="n">
-        <v>0.332986</v>
+        <v>0.331463</v>
       </c>
       <c r="D64" t="n">
-        <v>0.314044</v>
+        <v>0.315006</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462442</v>
+        <v>0.460638</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32592</v>
+        <v>0.329725</v>
       </c>
       <c r="D65" t="n">
-        <v>0.311745</v>
+        <v>0.313611</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.466662</v>
+        <v>0.445735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.341934</v>
+        <v>0.340153</v>
       </c>
       <c r="D66" t="n">
-        <v>0.315835</v>
+        <v>0.316894</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.474783</v>
+        <v>0.474407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.349014</v>
+        <v>0.348649</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320619</v>
+        <v>0.320656</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.48952</v>
+        <v>0.490036</v>
       </c>
       <c r="C68" t="n">
-        <v>0.353412</v>
+        <v>0.353077</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325135</v>
+        <v>0.325145</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.495181</v>
+        <v>0.500539</v>
       </c>
       <c r="C69" t="n">
-        <v>0.358187</v>
+        <v>0.357642</v>
       </c>
       <c r="D69" t="n">
-        <v>0.326544</v>
+        <v>0.325347</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.509344</v>
+        <v>0.517218</v>
       </c>
       <c r="C70" t="n">
-        <v>0.363417</v>
+        <v>0.362039</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329209</v>
+        <v>0.328678</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.520593</v>
+        <v>0.526801</v>
       </c>
       <c r="C71" t="n">
-        <v>0.37221</v>
+        <v>0.372935</v>
       </c>
       <c r="D71" t="n">
-        <v>0.334984</v>
+        <v>0.333661</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.530707</v>
+        <v>0.542771</v>
       </c>
       <c r="C72" t="n">
-        <v>0.38043</v>
+        <v>0.381675</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339365</v>
+        <v>0.332599</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.551863</v>
+        <v>0.537411</v>
       </c>
       <c r="C73" t="n">
-        <v>0.390146</v>
+        <v>0.381802</v>
       </c>
       <c r="D73" t="n">
-        <v>0.342662</v>
+        <v>0.338763</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.563096</v>
+        <v>0.555091</v>
       </c>
       <c r="C74" t="n">
-        <v>0.397205</v>
+        <v>0.388513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.347891</v>
+        <v>0.342018</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.575836</v>
+        <v>0.568624</v>
       </c>
       <c r="C75" t="n">
-        <v>0.404382</v>
+        <v>0.394887</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353002</v>
+        <v>0.34369</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5930879999999999</v>
+        <v>0.596583</v>
       </c>
       <c r="C76" t="n">
-        <v>0.417276</v>
+        <v>0.407898</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361128</v>
+        <v>0.348576</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.609684</v>
+        <v>0.619581</v>
       </c>
       <c r="C77" t="n">
-        <v>0.42879</v>
+        <v>0.422471</v>
       </c>
       <c r="D77" t="n">
-        <v>0.366076</v>
+        <v>0.356637</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.638211</v>
+        <v>0.641216</v>
       </c>
       <c r="C78" t="n">
-        <v>0.376983</v>
+        <v>0.386416</v>
       </c>
       <c r="D78" t="n">
-        <v>0.354565</v>
+        <v>0.353493</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.686373</v>
+        <v>0.699167</v>
       </c>
       <c r="C79" t="n">
-        <v>0.389457</v>
+        <v>0.39792</v>
       </c>
       <c r="D79" t="n">
-        <v>0.361292</v>
+        <v>0.358167</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.698941</v>
+        <v>0.717599</v>
       </c>
       <c r="C80" t="n">
-        <v>0.403035</v>
+        <v>0.410435</v>
       </c>
       <c r="D80" t="n">
-        <v>0.367614</v>
+        <v>0.370648</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.743771</v>
+        <v>0.7526040000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.422631</v>
+        <v>0.425709</v>
       </c>
       <c r="D81" t="n">
-        <v>0.376752</v>
+        <v>0.375102</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.777581</v>
+        <v>0.7934369999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43998</v>
+        <v>0.441771</v>
       </c>
       <c r="D82" t="n">
-        <v>0.387488</v>
+        <v>0.361417</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.818492</v>
+        <v>0.806949</v>
       </c>
       <c r="C83" t="n">
-        <v>0.454165</v>
+        <v>0.436181</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386674</v>
+        <v>0.371231</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885771</v>
+        <v>0.88748</v>
       </c>
       <c r="C84" t="n">
-        <v>0.472189</v>
+        <v>0.464115</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40269</v>
+        <v>0.384008</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.916505</v>
+        <v>0.907141</v>
       </c>
       <c r="C85" t="n">
-        <v>0.492183</v>
+        <v>0.482271</v>
       </c>
       <c r="D85" t="n">
-        <v>0.416708</v>
+        <v>0.402854</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.961144</v>
+        <v>0.954386</v>
       </c>
       <c r="C86" t="n">
-        <v>0.511066</v>
+        <v>0.50559</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432852</v>
+        <v>0.419493</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02714</v>
+        <v>1.01004</v>
       </c>
       <c r="C87" t="n">
-        <v>0.541639</v>
+        <v>0.53376</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450944</v>
+        <v>0.438758</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06693</v>
+        <v>1.05887</v>
       </c>
       <c r="C88" t="n">
-        <v>0.571684</v>
+        <v>0.5631080000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.470118</v>
+        <v>0.451062</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12305</v>
+        <v>1.10764</v>
       </c>
       <c r="C89" t="n">
-        <v>0.607182</v>
+        <v>0.597344</v>
       </c>
       <c r="D89" t="n">
-        <v>0.488717</v>
+        <v>0.477384</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.17946</v>
+        <v>1.16554</v>
       </c>
       <c r="C90" t="n">
-        <v>0.641886</v>
+        <v>0.632642</v>
       </c>
       <c r="D90" t="n">
-        <v>0.507361</v>
+        <v>0.487432</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.25017</v>
+        <v>1.23669</v>
       </c>
       <c r="C91" t="n">
-        <v>0.684024</v>
+        <v>0.675838</v>
       </c>
       <c r="D91" t="n">
-        <v>0.533707</v>
+        <v>0.519045</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.29449</v>
+        <v>1.28678</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7091190000000001</v>
+        <v>0.688341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.622112</v>
+        <v>0.646159</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34221</v>
+        <v>1.34122</v>
       </c>
       <c r="C93" t="n">
-        <v>0.750072</v>
+        <v>0.72014</v>
       </c>
       <c r="D93" t="n">
-        <v>0.674315</v>
+        <v>0.65024</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39483</v>
+        <v>1.3765</v>
       </c>
       <c r="C94" t="n">
-        <v>0.756852</v>
+        <v>0.779081</v>
       </c>
       <c r="D94" t="n">
-        <v>0.674057</v>
+        <v>0.692483</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43516</v>
+        <v>1.40584</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7991239999999999</v>
+        <v>0.814998</v>
       </c>
       <c r="D95" t="n">
-        <v>0.710388</v>
+        <v>0.721614</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.4729</v>
+        <v>1.47354</v>
       </c>
       <c r="C96" t="n">
-        <v>0.835745</v>
+        <v>0.848953</v>
       </c>
       <c r="D96" t="n">
-        <v>0.735117</v>
+        <v>0.746834</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.52525</v>
+        <v>1.53077</v>
       </c>
       <c r="C97" t="n">
-        <v>0.870431</v>
+        <v>0.884419</v>
       </c>
       <c r="D97" t="n">
-        <v>0.758509</v>
+        <v>0.771632</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.59107</v>
+        <v>1.57921</v>
       </c>
       <c r="C98" t="n">
-        <v>0.910386</v>
+        <v>0.921368</v>
       </c>
       <c r="D98" t="n">
-        <v>0.800791</v>
+        <v>0.797349</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62779</v>
+        <v>1.62092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.962911</v>
+        <v>0.964552</v>
       </c>
       <c r="D99" t="n">
-        <v>0.804709</v>
+        <v>0.821808</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65869</v>
+        <v>1.66785</v>
       </c>
       <c r="C100" t="n">
-        <v>0.97778</v>
+        <v>0.998235</v>
       </c>
       <c r="D100" t="n">
-        <v>0.825675</v>
+        <v>0.847871</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.6901</v>
+        <v>1.70342</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01398</v>
+        <v>1.03438</v>
       </c>
       <c r="D101" t="n">
-        <v>0.855411</v>
+        <v>0.873566</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75192</v>
+        <v>1.75849</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05929</v>
+        <v>1.07972</v>
       </c>
       <c r="D102" t="n">
-        <v>0.900294</v>
+        <v>0.903484</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.79888</v>
+        <v>1.80528</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09736</v>
+        <v>1.11766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.912187</v>
+        <v>0.932411</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.83813</v>
+        <v>1.8493</v>
       </c>
       <c r="C104" t="n">
-        <v>1.13743</v>
+        <v>1.15599</v>
       </c>
       <c r="D104" t="n">
-        <v>0.93947</v>
+        <v>0.9569800000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.88488</v>
+        <v>1.88324</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18105</v>
+        <v>1.19944</v>
       </c>
       <c r="D105" t="n">
-        <v>0.991053</v>
+        <v>0.962376</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.95806</v>
+        <v>1.92792</v>
       </c>
       <c r="C106" t="n">
-        <v>1.24246</v>
+        <v>1.21768</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01541</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84505</v>
+        <v>1.83821</v>
       </c>
       <c r="C107" t="n">
-        <v>1.15583</v>
+        <v>1.1514</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06204</v>
+        <v>1.05315</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.87401</v>
+        <v>1.86673</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17932</v>
+        <v>1.1768</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07582</v>
+        <v>1.0764</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88308</v>
+        <v>1.88549</v>
       </c>
       <c r="C109" t="n">
-        <v>1.19633</v>
+        <v>1.20741</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08616</v>
+        <v>1.09617</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.9204</v>
+        <v>1.91978</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23935</v>
+        <v>1.23563</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11541</v>
+        <v>1.11243</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.96941</v>
+        <v>1.96321</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26886</v>
+        <v>1.26524</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13375</v>
+        <v>1.13263</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.00207</v>
+        <v>2.00114</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30315</v>
+        <v>1.29781</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16464</v>
+        <v>1.15677</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.04371</v>
+        <v>2.03764</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33801</v>
+        <v>1.33227</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18062</v>
+        <v>1.17668</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.08041</v>
+        <v>2.07222</v>
       </c>
       <c r="C114" t="n">
-        <v>1.36684</v>
+        <v>1.36119</v>
       </c>
       <c r="D114" t="n">
-        <v>1.19669</v>
+        <v>1.19658</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.11156</v>
+        <v>2.10004</v>
       </c>
       <c r="C115" t="n">
-        <v>1.40451</v>
+        <v>1.39862</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22704</v>
+        <v>1.22291</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15351</v>
+        <v>2.14254</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43883</v>
+        <v>1.43253</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24895</v>
+        <v>1.24301</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.18928</v>
+        <v>2.1778</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4715</v>
+        <v>1.46463</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26778</v>
+        <v>1.26486</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.21633</v>
+        <v>2.20432</v>
       </c>
       <c r="C118" t="n">
-        <v>1.51217</v>
+        <v>1.50537</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29399</v>
+        <v>1.28821</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.25556</v>
+        <v>2.24687</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54796</v>
+        <v>1.54037</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31748</v>
+        <v>1.31168</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.43626</v>
+        <v>0.42889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324452</v>
+        <v>0.318575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.273995</v>
+        <v>0.272973</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.44504</v>
+        <v>0.433835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.335566</v>
+        <v>0.32275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277491</v>
+        <v>0.274757</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462394</v>
+        <v>0.451218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.351594</v>
+        <v>0.34319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.287006</v>
+        <v>0.284619</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.469593</v>
+        <v>0.461123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36253</v>
+        <v>0.352574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.292821</v>
+        <v>0.288277</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.475411</v>
+        <v>0.46458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.374583</v>
+        <v>0.359811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.295928</v>
+        <v>0.29245</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.489135</v>
+        <v>0.477574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.382294</v>
+        <v>0.369437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303411</v>
+        <v>0.299019</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5026040000000001</v>
+        <v>0.495068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.41215</v>
+        <v>0.391674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.312993</v>
+        <v>0.307591</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528966</v>
+        <v>0.515448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.423274</v>
+        <v>0.412134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.327734</v>
+        <v>0.323167</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.547847</v>
+        <v>0.528658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.451788</v>
+        <v>0.429809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339177</v>
+        <v>0.333296</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.564117</v>
+        <v>0.542196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3403</v>
+        <v>0.33836</v>
       </c>
       <c r="D11" t="n">
-        <v>0.275418</v>
+        <v>0.271244</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.409244</v>
+        <v>0.407459</v>
       </c>
       <c r="C12" t="n">
-        <v>0.341619</v>
+        <v>0.335859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.275281</v>
+        <v>0.273041</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.425414</v>
+        <v>0.423182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.355133</v>
+        <v>0.35197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.288941</v>
+        <v>0.28527</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.425845</v>
+        <v>0.431219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.378696</v>
+        <v>0.371094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286397</v>
+        <v>0.284835</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.45813</v>
+        <v>0.456424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.379916</v>
+        <v>0.380051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.296435</v>
+        <v>0.295563</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.460113</v>
+        <v>0.46788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.408922</v>
+        <v>0.411309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.301843</v>
+        <v>0.300029</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.487761</v>
+        <v>0.495275</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413179</v>
+        <v>0.417186</v>
       </c>
       <c r="D17" t="n">
-        <v>0.314881</v>
+        <v>0.310257</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.503824</v>
+        <v>0.506912</v>
       </c>
       <c r="C18" t="n">
-        <v>0.430609</v>
+        <v>0.430807</v>
       </c>
       <c r="D18" t="n">
-        <v>0.312751</v>
+        <v>0.309915</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533789</v>
+        <v>0.530301</v>
       </c>
       <c r="C19" t="n">
-        <v>0.451803</v>
+        <v>0.452787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.324614</v>
+        <v>0.32373</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.533488</v>
+        <v>0.533626</v>
       </c>
       <c r="C20" t="n">
-        <v>0.471536</v>
+        <v>0.479408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.334097</v>
+        <v>0.335571</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.557331</v>
+        <v>0.56756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.492641</v>
+        <v>0.496011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.346479</v>
+        <v>0.349377</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.577587</v>
+        <v>0.580971</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5157389999999999</v>
+        <v>0.520088</v>
       </c>
       <c r="D22" t="n">
-        <v>0.354155</v>
+        <v>0.358561</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.614367</v>
+        <v>0.61742</v>
       </c>
       <c r="C23" t="n">
-        <v>0.542201</v>
+        <v>0.545634</v>
       </c>
       <c r="D23" t="n">
-        <v>0.370617</v>
+        <v>0.374263</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.63143</v>
+        <v>0.637375</v>
       </c>
       <c r="C24" t="n">
-        <v>0.561366</v>
+        <v>0.566957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.381713</v>
+        <v>0.38631</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.656521</v>
+        <v>0.661225</v>
       </c>
       <c r="C25" t="n">
-        <v>0.593149</v>
+        <v>0.596683</v>
       </c>
       <c r="D25" t="n">
-        <v>0.395173</v>
+        <v>0.399414</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.686999</v>
+        <v>0.691441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.379055</v>
+        <v>0.385917</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288675</v>
+        <v>0.289874</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.505562</v>
+        <v>0.509314</v>
       </c>
       <c r="C27" t="n">
-        <v>0.389732</v>
+        <v>0.389689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289764</v>
+        <v>0.293386</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5161210000000001</v>
+        <v>0.5248660000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.400341</v>
+        <v>0.405991</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29499</v>
+        <v>0.3011</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.536554</v>
+        <v>0.544619</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410001</v>
+        <v>0.413509</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300823</v>
+        <v>0.308251</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.560537</v>
+        <v>0.567657</v>
       </c>
       <c r="C30" t="n">
-        <v>0.430724</v>
+        <v>0.434723</v>
       </c>
       <c r="D30" t="n">
-        <v>0.311849</v>
+        <v>0.317323</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.583024</v>
+        <v>0.587986</v>
       </c>
       <c r="C31" t="n">
-        <v>0.443586</v>
+        <v>0.447279</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321761</v>
+        <v>0.327161</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.60063</v>
+        <v>0.608336</v>
       </c>
       <c r="C32" t="n">
-        <v>0.464652</v>
+        <v>0.46621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.333216</v>
+        <v>0.336011</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.615065</v>
+        <v>0.621789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.483704</v>
+        <v>0.486578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343165</v>
+        <v>0.347931</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.645082</v>
+        <v>0.649284</v>
       </c>
       <c r="C34" t="n">
-        <v>0.503709</v>
+        <v>0.501072</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351734</v>
+        <v>0.357305</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.666287</v>
+        <v>0.6733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.527268</v>
+        <v>0.529367</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3707</v>
+        <v>0.372003</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.686887</v>
+        <v>0.689623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550639</v>
+        <v>0.551307</v>
       </c>
       <c r="D36" t="n">
-        <v>0.379727</v>
+        <v>0.386622</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.714998</v>
+        <v>0.7212150000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.575065</v>
+        <v>0.5766520000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390537</v>
+        <v>0.397229</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.740893</v>
+        <v>0.744426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.600258</v>
+        <v>0.604092</v>
       </c>
       <c r="D38" t="n">
-        <v>0.410382</v>
+        <v>0.410968</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.778886</v>
+        <v>0.778336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.621687</v>
+        <v>0.624416</v>
       </c>
       <c r="D39" t="n">
-        <v>0.42389</v>
+        <v>0.424182</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.799069</v>
+        <v>0.802711</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453507</v>
+        <v>0.45254</v>
       </c>
       <c r="D40" t="n">
-        <v>0.352234</v>
+        <v>0.352735</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.581727</v>
+        <v>0.582387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46748</v>
+        <v>0.467093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361763</v>
+        <v>0.361124</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.600174</v>
+        <v>0.599801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.483617</v>
+        <v>0.483914</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369458</v>
+        <v>0.371457</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.617851</v>
+        <v>0.618249</v>
       </c>
       <c r="C43" t="n">
-        <v>0.498604</v>
+        <v>0.497755</v>
       </c>
       <c r="D43" t="n">
-        <v>0.37818</v>
+        <v>0.378138</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.631512</v>
+        <v>0.632493</v>
       </c>
       <c r="C44" t="n">
-        <v>0.520296</v>
+        <v>0.520354</v>
       </c>
       <c r="D44" t="n">
-        <v>0.388296</v>
+        <v>0.390352</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.65351</v>
+        <v>0.652571</v>
       </c>
       <c r="C45" t="n">
-        <v>0.533351</v>
+        <v>0.531791</v>
       </c>
       <c r="D45" t="n">
-        <v>0.392483</v>
+        <v>0.395362</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.666055</v>
+        <v>0.6654</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5528650000000001</v>
+        <v>0.552525</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40932</v>
+        <v>0.40736</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.685874</v>
+        <v>0.684308</v>
       </c>
       <c r="C47" t="n">
-        <v>0.570138</v>
+        <v>0.569446</v>
       </c>
       <c r="D47" t="n">
-        <v>0.417186</v>
+        <v>0.417861</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.70248</v>
+        <v>0.7007060000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.587298</v>
+        <v>0.589522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430138</v>
+        <v>0.428021</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.723601</v>
+        <v>0.722939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.609971</v>
+        <v>0.608388</v>
       </c>
       <c r="D49" t="n">
-        <v>0.436866</v>
+        <v>0.436248</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744913</v>
+        <v>0.74486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.628918</v>
+        <v>0.62787</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4467</v>
+        <v>0.448639</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.766144</v>
+        <v>0.764844</v>
       </c>
       <c r="C51" t="n">
-        <v>0.653015</v>
+        <v>0.6513949999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.463981</v>
+        <v>0.463792</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.789726</v>
+        <v>0.789819</v>
       </c>
       <c r="C52" t="n">
-        <v>0.677512</v>
+        <v>0.676627</v>
       </c>
       <c r="D52" t="n">
-        <v>0.478194</v>
+        <v>0.477409</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.81152</v>
+        <v>0.809468</v>
       </c>
       <c r="C53" t="n">
-        <v>0.701457</v>
+        <v>0.699619</v>
       </c>
       <c r="D53" t="n">
-        <v>0.494389</v>
+        <v>0.493165</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.835153</v>
+        <v>0.832597</v>
       </c>
       <c r="C54" t="n">
-        <v>0.512993</v>
+        <v>0.513626</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395978</v>
+        <v>0.396329</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.623031</v>
+        <v>0.622472</v>
       </c>
       <c r="C55" t="n">
-        <v>0.523705</v>
+        <v>0.523728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405084</v>
+        <v>0.405354</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.63859</v>
+        <v>0.6383720000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.53948</v>
+        <v>0.539718</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413201</v>
+        <v>0.413232</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.652574</v>
+        <v>0.657047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.552584</v>
+        <v>0.552306</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419776</v>
+        <v>0.419245</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668778</v>
+        <v>0.668554</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5674940000000001</v>
+        <v>0.567192</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428741</v>
+        <v>0.428042</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.686607</v>
+        <v>0.686851</v>
       </c>
       <c r="C59" t="n">
-        <v>0.584384</v>
+        <v>0.5842580000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43917</v>
+        <v>0.437678</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.701367</v>
+        <v>0.701024</v>
       </c>
       <c r="C60" t="n">
-        <v>0.600535</v>
+        <v>0.600653</v>
       </c>
       <c r="D60" t="n">
-        <v>0.44661</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.719437</v>
+        <v>0.719556</v>
       </c>
       <c r="C61" t="n">
-        <v>0.616295</v>
+        <v>0.616711</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454756</v>
+        <v>0.455214</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737779</v>
+        <v>0.73846</v>
       </c>
       <c r="C62" t="n">
-        <v>0.632486</v>
+        <v>0.63267</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462752</v>
+        <v>0.462217</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7592</v>
+        <v>0.759634</v>
       </c>
       <c r="C63" t="n">
-        <v>0.654544</v>
+        <v>0.654861</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476789</v>
+        <v>0.476023</v>
       </c>
     </row>
     <row r="64">
@@ -11932,10 +11932,10 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769473</v>
+        <v>0.7702059999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.669647</v>
+        <v>0.670312</v>
       </c>
       <c r="D64" t="n">
         <v>0.486444</v>
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7955989999999999</v>
+        <v>0.796903</v>
       </c>
       <c r="C65" t="n">
-        <v>0.69672</v>
+        <v>0.697161</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498226</v>
+        <v>0.497857</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.817916</v>
+        <v>0.818263</v>
       </c>
       <c r="C66" t="n">
-        <v>0.716353</v>
+        <v>0.715163</v>
       </c>
       <c r="D66" t="n">
-        <v>0.510888</v>
+        <v>0.509646</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.84787</v>
+        <v>0.850486</v>
       </c>
       <c r="C67" t="n">
-        <v>0.739687</v>
+        <v>0.741736</v>
       </c>
       <c r="D67" t="n">
-        <v>0.526</v>
+        <v>0.525572</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.875479</v>
+        <v>0.873339</v>
       </c>
       <c r="C68" t="n">
-        <v>0.510957</v>
+        <v>0.512066</v>
       </c>
       <c r="D68" t="n">
-        <v>0.407287</v>
+        <v>0.408259</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.659967</v>
+        <v>0.664092</v>
       </c>
       <c r="C69" t="n">
-        <v>0.524644</v>
+        <v>0.527421</v>
       </c>
       <c r="D69" t="n">
-        <v>0.412789</v>
+        <v>0.41316</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.680418</v>
+        <v>0.684809</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5468499999999999</v>
+        <v>0.549613</v>
       </c>
       <c r="D70" t="n">
-        <v>0.42381</v>
+        <v>0.424811</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.71157</v>
+        <v>0.71571</v>
       </c>
       <c r="C71" t="n">
-        <v>0.567119</v>
+        <v>0.569609</v>
       </c>
       <c r="D71" t="n">
-        <v>0.434641</v>
+        <v>0.43543</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.733285</v>
+        <v>0.73904</v>
       </c>
       <c r="C72" t="n">
-        <v>0.587079</v>
+        <v>0.59507</v>
       </c>
       <c r="D72" t="n">
-        <v>0.445363</v>
+        <v>0.445422</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7629</v>
+        <v>0.770929</v>
       </c>
       <c r="C73" t="n">
-        <v>0.613693</v>
+        <v>0.618533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.457364</v>
+        <v>0.457953</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.782228</v>
+        <v>0.794413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634109</v>
+        <v>0.639861</v>
       </c>
       <c r="D74" t="n">
-        <v>0.46693</v>
+        <v>0.466914</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.815057</v>
+        <v>0.828943</v>
       </c>
       <c r="C75" t="n">
-        <v>0.662618</v>
+        <v>0.6698730000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.481143</v>
+        <v>0.482381</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.851164</v>
+        <v>0.87277</v>
       </c>
       <c r="C76" t="n">
-        <v>0.691106</v>
+        <v>0.703659</v>
       </c>
       <c r="D76" t="n">
-        <v>0.494008</v>
+        <v>0.494412</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.896279</v>
+        <v>0.916637</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7266359999999999</v>
+        <v>0.738574</v>
       </c>
       <c r="D77" t="n">
-        <v>0.512122</v>
+        <v>0.5135150000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9407799999999999</v>
+        <v>0.97278</v>
       </c>
       <c r="C78" t="n">
-        <v>0.761059</v>
+        <v>0.775231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.521994</v>
+        <v>0.527498</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.999001</v>
+        <v>1.03193</v>
       </c>
       <c r="C79" t="n">
-        <v>0.798915</v>
+        <v>0.815005</v>
       </c>
       <c r="D79" t="n">
-        <v>0.540469</v>
+        <v>0.541815</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06207</v>
+        <v>1.1066</v>
       </c>
       <c r="C80" t="n">
-        <v>0.84726</v>
+        <v>0.871401</v>
       </c>
       <c r="D80" t="n">
-        <v>0.56362</v>
+        <v>0.566487</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12857</v>
+        <v>1.18046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.904146</v>
+        <v>0.932341</v>
       </c>
       <c r="D81" t="n">
-        <v>0.583869</v>
+        <v>0.588372</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.21688</v>
+        <v>1.26954</v>
       </c>
       <c r="C82" t="n">
-        <v>0.965805</v>
+        <v>0.993561</v>
       </c>
       <c r="D82" t="n">
-        <v>0.611877</v>
+        <v>0.6147590000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.33124</v>
+        <v>1.37681</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7190839999999999</v>
+        <v>0.7271609999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.482631</v>
+        <v>0.481093</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05138</v>
+        <v>1.06873</v>
       </c>
       <c r="C84" t="n">
-        <v>0.769387</v>
+        <v>0.780089</v>
       </c>
       <c r="D84" t="n">
-        <v>0.499743</v>
+        <v>0.495915</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12794</v>
+        <v>1.14735</v>
       </c>
       <c r="C85" t="n">
-        <v>0.819254</v>
+        <v>0.83329</v>
       </c>
       <c r="D85" t="n">
-        <v>0.520078</v>
+        <v>0.527546</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.20675</v>
+        <v>1.22505</v>
       </c>
       <c r="C86" t="n">
-        <v>0.883838</v>
+        <v>0.89259</v>
       </c>
       <c r="D86" t="n">
-        <v>0.542349</v>
+        <v>0.545737</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.29825</v>
+        <v>1.31528</v>
       </c>
       <c r="C87" t="n">
-        <v>0.953061</v>
+        <v>0.962417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.566271</v>
+        <v>0.566659</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.40181</v>
+        <v>1.41813</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04516</v>
+        <v>1.05516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.598234</v>
+        <v>0.603974</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.52485</v>
+        <v>1.53316</v>
       </c>
       <c r="C89" t="n">
-        <v>1.12893</v>
+        <v>1.13423</v>
       </c>
       <c r="D89" t="n">
-        <v>0.633261</v>
+        <v>0.636143</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.65671</v>
+        <v>1.64368</v>
       </c>
       <c r="C90" t="n">
-        <v>1.22546</v>
+        <v>1.22737</v>
       </c>
       <c r="D90" t="n">
-        <v>0.674807</v>
+        <v>0.678217</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79438</v>
+        <v>1.77984</v>
       </c>
       <c r="C91" t="n">
-        <v>1.33589</v>
+        <v>1.33371</v>
       </c>
       <c r="D91" t="n">
-        <v>0.723449</v>
+        <v>0.72849</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.93982</v>
+        <v>1.925</v>
       </c>
       <c r="C92" t="n">
-        <v>1.44369</v>
+        <v>1.44259</v>
       </c>
       <c r="D92" t="n">
-        <v>0.778902</v>
+        <v>0.778664</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.07689</v>
+        <v>2.06366</v>
       </c>
       <c r="C93" t="n">
-        <v>1.56286</v>
+        <v>1.5552</v>
       </c>
       <c r="D93" t="n">
-        <v>0.831909</v>
+        <v>0.834939</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.23747</v>
+        <v>2.21917</v>
       </c>
       <c r="C94" t="n">
-        <v>1.68835</v>
+        <v>1.67818</v>
       </c>
       <c r="D94" t="n">
-        <v>0.885028</v>
+        <v>0.898528</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40377</v>
+        <v>2.38051</v>
       </c>
       <c r="C95" t="n">
-        <v>1.82213</v>
+        <v>1.81019</v>
       </c>
       <c r="D95" t="n">
-        <v>0.961587</v>
+        <v>0.962881</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57015</v>
+        <v>2.54777</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97268</v>
+        <v>1.95612</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04972</v>
+        <v>1.05046</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7419</v>
+        <v>2.72173</v>
       </c>
       <c r="C97" t="n">
-        <v>1.31304</v>
+        <v>1.30617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.793672</v>
+        <v>0.784255</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0498</v>
+        <v>2.03158</v>
       </c>
       <c r="C98" t="n">
-        <v>1.39136</v>
+        <v>1.38646</v>
       </c>
       <c r="D98" t="n">
-        <v>0.841533</v>
+        <v>0.8281500000000001</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.15189</v>
+        <v>2.12964</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47842</v>
+        <v>1.47223</v>
       </c>
       <c r="D99" t="n">
-        <v>0.891097</v>
+        <v>0.883901</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.26406</v>
+        <v>2.24362</v>
       </c>
       <c r="C100" t="n">
-        <v>1.57349</v>
+        <v>1.56364</v>
       </c>
       <c r="D100" t="n">
-        <v>0.945219</v>
+        <v>0.940899</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.38802</v>
+        <v>2.36579</v>
       </c>
       <c r="C101" t="n">
-        <v>1.66889</v>
+        <v>1.65731</v>
       </c>
       <c r="D101" t="n">
-        <v>0.991671</v>
+        <v>0.986891</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.52034</v>
+        <v>2.50146</v>
       </c>
       <c r="C102" t="n">
-        <v>1.76815</v>
+        <v>1.75588</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05977</v>
+        <v>1.05069</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64134</v>
+        <v>2.61274</v>
       </c>
       <c r="C103" t="n">
-        <v>1.86973</v>
+        <v>1.85489</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11301</v>
+        <v>1.10378</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.77394</v>
+        <v>2.75565</v>
       </c>
       <c r="C104" t="n">
-        <v>1.9813</v>
+        <v>1.96792</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18088</v>
+        <v>1.17208</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.89983</v>
+        <v>2.87809</v>
       </c>
       <c r="C105" t="n">
-        <v>2.09247</v>
+        <v>2.07781</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23152</v>
+        <v>1.22213</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.05963</v>
+        <v>3.02797</v>
       </c>
       <c r="C106" t="n">
-        <v>2.20538</v>
+        <v>2.18979</v>
       </c>
       <c r="D106" t="n">
-        <v>1.30995</v>
+        <v>1.29799</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.19864</v>
+        <v>3.16549</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3195</v>
+        <v>2.30198</v>
       </c>
       <c r="D107" t="n">
-        <v>1.39065</v>
+        <v>1.37287</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.35486</v>
+        <v>3.33422</v>
       </c>
       <c r="C108" t="n">
-        <v>2.45582</v>
+        <v>2.43827</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47185</v>
+        <v>1.45612</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.53007</v>
+        <v>3.49792</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59324</v>
+        <v>2.57611</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52607</v>
+        <v>1.51047</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.69121</v>
+        <v>3.66684</v>
       </c>
       <c r="C110" t="n">
-        <v>2.72222</v>
+        <v>2.70372</v>
       </c>
       <c r="D110" t="n">
-        <v>1.60272</v>
+        <v>1.59485</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.86899</v>
+        <v>3.84228</v>
       </c>
       <c r="C111" t="n">
-        <v>1.918</v>
+        <v>1.90556</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29861</v>
+        <v>1.29398</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.81744</v>
+        <v>2.79697</v>
       </c>
       <c r="C112" t="n">
-        <v>2.00464</v>
+        <v>1.99226</v>
       </c>
       <c r="D112" t="n">
-        <v>1.33918</v>
+        <v>1.33559</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88514</v>
+        <v>2.8902</v>
       </c>
       <c r="C113" t="n">
-        <v>2.09329</v>
+        <v>2.08212</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3924</v>
+        <v>1.38497</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.00019</v>
+        <v>2.98506</v>
       </c>
       <c r="C114" t="n">
-        <v>2.1766</v>
+        <v>2.16691</v>
       </c>
       <c r="D114" t="n">
-        <v>1.43161</v>
+        <v>1.43331</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.13573</v>
+        <v>3.10793</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26679</v>
+        <v>2.25632</v>
       </c>
       <c r="D115" t="n">
-        <v>1.48909</v>
+        <v>1.48918</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.24642</v>
+        <v>3.22719</v>
       </c>
       <c r="C116" t="n">
-        <v>2.36557</v>
+        <v>2.35194</v>
       </c>
       <c r="D116" t="n">
-        <v>1.54075</v>
+        <v>1.53672</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.35894</v>
+        <v>3.34347</v>
       </c>
       <c r="C117" t="n">
-        <v>2.46608</v>
+        <v>2.45219</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61706</v>
+        <v>1.6079</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48865</v>
+        <v>3.46117</v>
       </c>
       <c r="C118" t="n">
-        <v>2.57987</v>
+        <v>2.56368</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68588</v>
+        <v>1.67456</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.60792</v>
+        <v>3.59332</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68381</v>
+        <v>2.66944</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7384</v>
+        <v>1.72902</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291125</v>
+        <v>0.300302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232654</v>
+        <v>0.235616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242312</v>
+        <v>0.246555</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29615</v>
+        <v>0.30599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236081</v>
+        <v>0.240709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246395</v>
+        <v>0.250871</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2993</v>
+        <v>0.310882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242521</v>
+        <v>0.247891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251151</v>
+        <v>0.255785</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.307088</v>
+        <v>0.319132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249627</v>
+        <v>0.255558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256407</v>
+        <v>0.262977</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.310911</v>
+        <v>0.324397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254839</v>
+        <v>0.261273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262524</v>
+        <v>0.267915</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317877</v>
+        <v>0.333207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214829</v>
+        <v>0.214359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229492</v>
+        <v>0.230009</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286315</v>
+        <v>0.286491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217033</v>
+        <v>0.218916</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233899</v>
+        <v>0.236578</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29216</v>
+        <v>0.296421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220931</v>
+        <v>0.222551</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237644</v>
+        <v>0.239586</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297895</v>
+        <v>0.300501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225529</v>
+        <v>0.227578</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242009</v>
+        <v>0.244838</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303401</v>
+        <v>0.30674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229288</v>
+        <v>0.233559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24552</v>
+        <v>0.251011</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310625</v>
+        <v>0.311388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234181</v>
+        <v>0.238972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250938</v>
+        <v>0.255384</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318732</v>
+        <v>0.31946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240581</v>
+        <v>0.243109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25626</v>
+        <v>0.260278</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323651</v>
+        <v>0.327001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246034</v>
+        <v>0.249964</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262363</v>
+        <v>0.267052</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330994</v>
+        <v>0.335444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252788</v>
+        <v>0.256784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267255</v>
+        <v>0.272396</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340923</v>
+        <v>0.343244</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260469</v>
+        <v>0.263897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274758</v>
+        <v>0.281212</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347889</v>
+        <v>0.350408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267149</v>
+        <v>0.270342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28117</v>
+        <v>0.286049</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354632</v>
+        <v>0.355676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273078</v>
+        <v>0.275844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28678</v>
+        <v>0.291953</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.362079</v>
+        <v>0.364712</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278984</v>
+        <v>0.282287</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293021</v>
+        <v>0.299613</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.368357</v>
+        <v>0.372059</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28543</v>
+        <v>0.288812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.298607</v>
+        <v>0.303755</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376329</v>
+        <v>0.378341</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238662</v>
+        <v>0.237941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256029</v>
+        <v>0.256332</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330895</v>
+        <v>0.330387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244473</v>
+        <v>0.243409</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26191</v>
+        <v>0.261278</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335305</v>
+        <v>0.334756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248148</v>
+        <v>0.248602</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266519</v>
+        <v>0.266779</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339863</v>
+        <v>0.336312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254595</v>
+        <v>0.254438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27342</v>
+        <v>0.272257</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345099</v>
+        <v>0.344667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25851</v>
+        <v>0.258194</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276896</v>
+        <v>0.277381</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350554</v>
+        <v>0.35066</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26397</v>
+        <v>0.263762</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281709</v>
+        <v>0.282335</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356483</v>
+        <v>0.356411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269757</v>
+        <v>0.270466</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288507</v>
+        <v>0.288962</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361252</v>
+        <v>0.361423</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277939</v>
+        <v>0.277187</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295123</v>
+        <v>0.295034</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367651</v>
+        <v>0.36766</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28408</v>
+        <v>0.283475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302103</v>
+        <v>0.301774</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.37387</v>
+        <v>0.374037</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290528</v>
+        <v>0.28984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306454</v>
+        <v>0.308246</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380331</v>
+        <v>0.38048</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29698</v>
+        <v>0.297649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31352</v>
+        <v>0.314189</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38587</v>
+        <v>0.386167</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301856</v>
+        <v>0.30224</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319836</v>
+        <v>0.319138</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391212</v>
+        <v>0.391292</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308421</v>
+        <v>0.308849</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325341</v>
+        <v>0.326728</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398306</v>
+        <v>0.398918</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314777</v>
+        <v>0.315617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33142</v>
+        <v>0.332779</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405227</v>
+        <v>0.405927</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251923</v>
+        <v>0.252443</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27126</v>
+        <v>0.271372</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349627</v>
+        <v>0.350674</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256024</v>
+        <v>0.256073</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275045</v>
+        <v>0.276985</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353471</v>
+        <v>0.353606</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260942</v>
+        <v>0.260973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279385</v>
+        <v>0.281195</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357749</v>
+        <v>0.358032</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267073</v>
+        <v>0.266983</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285118</v>
+        <v>0.287157</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362276</v>
+        <v>0.362997</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271752</v>
+        <v>0.27207</v>
       </c>
       <c r="D39" t="n">
-        <v>0.292007</v>
+        <v>0.291283</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366962</v>
+        <v>0.367324</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277768</v>
+        <v>0.277934</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29653</v>
+        <v>0.297044</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371621</v>
+        <v>0.372403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28329</v>
+        <v>0.283865</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302412</v>
+        <v>0.303469</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378387</v>
+        <v>0.378697</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288961</v>
+        <v>0.289315</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308161</v>
+        <v>0.309014</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383789</v>
+        <v>0.384423</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295976</v>
+        <v>0.295151</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3145</v>
+        <v>0.316135</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3898</v>
+        <v>0.39029</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301397</v>
+        <v>0.302155</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320949</v>
+        <v>0.32226</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395958</v>
+        <v>0.395927</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30787</v>
+        <v>0.307967</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327012</v>
+        <v>0.328574</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402384</v>
+        <v>0.404015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313442</v>
+        <v>0.314103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333195</v>
+        <v>0.334535</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408571</v>
+        <v>0.408874</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320131</v>
+        <v>0.320959</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339709</v>
+        <v>0.340058</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414619</v>
+        <v>0.414364</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325702</v>
+        <v>0.32645</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345167</v>
+        <v>0.345343</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419791</v>
+        <v>0.420256</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330742</v>
+        <v>0.331536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349548</v>
+        <v>0.350904</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.427015</v>
+        <v>0.426243</v>
       </c>
       <c r="C50" t="n">
-        <v>0.263921</v>
+        <v>0.264198</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276731</v>
+        <v>0.276665</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362991</v>
+        <v>0.362566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268879</v>
+        <v>0.268925</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281414</v>
+        <v>0.281423</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367021</v>
+        <v>0.367327</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273523</v>
+        <v>0.273458</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285972</v>
+        <v>0.285776</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371644</v>
+        <v>0.371249</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278926</v>
+        <v>0.279097</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291121</v>
+        <v>0.291396</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376105</v>
+        <v>0.376032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285617</v>
+        <v>0.284658</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296712</v>
+        <v>0.296726</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.379365</v>
+        <v>0.380181</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292</v>
+        <v>0.290346</v>
       </c>
       <c r="D55" t="n">
-        <v>0.303374</v>
+        <v>0.302313</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385997</v>
+        <v>0.385954</v>
       </c>
       <c r="C56" t="n">
-        <v>0.297807</v>
+        <v>0.296911</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30846</v>
+        <v>0.307853</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.39192</v>
+        <v>0.391604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302173</v>
+        <v>0.302063</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314224</v>
+        <v>0.313834</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3982</v>
+        <v>0.397866</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308317</v>
+        <v>0.308413</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320524</v>
+        <v>0.319935</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403744</v>
+        <v>0.403647</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314377</v>
+        <v>0.314376</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326274</v>
+        <v>0.327059</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409951</v>
+        <v>0.409844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32182</v>
+        <v>0.320634</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332368</v>
+        <v>0.332595</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41571</v>
+        <v>0.416072</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326719</v>
+        <v>0.327008</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338349</v>
+        <v>0.338632</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.422443</v>
+        <v>0.421628</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333392</v>
+        <v>0.333009</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344519</v>
+        <v>0.344335</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428407</v>
+        <v>0.42786</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33829</v>
+        <v>0.338304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350361</v>
+        <v>0.350197</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434422</v>
+        <v>0.434622</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274691</v>
+        <v>0.276178</v>
       </c>
       <c r="D64" t="n">
-        <v>0.28893</v>
+        <v>0.289726</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.396513</v>
+        <v>0.393779</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28035</v>
+        <v>0.280644</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300264</v>
+        <v>0.299042</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.401195</v>
+        <v>0.406981</v>
       </c>
       <c r="C66" t="n">
-        <v>0.286972</v>
+        <v>0.287279</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302122</v>
+        <v>0.303139</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409319</v>
+        <v>0.418219</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293829</v>
+        <v>0.294389</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307131</v>
+        <v>0.308144</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.419126</v>
+        <v>0.425961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30071</v>
+        <v>0.303851</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314522</v>
+        <v>0.315479</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43387</v>
+        <v>0.442637</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307926</v>
+        <v>0.31325</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32401</v>
+        <v>0.325041</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.444827</v>
+        <v>0.448214</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316114</v>
+        <v>0.320689</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32722</v>
+        <v>0.33408</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.448629</v>
+        <v>0.468277</v>
       </c>
       <c r="C71" t="n">
-        <v>0.322074</v>
+        <v>0.330379</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335957</v>
+        <v>0.344145</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.464174</v>
+        <v>0.488349</v>
       </c>
       <c r="C72" t="n">
-        <v>0.331171</v>
+        <v>0.341821</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345719</v>
+        <v>0.354499</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.477577</v>
+        <v>0.506332</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340385</v>
+        <v>0.350008</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35506</v>
+        <v>0.363113</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500923</v>
+        <v>0.525438</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353513</v>
+        <v>0.365916</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365946</v>
+        <v>0.376145</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.523135</v>
+        <v>0.550447</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367698</v>
+        <v>0.378171</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380813</v>
+        <v>0.390544</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5460199999999999</v>
+        <v>0.57711</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380793</v>
+        <v>0.394271</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393659</v>
+        <v>0.403606</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57587</v>
+        <v>0.60202</v>
       </c>
       <c r="C77" t="n">
-        <v>0.397434</v>
+        <v>0.406998</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411461</v>
+        <v>0.420833</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.598691</v>
+        <v>0.624968</v>
       </c>
       <c r="C78" t="n">
-        <v>0.343119</v>
+        <v>0.386218</v>
       </c>
       <c r="D78" t="n">
-        <v>0.364283</v>
+        <v>0.399991</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.693174</v>
+        <v>0.756362</v>
       </c>
       <c r="C79" t="n">
-        <v>0.365835</v>
+        <v>0.395577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.376984</v>
+        <v>0.410198</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7089259999999999</v>
+        <v>0.782742</v>
       </c>
       <c r="C80" t="n">
-        <v>0.379357</v>
+        <v>0.415977</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388836</v>
+        <v>0.423493</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.728019</v>
+        <v>0.805806</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396859</v>
+        <v>0.432851</v>
       </c>
       <c r="D81" t="n">
-        <v>0.40373</v>
+        <v>0.439968</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.756267</v>
+        <v>0.828202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423699</v>
+        <v>0.44868</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430296</v>
+        <v>0.45554</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.777072</v>
+        <v>0.854792</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436662</v>
+        <v>0.4708</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441856</v>
+        <v>0.474172</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.812692</v>
+        <v>0.886549</v>
       </c>
       <c r="C84" t="n">
-        <v>0.453523</v>
+        <v>0.491901</v>
       </c>
       <c r="D84" t="n">
-        <v>0.462587</v>
+        <v>0.503042</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.831307</v>
+        <v>0.914665</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478716</v>
+        <v>0.515946</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4851</v>
+        <v>0.528104</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.855309</v>
+        <v>0.943621</v>
       </c>
       <c r="C86" t="n">
-        <v>0.497772</v>
+        <v>0.539965</v>
       </c>
       <c r="D86" t="n">
-        <v>0.505111</v>
+        <v>0.551837</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.880533</v>
+        <v>0.971966</v>
       </c>
       <c r="C87" t="n">
-        <v>0.515308</v>
+        <v>0.563408</v>
       </c>
       <c r="D87" t="n">
-        <v>0.519642</v>
+        <v>0.572256</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.907973</v>
+        <v>1.00115</v>
       </c>
       <c r="C88" t="n">
-        <v>0.53838</v>
+        <v>0.58706</v>
       </c>
       <c r="D88" t="n">
-        <v>0.542299</v>
+        <v>0.5956129999999999</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.935015</v>
+        <v>1.03203</v>
       </c>
       <c r="C89" t="n">
-        <v>0.561578</v>
+        <v>0.610475</v>
       </c>
       <c r="D89" t="n">
-        <v>0.566423</v>
+        <v>0.618736</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.966236</v>
+        <v>1.06399</v>
       </c>
       <c r="C90" t="n">
-        <v>0.584759</v>
+        <v>0.636211</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589427</v>
+        <v>0.644259</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.99348</v>
+        <v>1.09686</v>
       </c>
       <c r="C91" t="n">
-        <v>0.608139</v>
+        <v>0.662637</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6125620000000001</v>
+        <v>0.670405</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02478</v>
+        <v>1.13195</v>
       </c>
       <c r="C92" t="n">
-        <v>0.621193</v>
+        <v>0.68895</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630569</v>
+        <v>0.696346</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14508</v>
+        <v>1.27145</v>
       </c>
       <c r="C93" t="n">
-        <v>0.644056</v>
+        <v>0.70179</v>
       </c>
       <c r="D93" t="n">
-        <v>0.643258</v>
+        <v>0.713206</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14928</v>
+        <v>1.2811</v>
       </c>
       <c r="C94" t="n">
-        <v>0.660568</v>
+        <v>0.72057</v>
       </c>
       <c r="D94" t="n">
-        <v>0.671811</v>
+        <v>0.735092</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1572</v>
+        <v>1.29268</v>
       </c>
       <c r="C95" t="n">
-        <v>0.673273</v>
+        <v>0.739645</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6818340000000001</v>
+        <v>0.74662</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1765</v>
+        <v>1.30637</v>
       </c>
       <c r="C96" t="n">
-        <v>0.694479</v>
+        <v>0.7604</v>
       </c>
       <c r="D96" t="n">
-        <v>0.703348</v>
+        <v>0.76662</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16482</v>
+        <v>1.32107</v>
       </c>
       <c r="C97" t="n">
-        <v>0.686902</v>
+        <v>0.776772</v>
       </c>
       <c r="D97" t="n">
-        <v>0.697997</v>
+        <v>0.789153</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17915</v>
+        <v>1.33829</v>
       </c>
       <c r="C98" t="n">
-        <v>0.704376</v>
+        <v>0.797566</v>
       </c>
       <c r="D98" t="n">
-        <v>0.714608</v>
+        <v>0.808404</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.19961</v>
+        <v>1.35939</v>
       </c>
       <c r="C99" t="n">
-        <v>0.724248</v>
+        <v>0.817814</v>
       </c>
       <c r="D99" t="n">
-        <v>0.735399</v>
+        <v>0.830548</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21738</v>
+        <v>1.37875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7432800000000001</v>
+        <v>0.839256</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.852074</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.23288</v>
+        <v>1.39582</v>
       </c>
       <c r="C101" t="n">
-        <v>0.762616</v>
+        <v>0.862851</v>
       </c>
       <c r="D101" t="n">
-        <v>0.78102</v>
+        <v>0.874396</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25355</v>
+        <v>1.41921</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784449</v>
+        <v>0.887721</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8104170000000001</v>
+        <v>0.897405</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27818</v>
+        <v>1.44685</v>
       </c>
       <c r="C103" t="n">
-        <v>0.803288</v>
+        <v>0.9111089999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.832368</v>
+        <v>0.922583</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.301</v>
+        <v>1.47078</v>
       </c>
       <c r="C104" t="n">
-        <v>0.825956</v>
+        <v>0.934391</v>
       </c>
       <c r="D104" t="n">
-        <v>0.854868</v>
+        <v>0.9493549999999999</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.32451</v>
+        <v>1.49829</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849629</v>
+        <v>0.960736</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880708</v>
+        <v>0.976034</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34867</v>
+        <v>1.52574</v>
       </c>
       <c r="C106" t="n">
-        <v>0.869533</v>
+        <v>0.986561</v>
       </c>
       <c r="D106" t="n">
-        <v>0.905108</v>
+        <v>1.00441</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37507</v>
+        <v>1.53</v>
       </c>
       <c r="C107" t="n">
-        <v>0.823752</v>
+        <v>0.93599</v>
       </c>
       <c r="D107" t="n">
-        <v>0.838678</v>
+        <v>0.945327</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36331</v>
+        <v>1.53707</v>
       </c>
       <c r="C108" t="n">
-        <v>0.840597</v>
+        <v>0.950977</v>
       </c>
       <c r="D108" t="n">
-        <v>0.851722</v>
+        <v>0.961902</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37438</v>
+        <v>1.54694</v>
       </c>
       <c r="C109" t="n">
-        <v>0.878628</v>
+        <v>0.968238</v>
       </c>
       <c r="D109" t="n">
-        <v>0.892142</v>
+        <v>0.982046</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3955</v>
+        <v>1.55502</v>
       </c>
       <c r="C110" t="n">
-        <v>0.894335</v>
+        <v>0.9850139999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.908563</v>
+        <v>0.999983</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40873</v>
+        <v>1.56293</v>
       </c>
       <c r="C111" t="n">
-        <v>0.910593</v>
+        <v>1.00339</v>
       </c>
       <c r="D111" t="n">
-        <v>0.923419</v>
+        <v>1.01593</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42113</v>
+        <v>1.58108</v>
       </c>
       <c r="C112" t="n">
-        <v>0.928191</v>
+        <v>1.02305</v>
       </c>
       <c r="D112" t="n">
-        <v>0.942124</v>
+        <v>1.03347</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43196</v>
+        <v>1.5911</v>
       </c>
       <c r="C113" t="n">
-        <v>0.945749</v>
+        <v>1.04049</v>
       </c>
       <c r="D113" t="n">
-        <v>0.959658</v>
+        <v>1.05393</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44808</v>
+        <v>1.61093</v>
       </c>
       <c r="C114" t="n">
-        <v>0.966916</v>
+        <v>1.06278</v>
       </c>
       <c r="D114" t="n">
-        <v>0.977813</v>
+        <v>1.0737</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.46162</v>
+        <v>1.62426</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9837089999999999</v>
+        <v>1.08333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.997051</v>
+        <v>1.09945</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48037</v>
+        <v>1.64328</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0034</v>
+        <v>1.10617</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01782</v>
+        <v>1.12513</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50118</v>
+        <v>1.66632</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02404</v>
+        <v>1.12982</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03874</v>
+        <v>1.14804</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.5217</v>
+        <v>1.69295</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04665</v>
+        <v>1.14869</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05803</v>
+        <v>1.16824</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.54001</v>
+        <v>1.70952</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06739</v>
+        <v>1.17554</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08053</v>
+        <v>1.19114</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267908</v>
+        <v>0.270469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201671</v>
+        <v>0.202687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205061</v>
+        <v>0.205875</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278627</v>
+        <v>0.279424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206244</v>
+        <v>0.208471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206636</v>
+        <v>0.208376</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280645</v>
+        <v>0.284186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207948</v>
+        <v>0.211789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208383</v>
+        <v>0.209779</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28343</v>
+        <v>0.28367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211432</v>
+        <v>0.215031</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210188</v>
+        <v>0.210482</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283652</v>
+        <v>0.283709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220627</v>
+        <v>0.219034</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213976</v>
+        <v>0.214738</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293665</v>
+        <v>0.289401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203386</v>
+        <v>0.204619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215305</v>
+        <v>0.217022</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283301</v>
+        <v>0.287307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204315</v>
+        <v>0.21398</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219085</v>
+        <v>0.221994</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287521</v>
+        <v>0.292435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209619</v>
+        <v>0.219345</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219866</v>
+        <v>0.221897</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291631</v>
+        <v>0.293539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211414</v>
+        <v>0.220715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221707</v>
+        <v>0.222917</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293768</v>
+        <v>0.303398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209292</v>
+        <v>0.218316</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218875</v>
+        <v>0.224819</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297107</v>
+        <v>0.308014</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215472</v>
+        <v>0.227356</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223035</v>
+        <v>0.226806</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312127</v>
+        <v>0.316632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214924</v>
+        <v>0.225032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224792</v>
+        <v>0.228731</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308692</v>
+        <v>0.320333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217976</v>
+        <v>0.228775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22414</v>
+        <v>0.23019</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31482</v>
+        <v>0.323325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201</v>
+        <v>0.233326</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22648</v>
+        <v>0.230838</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.320465</v>
+        <v>0.332425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22622</v>
+        <v>0.240235</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233196</v>
+        <v>0.236919</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328372</v>
+        <v>0.335515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229908</v>
+        <v>0.243013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231861</v>
+        <v>0.23731</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.328271</v>
+        <v>0.342636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234659</v>
+        <v>0.252624</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23916</v>
+        <v>0.24273</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.330822</v>
+        <v>0.350253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238323</v>
+        <v>0.256758</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237586</v>
+        <v>0.246674</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.338173</v>
+        <v>0.354363</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245252</v>
+        <v>0.2648</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24012</v>
+        <v>0.24963</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.348412</v>
+        <v>0.363213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234244</v>
+        <v>0.24962</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241508</v>
+        <v>0.249684</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.335132</v>
+        <v>0.346491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23882</v>
+        <v>0.256374</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247436</v>
+        <v>0.251704</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.350831</v>
+        <v>0.353363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241475</v>
+        <v>0.252424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244997</v>
+        <v>0.253267</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348316</v>
+        <v>0.35727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253011</v>
+        <v>0.268543</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252619</v>
+        <v>0.258912</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.353122</v>
+        <v>0.363963</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270643</v>
+        <v>0.278221</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260823</v>
+        <v>0.265441</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.365008</v>
+        <v>0.367315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271036</v>
+        <v>0.28039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25971</v>
+        <v>0.266221</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.372416</v>
+        <v>0.374752</v>
       </c>
       <c r="C27" t="n">
-        <v>0.280787</v>
+        <v>0.289815</v>
       </c>
       <c r="D27" t="n">
-        <v>0.266434</v>
+        <v>0.270888</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.377327</v>
+        <v>0.378403</v>
       </c>
       <c r="C28" t="n">
-        <v>0.284328</v>
+        <v>0.292034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270219</v>
+        <v>0.273337</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383296</v>
+        <v>0.385797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289183</v>
+        <v>0.297772</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273287</v>
+        <v>0.276514</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.389015</v>
+        <v>0.391168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303194</v>
+        <v>0.310294</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280256</v>
+        <v>0.283656</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.396071</v>
+        <v>0.398507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301102</v>
+        <v>0.3082</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28205</v>
+        <v>0.285396</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.399066</v>
+        <v>0.40048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3117</v>
+        <v>0.317537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.286808</v>
+        <v>0.288571</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40465</v>
+        <v>0.406705</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321256</v>
+        <v>0.327518</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293212</v>
+        <v>0.292561</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410132</v>
+        <v>0.409578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32977</v>
+        <v>0.331155</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296804</v>
+        <v>0.296402</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418157</v>
+        <v>0.418122</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273965</v>
+        <v>0.271505</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278201</v>
+        <v>0.278026</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402204</v>
+        <v>0.401606</v>
       </c>
       <c r="C36" t="n">
-        <v>0.279298</v>
+        <v>0.279042</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279788</v>
+        <v>0.279466</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408236</v>
+        <v>0.407439</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282708</v>
+        <v>0.284387</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283104</v>
+        <v>0.283423</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409929</v>
+        <v>0.409085</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288102</v>
+        <v>0.285735</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284803</v>
+        <v>0.286136</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.41493</v>
+        <v>0.414105</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295065</v>
+        <v>0.294372</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289731</v>
+        <v>0.291049</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418798</v>
+        <v>0.417937</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298212</v>
+        <v>0.297975</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292263</v>
+        <v>0.292666</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.42337</v>
+        <v>0.422278</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302424</v>
+        <v>0.299959</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293812</v>
+        <v>0.293998</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43001</v>
+        <v>0.428822</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303558</v>
+        <v>0.303549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296206</v>
+        <v>0.295811</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435854</v>
+        <v>0.4353</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309263</v>
+        <v>0.308948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298134</v>
+        <v>0.29773</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439818</v>
+        <v>0.439581</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313475</v>
+        <v>0.313101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.30098</v>
+        <v>0.30101</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442541</v>
+        <v>0.441744</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317029</v>
+        <v>0.317118</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304647</v>
+        <v>0.304927</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449364</v>
+        <v>0.448042</v>
       </c>
       <c r="C46" t="n">
-        <v>0.318249</v>
+        <v>0.318207</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305389</v>
+        <v>0.305152</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455635</v>
+        <v>0.455117</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324384</v>
+        <v>0.32376</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30894</v>
+        <v>0.308506</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461394</v>
+        <v>0.460496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329874</v>
+        <v>0.329711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311136</v>
+        <v>0.311406</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467227</v>
+        <v>0.466749</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33491</v>
+        <v>0.334522</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315</v>
+        <v>0.315271</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476713</v>
+        <v>0.475611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304071</v>
+        <v>0.304552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293531</v>
+        <v>0.293619</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429377</v>
+        <v>0.429238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30779</v>
+        <v>0.308098</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296029</v>
+        <v>0.295803</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430773</v>
+        <v>0.432503</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311012</v>
+        <v>0.310904</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297097</v>
+        <v>0.297644</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438684</v>
+        <v>0.437982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315689</v>
+        <v>0.315093</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300173</v>
+        <v>0.30023</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441958</v>
+        <v>0.441897</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321245</v>
+        <v>0.320651</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303536</v>
+        <v>0.303499</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445048</v>
+        <v>0.444943</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326865</v>
+        <v>0.325828</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305488</v>
+        <v>0.305469</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450602</v>
+        <v>0.450426</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326516</v>
+        <v>0.326236</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307362</v>
+        <v>0.307358</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453131</v>
+        <v>0.452577</v>
       </c>
       <c r="C57" t="n">
-        <v>0.334629</v>
+        <v>0.334539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309852</v>
+        <v>0.3097</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456971</v>
+        <v>0.456837</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342244</v>
+        <v>0.342321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31407</v>
+        <v>0.314285</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461492</v>
+        <v>0.460896</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349457</v>
+        <v>0.349206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31848</v>
+        <v>0.318465</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466724</v>
+        <v>0.466025</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354109</v>
+        <v>0.354151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320706</v>
+        <v>0.320668</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470576</v>
+        <v>0.470051</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359332</v>
+        <v>0.359214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323647</v>
+        <v>0.323209</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.479338</v>
+        <v>0.476737</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364506</v>
+        <v>0.363517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325123</v>
+        <v>0.325962</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483522</v>
+        <v>0.481839</v>
       </c>
       <c r="C63" t="n">
-        <v>0.370139</v>
+        <v>0.369029</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328683</v>
+        <v>0.329019</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489795</v>
+        <v>0.489008</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333186</v>
+        <v>0.334531</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310479</v>
+        <v>0.317858</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461028</v>
+        <v>0.463006</v>
       </c>
       <c r="C65" t="n">
-        <v>0.342647</v>
+        <v>0.342306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316291</v>
+        <v>0.315702</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467302</v>
+        <v>0.46847</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34438</v>
+        <v>0.3448</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316912</v>
+        <v>0.317428</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.47813</v>
+        <v>0.480399</v>
       </c>
       <c r="C67" t="n">
-        <v>0.351731</v>
+        <v>0.352125</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320172</v>
+        <v>0.320667</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489082</v>
+        <v>0.491851</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355797</v>
+        <v>0.355967</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325303</v>
+        <v>0.325483</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494854</v>
+        <v>0.497093</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36068</v>
+        <v>0.361624</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32742</v>
+        <v>0.32716</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507412</v>
+        <v>0.512067</v>
       </c>
       <c r="C70" t="n">
-        <v>0.367896</v>
+        <v>0.367072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330644</v>
+        <v>0.331148</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.516579</v>
+        <v>0.523123</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377757</v>
+        <v>0.378253</v>
       </c>
       <c r="D71" t="n">
-        <v>0.33467</v>
+        <v>0.335428</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.528973</v>
+        <v>0.5371860000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.383941</v>
+        <v>0.387451</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338725</v>
+        <v>0.340119</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.545814</v>
+        <v>0.558106</v>
       </c>
       <c r="C73" t="n">
-        <v>0.393435</v>
+        <v>0.397837</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344279</v>
+        <v>0.345663</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.55821</v>
+        <v>0.5710499999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.400025</v>
+        <v>0.406167</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34668</v>
+        <v>0.348142</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.572998</v>
+        <v>0.581487</v>
       </c>
       <c r="C75" t="n">
-        <v>0.406453</v>
+        <v>0.413335</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353081</v>
+        <v>0.35427</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590486</v>
+        <v>0.60362</v>
       </c>
       <c r="C76" t="n">
-        <v>0.418637</v>
+        <v>0.425615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.359934</v>
+        <v>0.362512</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.601011</v>
+        <v>0.610632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.430087</v>
+        <v>0.43891</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3642</v>
+        <v>0.367476</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.638988</v>
+        <v>0.650595</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361068</v>
+        <v>0.403189</v>
       </c>
       <c r="D78" t="n">
-        <v>0.345489</v>
+        <v>0.35354</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646015</v>
+        <v>0.699149</v>
       </c>
       <c r="C79" t="n">
-        <v>0.402183</v>
+        <v>0.414472</v>
       </c>
       <c r="D79" t="n">
-        <v>0.355608</v>
+        <v>0.362735</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.682211</v>
+        <v>0.723603</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416997</v>
+        <v>0.438998</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36413</v>
+        <v>0.372858</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.702398</v>
+        <v>0.7453880000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435547</v>
+        <v>0.452046</v>
       </c>
       <c r="D81" t="n">
-        <v>0.372204</v>
+        <v>0.381701</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.750685</v>
+        <v>0.786798</v>
       </c>
       <c r="C82" t="n">
-        <v>0.45646</v>
+        <v>0.474845</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377324</v>
+        <v>0.387694</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.810508</v>
+        <v>0.827918</v>
       </c>
       <c r="C83" t="n">
-        <v>0.484256</v>
+        <v>0.499302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.385039</v>
+        <v>0.406265</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8527400000000001</v>
+        <v>0.88893</v>
       </c>
       <c r="C84" t="n">
-        <v>0.504375</v>
+        <v>0.521783</v>
       </c>
       <c r="D84" t="n">
-        <v>0.395261</v>
+        <v>0.416613</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.88368</v>
+        <v>0.914231</v>
       </c>
       <c r="C85" t="n">
-        <v>0.530738</v>
+        <v>0.548358</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407407</v>
+        <v>0.420211</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.946977</v>
+        <v>0.974438</v>
       </c>
       <c r="C86" t="n">
-        <v>0.555094</v>
+        <v>0.57182</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422043</v>
+        <v>0.435283</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00188</v>
+        <v>1.03348</v>
       </c>
       <c r="C87" t="n">
-        <v>0.584588</v>
+        <v>0.60253</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434577</v>
+        <v>0.45231</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05134</v>
+        <v>1.08579</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611413</v>
+        <v>0.6314689999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.448678</v>
+        <v>0.46762</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.09291</v>
+        <v>1.12694</v>
       </c>
       <c r="C89" t="n">
-        <v>0.650342</v>
+        <v>0.670185</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474306</v>
+        <v>0.487917</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14795</v>
+        <v>1.18173</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6848919999999999</v>
+        <v>0.701933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.489338</v>
+        <v>0.508396</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.22314</v>
+        <v>1.25786</v>
       </c>
       <c r="C91" t="n">
-        <v>0.726362</v>
+        <v>0.7465309999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5097930000000001</v>
+        <v>0.534614</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2646</v>
+        <v>1.30375</v>
       </c>
       <c r="C92" t="n">
-        <v>0.74183</v>
+        <v>0.779137</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618129</v>
+        <v>0.6390670000000001</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31631</v>
+        <v>1.34343</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7762</v>
+        <v>0.806109</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630269</v>
+        <v>0.672972</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.35137</v>
+        <v>1.39708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.832043</v>
+        <v>0.851673</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6798380000000001</v>
+        <v>0.694577</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39424</v>
+        <v>1.43978</v>
       </c>
       <c r="C95" t="n">
-        <v>0.842533</v>
+        <v>0.884704</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6756450000000001</v>
+        <v>0.721877</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43189</v>
+        <v>1.48367</v>
       </c>
       <c r="C96" t="n">
-        <v>0.876426</v>
+        <v>0.91952</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699986</v>
+        <v>0.747267</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49065</v>
+        <v>1.53959</v>
       </c>
       <c r="C97" t="n">
-        <v>0.913018</v>
+        <v>0.95634</v>
       </c>
       <c r="D97" t="n">
-        <v>0.724712</v>
+        <v>0.772979</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56565</v>
+        <v>1.58892</v>
       </c>
       <c r="C98" t="n">
-        <v>0.954419</v>
+        <v>0.99371</v>
       </c>
       <c r="D98" t="n">
-        <v>0.781289</v>
+        <v>0.80202</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59732</v>
+        <v>1.62742</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01198</v>
+        <v>1.03342</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796943</v>
+        <v>0.829499</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63274</v>
+        <v>1.67369</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04325</v>
+        <v>1.07072</v>
       </c>
       <c r="D100" t="n">
-        <v>0.83081</v>
+        <v>0.856191</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.66716</v>
+        <v>1.70745</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07678</v>
+        <v>1.10431</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850128</v>
+        <v>0.8790750000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72465</v>
+        <v>1.76606</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11789</v>
+        <v>1.14572</v>
       </c>
       <c r="D102" t="n">
-        <v>0.880915</v>
+        <v>0.907868</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77545</v>
+        <v>1.81043</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15306</v>
+        <v>1.17958</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914274</v>
+        <v>0.932408</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.82221</v>
+        <v>1.85183</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19071</v>
+        <v>1.21536</v>
       </c>
       <c r="D104" t="n">
-        <v>0.940573</v>
+        <v>0.959959</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.85164</v>
+        <v>1.89198</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23167</v>
+        <v>1.2574</v>
       </c>
       <c r="D105" t="n">
-        <v>0.954901</v>
+        <v>0.9899289999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91237</v>
+        <v>1.95258</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27291</v>
+        <v>1.29597</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987044</v>
+        <v>1.01485</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.81501</v>
+        <v>1.8431</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17141</v>
+        <v>1.20799</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0342</v>
+        <v>1.06156</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.84842</v>
+        <v>1.86183</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21932</v>
+        <v>1.23369</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06313</v>
+        <v>1.08101</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88019</v>
+        <v>1.90638</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24825</v>
+        <v>1.26446</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0835</v>
+        <v>1.09723</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91872</v>
+        <v>1.94198</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27673</v>
+        <v>1.29419</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1013</v>
+        <v>1.11473</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.94897</v>
+        <v>1.96902</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30232</v>
+        <v>1.31665</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12228</v>
+        <v>1.13455</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.96392</v>
+        <v>2.00991</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33167</v>
+        <v>1.3509</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14896</v>
+        <v>1.15543</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.01688</v>
+        <v>2.04311</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36459</v>
+        <v>1.3843</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16551</v>
+        <v>1.17605</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05169</v>
+        <v>2.07766</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39243</v>
+        <v>1.41333</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18537</v>
+        <v>1.19679</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.08037</v>
+        <v>2.10328</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42728</v>
+        <v>1.44819</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21043</v>
+        <v>1.21944</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.11915</v>
+        <v>2.14485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45874</v>
+        <v>1.4803</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23003</v>
+        <v>1.24224</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15059</v>
+        <v>2.17599</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48825</v>
+        <v>1.51042</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24826</v>
+        <v>1.25796</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.18178</v>
+        <v>2.20076</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52861</v>
+        <v>1.54989</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27208</v>
+        <v>1.27854</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.22854</v>
+        <v>2.24286</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56465</v>
+        <v>1.58515</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30375</v>
+        <v>1.30772</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427151</v>
+        <v>0.437829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.313374</v>
+        <v>0.325545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.271777</v>
+        <v>0.274129</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436714</v>
+        <v>0.444437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316024</v>
+        <v>0.324185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.274111</v>
+        <v>0.276947</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.452092</v>
+        <v>0.468508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33356</v>
+        <v>0.344276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28388</v>
+        <v>0.286797</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459879</v>
+        <v>0.465549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.342644</v>
+        <v>0.349076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.287326</v>
+        <v>0.289788</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46715</v>
+        <v>0.477894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353476</v>
+        <v>0.357249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292118</v>
+        <v>0.293626</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.490831</v>
+        <v>0.493359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37005</v>
+        <v>0.376337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30048</v>
+        <v>0.300634</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.497013</v>
+        <v>0.5021949999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389749</v>
+        <v>0.387928</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309041</v>
+        <v>0.308553</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52154</v>
+        <v>0.51838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.40478</v>
+        <v>0.403796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321556</v>
+        <v>0.319785</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.540248</v>
+        <v>0.526096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427348</v>
+        <v>0.419355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.332979</v>
+        <v>0.331704</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555984</v>
+        <v>0.547207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322866</v>
+        <v>0.321588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271987</v>
+        <v>0.270715</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398121</v>
+        <v>0.398823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.324495</v>
+        <v>0.328659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271104</v>
+        <v>0.273496</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.415161</v>
+        <v>0.424215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336383</v>
+        <v>0.342213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28231</v>
+        <v>0.282662</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.418932</v>
+        <v>0.422747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.350666</v>
+        <v>0.357363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282707</v>
+        <v>0.283612</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441251</v>
+        <v>0.448735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.364862</v>
+        <v>0.374242</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29181</v>
+        <v>0.290026</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445553</v>
+        <v>0.450949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.379369</v>
+        <v>0.389435</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298529</v>
+        <v>0.298468</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466039</v>
+        <v>0.476404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393057</v>
+        <v>0.401592</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307363</v>
+        <v>0.307258</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485456</v>
+        <v>0.49101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407175</v>
+        <v>0.418804</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305911</v>
+        <v>0.309143</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.512622</v>
+        <v>0.522331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422567</v>
+        <v>0.431864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320027</v>
+        <v>0.322188</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.521995</v>
+        <v>0.527478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.443859</v>
+        <v>0.458183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.329792</v>
+        <v>0.331489</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.542362</v>
+        <v>0.550583</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463775</v>
+        <v>0.480028</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341704</v>
+        <v>0.341507</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.561452</v>
+        <v>0.568831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.487771</v>
+        <v>0.500737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.347606</v>
+        <v>0.35119</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.598147</v>
+        <v>0.605113</v>
       </c>
       <c r="C23" t="n">
-        <v>0.515669</v>
+        <v>0.528847</v>
       </c>
       <c r="D23" t="n">
-        <v>0.365275</v>
+        <v>0.371349</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618317</v>
+        <v>0.625934</v>
       </c>
       <c r="C24" t="n">
-        <v>0.536233</v>
+        <v>0.5472900000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.376139</v>
+        <v>0.378466</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64359</v>
+        <v>0.651051</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5618030000000001</v>
+        <v>0.574045</v>
       </c>
       <c r="D25" t="n">
-        <v>0.390161</v>
+        <v>0.394892</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6782319999999999</v>
+        <v>0.682917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.354741</v>
+        <v>0.374609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277165</v>
+        <v>0.282973</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.487805</v>
+        <v>0.5021600000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.380251</v>
+        <v>0.386319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284367</v>
+        <v>0.290004</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.508835</v>
+        <v>0.513848</v>
       </c>
       <c r="C28" t="n">
-        <v>0.392085</v>
+        <v>0.401534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295118</v>
+        <v>0.29754</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533987</v>
+        <v>0.535597</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409596</v>
+        <v>0.411442</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300123</v>
+        <v>0.301616</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.557806</v>
+        <v>0.558362</v>
       </c>
       <c r="C30" t="n">
-        <v>0.429899</v>
+        <v>0.431247</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31033</v>
+        <v>0.310681</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.578693</v>
+        <v>0.579478</v>
       </c>
       <c r="C31" t="n">
-        <v>0.445358</v>
+        <v>0.447949</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321055</v>
+        <v>0.321489</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.599445</v>
+        <v>0.599509</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463922</v>
+        <v>0.465725</v>
       </c>
       <c r="D32" t="n">
-        <v>0.330137</v>
+        <v>0.331579</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.613469</v>
+        <v>0.613464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482864</v>
+        <v>0.485057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.342784</v>
+        <v>0.345133</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.641947</v>
+        <v>0.643379</v>
       </c>
       <c r="C34" t="n">
-        <v>0.503478</v>
+        <v>0.5060829999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356794</v>
+        <v>0.355793</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.663643</v>
+        <v>0.6632670000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.52499</v>
+        <v>0.5275919999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367726</v>
+        <v>0.374582</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685948</v>
+        <v>0.6834519999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550574</v>
+        <v>0.550986</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378251</v>
+        <v>0.38069</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716992</v>
+        <v>0.714144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.573902</v>
+        <v>0.575856</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390469</v>
+        <v>0.391001</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738498</v>
+        <v>0.739754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5966939999999999</v>
+        <v>0.59801</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408974</v>
+        <v>0.410875</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.773522</v>
+        <v>0.766966</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6244150000000001</v>
+        <v>0.626342</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421932</v>
+        <v>0.422851</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.796168</v>
+        <v>0.797828</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453316</v>
+        <v>0.457265</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351866</v>
+        <v>0.352962</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579639</v>
+        <v>0.580214</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469443</v>
+        <v>0.47</v>
       </c>
       <c r="D41" t="n">
-        <v>0.359685</v>
+        <v>0.360511</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.59831</v>
+        <v>0.600341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48751</v>
+        <v>0.487277</v>
       </c>
       <c r="D42" t="n">
-        <v>0.367588</v>
+        <v>0.367643</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616915</v>
+        <v>0.617097</v>
       </c>
       <c r="C43" t="n">
-        <v>0.50074</v>
+        <v>0.500665</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376441</v>
+        <v>0.376973</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629621</v>
+        <v>0.628629</v>
       </c>
       <c r="C44" t="n">
-        <v>0.523805</v>
+        <v>0.523392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.387545</v>
+        <v>0.389478</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652067</v>
+        <v>0.65081</v>
       </c>
       <c r="C45" t="n">
-        <v>0.536521</v>
+        <v>0.536973</v>
       </c>
       <c r="D45" t="n">
-        <v>0.391356</v>
+        <v>0.392474</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664397</v>
+        <v>0.6639350000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.556525</v>
+        <v>0.55967</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406961</v>
+        <v>0.407077</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684588</v>
+        <v>0.684212</v>
       </c>
       <c r="C47" t="n">
-        <v>0.574547</v>
+        <v>0.574025</v>
       </c>
       <c r="D47" t="n">
-        <v>0.416212</v>
+        <v>0.417165</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701259</v>
+        <v>0.700118</v>
       </c>
       <c r="C48" t="n">
-        <v>0.590538</v>
+        <v>0.590619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.427297</v>
+        <v>0.427982</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7228</v>
+        <v>0.722341</v>
       </c>
       <c r="C49" t="n">
-        <v>0.615389</v>
+        <v>0.613839</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432137</v>
+        <v>0.432996</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744623</v>
+        <v>0.743308</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63296</v>
+        <v>0.63365</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443672</v>
+        <v>0.444379</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.765754</v>
+        <v>0.764447</v>
       </c>
       <c r="C51" t="n">
-        <v>0.658081</v>
+        <v>0.658227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.462987</v>
+        <v>0.464152</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.79009</v>
+        <v>0.788805</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684777</v>
+        <v>0.684554</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476922</v>
+        <v>0.478113</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808218</v>
+        <v>0.809928</v>
       </c>
       <c r="C53" t="n">
-        <v>0.707623</v>
+        <v>0.708951</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493543</v>
+        <v>0.494536</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83296</v>
+        <v>0.830763</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515012</v>
+        <v>0.516485</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395584</v>
+        <v>0.397045</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622773</v>
+        <v>0.622566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.526517</v>
+        <v>0.526863</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405313</v>
+        <v>0.40664</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638524</v>
+        <v>0.637951</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54336</v>
+        <v>0.543287</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413212</v>
+        <v>0.414507</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.654604</v>
+        <v>0.652316</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558124</v>
+        <v>0.5585909999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419834</v>
+        <v>0.420502</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668665</v>
+        <v>0.668423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.572703</v>
+        <v>0.57299</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4282</v>
+        <v>0.428369</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.688353</v>
+        <v>0.687686</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5881729999999999</v>
+        <v>0.588419</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43768</v>
+        <v>0.438157</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702244</v>
+        <v>0.70101</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606359</v>
+        <v>0.605975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444521</v>
+        <v>0.444951</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720148</v>
+        <v>0.719226</v>
       </c>
       <c r="C61" t="n">
-        <v>0.623844</v>
+        <v>0.623476</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454907</v>
+        <v>0.454139</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737859</v>
+        <v>0.736997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639551</v>
+        <v>0.639451</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462668</v>
+        <v>0.461935</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757047</v>
+        <v>0.7565809999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.66308</v>
+        <v>0.663258</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475737</v>
+        <v>0.476221</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769468</v>
+        <v>0.768892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.679707</v>
+        <v>0.680103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485958</v>
+        <v>0.486239</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796343</v>
+        <v>0.795493</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707251</v>
+        <v>0.707163</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497649</v>
+        <v>0.497569</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818496</v>
+        <v>0.81726</v>
       </c>
       <c r="C66" t="n">
-        <v>0.726095</v>
+        <v>0.726284</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509476</v>
+        <v>0.5098549999999999</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850133</v>
+        <v>0.84796</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75691</v>
+        <v>0.7556079999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5258969999999999</v>
+        <v>0.5254720000000001</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877507</v>
+        <v>0.876799</v>
       </c>
       <c r="C68" t="n">
-        <v>0.512435</v>
+        <v>0.511966</v>
       </c>
       <c r="D68" t="n">
-        <v>0.404924</v>
+        <v>0.40578</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.656489</v>
+        <v>0.657367</v>
       </c>
       <c r="C69" t="n">
-        <v>0.529656</v>
+        <v>0.530213</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411578</v>
+        <v>0.411951</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676002</v>
+        <v>0.677472</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550056</v>
+        <v>0.5505330000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.42249</v>
+        <v>0.422909</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701379</v>
+        <v>0.7017</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571574</v>
+        <v>0.57142</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433202</v>
+        <v>0.433684</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726956</v>
+        <v>0.726415</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5947249999999999</v>
+        <v>0.594608</v>
       </c>
       <c r="D72" t="n">
-        <v>0.444339</v>
+        <v>0.445247</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75274</v>
+        <v>0.757049</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621421</v>
+        <v>0.623178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.455467</v>
+        <v>0.455934</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.772746</v>
+        <v>0.777493</v>
       </c>
       <c r="C74" t="n">
-        <v>0.643589</v>
+        <v>0.64563</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464757</v>
+        <v>0.465297</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.807684</v>
+        <v>0.813182</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677267</v>
+        <v>0.679156</v>
       </c>
       <c r="D75" t="n">
-        <v>0.479281</v>
+        <v>0.479022</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.837214</v>
+        <v>0.850664</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7022969999999999</v>
+        <v>0.712627</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489053</v>
+        <v>0.491402</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874385</v>
+        <v>0.888543</v>
       </c>
       <c r="C77" t="n">
-        <v>0.738986</v>
+        <v>0.750651</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506044</v>
+        <v>0.50927</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.915147</v>
+        <v>0.938754</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775939</v>
+        <v>0.790619</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517644</v>
+        <v>0.519749</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.968971</v>
+        <v>0.993673</v>
       </c>
       <c r="C79" t="n">
-        <v>0.817179</v>
+        <v>0.833171</v>
       </c>
       <c r="D79" t="n">
-        <v>0.534312</v>
+        <v>0.538409</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02815</v>
+        <v>1.05394</v>
       </c>
       <c r="C80" t="n">
-        <v>0.869967</v>
+        <v>0.892647</v>
       </c>
       <c r="D80" t="n">
-        <v>0.557054</v>
+        <v>0.559265</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10232</v>
+        <v>1.12967</v>
       </c>
       <c r="C81" t="n">
-        <v>0.936972</v>
+        <v>0.960076</v>
       </c>
       <c r="D81" t="n">
-        <v>0.578201</v>
+        <v>0.5793509999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.18842</v>
+        <v>1.222</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00869</v>
+        <v>1.03113</v>
       </c>
       <c r="D82" t="n">
-        <v>0.601538</v>
+        <v>0.609498</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.28523</v>
+        <v>1.32563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.719919</v>
+        <v>0.774079</v>
       </c>
       <c r="D83" t="n">
-        <v>0.473295</v>
+        <v>0.482086</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.994831</v>
+        <v>1.0655</v>
       </c>
       <c r="C84" t="n">
-        <v>0.775269</v>
+        <v>0.8203549999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.48546</v>
+        <v>0.503992</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05787</v>
+        <v>1.13005</v>
       </c>
       <c r="C85" t="n">
-        <v>0.827745</v>
+        <v>0.8750250000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.500786</v>
+        <v>0.513892</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1506</v>
+        <v>1.21015</v>
       </c>
       <c r="C86" t="n">
-        <v>0.904313</v>
+        <v>0.955821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5237619999999999</v>
+        <v>0.536372</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.24134</v>
+        <v>1.3166</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9871490000000001</v>
+        <v>1.03594</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551969</v>
+        <v>0.564142</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36403</v>
+        <v>1.41038</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08945</v>
+        <v>1.1405</v>
       </c>
       <c r="D88" t="n">
-        <v>0.575387</v>
+        <v>0.6037090000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.46589</v>
+        <v>1.53348</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1886</v>
+        <v>1.24023</v>
       </c>
       <c r="D89" t="n">
-        <v>0.615395</v>
+        <v>0.627549</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.60353</v>
+        <v>1.66537</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29967</v>
+        <v>1.34944</v>
       </c>
       <c r="D90" t="n">
-        <v>0.654702</v>
+        <v>0.674213</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.74339</v>
+        <v>1.79468</v>
       </c>
       <c r="C91" t="n">
-        <v>1.42544</v>
+        <v>1.47165</v>
       </c>
       <c r="D91" t="n">
-        <v>0.694862</v>
+        <v>0.7222730000000001</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88544</v>
+        <v>1.93347</v>
       </c>
       <c r="C92" t="n">
-        <v>1.55585</v>
+        <v>1.60282</v>
       </c>
       <c r="D92" t="n">
-        <v>0.749853</v>
+        <v>0.770244</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.03261</v>
+        <v>2.08303</v>
       </c>
       <c r="C93" t="n">
-        <v>1.69287</v>
+        <v>1.7412</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8028419999999999</v>
+        <v>0.828043</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.17834</v>
+        <v>2.23955</v>
       </c>
       <c r="C94" t="n">
-        <v>1.84029</v>
+        <v>1.88678</v>
       </c>
       <c r="D94" t="n">
-        <v>0.865188</v>
+        <v>0.8892409999999999</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.34816</v>
+        <v>2.41562</v>
       </c>
       <c r="C95" t="n">
-        <v>1.99285</v>
+        <v>2.04432</v>
       </c>
       <c r="D95" t="n">
-        <v>0.940867</v>
+        <v>0.966059</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.51672</v>
+        <v>2.57748</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17899</v>
+        <v>2.23221</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02434</v>
+        <v>1.0622</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70313</v>
+        <v>2.75605</v>
       </c>
       <c r="C97" t="n">
-        <v>1.38989</v>
+        <v>1.41883</v>
       </c>
       <c r="D97" t="n">
-        <v>0.777595</v>
+        <v>0.794015</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0118</v>
+        <v>2.04356</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49148</v>
+        <v>1.51874</v>
       </c>
       <c r="D98" t="n">
-        <v>0.818818</v>
+        <v>0.832022</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12032</v>
+        <v>2.15613</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57917</v>
+        <v>1.60913</v>
       </c>
       <c r="D99" t="n">
-        <v>0.881379</v>
+        <v>0.893849</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.21989</v>
+        <v>2.26792</v>
       </c>
       <c r="C100" t="n">
-        <v>1.68838</v>
+        <v>1.71666</v>
       </c>
       <c r="D100" t="n">
-        <v>0.932964</v>
+        <v>0.9549</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.37345</v>
+        <v>2.40297</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79236</v>
+        <v>1.82179</v>
       </c>
       <c r="D101" t="n">
-        <v>0.970992</v>
+        <v>0.9885969999999999</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.47997</v>
+        <v>2.51296</v>
       </c>
       <c r="C102" t="n">
-        <v>1.90213</v>
+        <v>1.93335</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03444</v>
+        <v>1.04729</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59832</v>
+        <v>2.63943</v>
       </c>
       <c r="C103" t="n">
-        <v>2.02226</v>
+        <v>2.056</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10291</v>
+        <v>1.12003</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.73354</v>
+        <v>2.77312</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14806</v>
+        <v>2.18484</v>
       </c>
       <c r="D104" t="n">
-        <v>1.15045</v>
+        <v>1.17567</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86079</v>
+        <v>2.9088</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27979</v>
+        <v>2.32166</v>
       </c>
       <c r="D105" t="n">
-        <v>1.21008</v>
+        <v>1.23459</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99586</v>
+        <v>3.04884</v>
       </c>
       <c r="C106" t="n">
-        <v>2.40583</v>
+        <v>2.45466</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28895</v>
+        <v>1.31717</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.16586</v>
+        <v>3.21491</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54572</v>
+        <v>2.59118</v>
       </c>
       <c r="D107" t="n">
-        <v>1.35959</v>
+        <v>1.38664</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3129</v>
+        <v>3.36381</v>
       </c>
       <c r="C108" t="n">
-        <v>2.71393</v>
+        <v>2.75715</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43201</v>
+        <v>1.45112</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.48168</v>
+        <v>3.53276</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88119</v>
+        <v>2.93051</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50614</v>
+        <v>1.53408</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.64804</v>
+        <v>3.70114</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04159</v>
+        <v>3.09463</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59375</v>
+        <v>1.61457</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.83185</v>
+        <v>3.89524</v>
       </c>
       <c r="C111" t="n">
-        <v>2.0134</v>
+        <v>2.02184</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28106</v>
+        <v>1.2777</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.77706</v>
+        <v>2.79049</v>
       </c>
       <c r="C112" t="n">
-        <v>2.11291</v>
+        <v>2.12235</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32192</v>
+        <v>1.31604</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88458</v>
+        <v>2.90025</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21485</v>
+        <v>2.23345</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37257</v>
+        <v>1.36619</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.97741</v>
+        <v>3.00304</v>
       </c>
       <c r="C114" t="n">
-        <v>2.31594</v>
+        <v>2.32993</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42441</v>
+        <v>1.41958</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09309</v>
+        <v>3.12859</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42015</v>
+        <v>2.43596</v>
       </c>
       <c r="D115" t="n">
-        <v>1.47749</v>
+        <v>1.47347</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.20008</v>
+        <v>3.24517</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52911</v>
+        <v>2.54907</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52666</v>
+        <v>1.52514</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.32265</v>
+        <v>3.36506</v>
       </c>
       <c r="C117" t="n">
-        <v>2.65057</v>
+        <v>2.67051</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59987</v>
+        <v>1.59874</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.45107</v>
+        <v>3.47468</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78686</v>
+        <v>2.80749</v>
       </c>
       <c r="D118" t="n">
-        <v>1.66165</v>
+        <v>1.68887</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56317</v>
+        <v>3.591</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91546</v>
+        <v>2.93509</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7146</v>
+        <v>1.73214</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.305068</v>
+        <v>0.306464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240464</v>
+        <v>0.242048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247993</v>
+        <v>0.24606</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.309771</v>
+        <v>0.314221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245783</v>
+        <v>0.247584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252543</v>
+        <v>0.252807</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.315196</v>
+        <v>0.32105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251132</v>
+        <v>0.25383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256715</v>
+        <v>0.25895</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.324207</v>
+        <v>0.327656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25958</v>
+        <v>0.260649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.263032</v>
+        <v>0.263988</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.330325</v>
+        <v>0.331108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.265222</v>
+        <v>0.264898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268537</v>
+        <v>0.26912</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33626</v>
+        <v>0.335273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220781</v>
+        <v>0.215335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.235461</v>
+        <v>0.228452</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.298172</v>
+        <v>0.287202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226906</v>
+        <v>0.218671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235088</v>
+        <v>0.230213</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.298038</v>
+        <v>0.290055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22729</v>
+        <v>0.223688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241818</v>
+        <v>0.237906</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.304477</v>
+        <v>0.296703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233297</v>
+        <v>0.230422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246684</v>
+        <v>0.243762</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.311027</v>
+        <v>0.301865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238147</v>
+        <v>0.233932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252216</v>
+        <v>0.246478</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.314894</v>
+        <v>0.314748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243562</v>
+        <v>0.238709</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257499</v>
+        <v>0.251763</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323106</v>
+        <v>0.32083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.247988</v>
+        <v>0.244971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261833</v>
+        <v>0.256578</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328634</v>
+        <v>0.326464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.252889</v>
+        <v>0.251996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266972</v>
+        <v>0.262791</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.337653</v>
+        <v>0.333942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.25983</v>
+        <v>0.257081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272531</v>
+        <v>0.268723</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34562</v>
+        <v>0.34247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265878</v>
+        <v>0.262972</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279672</v>
+        <v>0.274655</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.352667</v>
+        <v>0.348136</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271574</v>
+        <v>0.268693</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285518</v>
+        <v>0.281175</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.358541</v>
+        <v>0.354806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.278752</v>
+        <v>0.275993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292229</v>
+        <v>0.286714</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.365031</v>
+        <v>0.363726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.282513</v>
+        <v>0.280676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298479</v>
+        <v>0.292891</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.374249</v>
+        <v>0.371205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.290032</v>
+        <v>0.286878</v>
       </c>
       <c r="D20" t="n">
-        <v>0.305209</v>
+        <v>0.299162</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.380755</v>
+        <v>0.377367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240284</v>
+        <v>0.239746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256673</v>
+        <v>0.254394</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.331772</v>
+        <v>0.33033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244654</v>
+        <v>0.24423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262159</v>
+        <v>0.261112</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335899</v>
+        <v>0.335431</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249269</v>
+        <v>0.24947</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266079</v>
+        <v>0.265526</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34107</v>
+        <v>0.341289</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255529</v>
+        <v>0.255231</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271649</v>
+        <v>0.27145</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345586</v>
+        <v>0.346582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258873</v>
+        <v>0.259427</v>
       </c>
       <c r="D25" t="n">
-        <v>0.275604</v>
+        <v>0.276435</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351602</v>
+        <v>0.351251</v>
       </c>
       <c r="C26" t="n">
-        <v>0.264765</v>
+        <v>0.26515</v>
       </c>
       <c r="D26" t="n">
-        <v>0.280919</v>
+        <v>0.281567</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356284</v>
+        <v>0.35623</v>
       </c>
       <c r="C27" t="n">
-        <v>0.272621</v>
+        <v>0.271048</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288531</v>
+        <v>0.288562</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.362578</v>
+        <v>0.362099</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277398</v>
+        <v>0.278372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293566</v>
+        <v>0.295582</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.368299</v>
+        <v>0.367643</v>
       </c>
       <c r="C29" t="n">
-        <v>0.284064</v>
+        <v>0.284832</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3002</v>
+        <v>0.300775</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374508</v>
+        <v>0.374356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289642</v>
+        <v>0.290328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306373</v>
+        <v>0.306464</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.38102</v>
+        <v>0.379664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296344</v>
+        <v>0.296687</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313652</v>
+        <v>0.314856</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.386428</v>
+        <v>0.386169</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301964</v>
+        <v>0.302244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.318664</v>
+        <v>0.319224</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391694</v>
+        <v>0.392132</v>
       </c>
       <c r="C33" t="n">
-        <v>0.307937</v>
+        <v>0.308484</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325148</v>
+        <v>0.325809</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398612</v>
+        <v>0.398878</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314235</v>
+        <v>0.315291</v>
       </c>
       <c r="D34" t="n">
-        <v>0.330569</v>
+        <v>0.331919</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404933</v>
+        <v>0.405236</v>
       </c>
       <c r="C35" t="n">
-        <v>0.253329</v>
+        <v>0.253886</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271223</v>
+        <v>0.272393</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349584</v>
+        <v>0.350431</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256734</v>
+        <v>0.257912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276281</v>
+        <v>0.275205</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.35341</v>
+        <v>0.354293</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261571</v>
+        <v>0.262778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280852</v>
+        <v>0.281303</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357895</v>
+        <v>0.358253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268426</v>
+        <v>0.268144</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285124</v>
+        <v>0.285651</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362371</v>
+        <v>0.363137</v>
       </c>
       <c r="C39" t="n">
-        <v>0.272872</v>
+        <v>0.27272</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290278</v>
+        <v>0.29041</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366994</v>
+        <v>0.367839</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27845</v>
+        <v>0.278961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296734</v>
+        <v>0.296409</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372327</v>
+        <v>0.372199</v>
       </c>
       <c r="C41" t="n">
-        <v>0.284409</v>
+        <v>0.28557</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302036</v>
+        <v>0.302889</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378029</v>
+        <v>0.378441</v>
       </c>
       <c r="C42" t="n">
-        <v>0.289529</v>
+        <v>0.290092</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3087</v>
+        <v>0.308463</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383087</v>
+        <v>0.384074</v>
       </c>
       <c r="C43" t="n">
-        <v>0.294917</v>
+        <v>0.295404</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313929</v>
+        <v>0.31425</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389324</v>
+        <v>0.39025</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301626</v>
+        <v>0.302414</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320435</v>
+        <v>0.32205</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395265</v>
+        <v>0.395414</v>
       </c>
       <c r="C45" t="n">
-        <v>0.308942</v>
+        <v>0.308879</v>
       </c>
       <c r="D45" t="n">
-        <v>0.326162</v>
+        <v>0.327052</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401386</v>
+        <v>0.402007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.315</v>
+        <v>0.314848</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332675</v>
+        <v>0.332364</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4072</v>
+        <v>0.407635</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320998</v>
+        <v>0.320831</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338406</v>
+        <v>0.338483</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413581</v>
+        <v>0.413571</v>
       </c>
       <c r="C48" t="n">
-        <v>0.326149</v>
+        <v>0.325913</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344202</v>
+        <v>0.343984</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.41913</v>
+        <v>0.419914</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331134</v>
+        <v>0.331733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349292</v>
+        <v>0.349066</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.424328</v>
+        <v>0.425375</v>
       </c>
       <c r="C50" t="n">
-        <v>0.263676</v>
+        <v>0.265508</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278736</v>
+        <v>0.277626</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362477</v>
+        <v>0.362851</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269701</v>
+        <v>0.269629</v>
       </c>
       <c r="D51" t="n">
-        <v>0.284134</v>
+        <v>0.281486</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.36696</v>
+        <v>0.367522</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275021</v>
+        <v>0.275254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288197</v>
+        <v>0.286088</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.37134</v>
+        <v>0.371524</v>
       </c>
       <c r="C53" t="n">
-        <v>0.280247</v>
+        <v>0.279416</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293388</v>
+        <v>0.291157</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375284</v>
+        <v>0.375899</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285594</v>
+        <v>0.285046</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299085</v>
+        <v>0.296564</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.381472</v>
+        <v>0.380532</v>
       </c>
       <c r="C55" t="n">
-        <v>0.291247</v>
+        <v>0.29093</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305834</v>
+        <v>0.302773</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.384968</v>
+        <v>0.385588</v>
       </c>
       <c r="C56" t="n">
-        <v>0.296699</v>
+        <v>0.296889</v>
       </c>
       <c r="D56" t="n">
-        <v>0.310936</v>
+        <v>0.309163</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390699</v>
+        <v>0.391033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302982</v>
+        <v>0.303143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317582</v>
+        <v>0.314192</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.398822</v>
+        <v>0.397324</v>
       </c>
       <c r="C58" t="n">
-        <v>0.309069</v>
+        <v>0.308762</v>
       </c>
       <c r="D58" t="n">
-        <v>0.322859</v>
+        <v>0.320492</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.402687</v>
+        <v>0.403314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.315258</v>
+        <v>0.315702</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329253</v>
+        <v>0.326944</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.408985</v>
+        <v>0.409174</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321373</v>
+        <v>0.322008</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335127</v>
+        <v>0.332585</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.414704</v>
+        <v>0.415232</v>
       </c>
       <c r="C61" t="n">
-        <v>0.327673</v>
+        <v>0.327752</v>
       </c>
       <c r="D61" t="n">
-        <v>0.342087</v>
+        <v>0.338604</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.420637</v>
+        <v>0.421835</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3337</v>
+        <v>0.333275</v>
       </c>
       <c r="D62" t="n">
-        <v>0.347386</v>
+        <v>0.344503</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.426561</v>
+        <v>0.428195</v>
       </c>
       <c r="C63" t="n">
-        <v>0.338385</v>
+        <v>0.338734</v>
       </c>
       <c r="D63" t="n">
-        <v>0.352526</v>
+        <v>0.350464</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.43247</v>
+        <v>0.434411</v>
       </c>
       <c r="C64" t="n">
-        <v>0.275882</v>
+        <v>0.276515</v>
       </c>
       <c r="D64" t="n">
-        <v>0.28764</v>
+        <v>0.289396</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.400818</v>
+        <v>0.402081</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287232</v>
+        <v>0.282914</v>
       </c>
       <c r="D65" t="n">
-        <v>0.299249</v>
+        <v>0.298274</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.420363</v>
+        <v>0.403562</v>
       </c>
       <c r="C66" t="n">
-        <v>0.291091</v>
+        <v>0.287791</v>
       </c>
       <c r="D66" t="n">
-        <v>0.303263</v>
+        <v>0.302931</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.420917</v>
+        <v>0.40719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.29692</v>
+        <v>0.295438</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309398</v>
+        <v>0.308359</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.427161</v>
+        <v>0.418348</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305587</v>
+        <v>0.302514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.317051</v>
+        <v>0.315001</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.434475</v>
+        <v>0.425657</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31327</v>
+        <v>0.309261</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323156</v>
+        <v>0.322827</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.433238</v>
+        <v>0.436684</v>
       </c>
       <c r="C70" t="n">
-        <v>0.320282</v>
+        <v>0.317095</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332867</v>
+        <v>0.330737</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.466742</v>
+        <v>0.448496</v>
       </c>
       <c r="C71" t="n">
-        <v>0.329649</v>
+        <v>0.325357</v>
       </c>
       <c r="D71" t="n">
-        <v>0.341866</v>
+        <v>0.338182</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.481444</v>
+        <v>0.460045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339656</v>
+        <v>0.334273</v>
       </c>
       <c r="D72" t="n">
-        <v>0.350904</v>
+        <v>0.345927</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.499085</v>
+        <v>0.479104</v>
       </c>
       <c r="C73" t="n">
-        <v>0.349687</v>
+        <v>0.344536</v>
       </c>
       <c r="D73" t="n">
-        <v>0.360375</v>
+        <v>0.356099</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.51944</v>
+        <v>0.496262</v>
       </c>
       <c r="C74" t="n">
-        <v>0.361905</v>
+        <v>0.355007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.371885</v>
+        <v>0.366912</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.538392</v>
+        <v>0.517686</v>
       </c>
       <c r="C75" t="n">
-        <v>0.374435</v>
+        <v>0.367733</v>
       </c>
       <c r="D75" t="n">
-        <v>0.383713</v>
+        <v>0.377358</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.559947</v>
+        <v>0.534841</v>
       </c>
       <c r="C76" t="n">
-        <v>0.386659</v>
+        <v>0.37808</v>
       </c>
       <c r="D76" t="n">
-        <v>0.397044</v>
+        <v>0.388409</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.583047</v>
+        <v>0.5554750000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.399737</v>
+        <v>0.390409</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411675</v>
+        <v>0.401697</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.606724</v>
+        <v>0.578991</v>
       </c>
       <c r="C78" t="n">
-        <v>0.355735</v>
+        <v>0.36113</v>
       </c>
       <c r="D78" t="n">
-        <v>0.383665</v>
+        <v>0.366653</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.688317</v>
+        <v>0.697679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.365206</v>
+        <v>0.38037</v>
       </c>
       <c r="D79" t="n">
-        <v>0.384516</v>
+        <v>0.385733</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.706354</v>
+        <v>0.724696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.398303</v>
+        <v>0.395027</v>
       </c>
       <c r="D80" t="n">
-        <v>0.404939</v>
+        <v>0.403834</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.752775</v>
+        <v>0.749757</v>
       </c>
       <c r="C81" t="n">
-        <v>0.412515</v>
+        <v>0.410509</v>
       </c>
       <c r="D81" t="n">
-        <v>0.421458</v>
+        <v>0.416977</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.773969</v>
+        <v>0.769676</v>
       </c>
       <c r="C82" t="n">
-        <v>0.428278</v>
+        <v>0.429642</v>
       </c>
       <c r="D82" t="n">
-        <v>0.435861</v>
+        <v>0.434494</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.797809</v>
+        <v>0.79116</v>
       </c>
       <c r="C83" t="n">
-        <v>0.449429</v>
+        <v>0.445302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.456295</v>
+        <v>0.451844</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.805589</v>
+        <v>0.821871</v>
       </c>
       <c r="C84" t="n">
-        <v>0.467355</v>
+        <v>0.461849</v>
       </c>
       <c r="D84" t="n">
-        <v>0.476836</v>
+        <v>0.476194</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.843544</v>
+        <v>0.843871</v>
       </c>
       <c r="C85" t="n">
-        <v>0.483769</v>
+        <v>0.487831</v>
       </c>
       <c r="D85" t="n">
-        <v>0.493668</v>
+        <v>0.49574</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.869577</v>
+        <v>0.869094</v>
       </c>
       <c r="C86" t="n">
-        <v>0.505609</v>
+        <v>0.5088279999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.515949</v>
+        <v>0.517909</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.895573</v>
+        <v>0.896691</v>
       </c>
       <c r="C87" t="n">
-        <v>0.525097</v>
+        <v>0.529756</v>
       </c>
       <c r="D87" t="n">
-        <v>0.534212</v>
+        <v>0.536192</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.921389</v>
+        <v>0.923057</v>
       </c>
       <c r="C88" t="n">
-        <v>0.546778</v>
+        <v>0.55214</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5564829999999999</v>
+        <v>0.558065</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.947577</v>
+        <v>0.950252</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5689650000000001</v>
+        <v>0.573692</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.579529</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.975931</v>
+        <v>0.97833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.591483</v>
+        <v>0.596399</v>
       </c>
       <c r="D90" t="n">
-        <v>0.599925</v>
+        <v>0.60254</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00503</v>
+        <v>1.00853</v>
       </c>
       <c r="C91" t="n">
-        <v>0.614854</v>
+        <v>0.618889</v>
       </c>
       <c r="D91" t="n">
-        <v>0.622127</v>
+        <v>0.625563</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03631</v>
+        <v>1.03857</v>
       </c>
       <c r="C92" t="n">
-        <v>0.633545</v>
+        <v>0.637906</v>
       </c>
       <c r="D92" t="n">
-        <v>0.626742</v>
+        <v>0.646829</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15376</v>
+        <v>1.15322</v>
       </c>
       <c r="C93" t="n">
-        <v>0.641001</v>
+        <v>0.651042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6402910000000001</v>
+        <v>0.660972</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14471</v>
+        <v>1.16159</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6651319999999999</v>
+        <v>0.665893</v>
       </c>
       <c r="D94" t="n">
-        <v>0.672976</v>
+        <v>0.676926</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.16503</v>
+        <v>1.16955</v>
       </c>
       <c r="C95" t="n">
-        <v>0.657488</v>
+        <v>0.683698</v>
       </c>
       <c r="D95" t="n">
-        <v>0.662413</v>
+        <v>0.690158</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.16045</v>
+        <v>1.18163</v>
       </c>
       <c r="C96" t="n">
-        <v>0.678611</v>
+        <v>0.698286</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68433</v>
+        <v>0.705147</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19321</v>
+        <v>1.19564</v>
       </c>
       <c r="C97" t="n">
-        <v>0.716258</v>
+        <v>0.7184700000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.724529</v>
+        <v>0.728826</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20778</v>
+        <v>1.21033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.734351</v>
+        <v>0.736599</v>
       </c>
       <c r="D98" t="n">
-        <v>0.742063</v>
+        <v>0.746352</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.22787</v>
+        <v>1.23082</v>
       </c>
       <c r="C99" t="n">
-        <v>0.752177</v>
+        <v>0.755634</v>
       </c>
       <c r="D99" t="n">
-        <v>0.762301</v>
+        <v>0.766465</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24471</v>
+        <v>1.24805</v>
       </c>
       <c r="C100" t="n">
-        <v>0.771568</v>
+        <v>0.775069</v>
       </c>
       <c r="D100" t="n">
-        <v>0.780931</v>
+        <v>0.785116</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25975</v>
+        <v>1.26368</v>
       </c>
       <c r="C101" t="n">
-        <v>0.791432</v>
+        <v>0.794892</v>
       </c>
       <c r="D101" t="n">
-        <v>0.802395</v>
+        <v>0.805698</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28009</v>
+        <v>1.28394</v>
       </c>
       <c r="C102" t="n">
-        <v>0.812378</v>
+        <v>0.815897</v>
       </c>
       <c r="D102" t="n">
-        <v>0.823001</v>
+        <v>0.825365</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30626</v>
+        <v>1.31024</v>
       </c>
       <c r="C103" t="n">
-        <v>0.832446</v>
+        <v>0.837919</v>
       </c>
       <c r="D103" t="n">
-        <v>0.845537</v>
+        <v>0.848382</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.32853</v>
+        <v>1.33273</v>
       </c>
       <c r="C104" t="n">
-        <v>0.854766</v>
+        <v>0.859205</v>
       </c>
       <c r="D104" t="n">
-        <v>0.86861</v>
+        <v>0.8722259999999999</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.35266</v>
+        <v>1.35718</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8776350000000001</v>
+        <v>0.8827120000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.892969</v>
+        <v>0.8964839999999999</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.37745</v>
+        <v>1.38191</v>
       </c>
       <c r="C106" t="n">
-        <v>0.900852</v>
+        <v>0.90573</v>
       </c>
       <c r="D106" t="n">
-        <v>0.917587</v>
+        <v>0.922714</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38212</v>
+        <v>1.37643</v>
       </c>
       <c r="C107" t="n">
-        <v>0.855807</v>
+        <v>0.857231</v>
       </c>
       <c r="D107" t="n">
-        <v>0.864745</v>
+        <v>0.866612</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38604</v>
+        <v>1.39172</v>
       </c>
       <c r="C108" t="n">
-        <v>0.870543</v>
+        <v>0.87327</v>
       </c>
       <c r="D108" t="n">
-        <v>0.881039</v>
+        <v>0.882452</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.39512</v>
+        <v>1.40029</v>
       </c>
       <c r="C109" t="n">
-        <v>0.884908</v>
+        <v>0.889819</v>
       </c>
       <c r="D109" t="n">
-        <v>0.896804</v>
+        <v>0.90081</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.40453</v>
+        <v>1.4114</v>
       </c>
       <c r="C110" t="n">
-        <v>0.900429</v>
+        <v>0.905227</v>
       </c>
       <c r="D110" t="n">
-        <v>0.912503</v>
+        <v>0.916064</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41562</v>
+        <v>1.4201</v>
       </c>
       <c r="C111" t="n">
-        <v>0.915955</v>
+        <v>0.9209889999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.926362</v>
+        <v>0.9295639999999999</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42709</v>
+        <v>1.43203</v>
       </c>
       <c r="C112" t="n">
-        <v>0.933447</v>
+        <v>0.937627</v>
       </c>
       <c r="D112" t="n">
-        <v>0.945203</v>
+        <v>0.94883</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4387</v>
+        <v>1.444</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9510960000000001</v>
+        <v>0.955709</v>
       </c>
       <c r="D113" t="n">
-        <v>0.963288</v>
+        <v>0.966619</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45528</v>
+        <v>1.45991</v>
       </c>
       <c r="C114" t="n">
-        <v>0.96992</v>
+        <v>0.974031</v>
       </c>
       <c r="D114" t="n">
-        <v>0.980492</v>
+        <v>0.983401</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45259</v>
+        <v>1.47614</v>
       </c>
       <c r="C115" t="n">
-        <v>0.968639</v>
+        <v>0.994685</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00189</v>
+        <v>1.00369</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.47137</v>
+        <v>1.49318</v>
       </c>
       <c r="C116" t="n">
-        <v>0.988838</v>
+        <v>1.01448</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02049</v>
+        <v>1.02454</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.49528</v>
+        <v>1.51413</v>
       </c>
       <c r="C117" t="n">
-        <v>1.00942</v>
+        <v>1.03459</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04413</v>
+        <v>1.04518</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.51643</v>
+        <v>1.53323</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03076</v>
+        <v>1.05477</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06222</v>
+        <v>1.06429</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.53004</v>
+        <v>1.5523</v>
       </c>
       <c r="C119" t="n">
-        <v>1.05142</v>
+        <v>1.07653</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08302</v>
+        <v>1.08705</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.265622</v>
+        <v>0.273275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20273</v>
+        <v>0.20716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204699</v>
+        <v>0.207092</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270188</v>
+        <v>0.279685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207927</v>
+        <v>0.21208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.207076</v>
+        <v>0.20893</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280205</v>
+        <v>0.285592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208789</v>
+        <v>0.213996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20873</v>
+        <v>0.211502</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.279305</v>
+        <v>0.291004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214019</v>
+        <v>0.219853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210748</v>
+        <v>0.215678</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.280068</v>
+        <v>0.292215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.219718</v>
+        <v>0.225264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214128</v>
+        <v>0.216771</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.288054</v>
+        <v>0.301063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203855</v>
+        <v>0.200788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215015</v>
+        <v>0.213172</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.280629</v>
+        <v>0.287879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206917</v>
+        <v>0.206954</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219314</v>
+        <v>0.21691</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29241</v>
+        <v>0.303786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.212664</v>
+        <v>0.218154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221034</v>
+        <v>0.224561</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.292349</v>
+        <v>0.304723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214427</v>
+        <v>0.217458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222893</v>
+        <v>0.225352</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30035</v>
+        <v>0.308483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211324</v>
+        <v>0.213103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223818</v>
+        <v>0.225627</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.301949</v>
+        <v>0.310363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219717</v>
+        <v>0.22593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223081</v>
+        <v>0.226691</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.303712</v>
+        <v>0.314083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219134</v>
+        <v>0.22604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226421</v>
+        <v>0.232579</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.314508</v>
+        <v>0.321392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225383</v>
+        <v>0.227399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227125</v>
+        <v>0.231994</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.319902</v>
+        <v>0.326783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.224821</v>
+        <v>0.229404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229669</v>
+        <v>0.234804</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.324648</v>
+        <v>0.331384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230867</v>
+        <v>0.235505</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230421</v>
+        <v>0.23506</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328973</v>
+        <v>0.335577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233009</v>
+        <v>0.238404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234254</v>
+        <v>0.240183</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.333849</v>
+        <v>0.341292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240192</v>
+        <v>0.247693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233962</v>
+        <v>0.238333</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.342566</v>
+        <v>0.34571</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247655</v>
+        <v>0.250759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240931</v>
+        <v>0.245377</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.348157</v>
+        <v>0.35117</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25598</v>
+        <v>0.256837</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243008</v>
+        <v>0.245745</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.356098</v>
+        <v>0.35934</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234445</v>
+        <v>0.244901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239752</v>
+        <v>0.246029</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.345529</v>
+        <v>0.346759</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247973</v>
+        <v>0.252326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250468</v>
+        <v>0.249906</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.353235</v>
+        <v>0.3543</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25251</v>
+        <v>0.257013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252751</v>
+        <v>0.254152</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.357588</v>
+        <v>0.357989</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25577</v>
+        <v>0.265711</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253264</v>
+        <v>0.260899</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.36485</v>
+        <v>0.364914</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273002</v>
+        <v>0.274094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261768</v>
+        <v>0.260119</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368189</v>
+        <v>0.368278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273146</v>
+        <v>0.274594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265311</v>
+        <v>0.265756</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.374013</v>
+        <v>0.374378</v>
       </c>
       <c r="C27" t="n">
-        <v>0.275252</v>
+        <v>0.282618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.27006</v>
+        <v>0.269215</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.379567</v>
+        <v>0.380077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.28429</v>
+        <v>0.285921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.274237</v>
+        <v>0.272873</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.386665</v>
+        <v>0.386973</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289593</v>
+        <v>0.291202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.27761</v>
+        <v>0.277277</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.395165</v>
+        <v>0.391089</v>
       </c>
       <c r="C30" t="n">
-        <v>0.306134</v>
+        <v>0.303809</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283532</v>
+        <v>0.283154</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398575</v>
+        <v>0.398707</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301888</v>
+        <v>0.302486</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285108</v>
+        <v>0.284468</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401272</v>
+        <v>0.401651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.310852</v>
+        <v>0.312501</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289012</v>
+        <v>0.289181</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407282</v>
+        <v>0.40752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321957</v>
+        <v>0.322752</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29254</v>
+        <v>0.291611</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410238</v>
+        <v>0.410588</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32275</v>
+        <v>0.327447</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297545</v>
+        <v>0.2978</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420462</v>
+        <v>0.420041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266791</v>
+        <v>0.267564</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277906</v>
+        <v>0.278543</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402409</v>
+        <v>0.403046</v>
       </c>
       <c r="C36" t="n">
-        <v>0.273599</v>
+        <v>0.275957</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28089</v>
+        <v>0.28036</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408247</v>
+        <v>0.409212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276788</v>
+        <v>0.278173</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283219</v>
+        <v>0.282867</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411121</v>
+        <v>0.411368</v>
       </c>
       <c r="C38" t="n">
-        <v>0.283381</v>
+        <v>0.283223</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285667</v>
+        <v>0.286521</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415097</v>
+        <v>0.415078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.289665</v>
+        <v>0.290195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291125</v>
+        <v>0.290837</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419586</v>
+        <v>0.419022</v>
       </c>
       <c r="C40" t="n">
-        <v>0.293531</v>
+        <v>0.292495</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293399</v>
+        <v>0.292575</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.422951</v>
+        <v>0.4236</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29671</v>
+        <v>0.296291</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293422</v>
+        <v>0.293479</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43013</v>
+        <v>0.430559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29897</v>
+        <v>0.299481</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296026</v>
+        <v>0.296073</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436391</v>
+        <v>0.436491</v>
       </c>
       <c r="C43" t="n">
-        <v>0.30499</v>
+        <v>0.305192</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298744</v>
+        <v>0.298629</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440499</v>
+        <v>0.439951</v>
       </c>
       <c r="C44" t="n">
-        <v>0.308629</v>
+        <v>0.309289</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301604</v>
+        <v>0.301591</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442479</v>
+        <v>0.442155</v>
       </c>
       <c r="C45" t="n">
-        <v>0.313905</v>
+        <v>0.314133</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305233</v>
+        <v>0.305064</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.448877</v>
+        <v>0.449496</v>
       </c>
       <c r="C46" t="n">
-        <v>0.315292</v>
+        <v>0.315537</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305813</v>
+        <v>0.305682</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.456735</v>
+        <v>0.455956</v>
       </c>
       <c r="C47" t="n">
-        <v>0.32228</v>
+        <v>0.322208</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309383</v>
+        <v>0.30882</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.460653</v>
+        <v>0.461274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.326836</v>
+        <v>0.327042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311591</v>
+        <v>0.311915</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.465888</v>
+        <v>0.467187</v>
       </c>
       <c r="C49" t="n">
-        <v>0.333235</v>
+        <v>0.333455</v>
       </c>
       <c r="D49" t="n">
-        <v>0.313661</v>
+        <v>0.315584</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476265</v>
+        <v>0.477522</v>
       </c>
       <c r="C50" t="n">
-        <v>0.297649</v>
+        <v>0.303116</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292516</v>
+        <v>0.293857</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430194</v>
+        <v>0.430728</v>
       </c>
       <c r="C51" t="n">
-        <v>0.306419</v>
+        <v>0.307334</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296249</v>
+        <v>0.296786</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4332</v>
+        <v>0.433108</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3087</v>
+        <v>0.309479</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297241</v>
+        <v>0.297117</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438928</v>
+        <v>0.438958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.314713</v>
+        <v>0.315715</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300085</v>
+        <v>0.300386</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442376</v>
+        <v>0.442357</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320678</v>
+        <v>0.32069</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303563</v>
+        <v>0.302997</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445535</v>
+        <v>0.44473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.325159</v>
+        <v>0.32548</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305172</v>
+        <v>0.305713</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450242</v>
+        <v>0.449792</v>
       </c>
       <c r="C56" t="n">
-        <v>0.324099</v>
+        <v>0.325206</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307314</v>
+        <v>0.307432</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453087</v>
+        <v>0.452948</v>
       </c>
       <c r="C57" t="n">
-        <v>0.333959</v>
+        <v>0.334374</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310033</v>
+        <v>0.309487</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457593</v>
+        <v>0.457353</v>
       </c>
       <c r="C58" t="n">
-        <v>0.341423</v>
+        <v>0.341506</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314248</v>
+        <v>0.314081</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461064</v>
+        <v>0.461035</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348365</v>
+        <v>0.348562</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318612</v>
+        <v>0.318545</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.46703</v>
+        <v>0.466579</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354358</v>
+        <v>0.354078</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320671</v>
+        <v>0.320512</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.471094</v>
+        <v>0.470355</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359031</v>
+        <v>0.358996</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323503</v>
+        <v>0.323407</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477925</v>
+        <v>0.477328</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364245</v>
+        <v>0.364315</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325299</v>
+        <v>0.325806</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483243</v>
+        <v>0.482443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.370973</v>
+        <v>0.371072</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328775</v>
+        <v>0.328637</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.490497</v>
+        <v>0.489105</v>
       </c>
       <c r="C64" t="n">
-        <v>0.331463</v>
+        <v>0.33359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.315006</v>
+        <v>0.318924</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.460638</v>
+        <v>0.462362</v>
       </c>
       <c r="C65" t="n">
-        <v>0.329725</v>
+        <v>0.341126</v>
       </c>
       <c r="D65" t="n">
-        <v>0.313611</v>
+        <v>0.316377</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.445735</v>
+        <v>0.469176</v>
       </c>
       <c r="C66" t="n">
-        <v>0.340153</v>
+        <v>0.343169</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316894</v>
+        <v>0.318387</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.474407</v>
+        <v>0.478257</v>
       </c>
       <c r="C67" t="n">
-        <v>0.348649</v>
+        <v>0.349899</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320656</v>
+        <v>0.321354</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.490036</v>
+        <v>0.492987</v>
       </c>
       <c r="C68" t="n">
-        <v>0.353077</v>
+        <v>0.354177</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325145</v>
+        <v>0.325546</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.500539</v>
+        <v>0.5006</v>
       </c>
       <c r="C69" t="n">
-        <v>0.357642</v>
+        <v>0.359138</v>
       </c>
       <c r="D69" t="n">
-        <v>0.325347</v>
+        <v>0.328041</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.517218</v>
+        <v>0.5133180000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362039</v>
+        <v>0.365325</v>
       </c>
       <c r="D70" t="n">
-        <v>0.328678</v>
+        <v>0.331991</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.526801</v>
+        <v>0.521358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.372935</v>
+        <v>0.373791</v>
       </c>
       <c r="D71" t="n">
-        <v>0.333661</v>
+        <v>0.336412</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.542771</v>
+        <v>0.536792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.381675</v>
+        <v>0.382165</v>
       </c>
       <c r="D72" t="n">
-        <v>0.332599</v>
+        <v>0.339598</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.537411</v>
+        <v>0.553339</v>
       </c>
       <c r="C73" t="n">
-        <v>0.381802</v>
+        <v>0.391029</v>
       </c>
       <c r="D73" t="n">
-        <v>0.338763</v>
+        <v>0.345449</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.555091</v>
+        <v>0.565175</v>
       </c>
       <c r="C74" t="n">
-        <v>0.388513</v>
+        <v>0.397947</v>
       </c>
       <c r="D74" t="n">
-        <v>0.342018</v>
+        <v>0.348055</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.568624</v>
+        <v>0.5777330000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.394887</v>
+        <v>0.405419</v>
       </c>
       <c r="D75" t="n">
-        <v>0.34369</v>
+        <v>0.35346</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.596583</v>
+        <v>0.597962</v>
       </c>
       <c r="C76" t="n">
-        <v>0.407898</v>
+        <v>0.417673</v>
       </c>
       <c r="D76" t="n">
-        <v>0.348576</v>
+        <v>0.361407</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.619581</v>
+        <v>0.609196</v>
       </c>
       <c r="C77" t="n">
-        <v>0.422471</v>
+        <v>0.429023</v>
       </c>
       <c r="D77" t="n">
-        <v>0.356637</v>
+        <v>0.365389</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.641216</v>
+        <v>0.642428</v>
       </c>
       <c r="C78" t="n">
-        <v>0.386416</v>
+        <v>0.383673</v>
       </c>
       <c r="D78" t="n">
-        <v>0.353493</v>
+        <v>0.352285</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.699167</v>
+        <v>0.67703</v>
       </c>
       <c r="C79" t="n">
-        <v>0.39792</v>
+        <v>0.394492</v>
       </c>
       <c r="D79" t="n">
-        <v>0.358167</v>
+        <v>0.360223</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.717599</v>
+        <v>0.711337</v>
       </c>
       <c r="C80" t="n">
-        <v>0.410435</v>
+        <v>0.409467</v>
       </c>
       <c r="D80" t="n">
-        <v>0.370648</v>
+        <v>0.368451</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7526040000000001</v>
+        <v>0.751654</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425709</v>
+        <v>0.421262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.375102</v>
+        <v>0.374002</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7934369999999999</v>
+        <v>0.776335</v>
       </c>
       <c r="C82" t="n">
-        <v>0.441771</v>
+        <v>0.435269</v>
       </c>
       <c r="D82" t="n">
-        <v>0.361417</v>
+        <v>0.384123</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.806949</v>
+        <v>0.827858</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436181</v>
+        <v>0.455366</v>
       </c>
       <c r="D83" t="n">
-        <v>0.371231</v>
+        <v>0.394487</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.88748</v>
+        <v>0.888964</v>
       </c>
       <c r="C84" t="n">
-        <v>0.464115</v>
+        <v>0.477888</v>
       </c>
       <c r="D84" t="n">
-        <v>0.384008</v>
+        <v>0.405833</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.907141</v>
+        <v>0.924029</v>
       </c>
       <c r="C85" t="n">
-        <v>0.482271</v>
+        <v>0.501622</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402854</v>
+        <v>0.422551</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.954386</v>
+        <v>0.97448</v>
       </c>
       <c r="C86" t="n">
-        <v>0.50559</v>
+        <v>0.520359</v>
       </c>
       <c r="D86" t="n">
-        <v>0.419493</v>
+        <v>0.440867</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01004</v>
+        <v>1.03131</v>
       </c>
       <c r="C87" t="n">
-        <v>0.53376</v>
+        <v>0.54864</v>
       </c>
       <c r="D87" t="n">
-        <v>0.438758</v>
+        <v>0.454517</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05887</v>
+        <v>1.06647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5631080000000001</v>
+        <v>0.578465</v>
       </c>
       <c r="D88" t="n">
-        <v>0.451062</v>
+        <v>0.465315</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.10764</v>
+        <v>1.12586</v>
       </c>
       <c r="C89" t="n">
-        <v>0.597344</v>
+        <v>0.613686</v>
       </c>
       <c r="D89" t="n">
-        <v>0.477384</v>
+        <v>0.48274</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16554</v>
+        <v>1.17459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.632642</v>
+        <v>0.648123</v>
       </c>
       <c r="D90" t="n">
-        <v>0.487432</v>
+        <v>0.5048899999999999</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.23669</v>
+        <v>1.2487</v>
       </c>
       <c r="C91" t="n">
-        <v>0.675838</v>
+        <v>0.689191</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519045</v>
+        <v>0.529879</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.28678</v>
+        <v>1.29754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.688341</v>
+        <v>0.711266</v>
       </c>
       <c r="D92" t="n">
-        <v>0.646159</v>
+        <v>0.64181</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34122</v>
+        <v>1.3363</v>
       </c>
       <c r="C93" t="n">
-        <v>0.72014</v>
+        <v>0.7473959999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.65024</v>
+        <v>0.668091</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.3765</v>
+        <v>1.39223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.779081</v>
+        <v>0.77601</v>
       </c>
       <c r="D94" t="n">
-        <v>0.692483</v>
+        <v>0.692253</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.40584</v>
+        <v>1.43005</v>
       </c>
       <c r="C95" t="n">
-        <v>0.814998</v>
+        <v>0.810402</v>
       </c>
       <c r="D95" t="n">
-        <v>0.721614</v>
+        <v>0.718022</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47354</v>
+        <v>1.47281</v>
       </c>
       <c r="C96" t="n">
-        <v>0.848953</v>
+        <v>0.846185</v>
       </c>
       <c r="D96" t="n">
-        <v>0.746834</v>
+        <v>0.744529</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53077</v>
+        <v>1.52774</v>
       </c>
       <c r="C97" t="n">
-        <v>0.884419</v>
+        <v>0.881213</v>
       </c>
       <c r="D97" t="n">
-        <v>0.771632</v>
+        <v>0.769869</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.57921</v>
+        <v>1.58446</v>
       </c>
       <c r="C98" t="n">
-        <v>0.921368</v>
+        <v>0.918963</v>
       </c>
       <c r="D98" t="n">
-        <v>0.797349</v>
+        <v>0.7975449999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62092</v>
+        <v>1.61659</v>
       </c>
       <c r="C99" t="n">
-        <v>0.964552</v>
+        <v>0.959942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.821808</v>
+        <v>0.828708</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.66785</v>
+        <v>1.66706</v>
       </c>
       <c r="C100" t="n">
-        <v>0.998235</v>
+        <v>0.998116</v>
       </c>
       <c r="D100" t="n">
-        <v>0.847871</v>
+        <v>0.851445</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70342</v>
+        <v>1.70423</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03438</v>
+        <v>1.03331</v>
       </c>
       <c r="D101" t="n">
-        <v>0.873566</v>
+        <v>0.875331</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75849</v>
+        <v>1.76011</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07972</v>
+        <v>1.078</v>
       </c>
       <c r="D102" t="n">
-        <v>0.903484</v>
+        <v>0.904285</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80528</v>
+        <v>1.80779</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11766</v>
+        <v>1.11689</v>
       </c>
       <c r="D103" t="n">
-        <v>0.932411</v>
+        <v>0.933496</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.8493</v>
+        <v>1.85357</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15599</v>
+        <v>1.155</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9569800000000001</v>
+        <v>0.961223</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.88324</v>
+        <v>1.88453</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19944</v>
+        <v>1.19925</v>
       </c>
       <c r="D105" t="n">
-        <v>0.962376</v>
+        <v>0.987081</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.92792</v>
+        <v>1.95298</v>
       </c>
       <c r="C106" t="n">
-        <v>1.21768</v>
+        <v>1.23792</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9892</v>
+        <v>1.01157</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.83821</v>
+        <v>1.84826</v>
       </c>
       <c r="C107" t="n">
-        <v>1.1514</v>
+        <v>1.14763</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05315</v>
+        <v>1.06192</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.86673</v>
+        <v>1.87768</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1768</v>
+        <v>1.18323</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0764</v>
+        <v>1.08341</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88549</v>
+        <v>1.9014</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20741</v>
+        <v>1.2148</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09617</v>
+        <v>1.10546</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91978</v>
+        <v>1.93304</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23563</v>
+        <v>1.24091</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11243</v>
+        <v>1.11896</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.96321</v>
+        <v>1.97078</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26524</v>
+        <v>1.27095</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13263</v>
+        <v>1.13824</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.00114</v>
+        <v>2.01234</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29781</v>
+        <v>1.30421</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15677</v>
+        <v>1.16178</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.03764</v>
+        <v>2.05144</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33227</v>
+        <v>1.3391</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17668</v>
+        <v>1.185</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.07222</v>
+        <v>2.0842</v>
       </c>
       <c r="C114" t="n">
-        <v>1.36119</v>
+        <v>1.36743</v>
       </c>
       <c r="D114" t="n">
-        <v>1.19658</v>
+        <v>1.20566</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.10004</v>
+        <v>2.10861</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39862</v>
+        <v>1.40512</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22291</v>
+        <v>1.22557</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.14254</v>
+        <v>2.15509</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43253</v>
+        <v>1.43886</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24301</v>
+        <v>1.24902</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.1778</v>
+        <v>2.19065</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46463</v>
+        <v>1.47169</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26486</v>
+        <v>1.27133</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.20432</v>
+        <v>2.2153</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50537</v>
+        <v>1.51162</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28821</v>
+        <v>1.29331</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.24687</v>
+        <v>2.2572</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54037</v>
+        <v>1.54769</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31168</v>
+        <v>1.31667</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.42889</v>
+        <v>0.440403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.318575</v>
+        <v>0.329561</v>
       </c>
       <c r="D2" t="n">
-        <v>0.272973</v>
+        <v>0.275216</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433835</v>
+        <v>0.445239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.32275</v>
+        <v>0.333834</v>
       </c>
       <c r="D3" t="n">
-        <v>0.274757</v>
+        <v>0.278566</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.451218</v>
+        <v>0.462601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.34319</v>
+        <v>0.352586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.284619</v>
+        <v>0.288385</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.461123</v>
+        <v>0.471278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.352574</v>
+        <v>0.363442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.288277</v>
+        <v>0.293017</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46458</v>
+        <v>0.477091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.359811</v>
+        <v>0.376969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29245</v>
+        <v>0.296059</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.477574</v>
+        <v>0.492236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.369437</v>
+        <v>0.384671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.299019</v>
+        <v>0.303711</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.495068</v>
+        <v>0.5043840000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391674</v>
+        <v>0.40946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.307591</v>
+        <v>0.312626</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.515448</v>
+        <v>0.529064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.412134</v>
+        <v>0.424312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.323167</v>
+        <v>0.327086</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.528658</v>
+        <v>0.546378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.429809</v>
+        <v>0.449176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.333296</v>
+        <v>0.338009</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.542196</v>
+        <v>0.571079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.33836</v>
+        <v>0.335809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271244</v>
+        <v>0.275423</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.407459</v>
+        <v>0.413091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.335859</v>
+        <v>0.343759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.273041</v>
+        <v>0.277186</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.423182</v>
+        <v>0.441939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.35197</v>
+        <v>0.358871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28527</v>
+        <v>0.288863</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.431219</v>
+        <v>0.44203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.371094</v>
+        <v>0.381869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.284835</v>
+        <v>0.289406</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456424</v>
+        <v>0.468062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.380051</v>
+        <v>0.387631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.295563</v>
+        <v>0.300937</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.46788</v>
+        <v>0.472625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.411309</v>
+        <v>0.418057</v>
       </c>
       <c r="D16" t="n">
-        <v>0.300029</v>
+        <v>0.302637</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.495275</v>
+        <v>0.501861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.417186</v>
+        <v>0.420019</v>
       </c>
       <c r="D17" t="n">
-        <v>0.310257</v>
+        <v>0.313868</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.506912</v>
+        <v>0.512703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.430807</v>
+        <v>0.436069</v>
       </c>
       <c r="D18" t="n">
-        <v>0.309915</v>
+        <v>0.315966</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.530301</v>
+        <v>0.538018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.452787</v>
+        <v>0.460911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32373</v>
+        <v>0.330989</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.533626</v>
+        <v>0.549937</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479408</v>
+        <v>0.482795</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335571</v>
+        <v>0.339555</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.56756</v>
+        <v>0.575559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.496011</v>
+        <v>0.504145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.349377</v>
+        <v>0.354384</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.580971</v>
+        <v>0.588684</v>
       </c>
       <c r="C22" t="n">
-        <v>0.520088</v>
+        <v>0.526639</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358561</v>
+        <v>0.362584</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.61742</v>
+        <v>0.627014</v>
       </c>
       <c r="C23" t="n">
-        <v>0.545634</v>
+        <v>0.551733</v>
       </c>
       <c r="D23" t="n">
-        <v>0.374263</v>
+        <v>0.378253</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.637375</v>
+        <v>0.643082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.566957</v>
+        <v>0.5749610000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.38631</v>
+        <v>0.388731</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.661225</v>
+        <v>0.666345</v>
       </c>
       <c r="C25" t="n">
-        <v>0.596683</v>
+        <v>0.601746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.399414</v>
+        <v>0.404058</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.691441</v>
+        <v>0.697659</v>
       </c>
       <c r="C26" t="n">
-        <v>0.385917</v>
+        <v>0.388636</v>
       </c>
       <c r="D26" t="n">
-        <v>0.289874</v>
+        <v>0.290311</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.509314</v>
+        <v>0.518162</v>
       </c>
       <c r="C27" t="n">
-        <v>0.389689</v>
+        <v>0.39561</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293386</v>
+        <v>0.295855</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.529385</v>
       </c>
       <c r="C28" t="n">
-        <v>0.405991</v>
+        <v>0.408393</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3011</v>
+        <v>0.302913</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.544619</v>
+        <v>0.5486259999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.413509</v>
+        <v>0.416617</v>
       </c>
       <c r="D29" t="n">
-        <v>0.308251</v>
+        <v>0.310047</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567657</v>
+        <v>0.565841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.434723</v>
+        <v>0.433307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317323</v>
+        <v>0.316712</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.587986</v>
+        <v>0.588459</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447279</v>
+        <v>0.447476</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327161</v>
+        <v>0.324487</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.608336</v>
+        <v>0.6048750000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.46621</v>
+        <v>0.466276</v>
       </c>
       <c r="D32" t="n">
-        <v>0.336011</v>
+        <v>0.331378</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.621789</v>
+        <v>0.617445</v>
       </c>
       <c r="C33" t="n">
-        <v>0.486578</v>
+        <v>0.485888</v>
       </c>
       <c r="D33" t="n">
-        <v>0.347931</v>
+        <v>0.342258</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.649284</v>
+        <v>0.643996</v>
       </c>
       <c r="C34" t="n">
-        <v>0.501072</v>
+        <v>0.504466</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357305</v>
+        <v>0.357455</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6733</v>
+        <v>0.671538</v>
       </c>
       <c r="C35" t="n">
-        <v>0.529367</v>
+        <v>0.529132</v>
       </c>
       <c r="D35" t="n">
-        <v>0.372003</v>
+        <v>0.362094</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.689623</v>
+        <v>0.6831660000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.551307</v>
+        <v>0.550044</v>
       </c>
       <c r="D36" t="n">
-        <v>0.386622</v>
+        <v>0.38277</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7212150000000001</v>
+        <v>0.713656</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5766520000000001</v>
+        <v>0.574888</v>
       </c>
       <c r="D37" t="n">
-        <v>0.397229</v>
+        <v>0.392065</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.744426</v>
+        <v>0.736811</v>
       </c>
       <c r="C38" t="n">
-        <v>0.604092</v>
+        <v>0.59909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.410968</v>
+        <v>0.401816</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.778336</v>
+        <v>0.774157</v>
       </c>
       <c r="C39" t="n">
-        <v>0.624416</v>
+        <v>0.62283</v>
       </c>
       <c r="D39" t="n">
-        <v>0.424182</v>
+        <v>0.418411</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.802711</v>
+        <v>0.798926</v>
       </c>
       <c r="C40" t="n">
-        <v>0.45254</v>
+        <v>0.451285</v>
       </c>
       <c r="D40" t="n">
-        <v>0.352735</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.582387</v>
+        <v>0.579832</v>
       </c>
       <c r="C41" t="n">
-        <v>0.467093</v>
+        <v>0.466637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361124</v>
+        <v>0.357964</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.599801</v>
+        <v>0.598944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.483914</v>
+        <v>0.483401</v>
       </c>
       <c r="D42" t="n">
-        <v>0.371457</v>
+        <v>0.369177</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.618249</v>
+        <v>0.616946</v>
       </c>
       <c r="C43" t="n">
-        <v>0.497755</v>
+        <v>0.496849</v>
       </c>
       <c r="D43" t="n">
-        <v>0.378138</v>
+        <v>0.376082</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.632493</v>
+        <v>0.630103</v>
       </c>
       <c r="C44" t="n">
-        <v>0.520354</v>
+        <v>0.519618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.390352</v>
+        <v>0.386906</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652571</v>
+        <v>0.653148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.531791</v>
+        <v>0.5325839999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.395362</v>
+        <v>0.39609</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6654</v>
+        <v>0.66034</v>
       </c>
       <c r="C46" t="n">
-        <v>0.552525</v>
+        <v>0.552948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40736</v>
+        <v>0.406892</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684308</v>
+        <v>0.684991</v>
       </c>
       <c r="C47" t="n">
-        <v>0.569446</v>
+        <v>0.5690190000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.417861</v>
+        <v>0.410068</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7007060000000001</v>
+        <v>0.700651</v>
       </c>
       <c r="C48" t="n">
-        <v>0.589522</v>
+        <v>0.586516</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428021</v>
+        <v>0.428054</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.722939</v>
+        <v>0.7234159999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.608388</v>
+        <v>0.610564</v>
       </c>
       <c r="D49" t="n">
-        <v>0.436248</v>
+        <v>0.432874</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.74486</v>
+        <v>0.744306</v>
       </c>
       <c r="C50" t="n">
-        <v>0.62787</v>
+        <v>0.627876</v>
       </c>
       <c r="D50" t="n">
-        <v>0.448639</v>
+        <v>0.44663</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.764844</v>
+        <v>0.760863</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6513949999999999</v>
+        <v>0.6518699999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.463792</v>
+        <v>0.46173</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.789819</v>
+        <v>0.784476</v>
       </c>
       <c r="C52" t="n">
-        <v>0.676627</v>
+        <v>0.676795</v>
       </c>
       <c r="D52" t="n">
-        <v>0.477409</v>
+        <v>0.471676</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.809468</v>
+        <v>0.810091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.699619</v>
+        <v>0.699781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493165</v>
+        <v>0.492851</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.832597</v>
+        <v>0.830588</v>
       </c>
       <c r="C54" t="n">
-        <v>0.513626</v>
+        <v>0.512501</v>
       </c>
       <c r="D54" t="n">
-        <v>0.396329</v>
+        <v>0.396519</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622472</v>
+        <v>0.62392</v>
       </c>
       <c r="C55" t="n">
-        <v>0.523728</v>
+        <v>0.524269</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405354</v>
+        <v>0.406806</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6383720000000001</v>
+        <v>0.638406</v>
       </c>
       <c r="C56" t="n">
-        <v>0.539718</v>
+        <v>0.539923</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413232</v>
+        <v>0.412867</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.657047</v>
+        <v>0.653084</v>
       </c>
       <c r="C57" t="n">
-        <v>0.552306</v>
+        <v>0.552743</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419245</v>
+        <v>0.420116</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668554</v>
+        <v>0.668905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.567192</v>
+        <v>0.567862</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428042</v>
+        <v>0.429043</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.686851</v>
+        <v>0.6877259999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5842580000000001</v>
+        <v>0.585358</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437678</v>
+        <v>0.437257</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.701024</v>
+        <v>0.704891</v>
       </c>
       <c r="C60" t="n">
-        <v>0.600653</v>
+        <v>0.605144</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4457</v>
+        <v>0.445915</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.719556</v>
+        <v>0.7193850000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.616711</v>
+        <v>0.616513</v>
       </c>
       <c r="D61" t="n">
-        <v>0.455214</v>
+        <v>0.455074</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.73846</v>
+        <v>0.738522</v>
       </c>
       <c r="C62" t="n">
-        <v>0.63267</v>
+        <v>0.632661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462217</v>
+        <v>0.46219</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.759634</v>
+        <v>0.759254</v>
       </c>
       <c r="C63" t="n">
-        <v>0.654861</v>
+        <v>0.654543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476023</v>
+        <v>0.475087</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7702059999999999</v>
+        <v>0.770285</v>
       </c>
       <c r="C64" t="n">
-        <v>0.670312</v>
+        <v>0.670212</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486444</v>
+        <v>0.482858</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796903</v>
+        <v>0.79478</v>
       </c>
       <c r="C65" t="n">
-        <v>0.697161</v>
+        <v>0.696407</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497857</v>
+        <v>0.498427</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818263</v>
+        <v>0.818315</v>
       </c>
       <c r="C66" t="n">
-        <v>0.715163</v>
+        <v>0.717069</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509646</v>
+        <v>0.510637</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850486</v>
+        <v>0.844892</v>
       </c>
       <c r="C67" t="n">
-        <v>0.741736</v>
+        <v>0.740187</v>
       </c>
       <c r="D67" t="n">
-        <v>0.525572</v>
+        <v>0.525701</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.873339</v>
+        <v>0.878459</v>
       </c>
       <c r="C68" t="n">
-        <v>0.512066</v>
+        <v>0.50952</v>
       </c>
       <c r="D68" t="n">
-        <v>0.408259</v>
+        <v>0.405204</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.664092</v>
+        <v>0.6554410000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.527421</v>
+        <v>0.522573</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41316</v>
+        <v>0.411311</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684809</v>
+        <v>0.673686</v>
       </c>
       <c r="C70" t="n">
-        <v>0.549613</v>
+        <v>0.542451</v>
       </c>
       <c r="D70" t="n">
-        <v>0.424811</v>
+        <v>0.422027</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.71571</v>
+        <v>0.701626</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569609</v>
+        <v>0.563381</v>
       </c>
       <c r="D71" t="n">
-        <v>0.43543</v>
+        <v>0.433018</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.73904</v>
+        <v>0.724429</v>
       </c>
       <c r="C72" t="n">
-        <v>0.59507</v>
+        <v>0.582959</v>
       </c>
       <c r="D72" t="n">
-        <v>0.445422</v>
+        <v>0.443005</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.770929</v>
+        <v>0.754318</v>
       </c>
       <c r="C73" t="n">
-        <v>0.618533</v>
+        <v>0.610208</v>
       </c>
       <c r="D73" t="n">
-        <v>0.457953</v>
+        <v>0.456192</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.794413</v>
+        <v>0.776034</v>
       </c>
       <c r="C74" t="n">
-        <v>0.639861</v>
+        <v>0.631082</v>
       </c>
       <c r="D74" t="n">
-        <v>0.466914</v>
+        <v>0.466308</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.828943</v>
+        <v>0.811723</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6698730000000001</v>
+        <v>0.6611900000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.482381</v>
+        <v>0.480014</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.87277</v>
+        <v>0.847509</v>
       </c>
       <c r="C76" t="n">
-        <v>0.703659</v>
+        <v>0.690044</v>
       </c>
       <c r="D76" t="n">
-        <v>0.494412</v>
+        <v>0.492123</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.916637</v>
+        <v>0.892163</v>
       </c>
       <c r="C77" t="n">
-        <v>0.738574</v>
+        <v>0.725731</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5135150000000001</v>
+        <v>0.5105769999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.97278</v>
+        <v>0.941735</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775231</v>
+        <v>0.761066</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527498</v>
+        <v>0.523048</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.03193</v>
+        <v>0.997718</v>
       </c>
       <c r="C79" t="n">
-        <v>0.815005</v>
+        <v>0.797618</v>
       </c>
       <c r="D79" t="n">
-        <v>0.541815</v>
+        <v>0.535789</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1066</v>
+        <v>1.06652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.871401</v>
+        <v>0.849763</v>
       </c>
       <c r="D80" t="n">
-        <v>0.566487</v>
+        <v>0.561588</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18046</v>
+        <v>1.13565</v>
       </c>
       <c r="C81" t="n">
-        <v>0.932341</v>
+        <v>0.907277</v>
       </c>
       <c r="D81" t="n">
-        <v>0.588372</v>
+        <v>0.580238</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26954</v>
+        <v>1.21949</v>
       </c>
       <c r="C82" t="n">
-        <v>0.993561</v>
+        <v>0.962494</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6147590000000001</v>
+        <v>0.608178</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.37681</v>
+        <v>1.32046</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7271609999999999</v>
+        <v>0.726746</v>
       </c>
       <c r="D83" t="n">
-        <v>0.481093</v>
+        <v>0.482884</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06873</v>
+        <v>1.05422</v>
       </c>
       <c r="C84" t="n">
-        <v>0.780089</v>
+        <v>0.771051</v>
       </c>
       <c r="D84" t="n">
-        <v>0.495915</v>
+        <v>0.501789</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.14735</v>
+        <v>1.12612</v>
       </c>
       <c r="C85" t="n">
-        <v>0.83329</v>
+        <v>0.8211079999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.527546</v>
+        <v>0.517158</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.22505</v>
+        <v>1.20409</v>
       </c>
       <c r="C86" t="n">
-        <v>0.89259</v>
+        <v>0.885556</v>
       </c>
       <c r="D86" t="n">
-        <v>0.545737</v>
+        <v>0.540618</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.31528</v>
+        <v>1.29848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.962417</v>
+        <v>0.955148</v>
       </c>
       <c r="D87" t="n">
-        <v>0.566659</v>
+        <v>0.56427</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41813</v>
+        <v>1.40132</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05516</v>
+        <v>1.04304</v>
       </c>
       <c r="D88" t="n">
-        <v>0.603974</v>
+        <v>0.59597</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.53316</v>
+        <v>1.51917</v>
       </c>
       <c r="C89" t="n">
-        <v>1.13423</v>
+        <v>1.12513</v>
       </c>
       <c r="D89" t="n">
-        <v>0.636143</v>
+        <v>0.6326619999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.64368</v>
+        <v>1.64873</v>
       </c>
       <c r="C90" t="n">
-        <v>1.22737</v>
+        <v>1.22205</v>
       </c>
       <c r="D90" t="n">
-        <v>0.678217</v>
+        <v>0.667864</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.77984</v>
+        <v>1.78866</v>
       </c>
       <c r="C91" t="n">
-        <v>1.33371</v>
+        <v>1.33168</v>
       </c>
       <c r="D91" t="n">
-        <v>0.72849</v>
+        <v>0.722861</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.925</v>
+        <v>1.93603</v>
       </c>
       <c r="C92" t="n">
-        <v>1.44259</v>
+        <v>1.43971</v>
       </c>
       <c r="D92" t="n">
-        <v>0.778664</v>
+        <v>0.768889</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06366</v>
+        <v>2.07595</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5552</v>
+        <v>1.55917</v>
       </c>
       <c r="D93" t="n">
-        <v>0.834939</v>
+        <v>0.824843</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.21917</v>
+        <v>2.23856</v>
       </c>
       <c r="C94" t="n">
-        <v>1.67818</v>
+        <v>1.68512</v>
       </c>
       <c r="D94" t="n">
-        <v>0.898528</v>
+        <v>0.888859</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.38051</v>
+        <v>2.40099</v>
       </c>
       <c r="C95" t="n">
-        <v>1.81019</v>
+        <v>1.81831</v>
       </c>
       <c r="D95" t="n">
-        <v>0.962881</v>
+        <v>0.958253</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.54777</v>
+        <v>2.55721</v>
       </c>
       <c r="C96" t="n">
-        <v>1.95612</v>
+        <v>1.96537</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05046</v>
+        <v>1.05341</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72173</v>
+        <v>2.73818</v>
       </c>
       <c r="C97" t="n">
-        <v>1.30617</v>
+        <v>1.30802</v>
       </c>
       <c r="D97" t="n">
-        <v>0.784255</v>
+        <v>0.78998</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.03158</v>
+        <v>2.04214</v>
       </c>
       <c r="C98" t="n">
-        <v>1.38646</v>
+        <v>1.39167</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8281500000000001</v>
+        <v>0.8365359999999999</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12964</v>
+        <v>2.1427</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47223</v>
+        <v>1.47593</v>
       </c>
       <c r="D99" t="n">
-        <v>0.883901</v>
+        <v>0.887516</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24362</v>
+        <v>2.25635</v>
       </c>
       <c r="C100" t="n">
-        <v>1.56364</v>
+        <v>1.57126</v>
       </c>
       <c r="D100" t="n">
-        <v>0.940899</v>
+        <v>0.944341</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.36579</v>
+        <v>2.3769</v>
       </c>
       <c r="C101" t="n">
-        <v>1.65731</v>
+        <v>1.66537</v>
       </c>
       <c r="D101" t="n">
-        <v>0.986891</v>
+        <v>0.991669</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.50146</v>
+        <v>2.5108</v>
       </c>
       <c r="C102" t="n">
-        <v>1.75588</v>
+        <v>1.76409</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05069</v>
+        <v>1.05695</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.61274</v>
+        <v>2.63468</v>
       </c>
       <c r="C103" t="n">
-        <v>1.85489</v>
+        <v>1.86612</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10378</v>
+        <v>1.11008</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.75565</v>
+        <v>2.76859</v>
       </c>
       <c r="C104" t="n">
-        <v>1.96792</v>
+        <v>1.97752</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17208</v>
+        <v>1.17886</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.87809</v>
+        <v>2.88833</v>
       </c>
       <c r="C105" t="n">
-        <v>2.07781</v>
+        <v>2.09067</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22213</v>
+        <v>1.22898</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.02797</v>
+        <v>3.05527</v>
       </c>
       <c r="C106" t="n">
-        <v>2.18979</v>
+        <v>2.20186</v>
       </c>
       <c r="D106" t="n">
-        <v>1.29799</v>
+        <v>1.30609</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.16549</v>
+        <v>3.18734</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30198</v>
+        <v>2.31703</v>
       </c>
       <c r="D107" t="n">
-        <v>1.37287</v>
+        <v>1.38993</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.33422</v>
+        <v>3.3504</v>
       </c>
       <c r="C108" t="n">
-        <v>2.43827</v>
+        <v>2.45223</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45612</v>
+        <v>1.47119</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.49792</v>
+        <v>3.5231</v>
       </c>
       <c r="C109" t="n">
-        <v>2.57611</v>
+        <v>2.59222</v>
       </c>
       <c r="D109" t="n">
-        <v>1.51047</v>
+        <v>1.52644</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.66684</v>
+        <v>3.67773</v>
       </c>
       <c r="C110" t="n">
-        <v>2.70372</v>
+        <v>2.72067</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59485</v>
+        <v>1.60158</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.84228</v>
+        <v>3.85734</v>
       </c>
       <c r="C111" t="n">
-        <v>1.90556</v>
+        <v>1.91501</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29398</v>
+        <v>1.30195</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.79697</v>
+        <v>2.82391</v>
       </c>
       <c r="C112" t="n">
-        <v>1.99226</v>
+        <v>2.00284</v>
       </c>
       <c r="D112" t="n">
-        <v>1.33559</v>
+        <v>1.34409</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.8902</v>
+        <v>2.91671</v>
       </c>
       <c r="C113" t="n">
-        <v>2.08212</v>
+        <v>2.09492</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38497</v>
+        <v>1.39777</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.98506</v>
+        <v>3.00613</v>
       </c>
       <c r="C114" t="n">
-        <v>2.16691</v>
+        <v>2.17886</v>
       </c>
       <c r="D114" t="n">
-        <v>1.43331</v>
+        <v>1.44383</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.10793</v>
+        <v>3.13492</v>
       </c>
       <c r="C115" t="n">
-        <v>2.25632</v>
+        <v>2.26951</v>
       </c>
       <c r="D115" t="n">
-        <v>1.48918</v>
+        <v>1.49959</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.22719</v>
+        <v>3.25441</v>
       </c>
       <c r="C116" t="n">
-        <v>2.35194</v>
+        <v>2.36701</v>
       </c>
       <c r="D116" t="n">
-        <v>1.53672</v>
+        <v>1.54606</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.34347</v>
+        <v>3.36797</v>
       </c>
       <c r="C117" t="n">
-        <v>2.45219</v>
+        <v>2.46886</v>
       </c>
       <c r="D117" t="n">
-        <v>1.6079</v>
+        <v>1.61594</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.46117</v>
+        <v>3.48085</v>
       </c>
       <c r="C118" t="n">
-        <v>2.56368</v>
+        <v>2.57887</v>
       </c>
       <c r="D118" t="n">
-        <v>1.67456</v>
+        <v>1.68602</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.59332</v>
+        <v>3.61658</v>
       </c>
       <c r="C119" t="n">
-        <v>2.66944</v>
+        <v>2.68465</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72902</v>
+        <v>1.73554</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306464</v>
+        <v>0.301388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242048</v>
+        <v>0.241154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24606</v>
+        <v>0.246258</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.314221</v>
+        <v>0.306586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.247584</v>
+        <v>0.246909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252807</v>
+        <v>0.251612</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.32105</v>
+        <v>0.312671</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25383</v>
+        <v>0.254611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25895</v>
+        <v>0.25614</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.327656</v>
+        <v>0.320082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260649</v>
+        <v>0.261356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.263988</v>
+        <v>0.264066</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.331108</v>
+        <v>0.323278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.264898</v>
+        <v>0.263423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26912</v>
+        <v>0.268609</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.335273</v>
+        <v>0.328194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.215335</v>
+        <v>0.221815</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228452</v>
+        <v>0.231255</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287202</v>
+        <v>0.289012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218671</v>
+        <v>0.224916</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230213</v>
+        <v>0.234726</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.290055</v>
+        <v>0.294065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223688</v>
+        <v>0.231107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237906</v>
+        <v>0.241311</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.296703</v>
+        <v>0.301675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.230422</v>
+        <v>0.234348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243762</v>
+        <v>0.244442</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301865</v>
+        <v>0.307061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233932</v>
+        <v>0.239273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246478</v>
+        <v>0.249647</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.314748</v>
+        <v>0.314398</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238709</v>
+        <v>0.245482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251763</v>
+        <v>0.255368</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.32083</v>
+        <v>0.32199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244971</v>
+        <v>0.250656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256578</v>
+        <v>0.259925</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326464</v>
+        <v>0.327867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.251996</v>
+        <v>0.257484</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262791</v>
+        <v>0.266035</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.333942</v>
+        <v>0.334303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.257081</v>
+        <v>0.26349</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268723</v>
+        <v>0.272589</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34247</v>
+        <v>0.344074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.262972</v>
+        <v>0.270268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274655</v>
+        <v>0.278587</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.348136</v>
+        <v>0.351758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268693</v>
+        <v>0.279307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.281175</v>
+        <v>0.285396</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354806</v>
+        <v>0.358299</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275993</v>
+        <v>0.284749</v>
       </c>
       <c r="D18" t="n">
-        <v>0.286714</v>
+        <v>0.292357</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.363726</v>
+        <v>0.365826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.280676</v>
+        <v>0.29138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.292891</v>
+        <v>0.298461</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.371205</v>
+        <v>0.372832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.286878</v>
+        <v>0.296788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.299162</v>
+        <v>0.303453</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377367</v>
+        <v>0.379732</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239746</v>
+        <v>0.245492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.254394</v>
+        <v>0.256938</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.33033</v>
+        <v>0.33083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24423</v>
+        <v>0.251409</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261112</v>
+        <v>0.261602</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335431</v>
+        <v>0.335035</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24947</v>
+        <v>0.256459</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265526</v>
+        <v>0.267471</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.341289</v>
+        <v>0.340939</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255231</v>
+        <v>0.262509</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27145</v>
+        <v>0.272105</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346582</v>
+        <v>0.345598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259427</v>
+        <v>0.266506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276435</v>
+        <v>0.276822</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351251</v>
+        <v>0.350759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26515</v>
+        <v>0.272694</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281567</v>
+        <v>0.282214</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.35623</v>
+        <v>0.35629</v>
       </c>
       <c r="C27" t="n">
-        <v>0.271048</v>
+        <v>0.278575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288562</v>
+        <v>0.288179</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.362099</v>
+        <v>0.361719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.278372</v>
+        <v>0.285789</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295582</v>
+        <v>0.295144</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367643</v>
+        <v>0.367488</v>
       </c>
       <c r="C29" t="n">
-        <v>0.284832</v>
+        <v>0.29317</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300775</v>
+        <v>0.301983</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374356</v>
+        <v>0.374054</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290328</v>
+        <v>0.299609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306464</v>
+        <v>0.307027</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.379664</v>
+        <v>0.380288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296687</v>
+        <v>0.305906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314856</v>
+        <v>0.314237</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.386169</v>
+        <v>0.385626</v>
       </c>
       <c r="C32" t="n">
-        <v>0.302244</v>
+        <v>0.31264</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319224</v>
+        <v>0.321569</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.392132</v>
+        <v>0.39141</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308484</v>
+        <v>0.31898</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325809</v>
+        <v>0.32582</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398878</v>
+        <v>0.398245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.315291</v>
+        <v>0.32332</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331919</v>
+        <v>0.332471</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405236</v>
+        <v>0.40455</v>
       </c>
       <c r="C35" t="n">
-        <v>0.253886</v>
+        <v>0.259989</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272393</v>
+        <v>0.271432</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350431</v>
+        <v>0.350186</v>
       </c>
       <c r="C36" t="n">
-        <v>0.257912</v>
+        <v>0.264213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275205</v>
+        <v>0.276145</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354293</v>
+        <v>0.353785</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262778</v>
+        <v>0.26956</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281303</v>
+        <v>0.281347</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.358253</v>
+        <v>0.358416</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268144</v>
+        <v>0.275196</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285651</v>
+        <v>0.285992</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.363137</v>
+        <v>0.362955</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27272</v>
+        <v>0.280882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.29041</v>
+        <v>0.290699</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.367839</v>
+        <v>0.36726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278961</v>
+        <v>0.286537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296409</v>
+        <v>0.298167</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372199</v>
+        <v>0.372057</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28557</v>
+        <v>0.293084</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302889</v>
+        <v>0.302632</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378441</v>
+        <v>0.378107</v>
       </c>
       <c r="C42" t="n">
-        <v>0.290092</v>
+        <v>0.298869</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308463</v>
+        <v>0.30861</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.384074</v>
+        <v>0.383555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295404</v>
+        <v>0.304679</v>
       </c>
       <c r="D43" t="n">
-        <v>0.31425</v>
+        <v>0.314797</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.39025</v>
+        <v>0.389594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.302414</v>
+        <v>0.311632</v>
       </c>
       <c r="D44" t="n">
-        <v>0.32205</v>
+        <v>0.32139</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395414</v>
+        <v>0.395558</v>
       </c>
       <c r="C45" t="n">
-        <v>0.308879</v>
+        <v>0.316735</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327052</v>
+        <v>0.32746</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402007</v>
+        <v>0.401442</v>
       </c>
       <c r="C46" t="n">
-        <v>0.314848</v>
+        <v>0.324146</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332364</v>
+        <v>0.333317</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407635</v>
+        <v>0.407531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320831</v>
+        <v>0.329023</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338483</v>
+        <v>0.33891</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413571</v>
+        <v>0.413714</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325913</v>
+        <v>0.336017</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343984</v>
+        <v>0.344841</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419914</v>
+        <v>0.419586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331733</v>
+        <v>0.341442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349066</v>
+        <v>0.349841</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425375</v>
+        <v>0.424592</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265508</v>
+        <v>0.27244</v>
       </c>
       <c r="D50" t="n">
-        <v>0.277626</v>
+        <v>0.278939</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362851</v>
+        <v>0.362515</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269629</v>
+        <v>0.276763</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281486</v>
+        <v>0.283772</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367522</v>
+        <v>0.366804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.275254</v>
+        <v>0.282287</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286088</v>
+        <v>0.288316</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371524</v>
+        <v>0.371236</v>
       </c>
       <c r="C53" t="n">
-        <v>0.279416</v>
+        <v>0.287379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291157</v>
+        <v>0.293537</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375899</v>
+        <v>0.375949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285046</v>
+        <v>0.293391</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296564</v>
+        <v>0.299307</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380532</v>
+        <v>0.3804</v>
       </c>
       <c r="C55" t="n">
-        <v>0.29093</v>
+        <v>0.299401</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302773</v>
+        <v>0.305151</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385588</v>
+        <v>0.385694</v>
       </c>
       <c r="C56" t="n">
-        <v>0.296889</v>
+        <v>0.305782</v>
       </c>
       <c r="D56" t="n">
-        <v>0.309163</v>
+        <v>0.311558</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391033</v>
+        <v>0.391435</v>
       </c>
       <c r="C57" t="n">
-        <v>0.303143</v>
+        <v>0.311962</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314192</v>
+        <v>0.317048</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397324</v>
+        <v>0.397221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308762</v>
+        <v>0.316623</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320492</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403314</v>
+        <v>0.403202</v>
       </c>
       <c r="C59" t="n">
-        <v>0.315702</v>
+        <v>0.324287</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326944</v>
+        <v>0.329065</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409174</v>
+        <v>0.409343</v>
       </c>
       <c r="C60" t="n">
-        <v>0.322008</v>
+        <v>0.32939</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332585</v>
+        <v>0.335257</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.415232</v>
+        <v>0.41536</v>
       </c>
       <c r="C61" t="n">
-        <v>0.327752</v>
+        <v>0.33695</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338604</v>
+        <v>0.341435</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421835</v>
+        <v>0.421201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333275</v>
+        <v>0.34241</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344503</v>
+        <v>0.348261</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428195</v>
+        <v>0.427043</v>
       </c>
       <c r="C63" t="n">
-        <v>0.338734</v>
+        <v>0.348752</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350464</v>
+        <v>0.353328</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434411</v>
+        <v>0.433426</v>
       </c>
       <c r="C64" t="n">
-        <v>0.276515</v>
+        <v>0.283364</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289396</v>
+        <v>0.288343</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.402081</v>
+        <v>0.395041</v>
       </c>
       <c r="C65" t="n">
-        <v>0.282914</v>
+        <v>0.28986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298274</v>
+        <v>0.297802</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.403562</v>
+        <v>0.406733</v>
       </c>
       <c r="C66" t="n">
-        <v>0.287791</v>
+        <v>0.297394</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302931</v>
+        <v>0.301826</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.40719</v>
+        <v>0.417637</v>
       </c>
       <c r="C67" t="n">
-        <v>0.295438</v>
+        <v>0.305081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.308359</v>
+        <v>0.309112</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.418348</v>
+        <v>0.428873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.302514</v>
+        <v>0.312304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.315001</v>
+        <v>0.316723</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.425657</v>
+        <v>0.425265</v>
       </c>
       <c r="C69" t="n">
-        <v>0.309261</v>
+        <v>0.318795</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322827</v>
+        <v>0.322292</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.436684</v>
+        <v>0.441062</v>
       </c>
       <c r="C70" t="n">
-        <v>0.317095</v>
+        <v>0.32745</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330737</v>
+        <v>0.330968</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.448496</v>
+        <v>0.456667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.325357</v>
+        <v>0.33254</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338182</v>
+        <v>0.33759</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.460045</v>
+        <v>0.47165</v>
       </c>
       <c r="C72" t="n">
-        <v>0.334273</v>
+        <v>0.343313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345927</v>
+        <v>0.347436</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.479104</v>
+        <v>0.488913</v>
       </c>
       <c r="C73" t="n">
-        <v>0.344536</v>
+        <v>0.352485</v>
       </c>
       <c r="D73" t="n">
-        <v>0.356099</v>
+        <v>0.357748</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.496262</v>
+        <v>0.503879</v>
       </c>
       <c r="C74" t="n">
-        <v>0.355007</v>
+        <v>0.363632</v>
       </c>
       <c r="D74" t="n">
-        <v>0.366912</v>
+        <v>0.367326</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.517686</v>
+        <v>0.521551</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367733</v>
+        <v>0.373337</v>
       </c>
       <c r="D75" t="n">
-        <v>0.377358</v>
+        <v>0.37858</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.534841</v>
+        <v>0.541386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.37808</v>
+        <v>0.385252</v>
       </c>
       <c r="D76" t="n">
-        <v>0.388409</v>
+        <v>0.390108</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5554750000000001</v>
+        <v>0.568597</v>
       </c>
       <c r="C77" t="n">
-        <v>0.390409</v>
+        <v>0.400557</v>
       </c>
       <c r="D77" t="n">
-        <v>0.401697</v>
+        <v>0.405471</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.578991</v>
+        <v>0.597288</v>
       </c>
       <c r="C78" t="n">
-        <v>0.36113</v>
+        <v>0.387961</v>
       </c>
       <c r="D78" t="n">
-        <v>0.366653</v>
+        <v>0.390545</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.697679</v>
+        <v>0.757757</v>
       </c>
       <c r="C79" t="n">
-        <v>0.38037</v>
+        <v>0.397308</v>
       </c>
       <c r="D79" t="n">
-        <v>0.385733</v>
+        <v>0.40763</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.724696</v>
+        <v>0.784425</v>
       </c>
       <c r="C80" t="n">
-        <v>0.395027</v>
+        <v>0.416817</v>
       </c>
       <c r="D80" t="n">
-        <v>0.403834</v>
+        <v>0.417206</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.749757</v>
+        <v>0.804763</v>
       </c>
       <c r="C81" t="n">
-        <v>0.410509</v>
+        <v>0.435053</v>
       </c>
       <c r="D81" t="n">
-        <v>0.416977</v>
+        <v>0.433588</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.769676</v>
+        <v>0.828633</v>
       </c>
       <c r="C82" t="n">
-        <v>0.429642</v>
+        <v>0.457503</v>
       </c>
       <c r="D82" t="n">
-        <v>0.434494</v>
+        <v>0.45832</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.79116</v>
+        <v>0.855422</v>
       </c>
       <c r="C83" t="n">
-        <v>0.445302</v>
+        <v>0.47471</v>
       </c>
       <c r="D83" t="n">
-        <v>0.451844</v>
+        <v>0.473718</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.821871</v>
+        <v>0.884907</v>
       </c>
       <c r="C84" t="n">
-        <v>0.461849</v>
+        <v>0.495149</v>
       </c>
       <c r="D84" t="n">
-        <v>0.476194</v>
+        <v>0.494481</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.843871</v>
+        <v>0.910272</v>
       </c>
       <c r="C85" t="n">
-        <v>0.487831</v>
+        <v>0.514065</v>
       </c>
       <c r="D85" t="n">
-        <v>0.49574</v>
+        <v>0.517216</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.869094</v>
+        <v>0.940473</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5088279999999999</v>
+        <v>0.538424</v>
       </c>
       <c r="D86" t="n">
-        <v>0.517909</v>
+        <v>0.543196</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.896691</v>
+        <v>0.96946</v>
       </c>
       <c r="C87" t="n">
-        <v>0.529756</v>
+        <v>0.562074</v>
       </c>
       <c r="D87" t="n">
-        <v>0.536192</v>
+        <v>0.56345</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.923057</v>
+        <v>0.998617</v>
       </c>
       <c r="C88" t="n">
-        <v>0.55214</v>
+        <v>0.586638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.558065</v>
+        <v>0.587974</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.950252</v>
+        <v>1.03048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.573692</v>
+        <v>0.611774</v>
       </c>
       <c r="D89" t="n">
-        <v>0.579529</v>
+        <v>0.613727</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.97833</v>
+        <v>1.06191</v>
       </c>
       <c r="C90" t="n">
-        <v>0.596399</v>
+        <v>0.638559</v>
       </c>
       <c r="D90" t="n">
-        <v>0.60254</v>
+        <v>0.638503</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00853</v>
+        <v>1.09591</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618889</v>
+        <v>0.664829</v>
       </c>
       <c r="D91" t="n">
-        <v>0.625563</v>
+        <v>0.665899</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03857</v>
+        <v>1.1316</v>
       </c>
       <c r="C92" t="n">
-        <v>0.637906</v>
+        <v>0.701613</v>
       </c>
       <c r="D92" t="n">
-        <v>0.646829</v>
+        <v>0.701155</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15322</v>
+        <v>1.27849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.651042</v>
+        <v>0.716874</v>
       </c>
       <c r="D93" t="n">
-        <v>0.660972</v>
+        <v>0.7185820000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16159</v>
+        <v>1.28903</v>
       </c>
       <c r="C94" t="n">
-        <v>0.665893</v>
+        <v>0.734246</v>
       </c>
       <c r="D94" t="n">
-        <v>0.676926</v>
+        <v>0.738594</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.16955</v>
+        <v>1.30059</v>
       </c>
       <c r="C95" t="n">
-        <v>0.683698</v>
+        <v>0.751873</v>
       </c>
       <c r="D95" t="n">
-        <v>0.690158</v>
+        <v>0.748765</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18163</v>
+        <v>1.31337</v>
       </c>
       <c r="C96" t="n">
-        <v>0.698286</v>
+        <v>0.77221</v>
       </c>
       <c r="D96" t="n">
-        <v>0.705147</v>
+        <v>0.768589</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19564</v>
+        <v>1.3282</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7184700000000001</v>
+        <v>0.7893520000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.728826</v>
+        <v>0.791856</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21033</v>
+        <v>1.34475</v>
       </c>
       <c r="C98" t="n">
-        <v>0.736599</v>
+        <v>0.809311</v>
       </c>
       <c r="D98" t="n">
-        <v>0.746352</v>
+        <v>0.811276</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23082</v>
+        <v>1.36717</v>
       </c>
       <c r="C99" t="n">
-        <v>0.755634</v>
+        <v>0.831005</v>
       </c>
       <c r="D99" t="n">
-        <v>0.766465</v>
+        <v>0.833417</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24805</v>
+        <v>1.38647</v>
       </c>
       <c r="C100" t="n">
-        <v>0.775069</v>
+        <v>0.852309</v>
       </c>
       <c r="D100" t="n">
-        <v>0.785116</v>
+        <v>0.857549</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.26368</v>
+        <v>1.40302</v>
       </c>
       <c r="C101" t="n">
-        <v>0.794892</v>
+        <v>0.875576</v>
       </c>
       <c r="D101" t="n">
-        <v>0.805698</v>
+        <v>0.87993</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28394</v>
+        <v>1.4248</v>
       </c>
       <c r="C102" t="n">
-        <v>0.815897</v>
+        <v>0.89862</v>
       </c>
       <c r="D102" t="n">
-        <v>0.825365</v>
+        <v>0.904301</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31024</v>
+        <v>1.45362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.837919</v>
+        <v>0.923448</v>
       </c>
       <c r="D103" t="n">
-        <v>0.848382</v>
+        <v>0.929609</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.33273</v>
+        <v>1.47848</v>
       </c>
       <c r="C104" t="n">
-        <v>0.859205</v>
+        <v>0.948059</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8722259999999999</v>
+        <v>0.95597</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.35718</v>
+        <v>1.50616</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827120000000001</v>
+        <v>0.973163</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8964839999999999</v>
+        <v>0.983654</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.38191</v>
+        <v>1.53172</v>
       </c>
       <c r="C106" t="n">
-        <v>0.90573</v>
+        <v>0.999772</v>
       </c>
       <c r="D106" t="n">
-        <v>0.922714</v>
+        <v>1.01197</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37643</v>
+        <v>1.54711</v>
       </c>
       <c r="C107" t="n">
-        <v>0.857231</v>
+        <v>0.954545</v>
       </c>
       <c r="D107" t="n">
-        <v>0.866612</v>
+        <v>0.954967</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39172</v>
+        <v>1.55206</v>
       </c>
       <c r="C108" t="n">
-        <v>0.87327</v>
+        <v>0.971251</v>
       </c>
       <c r="D108" t="n">
-        <v>0.882452</v>
+        <v>0.971716</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40029</v>
+        <v>1.56472</v>
       </c>
       <c r="C109" t="n">
-        <v>0.889819</v>
+        <v>0.98729</v>
       </c>
       <c r="D109" t="n">
-        <v>0.90081</v>
+        <v>0.991459</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.4114</v>
+        <v>1.5724</v>
       </c>
       <c r="C110" t="n">
-        <v>0.905227</v>
+        <v>1.00513</v>
       </c>
       <c r="D110" t="n">
-        <v>0.916064</v>
+        <v>1.00975</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4201</v>
+        <v>1.58314</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9209889999999999</v>
+        <v>1.02311</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9295639999999999</v>
+        <v>1.02478</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43203</v>
+        <v>1.59557</v>
       </c>
       <c r="C112" t="n">
-        <v>0.937627</v>
+        <v>1.04255</v>
       </c>
       <c r="D112" t="n">
-        <v>0.94883</v>
+        <v>1.04473</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.444</v>
+        <v>1.60294</v>
       </c>
       <c r="C113" t="n">
-        <v>0.955709</v>
+        <v>1.05818</v>
       </c>
       <c r="D113" t="n">
-        <v>0.966619</v>
+        <v>1.06494</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45991</v>
+        <v>1.62583</v>
       </c>
       <c r="C114" t="n">
-        <v>0.974031</v>
+        <v>1.08267</v>
       </c>
       <c r="D114" t="n">
-        <v>0.983401</v>
+        <v>1.08203</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47614</v>
+        <v>1.6417</v>
       </c>
       <c r="C115" t="n">
-        <v>0.994685</v>
+        <v>1.10018</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00369</v>
+        <v>1.10956</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49318</v>
+        <v>1.66213</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01448</v>
+        <v>1.12715</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02454</v>
+        <v>1.13207</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.51413</v>
+        <v>1.68489</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03459</v>
+        <v>1.14651</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04518</v>
+        <v>1.15533</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.53323</v>
+        <v>1.70644</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05477</v>
+        <v>1.17273</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06429</v>
+        <v>1.17569</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.5523</v>
+        <v>1.72393</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07653</v>
+        <v>1.19104</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08705</v>
+        <v>1.19976</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273275</v>
+        <v>0.277112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20716</v>
+        <v>0.212138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207092</v>
+        <v>0.206536</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.279685</v>
+        <v>0.279327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21208</v>
+        <v>0.217366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20893</v>
+        <v>0.208845</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285592</v>
+        <v>0.284709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213996</v>
+        <v>0.220522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211502</v>
+        <v>0.211141</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291004</v>
+        <v>0.286638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219853</v>
+        <v>0.224283</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215678</v>
+        <v>0.212371</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.292215</v>
+        <v>0.286401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225264</v>
+        <v>0.229548</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216771</v>
+        <v>0.216436</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.301063</v>
+        <v>0.293212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200788</v>
+        <v>0.211676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213172</v>
+        <v>0.218284</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287879</v>
+        <v>0.286713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206954</v>
+        <v>0.21771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21691</v>
+        <v>0.221026</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.303786</v>
+        <v>0.289937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218154</v>
+        <v>0.221637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224561</v>
+        <v>0.223757</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.304723</v>
+        <v>0.291636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217458</v>
+        <v>0.223242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225352</v>
+        <v>0.224077</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.308483</v>
+        <v>0.299704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213103</v>
+        <v>0.223012</v>
       </c>
       <c r="D11" t="n">
-        <v>0.225627</v>
+        <v>0.224541</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310363</v>
+        <v>0.307334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22593</v>
+        <v>0.236447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226691</v>
+        <v>0.228906</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.314083</v>
+        <v>0.317608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22604</v>
+        <v>0.22663</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232579</v>
+        <v>0.229681</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321392</v>
+        <v>0.31381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.227399</v>
+        <v>0.232736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231994</v>
+        <v>0.23017</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.326783</v>
+        <v>0.320379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229404</v>
+        <v>0.235615</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234804</v>
+        <v>0.233894</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.331384</v>
+        <v>0.330554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235505</v>
+        <v>0.246871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23506</v>
+        <v>0.235746</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.335577</v>
+        <v>0.334832</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238404</v>
+        <v>0.250074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240183</v>
+        <v>0.236248</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341292</v>
+        <v>0.335304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.247693</v>
+        <v>0.252032</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238333</v>
+        <v>0.238185</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.34571</v>
+        <v>0.341641</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250759</v>
+        <v>0.254927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245377</v>
+        <v>0.243011</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.35117</v>
+        <v>0.349716</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256837</v>
+        <v>0.263856</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245745</v>
+        <v>0.246309</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.35934</v>
+        <v>0.358714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244901</v>
+        <v>0.248856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246029</v>
+        <v>0.245764</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.346759</v>
+        <v>0.345685</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252326</v>
+        <v>0.256298</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249906</v>
+        <v>0.248217</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3543</v>
+        <v>0.353115</v>
       </c>
       <c r="C23" t="n">
-        <v>0.257013</v>
+        <v>0.268034</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254152</v>
+        <v>0.255222</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.357989</v>
+        <v>0.360855</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265711</v>
+        <v>0.272383</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260899</v>
+        <v>0.25803</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.364914</v>
+        <v>0.365408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.274094</v>
+        <v>0.289131</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260119</v>
+        <v>0.264142</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368278</v>
+        <v>0.368984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.274594</v>
+        <v>0.28944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265756</v>
+        <v>0.267908</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.374378</v>
+        <v>0.376668</v>
       </c>
       <c r="C27" t="n">
-        <v>0.282618</v>
+        <v>0.291776</v>
       </c>
       <c r="D27" t="n">
-        <v>0.269215</v>
+        <v>0.269649</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.380077</v>
+        <v>0.379775</v>
       </c>
       <c r="C28" t="n">
-        <v>0.285921</v>
+        <v>0.301328</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272873</v>
+        <v>0.275898</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.386973</v>
+        <v>0.386695</v>
       </c>
       <c r="C29" t="n">
-        <v>0.291202</v>
+        <v>0.308868</v>
       </c>
       <c r="D29" t="n">
-        <v>0.277277</v>
+        <v>0.278156</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391089</v>
+        <v>0.392879</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303809</v>
+        <v>0.321105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283154</v>
+        <v>0.283029</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398707</v>
+        <v>0.399453</v>
       </c>
       <c r="C31" t="n">
-        <v>0.302486</v>
+        <v>0.317799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.284468</v>
+        <v>0.285091</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401651</v>
+        <v>0.401839</v>
       </c>
       <c r="C32" t="n">
-        <v>0.312501</v>
+        <v>0.325316</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289181</v>
+        <v>0.286823</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40752</v>
+        <v>0.407176</v>
       </c>
       <c r="C33" t="n">
-        <v>0.322752</v>
+        <v>0.339942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.291611</v>
+        <v>0.294951</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410588</v>
+        <v>0.410399</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327447</v>
+        <v>0.338572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2978</v>
+        <v>0.297308</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420041</v>
+        <v>0.419492</v>
       </c>
       <c r="C35" t="n">
-        <v>0.267564</v>
+        <v>0.28046</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278543</v>
+        <v>0.277814</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.403046</v>
+        <v>0.403021</v>
       </c>
       <c r="C36" t="n">
-        <v>0.275957</v>
+        <v>0.282944</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28036</v>
+        <v>0.27377</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.409212</v>
+        <v>0.408731</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278173</v>
+        <v>0.293692</v>
       </c>
       <c r="D37" t="n">
-        <v>0.282867</v>
+        <v>0.283931</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411368</v>
+        <v>0.411994</v>
       </c>
       <c r="C38" t="n">
-        <v>0.283223</v>
+        <v>0.296056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286521</v>
+        <v>0.286255</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415078</v>
+        <v>0.415211</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290195</v>
+        <v>0.304451</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290837</v>
+        <v>0.291017</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419022</v>
+        <v>0.419832</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292495</v>
+        <v>0.309415</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292575</v>
+        <v>0.293267</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4236</v>
+        <v>0.423581</v>
       </c>
       <c r="C41" t="n">
-        <v>0.296291</v>
+        <v>0.310348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293479</v>
+        <v>0.29528</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430559</v>
+        <v>0.430667</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299481</v>
+        <v>0.314378</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296073</v>
+        <v>0.29702</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436491</v>
+        <v>0.436224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.305192</v>
+        <v>0.319654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298629</v>
+        <v>0.299075</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439951</v>
+        <v>0.440042</v>
       </c>
       <c r="C44" t="n">
-        <v>0.309289</v>
+        <v>0.325036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301591</v>
+        <v>0.30173</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442155</v>
+        <v>0.443419</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314133</v>
+        <v>0.329282</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305064</v>
+        <v>0.305817</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449496</v>
+        <v>0.450107</v>
       </c>
       <c r="C46" t="n">
-        <v>0.315537</v>
+        <v>0.328199</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305682</v>
+        <v>0.306879</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455956</v>
+        <v>0.457282</v>
       </c>
       <c r="C47" t="n">
-        <v>0.322208</v>
+        <v>0.337896</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30882</v>
+        <v>0.310025</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461274</v>
+        <v>0.461543</v>
       </c>
       <c r="C48" t="n">
-        <v>0.327042</v>
+        <v>0.343352</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311915</v>
+        <v>0.312105</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467187</v>
+        <v>0.467245</v>
       </c>
       <c r="C49" t="n">
-        <v>0.333455</v>
+        <v>0.347782</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315584</v>
+        <v>0.315339</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.477522</v>
+        <v>0.476866</v>
       </c>
       <c r="C50" t="n">
-        <v>0.303116</v>
+        <v>0.312641</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293857</v>
+        <v>0.294362</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430728</v>
+        <v>0.431278</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307334</v>
+        <v>0.319801</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296786</v>
+        <v>0.296519</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433108</v>
+        <v>0.43393</v>
       </c>
       <c r="C52" t="n">
-        <v>0.309479</v>
+        <v>0.323135</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297117</v>
+        <v>0.297856</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438958</v>
+        <v>0.43977</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315715</v>
+        <v>0.329827</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300386</v>
+        <v>0.300715</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442357</v>
+        <v>0.443039</v>
       </c>
       <c r="C54" t="n">
-        <v>0.32069</v>
+        <v>0.333738</v>
       </c>
       <c r="D54" t="n">
-        <v>0.302997</v>
+        <v>0.303778</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.44473</v>
+        <v>0.445401</v>
       </c>
       <c r="C55" t="n">
-        <v>0.32548</v>
+        <v>0.339903</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305713</v>
+        <v>0.305487</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.449792</v>
+        <v>0.450962</v>
       </c>
       <c r="C56" t="n">
-        <v>0.325206</v>
+        <v>0.339703</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307432</v>
+        <v>0.307954</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.452948</v>
+        <v>0.453255</v>
       </c>
       <c r="C57" t="n">
-        <v>0.334374</v>
+        <v>0.349256</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309487</v>
+        <v>0.310167</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457353</v>
+        <v>0.457811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.341506</v>
+        <v>0.357814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314081</v>
+        <v>0.314558</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461035</v>
+        <v>0.461776</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348562</v>
+        <v>0.36563</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318545</v>
+        <v>0.318921</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466579</v>
+        <v>0.46691</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354078</v>
+        <v>0.370246</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320512</v>
+        <v>0.321273</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470355</v>
+        <v>0.470748</v>
       </c>
       <c r="C61" t="n">
-        <v>0.358996</v>
+        <v>0.375939</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323407</v>
+        <v>0.323613</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477328</v>
+        <v>0.477469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364315</v>
+        <v>0.382259</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325806</v>
+        <v>0.325956</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482443</v>
+        <v>0.482174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.371072</v>
+        <v>0.387143</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328637</v>
+        <v>0.328748</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489105</v>
+        <v>0.488097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.33359</v>
+        <v>0.350621</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318924</v>
+        <v>0.319797</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462362</v>
+        <v>0.462254</v>
       </c>
       <c r="C65" t="n">
-        <v>0.341126</v>
+        <v>0.357272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316377</v>
+        <v>0.317141</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.469176</v>
+        <v>0.467305</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343169</v>
+        <v>0.359834</v>
       </c>
       <c r="D66" t="n">
-        <v>0.318387</v>
+        <v>0.318255</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.478257</v>
+        <v>0.479083</v>
       </c>
       <c r="C67" t="n">
-        <v>0.349899</v>
+        <v>0.369263</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321354</v>
+        <v>0.322153</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.492987</v>
+        <v>0.489935</v>
       </c>
       <c r="C68" t="n">
-        <v>0.354177</v>
+        <v>0.37333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325546</v>
+        <v>0.326203</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5006</v>
+        <v>0.49837</v>
       </c>
       <c r="C69" t="n">
-        <v>0.359138</v>
+        <v>0.377954</v>
       </c>
       <c r="D69" t="n">
-        <v>0.328041</v>
+        <v>0.32785</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5133180000000001</v>
+        <v>0.510287</v>
       </c>
       <c r="C70" t="n">
-        <v>0.365325</v>
+        <v>0.386695</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331991</v>
+        <v>0.331047</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.521358</v>
+        <v>0.517438</v>
       </c>
       <c r="C71" t="n">
-        <v>0.373791</v>
+        <v>0.393858</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336412</v>
+        <v>0.335494</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.536792</v>
+        <v>0.533366</v>
       </c>
       <c r="C72" t="n">
-        <v>0.382165</v>
+        <v>0.402654</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339598</v>
+        <v>0.339465</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.553339</v>
+        <v>0.5478460000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.391029</v>
+        <v>0.413684</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345449</v>
+        <v>0.345294</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.565175</v>
+        <v>0.5602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.397947</v>
+        <v>0.420348</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348055</v>
+        <v>0.34717</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5777330000000001</v>
+        <v>0.576006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.405419</v>
+        <v>0.427351</v>
       </c>
       <c r="D75" t="n">
-        <v>0.35346</v>
+        <v>0.354621</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.597962</v>
+        <v>0.598737</v>
       </c>
       <c r="C76" t="n">
-        <v>0.417673</v>
+        <v>0.439882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361407</v>
+        <v>0.361907</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.609196</v>
+        <v>0.616842</v>
       </c>
       <c r="C77" t="n">
-        <v>0.429023</v>
+        <v>0.453312</v>
       </c>
       <c r="D77" t="n">
-        <v>0.365389</v>
+        <v>0.365416</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.642428</v>
+        <v>0.651326</v>
       </c>
       <c r="C78" t="n">
-        <v>0.383673</v>
+        <v>0.421956</v>
       </c>
       <c r="D78" t="n">
-        <v>0.352285</v>
+        <v>0.360294</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.67703</v>
+        <v>0.686205</v>
       </c>
       <c r="C79" t="n">
-        <v>0.394492</v>
+        <v>0.439893</v>
       </c>
       <c r="D79" t="n">
-        <v>0.360223</v>
+        <v>0.364455</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.711337</v>
+        <v>0.723684</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409467</v>
+        <v>0.45189</v>
       </c>
       <c r="D80" t="n">
-        <v>0.368451</v>
+        <v>0.379313</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.751654</v>
+        <v>0.754118</v>
       </c>
       <c r="C81" t="n">
-        <v>0.421262</v>
+        <v>0.466949</v>
       </c>
       <c r="D81" t="n">
-        <v>0.374002</v>
+        <v>0.378359</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.776335</v>
+        <v>0.790883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435269</v>
+        <v>0.493223</v>
       </c>
       <c r="D82" t="n">
-        <v>0.384123</v>
+        <v>0.38972</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.827858</v>
+        <v>0.833498</v>
       </c>
       <c r="C83" t="n">
-        <v>0.455366</v>
+        <v>0.516606</v>
       </c>
       <c r="D83" t="n">
-        <v>0.394487</v>
+        <v>0.401141</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.888964</v>
+        <v>0.880951</v>
       </c>
       <c r="C84" t="n">
-        <v>0.477888</v>
+        <v>0.545661</v>
       </c>
       <c r="D84" t="n">
-        <v>0.405833</v>
+        <v>0.41563</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.924029</v>
+        <v>0.915541</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501622</v>
+        <v>0.568624</v>
       </c>
       <c r="D85" t="n">
-        <v>0.422551</v>
+        <v>0.423485</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.97448</v>
+        <v>0.974272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.520359</v>
+        <v>0.592761</v>
       </c>
       <c r="D86" t="n">
-        <v>0.440867</v>
+        <v>0.438093</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03131</v>
+        <v>1.02964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.54864</v>
+        <v>0.623927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.454517</v>
+        <v>0.450722</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06647</v>
+        <v>1.08069</v>
       </c>
       <c r="C88" t="n">
-        <v>0.578465</v>
+        <v>0.6534489999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.465315</v>
+        <v>0.466795</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12586</v>
+        <v>1.12688</v>
       </c>
       <c r="C89" t="n">
-        <v>0.613686</v>
+        <v>0.689116</v>
       </c>
       <c r="D89" t="n">
-        <v>0.48274</v>
+        <v>0.484705</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.17459</v>
+        <v>1.17715</v>
       </c>
       <c r="C90" t="n">
-        <v>0.648123</v>
+        <v>0.726845</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5048899999999999</v>
+        <v>0.513181</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.2487</v>
+        <v>1.24923</v>
       </c>
       <c r="C91" t="n">
-        <v>0.689191</v>
+        <v>0.767447</v>
       </c>
       <c r="D91" t="n">
-        <v>0.529879</v>
+        <v>0.536686</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.29754</v>
+        <v>1.29816</v>
       </c>
       <c r="C92" t="n">
-        <v>0.711266</v>
+        <v>0.794598</v>
       </c>
       <c r="D92" t="n">
-        <v>0.64181</v>
+        <v>0.640361</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.3363</v>
+        <v>1.33331</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7473959999999999</v>
+        <v>0.832501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.668091</v>
+        <v>0.6661629999999999</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39223</v>
+        <v>1.38863</v>
       </c>
       <c r="C94" t="n">
-        <v>0.77601</v>
+        <v>0.864374</v>
       </c>
       <c r="D94" t="n">
-        <v>0.692253</v>
+        <v>0.691262</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43005</v>
+        <v>1.42613</v>
       </c>
       <c r="C95" t="n">
-        <v>0.810402</v>
+        <v>0.898427</v>
       </c>
       <c r="D95" t="n">
-        <v>0.718022</v>
+        <v>0.715642</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47281</v>
+        <v>1.47043</v>
       </c>
       <c r="C96" t="n">
-        <v>0.846185</v>
+        <v>0.93281</v>
       </c>
       <c r="D96" t="n">
-        <v>0.744529</v>
+        <v>0.740711</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.52774</v>
+        <v>1.52476</v>
       </c>
       <c r="C97" t="n">
-        <v>0.881213</v>
+        <v>0.969489</v>
       </c>
       <c r="D97" t="n">
-        <v>0.769869</v>
+        <v>0.766743</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.58446</v>
+        <v>1.57743</v>
       </c>
       <c r="C98" t="n">
-        <v>0.918963</v>
+        <v>1.00733</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7975449999999999</v>
+        <v>0.797422</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61659</v>
+        <v>1.61004</v>
       </c>
       <c r="C99" t="n">
-        <v>0.959942</v>
+        <v>1.04646</v>
       </c>
       <c r="D99" t="n">
-        <v>0.828708</v>
+        <v>0.8218569999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.66706</v>
+        <v>1.65961</v>
       </c>
       <c r="C100" t="n">
-        <v>0.998116</v>
+        <v>1.08563</v>
       </c>
       <c r="D100" t="n">
-        <v>0.851445</v>
+        <v>0.847426</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70423</v>
+        <v>1.69616</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03331</v>
+        <v>1.11947</v>
       </c>
       <c r="D101" t="n">
-        <v>0.875331</v>
+        <v>0.872216</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76011</v>
+        <v>1.7532</v>
       </c>
       <c r="C102" t="n">
-        <v>1.078</v>
+        <v>1.16087</v>
       </c>
       <c r="D102" t="n">
-        <v>0.904285</v>
+        <v>0.901655</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80779</v>
+        <v>1.7987</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11689</v>
+        <v>1.19638</v>
       </c>
       <c r="D103" t="n">
-        <v>0.933496</v>
+        <v>0.928609</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.85357</v>
+        <v>1.84158</v>
       </c>
       <c r="C104" t="n">
-        <v>1.155</v>
+        <v>1.23313</v>
       </c>
       <c r="D104" t="n">
-        <v>0.961223</v>
+        <v>0.955538</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.88453</v>
+        <v>1.8841</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19925</v>
+        <v>1.27619</v>
       </c>
       <c r="D105" t="n">
-        <v>0.987081</v>
+        <v>0.983248</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.95298</v>
+        <v>1.93927</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23792</v>
+        <v>1.31473</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01157</v>
+        <v>1.00864</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84826</v>
+        <v>1.83009</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14763</v>
+        <v>1.22203</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06192</v>
+        <v>1.05538</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.87768</v>
+        <v>1.86091</v>
       </c>
       <c r="C108" t="n">
-        <v>1.18323</v>
+        <v>1.25166</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08341</v>
+        <v>1.07735</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.9014</v>
+        <v>1.89486</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2148</v>
+        <v>1.28265</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10546</v>
+        <v>1.09623</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.93304</v>
+        <v>1.92695</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24091</v>
+        <v>1.3085</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11896</v>
+        <v>1.10813</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.97078</v>
+        <v>1.95512</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27095</v>
+        <v>1.334</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13824</v>
+        <v>1.13084</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.01234</v>
+        <v>1.99709</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30421</v>
+        <v>1.3684</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16178</v>
+        <v>1.15529</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.05144</v>
+        <v>2.0298</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3391</v>
+        <v>1.40277</v>
       </c>
       <c r="D113" t="n">
-        <v>1.185</v>
+        <v>1.17225</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.0842</v>
+        <v>2.06553</v>
       </c>
       <c r="C114" t="n">
-        <v>1.36743</v>
+        <v>1.4312</v>
       </c>
       <c r="D114" t="n">
-        <v>1.20566</v>
+        <v>1.19243</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.10861</v>
+        <v>2.09845</v>
       </c>
       <c r="C115" t="n">
-        <v>1.40512</v>
+        <v>1.46841</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22557</v>
+        <v>1.21787</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15509</v>
+        <v>2.13894</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43886</v>
+        <v>1.50162</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24902</v>
+        <v>1.23974</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.19065</v>
+        <v>2.17294</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47169</v>
+        <v>1.53389</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27133</v>
+        <v>1.26039</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.2153</v>
+        <v>2.19882</v>
       </c>
       <c r="C118" t="n">
-        <v>1.51162</v>
+        <v>1.57425</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29331</v>
+        <v>1.28402</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2572</v>
+        <v>2.2396</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54769</v>
+        <v>1.61033</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31667</v>
+        <v>1.30707</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.440403</v>
+        <v>0.442118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.329561</v>
+        <v>0.349031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275216</v>
+        <v>0.275431</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.445239</v>
+        <v>0.455646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.333834</v>
+        <v>0.351558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278566</v>
+        <v>0.279634</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462601</v>
+        <v>0.472392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.352586</v>
+        <v>0.370942</v>
       </c>
       <c r="D4" t="n">
-        <v>0.288385</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.471278</v>
+        <v>0.478305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.363442</v>
+        <v>0.38287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293017</v>
+        <v>0.292718</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.477091</v>
+        <v>0.489314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.376969</v>
+        <v>0.383419</v>
       </c>
       <c r="D6" t="n">
-        <v>0.296059</v>
+        <v>0.29695</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.492236</v>
+        <v>0.499457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.384671</v>
+        <v>0.407389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303711</v>
+        <v>0.304422</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5043840000000001</v>
+        <v>0.511016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.40946</v>
+        <v>0.42434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.312626</v>
+        <v>0.31372</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.529064</v>
+        <v>0.531294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424312</v>
+        <v>0.443455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.327086</v>
+        <v>0.325719</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.546378</v>
+        <v>0.5406300000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.449176</v>
+        <v>0.463476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.338009</v>
+        <v>0.342567</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.571079</v>
+        <v>0.56313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.335809</v>
+        <v>0.359895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.275423</v>
+        <v>0.276091</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.413091</v>
+        <v>0.419276</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343759</v>
+        <v>0.35821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277186</v>
+        <v>0.276418</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.441939</v>
+        <v>0.435937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.358871</v>
+        <v>0.375743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.288863</v>
+        <v>0.289424</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.44203</v>
+        <v>0.442602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.381869</v>
+        <v>0.393542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.289406</v>
+        <v>0.290038</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.468062</v>
+        <v>0.465383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.387631</v>
+        <v>0.41299</v>
       </c>
       <c r="D15" t="n">
-        <v>0.300937</v>
+        <v>0.299361</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.472625</v>
+        <v>0.477126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.418057</v>
+        <v>0.426702</v>
       </c>
       <c r="D16" t="n">
-        <v>0.302637</v>
+        <v>0.30847</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.501861</v>
+        <v>0.496924</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420019</v>
+        <v>0.44258</v>
       </c>
       <c r="D17" t="n">
-        <v>0.313868</v>
+        <v>0.314759</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.512703</v>
+        <v>0.515181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.436069</v>
+        <v>0.456286</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315966</v>
+        <v>0.318305</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538018</v>
+        <v>0.5390509999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.460911</v>
+        <v>0.480091</v>
       </c>
       <c r="D19" t="n">
-        <v>0.330989</v>
+        <v>0.327419</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.549937</v>
+        <v>0.546874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482795</v>
+        <v>0.5079360000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.339555</v>
+        <v>0.33819</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.575559</v>
+        <v>0.57403</v>
       </c>
       <c r="C21" t="n">
-        <v>0.504145</v>
+        <v>0.526114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.354384</v>
+        <v>0.352993</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.588684</v>
+        <v>0.589363</v>
       </c>
       <c r="C22" t="n">
-        <v>0.526639</v>
+        <v>0.555835</v>
       </c>
       <c r="D22" t="n">
-        <v>0.362584</v>
+        <v>0.366339</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.627014</v>
+        <v>0.628118</v>
       </c>
       <c r="C23" t="n">
-        <v>0.551733</v>
+        <v>0.579411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.378253</v>
+        <v>0.383918</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.643082</v>
+        <v>0.64899</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5749610000000001</v>
+        <v>0.601403</v>
       </c>
       <c r="D24" t="n">
-        <v>0.388731</v>
+        <v>0.394014</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666345</v>
+        <v>0.66836</v>
       </c>
       <c r="C25" t="n">
-        <v>0.601746</v>
+        <v>0.628602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.404058</v>
+        <v>0.406652</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.697659</v>
+        <v>0.7002350000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.388636</v>
+        <v>0.410017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290311</v>
+        <v>0.291272</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.518162</v>
+        <v>0.515232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.39561</v>
+        <v>0.415834</v>
       </c>
       <c r="D27" t="n">
-        <v>0.295855</v>
+        <v>0.297043</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.529385</v>
+        <v>0.529356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.408393</v>
+        <v>0.432237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.302913</v>
+        <v>0.306449</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5486259999999999</v>
+        <v>0.549292</v>
       </c>
       <c r="C29" t="n">
-        <v>0.416617</v>
+        <v>0.440297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.310047</v>
+        <v>0.311793</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.565841</v>
+        <v>0.571522</v>
       </c>
       <c r="C30" t="n">
-        <v>0.433307</v>
+        <v>0.461859</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316712</v>
+        <v>0.319463</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.588459</v>
+        <v>0.59101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447476</v>
+        <v>0.479124</v>
       </c>
       <c r="D31" t="n">
-        <v>0.324487</v>
+        <v>0.329715</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6048750000000001</v>
+        <v>0.611549</v>
       </c>
       <c r="C32" t="n">
-        <v>0.466276</v>
+        <v>0.498517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331378</v>
+        <v>0.339772</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.617445</v>
+        <v>0.626246</v>
       </c>
       <c r="C33" t="n">
-        <v>0.485888</v>
+        <v>0.517346</v>
       </c>
       <c r="D33" t="n">
-        <v>0.342258</v>
+        <v>0.350332</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.643996</v>
+        <v>0.652849</v>
       </c>
       <c r="C34" t="n">
-        <v>0.504466</v>
+        <v>0.538409</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357455</v>
+        <v>0.362507</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.671538</v>
+        <v>0.676495</v>
       </c>
       <c r="C35" t="n">
-        <v>0.529132</v>
+        <v>0.563369</v>
       </c>
       <c r="D35" t="n">
-        <v>0.362094</v>
+        <v>0.372487</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6831660000000001</v>
+        <v>0.6929110000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550044</v>
+        <v>0.588912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.38277</v>
+        <v>0.386581</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.713656</v>
+        <v>0.725401</v>
       </c>
       <c r="C37" t="n">
-        <v>0.574888</v>
+        <v>0.615309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.392065</v>
+        <v>0.397359</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736811</v>
+        <v>0.748251</v>
       </c>
       <c r="C38" t="n">
-        <v>0.59909</v>
+        <v>0.638087</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401816</v>
+        <v>0.417033</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.774157</v>
+        <v>0.781787</v>
       </c>
       <c r="C39" t="n">
-        <v>0.62283</v>
+        <v>0.668483</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418411</v>
+        <v>0.424861</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.798926</v>
+        <v>0.803758</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451285</v>
+        <v>0.478761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.348</v>
+        <v>0.353903</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579832</v>
+        <v>0.585226</v>
       </c>
       <c r="C41" t="n">
-        <v>0.466637</v>
+        <v>0.495435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.357964</v>
+        <v>0.361172</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.598944</v>
+        <v>0.603301</v>
       </c>
       <c r="C42" t="n">
-        <v>0.483401</v>
+        <v>0.515604</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369177</v>
+        <v>0.370402</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616946</v>
+        <v>0.619263</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496849</v>
+        <v>0.528259</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376082</v>
+        <v>0.37773</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.630103</v>
+        <v>0.636255</v>
       </c>
       <c r="C44" t="n">
-        <v>0.519618</v>
+        <v>0.554501</v>
       </c>
       <c r="D44" t="n">
-        <v>0.386906</v>
+        <v>0.391714</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.653148</v>
+        <v>0.655251</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5325839999999999</v>
+        <v>0.567374</v>
       </c>
       <c r="D45" t="n">
-        <v>0.39609</v>
+        <v>0.397408</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.66034</v>
+        <v>0.668113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.552948</v>
+        <v>0.58824</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406892</v>
+        <v>0.408869</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684991</v>
+        <v>0.687837</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5690190000000001</v>
+        <v>0.607554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410068</v>
+        <v>0.419347</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.700651</v>
+        <v>0.703693</v>
       </c>
       <c r="C48" t="n">
-        <v>0.586516</v>
+        <v>0.624421</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428054</v>
+        <v>0.428928</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7234159999999999</v>
+        <v>0.72512</v>
       </c>
       <c r="C49" t="n">
-        <v>0.610564</v>
+        <v>0.649402</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432874</v>
+        <v>0.438058</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744306</v>
+        <v>0.746517</v>
       </c>
       <c r="C50" t="n">
-        <v>0.627876</v>
+        <v>0.669415</v>
       </c>
       <c r="D50" t="n">
-        <v>0.44663</v>
+        <v>0.44914</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.760863</v>
+        <v>0.767811</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6518699999999999</v>
+        <v>0.698006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.46173</v>
+        <v>0.466076</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.784476</v>
+        <v>0.79155</v>
       </c>
       <c r="C52" t="n">
-        <v>0.676795</v>
+        <v>0.723997</v>
       </c>
       <c r="D52" t="n">
-        <v>0.471676</v>
+        <v>0.480674</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.810091</v>
+        <v>0.8116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.699781</v>
+        <v>0.750288</v>
       </c>
       <c r="D53" t="n">
-        <v>0.492851</v>
+        <v>0.496521</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.830588</v>
+        <v>0.8352039999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.512501</v>
+        <v>0.544649</v>
       </c>
       <c r="D54" t="n">
-        <v>0.396519</v>
+        <v>0.396799</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.62392</v>
+        <v>0.6245579999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.524269</v>
+        <v>0.55533</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406806</v>
+        <v>0.406106</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638406</v>
+        <v>0.640548</v>
       </c>
       <c r="C56" t="n">
-        <v>0.539923</v>
+        <v>0.5732</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412867</v>
+        <v>0.414252</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.653084</v>
+        <v>0.654883</v>
       </c>
       <c r="C57" t="n">
-        <v>0.552743</v>
+        <v>0.5890570000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.420116</v>
+        <v>0.420479</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668905</v>
+        <v>0.669945</v>
       </c>
       <c r="C58" t="n">
-        <v>0.567862</v>
+        <v>0.6035160000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429043</v>
+        <v>0.428884</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6877259999999999</v>
+        <v>0.68843</v>
       </c>
       <c r="C59" t="n">
-        <v>0.585358</v>
+        <v>0.621242</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437257</v>
+        <v>0.439227</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.704891</v>
+        <v>0.702671</v>
       </c>
       <c r="C60" t="n">
-        <v>0.605144</v>
+        <v>0.63936</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445915</v>
+        <v>0.445314</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7193850000000001</v>
+        <v>0.721307</v>
       </c>
       <c r="C61" t="n">
-        <v>0.616513</v>
+        <v>0.657694</v>
       </c>
       <c r="D61" t="n">
-        <v>0.455074</v>
+        <v>0.455028</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.738522</v>
+        <v>0.739356</v>
       </c>
       <c r="C62" t="n">
-        <v>0.632661</v>
+        <v>0.675283</v>
       </c>
       <c r="D62" t="n">
-        <v>0.46219</v>
+        <v>0.463149</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.759254</v>
+        <v>0.760693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.654543</v>
+        <v>0.698816</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475087</v>
+        <v>0.476661</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.770285</v>
+        <v>0.772231</v>
       </c>
       <c r="C64" t="n">
-        <v>0.670212</v>
+        <v>0.717336</v>
       </c>
       <c r="D64" t="n">
-        <v>0.482858</v>
+        <v>0.48748</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.79478</v>
+        <v>0.799268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.696407</v>
+        <v>0.74669</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498427</v>
+        <v>0.498928</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818315</v>
+        <v>0.821415</v>
       </c>
       <c r="C66" t="n">
-        <v>0.717069</v>
+        <v>0.766612</v>
       </c>
       <c r="D66" t="n">
-        <v>0.510637</v>
+        <v>0.510568</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.844892</v>
+        <v>0.852138</v>
       </c>
       <c r="C67" t="n">
-        <v>0.740187</v>
+        <v>0.7969580000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.525701</v>
+        <v>0.5275879999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.878459</v>
+        <v>0.877671</v>
       </c>
       <c r="C68" t="n">
-        <v>0.50952</v>
+        <v>0.545481</v>
       </c>
       <c r="D68" t="n">
-        <v>0.405204</v>
+        <v>0.409279</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6554410000000001</v>
+        <v>0.6678809999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.522573</v>
+        <v>0.566988</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411311</v>
+        <v>0.413838</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.673686</v>
+        <v>0.694941</v>
       </c>
       <c r="C70" t="n">
-        <v>0.542451</v>
+        <v>0.590861</v>
       </c>
       <c r="D70" t="n">
-        <v>0.422027</v>
+        <v>0.426412</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701626</v>
+        <v>0.723044</v>
       </c>
       <c r="C71" t="n">
-        <v>0.563381</v>
+        <v>0.614402</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433018</v>
+        <v>0.43744</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.724429</v>
+        <v>0.744662</v>
       </c>
       <c r="C72" t="n">
-        <v>0.582959</v>
+        <v>0.640328</v>
       </c>
       <c r="D72" t="n">
-        <v>0.443005</v>
+        <v>0.448664</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.754318</v>
+        <v>0.781651</v>
       </c>
       <c r="C73" t="n">
-        <v>0.610208</v>
+        <v>0.673444</v>
       </c>
       <c r="D73" t="n">
-        <v>0.456192</v>
+        <v>0.459319</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.776034</v>
+        <v>0.80158</v>
       </c>
       <c r="C74" t="n">
-        <v>0.631082</v>
+        <v>0.69708</v>
       </c>
       <c r="D74" t="n">
-        <v>0.466308</v>
+        <v>0.468705</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.811723</v>
+        <v>0.832651</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6611900000000001</v>
+        <v>0.728623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.480014</v>
+        <v>0.484216</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847509</v>
+        <v>0.871457</v>
       </c>
       <c r="C76" t="n">
-        <v>0.690044</v>
+        <v>0.764362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.492123</v>
+        <v>0.496196</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.892163</v>
+        <v>0.913415</v>
       </c>
       <c r="C77" t="n">
-        <v>0.725731</v>
+        <v>0.806074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5105769999999999</v>
+        <v>0.515755</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.941735</v>
+        <v>0.962663</v>
       </c>
       <c r="C78" t="n">
-        <v>0.761066</v>
+        <v>0.847142</v>
       </c>
       <c r="D78" t="n">
-        <v>0.523048</v>
+        <v>0.529589</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.997718</v>
+        <v>1.01697</v>
       </c>
       <c r="C79" t="n">
-        <v>0.797618</v>
+        <v>0.891419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.535789</v>
+        <v>0.544665</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06652</v>
+        <v>1.07001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.849763</v>
+        <v>0.942737</v>
       </c>
       <c r="D80" t="n">
-        <v>0.561588</v>
+        <v>0.564905</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13565</v>
+        <v>1.1404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.907277</v>
+        <v>1.01232</v>
       </c>
       <c r="D81" t="n">
-        <v>0.580238</v>
+        <v>0.588056</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.21949</v>
+        <v>1.23046</v>
       </c>
       <c r="C82" t="n">
-        <v>0.962494</v>
+        <v>1.08435</v>
       </c>
       <c r="D82" t="n">
-        <v>0.608178</v>
+        <v>0.6163110000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.32046</v>
+        <v>1.33313</v>
       </c>
       <c r="C83" t="n">
-        <v>0.726746</v>
+        <v>0.804252</v>
       </c>
       <c r="D83" t="n">
-        <v>0.482884</v>
+        <v>0.489478</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05422</v>
+        <v>1.06499</v>
       </c>
       <c r="C84" t="n">
-        <v>0.771051</v>
+        <v>0.863578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.501789</v>
+        <v>0.506409</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12612</v>
+        <v>1.12976</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8211079999999999</v>
+        <v>0.92018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.517158</v>
+        <v>0.518055</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.20409</v>
+        <v>1.21441</v>
       </c>
       <c r="C86" t="n">
-        <v>0.885556</v>
+        <v>0.997679</v>
       </c>
       <c r="D86" t="n">
-        <v>0.540618</v>
+        <v>0.542027</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.29848</v>
+        <v>1.31181</v>
       </c>
       <c r="C87" t="n">
-        <v>0.955148</v>
+        <v>1.0806</v>
       </c>
       <c r="D87" t="n">
-        <v>0.56427</v>
+        <v>0.569796</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.40132</v>
+        <v>1.41208</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04304</v>
+        <v>1.18625</v>
       </c>
       <c r="D88" t="n">
-        <v>0.59597</v>
+        <v>0.605415</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.51917</v>
+        <v>1.53478</v>
       </c>
       <c r="C89" t="n">
-        <v>1.12513</v>
+        <v>1.28604</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6326619999999999</v>
+        <v>0.639556</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.64873</v>
+        <v>1.66622</v>
       </c>
       <c r="C90" t="n">
-        <v>1.22205</v>
+        <v>1.39507</v>
       </c>
       <c r="D90" t="n">
-        <v>0.667864</v>
+        <v>0.677528</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.78866</v>
+        <v>1.79407</v>
       </c>
       <c r="C91" t="n">
-        <v>1.33168</v>
+        <v>1.52009</v>
       </c>
       <c r="D91" t="n">
-        <v>0.722861</v>
+        <v>0.7272149999999999</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.93603</v>
+        <v>1.93566</v>
       </c>
       <c r="C92" t="n">
-        <v>1.43971</v>
+        <v>1.65198</v>
       </c>
       <c r="D92" t="n">
-        <v>0.768889</v>
+        <v>0.779372</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.07595</v>
+        <v>2.07258</v>
       </c>
       <c r="C93" t="n">
-        <v>1.55917</v>
+        <v>1.7883</v>
       </c>
       <c r="D93" t="n">
-        <v>0.824843</v>
+        <v>0.837139</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.23856</v>
+        <v>2.24054</v>
       </c>
       <c r="C94" t="n">
-        <v>1.68512</v>
+        <v>1.94237</v>
       </c>
       <c r="D94" t="n">
-        <v>0.888859</v>
+        <v>0.900014</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40099</v>
+        <v>2.40951</v>
       </c>
       <c r="C95" t="n">
-        <v>1.81831</v>
+        <v>2.09648</v>
       </c>
       <c r="D95" t="n">
-        <v>0.958253</v>
+        <v>0.969515</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.55721</v>
+        <v>2.57141</v>
       </c>
       <c r="C96" t="n">
-        <v>1.96537</v>
+        <v>2.28292</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05341</v>
+        <v>1.05519</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.73818</v>
+        <v>2.7431</v>
       </c>
       <c r="C97" t="n">
-        <v>1.30802</v>
+        <v>1.45983</v>
       </c>
       <c r="D97" t="n">
-        <v>0.78998</v>
+        <v>0.791799</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.04214</v>
+        <v>2.03162</v>
       </c>
       <c r="C98" t="n">
-        <v>1.39167</v>
+        <v>1.56064</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8365359999999999</v>
+        <v>0.833303</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.1427</v>
+        <v>2.13646</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47593</v>
+        <v>1.6522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.887516</v>
+        <v>0.8918700000000001</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.25635</v>
+        <v>2.25477</v>
       </c>
       <c r="C100" t="n">
-        <v>1.57126</v>
+        <v>1.76002</v>
       </c>
       <c r="D100" t="n">
-        <v>0.944341</v>
+        <v>0.946658</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.3769</v>
+        <v>2.39624</v>
       </c>
       <c r="C101" t="n">
-        <v>1.66537</v>
+        <v>1.86813</v>
       </c>
       <c r="D101" t="n">
-        <v>0.991669</v>
+        <v>0.9815700000000001</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.5108</v>
+        <v>2.50742</v>
       </c>
       <c r="C102" t="n">
-        <v>1.76409</v>
+        <v>1.98306</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05695</v>
+        <v>1.05632</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.63468</v>
+        <v>2.62008</v>
       </c>
       <c r="C103" t="n">
-        <v>1.86612</v>
+        <v>2.10499</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11008</v>
+        <v>1.11369</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.76859</v>
+        <v>2.76303</v>
       </c>
       <c r="C104" t="n">
-        <v>1.97752</v>
+        <v>2.23465</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17886</v>
+        <v>1.17162</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.88833</v>
+        <v>2.8898</v>
       </c>
       <c r="C105" t="n">
-        <v>2.09067</v>
+        <v>2.36986</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22898</v>
+        <v>1.22738</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.05527</v>
+        <v>3.03774</v>
       </c>
       <c r="C106" t="n">
-        <v>2.20186</v>
+        <v>2.50302</v>
       </c>
       <c r="D106" t="n">
-        <v>1.30609</v>
+        <v>1.30926</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.18734</v>
+        <v>3.20298</v>
       </c>
       <c r="C107" t="n">
-        <v>2.31703</v>
+        <v>2.64633</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38993</v>
+        <v>1.37835</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3504</v>
+        <v>3.33859</v>
       </c>
       <c r="C108" t="n">
-        <v>2.45223</v>
+        <v>2.81292</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47119</v>
+        <v>1.44783</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.5231</v>
+        <v>3.51859</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59222</v>
+        <v>2.98999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52644</v>
+        <v>1.52803</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.67773</v>
+        <v>3.67254</v>
       </c>
       <c r="C110" t="n">
-        <v>2.72067</v>
+        <v>3.15221</v>
       </c>
       <c r="D110" t="n">
-        <v>1.60158</v>
+        <v>1.61527</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.85734</v>
+        <v>3.87744</v>
       </c>
       <c r="C111" t="n">
-        <v>1.91501</v>
+        <v>2.09156</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30195</v>
+        <v>1.29405</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.82391</v>
+        <v>2.80371</v>
       </c>
       <c r="C112" t="n">
-        <v>2.00284</v>
+        <v>2.1946</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34409</v>
+        <v>1.32845</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.91671</v>
+        <v>2.89204</v>
       </c>
       <c r="C113" t="n">
-        <v>2.09492</v>
+        <v>2.2991</v>
       </c>
       <c r="D113" t="n">
-        <v>1.39777</v>
+        <v>1.38354</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.00613</v>
+        <v>3.00135</v>
       </c>
       <c r="C114" t="n">
-        <v>2.17886</v>
+        <v>2.4026</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44383</v>
+        <v>1.43245</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.13492</v>
+        <v>3.11823</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26951</v>
+        <v>2.50837</v>
       </c>
       <c r="D115" t="n">
-        <v>1.49959</v>
+        <v>1.48306</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.25441</v>
+        <v>3.23055</v>
       </c>
       <c r="C116" t="n">
-        <v>2.36701</v>
+        <v>2.62037</v>
       </c>
       <c r="D116" t="n">
-        <v>1.54606</v>
+        <v>1.53491</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.36797</v>
+        <v>3.34247</v>
       </c>
       <c r="C117" t="n">
-        <v>2.46886</v>
+        <v>2.74564</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61594</v>
+        <v>1.61011</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48085</v>
+        <v>3.4769</v>
       </c>
       <c r="C118" t="n">
-        <v>2.57887</v>
+        <v>2.8821</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68602</v>
+        <v>1.67743</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.61658</v>
+        <v>3.58488</v>
       </c>
       <c r="C119" t="n">
-        <v>2.68465</v>
+        <v>3.01445</v>
       </c>
       <c r="D119" t="n">
-        <v>1.73554</v>
+        <v>1.72648</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301388</v>
+        <v>0.304339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241154</v>
+        <v>0.242884</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246258</v>
+        <v>0.246455</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.306586</v>
+        <v>0.308954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246909</v>
+        <v>0.24614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251612</v>
+        <v>0.252038</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.312671</v>
+        <v>0.311943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.254611</v>
+        <v>0.253713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25614</v>
+        <v>0.25613</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.320082</v>
+        <v>0.32183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.261356</v>
+        <v>0.262356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264066</v>
+        <v>0.26395</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.323278</v>
+        <v>0.327935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.263423</v>
+        <v>0.267065</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268609</v>
+        <v>0.269287</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328194</v>
+        <v>0.335385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221815</v>
+        <v>0.223786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231255</v>
+        <v>0.234268</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.289012</v>
+        <v>0.293709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224916</v>
+        <v>0.227889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234726</v>
+        <v>0.236204</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294065</v>
+        <v>0.299023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231107</v>
+        <v>0.230311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241311</v>
+        <v>0.241363</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.301675</v>
+        <v>0.3032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234348</v>
+        <v>0.235326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244442</v>
+        <v>0.245797</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307061</v>
+        <v>0.309681</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239273</v>
+        <v>0.239409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249647</v>
+        <v>0.250097</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.314398</v>
+        <v>0.314913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245482</v>
+        <v>0.246829</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255368</v>
+        <v>0.256907</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.32199</v>
+        <v>0.320753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250656</v>
+        <v>0.252379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259925</v>
+        <v>0.26201</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327867</v>
+        <v>0.329806</v>
       </c>
       <c r="C14" t="n">
-        <v>0.257484</v>
+        <v>0.257444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266035</v>
+        <v>0.267529</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.334303</v>
+        <v>0.335748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26349</v>
+        <v>0.265048</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272589</v>
+        <v>0.273522</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.344074</v>
+        <v>0.34435</v>
       </c>
       <c r="C16" t="n">
-        <v>0.270268</v>
+        <v>0.270967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278587</v>
+        <v>0.278598</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.351758</v>
+        <v>0.352184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279307</v>
+        <v>0.277274</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285396</v>
+        <v>0.285494</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.358299</v>
+        <v>0.356592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.284749</v>
+        <v>0.283473</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292357</v>
+        <v>0.291761</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.365826</v>
+        <v>0.364487</v>
       </c>
       <c r="C19" t="n">
-        <v>0.29138</v>
+        <v>0.290903</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298461</v>
+        <v>0.297356</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.372832</v>
+        <v>0.370879</v>
       </c>
       <c r="C20" t="n">
-        <v>0.296788</v>
+        <v>0.296589</v>
       </c>
       <c r="D20" t="n">
-        <v>0.303453</v>
+        <v>0.302951</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379732</v>
+        <v>0.377778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245492</v>
+        <v>0.246096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256938</v>
+        <v>0.258261</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.33083</v>
+        <v>0.331294</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251409</v>
+        <v>0.251133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261602</v>
+        <v>0.261815</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335035</v>
+        <v>0.335703</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256459</v>
+        <v>0.256898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267471</v>
+        <v>0.266924</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340939</v>
+        <v>0.340629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.262509</v>
+        <v>0.262373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.272105</v>
+        <v>0.272647</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345598</v>
+        <v>0.346084</v>
       </c>
       <c r="C25" t="n">
-        <v>0.266506</v>
+        <v>0.266535</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276822</v>
+        <v>0.276671</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350759</v>
+        <v>0.351808</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272694</v>
+        <v>0.272372</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282214</v>
+        <v>0.282421</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.35629</v>
+        <v>0.355986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.278575</v>
+        <v>0.277139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288179</v>
+        <v>0.289038</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361719</v>
+        <v>0.362254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.285789</v>
+        <v>0.285191</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295144</v>
+        <v>0.294924</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367488</v>
+        <v>0.367951</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29317</v>
+        <v>0.292585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301983</v>
+        <v>0.301298</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374054</v>
+        <v>0.374467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.299609</v>
+        <v>0.299031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307027</v>
+        <v>0.308845</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380288</v>
+        <v>0.380617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.305906</v>
+        <v>0.305166</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314237</v>
+        <v>0.313669</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.385626</v>
+        <v>0.385629</v>
       </c>
       <c r="C32" t="n">
-        <v>0.31264</v>
+        <v>0.310269</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321569</v>
+        <v>0.320958</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.39141</v>
+        <v>0.391401</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31898</v>
+        <v>0.318087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32582</v>
+        <v>0.32585</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398245</v>
+        <v>0.398561</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32332</v>
+        <v>0.323516</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332471</v>
+        <v>0.331827</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.40455</v>
+        <v>0.405014</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259989</v>
+        <v>0.259779</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271432</v>
+        <v>0.272384</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350186</v>
+        <v>0.349692</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264213</v>
+        <v>0.264079</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276145</v>
+        <v>0.275107</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353785</v>
+        <v>0.35345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26956</v>
+        <v>0.269165</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281347</v>
+        <v>0.279255</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.358416</v>
+        <v>0.357931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.275196</v>
+        <v>0.275043</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285992</v>
+        <v>0.285309</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362955</v>
+        <v>0.362479</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280882</v>
+        <v>0.28044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290699</v>
+        <v>0.290517</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.36726</v>
+        <v>0.366919</v>
       </c>
       <c r="C40" t="n">
-        <v>0.286537</v>
+        <v>0.286123</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298167</v>
+        <v>0.297937</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372057</v>
+        <v>0.371649</v>
       </c>
       <c r="C41" t="n">
-        <v>0.293084</v>
+        <v>0.292678</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302632</v>
+        <v>0.303441</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378107</v>
+        <v>0.377804</v>
       </c>
       <c r="C42" t="n">
-        <v>0.298869</v>
+        <v>0.298259</v>
       </c>
       <c r="D42" t="n">
-        <v>0.30861</v>
+        <v>0.309349</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383555</v>
+        <v>0.383181</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304679</v>
+        <v>0.304144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314797</v>
+        <v>0.31472</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389594</v>
+        <v>0.389225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.311632</v>
+        <v>0.309987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.32139</v>
+        <v>0.321896</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395558</v>
+        <v>0.395213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316735</v>
+        <v>0.317254</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32746</v>
+        <v>0.328041</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401442</v>
+        <v>0.401257</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324146</v>
+        <v>0.323618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333317</v>
+        <v>0.332866</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407531</v>
+        <v>0.407172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.329023</v>
+        <v>0.328454</v>
       </c>
       <c r="D47" t="n">
-        <v>0.33891</v>
+        <v>0.338611</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413714</v>
+        <v>0.413638</v>
       </c>
       <c r="C48" t="n">
-        <v>0.336017</v>
+        <v>0.335131</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344841</v>
+        <v>0.344723</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419586</v>
+        <v>0.419227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.341442</v>
+        <v>0.340996</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349841</v>
+        <v>0.350355</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.424592</v>
+        <v>0.424411</v>
       </c>
       <c r="C50" t="n">
-        <v>0.27244</v>
+        <v>0.272405</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278939</v>
+        <v>0.278906</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362515</v>
+        <v>0.362523</v>
       </c>
       <c r="C51" t="n">
-        <v>0.276763</v>
+        <v>0.277567</v>
       </c>
       <c r="D51" t="n">
-        <v>0.283772</v>
+        <v>0.283698</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366804</v>
+        <v>0.366885</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282287</v>
+        <v>0.282514</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288316</v>
+        <v>0.288196</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371236</v>
+        <v>0.371295</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287379</v>
+        <v>0.287986</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293537</v>
+        <v>0.294278</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375949</v>
+        <v>0.375779</v>
       </c>
       <c r="C54" t="n">
-        <v>0.293391</v>
+        <v>0.292393</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299307</v>
+        <v>0.299333</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3804</v>
+        <v>0.380337</v>
       </c>
       <c r="C55" t="n">
-        <v>0.299401</v>
+        <v>0.299469</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305151</v>
+        <v>0.305484</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385694</v>
+        <v>0.385436</v>
       </c>
       <c r="C56" t="n">
-        <v>0.305782</v>
+        <v>0.304295</v>
       </c>
       <c r="D56" t="n">
-        <v>0.311558</v>
+        <v>0.310711</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391435</v>
+        <v>0.390762</v>
       </c>
       <c r="C57" t="n">
-        <v>0.311962</v>
+        <v>0.311821</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317048</v>
+        <v>0.316584</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397221</v>
+        <v>0.397254</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316623</v>
+        <v>0.317551</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3232</v>
+        <v>0.322792</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403202</v>
+        <v>0.402921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.324287</v>
+        <v>0.324177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329065</v>
+        <v>0.328897</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409343</v>
+        <v>0.408885</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32939</v>
+        <v>0.329814</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335257</v>
+        <v>0.334813</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41536</v>
+        <v>0.41501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.33695</v>
+        <v>0.336604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.341435</v>
+        <v>0.340922</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421201</v>
+        <v>0.420935</v>
       </c>
       <c r="C62" t="n">
-        <v>0.34241</v>
+        <v>0.342125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.348261</v>
+        <v>0.346537</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.427043</v>
+        <v>0.426724</v>
       </c>
       <c r="C63" t="n">
-        <v>0.348752</v>
+        <v>0.34755</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353328</v>
+        <v>0.352119</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433426</v>
+        <v>0.435101</v>
       </c>
       <c r="C64" t="n">
-        <v>0.283364</v>
+        <v>0.284088</v>
       </c>
       <c r="D64" t="n">
-        <v>0.288343</v>
+        <v>0.289128</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.395041</v>
+        <v>0.397854</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28986</v>
+        <v>0.290267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.297802</v>
+        <v>0.29889</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.406733</v>
+        <v>0.411569</v>
       </c>
       <c r="C66" t="n">
-        <v>0.297394</v>
+        <v>0.297129</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301826</v>
+        <v>0.302279</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.417637</v>
+        <v>0.412844</v>
       </c>
       <c r="C67" t="n">
-        <v>0.305081</v>
+        <v>0.304998</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309112</v>
+        <v>0.309039</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.428873</v>
+        <v>0.42383</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312304</v>
+        <v>0.311985</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316723</v>
+        <v>0.315773</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.425265</v>
+        <v>0.427718</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318795</v>
+        <v>0.319309</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322292</v>
+        <v>0.321731</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.441062</v>
+        <v>0.442791</v>
       </c>
       <c r="C70" t="n">
-        <v>0.32745</v>
+        <v>0.325359</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330968</v>
+        <v>0.32735</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.456667</v>
+        <v>0.447447</v>
       </c>
       <c r="C71" t="n">
-        <v>0.33254</v>
+        <v>0.33236</v>
       </c>
       <c r="D71" t="n">
-        <v>0.33759</v>
+        <v>0.33642</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.47165</v>
+        <v>0.461091</v>
       </c>
       <c r="C72" t="n">
-        <v>0.343313</v>
+        <v>0.342019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.347436</v>
+        <v>0.344582</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488913</v>
+        <v>0.475397</v>
       </c>
       <c r="C73" t="n">
-        <v>0.352485</v>
+        <v>0.350914</v>
       </c>
       <c r="D73" t="n">
-        <v>0.357748</v>
+        <v>0.354118</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.503879</v>
+        <v>0.49146</v>
       </c>
       <c r="C74" t="n">
-        <v>0.363632</v>
+        <v>0.360136</v>
       </c>
       <c r="D74" t="n">
-        <v>0.367326</v>
+        <v>0.363267</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.521551</v>
+        <v>0.510008</v>
       </c>
       <c r="C75" t="n">
-        <v>0.373337</v>
+        <v>0.371937</v>
       </c>
       <c r="D75" t="n">
-        <v>0.37858</v>
+        <v>0.373819</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.541386</v>
+        <v>0.530455</v>
       </c>
       <c r="C76" t="n">
-        <v>0.385252</v>
+        <v>0.382874</v>
       </c>
       <c r="D76" t="n">
-        <v>0.390108</v>
+        <v>0.386527</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.568597</v>
+        <v>0.556057</v>
       </c>
       <c r="C77" t="n">
-        <v>0.400557</v>
+        <v>0.397814</v>
       </c>
       <c r="D77" t="n">
-        <v>0.405471</v>
+        <v>0.401117</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.597288</v>
+        <v>0.58183</v>
       </c>
       <c r="C78" t="n">
-        <v>0.387961</v>
+        <v>0.378377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.390545</v>
+        <v>0.382489</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.757757</v>
+        <v>0.712051</v>
       </c>
       <c r="C79" t="n">
-        <v>0.397308</v>
+        <v>0.391283</v>
       </c>
       <c r="D79" t="n">
-        <v>0.40763</v>
+        <v>0.39203</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.784425</v>
+        <v>0.734188</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416817</v>
+        <v>0.404431</v>
       </c>
       <c r="D80" t="n">
-        <v>0.417206</v>
+        <v>0.407692</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.804763</v>
+        <v>0.755682</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435053</v>
+        <v>0.420984</v>
       </c>
       <c r="D81" t="n">
-        <v>0.433588</v>
+        <v>0.423595</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.828633</v>
+        <v>0.778716</v>
       </c>
       <c r="C82" t="n">
-        <v>0.457503</v>
+        <v>0.437102</v>
       </c>
       <c r="D82" t="n">
-        <v>0.45832</v>
+        <v>0.437958</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.855422</v>
+        <v>0.802503</v>
       </c>
       <c r="C83" t="n">
-        <v>0.47471</v>
+        <v>0.456701</v>
       </c>
       <c r="D83" t="n">
-        <v>0.473718</v>
+        <v>0.454271</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.884907</v>
+        <v>0.830673</v>
       </c>
       <c r="C84" t="n">
-        <v>0.495149</v>
+        <v>0.475462</v>
       </c>
       <c r="D84" t="n">
-        <v>0.494481</v>
+        <v>0.479764</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.910272</v>
+        <v>0.856729</v>
       </c>
       <c r="C85" t="n">
-        <v>0.514065</v>
+        <v>0.494716</v>
       </c>
       <c r="D85" t="n">
-        <v>0.517216</v>
+        <v>0.500418</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.940473</v>
+        <v>0.880884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.538424</v>
+        <v>0.516123</v>
       </c>
       <c r="D86" t="n">
-        <v>0.543196</v>
+        <v>0.520705</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.96946</v>
+        <v>0.908258</v>
       </c>
       <c r="C87" t="n">
-        <v>0.562074</v>
+        <v>0.536541</v>
       </c>
       <c r="D87" t="n">
-        <v>0.56345</v>
+        <v>0.54025</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.998617</v>
+        <v>0.934216</v>
       </c>
       <c r="C88" t="n">
-        <v>0.586638</v>
+        <v>0.5590079999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.587974</v>
+        <v>0.5614170000000001</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03048</v>
+        <v>0.962599</v>
       </c>
       <c r="C89" t="n">
-        <v>0.611774</v>
+        <v>0.581712</v>
       </c>
       <c r="D89" t="n">
-        <v>0.613727</v>
+        <v>0.583823</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06191</v>
+        <v>0.991866</v>
       </c>
       <c r="C90" t="n">
-        <v>0.638559</v>
+        <v>0.605081</v>
       </c>
       <c r="D90" t="n">
-        <v>0.638503</v>
+        <v>0.608374</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09591</v>
+        <v>1.02178</v>
       </c>
       <c r="C91" t="n">
-        <v>0.664829</v>
+        <v>0.63003</v>
       </c>
       <c r="D91" t="n">
-        <v>0.665899</v>
+        <v>0.632096</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1316</v>
+        <v>1.05393</v>
       </c>
       <c r="C92" t="n">
-        <v>0.701613</v>
+        <v>0.651091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.701155</v>
+        <v>0.6511749999999999</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27849</v>
+        <v>1.16992</v>
       </c>
       <c r="C93" t="n">
-        <v>0.716874</v>
+        <v>0.665447</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7185820000000001</v>
+        <v>0.667287</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.28903</v>
+        <v>1.18144</v>
       </c>
       <c r="C94" t="n">
-        <v>0.734246</v>
+        <v>0.682199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.738594</v>
+        <v>0.6844</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.30059</v>
+        <v>1.18877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.751873</v>
+        <v>0.699889</v>
       </c>
       <c r="D95" t="n">
-        <v>0.748765</v>
+        <v>0.697875</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31337</v>
+        <v>1.20364</v>
       </c>
       <c r="C96" t="n">
-        <v>0.77221</v>
+        <v>0.71509</v>
       </c>
       <c r="D96" t="n">
-        <v>0.768589</v>
+        <v>0.714064</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3282</v>
+        <v>1.21568</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7893520000000001</v>
+        <v>0.7347900000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.791856</v>
+        <v>0.737055</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.34475</v>
+        <v>1.23015</v>
       </c>
       <c r="C98" t="n">
-        <v>0.809311</v>
+        <v>0.753098</v>
       </c>
       <c r="D98" t="n">
-        <v>0.811276</v>
+        <v>0.75431</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36717</v>
+        <v>1.2515</v>
       </c>
       <c r="C99" t="n">
-        <v>0.831005</v>
+        <v>0.7729780000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.833417</v>
+        <v>0.77569</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.38647</v>
+        <v>1.2689</v>
       </c>
       <c r="C100" t="n">
-        <v>0.852309</v>
+        <v>0.792446</v>
       </c>
       <c r="D100" t="n">
-        <v>0.857549</v>
+        <v>0.792612</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.40302</v>
+        <v>1.28411</v>
       </c>
       <c r="C101" t="n">
-        <v>0.875576</v>
+        <v>0.813815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.87993</v>
+        <v>0.814194</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.4248</v>
+        <v>1.30559</v>
       </c>
       <c r="C102" t="n">
-        <v>0.89862</v>
+        <v>0.835261</v>
       </c>
       <c r="D102" t="n">
-        <v>0.904301</v>
+        <v>0.833647</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.45362</v>
+        <v>1.33078</v>
       </c>
       <c r="C103" t="n">
-        <v>0.923448</v>
+        <v>0.857089</v>
       </c>
       <c r="D103" t="n">
-        <v>0.929609</v>
+        <v>0.8572920000000001</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.47848</v>
+        <v>1.35406</v>
       </c>
       <c r="C104" t="n">
-        <v>0.948059</v>
+        <v>0.879683</v>
       </c>
       <c r="D104" t="n">
-        <v>0.95597</v>
+        <v>0.881455</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.50616</v>
+        <v>1.37888</v>
       </c>
       <c r="C105" t="n">
-        <v>0.973163</v>
+        <v>0.903467</v>
       </c>
       <c r="D105" t="n">
-        <v>0.983654</v>
+        <v>0.905446</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.53172</v>
+        <v>1.40574</v>
       </c>
       <c r="C106" t="n">
-        <v>0.999772</v>
+        <v>0.926586</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01197</v>
+        <v>0.931227</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.54711</v>
+        <v>1.41333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.954545</v>
+        <v>0.854772</v>
       </c>
       <c r="D107" t="n">
-        <v>0.954967</v>
+        <v>0.868185</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.55206</v>
+        <v>1.40739</v>
       </c>
       <c r="C108" t="n">
-        <v>0.971251</v>
+        <v>0.881627</v>
       </c>
       <c r="D108" t="n">
-        <v>0.971716</v>
+        <v>0.883989</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.56472</v>
+        <v>1.42023</v>
       </c>
       <c r="C109" t="n">
-        <v>0.98729</v>
+        <v>0.908348</v>
       </c>
       <c r="D109" t="n">
-        <v>0.991459</v>
+        <v>0.912766</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5724</v>
+        <v>1.43685</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00513</v>
+        <v>0.9249000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00975</v>
+        <v>0.929358</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.58314</v>
+        <v>1.44769</v>
       </c>
       <c r="C111" t="n">
-        <v>1.02311</v>
+        <v>0.94064</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02478</v>
+        <v>0.9430460000000001</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.59557</v>
+        <v>1.45929</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04255</v>
+        <v>0.958711</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04473</v>
+        <v>0.961937</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.60294</v>
+        <v>1.47017</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05818</v>
+        <v>0.975508</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06494</v>
+        <v>0.9801299999999999</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.62583</v>
+        <v>1.48854</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08267</v>
+        <v>0.9959440000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08203</v>
+        <v>0.998601</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.6417</v>
+        <v>1.49755</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10018</v>
+        <v>1.01444</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10956</v>
+        <v>1.0177</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.66213</v>
+        <v>1.51858</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12715</v>
+        <v>1.03199</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13207</v>
+        <v>1.03854</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.68489</v>
+        <v>1.53924</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14651</v>
+        <v>1.05467</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15533</v>
+        <v>1.06068</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.70644</v>
+        <v>1.56024</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17273</v>
+        <v>1.07731</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17569</v>
+        <v>1.07925</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.72393</v>
+        <v>1.57847</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19104</v>
+        <v>1.09835</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19976</v>
+        <v>1.10267</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277112</v>
+        <v>0.269654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212138</v>
+        <v>0.208986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206536</v>
+        <v>0.206163</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.279327</v>
+        <v>0.274261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217366</v>
+        <v>0.212435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208845</v>
+        <v>0.206936</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.284709</v>
+        <v>0.277356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220522</v>
+        <v>0.214319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211141</v>
+        <v>0.209732</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.286638</v>
+        <v>0.280045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224283</v>
+        <v>0.217948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212371</v>
+        <v>0.210978</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.286401</v>
+        <v>0.278944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229548</v>
+        <v>0.223044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216436</v>
+        <v>0.214857</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293212</v>
+        <v>0.288971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211676</v>
+        <v>0.206594</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218284</v>
+        <v>0.218443</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286713</v>
+        <v>0.285567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21771</v>
+        <v>0.213284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221026</v>
+        <v>0.218015</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.289937</v>
+        <v>0.287131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221637</v>
+        <v>0.214351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223757</v>
+        <v>0.222586</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291636</v>
+        <v>0.288234</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223242</v>
+        <v>0.21665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224077</v>
+        <v>0.221036</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299704</v>
+        <v>0.296883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223012</v>
+        <v>0.215756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224541</v>
+        <v>0.221345</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.307334</v>
+        <v>0.302431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236447</v>
+        <v>0.224435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.228906</v>
+        <v>0.222748</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317608</v>
+        <v>0.305765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22663</v>
+        <v>0.220639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229681</v>
+        <v>0.225778</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31381</v>
+        <v>0.30886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232736</v>
+        <v>0.224033</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23017</v>
+        <v>0.225594</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320379</v>
+        <v>0.315646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235615</v>
+        <v>0.228136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233894</v>
+        <v>0.227882</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.330554</v>
+        <v>0.320206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246871</v>
+        <v>0.232609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235746</v>
+        <v>0.231945</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.334832</v>
+        <v>0.326917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.250074</v>
+        <v>0.235683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.236248</v>
+        <v>0.234797</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.335304</v>
+        <v>0.330056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252032</v>
+        <v>0.241807</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238185</v>
+        <v>0.23194</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.341641</v>
+        <v>0.336029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.254927</v>
+        <v>0.249324</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243011</v>
+        <v>0.236806</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.349716</v>
+        <v>0.339857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.263856</v>
+        <v>0.255877</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246309</v>
+        <v>0.238579</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.358714</v>
+        <v>0.349343</v>
       </c>
       <c r="C21" t="n">
-        <v>0.248856</v>
+        <v>0.239391</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245764</v>
+        <v>0.240144</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.345685</v>
+        <v>0.338813</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256298</v>
+        <v>0.246133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248217</v>
+        <v>0.241288</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.353115</v>
+        <v>0.348836</v>
       </c>
       <c r="C23" t="n">
-        <v>0.268034</v>
+        <v>0.25302</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255222</v>
+        <v>0.251916</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.360855</v>
+        <v>0.343518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.272383</v>
+        <v>0.261324</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25803</v>
+        <v>0.254175</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.365408</v>
+        <v>0.359814</v>
       </c>
       <c r="C25" t="n">
-        <v>0.289131</v>
+        <v>0.274508</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264142</v>
+        <v>0.26146</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368984</v>
+        <v>0.364829</v>
       </c>
       <c r="C26" t="n">
-        <v>0.28944</v>
+        <v>0.273461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267908</v>
+        <v>0.262373</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.376668</v>
+        <v>0.373141</v>
       </c>
       <c r="C27" t="n">
-        <v>0.291776</v>
+        <v>0.284554</v>
       </c>
       <c r="D27" t="n">
-        <v>0.269649</v>
+        <v>0.26661</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.379775</v>
+        <v>0.375327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301328</v>
+        <v>0.286372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275898</v>
+        <v>0.26915</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.386695</v>
+        <v>0.383584</v>
       </c>
       <c r="C29" t="n">
-        <v>0.308868</v>
+        <v>0.29535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278156</v>
+        <v>0.27491</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392879</v>
+        <v>0.389175</v>
       </c>
       <c r="C30" t="n">
-        <v>0.321105</v>
+        <v>0.306992</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283029</v>
+        <v>0.279285</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399453</v>
+        <v>0.395959</v>
       </c>
       <c r="C31" t="n">
-        <v>0.317799</v>
+        <v>0.30672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285091</v>
+        <v>0.282091</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401839</v>
+        <v>0.399642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325316</v>
+        <v>0.317345</v>
       </c>
       <c r="D32" t="n">
-        <v>0.286823</v>
+        <v>0.28661</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407176</v>
+        <v>0.404944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.339942</v>
+        <v>0.32833</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294951</v>
+        <v>0.292322</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410399</v>
+        <v>0.409094</v>
       </c>
       <c r="C34" t="n">
-        <v>0.338572</v>
+        <v>0.334382</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297308</v>
+        <v>0.296824</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419492</v>
+        <v>0.417104</v>
       </c>
       <c r="C35" t="n">
-        <v>0.28046</v>
+        <v>0.266983</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277814</v>
+        <v>0.270204</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.403021</v>
+        <v>0.395838</v>
       </c>
       <c r="C36" t="n">
-        <v>0.282944</v>
+        <v>0.279742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.27377</v>
+        <v>0.279996</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408731</v>
+        <v>0.406576</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293692</v>
+        <v>0.278812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283931</v>
+        <v>0.281278</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411994</v>
+        <v>0.407507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.296056</v>
+        <v>0.289143</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286255</v>
+        <v>0.283755</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415211</v>
+        <v>0.41265</v>
       </c>
       <c r="C39" t="n">
-        <v>0.304451</v>
+        <v>0.296176</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291017</v>
+        <v>0.289089</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419832</v>
+        <v>0.416881</v>
       </c>
       <c r="C40" t="n">
-        <v>0.309415</v>
+        <v>0.300515</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293267</v>
+        <v>0.291566</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423581</v>
+        <v>0.418688</v>
       </c>
       <c r="C41" t="n">
-        <v>0.310348</v>
+        <v>0.299325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.29528</v>
+        <v>0.292181</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430667</v>
+        <v>0.427838</v>
       </c>
       <c r="C42" t="n">
-        <v>0.314378</v>
+        <v>0.30626</v>
       </c>
       <c r="D42" t="n">
-        <v>0.29702</v>
+        <v>0.295836</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436224</v>
+        <v>0.434117</v>
       </c>
       <c r="C43" t="n">
-        <v>0.319654</v>
+        <v>0.312284</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299075</v>
+        <v>0.297636</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440042</v>
+        <v>0.438318</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325036</v>
+        <v>0.317475</v>
       </c>
       <c r="D44" t="n">
-        <v>0.30173</v>
+        <v>0.300619</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.443419</v>
+        <v>0.440534</v>
       </c>
       <c r="C45" t="n">
-        <v>0.329282</v>
+        <v>0.322499</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305817</v>
+        <v>0.303465</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.450107</v>
+        <v>0.447057</v>
       </c>
       <c r="C46" t="n">
-        <v>0.328199</v>
+        <v>0.322835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306879</v>
+        <v>0.304871</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.457282</v>
+        <v>0.452763</v>
       </c>
       <c r="C47" t="n">
-        <v>0.337896</v>
+        <v>0.330371</v>
       </c>
       <c r="D47" t="n">
-        <v>0.310025</v>
+        <v>0.306936</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461543</v>
+        <v>0.459397</v>
       </c>
       <c r="C48" t="n">
-        <v>0.343352</v>
+        <v>0.337196</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312105</v>
+        <v>0.310984</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467245</v>
+        <v>0.464646</v>
       </c>
       <c r="C49" t="n">
-        <v>0.347782</v>
+        <v>0.343821</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315339</v>
+        <v>0.315059</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476866</v>
+        <v>0.471552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312641</v>
+        <v>0.306596</v>
       </c>
       <c r="D50" t="n">
-        <v>0.294362</v>
+        <v>0.289067</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.431278</v>
+        <v>0.423982</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319801</v>
+        <v>0.311462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296519</v>
+        <v>0.29588</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.43393</v>
+        <v>0.431516</v>
       </c>
       <c r="C52" t="n">
-        <v>0.323135</v>
+        <v>0.312612</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297856</v>
+        <v>0.294482</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.43977</v>
+        <v>0.436387</v>
       </c>
       <c r="C53" t="n">
-        <v>0.329827</v>
+        <v>0.324954</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300715</v>
+        <v>0.29624</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.443039</v>
+        <v>0.441107</v>
       </c>
       <c r="C54" t="n">
-        <v>0.333738</v>
+        <v>0.328034</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303778</v>
+        <v>0.30245</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445401</v>
+        <v>0.441071</v>
       </c>
       <c r="C55" t="n">
-        <v>0.339903</v>
+        <v>0.336033</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305487</v>
+        <v>0.304163</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450962</v>
+        <v>0.444992</v>
       </c>
       <c r="C56" t="n">
-        <v>0.339703</v>
+        <v>0.330871</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307954</v>
+        <v>0.305601</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453255</v>
+        <v>0.450794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.349256</v>
+        <v>0.343838</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310167</v>
+        <v>0.307987</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457811</v>
+        <v>0.455199</v>
       </c>
       <c r="C58" t="n">
-        <v>0.357814</v>
+        <v>0.352058</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314558</v>
+        <v>0.312512</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461776</v>
+        <v>0.459365</v>
       </c>
       <c r="C59" t="n">
-        <v>0.36563</v>
+        <v>0.359338</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318921</v>
+        <v>0.316463</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.46691</v>
+        <v>0.464301</v>
       </c>
       <c r="C60" t="n">
-        <v>0.370246</v>
+        <v>0.364752</v>
       </c>
       <c r="D60" t="n">
-        <v>0.321273</v>
+        <v>0.318997</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470748</v>
+        <v>0.468446</v>
       </c>
       <c r="C61" t="n">
-        <v>0.375939</v>
+        <v>0.371211</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323613</v>
+        <v>0.32247</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477469</v>
+        <v>0.477629</v>
       </c>
       <c r="C62" t="n">
-        <v>0.382259</v>
+        <v>0.377945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325956</v>
+        <v>0.323138</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482174</v>
+        <v>0.482245</v>
       </c>
       <c r="C63" t="n">
-        <v>0.387143</v>
+        <v>0.384778</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328748</v>
+        <v>0.331266</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.488097</v>
+        <v>0.490058</v>
       </c>
       <c r="C64" t="n">
-        <v>0.350621</v>
+        <v>0.342742</v>
       </c>
       <c r="D64" t="n">
-        <v>0.319797</v>
+        <v>0.309056</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462254</v>
+        <v>0.455361</v>
       </c>
       <c r="C65" t="n">
-        <v>0.357272</v>
+        <v>0.350833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.317141</v>
+        <v>0.312526</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467305</v>
+        <v>0.461795</v>
       </c>
       <c r="C66" t="n">
-        <v>0.359834</v>
+        <v>0.345299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.318255</v>
+        <v>0.314825</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.479083</v>
+        <v>0.463673</v>
       </c>
       <c r="C67" t="n">
-        <v>0.369263</v>
+        <v>0.352773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.322153</v>
+        <v>0.318897</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489935</v>
+        <v>0.47841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.37333</v>
+        <v>0.365058</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326203</v>
+        <v>0.325208</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.49837</v>
+        <v>0.493325</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377954</v>
+        <v>0.369498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32785</v>
+        <v>0.325241</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.510287</v>
+        <v>0.50035</v>
       </c>
       <c r="C70" t="n">
-        <v>0.386695</v>
+        <v>0.373486</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331047</v>
+        <v>0.328397</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.517438</v>
+        <v>0.510914</v>
       </c>
       <c r="C71" t="n">
-        <v>0.393858</v>
+        <v>0.382677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335494</v>
+        <v>0.333447</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.533366</v>
+        <v>0.526661</v>
       </c>
       <c r="C72" t="n">
-        <v>0.402654</v>
+        <v>0.391884</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339465</v>
+        <v>0.338636</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5478460000000001</v>
+        <v>0.539874</v>
       </c>
       <c r="C73" t="n">
-        <v>0.413684</v>
+        <v>0.401339</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345294</v>
+        <v>0.344705</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5602</v>
+        <v>0.556468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.420348</v>
+        <v>0.407709</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34717</v>
+        <v>0.347591</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.576006</v>
+        <v>0.574691</v>
       </c>
       <c r="C75" t="n">
-        <v>0.427351</v>
+        <v>0.415157</v>
       </c>
       <c r="D75" t="n">
-        <v>0.354621</v>
+        <v>0.352671</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.598737</v>
+        <v>0.59271</v>
       </c>
       <c r="C76" t="n">
-        <v>0.439882</v>
+        <v>0.42613</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361907</v>
+        <v>0.354903</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.616842</v>
+        <v>0.612351</v>
       </c>
       <c r="C77" t="n">
-        <v>0.453312</v>
+        <v>0.438737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.365416</v>
+        <v>0.365775</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651326</v>
+        <v>0.640759</v>
       </c>
       <c r="C78" t="n">
-        <v>0.421956</v>
+        <v>0.38774</v>
       </c>
       <c r="D78" t="n">
-        <v>0.360294</v>
+        <v>0.35663</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.686205</v>
+        <v>0.689052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.439893</v>
+        <v>0.407453</v>
       </c>
       <c r="D79" t="n">
-        <v>0.364455</v>
+        <v>0.362572</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.723684</v>
+        <v>0.751603</v>
       </c>
       <c r="C80" t="n">
-        <v>0.45189</v>
+        <v>0.427301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.379313</v>
+        <v>0.375083</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.754118</v>
+        <v>0.7987610000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.466949</v>
+        <v>0.444398</v>
       </c>
       <c r="D81" t="n">
-        <v>0.378359</v>
+        <v>0.386345</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.790883</v>
+        <v>0.846594</v>
       </c>
       <c r="C82" t="n">
-        <v>0.493223</v>
+        <v>0.480596</v>
       </c>
       <c r="D82" t="n">
-        <v>0.38972</v>
+        <v>0.410388</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.833498</v>
+        <v>0.905457</v>
       </c>
       <c r="C83" t="n">
-        <v>0.516606</v>
+        <v>0.50129</v>
       </c>
       <c r="D83" t="n">
-        <v>0.401141</v>
+        <v>0.427083</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.880951</v>
+        <v>0.919936</v>
       </c>
       <c r="C84" t="n">
-        <v>0.545661</v>
+        <v>0.503471</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41563</v>
+        <v>0.408974</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.915541</v>
+        <v>0.965153</v>
       </c>
       <c r="C85" t="n">
-        <v>0.568624</v>
+        <v>0.526451</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423485</v>
+        <v>0.422298</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.974272</v>
+        <v>1.03663</v>
       </c>
       <c r="C86" t="n">
-        <v>0.592761</v>
+        <v>0.549551</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438093</v>
+        <v>0.440099</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02964</v>
+        <v>1.09862</v>
       </c>
       <c r="C87" t="n">
-        <v>0.623927</v>
+        <v>0.583342</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450722</v>
+        <v>0.442327</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08069</v>
+        <v>1.15555</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.610615</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466795</v>
+        <v>0.474844</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12688</v>
+        <v>1.2206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.689116</v>
+        <v>0.653296</v>
       </c>
       <c r="D89" t="n">
-        <v>0.484705</v>
+        <v>0.488157</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.17715</v>
+        <v>1.27857</v>
       </c>
       <c r="C90" t="n">
-        <v>0.726845</v>
+        <v>0.69145</v>
       </c>
       <c r="D90" t="n">
-        <v>0.513181</v>
+        <v>0.510107</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24923</v>
+        <v>1.35733</v>
       </c>
       <c r="C91" t="n">
-        <v>0.767447</v>
+        <v>0.741456</v>
       </c>
       <c r="D91" t="n">
-        <v>0.536686</v>
+        <v>0.535954</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.29816</v>
+        <v>1.4279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.794598</v>
+        <v>0.77238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.640361</v>
+        <v>0.660591</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.33331</v>
+        <v>1.47228</v>
       </c>
       <c r="C93" t="n">
-        <v>0.832501</v>
+        <v>0.805621</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6661629999999999</v>
+        <v>0.703237</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38863</v>
+        <v>1.50171</v>
       </c>
       <c r="C94" t="n">
-        <v>0.864374</v>
+        <v>0.847369</v>
       </c>
       <c r="D94" t="n">
-        <v>0.691262</v>
+        <v>0.739607</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.42613</v>
+        <v>1.56634</v>
       </c>
       <c r="C95" t="n">
-        <v>0.898427</v>
+        <v>0.882934</v>
       </c>
       <c r="D95" t="n">
-        <v>0.715642</v>
+        <v>0.766398</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47043</v>
+        <v>1.63053</v>
       </c>
       <c r="C96" t="n">
-        <v>0.93281</v>
+        <v>0.922828</v>
       </c>
       <c r="D96" t="n">
-        <v>0.740711</v>
+        <v>0.794196</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.52476</v>
+        <v>1.68451</v>
       </c>
       <c r="C97" t="n">
-        <v>0.969489</v>
+        <v>0.9696090000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.766743</v>
+        <v>0.809548</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.57743</v>
+        <v>1.72482</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00733</v>
+        <v>1.01385</v>
       </c>
       <c r="D98" t="n">
-        <v>0.797422</v>
+        <v>0.855236</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61004</v>
+        <v>1.76698</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04646</v>
+        <v>1.06038</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8218569999999999</v>
+        <v>0.887558</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65961</v>
+        <v>1.82633</v>
       </c>
       <c r="C100" t="n">
-        <v>1.08563</v>
+        <v>1.10538</v>
       </c>
       <c r="D100" t="n">
-        <v>0.847426</v>
+        <v>0.9098579999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.69616</v>
+        <v>1.88246</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11947</v>
+        <v>1.14799</v>
       </c>
       <c r="D101" t="n">
-        <v>0.872216</v>
+        <v>0.947354</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.7532</v>
+        <v>1.92672</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16087</v>
+        <v>1.19636</v>
       </c>
       <c r="D102" t="n">
-        <v>0.901655</v>
+        <v>0.977315</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.7987</v>
+        <v>1.98031</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19638</v>
+        <v>1.24298</v>
       </c>
       <c r="D103" t="n">
-        <v>0.928609</v>
+        <v>1.00585</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.84158</v>
+        <v>2.03354</v>
       </c>
       <c r="C104" t="n">
-        <v>1.23313</v>
+        <v>1.28976</v>
       </c>
       <c r="D104" t="n">
-        <v>0.955538</v>
+        <v>1.04089</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.8841</v>
+        <v>2.0883</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27619</v>
+        <v>1.3422</v>
       </c>
       <c r="D105" t="n">
-        <v>0.983248</v>
+        <v>1.06206</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.93927</v>
+        <v>2.12856</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31473</v>
+        <v>1.38881</v>
       </c>
       <c r="D106" t="n">
-        <v>1.00864</v>
+        <v>1.09123</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.83009</v>
+        <v>2.02232</v>
       </c>
       <c r="C107" t="n">
-        <v>1.22203</v>
+        <v>1.28574</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05538</v>
+        <v>1.16109</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.86091</v>
+        <v>2.05063</v>
       </c>
       <c r="C108" t="n">
-        <v>1.25166</v>
+        <v>1.30955</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07735</v>
+        <v>1.19373</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.89486</v>
+        <v>2.09683</v>
       </c>
       <c r="C109" t="n">
-        <v>1.28265</v>
+        <v>1.35288</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09623</v>
+        <v>1.20761</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.92695</v>
+        <v>2.13881</v>
       </c>
       <c r="C110" t="n">
-        <v>1.3085</v>
+        <v>1.38053</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10813</v>
+        <v>1.22456</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.95512</v>
+        <v>2.17938</v>
       </c>
       <c r="C111" t="n">
-        <v>1.334</v>
+        <v>1.41243</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13084</v>
+        <v>1.2524</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.99709</v>
+        <v>2.21225</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3684</v>
+        <v>1.46449</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15529</v>
+        <v>1.28126</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.0298</v>
+        <v>2.25332</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40277</v>
+        <v>1.49542</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17225</v>
+        <v>1.30045</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.06553</v>
+        <v>2.30619</v>
       </c>
       <c r="C114" t="n">
-        <v>1.4312</v>
+        <v>1.53526</v>
       </c>
       <c r="D114" t="n">
-        <v>1.19243</v>
+        <v>1.32499</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.09845</v>
+        <v>2.30791</v>
       </c>
       <c r="C115" t="n">
-        <v>1.46841</v>
+        <v>1.57299</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21787</v>
+        <v>1.34992</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.13894</v>
+        <v>2.36388</v>
       </c>
       <c r="C116" t="n">
-        <v>1.50162</v>
+        <v>1.61377</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23974</v>
+        <v>1.37852</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.17294</v>
+        <v>2.42739</v>
       </c>
       <c r="C117" t="n">
-        <v>1.53389</v>
+        <v>1.65324</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26039</v>
+        <v>1.40058</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.19882</v>
+        <v>2.43594</v>
       </c>
       <c r="C118" t="n">
-        <v>1.57425</v>
+        <v>1.70949</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28402</v>
+        <v>1.42785</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2396</v>
+        <v>2.47123</v>
       </c>
       <c r="C119" t="n">
-        <v>1.61033</v>
+        <v>1.72758</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30707</v>
+        <v>1.44978</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442118</v>
+        <v>0.435245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.349031</v>
+        <v>0.339438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275431</v>
+        <v>0.273912</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455646</v>
+        <v>0.444247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.351558</v>
+        <v>0.342073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.279634</v>
+        <v>0.278673</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.472392</v>
+        <v>0.460918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.370942</v>
+        <v>0.359279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2891</v>
+        <v>0.287647</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.478305</v>
+        <v>0.468086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.38287</v>
+        <v>0.367267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.292718</v>
+        <v>0.290434</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.489314</v>
+        <v>0.474549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.383419</v>
+        <v>0.381108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29695</v>
+        <v>0.295313</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.499457</v>
+        <v>0.486535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407389</v>
+        <v>0.393348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304422</v>
+        <v>0.300942</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.511016</v>
+        <v>0.500144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42434</v>
+        <v>0.410674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.31372</v>
+        <v>0.310927</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.531294</v>
+        <v>0.518532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.443455</v>
+        <v>0.429371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.325719</v>
+        <v>0.320336</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5406300000000001</v>
+        <v>0.531006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.463476</v>
+        <v>0.459569</v>
       </c>
       <c r="D10" t="n">
-        <v>0.342567</v>
+        <v>0.335239</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.56313</v>
+        <v>0.557321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.359895</v>
+        <v>0.340794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.276091</v>
+        <v>0.272986</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.419276</v>
+        <v>0.399344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.35821</v>
+        <v>0.342868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276418</v>
+        <v>0.272512</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.435937</v>
+        <v>0.426374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.375743</v>
+        <v>0.361817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.289424</v>
+        <v>0.286475</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.442602</v>
+        <v>0.423497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.393542</v>
+        <v>0.37543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.290038</v>
+        <v>0.287108</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.465383</v>
+        <v>0.445821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.41299</v>
+        <v>0.386759</v>
       </c>
       <c r="D15" t="n">
-        <v>0.299361</v>
+        <v>0.296983</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.477126</v>
+        <v>0.466777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.426702</v>
+        <v>0.413117</v>
       </c>
       <c r="D16" t="n">
-        <v>0.30847</v>
+        <v>0.303861</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.496924</v>
+        <v>0.480429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44258</v>
+        <v>0.425215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.314759</v>
+        <v>0.310295</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.515181</v>
+        <v>0.504013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.456286</v>
+        <v>0.430369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318305</v>
+        <v>0.312173</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5390509999999999</v>
+        <v>0.525316</v>
       </c>
       <c r="C19" t="n">
-        <v>0.480091</v>
+        <v>0.46645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.327419</v>
+        <v>0.327445</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.546874</v>
+        <v>0.533961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5079360000000001</v>
+        <v>0.500702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.33819</v>
+        <v>0.334543</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.57403</v>
+        <v>0.564312</v>
       </c>
       <c r="C21" t="n">
-        <v>0.526114</v>
+        <v>0.514404</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352993</v>
+        <v>0.352606</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.589363</v>
+        <v>0.574951</v>
       </c>
       <c r="C22" t="n">
-        <v>0.555835</v>
+        <v>0.534629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.366339</v>
+        <v>0.362972</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.628118</v>
+        <v>0.617368</v>
       </c>
       <c r="C23" t="n">
-        <v>0.579411</v>
+        <v>0.5644749999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.383918</v>
+        <v>0.383602</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.64899</v>
+        <v>0.636164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.601403</v>
+        <v>0.579394</v>
       </c>
       <c r="D24" t="n">
-        <v>0.394014</v>
+        <v>0.389263</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.66836</v>
+        <v>0.655558</v>
       </c>
       <c r="C25" t="n">
-        <v>0.628602</v>
+        <v>0.620237</v>
       </c>
       <c r="D25" t="n">
-        <v>0.406652</v>
+        <v>0.404544</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7002350000000001</v>
+        <v>0.695541</v>
       </c>
       <c r="C26" t="n">
-        <v>0.410017</v>
+        <v>0.392437</v>
       </c>
       <c r="D26" t="n">
-        <v>0.291272</v>
+        <v>0.288729</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.515232</v>
+        <v>0.509231</v>
       </c>
       <c r="C27" t="n">
-        <v>0.415834</v>
+        <v>0.407668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.297043</v>
+        <v>0.296523</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.529356</v>
+        <v>0.524216</v>
       </c>
       <c r="C28" t="n">
-        <v>0.432237</v>
+        <v>0.414321</v>
       </c>
       <c r="D28" t="n">
-        <v>0.306449</v>
+        <v>0.302372</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.549292</v>
+        <v>0.544696</v>
       </c>
       <c r="C29" t="n">
-        <v>0.440297</v>
+        <v>0.432951</v>
       </c>
       <c r="D29" t="n">
-        <v>0.311793</v>
+        <v>0.308179</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.571522</v>
+        <v>0.568171</v>
       </c>
       <c r="C30" t="n">
-        <v>0.461859</v>
+        <v>0.448968</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319463</v>
+        <v>0.316444</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.59101</v>
+        <v>0.5893699999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.479124</v>
+        <v>0.462879</v>
       </c>
       <c r="D31" t="n">
-        <v>0.329715</v>
+        <v>0.33112</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.611549</v>
+        <v>0.608366</v>
       </c>
       <c r="C32" t="n">
-        <v>0.498517</v>
+        <v>0.481852</v>
       </c>
       <c r="D32" t="n">
-        <v>0.339772</v>
+        <v>0.335955</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.626246</v>
+        <v>0.619336</v>
       </c>
       <c r="C33" t="n">
-        <v>0.517346</v>
+        <v>0.510509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350332</v>
+        <v>0.349324</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.652849</v>
+        <v>0.650053</v>
       </c>
       <c r="C34" t="n">
-        <v>0.538409</v>
+        <v>0.535577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.362507</v>
+        <v>0.359649</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.676495</v>
+        <v>0.67239</v>
       </c>
       <c r="C35" t="n">
-        <v>0.563369</v>
+        <v>0.551926</v>
       </c>
       <c r="D35" t="n">
-        <v>0.372487</v>
+        <v>0.371025</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6929110000000001</v>
+        <v>0.690655</v>
       </c>
       <c r="C36" t="n">
-        <v>0.588912</v>
+        <v>0.584107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.386581</v>
+        <v>0.389925</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.725401</v>
+        <v>0.718476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.615309</v>
+        <v>0.608716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.397359</v>
+        <v>0.400029</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748251</v>
+        <v>0.746022</v>
       </c>
       <c r="C38" t="n">
-        <v>0.638087</v>
+        <v>0.631812</v>
       </c>
       <c r="D38" t="n">
-        <v>0.417033</v>
+        <v>0.419064</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.781787</v>
+        <v>0.782313</v>
       </c>
       <c r="C39" t="n">
-        <v>0.668483</v>
+        <v>0.664181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.424861</v>
+        <v>0.427505</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.803758</v>
+        <v>0.803217</v>
       </c>
       <c r="C40" t="n">
-        <v>0.478761</v>
+        <v>0.473942</v>
       </c>
       <c r="D40" t="n">
-        <v>0.353903</v>
+        <v>0.355261</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585226</v>
+        <v>0.58179</v>
       </c>
       <c r="C41" t="n">
-        <v>0.495435</v>
+        <v>0.489828</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361172</v>
+        <v>0.362067</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.603301</v>
+        <v>0.601863</v>
       </c>
       <c r="C42" t="n">
-        <v>0.515604</v>
+        <v>0.5098780000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.370402</v>
+        <v>0.370288</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.619263</v>
+        <v>0.619706</v>
       </c>
       <c r="C43" t="n">
-        <v>0.528259</v>
+        <v>0.524679</v>
       </c>
       <c r="D43" t="n">
-        <v>0.37773</v>
+        <v>0.378227</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.636255</v>
+        <v>0.630349</v>
       </c>
       <c r="C44" t="n">
-        <v>0.554501</v>
+        <v>0.54915</v>
       </c>
       <c r="D44" t="n">
-        <v>0.391714</v>
+        <v>0.387546</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.655251</v>
+        <v>0.651446</v>
       </c>
       <c r="C45" t="n">
-        <v>0.567374</v>
+        <v>0.562717</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397408</v>
+        <v>0.39785</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.668113</v>
+        <v>0.665339</v>
       </c>
       <c r="C46" t="n">
-        <v>0.58824</v>
+        <v>0.58579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408869</v>
+        <v>0.408392</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.687837</v>
+        <v>0.683801</v>
       </c>
       <c r="C47" t="n">
-        <v>0.607554</v>
+        <v>0.60368</v>
       </c>
       <c r="D47" t="n">
-        <v>0.419347</v>
+        <v>0.417479</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.703693</v>
+        <v>0.699345</v>
       </c>
       <c r="C48" t="n">
-        <v>0.624421</v>
+        <v>0.6194539999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428928</v>
+        <v>0.428207</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.72512</v>
+        <v>0.720852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.649402</v>
+        <v>0.643467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438058</v>
+        <v>0.436733</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.746517</v>
+        <v>0.7420060000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.669415</v>
+        <v>0.6647650000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.44914</v>
+        <v>0.45256</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.767811</v>
+        <v>0.764297</v>
       </c>
       <c r="C51" t="n">
-        <v>0.698006</v>
+        <v>0.692275</v>
       </c>
       <c r="D51" t="n">
-        <v>0.466076</v>
+        <v>0.463866</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.79155</v>
+        <v>0.789093</v>
       </c>
       <c r="C52" t="n">
-        <v>0.723997</v>
+        <v>0.7207710000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.480674</v>
+        <v>0.479446</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8116</v>
+        <v>0.808515</v>
       </c>
       <c r="C53" t="n">
-        <v>0.750288</v>
+        <v>0.745777</v>
       </c>
       <c r="D53" t="n">
-        <v>0.496521</v>
+        <v>0.491764</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8352039999999999</v>
+        <v>0.832538</v>
       </c>
       <c r="C54" t="n">
-        <v>0.544649</v>
+        <v>0.537981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.396799</v>
+        <v>0.394588</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6245579999999999</v>
+        <v>0.62166</v>
       </c>
       <c r="C55" t="n">
-        <v>0.55533</v>
+        <v>0.548993</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406106</v>
+        <v>0.403986</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.640548</v>
+        <v>0.635334</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5732</v>
+        <v>0.567244</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414252</v>
+        <v>0.411241</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.654883</v>
+        <v>0.650585</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5890570000000001</v>
+        <v>0.582877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.420479</v>
+        <v>0.419004</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.669945</v>
+        <v>0.667203</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6035160000000001</v>
+        <v>0.5985279999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428884</v>
+        <v>0.426533</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.68843</v>
+        <v>0.6860309999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.621242</v>
+        <v>0.616513</v>
       </c>
       <c r="D59" t="n">
-        <v>0.439227</v>
+        <v>0.435689</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702671</v>
+        <v>0.699757</v>
       </c>
       <c r="C60" t="n">
-        <v>0.63936</v>
+        <v>0.635305</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445314</v>
+        <v>0.445946</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.721307</v>
+        <v>0.718388</v>
       </c>
       <c r="C61" t="n">
-        <v>0.657694</v>
+        <v>0.652522</v>
       </c>
       <c r="D61" t="n">
-        <v>0.455028</v>
+        <v>0.452791</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.739356</v>
+        <v>0.737056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.675283</v>
+        <v>0.669701</v>
       </c>
       <c r="D62" t="n">
-        <v>0.463149</v>
+        <v>0.462056</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760693</v>
+        <v>0.757111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.698816</v>
+        <v>0.693833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476661</v>
+        <v>0.476307</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.772231</v>
+        <v>0.7696229999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.717336</v>
+        <v>0.7117329999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.48748</v>
+        <v>0.488059</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.799268</v>
+        <v>0.795732</v>
       </c>
       <c r="C65" t="n">
-        <v>0.74669</v>
+        <v>0.742061</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498928</v>
+        <v>0.499721</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.821415</v>
+        <v>0.816008</v>
       </c>
       <c r="C66" t="n">
-        <v>0.766612</v>
+        <v>0.762212</v>
       </c>
       <c r="D66" t="n">
-        <v>0.510568</v>
+        <v>0.507981</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.852138</v>
+        <v>0.846213</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7969580000000001</v>
+        <v>0.791038</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5275879999999999</v>
+        <v>0.527091</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877671</v>
+        <v>0.866937</v>
       </c>
       <c r="C68" t="n">
-        <v>0.545481</v>
+        <v>0.533972</v>
       </c>
       <c r="D68" t="n">
-        <v>0.409279</v>
+        <v>0.404599</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6678809999999999</v>
+        <v>0.647124</v>
       </c>
       <c r="C69" t="n">
-        <v>0.566988</v>
+        <v>0.54719</v>
       </c>
       <c r="D69" t="n">
-        <v>0.413838</v>
+        <v>0.409319</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.694941</v>
+        <v>0.661196</v>
       </c>
       <c r="C70" t="n">
-        <v>0.590861</v>
+        <v>0.564146</v>
       </c>
       <c r="D70" t="n">
-        <v>0.426412</v>
+        <v>0.417794</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.723044</v>
+        <v>0.692797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.614402</v>
+        <v>0.587406</v>
       </c>
       <c r="D71" t="n">
-        <v>0.43744</v>
+        <v>0.427128</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744662</v>
+        <v>0.712344</v>
       </c>
       <c r="C72" t="n">
-        <v>0.640328</v>
+        <v>0.6108170000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448664</v>
+        <v>0.438182</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.781651</v>
+        <v>0.729266</v>
       </c>
       <c r="C73" t="n">
-        <v>0.673444</v>
+        <v>0.633098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.459319</v>
+        <v>0.447448</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.80158</v>
+        <v>0.747843</v>
       </c>
       <c r="C74" t="n">
-        <v>0.69708</v>
+        <v>0.6508389999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.468705</v>
+        <v>0.454617</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.832651</v>
+        <v>0.7757500000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.728623</v>
+        <v>0.680498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.484216</v>
+        <v>0.467868</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.871457</v>
+        <v>0.8151080000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.764362</v>
+        <v>0.7136940000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.496196</v>
+        <v>0.482019</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.913415</v>
+        <v>0.860524</v>
       </c>
       <c r="C77" t="n">
-        <v>0.806074</v>
+        <v>0.755124</v>
       </c>
       <c r="D77" t="n">
-        <v>0.515755</v>
+        <v>0.5022720000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.962663</v>
+        <v>0.928698</v>
       </c>
       <c r="C78" t="n">
-        <v>0.847142</v>
+        <v>0.80148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.529589</v>
+        <v>0.514123</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01697</v>
+        <v>0.975545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.891419</v>
+        <v>0.84478</v>
       </c>
       <c r="D79" t="n">
-        <v>0.544665</v>
+        <v>0.5355569999999999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.07001</v>
+        <v>1.06031</v>
       </c>
       <c r="C80" t="n">
-        <v>0.942737</v>
+        <v>0.902482</v>
       </c>
       <c r="D80" t="n">
-        <v>0.564905</v>
+        <v>0.553834</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1404</v>
+        <v>1.14556</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01232</v>
+        <v>0.985769</v>
       </c>
       <c r="D81" t="n">
-        <v>0.588056</v>
+        <v>0.580867</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.23046</v>
+        <v>1.24924</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08435</v>
+        <v>1.0723</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6163110000000001</v>
+        <v>0.60746</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.33313</v>
+        <v>1.35486</v>
       </c>
       <c r="C83" t="n">
-        <v>0.804252</v>
+        <v>0.769155</v>
       </c>
       <c r="D83" t="n">
-        <v>0.489478</v>
+        <v>0.479285</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06499</v>
+        <v>1.06753</v>
       </c>
       <c r="C84" t="n">
-        <v>0.863578</v>
+        <v>0.828609</v>
       </c>
       <c r="D84" t="n">
-        <v>0.506409</v>
+        <v>0.498917</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12976</v>
+        <v>1.16194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.92018</v>
+        <v>0.881976</v>
       </c>
       <c r="D85" t="n">
-        <v>0.518055</v>
+        <v>0.518968</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21441</v>
+        <v>1.24134</v>
       </c>
       <c r="C86" t="n">
-        <v>0.997679</v>
+        <v>0.967789</v>
       </c>
       <c r="D86" t="n">
-        <v>0.542027</v>
+        <v>0.5377110000000001</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.31181</v>
+        <v>1.34694</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0806</v>
+        <v>1.05591</v>
       </c>
       <c r="D87" t="n">
-        <v>0.569796</v>
+        <v>0.567655</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41208</v>
+        <v>1.47074</v>
       </c>
       <c r="C88" t="n">
-        <v>1.18625</v>
+        <v>1.17106</v>
       </c>
       <c r="D88" t="n">
-        <v>0.605415</v>
+        <v>0.5983270000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.53478</v>
+        <v>1.59396</v>
       </c>
       <c r="C89" t="n">
-        <v>1.28604</v>
+        <v>1.27591</v>
       </c>
       <c r="D89" t="n">
-        <v>0.639556</v>
+        <v>0.63591</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.66622</v>
+        <v>1.7296</v>
       </c>
       <c r="C90" t="n">
-        <v>1.39507</v>
+        <v>1.39221</v>
       </c>
       <c r="D90" t="n">
-        <v>0.677528</v>
+        <v>0.687916</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79407</v>
+        <v>1.88195</v>
       </c>
       <c r="C91" t="n">
-        <v>1.52009</v>
+        <v>1.53476</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7272149999999999</v>
+        <v>0.745733</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.93566</v>
+        <v>2.04391</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65198</v>
+        <v>1.68116</v>
       </c>
       <c r="D92" t="n">
-        <v>0.779372</v>
+        <v>0.793859</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.07258</v>
+        <v>2.20618</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7883</v>
+        <v>1.83307</v>
       </c>
       <c r="D93" t="n">
-        <v>0.837139</v>
+        <v>0.857911</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.24054</v>
+        <v>2.38142</v>
       </c>
       <c r="C94" t="n">
-        <v>1.94237</v>
+        <v>2.0036</v>
       </c>
       <c r="D94" t="n">
-        <v>0.900014</v>
+        <v>0.91498</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40951</v>
+        <v>2.56241</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09648</v>
+        <v>2.18085</v>
       </c>
       <c r="D95" t="n">
-        <v>0.969515</v>
+        <v>1.00456</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57141</v>
+        <v>2.74811</v>
       </c>
       <c r="C96" t="n">
-        <v>2.28292</v>
+        <v>2.39083</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05519</v>
+        <v>1.08377</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7431</v>
+        <v>2.96475</v>
       </c>
       <c r="C97" t="n">
-        <v>1.45983</v>
+        <v>1.4948</v>
       </c>
       <c r="D97" t="n">
-        <v>0.791799</v>
+        <v>0.826839</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.03162</v>
+        <v>2.19994</v>
       </c>
       <c r="C98" t="n">
-        <v>1.56064</v>
+        <v>1.61021</v>
       </c>
       <c r="D98" t="n">
-        <v>0.833303</v>
+        <v>0.867891</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.13646</v>
+        <v>2.32399</v>
       </c>
       <c r="C99" t="n">
-        <v>1.6522</v>
+        <v>1.71063</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8918700000000001</v>
+        <v>0.9342</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.25477</v>
+        <v>2.43862</v>
       </c>
       <c r="C100" t="n">
-        <v>1.76002</v>
+        <v>1.83167</v>
       </c>
       <c r="D100" t="n">
-        <v>0.946658</v>
+        <v>0.992457</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.39624</v>
+        <v>2.60139</v>
       </c>
       <c r="C101" t="n">
-        <v>1.86813</v>
+        <v>1.95354</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9815700000000001</v>
+        <v>1.04674</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.50742</v>
+        <v>2.72338</v>
       </c>
       <c r="C102" t="n">
-        <v>1.98306</v>
+        <v>2.0831</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05632</v>
+        <v>1.11555</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.62008</v>
+        <v>2.84974</v>
       </c>
       <c r="C103" t="n">
-        <v>2.10499</v>
+        <v>2.22051</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11369</v>
+        <v>1.1921</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.76303</v>
+        <v>2.99792</v>
       </c>
       <c r="C104" t="n">
-        <v>2.23465</v>
+        <v>2.36482</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17162</v>
+        <v>1.26429</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.8898</v>
+        <v>3.13476</v>
       </c>
       <c r="C105" t="n">
-        <v>2.36986</v>
+        <v>2.51577</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22738</v>
+        <v>1.31212</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.03774</v>
+        <v>3.31359</v>
       </c>
       <c r="C106" t="n">
-        <v>2.50302</v>
+        <v>2.66589</v>
       </c>
       <c r="D106" t="n">
-        <v>1.30926</v>
+        <v>1.39204</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.20298</v>
+        <v>3.47418</v>
       </c>
       <c r="C107" t="n">
-        <v>2.64633</v>
+        <v>2.82566</v>
       </c>
       <c r="D107" t="n">
-        <v>1.37835</v>
+        <v>1.47182</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.33859</v>
+        <v>3.65355</v>
       </c>
       <c r="C108" t="n">
-        <v>2.81292</v>
+        <v>2.99277</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44783</v>
+        <v>1.55508</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.51859</v>
+        <v>3.78211</v>
       </c>
       <c r="C109" t="n">
-        <v>2.98999</v>
+        <v>3.16142</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52803</v>
+        <v>1.63364</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.67254</v>
+        <v>3.94132</v>
       </c>
       <c r="C110" t="n">
-        <v>3.15221</v>
+        <v>3.30798</v>
       </c>
       <c r="D110" t="n">
-        <v>1.61527</v>
+        <v>1.72581</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.87744</v>
+        <v>4.09438</v>
       </c>
       <c r="C111" t="n">
-        <v>2.09156</v>
+        <v>2.22648</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29405</v>
+        <v>1.393</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.80371</v>
+        <v>3.05187</v>
       </c>
       <c r="C112" t="n">
-        <v>2.1946</v>
+        <v>2.33516</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32845</v>
+        <v>1.44505</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.89204</v>
+        <v>3.14181</v>
       </c>
       <c r="C113" t="n">
-        <v>2.2991</v>
+        <v>2.434</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38354</v>
+        <v>1.50028</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.00135</v>
+        <v>3.2551</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4026</v>
+        <v>2.54587</v>
       </c>
       <c r="D114" t="n">
-        <v>1.43245</v>
+        <v>1.5453</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.11823</v>
+        <v>3.37088</v>
       </c>
       <c r="C115" t="n">
-        <v>2.50837</v>
+        <v>2.63636</v>
       </c>
       <c r="D115" t="n">
-        <v>1.48306</v>
+        <v>1.60735</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.23055</v>
+        <v>3.4725</v>
       </c>
       <c r="C116" t="n">
-        <v>2.62037</v>
+        <v>2.75323</v>
       </c>
       <c r="D116" t="n">
-        <v>1.53491</v>
+        <v>1.67273</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.34247</v>
+        <v>3.56697</v>
       </c>
       <c r="C117" t="n">
-        <v>2.74564</v>
+        <v>2.87459</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61011</v>
+        <v>1.75526</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.4769</v>
+        <v>3.69168</v>
       </c>
       <c r="C118" t="n">
-        <v>2.8821</v>
+        <v>3.01708</v>
       </c>
       <c r="D118" t="n">
-        <v>1.67743</v>
+        <v>1.82618</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.58488</v>
+        <v>3.80928</v>
       </c>
       <c r="C119" t="n">
-        <v>3.01445</v>
+        <v>3.15466</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72648</v>
+        <v>1.89247</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291125</v>
+        <v>0.298786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232654</v>
+        <v>0.239695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242312</v>
+        <v>0.245779</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29615</v>
+        <v>0.306369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236081</v>
+        <v>0.244766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246395</v>
+        <v>0.252474</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2993</v>
+        <v>0.312498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242521</v>
+        <v>0.25462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251151</v>
+        <v>0.256369</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.307088</v>
+        <v>0.321189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249627</v>
+        <v>0.260796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256407</v>
+        <v>0.263894</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.310911</v>
+        <v>0.325414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254839</v>
+        <v>0.265197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262524</v>
+        <v>0.266767</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317877</v>
+        <v>0.332435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214829</v>
+        <v>0.222285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229492</v>
+        <v>0.233293</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286315</v>
+        <v>0.296502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217033</v>
+        <v>0.226607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233899</v>
+        <v>0.236155</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29216</v>
+        <v>0.299414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220931</v>
+        <v>0.229177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237644</v>
+        <v>0.240425</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297895</v>
+        <v>0.306202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225529</v>
+        <v>0.234249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242009</v>
+        <v>0.245996</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303401</v>
+        <v>0.311296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229288</v>
+        <v>0.239386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24552</v>
+        <v>0.25068</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310625</v>
+        <v>0.319056</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234181</v>
+        <v>0.244278</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250938</v>
+        <v>0.255485</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318732</v>
+        <v>0.326254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240581</v>
+        <v>0.250857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25626</v>
+        <v>0.259436</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323651</v>
+        <v>0.330563</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246034</v>
+        <v>0.256553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262363</v>
+        <v>0.266108</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330994</v>
+        <v>0.338536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252788</v>
+        <v>0.263912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267255</v>
+        <v>0.271977</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340923</v>
+        <v>0.347018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260469</v>
+        <v>0.271756</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274758</v>
+        <v>0.278148</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347889</v>
+        <v>0.354251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267149</v>
+        <v>0.279273</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28117</v>
+        <v>0.284748</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354632</v>
+        <v>0.360415</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273078</v>
+        <v>0.285389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28678</v>
+        <v>0.290267</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.362079</v>
+        <v>0.368482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278984</v>
+        <v>0.291419</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293021</v>
+        <v>0.297561</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.368357</v>
+        <v>0.372785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28543</v>
+        <v>0.296231</v>
       </c>
       <c r="D20" t="n">
-        <v>0.298607</v>
+        <v>0.302949</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376329</v>
+        <v>0.379722</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238662</v>
+        <v>0.247251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256029</v>
+        <v>0.257531</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330895</v>
+        <v>0.332562</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244473</v>
+        <v>0.251901</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26191</v>
+        <v>0.26382</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335305</v>
+        <v>0.336629</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248148</v>
+        <v>0.255805</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266519</v>
+        <v>0.267783</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339863</v>
+        <v>0.340772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254595</v>
+        <v>0.261979</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27342</v>
+        <v>0.272542</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345099</v>
+        <v>0.346778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25851</v>
+        <v>0.26606</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276896</v>
+        <v>0.275709</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350554</v>
+        <v>0.351804</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26397</v>
+        <v>0.271813</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281709</v>
+        <v>0.28138</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356483</v>
+        <v>0.35828</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269757</v>
+        <v>0.27816</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288507</v>
+        <v>0.288257</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361252</v>
+        <v>0.363222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277939</v>
+        <v>0.285077</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295123</v>
+        <v>0.294098</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367651</v>
+        <v>0.368797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28408</v>
+        <v>0.292445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302103</v>
+        <v>0.30107</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.37387</v>
+        <v>0.375223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290528</v>
+        <v>0.298731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306454</v>
+        <v>0.306187</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380331</v>
+        <v>0.381045</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29698</v>
+        <v>0.304802</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31352</v>
+        <v>0.313836</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38587</v>
+        <v>0.386773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.301856</v>
+        <v>0.311646</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319836</v>
+        <v>0.319806</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391212</v>
+        <v>0.39149</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308421</v>
+        <v>0.317824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325341</v>
+        <v>0.325982</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398306</v>
+        <v>0.399685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314777</v>
+        <v>0.324195</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33142</v>
+        <v>0.332783</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405227</v>
+        <v>0.406004</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251923</v>
+        <v>0.259776</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27126</v>
+        <v>0.270964</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349627</v>
+        <v>0.350328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256024</v>
+        <v>0.264166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275045</v>
+        <v>0.275835</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353471</v>
+        <v>0.354642</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260942</v>
+        <v>0.269375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279385</v>
+        <v>0.279442</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357749</v>
+        <v>0.358881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267073</v>
+        <v>0.275629</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285118</v>
+        <v>0.285737</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362276</v>
+        <v>0.363074</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271752</v>
+        <v>0.280381</v>
       </c>
       <c r="D39" t="n">
-        <v>0.292007</v>
+        <v>0.290494</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366962</v>
+        <v>0.368001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277768</v>
+        <v>0.286213</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29653</v>
+        <v>0.296757</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371621</v>
+        <v>0.37248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28329</v>
+        <v>0.291844</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302412</v>
+        <v>0.302872</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378387</v>
+        <v>0.378952</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288961</v>
+        <v>0.298581</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308161</v>
+        <v>0.309376</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383789</v>
+        <v>0.384191</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295976</v>
+        <v>0.304498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3145</v>
+        <v>0.314862</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3898</v>
+        <v>0.390347</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301397</v>
+        <v>0.311368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320949</v>
+        <v>0.321348</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395958</v>
+        <v>0.396492</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30787</v>
+        <v>0.316113</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327012</v>
+        <v>0.327948</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402384</v>
+        <v>0.402097</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313442</v>
+        <v>0.322217</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333195</v>
+        <v>0.333399</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408571</v>
+        <v>0.407902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320131</v>
+        <v>0.33001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339709</v>
+        <v>0.339105</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414619</v>
+        <v>0.413839</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325702</v>
+        <v>0.336099</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345167</v>
+        <v>0.344542</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419791</v>
+        <v>0.419808</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330742</v>
+        <v>0.34024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349548</v>
+        <v>0.350529</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.427015</v>
+        <v>0.425361</v>
       </c>
       <c r="C50" t="n">
-        <v>0.263921</v>
+        <v>0.272438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276731</v>
+        <v>0.278957</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362991</v>
+        <v>0.362957</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268879</v>
+        <v>0.277074</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281414</v>
+        <v>0.285403</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367021</v>
+        <v>0.366888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273523</v>
+        <v>0.282677</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285972</v>
+        <v>0.288391</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371644</v>
+        <v>0.371642</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278926</v>
+        <v>0.287714</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291121</v>
+        <v>0.293647</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376105</v>
+        <v>0.375738</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285617</v>
+        <v>0.293116</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296712</v>
+        <v>0.299447</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.379365</v>
+        <v>0.380047</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292</v>
+        <v>0.298946</v>
       </c>
       <c r="D55" t="n">
-        <v>0.303374</v>
+        <v>0.305471</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385997</v>
+        <v>0.385734</v>
       </c>
       <c r="C56" t="n">
-        <v>0.297807</v>
+        <v>0.305526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30846</v>
+        <v>0.310843</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.39192</v>
+        <v>0.391088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302173</v>
+        <v>0.311695</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314224</v>
+        <v>0.317293</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3982</v>
+        <v>0.397578</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308317</v>
+        <v>0.316489</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320524</v>
+        <v>0.323499</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403744</v>
+        <v>0.403607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.314377</v>
+        <v>0.324241</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326274</v>
+        <v>0.328921</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409951</v>
+        <v>0.410238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32182</v>
+        <v>0.329506</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332368</v>
+        <v>0.33621</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41571</v>
+        <v>0.416756</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326719</v>
+        <v>0.337551</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338349</v>
+        <v>0.341849</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.422443</v>
+        <v>0.42272</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333392</v>
+        <v>0.342832</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344519</v>
+        <v>0.348874</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428407</v>
+        <v>0.428408</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33829</v>
+        <v>0.349383</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350361</v>
+        <v>0.354207</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434422</v>
+        <v>0.435656</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274691</v>
+        <v>0.284025</v>
       </c>
       <c r="D64" t="n">
-        <v>0.28893</v>
+        <v>0.289959</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.396513</v>
+        <v>0.40036</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28035</v>
+        <v>0.29082</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300264</v>
+        <v>0.29933</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.401195</v>
+        <v>0.414039</v>
       </c>
       <c r="C66" t="n">
-        <v>0.286972</v>
+        <v>0.297065</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302122</v>
+        <v>0.301944</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409319</v>
+        <v>0.414639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293829</v>
+        <v>0.304398</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307131</v>
+        <v>0.308575</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.419126</v>
+        <v>0.422049</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30071</v>
+        <v>0.312481</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314522</v>
+        <v>0.315803</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43387</v>
+        <v>0.437537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307926</v>
+        <v>0.31913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32401</v>
+        <v>0.324052</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.444827</v>
+        <v>0.44464</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316114</v>
+        <v>0.326948</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32722</v>
+        <v>0.330455</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.448629</v>
+        <v>0.461001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.322074</v>
+        <v>0.335588</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335957</v>
+        <v>0.340793</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.464174</v>
+        <v>0.480849</v>
       </c>
       <c r="C72" t="n">
-        <v>0.331171</v>
+        <v>0.348113</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345719</v>
+        <v>0.349608</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.477577</v>
+        <v>0.492524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340385</v>
+        <v>0.356414</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35506</v>
+        <v>0.359975</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500923</v>
+        <v>0.509208</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353513</v>
+        <v>0.367155</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365946</v>
+        <v>0.369332</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.523135</v>
+        <v>0.527165</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367698</v>
+        <v>0.37952</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380813</v>
+        <v>0.380574</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5460199999999999</v>
+        <v>0.548932</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380793</v>
+        <v>0.391138</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393659</v>
+        <v>0.394533</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57587</v>
+        <v>0.570451</v>
       </c>
       <c r="C77" t="n">
-        <v>0.397434</v>
+        <v>0.4029</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411461</v>
+        <v>0.406704</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.598691</v>
+        <v>0.593898</v>
       </c>
       <c r="C78" t="n">
-        <v>0.343119</v>
+        <v>0.371522</v>
       </c>
       <c r="D78" t="n">
-        <v>0.364283</v>
+        <v>0.377365</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.693174</v>
+        <v>0.70823</v>
       </c>
       <c r="C79" t="n">
-        <v>0.365835</v>
+        <v>0.384186</v>
       </c>
       <c r="D79" t="n">
-        <v>0.376984</v>
+        <v>0.393436</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7089259999999999</v>
+        <v>0.735006</v>
       </c>
       <c r="C80" t="n">
-        <v>0.379357</v>
+        <v>0.404641</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388836</v>
+        <v>0.406582</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.728019</v>
+        <v>0.753633</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396859</v>
+        <v>0.422513</v>
       </c>
       <c r="D81" t="n">
-        <v>0.40373</v>
+        <v>0.422836</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.756267</v>
+        <v>0.777044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423699</v>
+        <v>0.43756</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430296</v>
+        <v>0.438142</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.777072</v>
+        <v>0.797646</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436662</v>
+        <v>0.456874</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441856</v>
+        <v>0.457042</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.812692</v>
+        <v>0.825369</v>
       </c>
       <c r="C84" t="n">
-        <v>0.453523</v>
+        <v>0.475938</v>
       </c>
       <c r="D84" t="n">
-        <v>0.462587</v>
+        <v>0.479588</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.831307</v>
+        <v>0.85141</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478716</v>
+        <v>0.496235</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4851</v>
+        <v>0.498687</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.855309</v>
+        <v>0.876184</v>
       </c>
       <c r="C86" t="n">
-        <v>0.497772</v>
+        <v>0.516331</v>
       </c>
       <c r="D86" t="n">
-        <v>0.505111</v>
+        <v>0.521445</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.880533</v>
+        <v>0.902597</v>
       </c>
       <c r="C87" t="n">
-        <v>0.515308</v>
+        <v>0.537513</v>
       </c>
       <c r="D87" t="n">
-        <v>0.519642</v>
+        <v>0.539612</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.907973</v>
+        <v>0.929819</v>
       </c>
       <c r="C88" t="n">
-        <v>0.53838</v>
+        <v>0.55959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.542299</v>
+        <v>0.56142</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.935015</v>
+        <v>0.956918</v>
       </c>
       <c r="C89" t="n">
-        <v>0.561578</v>
+        <v>0.58203</v>
       </c>
       <c r="D89" t="n">
-        <v>0.566423</v>
+        <v>0.583986</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.966236</v>
+        <v>0.9851220000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.584759</v>
+        <v>0.606279</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589427</v>
+        <v>0.607222</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.99348</v>
+        <v>1.01686</v>
       </c>
       <c r="C91" t="n">
-        <v>0.608139</v>
+        <v>0.629039</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6125620000000001</v>
+        <v>0.630409</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02478</v>
+        <v>1.0478</v>
       </c>
       <c r="C92" t="n">
-        <v>0.621193</v>
+        <v>0.645605</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630569</v>
+        <v>0.645749</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14508</v>
+        <v>1.16023</v>
       </c>
       <c r="C93" t="n">
-        <v>0.644056</v>
+        <v>0.659376</v>
       </c>
       <c r="D93" t="n">
-        <v>0.643258</v>
+        <v>0.660813</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14928</v>
+        <v>1.16821</v>
       </c>
       <c r="C94" t="n">
-        <v>0.660568</v>
+        <v>0.674668</v>
       </c>
       <c r="D94" t="n">
-        <v>0.671811</v>
+        <v>0.678519</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1572</v>
+        <v>1.17627</v>
       </c>
       <c r="C95" t="n">
-        <v>0.673273</v>
+        <v>0.692806</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6818340000000001</v>
+        <v>0.691407</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1765</v>
+        <v>1.19038</v>
       </c>
       <c r="C96" t="n">
-        <v>0.694479</v>
+        <v>0.708919</v>
       </c>
       <c r="D96" t="n">
-        <v>0.703348</v>
+        <v>0.70589</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16482</v>
+        <v>1.20371</v>
       </c>
       <c r="C97" t="n">
-        <v>0.686902</v>
+        <v>0.726892</v>
       </c>
       <c r="D97" t="n">
-        <v>0.697997</v>
+        <v>0.730172</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17915</v>
+        <v>1.21853</v>
       </c>
       <c r="C98" t="n">
-        <v>0.704376</v>
+        <v>0.744507</v>
       </c>
       <c r="D98" t="n">
-        <v>0.714608</v>
+        <v>0.746418</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.19961</v>
+        <v>1.23823</v>
       </c>
       <c r="C99" t="n">
-        <v>0.724248</v>
+        <v>0.763873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.735399</v>
+        <v>0.7674299999999999</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21738</v>
+        <v>1.25591</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7432800000000001</v>
+        <v>0.783883</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.787561</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.23288</v>
+        <v>1.27126</v>
       </c>
       <c r="C101" t="n">
-        <v>0.762616</v>
+        <v>0.803247</v>
       </c>
       <c r="D101" t="n">
-        <v>0.78102</v>
+        <v>0.808195</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25355</v>
+        <v>1.2918</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784449</v>
+        <v>0.825674</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8104170000000001</v>
+        <v>0.82791</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27818</v>
+        <v>1.31737</v>
       </c>
       <c r="C103" t="n">
-        <v>0.803288</v>
+        <v>0.846444</v>
       </c>
       <c r="D103" t="n">
-        <v>0.832368</v>
+        <v>0.851629</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.301</v>
+        <v>1.33939</v>
       </c>
       <c r="C104" t="n">
-        <v>0.825956</v>
+        <v>0.869521</v>
       </c>
       <c r="D104" t="n">
-        <v>0.854868</v>
+        <v>0.875528</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.32451</v>
+        <v>1.36468</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849629</v>
+        <v>0.891679</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880708</v>
+        <v>0.898775</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34867</v>
+        <v>1.38958</v>
       </c>
       <c r="C106" t="n">
-        <v>0.869533</v>
+        <v>0.91472</v>
       </c>
       <c r="D106" t="n">
-        <v>0.905108</v>
+        <v>0.924466</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37507</v>
+        <v>1.39277</v>
       </c>
       <c r="C107" t="n">
-        <v>0.823752</v>
+        <v>0.867259</v>
       </c>
       <c r="D107" t="n">
-        <v>0.838678</v>
+        <v>0.869158</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36331</v>
+        <v>1.39803</v>
       </c>
       <c r="C108" t="n">
-        <v>0.840597</v>
+        <v>0.882283</v>
       </c>
       <c r="D108" t="n">
-        <v>0.851722</v>
+        <v>0.884603</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37438</v>
+        <v>1.40664</v>
       </c>
       <c r="C109" t="n">
-        <v>0.878628</v>
+        <v>0.896877</v>
       </c>
       <c r="D109" t="n">
-        <v>0.892142</v>
+        <v>0.902258</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3955</v>
+        <v>1.41596</v>
       </c>
       <c r="C110" t="n">
-        <v>0.894335</v>
+        <v>0.912569</v>
       </c>
       <c r="D110" t="n">
-        <v>0.908563</v>
+        <v>0.917591</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40873</v>
+        <v>1.4251</v>
       </c>
       <c r="C111" t="n">
-        <v>0.910593</v>
+        <v>0.928745</v>
       </c>
       <c r="D111" t="n">
-        <v>0.923419</v>
+        <v>0.931071</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42113</v>
+        <v>1.4375</v>
       </c>
       <c r="C112" t="n">
-        <v>0.928191</v>
+        <v>0.945985</v>
       </c>
       <c r="D112" t="n">
-        <v>0.942124</v>
+        <v>0.949203</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43196</v>
+        <v>1.44934</v>
       </c>
       <c r="C113" t="n">
-        <v>0.945749</v>
+        <v>0.963889</v>
       </c>
       <c r="D113" t="n">
-        <v>0.959658</v>
+        <v>0.967933</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44808</v>
+        <v>1.46559</v>
       </c>
       <c r="C114" t="n">
-        <v>0.966916</v>
+        <v>0.983754</v>
       </c>
       <c r="D114" t="n">
-        <v>0.977813</v>
+        <v>0.9861490000000001</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.46162</v>
+        <v>1.47993</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9837089999999999</v>
+        <v>1.00283</v>
       </c>
       <c r="D115" t="n">
-        <v>0.997051</v>
+        <v>1.00677</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48037</v>
+        <v>1.49808</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0034</v>
+        <v>1.02318</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01782</v>
+        <v>1.02701</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50118</v>
+        <v>1.51829</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02404</v>
+        <v>1.04419</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03874</v>
+        <v>1.04915</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.5217</v>
+        <v>1.53778</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04665</v>
+        <v>1.06453</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05803</v>
+        <v>1.06809</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.54001</v>
+        <v>1.55723</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06739</v>
+        <v>1.08713</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08053</v>
+        <v>1.09021</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267908</v>
+        <v>0.273262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201671</v>
+        <v>0.211754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205061</v>
+        <v>0.206872</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278627</v>
+        <v>0.28104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206244</v>
+        <v>0.219777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206636</v>
+        <v>0.209211</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280645</v>
+        <v>0.285631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207948</v>
+        <v>0.222057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208383</v>
+        <v>0.212069</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28343</v>
+        <v>0.29056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211432</v>
+        <v>0.226518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210188</v>
+        <v>0.212567</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283652</v>
+        <v>0.289199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220627</v>
+        <v>0.233903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213976</v>
+        <v>0.217901</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293665</v>
+        <v>0.300013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203386</v>
+        <v>0.213673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215305</v>
+        <v>0.217877</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283301</v>
+        <v>0.293308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204315</v>
+        <v>0.220616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219085</v>
+        <v>0.222577</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287521</v>
+        <v>0.29599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209619</v>
+        <v>0.223372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219866</v>
+        <v>0.224338</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291631</v>
+        <v>0.297354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211414</v>
+        <v>0.225788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221707</v>
+        <v>0.227001</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293768</v>
+        <v>0.308665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209292</v>
+        <v>0.227729</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218875</v>
+        <v>0.224309</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297107</v>
+        <v>0.306798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215472</v>
+        <v>0.232445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223035</v>
+        <v>0.229588</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312127</v>
+        <v>0.316127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214924</v>
+        <v>0.231175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224792</v>
+        <v>0.230944</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308692</v>
+        <v>0.31978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217976</v>
+        <v>0.237275</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22414</v>
+        <v>0.230493</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31482</v>
+        <v>0.328719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201</v>
+        <v>0.239711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22648</v>
+        <v>0.235232</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.320465</v>
+        <v>0.332893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22622</v>
+        <v>0.245771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233196</v>
+        <v>0.233651</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.328372</v>
+        <v>0.335507</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229908</v>
+        <v>0.248285</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231861</v>
+        <v>0.237478</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.328271</v>
+        <v>0.341841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234659</v>
+        <v>0.258273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23916</v>
+        <v>0.240429</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.330822</v>
+        <v>0.345903</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238323</v>
+        <v>0.262355</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237586</v>
+        <v>0.244749</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.338173</v>
+        <v>0.353342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245252</v>
+        <v>0.270458</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24012</v>
+        <v>0.248866</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.348412</v>
+        <v>0.36332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234244</v>
+        <v>0.25149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241508</v>
+        <v>0.256308</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.335132</v>
+        <v>0.350873</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23882</v>
+        <v>0.265089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247436</v>
+        <v>0.256836</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.350831</v>
+        <v>0.357315</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241475</v>
+        <v>0.266846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244997</v>
+        <v>0.254481</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348316</v>
+        <v>0.361194</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253011</v>
+        <v>0.277905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252619</v>
+        <v>0.260284</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.353122</v>
+        <v>0.366316</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270643</v>
+        <v>0.288754</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260823</v>
+        <v>0.268572</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.365008</v>
+        <v>0.370471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271036</v>
+        <v>0.289716</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25971</v>
+        <v>0.268074</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.372416</v>
+        <v>0.374835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.280787</v>
+        <v>0.297406</v>
       </c>
       <c r="D27" t="n">
-        <v>0.266434</v>
+        <v>0.270968</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.377327</v>
+        <v>0.38059</v>
       </c>
       <c r="C28" t="n">
-        <v>0.284328</v>
+        <v>0.300864</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270219</v>
+        <v>0.273504</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383296</v>
+        <v>0.387286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289183</v>
+        <v>0.307129</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273287</v>
+        <v>0.278024</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.389015</v>
+        <v>0.392482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303194</v>
+        <v>0.320503</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280256</v>
+        <v>0.282034</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.396071</v>
+        <v>0.399302</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301102</v>
+        <v>0.317512</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28205</v>
+        <v>0.284868</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.399066</v>
+        <v>0.401857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3117</v>
+        <v>0.329357</v>
       </c>
       <c r="D32" t="n">
-        <v>0.286808</v>
+        <v>0.289027</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40465</v>
+        <v>0.407715</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321256</v>
+        <v>0.340185</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293212</v>
+        <v>0.295158</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410132</v>
+        <v>0.410997</v>
       </c>
       <c r="C34" t="n">
-        <v>0.32977</v>
+        <v>0.3436</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296804</v>
+        <v>0.297256</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418157</v>
+        <v>0.419301</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273965</v>
+        <v>0.279802</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278201</v>
+        <v>0.278513</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402204</v>
+        <v>0.402619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.279298</v>
+        <v>0.286441</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279788</v>
+        <v>0.279729</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408236</v>
+        <v>0.40851</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282708</v>
+        <v>0.293355</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283104</v>
+        <v>0.283714</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409929</v>
+        <v>0.410977</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288102</v>
+        <v>0.295515</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284803</v>
+        <v>0.286407</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.41493</v>
+        <v>0.414265</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295065</v>
+        <v>0.304105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289731</v>
+        <v>0.290984</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418798</v>
+        <v>0.419108</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298212</v>
+        <v>0.30872</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292263</v>
+        <v>0.292207</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.42337</v>
+        <v>0.423061</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302424</v>
+        <v>0.30988</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293812</v>
+        <v>0.293997</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43001</v>
+        <v>0.430629</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303558</v>
+        <v>0.31434</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296206</v>
+        <v>0.297146</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435854</v>
+        <v>0.436437</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309263</v>
+        <v>0.319686</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298134</v>
+        <v>0.29901</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439818</v>
+        <v>0.444088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313475</v>
+        <v>0.324733</v>
       </c>
       <c r="D44" t="n">
-        <v>0.30098</v>
+        <v>0.301075</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442541</v>
+        <v>0.442259</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317029</v>
+        <v>0.32912</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304647</v>
+        <v>0.304928</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449364</v>
+        <v>0.449072</v>
       </c>
       <c r="C46" t="n">
-        <v>0.318249</v>
+        <v>0.329909</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305389</v>
+        <v>0.305435</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455635</v>
+        <v>0.455551</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324384</v>
+        <v>0.337878</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30894</v>
+        <v>0.308619</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461394</v>
+        <v>0.461059</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329874</v>
+        <v>0.343346</v>
       </c>
       <c r="D48" t="n">
-        <v>0.311136</v>
+        <v>0.312011</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467227</v>
+        <v>0.467186</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33491</v>
+        <v>0.347855</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315</v>
+        <v>0.314783</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476713</v>
+        <v>0.476954</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304071</v>
+        <v>0.311878</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293531</v>
+        <v>0.29374</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429377</v>
+        <v>0.429349</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30779</v>
+        <v>0.319024</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296029</v>
+        <v>0.296256</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430773</v>
+        <v>0.430315</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311012</v>
+        <v>0.323019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297097</v>
+        <v>0.297587</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438684</v>
+        <v>0.438994</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315689</v>
+        <v>0.329557</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300173</v>
+        <v>0.30065</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441958</v>
+        <v>0.442494</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321245</v>
+        <v>0.333403</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303536</v>
+        <v>0.303428</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445048</v>
+        <v>0.442538</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326865</v>
+        <v>0.339498</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305488</v>
+        <v>0.305475</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450602</v>
+        <v>0.45016</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326516</v>
+        <v>0.33947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307362</v>
+        <v>0.307457</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453131</v>
+        <v>0.451602</v>
       </c>
       <c r="C57" t="n">
-        <v>0.334629</v>
+        <v>0.349383</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309852</v>
+        <v>0.309938</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456971</v>
+        <v>0.457232</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342244</v>
+        <v>0.357643</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31407</v>
+        <v>0.314243</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461492</v>
+        <v>0.461115</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349457</v>
+        <v>0.365255</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31848</v>
+        <v>0.318954</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466724</v>
+        <v>0.466626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354109</v>
+        <v>0.370002</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320706</v>
+        <v>0.32084</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470576</v>
+        <v>0.470907</v>
       </c>
       <c r="C61" t="n">
-        <v>0.359332</v>
+        <v>0.375732</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323647</v>
+        <v>0.323901</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.479338</v>
+        <v>0.477429</v>
       </c>
       <c r="C62" t="n">
-        <v>0.364506</v>
+        <v>0.380973</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325123</v>
+        <v>0.32604</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483522</v>
+        <v>0.482696</v>
       </c>
       <c r="C63" t="n">
-        <v>0.370139</v>
+        <v>0.387163</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328683</v>
+        <v>0.328987</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489795</v>
+        <v>0.489006</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333186</v>
+        <v>0.351268</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310479</v>
+        <v>0.319574</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461028</v>
+        <v>0.46241</v>
       </c>
       <c r="C65" t="n">
-        <v>0.342647</v>
+        <v>0.356987</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316291</v>
+        <v>0.316162</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467302</v>
+        <v>0.467915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34438</v>
+        <v>0.360136</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316912</v>
+        <v>0.31784</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.47813</v>
+        <v>0.479935</v>
       </c>
       <c r="C67" t="n">
-        <v>0.351731</v>
+        <v>0.369242</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320172</v>
+        <v>0.321515</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.489082</v>
+        <v>0.491178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355797</v>
+        <v>0.373192</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325303</v>
+        <v>0.326398</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494854</v>
+        <v>0.494824</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36068</v>
+        <v>0.379536</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32742</v>
+        <v>0.327479</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507412</v>
+        <v>0.509713</v>
       </c>
       <c r="C70" t="n">
-        <v>0.367896</v>
+        <v>0.384693</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330644</v>
+        <v>0.330537</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.516579</v>
+        <v>0.517038</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377757</v>
+        <v>0.392789</v>
       </c>
       <c r="D71" t="n">
-        <v>0.33467</v>
+        <v>0.335315</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.528973</v>
+        <v>0.531127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.383941</v>
+        <v>0.400894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338725</v>
+        <v>0.339231</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.545814</v>
+        <v>0.551101</v>
       </c>
       <c r="C73" t="n">
-        <v>0.393435</v>
+        <v>0.412737</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344279</v>
+        <v>0.344524</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.55821</v>
+        <v>0.567364</v>
       </c>
       <c r="C74" t="n">
-        <v>0.400025</v>
+        <v>0.419186</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34668</v>
+        <v>0.346844</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.572998</v>
+        <v>0.58003</v>
       </c>
       <c r="C75" t="n">
-        <v>0.406453</v>
+        <v>0.426604</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353081</v>
+        <v>0.35319</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590486</v>
+        <v>0.600705</v>
       </c>
       <c r="C76" t="n">
-        <v>0.418637</v>
+        <v>0.439578</v>
       </c>
       <c r="D76" t="n">
-        <v>0.359934</v>
+        <v>0.360566</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.601011</v>
+        <v>0.620212</v>
       </c>
       <c r="C77" t="n">
-        <v>0.430087</v>
+        <v>0.452815</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3642</v>
+        <v>0.36462</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.638988</v>
+        <v>0.651765</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361068</v>
+        <v>0.41429</v>
       </c>
       <c r="D78" t="n">
-        <v>0.345489</v>
+        <v>0.357987</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646015</v>
+        <v>0.688674</v>
       </c>
       <c r="C79" t="n">
-        <v>0.402183</v>
+        <v>0.432694</v>
       </c>
       <c r="D79" t="n">
-        <v>0.355608</v>
+        <v>0.359622</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.682211</v>
+        <v>0.7144470000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.416997</v>
+        <v>0.448078</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36413</v>
+        <v>0.373545</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.702398</v>
+        <v>0.74817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435547</v>
+        <v>0.465765</v>
       </c>
       <c r="D81" t="n">
-        <v>0.372204</v>
+        <v>0.378972</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.750685</v>
+        <v>0.7865490000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.45646</v>
+        <v>0.486271</v>
       </c>
       <c r="D82" t="n">
-        <v>0.377324</v>
+        <v>0.390417</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.810508</v>
+        <v>0.827503</v>
       </c>
       <c r="C83" t="n">
-        <v>0.484256</v>
+        <v>0.5132409999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.385039</v>
+        <v>0.395294</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8527400000000001</v>
+        <v>0.88192</v>
       </c>
       <c r="C84" t="n">
-        <v>0.504375</v>
+        <v>0.539978</v>
       </c>
       <c r="D84" t="n">
-        <v>0.395261</v>
+        <v>0.411406</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.88368</v>
+        <v>0.912492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.530738</v>
+        <v>0.562286</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407407</v>
+        <v>0.42239</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.946977</v>
+        <v>0.9732189999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.555094</v>
+        <v>0.585084</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422043</v>
+        <v>0.436029</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00188</v>
+        <v>1.02927</v>
       </c>
       <c r="C87" t="n">
-        <v>0.584588</v>
+        <v>0.6203920000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434577</v>
+        <v>0.452872</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05134</v>
+        <v>1.0856</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611413</v>
+        <v>0.6486</v>
       </c>
       <c r="D88" t="n">
-        <v>0.448678</v>
+        <v>0.467031</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.09291</v>
+        <v>1.12776</v>
       </c>
       <c r="C89" t="n">
-        <v>0.650342</v>
+        <v>0.6874479999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474306</v>
+        <v>0.485696</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14795</v>
+        <v>1.18947</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6848919999999999</v>
+        <v>0.725168</v>
       </c>
       <c r="D90" t="n">
-        <v>0.489338</v>
+        <v>0.507217</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.22314</v>
+        <v>1.25836</v>
       </c>
       <c r="C91" t="n">
-        <v>0.726362</v>
+        <v>0.768447</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5097930000000001</v>
+        <v>0.533674</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2646</v>
+        <v>1.30804</v>
       </c>
       <c r="C92" t="n">
-        <v>0.74183</v>
+        <v>0.8009269999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618129</v>
+        <v>0.649334</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31631</v>
+        <v>1.34707</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7762</v>
+        <v>0.838775</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630269</v>
+        <v>0.676253</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.35137</v>
+        <v>1.4013</v>
       </c>
       <c r="C94" t="n">
-        <v>0.832043</v>
+        <v>0.868494</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6798380000000001</v>
+        <v>0.695389</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39424</v>
+        <v>1.4399</v>
       </c>
       <c r="C95" t="n">
-        <v>0.842533</v>
+        <v>0.903509</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6756450000000001</v>
+        <v>0.719618</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43189</v>
+        <v>1.48432</v>
       </c>
       <c r="C96" t="n">
-        <v>0.876426</v>
+        <v>0.939739</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699986</v>
+        <v>0.744626</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49065</v>
+        <v>1.54005</v>
       </c>
       <c r="C97" t="n">
-        <v>0.913018</v>
+        <v>0.97697</v>
       </c>
       <c r="D97" t="n">
-        <v>0.724712</v>
+        <v>0.771037</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56565</v>
+        <v>1.59329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.954419</v>
+        <v>1.0143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.781289</v>
+        <v>0.800778</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.59732</v>
+        <v>1.62811</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01198</v>
+        <v>1.05575</v>
       </c>
       <c r="D99" t="n">
-        <v>0.796943</v>
+        <v>0.828457</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.63274</v>
+        <v>1.67635</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04325</v>
+        <v>1.09661</v>
       </c>
       <c r="D100" t="n">
-        <v>0.83081</v>
+        <v>0.853902</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.66716</v>
+        <v>1.71599</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07678</v>
+        <v>1.1302</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850128</v>
+        <v>0.879853</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72465</v>
+        <v>1.77158</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11789</v>
+        <v>1.17287</v>
       </c>
       <c r="D102" t="n">
-        <v>0.880915</v>
+        <v>0.908838</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77545</v>
+        <v>1.82354</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15306</v>
+        <v>1.20958</v>
       </c>
       <c r="D103" t="n">
-        <v>0.914274</v>
+        <v>0.939214</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.82221</v>
+        <v>1.86263</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19071</v>
+        <v>1.24695</v>
       </c>
       <c r="D104" t="n">
-        <v>0.940573</v>
+        <v>0.967935</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.85164</v>
+        <v>1.90271</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23167</v>
+        <v>1.2903</v>
       </c>
       <c r="D105" t="n">
-        <v>0.954901</v>
+        <v>0.990441</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91237</v>
+        <v>1.95885</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27291</v>
+        <v>1.32815</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987044</v>
+        <v>1.01437</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.81501</v>
+        <v>1.84789</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17141</v>
+        <v>1.23279</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0342</v>
+        <v>1.06226</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.84842</v>
+        <v>1.87899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21932</v>
+        <v>1.26165</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06313</v>
+        <v>1.08367</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.88019</v>
+        <v>1.91238</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24825</v>
+        <v>1.29237</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0835</v>
+        <v>1.1022</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91872</v>
+        <v>1.94552</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27673</v>
+        <v>1.32269</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1013</v>
+        <v>1.11842</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.94897</v>
+        <v>1.97668</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30232</v>
+        <v>1.34828</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12228</v>
+        <v>1.14037</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.96392</v>
+        <v>2.01589</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33167</v>
+        <v>1.38137</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14896</v>
+        <v>1.16678</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.01688</v>
+        <v>2.05161</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36459</v>
+        <v>1.41684</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16551</v>
+        <v>1.1844</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05169</v>
+        <v>2.08732</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39243</v>
+        <v>1.44569</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18537</v>
+        <v>1.20379</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.08037</v>
+        <v>2.11753</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42728</v>
+        <v>1.48318</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21043</v>
+        <v>1.23098</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.11915</v>
+        <v>2.15597</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45874</v>
+        <v>1.51659</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23003</v>
+        <v>1.25169</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15059</v>
+        <v>2.19104</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48825</v>
+        <v>1.54955</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24826</v>
+        <v>1.27286</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.18178</v>
+        <v>2.21795</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52861</v>
+        <v>1.58905</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27208</v>
+        <v>1.29621</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.22854</v>
+        <v>2.25908</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56465</v>
+        <v>1.62524</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30375</v>
+        <v>1.31867</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427151</v>
+        <v>0.436641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.313374</v>
+        <v>0.344339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.271777</v>
+        <v>0.274151</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436714</v>
+        <v>0.449705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316024</v>
+        <v>0.349255</v>
       </c>
       <c r="D3" t="n">
-        <v>0.274111</v>
+        <v>0.278893</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.452092</v>
+        <v>0.46504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33356</v>
+        <v>0.367786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28388</v>
+        <v>0.288099</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459879</v>
+        <v>0.474291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.342644</v>
+        <v>0.37922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.287326</v>
+        <v>0.292523</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46715</v>
+        <v>0.481218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353476</v>
+        <v>0.379241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292118</v>
+        <v>0.29651</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.490831</v>
+        <v>0.494928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37005</v>
+        <v>0.403188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30048</v>
+        <v>0.303439</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.497013</v>
+        <v>0.505869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389749</v>
+        <v>0.420491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309041</v>
+        <v>0.312985</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52154</v>
+        <v>0.529072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.40478</v>
+        <v>0.439383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321556</v>
+        <v>0.324251</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.540248</v>
+        <v>0.541898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427348</v>
+        <v>0.461575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.332979</v>
+        <v>0.337285</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555984</v>
+        <v>0.564464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322866</v>
+        <v>0.354688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271987</v>
+        <v>0.276114</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398121</v>
+        <v>0.414798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.324495</v>
+        <v>0.362013</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271104</v>
+        <v>0.278746</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.415161</v>
+        <v>0.435981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336383</v>
+        <v>0.375087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28231</v>
+        <v>0.290609</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.418932</v>
+        <v>0.438891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.350666</v>
+        <v>0.396847</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282707</v>
+        <v>0.289016</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441251</v>
+        <v>0.463466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.364862</v>
+        <v>0.411461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29181</v>
+        <v>0.298616</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445553</v>
+        <v>0.467306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.379369</v>
+        <v>0.427311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298529</v>
+        <v>0.305583</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466039</v>
+        <v>0.493408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393057</v>
+        <v>0.443414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307363</v>
+        <v>0.315314</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485456</v>
+        <v>0.506281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407175</v>
+        <v>0.455999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305911</v>
+        <v>0.316672</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.512622</v>
+        <v>0.5346030000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422567</v>
+        <v>0.474959</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320027</v>
+        <v>0.329483</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.521995</v>
+        <v>0.541453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.443859</v>
+        <v>0.503242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.329792</v>
+        <v>0.338282</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.542362</v>
+        <v>0.568345</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463775</v>
+        <v>0.522411</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341704</v>
+        <v>0.350073</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.561452</v>
+        <v>0.58319</v>
       </c>
       <c r="C22" t="n">
-        <v>0.487771</v>
+        <v>0.549302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.347606</v>
+        <v>0.36048</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.598147</v>
+        <v>0.6242220000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.515669</v>
+        <v>0.575726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.365275</v>
+        <v>0.380791</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618317</v>
+        <v>0.643604</v>
       </c>
       <c r="C24" t="n">
-        <v>0.536233</v>
+        <v>0.5971070000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.376139</v>
+        <v>0.389157</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64359</v>
+        <v>0.670455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5618030000000001</v>
+        <v>0.627455</v>
       </c>
       <c r="D25" t="n">
-        <v>0.390161</v>
+        <v>0.40109</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6782319999999999</v>
+        <v>0.701775</v>
       </c>
       <c r="C26" t="n">
-        <v>0.354741</v>
+        <v>0.404634</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277165</v>
+        <v>0.293366</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.487805</v>
+        <v>0.5152</v>
       </c>
       <c r="C27" t="n">
-        <v>0.380251</v>
+        <v>0.414319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284367</v>
+        <v>0.296651</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.508835</v>
+        <v>0.527935</v>
       </c>
       <c r="C28" t="n">
-        <v>0.392085</v>
+        <v>0.430546</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295118</v>
+        <v>0.305386</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533987</v>
+        <v>0.549445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409596</v>
+        <v>0.439798</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300123</v>
+        <v>0.310222</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.557806</v>
+        <v>0.571901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.429899</v>
+        <v>0.4612</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31033</v>
+        <v>0.318528</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.578693</v>
+        <v>0.591932</v>
       </c>
       <c r="C31" t="n">
-        <v>0.445358</v>
+        <v>0.477814</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321055</v>
+        <v>0.331292</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.599445</v>
+        <v>0.609731</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463922</v>
+        <v>0.497926</v>
       </c>
       <c r="D32" t="n">
-        <v>0.330137</v>
+        <v>0.338077</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.613469</v>
+        <v>0.625081</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482864</v>
+        <v>0.517717</v>
       </c>
       <c r="D33" t="n">
-        <v>0.342784</v>
+        <v>0.349121</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.641947</v>
+        <v>0.651471</v>
       </c>
       <c r="C34" t="n">
-        <v>0.503478</v>
+        <v>0.537617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356794</v>
+        <v>0.358805</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.663643</v>
+        <v>0.675477</v>
       </c>
       <c r="C35" t="n">
-        <v>0.52499</v>
+        <v>0.562853</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367726</v>
+        <v>0.373175</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685948</v>
+        <v>0.692786</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550574</v>
+        <v>0.588493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378251</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716992</v>
+        <v>0.7243039999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.573902</v>
+        <v>0.615213</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390469</v>
+        <v>0.398315</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738498</v>
+        <v>0.746539</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5966939999999999</v>
+        <v>0.638151</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408974</v>
+        <v>0.416939</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.773522</v>
+        <v>0.782021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6244150000000001</v>
+        <v>0.668036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421932</v>
+        <v>0.427538</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.796168</v>
+        <v>0.802092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453316</v>
+        <v>0.479633</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351866</v>
+        <v>0.354099</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579639</v>
+        <v>0.583151</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469443</v>
+        <v>0.495752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.359685</v>
+        <v>0.36344</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.59831</v>
+        <v>0.603365</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48751</v>
+        <v>0.515</v>
       </c>
       <c r="D42" t="n">
-        <v>0.367588</v>
+        <v>0.372078</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.616915</v>
+        <v>0.62068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.50074</v>
+        <v>0.529461</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376441</v>
+        <v>0.37959</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629621</v>
+        <v>0.63236</v>
       </c>
       <c r="C44" t="n">
-        <v>0.523805</v>
+        <v>0.554112</v>
       </c>
       <c r="D44" t="n">
-        <v>0.387545</v>
+        <v>0.388626</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652067</v>
+        <v>0.654216</v>
       </c>
       <c r="C45" t="n">
-        <v>0.536521</v>
+        <v>0.568446</v>
       </c>
       <c r="D45" t="n">
-        <v>0.391356</v>
+        <v>0.396824</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664397</v>
+        <v>0.666788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.556525</v>
+        <v>0.5889259999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406961</v>
+        <v>0.408747</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684588</v>
+        <v>0.687731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.574547</v>
+        <v>0.6082880000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.416212</v>
+        <v>0.417653</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701259</v>
+        <v>0.703133</v>
       </c>
       <c r="C48" t="n">
-        <v>0.590538</v>
+        <v>0.624849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.427297</v>
+        <v>0.429168</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7228</v>
+        <v>0.724826</v>
       </c>
       <c r="C49" t="n">
-        <v>0.615389</v>
+        <v>0.64944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432137</v>
+        <v>0.437761</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744623</v>
+        <v>0.746353</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63296</v>
+        <v>0.670058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443672</v>
+        <v>0.448946</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.765754</v>
+        <v>0.766787</v>
       </c>
       <c r="C51" t="n">
-        <v>0.658081</v>
+        <v>0.697557</v>
       </c>
       <c r="D51" t="n">
-        <v>0.462987</v>
+        <v>0.465037</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.79009</v>
+        <v>0.791883</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684777</v>
+        <v>0.724128</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476922</v>
+        <v>0.478115</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.808218</v>
+        <v>0.812002</v>
       </c>
       <c r="C53" t="n">
-        <v>0.707623</v>
+        <v>0.749966</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493543</v>
+        <v>0.494764</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83296</v>
+        <v>0.835406</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515012</v>
+        <v>0.544973</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395584</v>
+        <v>0.396433</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622773</v>
+        <v>0.62399</v>
       </c>
       <c r="C55" t="n">
-        <v>0.526517</v>
+        <v>0.555316</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405313</v>
+        <v>0.406022</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.638524</v>
+        <v>0.639951</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54336</v>
+        <v>0.573198</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413212</v>
+        <v>0.41385</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.654604</v>
+        <v>0.653416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558124</v>
+        <v>0.58894</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419834</v>
+        <v>0.420384</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668665</v>
+        <v>0.669509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.572703</v>
+        <v>0.6044119999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4282</v>
+        <v>0.428712</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.688353</v>
+        <v>0.6879420000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5881729999999999</v>
+        <v>0.62149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43768</v>
+        <v>0.438687</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702244</v>
+        <v>0.702969</v>
       </c>
       <c r="C60" t="n">
-        <v>0.606359</v>
+        <v>0.6398160000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444521</v>
+        <v>0.444749</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720148</v>
+        <v>0.722706</v>
       </c>
       <c r="C61" t="n">
-        <v>0.623844</v>
+        <v>0.658025</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454907</v>
+        <v>0.454827</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737859</v>
+        <v>0.73899</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639551</v>
+        <v>0.675169</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462668</v>
+        <v>0.463265</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757047</v>
+        <v>0.760792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.66308</v>
+        <v>0.699026</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475737</v>
+        <v>0.477298</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.769468</v>
+        <v>0.771242</v>
       </c>
       <c r="C64" t="n">
-        <v>0.679707</v>
+        <v>0.717516</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485958</v>
+        <v>0.486942</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796343</v>
+        <v>0.797917</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707251</v>
+        <v>0.746016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497649</v>
+        <v>0.49904</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818496</v>
+        <v>0.819148</v>
       </c>
       <c r="C66" t="n">
-        <v>0.726095</v>
+        <v>0.765775</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509476</v>
+        <v>0.510983</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850133</v>
+        <v>0.848902</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75691</v>
+        <v>0.795046</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5258969999999999</v>
+        <v>0.526487</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877507</v>
+        <v>0.8714</v>
       </c>
       <c r="C68" t="n">
-        <v>0.512435</v>
+        <v>0.543975</v>
       </c>
       <c r="D68" t="n">
-        <v>0.404924</v>
+        <v>0.409333</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.656489</v>
+        <v>0.666071</v>
       </c>
       <c r="C69" t="n">
-        <v>0.529656</v>
+        <v>0.5642509999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411578</v>
+        <v>0.414315</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676002</v>
+        <v>0.6867760000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550056</v>
+        <v>0.589108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.42249</v>
+        <v>0.427019</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701379</v>
+        <v>0.713596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571574</v>
+        <v>0.610021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433202</v>
+        <v>0.437578</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726956</v>
+        <v>0.738357</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5947249999999999</v>
+        <v>0.635128</v>
       </c>
       <c r="D72" t="n">
-        <v>0.444339</v>
+        <v>0.449003</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75274</v>
+        <v>0.769936</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621421</v>
+        <v>0.665328</v>
       </c>
       <c r="D73" t="n">
-        <v>0.455467</v>
+        <v>0.460158</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.772746</v>
+        <v>0.792622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.643589</v>
+        <v>0.689959</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464757</v>
+        <v>0.469419</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.807684</v>
+        <v>0.8263509999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677267</v>
+        <v>0.723689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.479281</v>
+        <v>0.483944</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.837214</v>
+        <v>0.859835</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7022969999999999</v>
+        <v>0.754287</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489053</v>
+        <v>0.494788</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874385</v>
+        <v>0.907906</v>
       </c>
       <c r="C77" t="n">
-        <v>0.738986</v>
+        <v>0.798916</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506044</v>
+        <v>0.5144069999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.915147</v>
+        <v>0.960777</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775939</v>
+        <v>0.843286</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517644</v>
+        <v>0.5277539999999999</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.968971</v>
+        <v>1.02026</v>
       </c>
       <c r="C79" t="n">
-        <v>0.817179</v>
+        <v>0.889465</v>
       </c>
       <c r="D79" t="n">
-        <v>0.534312</v>
+        <v>0.544547</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02815</v>
+        <v>1.08462</v>
       </c>
       <c r="C80" t="n">
-        <v>0.869967</v>
+        <v>0.950276</v>
       </c>
       <c r="D80" t="n">
-        <v>0.557054</v>
+        <v>0.567347</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10232</v>
+        <v>1.16166</v>
       </c>
       <c r="C81" t="n">
-        <v>0.936972</v>
+        <v>1.02429</v>
       </c>
       <c r="D81" t="n">
-        <v>0.578201</v>
+        <v>0.58519</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.18842</v>
+        <v>1.25192</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00869</v>
+        <v>1.09476</v>
       </c>
       <c r="D82" t="n">
-        <v>0.601538</v>
+        <v>0.615916</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.28523</v>
+        <v>1.34911</v>
       </c>
       <c r="C83" t="n">
-        <v>0.719919</v>
+        <v>0.801796</v>
       </c>
       <c r="D83" t="n">
-        <v>0.473295</v>
+        <v>0.488539</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.994831</v>
+        <v>1.05989</v>
       </c>
       <c r="C84" t="n">
-        <v>0.775269</v>
+        <v>0.856187</v>
       </c>
       <c r="D84" t="n">
-        <v>0.48546</v>
+        <v>0.499667</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05787</v>
+        <v>1.12589</v>
       </c>
       <c r="C85" t="n">
-        <v>0.827745</v>
+        <v>0.913293</v>
       </c>
       <c r="D85" t="n">
-        <v>0.500786</v>
+        <v>0.519408</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1506</v>
+        <v>1.21573</v>
       </c>
       <c r="C86" t="n">
-        <v>0.904313</v>
+        <v>0.995265</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5237619999999999</v>
+        <v>0.541815</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.24134</v>
+        <v>1.30559</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9871490000000001</v>
+        <v>1.07475</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551969</v>
+        <v>0.568398</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36403</v>
+        <v>1.41652</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08945</v>
+        <v>1.18226</v>
       </c>
       <c r="D88" t="n">
-        <v>0.575387</v>
+        <v>0.6014930000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.46589</v>
+        <v>1.5389</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1886</v>
+        <v>1.285</v>
       </c>
       <c r="D89" t="n">
-        <v>0.615395</v>
+        <v>0.644918</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.60353</v>
+        <v>1.66906</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29967</v>
+        <v>1.39573</v>
       </c>
       <c r="D90" t="n">
-        <v>0.654702</v>
+        <v>0.676397</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.74339</v>
+        <v>1.79685</v>
       </c>
       <c r="C91" t="n">
-        <v>1.42544</v>
+        <v>1.52277</v>
       </c>
       <c r="D91" t="n">
-        <v>0.694862</v>
+        <v>0.727498</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88544</v>
+        <v>1.93984</v>
       </c>
       <c r="C92" t="n">
-        <v>1.55585</v>
+        <v>1.65478</v>
       </c>
       <c r="D92" t="n">
-        <v>0.749853</v>
+        <v>0.772827</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.03261</v>
+        <v>2.08476</v>
       </c>
       <c r="C93" t="n">
-        <v>1.69287</v>
+        <v>1.79105</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8028419999999999</v>
+        <v>0.828084</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.17834</v>
+        <v>2.243</v>
       </c>
       <c r="C94" t="n">
-        <v>1.84029</v>
+        <v>1.94779</v>
       </c>
       <c r="D94" t="n">
-        <v>0.865188</v>
+        <v>0.892763</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.34816</v>
+        <v>2.41381</v>
       </c>
       <c r="C95" t="n">
-        <v>1.99285</v>
+        <v>2.10804</v>
       </c>
       <c r="D95" t="n">
-        <v>0.940867</v>
+        <v>0.96609</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.51672</v>
+        <v>2.57551</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17899</v>
+        <v>2.29698</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02434</v>
+        <v>1.05545</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70313</v>
+        <v>2.76198</v>
       </c>
       <c r="C97" t="n">
-        <v>1.38989</v>
+        <v>1.46895</v>
       </c>
       <c r="D97" t="n">
-        <v>0.777595</v>
+        <v>0.79538</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.0118</v>
+        <v>2.04903</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49148</v>
+        <v>1.57127</v>
       </c>
       <c r="D98" t="n">
-        <v>0.818818</v>
+        <v>0.838568</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12032</v>
+        <v>2.1563</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57917</v>
+        <v>1.66508</v>
       </c>
       <c r="D99" t="n">
-        <v>0.881379</v>
+        <v>0.898479</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.21989</v>
+        <v>2.27222</v>
       </c>
       <c r="C100" t="n">
-        <v>1.68838</v>
+        <v>1.77453</v>
       </c>
       <c r="D100" t="n">
-        <v>0.932964</v>
+        <v>0.954859</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.37345</v>
+        <v>2.4111</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79236</v>
+        <v>1.88467</v>
       </c>
       <c r="D101" t="n">
-        <v>0.970992</v>
+        <v>0.993068</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.47997</v>
+        <v>2.52573</v>
       </c>
       <c r="C102" t="n">
-        <v>1.90213</v>
+        <v>1.99948</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03444</v>
+        <v>1.05897</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59832</v>
+        <v>2.64152</v>
       </c>
       <c r="C103" t="n">
-        <v>2.02226</v>
+        <v>2.12216</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10291</v>
+        <v>1.12142</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.73354</v>
+        <v>2.7786</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14806</v>
+        <v>2.25193</v>
       </c>
       <c r="D104" t="n">
-        <v>1.15045</v>
+        <v>1.17507</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86079</v>
+        <v>2.90146</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27979</v>
+        <v>2.38775</v>
       </c>
       <c r="D105" t="n">
-        <v>1.21008</v>
+        <v>1.23545</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99586</v>
+        <v>3.05643</v>
       </c>
       <c r="C106" t="n">
-        <v>2.40583</v>
+        <v>2.52249</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28895</v>
+        <v>1.31777</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.16586</v>
+        <v>3.21584</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54572</v>
+        <v>2.66639</v>
       </c>
       <c r="D107" t="n">
-        <v>1.35959</v>
+        <v>1.38413</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3129</v>
+        <v>3.3677</v>
       </c>
       <c r="C108" t="n">
-        <v>2.71393</v>
+        <v>2.83665</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43201</v>
+        <v>1.45662</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.48168</v>
+        <v>3.5393</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88119</v>
+        <v>3.01475</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50614</v>
+        <v>1.53789</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.64804</v>
+        <v>3.70006</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04159</v>
+        <v>3.17842</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59375</v>
+        <v>1.62583</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.83185</v>
+        <v>3.89808</v>
       </c>
       <c r="C111" t="n">
-        <v>2.0134</v>
+        <v>2.11182</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28106</v>
+        <v>1.30244</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.77706</v>
+        <v>2.82618</v>
       </c>
       <c r="C112" t="n">
-        <v>2.11291</v>
+        <v>2.21423</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32192</v>
+        <v>1.33861</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.88458</v>
+        <v>2.91332</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21485</v>
+        <v>2.32015</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37257</v>
+        <v>1.39288</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.97741</v>
+        <v>3.02828</v>
       </c>
       <c r="C114" t="n">
-        <v>2.31594</v>
+        <v>2.42257</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42441</v>
+        <v>1.4453</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09309</v>
+        <v>3.14251</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42015</v>
+        <v>2.5322</v>
       </c>
       <c r="D115" t="n">
-        <v>1.47749</v>
+        <v>1.49413</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.20008</v>
+        <v>3.252</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52911</v>
+        <v>2.64467</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52666</v>
+        <v>1.54802</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.32265</v>
+        <v>3.37446</v>
       </c>
       <c r="C117" t="n">
-        <v>2.65057</v>
+        <v>2.77524</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59987</v>
+        <v>1.62396</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.45107</v>
+        <v>3.4988</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78686</v>
+        <v>2.90772</v>
       </c>
       <c r="D118" t="n">
-        <v>1.66165</v>
+        <v>1.69267</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56317</v>
+        <v>3.61376</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91546</v>
+        <v>3.04439</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7146</v>
+        <v>1.74382</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298786</v>
+        <v>0.29864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239695</v>
+        <v>0.245819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245779</v>
+        <v>0.245783</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.306369</v>
+        <v>0.304015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244766</v>
+        <v>0.252007</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252474</v>
+        <v>0.252237</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.312498</v>
+        <v>0.310364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25462</v>
+        <v>0.258135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256369</v>
+        <v>0.257425</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.321189</v>
+        <v>0.31648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260796</v>
+        <v>0.26567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.263894</v>
+        <v>0.264357</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.325414</v>
+        <v>0.323588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.265197</v>
+        <v>0.272054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.266767</v>
+        <v>0.269852</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.332435</v>
+        <v>0.328262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222285</v>
+        <v>0.224829</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233293</v>
+        <v>0.226187</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.296502</v>
+        <v>0.282439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226607</v>
+        <v>0.228672</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236155</v>
+        <v>0.232928</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.299414</v>
+        <v>0.292322</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229177</v>
+        <v>0.231837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240425</v>
+        <v>0.239333</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306202</v>
+        <v>0.29561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234249</v>
+        <v>0.237875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245996</v>
+        <v>0.241806</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.311296</v>
+        <v>0.303685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239386</v>
+        <v>0.242422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25068</v>
+        <v>0.248291</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.319056</v>
+        <v>0.309933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244278</v>
+        <v>0.248821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255485</v>
+        <v>0.253176</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326254</v>
+        <v>0.316989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250857</v>
+        <v>0.255268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259436</v>
+        <v>0.258978</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.330563</v>
+        <v>0.324265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.256553</v>
+        <v>0.261749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266108</v>
+        <v>0.265835</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.338536</v>
+        <v>0.331849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.263912</v>
+        <v>0.269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271977</v>
+        <v>0.271759</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.347018</v>
+        <v>0.340485</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271756</v>
+        <v>0.275754</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278148</v>
+        <v>0.276459</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.354251</v>
+        <v>0.347427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279273</v>
+        <v>0.283256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284748</v>
+        <v>0.283166</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.360415</v>
+        <v>0.352947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.285389</v>
+        <v>0.289623</v>
       </c>
       <c r="D18" t="n">
-        <v>0.290267</v>
+        <v>0.289426</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.368482</v>
+        <v>0.360446</v>
       </c>
       <c r="C19" t="n">
-        <v>0.291419</v>
+        <v>0.296491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.297561</v>
+        <v>0.296172</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.372785</v>
+        <v>0.36759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.296231</v>
+        <v>0.303583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.302949</v>
+        <v>0.303041</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379722</v>
+        <v>0.375401</v>
       </c>
       <c r="C21" t="n">
-        <v>0.247251</v>
+        <v>0.251797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257531</v>
+        <v>0.257513</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.332562</v>
+        <v>0.329005</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251901</v>
+        <v>0.256313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26382</v>
+        <v>0.26333</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.336629</v>
+        <v>0.333445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255805</v>
+        <v>0.262018</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267783</v>
+        <v>0.268417</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340772</v>
+        <v>0.338575</v>
       </c>
       <c r="C24" t="n">
-        <v>0.261979</v>
+        <v>0.267882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.272542</v>
+        <v>0.273357</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346778</v>
+        <v>0.343763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.26606</v>
+        <v>0.271856</v>
       </c>
       <c r="D25" t="n">
-        <v>0.275709</v>
+        <v>0.278889</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351804</v>
+        <v>0.349849</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271813</v>
+        <v>0.277826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28138</v>
+        <v>0.283679</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.35828</v>
+        <v>0.355052</v>
       </c>
       <c r="C27" t="n">
-        <v>0.27816</v>
+        <v>0.285316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288257</v>
+        <v>0.289928</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.363222</v>
+        <v>0.360499</v>
       </c>
       <c r="C28" t="n">
-        <v>0.285077</v>
+        <v>0.290803</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294098</v>
+        <v>0.296353</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.368797</v>
+        <v>0.366318</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292445</v>
+        <v>0.298629</v>
       </c>
       <c r="D29" t="n">
-        <v>0.30107</v>
+        <v>0.302983</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.375223</v>
+        <v>0.372643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.298731</v>
+        <v>0.304665</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306187</v>
+        <v>0.309585</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.381045</v>
+        <v>0.378984</v>
       </c>
       <c r="C31" t="n">
-        <v>0.304802</v>
+        <v>0.311289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313836</v>
+        <v>0.316227</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.386773</v>
+        <v>0.385292</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311646</v>
+        <v>0.318595</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319806</v>
+        <v>0.32162</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.39149</v>
+        <v>0.390451</v>
       </c>
       <c r="C33" t="n">
-        <v>0.317824</v>
+        <v>0.325082</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325982</v>
+        <v>0.327832</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.399685</v>
+        <v>0.397404</v>
       </c>
       <c r="C34" t="n">
-        <v>0.324195</v>
+        <v>0.331498</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332783</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.406004</v>
+        <v>0.404522</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259776</v>
+        <v>0.266556</v>
       </c>
       <c r="D35" t="n">
-        <v>0.270964</v>
+        <v>0.272508</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350328</v>
+        <v>0.348281</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264166</v>
+        <v>0.270912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275835</v>
+        <v>0.27629</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354642</v>
+        <v>0.352627</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269375</v>
+        <v>0.275836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279442</v>
+        <v>0.280713</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.358881</v>
+        <v>0.356895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.275629</v>
+        <v>0.282366</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285737</v>
+        <v>0.286514</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.363074</v>
+        <v>0.361486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280381</v>
+        <v>0.286475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290494</v>
+        <v>0.291932</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.368001</v>
+        <v>0.366614</v>
       </c>
       <c r="C40" t="n">
-        <v>0.286213</v>
+        <v>0.292764</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296757</v>
+        <v>0.299878</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.37248</v>
+        <v>0.371489</v>
       </c>
       <c r="C41" t="n">
-        <v>0.291844</v>
+        <v>0.29878</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302872</v>
+        <v>0.304248</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378952</v>
+        <v>0.37734</v>
       </c>
       <c r="C42" t="n">
-        <v>0.298581</v>
+        <v>0.304446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309376</v>
+        <v>0.309615</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.384191</v>
+        <v>0.382873</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304498</v>
+        <v>0.310431</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314862</v>
+        <v>0.316381</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.390347</v>
+        <v>0.388793</v>
       </c>
       <c r="C44" t="n">
-        <v>0.311368</v>
+        <v>0.317726</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321348</v>
+        <v>0.323374</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.396492</v>
+        <v>0.394507</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316113</v>
+        <v>0.324207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327948</v>
+        <v>0.328904</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402097</v>
+        <v>0.401324</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322217</v>
+        <v>0.330558</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333399</v>
+        <v>0.335224</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407902</v>
+        <v>0.407278</v>
       </c>
       <c r="C47" t="n">
-        <v>0.33001</v>
+        <v>0.336599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339105</v>
+        <v>0.340575</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413839</v>
+        <v>0.413209</v>
       </c>
       <c r="C48" t="n">
-        <v>0.336099</v>
+        <v>0.342744</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344542</v>
+        <v>0.345601</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419808</v>
+        <v>0.419066</v>
       </c>
       <c r="C49" t="n">
-        <v>0.34024</v>
+        <v>0.348166</v>
       </c>
       <c r="D49" t="n">
-        <v>0.350529</v>
+        <v>0.351917</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425361</v>
+        <v>0.425046</v>
       </c>
       <c r="C50" t="n">
-        <v>0.272438</v>
+        <v>0.279433</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278957</v>
+        <v>0.278948</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362957</v>
+        <v>0.362877</v>
       </c>
       <c r="C51" t="n">
-        <v>0.277074</v>
+        <v>0.283961</v>
       </c>
       <c r="D51" t="n">
-        <v>0.285403</v>
+        <v>0.283526</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366888</v>
+        <v>0.366581</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282677</v>
+        <v>0.28915</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288391</v>
+        <v>0.28797</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371642</v>
+        <v>0.370956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287714</v>
+        <v>0.29409</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293647</v>
+        <v>0.29346</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375738</v>
+        <v>0.375289</v>
       </c>
       <c r="C54" t="n">
-        <v>0.293116</v>
+        <v>0.2999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299447</v>
+        <v>0.299163</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380047</v>
+        <v>0.380086</v>
       </c>
       <c r="C55" t="n">
-        <v>0.298946</v>
+        <v>0.305598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305471</v>
+        <v>0.30511</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385734</v>
+        <v>0.385116</v>
       </c>
       <c r="C56" t="n">
-        <v>0.305526</v>
+        <v>0.311566</v>
       </c>
       <c r="D56" t="n">
-        <v>0.310843</v>
+        <v>0.310607</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391088</v>
+        <v>0.390636</v>
       </c>
       <c r="C57" t="n">
-        <v>0.311695</v>
+        <v>0.317727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317293</v>
+        <v>0.316426</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397578</v>
+        <v>0.396719</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316489</v>
+        <v>0.323822</v>
       </c>
       <c r="D58" t="n">
-        <v>0.323499</v>
+        <v>0.322662</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403607</v>
+        <v>0.403687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.324241</v>
+        <v>0.330315</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328921</v>
+        <v>0.328697</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.410238</v>
+        <v>0.408728</v>
       </c>
       <c r="C60" t="n">
-        <v>0.329506</v>
+        <v>0.336923</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33621</v>
+        <v>0.33468</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.416756</v>
+        <v>0.414934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.337551</v>
+        <v>0.343587</v>
       </c>
       <c r="D61" t="n">
-        <v>0.341849</v>
+        <v>0.340599</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.42272</v>
+        <v>0.420783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.342832</v>
+        <v>0.348933</v>
       </c>
       <c r="D62" t="n">
-        <v>0.348874</v>
+        <v>0.346251</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428408</v>
+        <v>0.428427</v>
       </c>
       <c r="C63" t="n">
-        <v>0.349383</v>
+        <v>0.355359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354207</v>
+        <v>0.351836</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.435656</v>
+        <v>0.434067</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284025</v>
+        <v>0.289397</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289959</v>
+        <v>0.289982</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.40036</v>
+        <v>0.392189</v>
       </c>
       <c r="C65" t="n">
-        <v>0.29082</v>
+        <v>0.294977</v>
       </c>
       <c r="D65" t="n">
-        <v>0.29933</v>
+        <v>0.300016</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.414039</v>
+        <v>0.404284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.297065</v>
+        <v>0.30394</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301944</v>
+        <v>0.304443</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.414639</v>
+        <v>0.420582</v>
       </c>
       <c r="C67" t="n">
-        <v>0.304398</v>
+        <v>0.310102</v>
       </c>
       <c r="D67" t="n">
-        <v>0.308575</v>
+        <v>0.310884</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.422049</v>
+        <v>0.426582</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312481</v>
+        <v>0.31774</v>
       </c>
       <c r="D68" t="n">
-        <v>0.315803</v>
+        <v>0.318199</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.437537</v>
+        <v>0.432934</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31913</v>
+        <v>0.325178</v>
       </c>
       <c r="D69" t="n">
-        <v>0.324052</v>
+        <v>0.324986</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.44464</v>
+        <v>0.438746</v>
       </c>
       <c r="C70" t="n">
-        <v>0.326948</v>
+        <v>0.332874</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330455</v>
+        <v>0.330702</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.461001</v>
+        <v>0.455437</v>
       </c>
       <c r="C71" t="n">
-        <v>0.335588</v>
+        <v>0.339964</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340793</v>
+        <v>0.340165</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.480849</v>
+        <v>0.472095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.348113</v>
+        <v>0.350311</v>
       </c>
       <c r="D72" t="n">
-        <v>0.349608</v>
+        <v>0.350685</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.492524</v>
+        <v>0.489242</v>
       </c>
       <c r="C73" t="n">
-        <v>0.356414</v>
+        <v>0.362012</v>
       </c>
       <c r="D73" t="n">
-        <v>0.359975</v>
+        <v>0.36012</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.509208</v>
+        <v>0.50944</v>
       </c>
       <c r="C74" t="n">
-        <v>0.367155</v>
+        <v>0.375213</v>
       </c>
       <c r="D74" t="n">
-        <v>0.369332</v>
+        <v>0.372448</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.527165</v>
+        <v>0.52721</v>
       </c>
       <c r="C75" t="n">
-        <v>0.37952</v>
+        <v>0.386039</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380574</v>
+        <v>0.381564</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.548932</v>
+        <v>0.545772</v>
       </c>
       <c r="C76" t="n">
-        <v>0.391138</v>
+        <v>0.397856</v>
       </c>
       <c r="D76" t="n">
-        <v>0.394533</v>
+        <v>0.394384</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.570451</v>
+        <v>0.568241</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4029</v>
+        <v>0.410813</v>
       </c>
       <c r="D77" t="n">
-        <v>0.406704</v>
+        <v>0.406982</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.593898</v>
+        <v>0.592933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.371522</v>
+        <v>0.376285</v>
       </c>
       <c r="D78" t="n">
-        <v>0.377365</v>
+        <v>0.375415</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.70823</v>
+        <v>0.7178</v>
       </c>
       <c r="C79" t="n">
-        <v>0.384186</v>
+        <v>0.396005</v>
       </c>
       <c r="D79" t="n">
-        <v>0.393436</v>
+        <v>0.391162</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.735006</v>
+        <v>0.732531</v>
       </c>
       <c r="C80" t="n">
-        <v>0.404641</v>
+        <v>0.407795</v>
       </c>
       <c r="D80" t="n">
-        <v>0.406582</v>
+        <v>0.40123</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.753633</v>
+        <v>0.750156</v>
       </c>
       <c r="C81" t="n">
-        <v>0.422513</v>
+        <v>0.423273</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422836</v>
+        <v>0.416637</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.777044</v>
+        <v>0.7756769999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43756</v>
+        <v>0.443748</v>
       </c>
       <c r="D82" t="n">
-        <v>0.438142</v>
+        <v>0.437478</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.797646</v>
+        <v>0.796816</v>
       </c>
       <c r="C83" t="n">
-        <v>0.456874</v>
+        <v>0.461765</v>
       </c>
       <c r="D83" t="n">
-        <v>0.457042</v>
+        <v>0.454017</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.825369</v>
+        <v>0.826642</v>
       </c>
       <c r="C84" t="n">
-        <v>0.475938</v>
+        <v>0.480588</v>
       </c>
       <c r="D84" t="n">
-        <v>0.479588</v>
+        <v>0.479036</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.85141</v>
+        <v>0.849679</v>
       </c>
       <c r="C85" t="n">
-        <v>0.496235</v>
+        <v>0.501509</v>
       </c>
       <c r="D85" t="n">
-        <v>0.498687</v>
+        <v>0.498218</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.876184</v>
+        <v>0.874592</v>
       </c>
       <c r="C86" t="n">
-        <v>0.516331</v>
+        <v>0.521836</v>
       </c>
       <c r="D86" t="n">
-        <v>0.521445</v>
+        <v>0.518012</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.902597</v>
+        <v>0.900876</v>
       </c>
       <c r="C87" t="n">
-        <v>0.537513</v>
+        <v>0.54311</v>
       </c>
       <c r="D87" t="n">
-        <v>0.539612</v>
+        <v>0.536489</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.929819</v>
+        <v>0.927183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.55959</v>
+        <v>0.56614</v>
       </c>
       <c r="D88" t="n">
-        <v>0.56142</v>
+        <v>0.558524</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.956918</v>
+        <v>0.954921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.58203</v>
+        <v>0.587999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.583986</v>
+        <v>0.5812</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9851220000000001</v>
+        <v>0.983498</v>
       </c>
       <c r="C90" t="n">
-        <v>0.606279</v>
+        <v>0.612398</v>
       </c>
       <c r="D90" t="n">
-        <v>0.607222</v>
+        <v>0.60426</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01686</v>
+        <v>1.01268</v>
       </c>
       <c r="C91" t="n">
-        <v>0.629039</v>
+        <v>0.636718</v>
       </c>
       <c r="D91" t="n">
-        <v>0.630409</v>
+        <v>0.627657</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0478</v>
+        <v>1.04476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.645605</v>
+        <v>0.652622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.645749</v>
+        <v>0.6482250000000001</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.16023</v>
+        <v>1.15484</v>
       </c>
       <c r="C93" t="n">
-        <v>0.659376</v>
+        <v>0.666855</v>
       </c>
       <c r="D93" t="n">
-        <v>0.660813</v>
+        <v>0.663268</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16821</v>
+        <v>1.16619</v>
       </c>
       <c r="C94" t="n">
-        <v>0.674668</v>
+        <v>0.68094</v>
       </c>
       <c r="D94" t="n">
-        <v>0.678519</v>
+        <v>0.681609</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17627</v>
+        <v>1.17566</v>
       </c>
       <c r="C95" t="n">
-        <v>0.692806</v>
+        <v>0.697035</v>
       </c>
       <c r="D95" t="n">
-        <v>0.691407</v>
+        <v>0.690909</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19038</v>
+        <v>1.18688</v>
       </c>
       <c r="C96" t="n">
-        <v>0.708919</v>
+        <v>0.716032</v>
       </c>
       <c r="D96" t="n">
-        <v>0.70589</v>
+        <v>0.709746</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20371</v>
+        <v>1.19966</v>
       </c>
       <c r="C97" t="n">
-        <v>0.726892</v>
+        <v>0.732436</v>
       </c>
       <c r="D97" t="n">
-        <v>0.730172</v>
+        <v>0.730815</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21853</v>
+        <v>1.21439</v>
       </c>
       <c r="C98" t="n">
-        <v>0.744507</v>
+        <v>0.750144</v>
       </c>
       <c r="D98" t="n">
-        <v>0.746418</v>
+        <v>0.748466</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23823</v>
+        <v>1.23482</v>
       </c>
       <c r="C99" t="n">
-        <v>0.763873</v>
+        <v>0.769759</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7674299999999999</v>
+        <v>0.767882</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25591</v>
+        <v>1.25246</v>
       </c>
       <c r="C100" t="n">
-        <v>0.783883</v>
+        <v>0.789362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.787561</v>
+        <v>0.7896570000000001</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27126</v>
+        <v>1.26787</v>
       </c>
       <c r="C101" t="n">
-        <v>0.803247</v>
+        <v>0.8101390000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.808195</v>
+        <v>0.810684</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.2918</v>
+        <v>1.28882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.825674</v>
+        <v>0.831564</v>
       </c>
       <c r="D102" t="n">
-        <v>0.82791</v>
+        <v>0.830641</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31737</v>
+        <v>1.31422</v>
       </c>
       <c r="C103" t="n">
-        <v>0.846444</v>
+        <v>0.853654</v>
       </c>
       <c r="D103" t="n">
-        <v>0.851629</v>
+        <v>0.85275</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.33939</v>
+        <v>1.3361</v>
       </c>
       <c r="C104" t="n">
-        <v>0.869521</v>
+        <v>0.875369</v>
       </c>
       <c r="D104" t="n">
-        <v>0.875528</v>
+        <v>0.876169</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36468</v>
+        <v>1.36026</v>
       </c>
       <c r="C105" t="n">
-        <v>0.891679</v>
+        <v>0.8991440000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.898775</v>
+        <v>0.900145</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.38958</v>
+        <v>1.38554</v>
       </c>
       <c r="C106" t="n">
-        <v>0.91472</v>
+        <v>0.922412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.924466</v>
+        <v>0.925797</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.39277</v>
+        <v>1.38983</v>
       </c>
       <c r="C107" t="n">
-        <v>0.867259</v>
+        <v>0.874252</v>
       </c>
       <c r="D107" t="n">
-        <v>0.869158</v>
+        <v>0.870905</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39803</v>
+        <v>1.39483</v>
       </c>
       <c r="C108" t="n">
-        <v>0.882283</v>
+        <v>0.886937</v>
       </c>
       <c r="D108" t="n">
-        <v>0.884603</v>
+        <v>0.885873</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40664</v>
+        <v>1.40345</v>
       </c>
       <c r="C109" t="n">
-        <v>0.896877</v>
+        <v>0.903609</v>
       </c>
       <c r="D109" t="n">
-        <v>0.902258</v>
+        <v>0.90478</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41596</v>
+        <v>1.41269</v>
       </c>
       <c r="C110" t="n">
-        <v>0.912569</v>
+        <v>0.918206</v>
       </c>
       <c r="D110" t="n">
-        <v>0.917591</v>
+        <v>0.919422</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4251</v>
+        <v>1.42272</v>
       </c>
       <c r="C111" t="n">
-        <v>0.928745</v>
+        <v>0.934326</v>
       </c>
       <c r="D111" t="n">
-        <v>0.931071</v>
+        <v>0.9331</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.4375</v>
+        <v>1.43597</v>
       </c>
       <c r="C112" t="n">
-        <v>0.945985</v>
+        <v>0.9520189999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.949203</v>
+        <v>0.952299</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44934</v>
+        <v>1.44738</v>
       </c>
       <c r="C113" t="n">
-        <v>0.963889</v>
+        <v>0.970074</v>
       </c>
       <c r="D113" t="n">
-        <v>0.967933</v>
+        <v>0.970135</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46559</v>
+        <v>1.46355</v>
       </c>
       <c r="C114" t="n">
-        <v>0.983754</v>
+        <v>0.988645</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9861490000000001</v>
+        <v>0.988364</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47993</v>
+        <v>1.47759</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00283</v>
+        <v>1.00895</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00677</v>
+        <v>1.00944</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49808</v>
+        <v>1.49449</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02318</v>
+        <v>1.02949</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02701</v>
+        <v>1.03034</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.51829</v>
+        <v>1.51659</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04419</v>
+        <v>1.05025</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04915</v>
+        <v>1.05187</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.53778</v>
+        <v>1.53561</v>
       </c>
       <c r="C118" t="n">
-        <v>1.06453</v>
+        <v>1.07088</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06809</v>
+        <v>1.07112</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.55723</v>
+        <v>1.55634</v>
       </c>
       <c r="C119" t="n">
-        <v>1.08713</v>
+        <v>1.09159</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09021</v>
+        <v>1.09396</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273262</v>
+        <v>0.265358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211754</v>
+        <v>0.216807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206872</v>
+        <v>0.205066</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28104</v>
+        <v>0.270498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219777</v>
+        <v>0.22223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209211</v>
+        <v>0.20648</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285631</v>
+        <v>0.276911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222057</v>
+        <v>0.224474</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212069</v>
+        <v>0.209081</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.29056</v>
+        <v>0.278601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226518</v>
+        <v>0.229139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212567</v>
+        <v>0.210373</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.289199</v>
+        <v>0.276862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233903</v>
+        <v>0.23374</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217901</v>
+        <v>0.213896</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.300013</v>
+        <v>0.288235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213673</v>
+        <v>0.220634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217877</v>
+        <v>0.217208</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.293308</v>
+        <v>0.286021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220616</v>
+        <v>0.224568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222577</v>
+        <v>0.21676</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29599</v>
+        <v>0.283166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223372</v>
+        <v>0.223183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224338</v>
+        <v>0.21804</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297354</v>
+        <v>0.285894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225788</v>
+        <v>0.226042</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227001</v>
+        <v>0.218194</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.308665</v>
+        <v>0.291896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.227729</v>
+        <v>0.223734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224309</v>
+        <v>0.217713</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.306798</v>
+        <v>0.295593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232445</v>
+        <v>0.233426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229588</v>
+        <v>0.220528</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.316127</v>
+        <v>0.314227</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231175</v>
+        <v>0.234125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.230944</v>
+        <v>0.227791</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31978</v>
+        <v>0.313949</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237275</v>
+        <v>0.239436</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230493</v>
+        <v>0.227118</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.328719</v>
+        <v>0.319517</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239711</v>
+        <v>0.243208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235232</v>
+        <v>0.229226</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.332893</v>
+        <v>0.325949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245771</v>
+        <v>0.248643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233651</v>
+        <v>0.23146</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.335507</v>
+        <v>0.332703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248285</v>
+        <v>0.252273</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237478</v>
+        <v>0.234852</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341841</v>
+        <v>0.337078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.258273</v>
+        <v>0.262581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240429</v>
+        <v>0.23819</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.345903</v>
+        <v>0.346325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.262355</v>
+        <v>0.263385</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244749</v>
+        <v>0.240976</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.353342</v>
+        <v>0.351277</v>
       </c>
       <c r="C20" t="n">
-        <v>0.270458</v>
+        <v>0.271438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248866</v>
+        <v>0.244718</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.36332</v>
+        <v>0.360285</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25149</v>
+        <v>0.250474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256308</v>
+        <v>0.248008</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.350873</v>
+        <v>0.345137</v>
       </c>
       <c r="C22" t="n">
-        <v>0.265089</v>
+        <v>0.26486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.256836</v>
+        <v>0.248993</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.357315</v>
+        <v>0.352932</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266846</v>
+        <v>0.265843</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254481</v>
+        <v>0.25137</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.361194</v>
+        <v>0.358205</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277905</v>
+        <v>0.279255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260284</v>
+        <v>0.256768</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.366316</v>
+        <v>0.364547</v>
       </c>
       <c r="C25" t="n">
-        <v>0.288754</v>
+        <v>0.289841</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268572</v>
+        <v>0.261834</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.370471</v>
+        <v>0.367975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.289716</v>
+        <v>0.290886</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268074</v>
+        <v>0.266239</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.374835</v>
+        <v>0.37481</v>
       </c>
       <c r="C27" t="n">
-        <v>0.297406</v>
+        <v>0.301051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270968</v>
+        <v>0.270394</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.38059</v>
+        <v>0.38001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.300864</v>
+        <v>0.302109</v>
       </c>
       <c r="D28" t="n">
-        <v>0.273504</v>
+        <v>0.271321</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.387286</v>
+        <v>0.383904</v>
       </c>
       <c r="C29" t="n">
-        <v>0.307129</v>
+        <v>0.310223</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278024</v>
+        <v>0.276082</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392482</v>
+        <v>0.392124</v>
       </c>
       <c r="C30" t="n">
-        <v>0.320503</v>
+        <v>0.324121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.282034</v>
+        <v>0.28257</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399302</v>
+        <v>0.398819</v>
       </c>
       <c r="C31" t="n">
-        <v>0.317512</v>
+        <v>0.321333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.284868</v>
+        <v>0.284813</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401857</v>
+        <v>0.401315</v>
       </c>
       <c r="C32" t="n">
-        <v>0.329357</v>
+        <v>0.332112</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289027</v>
+        <v>0.289386</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407715</v>
+        <v>0.406628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.340185</v>
+        <v>0.34365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.295158</v>
+        <v>0.293905</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410997</v>
+        <v>0.411018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3436</v>
+        <v>0.34912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297256</v>
+        <v>0.298785</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419301</v>
+        <v>0.419287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.279802</v>
+        <v>0.284843</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278513</v>
+        <v>0.277217</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402619</v>
+        <v>0.402214</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286441</v>
+        <v>0.290656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279729</v>
+        <v>0.280541</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.40851</v>
+        <v>0.407115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293355</v>
+        <v>0.297783</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283714</v>
+        <v>0.283757</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.410977</v>
+        <v>0.408517</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295515</v>
+        <v>0.299399</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286407</v>
+        <v>0.28638</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.414265</v>
+        <v>0.41457</v>
       </c>
       <c r="C39" t="n">
-        <v>0.304105</v>
+        <v>0.30664</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290984</v>
+        <v>0.290303</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419108</v>
+        <v>0.41824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.30872</v>
+        <v>0.311691</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292207</v>
+        <v>0.292209</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423061</v>
+        <v>0.42242</v>
       </c>
       <c r="C41" t="n">
-        <v>0.30988</v>
+        <v>0.315862</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293997</v>
+        <v>0.293875</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430629</v>
+        <v>0.429959</v>
       </c>
       <c r="C42" t="n">
-        <v>0.31434</v>
+        <v>0.318825</v>
       </c>
       <c r="D42" t="n">
-        <v>0.297146</v>
+        <v>0.296884</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436437</v>
+        <v>0.435747</v>
       </c>
       <c r="C43" t="n">
-        <v>0.319686</v>
+        <v>0.324423</v>
       </c>
       <c r="D43" t="n">
-        <v>0.29901</v>
+        <v>0.298858</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.444088</v>
+        <v>0.440029</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324733</v>
+        <v>0.330068</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301075</v>
+        <v>0.301468</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442259</v>
+        <v>0.442338</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32912</v>
+        <v>0.334285</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304928</v>
+        <v>0.304815</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449072</v>
+        <v>0.449059</v>
       </c>
       <c r="C46" t="n">
-        <v>0.329909</v>
+        <v>0.334733</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305435</v>
+        <v>0.305469</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455551</v>
+        <v>0.456044</v>
       </c>
       <c r="C47" t="n">
-        <v>0.337878</v>
+        <v>0.342657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.308619</v>
+        <v>0.308348</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461059</v>
+        <v>0.461919</v>
       </c>
       <c r="C48" t="n">
-        <v>0.343346</v>
+        <v>0.349272</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312011</v>
+        <v>0.312173</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467186</v>
+        <v>0.467276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.347855</v>
+        <v>0.353687</v>
       </c>
       <c r="D49" t="n">
-        <v>0.314783</v>
+        <v>0.315643</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476954</v>
+        <v>0.476955</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311878</v>
+        <v>0.32151</v>
       </c>
       <c r="D50" t="n">
-        <v>0.29374</v>
+        <v>0.296722</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429349</v>
+        <v>0.430319</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319024</v>
+        <v>0.325981</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296256</v>
+        <v>0.29658</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430315</v>
+        <v>0.43376</v>
       </c>
       <c r="C52" t="n">
-        <v>0.323019</v>
+        <v>0.328137</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297587</v>
+        <v>0.29718</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438994</v>
+        <v>0.439146</v>
       </c>
       <c r="C53" t="n">
-        <v>0.329557</v>
+        <v>0.334648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.30065</v>
+        <v>0.299978</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442494</v>
+        <v>0.444295</v>
       </c>
       <c r="C54" t="n">
-        <v>0.333403</v>
+        <v>0.339219</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303428</v>
+        <v>0.303414</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.442538</v>
+        <v>0.445008</v>
       </c>
       <c r="C55" t="n">
-        <v>0.339498</v>
+        <v>0.346155</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305475</v>
+        <v>0.305401</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.45016</v>
+        <v>0.450803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.33947</v>
+        <v>0.345534</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307457</v>
+        <v>0.30778</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451602</v>
+        <v>0.45417</v>
       </c>
       <c r="C57" t="n">
-        <v>0.349383</v>
+        <v>0.354837</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309938</v>
+        <v>0.310171</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457232</v>
+        <v>0.458267</v>
       </c>
       <c r="C58" t="n">
-        <v>0.357643</v>
+        <v>0.362856</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314243</v>
+        <v>0.314456</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461115</v>
+        <v>0.462392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.365255</v>
+        <v>0.369827</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318954</v>
+        <v>0.318318</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466626</v>
+        <v>0.467607</v>
       </c>
       <c r="C60" t="n">
-        <v>0.370002</v>
+        <v>0.375331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.32084</v>
+        <v>0.320835</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470907</v>
+        <v>0.471148</v>
       </c>
       <c r="C61" t="n">
-        <v>0.375732</v>
+        <v>0.381368</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323901</v>
+        <v>0.323816</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477429</v>
+        <v>0.478201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.380973</v>
+        <v>0.387241</v>
       </c>
       <c r="D62" t="n">
-        <v>0.32604</v>
+        <v>0.325345</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482696</v>
+        <v>0.483068</v>
       </c>
       <c r="C63" t="n">
-        <v>0.387163</v>
+        <v>0.393358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328987</v>
+        <v>0.328653</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489006</v>
+        <v>0.490707</v>
       </c>
       <c r="C64" t="n">
-        <v>0.351268</v>
+        <v>0.351791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.319574</v>
+        <v>0.318941</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.46241</v>
+        <v>0.461728</v>
       </c>
       <c r="C65" t="n">
-        <v>0.356987</v>
+        <v>0.360878</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316162</v>
+        <v>0.31635</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467915</v>
+        <v>0.466173</v>
       </c>
       <c r="C66" t="n">
-        <v>0.360136</v>
+        <v>0.361527</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31784</v>
+        <v>0.321904</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.479935</v>
+        <v>0.47714</v>
       </c>
       <c r="C67" t="n">
-        <v>0.369242</v>
+        <v>0.369032</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321515</v>
+        <v>0.321551</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.491178</v>
+        <v>0.485605</v>
       </c>
       <c r="C68" t="n">
-        <v>0.373192</v>
+        <v>0.373438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326398</v>
+        <v>0.324748</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494824</v>
+        <v>0.492816</v>
       </c>
       <c r="C69" t="n">
-        <v>0.379536</v>
+        <v>0.378469</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327479</v>
+        <v>0.327385</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.509713</v>
+        <v>0.506756</v>
       </c>
       <c r="C70" t="n">
-        <v>0.384693</v>
+        <v>0.384884</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330537</v>
+        <v>0.331468</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.517038</v>
+        <v>0.518612</v>
       </c>
       <c r="C71" t="n">
-        <v>0.392789</v>
+        <v>0.392842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335315</v>
+        <v>0.334731</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.531127</v>
+        <v>0.529902</v>
       </c>
       <c r="C72" t="n">
-        <v>0.400894</v>
+        <v>0.401993</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339231</v>
+        <v>0.339829</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.551101</v>
+        <v>0.541026</v>
       </c>
       <c r="C73" t="n">
-        <v>0.412737</v>
+        <v>0.411691</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344524</v>
+        <v>0.345147</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.567364</v>
+        <v>0.556605</v>
       </c>
       <c r="C74" t="n">
-        <v>0.419186</v>
+        <v>0.419595</v>
       </c>
       <c r="D74" t="n">
-        <v>0.346844</v>
+        <v>0.347097</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.58003</v>
+        <v>0.569936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.426604</v>
+        <v>0.427118</v>
       </c>
       <c r="D75" t="n">
-        <v>0.35319</v>
+        <v>0.352767</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.600705</v>
+        <v>0.588103</v>
       </c>
       <c r="C76" t="n">
-        <v>0.439578</v>
+        <v>0.437598</v>
       </c>
       <c r="D76" t="n">
-        <v>0.360566</v>
+        <v>0.357148</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.620212</v>
+        <v>0.612693</v>
       </c>
       <c r="C77" t="n">
-        <v>0.452815</v>
+        <v>0.45059</v>
       </c>
       <c r="D77" t="n">
-        <v>0.36462</v>
+        <v>0.364518</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651765</v>
+        <v>0.63574</v>
       </c>
       <c r="C78" t="n">
-        <v>0.41429</v>
+        <v>0.40866</v>
       </c>
       <c r="D78" t="n">
-        <v>0.357987</v>
+        <v>0.358349</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.688674</v>
+        <v>0.6909149999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432694</v>
+        <v>0.417812</v>
       </c>
       <c r="D79" t="n">
-        <v>0.359622</v>
+        <v>0.364431</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7144470000000001</v>
+        <v>0.714662</v>
       </c>
       <c r="C80" t="n">
-        <v>0.448078</v>
+        <v>0.424981</v>
       </c>
       <c r="D80" t="n">
-        <v>0.373545</v>
+        <v>0.377468</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.74817</v>
+        <v>0.75542</v>
       </c>
       <c r="C81" t="n">
-        <v>0.465765</v>
+        <v>0.439219</v>
       </c>
       <c r="D81" t="n">
-        <v>0.378972</v>
+        <v>0.378486</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7865490000000001</v>
+        <v>0.790231</v>
       </c>
       <c r="C82" t="n">
-        <v>0.486271</v>
+        <v>0.455934</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390417</v>
+        <v>0.390404</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.827503</v>
+        <v>0.834731</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5132409999999999</v>
+        <v>0.475242</v>
       </c>
       <c r="D83" t="n">
-        <v>0.395294</v>
+        <v>0.407104</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.88192</v>
+        <v>0.875941</v>
       </c>
       <c r="C84" t="n">
-        <v>0.539978</v>
+        <v>0.500549</v>
       </c>
       <c r="D84" t="n">
-        <v>0.411406</v>
+        <v>0.414614</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.912492</v>
+        <v>0.9209349999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.562286</v>
+        <v>0.525083</v>
       </c>
       <c r="D85" t="n">
-        <v>0.42239</v>
+        <v>0.424953</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9732189999999999</v>
+        <v>0.984226</v>
       </c>
       <c r="C86" t="n">
-        <v>0.585084</v>
+        <v>0.546577</v>
       </c>
       <c r="D86" t="n">
-        <v>0.436029</v>
+        <v>0.444401</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02927</v>
+        <v>1.03787</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6203920000000001</v>
+        <v>0.57602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452872</v>
+        <v>0.459825</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0856</v>
+        <v>1.08017</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6486</v>
+        <v>0.605389</v>
       </c>
       <c r="D88" t="n">
-        <v>0.467031</v>
+        <v>0.470071</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12776</v>
+        <v>1.14167</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6874479999999999</v>
+        <v>0.641783</v>
       </c>
       <c r="D89" t="n">
-        <v>0.485696</v>
+        <v>0.493002</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.18947</v>
+        <v>1.19107</v>
       </c>
       <c r="C90" t="n">
-        <v>0.725168</v>
+        <v>0.676399</v>
       </c>
       <c r="D90" t="n">
-        <v>0.507217</v>
+        <v>0.511065</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.25836</v>
+        <v>1.25929</v>
       </c>
       <c r="C91" t="n">
-        <v>0.768447</v>
+        <v>0.7216399999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.533674</v>
+        <v>0.543457</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.30804</v>
+        <v>1.32292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8009269999999999</v>
+        <v>0.736154</v>
       </c>
       <c r="D92" t="n">
-        <v>0.649334</v>
+        <v>0.643212</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34707</v>
+        <v>1.35002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.838775</v>
+        <v>0.766759</v>
       </c>
       <c r="D93" t="n">
-        <v>0.676253</v>
+        <v>0.671916</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.4013</v>
+        <v>1.3878</v>
       </c>
       <c r="C94" t="n">
-        <v>0.868494</v>
+        <v>0.798624</v>
       </c>
       <c r="D94" t="n">
-        <v>0.695389</v>
+        <v>0.693748</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.4399</v>
+        <v>1.44068</v>
       </c>
       <c r="C95" t="n">
-        <v>0.903509</v>
+        <v>0.832716</v>
       </c>
       <c r="D95" t="n">
-        <v>0.719618</v>
+        <v>0.721181</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48432</v>
+        <v>1.48552</v>
       </c>
       <c r="C96" t="n">
-        <v>0.939739</v>
+        <v>0.868073</v>
       </c>
       <c r="D96" t="n">
-        <v>0.744626</v>
+        <v>0.743686</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.54005</v>
+        <v>1.53215</v>
       </c>
       <c r="C97" t="n">
-        <v>0.97697</v>
+        <v>0.910659</v>
       </c>
       <c r="D97" t="n">
-        <v>0.771037</v>
+        <v>0.77242</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.59329</v>
+        <v>1.58696</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0143</v>
+        <v>0.949313</v>
       </c>
       <c r="D98" t="n">
-        <v>0.800778</v>
+        <v>0.7999849999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62811</v>
+        <v>1.62993</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05575</v>
+        <v>0.9912840000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.828457</v>
+        <v>0.82775</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.67635</v>
+        <v>1.67553</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09661</v>
+        <v>1.03249</v>
       </c>
       <c r="D100" t="n">
-        <v>0.853902</v>
+        <v>0.854476</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.71599</v>
+        <v>1.72298</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1302</v>
+        <v>1.06958</v>
       </c>
       <c r="D101" t="n">
-        <v>0.879853</v>
+        <v>0.8802489999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.77158</v>
+        <v>1.76692</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17287</v>
+        <v>1.11531</v>
       </c>
       <c r="D102" t="n">
-        <v>0.908838</v>
+        <v>0.909301</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.82354</v>
+        <v>1.80297</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20958</v>
+        <v>1.15394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.939214</v>
+        <v>0.9336989999999999</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86263</v>
+        <v>1.85721</v>
       </c>
       <c r="C104" t="n">
-        <v>1.24695</v>
+        <v>1.19552</v>
       </c>
       <c r="D104" t="n">
-        <v>0.967935</v>
+        <v>0.9609799999999999</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90271</v>
+        <v>1.90465</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2903</v>
+        <v>1.24192</v>
       </c>
       <c r="D105" t="n">
-        <v>0.990441</v>
+        <v>0.994905</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.95885</v>
+        <v>1.94572</v>
       </c>
       <c r="C106" t="n">
-        <v>1.32815</v>
+        <v>1.28548</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01437</v>
+        <v>1.0217</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84789</v>
+        <v>1.84575</v>
       </c>
       <c r="C107" t="n">
-        <v>1.23279</v>
+        <v>1.18191</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06226</v>
+        <v>1.06219</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.87899</v>
+        <v>1.86592</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26165</v>
+        <v>1.20865</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08367</v>
+        <v>1.08205</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91238</v>
+        <v>1.90202</v>
       </c>
       <c r="C109" t="n">
-        <v>1.29237</v>
+        <v>1.24219</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1022</v>
+        <v>1.10457</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.94552</v>
+        <v>1.94701</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32269</v>
+        <v>1.27208</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11842</v>
+        <v>1.12036</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.97668</v>
+        <v>1.97902</v>
       </c>
       <c r="C111" t="n">
-        <v>1.34828</v>
+        <v>1.30068</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14037</v>
+        <v>1.14258</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.01589</v>
+        <v>2.01609</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38137</v>
+        <v>1.33685</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16678</v>
+        <v>1.16256</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.05161</v>
+        <v>2.05206</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41684</v>
+        <v>1.37363</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1844</v>
+        <v>1.18877</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.08732</v>
+        <v>2.0863</v>
       </c>
       <c r="C114" t="n">
-        <v>1.44569</v>
+        <v>1.40433</v>
       </c>
       <c r="D114" t="n">
-        <v>1.20379</v>
+        <v>1.2066</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.11753</v>
+        <v>2.11525</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48318</v>
+        <v>1.44303</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23098</v>
+        <v>1.22842</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15597</v>
+        <v>2.15792</v>
       </c>
       <c r="C116" t="n">
-        <v>1.51659</v>
+        <v>1.47937</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25169</v>
+        <v>1.25141</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.19104</v>
+        <v>2.19437</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54955</v>
+        <v>1.51587</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27286</v>
+        <v>1.27388</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.21795</v>
+        <v>2.22982</v>
       </c>
       <c r="C118" t="n">
-        <v>1.58905</v>
+        <v>1.55815</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29621</v>
+        <v>1.29373</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.25908</v>
+        <v>2.26782</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62524</v>
+        <v>1.59746</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31867</v>
+        <v>1.31803</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.436641</v>
+        <v>0.422014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.344339</v>
+        <v>0.338601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.274151</v>
+        <v>0.272283</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.449705</v>
+        <v>0.433273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.349255</v>
+        <v>0.344866</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278893</v>
+        <v>0.275059</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.46504</v>
+        <v>0.449503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.367786</v>
+        <v>0.363095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.288099</v>
+        <v>0.284296</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.474291</v>
+        <v>0.457188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37922</v>
+        <v>0.369517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.292523</v>
+        <v>0.287932</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481218</v>
+        <v>0.462613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.379241</v>
+        <v>0.378278</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29651</v>
+        <v>0.292742</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.494928</v>
+        <v>0.473772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403188</v>
+        <v>0.392799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303439</v>
+        <v>0.300667</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.505869</v>
+        <v>0.489294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420491</v>
+        <v>0.412054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.312985</v>
+        <v>0.310331</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.529072</v>
+        <v>0.504315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439383</v>
+        <v>0.427187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.324251</v>
+        <v>0.319923</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.541898</v>
+        <v>0.5140709999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.461575</v>
+        <v>0.453562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.337285</v>
+        <v>0.332875</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.564464</v>
+        <v>0.53654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.354688</v>
+        <v>0.351846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.276114</v>
+        <v>0.273932</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.414798</v>
+        <v>0.403626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.362013</v>
+        <v>0.356533</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278746</v>
+        <v>0.274316</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.435981</v>
+        <v>0.418261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.375087</v>
+        <v>0.368381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.290609</v>
+        <v>0.286921</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.438891</v>
+        <v>0.422451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.396847</v>
+        <v>0.383969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.289016</v>
+        <v>0.286076</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.463466</v>
+        <v>0.440877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.411461</v>
+        <v>0.398243</v>
       </c>
       <c r="D15" t="n">
-        <v>0.298616</v>
+        <v>0.293141</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.467306</v>
+        <v>0.455234</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427311</v>
+        <v>0.420021</v>
       </c>
       <c r="D16" t="n">
-        <v>0.305583</v>
+        <v>0.298935</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.493408</v>
+        <v>0.47561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.443414</v>
+        <v>0.433033</v>
       </c>
       <c r="D17" t="n">
-        <v>0.315314</v>
+        <v>0.306966</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.506281</v>
+        <v>0.494017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455999</v>
+        <v>0.447777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.316672</v>
+        <v>0.310753</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5346030000000001</v>
+        <v>0.522569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.474959</v>
+        <v>0.469806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.329483</v>
+        <v>0.320547</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.541453</v>
+        <v>0.527728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.503242</v>
+        <v>0.500049</v>
       </c>
       <c r="D20" t="n">
-        <v>0.338282</v>
+        <v>0.333391</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.568345</v>
+        <v>0.558547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.522411</v>
+        <v>0.519058</v>
       </c>
       <c r="D21" t="n">
-        <v>0.350073</v>
+        <v>0.345142</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.58319</v>
+        <v>0.577424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.549302</v>
+        <v>0.548727</v>
       </c>
       <c r="D22" t="n">
-        <v>0.36048</v>
+        <v>0.358984</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6242220000000001</v>
+        <v>0.618361</v>
       </c>
       <c r="C23" t="n">
-        <v>0.575726</v>
+        <v>0.57082</v>
       </c>
       <c r="D23" t="n">
-        <v>0.380791</v>
+        <v>0.376033</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.643604</v>
+        <v>0.632417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5971070000000001</v>
+        <v>0.59866</v>
       </c>
       <c r="D24" t="n">
-        <v>0.389157</v>
+        <v>0.385184</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.670455</v>
+        <v>0.659635</v>
       </c>
       <c r="C25" t="n">
-        <v>0.627455</v>
+        <v>0.625723</v>
       </c>
       <c r="D25" t="n">
-        <v>0.40109</v>
+        <v>0.395517</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.701775</v>
+        <v>0.690902</v>
       </c>
       <c r="C26" t="n">
-        <v>0.404634</v>
+        <v>0.411568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.293366</v>
+        <v>0.291287</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5152</v>
+        <v>0.512331</v>
       </c>
       <c r="C27" t="n">
-        <v>0.414319</v>
+        <v>0.416959</v>
       </c>
       <c r="D27" t="n">
-        <v>0.296651</v>
+        <v>0.29464</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.527935</v>
+        <v>0.526019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.430546</v>
+        <v>0.431529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.305386</v>
+        <v>0.301467</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.549445</v>
+        <v>0.544625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.439798</v>
+        <v>0.443105</v>
       </c>
       <c r="D29" t="n">
-        <v>0.310222</v>
+        <v>0.306632</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.571901</v>
+        <v>0.566675</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4612</v>
+        <v>0.461578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318528</v>
+        <v>0.315686</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591932</v>
+        <v>0.588319</v>
       </c>
       <c r="C31" t="n">
-        <v>0.477814</v>
+        <v>0.477737</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331292</v>
+        <v>0.328775</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.609731</v>
+        <v>0.609097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.497926</v>
+        <v>0.498145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.338077</v>
+        <v>0.334587</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.625081</v>
+        <v>0.621308</v>
       </c>
       <c r="C33" t="n">
-        <v>0.517717</v>
+        <v>0.518016</v>
       </c>
       <c r="D33" t="n">
-        <v>0.349121</v>
+        <v>0.350778</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.651471</v>
+        <v>0.649377</v>
       </c>
       <c r="C34" t="n">
-        <v>0.537617</v>
+        <v>0.536181</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358805</v>
+        <v>0.360103</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.675477</v>
+        <v>0.673743</v>
       </c>
       <c r="C35" t="n">
-        <v>0.562853</v>
+        <v>0.567335</v>
       </c>
       <c r="D35" t="n">
-        <v>0.373175</v>
+        <v>0.371702</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.692786</v>
+        <v>0.691916</v>
       </c>
       <c r="C36" t="n">
-        <v>0.588493</v>
+        <v>0.590225</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3878</v>
+        <v>0.385383</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7243039999999999</v>
+        <v>0.720573</v>
       </c>
       <c r="C37" t="n">
-        <v>0.615213</v>
+        <v>0.611448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.398315</v>
+        <v>0.396247</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.746539</v>
+        <v>0.7448669999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.638151</v>
+        <v>0.64653</v>
       </c>
       <c r="D38" t="n">
-        <v>0.416939</v>
+        <v>0.413924</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.782021</v>
+        <v>0.782686</v>
       </c>
       <c r="C39" t="n">
-        <v>0.668036</v>
+        <v>0.674132</v>
       </c>
       <c r="D39" t="n">
-        <v>0.427538</v>
+        <v>0.424053</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.802092</v>
+        <v>0.800516</v>
       </c>
       <c r="C40" t="n">
-        <v>0.479633</v>
+        <v>0.480798</v>
       </c>
       <c r="D40" t="n">
-        <v>0.354099</v>
+        <v>0.354349</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.583151</v>
+        <v>0.582331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.495752</v>
+        <v>0.49757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36344</v>
+        <v>0.361431</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.603365</v>
+        <v>0.605027</v>
       </c>
       <c r="C42" t="n">
-        <v>0.515</v>
+        <v>0.519039</v>
       </c>
       <c r="D42" t="n">
-        <v>0.372078</v>
+        <v>0.369223</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.62068</v>
+        <v>0.618113</v>
       </c>
       <c r="C43" t="n">
-        <v>0.529461</v>
+        <v>0.531816</v>
       </c>
       <c r="D43" t="n">
-        <v>0.37959</v>
+        <v>0.375736</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.63236</v>
+        <v>0.631346</v>
       </c>
       <c r="C44" t="n">
-        <v>0.554112</v>
+        <v>0.556503</v>
       </c>
       <c r="D44" t="n">
-        <v>0.388626</v>
+        <v>0.386979</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.654216</v>
+        <v>0.652922</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568446</v>
+        <v>0.570441</v>
       </c>
       <c r="D45" t="n">
-        <v>0.396824</v>
+        <v>0.397557</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.666788</v>
+        <v>0.664286</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5889259999999999</v>
+        <v>0.59288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408747</v>
+        <v>0.407798</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.687731</v>
+        <v>0.686509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6082880000000001</v>
+        <v>0.6115</v>
       </c>
       <c r="D47" t="n">
-        <v>0.417653</v>
+        <v>0.418152</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.703133</v>
+        <v>0.701531</v>
       </c>
       <c r="C48" t="n">
-        <v>0.624849</v>
+        <v>0.627138</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429168</v>
+        <v>0.426906</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.724826</v>
+        <v>0.7222150000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.64944</v>
+        <v>0.651142</v>
       </c>
       <c r="D49" t="n">
-        <v>0.437761</v>
+        <v>0.438465</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.746353</v>
+        <v>0.745146</v>
       </c>
       <c r="C50" t="n">
-        <v>0.670058</v>
+        <v>0.673529</v>
       </c>
       <c r="D50" t="n">
-        <v>0.448946</v>
+        <v>0.450344</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.766787</v>
+        <v>0.766292</v>
       </c>
       <c r="C51" t="n">
-        <v>0.697557</v>
+        <v>0.700471</v>
       </c>
       <c r="D51" t="n">
-        <v>0.465037</v>
+        <v>0.46432</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.791883</v>
+        <v>0.790891</v>
       </c>
       <c r="C52" t="n">
-        <v>0.724128</v>
+        <v>0.728371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.478115</v>
+        <v>0.478012</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.812002</v>
+        <v>0.811009</v>
       </c>
       <c r="C53" t="n">
-        <v>0.749966</v>
+        <v>0.752991</v>
       </c>
       <c r="D53" t="n">
-        <v>0.494764</v>
+        <v>0.491328</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.835406</v>
+        <v>0.834255</v>
       </c>
       <c r="C54" t="n">
-        <v>0.544973</v>
+        <v>0.5487880000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.396433</v>
+        <v>0.396817</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.62399</v>
+        <v>0.623602</v>
       </c>
       <c r="C55" t="n">
-        <v>0.555316</v>
+        <v>0.560912</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406022</v>
+        <v>0.40534</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.639951</v>
+        <v>0.640109</v>
       </c>
       <c r="C56" t="n">
-        <v>0.573198</v>
+        <v>0.576423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.41385</v>
+        <v>0.412974</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.653416</v>
+        <v>0.6525030000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.58894</v>
+        <v>0.592075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.420384</v>
+        <v>0.422011</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.669509</v>
+        <v>0.669397</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6044119999999999</v>
+        <v>0.6075660000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428712</v>
+        <v>0.427699</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6879420000000001</v>
+        <v>0.686895</v>
       </c>
       <c r="C59" t="n">
-        <v>0.62149</v>
+        <v>0.625943</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438687</v>
+        <v>0.437267</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.702969</v>
+        <v>0.701595</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6398160000000001</v>
+        <v>0.6447850000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444749</v>
+        <v>0.444294</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.722706</v>
+        <v>0.720588</v>
       </c>
       <c r="C61" t="n">
-        <v>0.658025</v>
+        <v>0.662895</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454827</v>
+        <v>0.453865</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.73899</v>
+        <v>0.737511</v>
       </c>
       <c r="C62" t="n">
-        <v>0.675169</v>
+        <v>0.679881</v>
       </c>
       <c r="D62" t="n">
-        <v>0.463265</v>
+        <v>0.464069</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760792</v>
+        <v>0.759154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.699026</v>
+        <v>0.703359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477298</v>
+        <v>0.475794</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.771242</v>
+        <v>0.770819</v>
       </c>
       <c r="C64" t="n">
-        <v>0.717516</v>
+        <v>0.721568</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486942</v>
+        <v>0.486534</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.797917</v>
+        <v>0.797556</v>
       </c>
       <c r="C65" t="n">
-        <v>0.746016</v>
+        <v>0.751453</v>
       </c>
       <c r="D65" t="n">
-        <v>0.49904</v>
+        <v>0.498825</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.819148</v>
+        <v>0.820655</v>
       </c>
       <c r="C66" t="n">
-        <v>0.765775</v>
+        <v>0.771613</v>
       </c>
       <c r="D66" t="n">
-        <v>0.510983</v>
+        <v>0.511888</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.848902</v>
+        <v>0.850297</v>
       </c>
       <c r="C67" t="n">
-        <v>0.795046</v>
+        <v>0.804222</v>
       </c>
       <c r="D67" t="n">
-        <v>0.526487</v>
+        <v>0.52612</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8714</v>
+        <v>0.872256</v>
       </c>
       <c r="C68" t="n">
-        <v>0.543975</v>
+        <v>0.546829</v>
       </c>
       <c r="D68" t="n">
-        <v>0.409333</v>
+        <v>0.406743</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.666071</v>
+        <v>0.661894</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5642509999999999</v>
+        <v>0.564768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414315</v>
+        <v>0.412985</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6867760000000001</v>
+        <v>0.687099</v>
       </c>
       <c r="C70" t="n">
-        <v>0.589108</v>
+        <v>0.589391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.427019</v>
+        <v>0.424007</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.713596</v>
+        <v>0.713903</v>
       </c>
       <c r="C71" t="n">
-        <v>0.610021</v>
+        <v>0.610741</v>
       </c>
       <c r="D71" t="n">
-        <v>0.437578</v>
+        <v>0.43508</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.738357</v>
+        <v>0.737859</v>
       </c>
       <c r="C72" t="n">
-        <v>0.635128</v>
+        <v>0.634235</v>
       </c>
       <c r="D72" t="n">
-        <v>0.449003</v>
+        <v>0.44684</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.769936</v>
+        <v>0.765534</v>
       </c>
       <c r="C73" t="n">
-        <v>0.665328</v>
+        <v>0.66532</v>
       </c>
       <c r="D73" t="n">
-        <v>0.460158</v>
+        <v>0.457609</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.792622</v>
+        <v>0.793257</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689959</v>
+        <v>0.689398</v>
       </c>
       <c r="D74" t="n">
-        <v>0.469419</v>
+        <v>0.467093</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8263509999999999</v>
+        <v>0.823706</v>
       </c>
       <c r="C75" t="n">
-        <v>0.723689</v>
+        <v>0.722062</v>
       </c>
       <c r="D75" t="n">
-        <v>0.483944</v>
+        <v>0.480418</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.859835</v>
+        <v>0.860814</v>
       </c>
       <c r="C76" t="n">
-        <v>0.754287</v>
+        <v>0.7544650000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.494788</v>
+        <v>0.495713</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.907906</v>
+        <v>0.905411</v>
       </c>
       <c r="C77" t="n">
-        <v>0.798916</v>
+        <v>0.797004</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5144069999999999</v>
+        <v>0.513483</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.960777</v>
+        <v>0.963569</v>
       </c>
       <c r="C78" t="n">
-        <v>0.843286</v>
+        <v>0.842243</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5277539999999999</v>
+        <v>0.527586</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02026</v>
+        <v>1.02039</v>
       </c>
       <c r="C79" t="n">
-        <v>0.889465</v>
+        <v>0.887381</v>
       </c>
       <c r="D79" t="n">
-        <v>0.544547</v>
+        <v>0.547478</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.08462</v>
+        <v>1.09281</v>
       </c>
       <c r="C80" t="n">
-        <v>0.950276</v>
+        <v>0.950415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.567347</v>
+        <v>0.565895</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.16166</v>
+        <v>1.17316</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02429</v>
+        <v>1.02487</v>
       </c>
       <c r="D81" t="n">
-        <v>0.58519</v>
+        <v>0.591869</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25192</v>
+        <v>1.26109</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09476</v>
+        <v>1.09887</v>
       </c>
       <c r="D82" t="n">
-        <v>0.615916</v>
+        <v>0.61605</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.34911</v>
+        <v>1.35912</v>
       </c>
       <c r="C83" t="n">
-        <v>0.801796</v>
+        <v>0.785089</v>
       </c>
       <c r="D83" t="n">
-        <v>0.488539</v>
+        <v>0.486869</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05989</v>
+        <v>1.06431</v>
       </c>
       <c r="C84" t="n">
-        <v>0.856187</v>
+        <v>0.842205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.499667</v>
+        <v>0.503086</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12589</v>
+        <v>1.15627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.913293</v>
+        <v>0.898018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.519408</v>
+        <v>0.525037</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21573</v>
+        <v>1.22958</v>
       </c>
       <c r="C86" t="n">
-        <v>0.995265</v>
+        <v>0.9768829999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.541815</v>
+        <v>0.550666</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.30559</v>
+        <v>1.32192</v>
       </c>
       <c r="C87" t="n">
-        <v>1.07475</v>
+        <v>1.05236</v>
       </c>
       <c r="D87" t="n">
-        <v>0.568398</v>
+        <v>0.580893</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41652</v>
+        <v>1.41768</v>
       </c>
       <c r="C88" t="n">
-        <v>1.18226</v>
+        <v>1.1556</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6014930000000001</v>
+        <v>0.609082</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.5389</v>
+        <v>1.53252</v>
       </c>
       <c r="C89" t="n">
-        <v>1.285</v>
+        <v>1.25119</v>
       </c>
       <c r="D89" t="n">
-        <v>0.644918</v>
+        <v>0.64006</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.66906</v>
+        <v>1.65797</v>
       </c>
       <c r="C90" t="n">
-        <v>1.39573</v>
+        <v>1.36048</v>
       </c>
       <c r="D90" t="n">
-        <v>0.676397</v>
+        <v>0.68619</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79685</v>
+        <v>1.79628</v>
       </c>
       <c r="C91" t="n">
-        <v>1.52277</v>
+        <v>1.488</v>
       </c>
       <c r="D91" t="n">
-        <v>0.727498</v>
+        <v>0.731186</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.93984</v>
+        <v>1.94249</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65478</v>
+        <v>1.62236</v>
       </c>
       <c r="D92" t="n">
-        <v>0.772827</v>
+        <v>0.785013</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.08476</v>
+        <v>2.09453</v>
       </c>
       <c r="C93" t="n">
-        <v>1.79105</v>
+        <v>1.75892</v>
       </c>
       <c r="D93" t="n">
-        <v>0.828084</v>
+        <v>0.834588</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.243</v>
+        <v>2.2392</v>
       </c>
       <c r="C94" t="n">
-        <v>1.94779</v>
+        <v>1.91519</v>
       </c>
       <c r="D94" t="n">
-        <v>0.892763</v>
+        <v>0.883587</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.41381</v>
+        <v>2.40894</v>
       </c>
       <c r="C95" t="n">
-        <v>2.10804</v>
+        <v>2.07928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.96609</v>
+        <v>0.968344</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57551</v>
+        <v>2.57124</v>
       </c>
       <c r="C96" t="n">
-        <v>2.29698</v>
+        <v>2.26942</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05545</v>
+        <v>1.03851</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76198</v>
+        <v>2.75675</v>
       </c>
       <c r="C97" t="n">
-        <v>1.46895</v>
+        <v>1.42851</v>
       </c>
       <c r="D97" t="n">
-        <v>0.79538</v>
+        <v>0.793372</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.04903</v>
+        <v>2.05568</v>
       </c>
       <c r="C98" t="n">
-        <v>1.57127</v>
+        <v>1.52837</v>
       </c>
       <c r="D98" t="n">
-        <v>0.838568</v>
+        <v>0.830047</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.1563</v>
+        <v>2.16379</v>
       </c>
       <c r="C99" t="n">
-        <v>1.66508</v>
+        <v>1.61956</v>
       </c>
       <c r="D99" t="n">
-        <v>0.898479</v>
+        <v>0.892718</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.27222</v>
+        <v>2.27544</v>
       </c>
       <c r="C100" t="n">
-        <v>1.77453</v>
+        <v>1.73007</v>
       </c>
       <c r="D100" t="n">
-        <v>0.954859</v>
+        <v>0.941658</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.4111</v>
+        <v>2.41374</v>
       </c>
       <c r="C101" t="n">
-        <v>1.88467</v>
+        <v>1.84168</v>
       </c>
       <c r="D101" t="n">
-        <v>0.993068</v>
+        <v>0.997139</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.52573</v>
+        <v>2.5281</v>
       </c>
       <c r="C102" t="n">
-        <v>1.99948</v>
+        <v>1.96133</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05897</v>
+        <v>1.05889</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64152</v>
+        <v>2.63781</v>
       </c>
       <c r="C103" t="n">
-        <v>2.12216</v>
+        <v>2.08586</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12142</v>
+        <v>1.12325</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.7786</v>
+        <v>2.77951</v>
       </c>
       <c r="C104" t="n">
-        <v>2.25193</v>
+        <v>2.21802</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17507</v>
+        <v>1.18809</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.90146</v>
+        <v>2.91243</v>
       </c>
       <c r="C105" t="n">
-        <v>2.38775</v>
+        <v>2.35751</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23545</v>
+        <v>1.23644</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.05643</v>
+        <v>3.06514</v>
       </c>
       <c r="C106" t="n">
-        <v>2.52249</v>
+        <v>2.49572</v>
       </c>
       <c r="D106" t="n">
-        <v>1.31777</v>
+        <v>1.3096</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.21584</v>
+        <v>3.22506</v>
       </c>
       <c r="C107" t="n">
-        <v>2.66639</v>
+        <v>2.64379</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38413</v>
+        <v>1.38138</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3677</v>
+        <v>3.38089</v>
       </c>
       <c r="C108" t="n">
-        <v>2.83665</v>
+        <v>2.81299</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45662</v>
+        <v>1.45993</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.5393</v>
+        <v>3.54571</v>
       </c>
       <c r="C109" t="n">
-        <v>3.01475</v>
+        <v>2.99451</v>
       </c>
       <c r="D109" t="n">
-        <v>1.53789</v>
+        <v>1.53594</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.70006</v>
+        <v>3.72538</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17842</v>
+        <v>3.16266</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62583</v>
+        <v>1.61739</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89808</v>
+        <v>3.89303</v>
       </c>
       <c r="C111" t="n">
-        <v>2.11182</v>
+        <v>2.08054</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30244</v>
+        <v>1.29862</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.82618</v>
+        <v>2.81413</v>
       </c>
       <c r="C112" t="n">
-        <v>2.21423</v>
+        <v>2.18281</v>
       </c>
       <c r="D112" t="n">
-        <v>1.33861</v>
+        <v>1.34499</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.91332</v>
+        <v>2.92135</v>
       </c>
       <c r="C113" t="n">
-        <v>2.32015</v>
+        <v>2.29152</v>
       </c>
       <c r="D113" t="n">
-        <v>1.39288</v>
+        <v>1.40094</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.02828</v>
+        <v>3.02717</v>
       </c>
       <c r="C114" t="n">
-        <v>2.42257</v>
+        <v>2.39432</v>
       </c>
       <c r="D114" t="n">
-        <v>1.4453</v>
+        <v>1.44567</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.14251</v>
+        <v>3.14789</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5322</v>
+        <v>2.50599</v>
       </c>
       <c r="D115" t="n">
-        <v>1.49413</v>
+        <v>1.49746</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.252</v>
+        <v>3.26563</v>
       </c>
       <c r="C116" t="n">
-        <v>2.64467</v>
+        <v>2.62525</v>
       </c>
       <c r="D116" t="n">
-        <v>1.54802</v>
+        <v>1.55724</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.37446</v>
+        <v>3.36929</v>
       </c>
       <c r="C117" t="n">
-        <v>2.77524</v>
+        <v>2.75248</v>
       </c>
       <c r="D117" t="n">
-        <v>1.62396</v>
+        <v>1.62735</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.4988</v>
+        <v>3.50708</v>
       </c>
       <c r="C118" t="n">
-        <v>2.90772</v>
+        <v>2.89268</v>
       </c>
       <c r="D118" t="n">
-        <v>1.69267</v>
+        <v>1.69149</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.61376</v>
+        <v>3.63118</v>
       </c>
       <c r="C119" t="n">
-        <v>3.04439</v>
+        <v>3.01132</v>
       </c>
       <c r="D119" t="n">
-        <v>1.74382</v>
+        <v>1.75547</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29864</v>
+        <v>0.304269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.245819</v>
+        <v>0.246509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245783</v>
+        <v>0.250404</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.304015</v>
+        <v>0.310129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252007</v>
+        <v>0.252071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252237</v>
+        <v>0.252865</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.310364</v>
+        <v>0.316276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.258135</v>
+        <v>0.259433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257425</v>
+        <v>0.258067</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.31648</v>
+        <v>0.326268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26567</v>
+        <v>0.267871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264357</v>
+        <v>0.265967</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.323588</v>
+        <v>0.333792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.272054</v>
+        <v>0.273028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.269852</v>
+        <v>0.270807</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328262</v>
+        <v>0.338297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224829</v>
+        <v>0.230464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.226187</v>
+        <v>0.23606</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.282439</v>
+        <v>0.295472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.228672</v>
+        <v>0.234195</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232928</v>
+        <v>0.239088</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292322</v>
+        <v>0.304629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231837</v>
+        <v>0.236395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239333</v>
+        <v>0.242095</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.29561</v>
+        <v>0.306146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.237875</v>
+        <v>0.241199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241806</v>
+        <v>0.246532</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303685</v>
+        <v>0.314021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242422</v>
+        <v>0.247571</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248291</v>
+        <v>0.252922</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.309933</v>
+        <v>0.317752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.248821</v>
+        <v>0.249557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253176</v>
+        <v>0.256596</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.316989</v>
+        <v>0.328069</v>
       </c>
       <c r="C13" t="n">
-        <v>0.255268</v>
+        <v>0.255647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258978</v>
+        <v>0.26134</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.324265</v>
+        <v>0.330334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.261749</v>
+        <v>0.263282</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265835</v>
+        <v>0.267194</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.331849</v>
+        <v>0.337199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.269</v>
+        <v>0.269339</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271759</v>
+        <v>0.272899</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.340485</v>
+        <v>0.34589</v>
       </c>
       <c r="C16" t="n">
-        <v>0.275754</v>
+        <v>0.277135</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276459</v>
+        <v>0.279171</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347427</v>
+        <v>0.353201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.283256</v>
+        <v>0.283685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283166</v>
+        <v>0.285961</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.352947</v>
+        <v>0.35903</v>
       </c>
       <c r="C18" t="n">
-        <v>0.289623</v>
+        <v>0.288989</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289426</v>
+        <v>0.291736</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.360446</v>
+        <v>0.366488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.296491</v>
+        <v>0.296831</v>
       </c>
       <c r="D19" t="n">
-        <v>0.296172</v>
+        <v>0.297744</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.36759</v>
+        <v>0.372258</v>
       </c>
       <c r="C20" t="n">
-        <v>0.303583</v>
+        <v>0.30166</v>
       </c>
       <c r="D20" t="n">
-        <v>0.303041</v>
+        <v>0.301783</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.375401</v>
+        <v>0.379074</v>
       </c>
       <c r="C21" t="n">
-        <v>0.251797</v>
+        <v>0.251021</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257513</v>
+        <v>0.255783</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.329005</v>
+        <v>0.33055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256313</v>
+        <v>0.255304</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26333</v>
+        <v>0.261124</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333445</v>
+        <v>0.33562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.262018</v>
+        <v>0.260901</v>
       </c>
       <c r="D23" t="n">
-        <v>0.268417</v>
+        <v>0.265902</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338575</v>
+        <v>0.340062</v>
       </c>
       <c r="C24" t="n">
-        <v>0.267882</v>
+        <v>0.26687</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273357</v>
+        <v>0.271049</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343763</v>
+        <v>0.345062</v>
       </c>
       <c r="C25" t="n">
-        <v>0.271856</v>
+        <v>0.270799</v>
       </c>
       <c r="D25" t="n">
-        <v>0.278889</v>
+        <v>0.276372</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.349849</v>
+        <v>0.351291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.277826</v>
+        <v>0.276691</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283679</v>
+        <v>0.281938</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.355052</v>
+        <v>0.356063</v>
       </c>
       <c r="C27" t="n">
-        <v>0.285316</v>
+        <v>0.282414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289928</v>
+        <v>0.288616</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.360499</v>
+        <v>0.361934</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290803</v>
+        <v>0.289595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.296353</v>
+        <v>0.294432</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.366318</v>
+        <v>0.367482</v>
       </c>
       <c r="C29" t="n">
-        <v>0.298629</v>
+        <v>0.297023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302983</v>
+        <v>0.302493</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.372643</v>
+        <v>0.373171</v>
       </c>
       <c r="C30" t="n">
-        <v>0.304665</v>
+        <v>0.303328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.309585</v>
+        <v>0.307428</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.378984</v>
+        <v>0.380456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.311289</v>
+        <v>0.309488</v>
       </c>
       <c r="D31" t="n">
-        <v>0.316227</v>
+        <v>0.314348</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.385292</v>
+        <v>0.385335</v>
       </c>
       <c r="C32" t="n">
-        <v>0.318595</v>
+        <v>0.316596</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32162</v>
+        <v>0.319798</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.390451</v>
+        <v>0.391128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.325082</v>
+        <v>0.322502</v>
       </c>
       <c r="D33" t="n">
-        <v>0.327832</v>
+        <v>0.326331</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.397404</v>
+        <v>0.398101</v>
       </c>
       <c r="C34" t="n">
-        <v>0.331498</v>
+        <v>0.329306</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3338</v>
+        <v>0.331899</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404522</v>
+        <v>0.404641</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266556</v>
+        <v>0.265886</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272508</v>
+        <v>0.272155</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.348281</v>
+        <v>0.349599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270912</v>
+        <v>0.270996</v>
       </c>
       <c r="D36" t="n">
-        <v>0.27629</v>
+        <v>0.275632</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.352627</v>
+        <v>0.353317</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275836</v>
+        <v>0.275309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280713</v>
+        <v>0.279818</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356895</v>
+        <v>0.35784</v>
       </c>
       <c r="C38" t="n">
-        <v>0.282366</v>
+        <v>0.281062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286514</v>
+        <v>0.286744</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.361486</v>
+        <v>0.363001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286475</v>
+        <v>0.286237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291932</v>
+        <v>0.290865</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366614</v>
+        <v>0.366993</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292764</v>
+        <v>0.291642</v>
       </c>
       <c r="D40" t="n">
-        <v>0.299878</v>
+        <v>0.298562</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371489</v>
+        <v>0.372205</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29878</v>
+        <v>0.297585</v>
       </c>
       <c r="D41" t="n">
-        <v>0.304248</v>
+        <v>0.302775</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.37734</v>
+        <v>0.377895</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304446</v>
+        <v>0.303178</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309615</v>
+        <v>0.309932</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.382873</v>
+        <v>0.383433</v>
       </c>
       <c r="C43" t="n">
-        <v>0.310431</v>
+        <v>0.309211</v>
       </c>
       <c r="D43" t="n">
-        <v>0.316381</v>
+        <v>0.314761</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.388793</v>
+        <v>0.389657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317726</v>
+        <v>0.315868</v>
       </c>
       <c r="D44" t="n">
-        <v>0.323374</v>
+        <v>0.32105</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.394507</v>
+        <v>0.395415</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324207</v>
+        <v>0.322413</v>
       </c>
       <c r="D45" t="n">
-        <v>0.328904</v>
+        <v>0.326948</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401324</v>
+        <v>0.402041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.330558</v>
+        <v>0.328992</v>
       </c>
       <c r="D46" t="n">
-        <v>0.335224</v>
+        <v>0.333255</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407278</v>
+        <v>0.40784</v>
       </c>
       <c r="C47" t="n">
-        <v>0.336599</v>
+        <v>0.335329</v>
       </c>
       <c r="D47" t="n">
-        <v>0.340575</v>
+        <v>0.338681</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413209</v>
+        <v>0.414029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.342744</v>
+        <v>0.341144</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345601</v>
+        <v>0.34475</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419066</v>
+        <v>0.419926</v>
       </c>
       <c r="C49" t="n">
-        <v>0.348166</v>
+        <v>0.347103</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351917</v>
+        <v>0.350367</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425046</v>
+        <v>0.425439</v>
       </c>
       <c r="C50" t="n">
-        <v>0.279433</v>
+        <v>0.278675</v>
       </c>
       <c r="D50" t="n">
-        <v>0.278948</v>
+        <v>0.277007</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362877</v>
+        <v>0.362695</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283961</v>
+        <v>0.284528</v>
       </c>
       <c r="D51" t="n">
-        <v>0.283526</v>
+        <v>0.281706</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366581</v>
+        <v>0.367004</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28915</v>
+        <v>0.28848</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28797</v>
+        <v>0.286024</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.370956</v>
+        <v>0.371723</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29409</v>
+        <v>0.293899</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29346</v>
+        <v>0.291385</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375289</v>
+        <v>0.375841</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2999</v>
+        <v>0.29977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299163</v>
+        <v>0.297263</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380086</v>
+        <v>0.380078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.305598</v>
+        <v>0.305482</v>
       </c>
       <c r="D55" t="n">
-        <v>0.30511</v>
+        <v>0.302809</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385116</v>
+        <v>0.385508</v>
       </c>
       <c r="C56" t="n">
-        <v>0.311566</v>
+        <v>0.31097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.310607</v>
+        <v>0.30824</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390636</v>
+        <v>0.391239</v>
       </c>
       <c r="C57" t="n">
-        <v>0.317727</v>
+        <v>0.317011</v>
       </c>
       <c r="D57" t="n">
-        <v>0.316426</v>
+        <v>0.314407</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.396719</v>
+        <v>0.397925</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323822</v>
+        <v>0.323206</v>
       </c>
       <c r="D58" t="n">
-        <v>0.322662</v>
+        <v>0.320299</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403687</v>
+        <v>0.403104</v>
       </c>
       <c r="C59" t="n">
-        <v>0.330315</v>
+        <v>0.32964</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328697</v>
+        <v>0.326365</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.408728</v>
+        <v>0.409475</v>
       </c>
       <c r="C60" t="n">
-        <v>0.336923</v>
+        <v>0.335719</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33468</v>
+        <v>0.332751</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.414934</v>
+        <v>0.415586</v>
       </c>
       <c r="C61" t="n">
-        <v>0.343587</v>
+        <v>0.342314</v>
       </c>
       <c r="D61" t="n">
-        <v>0.340599</v>
+        <v>0.338581</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.420783</v>
+        <v>0.421528</v>
       </c>
       <c r="C62" t="n">
-        <v>0.348933</v>
+        <v>0.3479</v>
       </c>
       <c r="D62" t="n">
-        <v>0.346251</v>
+        <v>0.344458</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.428427</v>
+        <v>0.427427</v>
       </c>
       <c r="C63" t="n">
-        <v>0.355359</v>
+        <v>0.354076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.351836</v>
+        <v>0.350263</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.434067</v>
+        <v>0.433494</v>
       </c>
       <c r="C64" t="n">
-        <v>0.289397</v>
+        <v>0.290139</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289982</v>
+        <v>0.288726</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.392189</v>
+        <v>0.394671</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294977</v>
+        <v>0.296167</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300016</v>
+        <v>0.298487</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.404284</v>
+        <v>0.404566</v>
       </c>
       <c r="C66" t="n">
-        <v>0.30394</v>
+        <v>0.302173</v>
       </c>
       <c r="D66" t="n">
-        <v>0.304443</v>
+        <v>0.3011</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.420582</v>
+        <v>0.41129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310102</v>
+        <v>0.310642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.310884</v>
+        <v>0.307467</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.426582</v>
+        <v>0.420131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.31774</v>
+        <v>0.316808</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318199</v>
+        <v>0.315303</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.432934</v>
+        <v>0.431911</v>
       </c>
       <c r="C69" t="n">
-        <v>0.325178</v>
+        <v>0.323747</v>
       </c>
       <c r="D69" t="n">
-        <v>0.324986</v>
+        <v>0.32154</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.438746</v>
+        <v>0.437972</v>
       </c>
       <c r="C70" t="n">
-        <v>0.332874</v>
+        <v>0.331813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330702</v>
+        <v>0.32902</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.455437</v>
+        <v>0.453608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.339964</v>
+        <v>0.339643</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340165</v>
+        <v>0.338624</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.472095</v>
+        <v>0.468123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.350311</v>
+        <v>0.349644</v>
       </c>
       <c r="D72" t="n">
-        <v>0.350685</v>
+        <v>0.34767</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.489242</v>
+        <v>0.483005</v>
       </c>
       <c r="C73" t="n">
-        <v>0.362012</v>
+        <v>0.359558</v>
       </c>
       <c r="D73" t="n">
-        <v>0.36012</v>
+        <v>0.355591</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.50944</v>
+        <v>0.499831</v>
       </c>
       <c r="C74" t="n">
-        <v>0.375213</v>
+        <v>0.370224</v>
       </c>
       <c r="D74" t="n">
-        <v>0.372448</v>
+        <v>0.365927</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.52721</v>
+        <v>0.518808</v>
       </c>
       <c r="C75" t="n">
-        <v>0.386039</v>
+        <v>0.382</v>
       </c>
       <c r="D75" t="n">
-        <v>0.381564</v>
+        <v>0.378222</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.545772</v>
+        <v>0.54221</v>
       </c>
       <c r="C76" t="n">
-        <v>0.397856</v>
+        <v>0.395514</v>
       </c>
       <c r="D76" t="n">
-        <v>0.394384</v>
+        <v>0.390703</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.568241</v>
+        <v>0.564164</v>
       </c>
       <c r="C77" t="n">
-        <v>0.410813</v>
+        <v>0.407103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.406982</v>
+        <v>0.404713</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.592933</v>
+        <v>0.588744</v>
       </c>
       <c r="C78" t="n">
-        <v>0.376285</v>
+        <v>0.380358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.375415</v>
+        <v>0.374602</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7178</v>
+        <v>0.711481</v>
       </c>
       <c r="C79" t="n">
-        <v>0.396005</v>
+        <v>0.398038</v>
       </c>
       <c r="D79" t="n">
-        <v>0.391162</v>
+        <v>0.389017</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.732531</v>
+        <v>0.729965</v>
       </c>
       <c r="C80" t="n">
-        <v>0.407795</v>
+        <v>0.411619</v>
       </c>
       <c r="D80" t="n">
-        <v>0.40123</v>
+        <v>0.404904</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.750156</v>
+        <v>0.75822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.423273</v>
+        <v>0.42857</v>
       </c>
       <c r="D81" t="n">
-        <v>0.416637</v>
+        <v>0.419161</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7756769999999999</v>
+        <v>0.777515</v>
       </c>
       <c r="C82" t="n">
-        <v>0.443748</v>
+        <v>0.44441</v>
       </c>
       <c r="D82" t="n">
-        <v>0.437478</v>
+        <v>0.436032</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.796816</v>
+        <v>0.800916</v>
       </c>
       <c r="C83" t="n">
-        <v>0.461765</v>
+        <v>0.463864</v>
       </c>
       <c r="D83" t="n">
-        <v>0.454017</v>
+        <v>0.455397</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.826642</v>
+        <v>0.823356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.480588</v>
+        <v>0.482094</v>
       </c>
       <c r="D84" t="n">
-        <v>0.479036</v>
+        <v>0.472603</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.849679</v>
+        <v>0.848836</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501509</v>
+        <v>0.500219</v>
       </c>
       <c r="D85" t="n">
-        <v>0.498218</v>
+        <v>0.491838</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.874592</v>
+        <v>0.873239</v>
       </c>
       <c r="C86" t="n">
-        <v>0.521836</v>
+        <v>0.5216</v>
       </c>
       <c r="D86" t="n">
-        <v>0.518012</v>
+        <v>0.516046</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.900876</v>
+        <v>0.899255</v>
       </c>
       <c r="C87" t="n">
-        <v>0.54311</v>
+        <v>0.542639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.536489</v>
+        <v>0.533917</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.927183</v>
+        <v>0.925511</v>
       </c>
       <c r="C88" t="n">
-        <v>0.56614</v>
+        <v>0.564213</v>
       </c>
       <c r="D88" t="n">
-        <v>0.558524</v>
+        <v>0.556245</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.954921</v>
+        <v>0.9532350000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.587999</v>
+        <v>0.585914</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5812</v>
+        <v>0.576275</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.983498</v>
+        <v>0.981697</v>
       </c>
       <c r="C90" t="n">
-        <v>0.612398</v>
+        <v>0.609344</v>
       </c>
       <c r="D90" t="n">
-        <v>0.60426</v>
+        <v>0.599565</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01268</v>
+        <v>1.01196</v>
       </c>
       <c r="C91" t="n">
-        <v>0.636718</v>
+        <v>0.633023</v>
       </c>
       <c r="D91" t="n">
-        <v>0.627657</v>
+        <v>0.623437</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04476</v>
+        <v>1.0422</v>
       </c>
       <c r="C92" t="n">
-        <v>0.652622</v>
+        <v>0.650356</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6482250000000001</v>
+        <v>0.643062</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15484</v>
+        <v>1.15682</v>
       </c>
       <c r="C93" t="n">
-        <v>0.666855</v>
+        <v>0.664331</v>
       </c>
       <c r="D93" t="n">
-        <v>0.663268</v>
+        <v>0.659614</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16619</v>
+        <v>1.16505</v>
       </c>
       <c r="C94" t="n">
-        <v>0.68094</v>
+        <v>0.682397</v>
       </c>
       <c r="D94" t="n">
-        <v>0.681609</v>
+        <v>0.679047</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17566</v>
+        <v>1.17827</v>
       </c>
       <c r="C95" t="n">
-        <v>0.697035</v>
+        <v>0.699545</v>
       </c>
       <c r="D95" t="n">
-        <v>0.690909</v>
+        <v>0.692485</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18688</v>
+        <v>1.18953</v>
       </c>
       <c r="C96" t="n">
-        <v>0.716032</v>
+        <v>0.715574</v>
       </c>
       <c r="D96" t="n">
-        <v>0.709746</v>
+        <v>0.707955</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19966</v>
+        <v>1.2039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.732436</v>
+        <v>0.7329639999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.730815</v>
+        <v>0.72941</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21439</v>
+        <v>1.21911</v>
       </c>
       <c r="C98" t="n">
-        <v>0.750144</v>
+        <v>0.750373</v>
       </c>
       <c r="D98" t="n">
-        <v>0.748466</v>
+        <v>0.746634</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23482</v>
+        <v>1.23896</v>
       </c>
       <c r="C99" t="n">
-        <v>0.769759</v>
+        <v>0.769964</v>
       </c>
       <c r="D99" t="n">
-        <v>0.767882</v>
+        <v>0.767011</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25246</v>
+        <v>1.25674</v>
       </c>
       <c r="C100" t="n">
-        <v>0.789362</v>
+        <v>0.7893790000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7896570000000001</v>
+        <v>0.78576</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.26787</v>
+        <v>1.27189</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8101390000000001</v>
+        <v>0.8093590000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.810684</v>
+        <v>0.807709</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28882</v>
+        <v>1.29177</v>
       </c>
       <c r="C102" t="n">
-        <v>0.831564</v>
+        <v>0.8314859999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.830641</v>
+        <v>0.828399</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31422</v>
+        <v>1.31741</v>
       </c>
       <c r="C103" t="n">
-        <v>0.853654</v>
+        <v>0.852846</v>
       </c>
       <c r="D103" t="n">
-        <v>0.85275</v>
+        <v>0.851303</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3361</v>
+        <v>1.34054</v>
       </c>
       <c r="C104" t="n">
-        <v>0.875369</v>
+        <v>0.875421</v>
       </c>
       <c r="D104" t="n">
-        <v>0.876169</v>
+        <v>0.874613</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36026</v>
+        <v>1.36472</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8991440000000001</v>
+        <v>0.898609</v>
       </c>
       <c r="D105" t="n">
-        <v>0.900145</v>
+        <v>0.898613</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.38554</v>
+        <v>1.39</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922412</v>
+        <v>0.921441</v>
       </c>
       <c r="D106" t="n">
-        <v>0.925797</v>
+        <v>0.923844</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38983</v>
+        <v>1.39351</v>
       </c>
       <c r="C107" t="n">
-        <v>0.874252</v>
+        <v>0.874131</v>
       </c>
       <c r="D107" t="n">
-        <v>0.870905</v>
+        <v>0.869704</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39483</v>
+        <v>1.39813</v>
       </c>
       <c r="C108" t="n">
-        <v>0.886937</v>
+        <v>0.888888</v>
       </c>
       <c r="D108" t="n">
-        <v>0.885873</v>
+        <v>0.884446</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40345</v>
+        <v>1.40688</v>
       </c>
       <c r="C109" t="n">
-        <v>0.903609</v>
+        <v>0.902904</v>
       </c>
       <c r="D109" t="n">
-        <v>0.90478</v>
+        <v>0.901496</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41269</v>
+        <v>1.41626</v>
       </c>
       <c r="C110" t="n">
-        <v>0.918206</v>
+        <v>0.919222</v>
       </c>
       <c r="D110" t="n">
-        <v>0.919422</v>
+        <v>0.917764</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42272</v>
+        <v>1.4263</v>
       </c>
       <c r="C111" t="n">
-        <v>0.934326</v>
+        <v>0.935528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9331</v>
+        <v>0.931691</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43597</v>
+        <v>1.43792</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9520189999999999</v>
+        <v>0.953321</v>
       </c>
       <c r="D112" t="n">
-        <v>0.952299</v>
+        <v>0.951368</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44738</v>
+        <v>1.4501</v>
       </c>
       <c r="C113" t="n">
-        <v>0.970074</v>
+        <v>0.97116</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970135</v>
+        <v>0.969255</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46355</v>
+        <v>1.46679</v>
       </c>
       <c r="C114" t="n">
-        <v>0.988645</v>
+        <v>0.989743</v>
       </c>
       <c r="D114" t="n">
-        <v>0.988364</v>
+        <v>0.987011</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47759</v>
+        <v>1.4808</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00895</v>
+        <v>1.00918</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00944</v>
+        <v>1.00901</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49449</v>
+        <v>1.4992</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02949</v>
+        <v>1.02957</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03034</v>
+        <v>1.02919</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.51659</v>
+        <v>1.52011</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05025</v>
+        <v>1.04906</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05187</v>
+        <v>1.05122</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.53561</v>
+        <v>1.54034</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07088</v>
+        <v>1.07167</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07112</v>
+        <v>1.06989</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.55634</v>
+        <v>1.55983</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09159</v>
+        <v>1.09234</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09396</v>
+        <v>1.09177</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.265358</v>
+        <v>0.27947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216807</v>
+        <v>0.22512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205066</v>
+        <v>0.207492</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270498</v>
+        <v>0.283921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22223</v>
+        <v>0.229558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20648</v>
+        <v>0.208836</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276911</v>
+        <v>0.286319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224474</v>
+        <v>0.22934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209081</v>
+        <v>0.211895</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.278601</v>
+        <v>0.291176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229139</v>
+        <v>0.236413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210373</v>
+        <v>0.213359</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276862</v>
+        <v>0.292525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23374</v>
+        <v>0.240677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213896</v>
+        <v>0.218016</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.288235</v>
+        <v>0.300407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220634</v>
+        <v>0.222775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217208</v>
+        <v>0.218846</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.286021</v>
+        <v>0.296301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224568</v>
+        <v>0.230689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21676</v>
+        <v>0.222759</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.283166</v>
+        <v>0.301194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223183</v>
+        <v>0.234393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21804</v>
+        <v>0.226105</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.285894</v>
+        <v>0.302396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226042</v>
+        <v>0.237278</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218194</v>
+        <v>0.228451</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.291896</v>
+        <v>0.310243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223734</v>
+        <v>0.234008</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217713</v>
+        <v>0.227654</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.295593</v>
+        <v>0.313622</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233426</v>
+        <v>0.244189</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220528</v>
+        <v>0.23082</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.314227</v>
+        <v>0.321006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234125</v>
+        <v>0.237355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227791</v>
+        <v>0.23035</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.313949</v>
+        <v>0.325224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239436</v>
+        <v>0.24577</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227118</v>
+        <v>0.234554</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.319517</v>
+        <v>0.328808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243208</v>
+        <v>0.249199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229226</v>
+        <v>0.235402</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.325949</v>
+        <v>0.334102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.248643</v>
+        <v>0.255503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23146</v>
+        <v>0.237983</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.332703</v>
+        <v>0.339768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.252273</v>
+        <v>0.258571</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234852</v>
+        <v>0.241932</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.337078</v>
+        <v>0.34417</v>
       </c>
       <c r="C18" t="n">
-        <v>0.262581</v>
+        <v>0.268708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23819</v>
+        <v>0.243987</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.346325</v>
+        <v>0.350193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263385</v>
+        <v>0.272327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240976</v>
+        <v>0.247041</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.351277</v>
+        <v>0.35383</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271438</v>
+        <v>0.278204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244718</v>
+        <v>0.250194</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.360285</v>
+        <v>0.361251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250474</v>
+        <v>0.256254</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248008</v>
+        <v>0.250012</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.345137</v>
+        <v>0.346004</v>
       </c>
       <c r="C22" t="n">
-        <v>0.26486</v>
+        <v>0.266704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248993</v>
+        <v>0.249022</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.352932</v>
+        <v>0.351568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.265843</v>
+        <v>0.266256</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25137</v>
+        <v>0.255767</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.358205</v>
+        <v>0.35772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279255</v>
+        <v>0.274408</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256768</v>
+        <v>0.25995</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.364547</v>
+        <v>0.366023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.289841</v>
+        <v>0.288565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261834</v>
+        <v>0.264968</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.367975</v>
+        <v>0.368494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.290886</v>
+        <v>0.2931</v>
       </c>
       <c r="D26" t="n">
-        <v>0.266239</v>
+        <v>0.268538</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.37481</v>
+        <v>0.37523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.301051</v>
+        <v>0.303225</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270394</v>
+        <v>0.270718</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.38001</v>
+        <v>0.379061</v>
       </c>
       <c r="C28" t="n">
-        <v>0.302109</v>
+        <v>0.304456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271321</v>
+        <v>0.273808</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383904</v>
+        <v>0.384038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.310223</v>
+        <v>0.312105</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276082</v>
+        <v>0.277973</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392124</v>
+        <v>0.390985</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324121</v>
+        <v>0.325548</v>
       </c>
       <c r="D30" t="n">
-        <v>0.28257</v>
+        <v>0.283197</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398819</v>
+        <v>0.398626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.321333</v>
+        <v>0.323175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.284813</v>
+        <v>0.285478</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401315</v>
+        <v>0.402012</v>
       </c>
       <c r="C32" t="n">
-        <v>0.332112</v>
+        <v>0.334385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289386</v>
+        <v>0.289628</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.406628</v>
+        <v>0.410519</v>
       </c>
       <c r="C33" t="n">
-        <v>0.34365</v>
+        <v>0.346621</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293905</v>
+        <v>0.29527</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411018</v>
+        <v>0.410877</v>
       </c>
       <c r="C34" t="n">
-        <v>0.34912</v>
+        <v>0.352362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.298785</v>
+        <v>0.299831</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419287</v>
+        <v>0.419462</v>
       </c>
       <c r="C35" t="n">
-        <v>0.284843</v>
+        <v>0.286521</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277217</v>
+        <v>0.27848</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402214</v>
+        <v>0.402077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290656</v>
+        <v>0.291897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280541</v>
+        <v>0.282242</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.407115</v>
+        <v>0.40763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297783</v>
+        <v>0.297974</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283757</v>
+        <v>0.284142</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.408517</v>
+        <v>0.409208</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299399</v>
+        <v>0.301056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28638</v>
+        <v>0.28771</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.41457</v>
+        <v>0.414614</v>
       </c>
       <c r="C39" t="n">
-        <v>0.30664</v>
+        <v>0.307759</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290303</v>
+        <v>0.291626</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.41824</v>
+        <v>0.418814</v>
       </c>
       <c r="C40" t="n">
-        <v>0.311691</v>
+        <v>0.312446</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292209</v>
+        <v>0.293105</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.42242</v>
+        <v>0.422056</v>
       </c>
       <c r="C41" t="n">
-        <v>0.315862</v>
+        <v>0.31647</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293875</v>
+        <v>0.295021</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.429959</v>
+        <v>0.429868</v>
       </c>
       <c r="C42" t="n">
-        <v>0.318825</v>
+        <v>0.320022</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296884</v>
+        <v>0.297822</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435747</v>
+        <v>0.435606</v>
       </c>
       <c r="C43" t="n">
-        <v>0.324423</v>
+        <v>0.325714</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298858</v>
+        <v>0.299479</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440029</v>
+        <v>0.440138</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330068</v>
+        <v>0.330743</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301468</v>
+        <v>0.302341</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442338</v>
+        <v>0.442769</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334285</v>
+        <v>0.335103</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304815</v>
+        <v>0.305743</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449059</v>
+        <v>0.449318</v>
       </c>
       <c r="C46" t="n">
-        <v>0.334733</v>
+        <v>0.335834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305469</v>
+        <v>0.306716</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.456044</v>
+        <v>0.455441</v>
       </c>
       <c r="C47" t="n">
-        <v>0.342657</v>
+        <v>0.343788</v>
       </c>
       <c r="D47" t="n">
-        <v>0.308348</v>
+        <v>0.309355</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461919</v>
+        <v>0.460812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349272</v>
+        <v>0.349951</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312173</v>
+        <v>0.312919</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467276</v>
+        <v>0.466028</v>
       </c>
       <c r="C49" t="n">
-        <v>0.353687</v>
+        <v>0.354715</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315643</v>
+        <v>0.316676</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476955</v>
+        <v>0.476058</v>
       </c>
       <c r="C50" t="n">
-        <v>0.32151</v>
+        <v>0.321795</v>
       </c>
       <c r="D50" t="n">
-        <v>0.296722</v>
+        <v>0.294122</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430319</v>
+        <v>0.429409</v>
       </c>
       <c r="C51" t="n">
-        <v>0.325981</v>
+        <v>0.3265</v>
       </c>
       <c r="D51" t="n">
-        <v>0.29658</v>
+        <v>0.297291</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.43376</v>
+        <v>0.433172</v>
       </c>
       <c r="C52" t="n">
-        <v>0.328137</v>
+        <v>0.325596</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29718</v>
+        <v>0.297789</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.439146</v>
+        <v>0.443402</v>
       </c>
       <c r="C53" t="n">
-        <v>0.334648</v>
+        <v>0.335573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.299978</v>
+        <v>0.300524</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.444295</v>
+        <v>0.442019</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339219</v>
+        <v>0.33958</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303414</v>
+        <v>0.303926</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445008</v>
+        <v>0.445131</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346155</v>
+        <v>0.346869</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305401</v>
+        <v>0.305465</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450803</v>
+        <v>0.45014</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345534</v>
+        <v>0.346413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30778</v>
+        <v>0.308066</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.45417</v>
+        <v>0.453057</v>
       </c>
       <c r="C57" t="n">
-        <v>0.354837</v>
+        <v>0.355515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310171</v>
+        <v>0.310722</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.458267</v>
+        <v>0.457421</v>
       </c>
       <c r="C58" t="n">
-        <v>0.362856</v>
+        <v>0.363341</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314456</v>
+        <v>0.315096</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.462392</v>
+        <v>0.461096</v>
       </c>
       <c r="C59" t="n">
-        <v>0.369827</v>
+        <v>0.370383</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318318</v>
+        <v>0.319012</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.467607</v>
+        <v>0.46614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.375331</v>
+        <v>0.376</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320835</v>
+        <v>0.321589</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.471148</v>
+        <v>0.469796</v>
       </c>
       <c r="C61" t="n">
-        <v>0.381368</v>
+        <v>0.382197</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323816</v>
+        <v>0.324168</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.478201</v>
+        <v>0.477086</v>
       </c>
       <c r="C62" t="n">
-        <v>0.387241</v>
+        <v>0.387599</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325345</v>
+        <v>0.325879</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483068</v>
+        <v>0.48214</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393358</v>
+        <v>0.393938</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328653</v>
+        <v>0.329147</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.490707</v>
+        <v>0.487629</v>
       </c>
       <c r="C64" t="n">
-        <v>0.351791</v>
+        <v>0.353437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318941</v>
+        <v>0.324148</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461728</v>
+        <v>0.462136</v>
       </c>
       <c r="C65" t="n">
-        <v>0.360878</v>
+        <v>0.361135</v>
       </c>
       <c r="D65" t="n">
-        <v>0.31635</v>
+        <v>0.316715</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.466173</v>
+        <v>0.467691</v>
       </c>
       <c r="C66" t="n">
-        <v>0.361527</v>
+        <v>0.363514</v>
       </c>
       <c r="D66" t="n">
-        <v>0.321904</v>
+        <v>0.31924</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.47714</v>
+        <v>0.479539</v>
       </c>
       <c r="C67" t="n">
-        <v>0.369032</v>
+        <v>0.370822</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321551</v>
+        <v>0.322297</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.485605</v>
+        <v>0.488061</v>
       </c>
       <c r="C68" t="n">
-        <v>0.373438</v>
+        <v>0.375486</v>
       </c>
       <c r="D68" t="n">
-        <v>0.324748</v>
+        <v>0.325759</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.492816</v>
+        <v>0.494683</v>
       </c>
       <c r="C69" t="n">
-        <v>0.378469</v>
+        <v>0.380591</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327385</v>
+        <v>0.328283</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.506756</v>
+        <v>0.515458</v>
       </c>
       <c r="C70" t="n">
-        <v>0.384884</v>
+        <v>0.386016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331468</v>
+        <v>0.332029</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.518612</v>
+        <v>0.520929</v>
       </c>
       <c r="C71" t="n">
-        <v>0.392842</v>
+        <v>0.394507</v>
       </c>
       <c r="D71" t="n">
-        <v>0.334731</v>
+        <v>0.335485</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.529902</v>
+        <v>0.530346</v>
       </c>
       <c r="C72" t="n">
-        <v>0.401993</v>
+        <v>0.40412</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339829</v>
+        <v>0.340716</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.541026</v>
+        <v>0.549225</v>
       </c>
       <c r="C73" t="n">
-        <v>0.411691</v>
+        <v>0.41412</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345147</v>
+        <v>0.346007</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.556605</v>
+        <v>0.566334</v>
       </c>
       <c r="C74" t="n">
-        <v>0.419595</v>
+        <v>0.42094</v>
       </c>
       <c r="D74" t="n">
-        <v>0.347097</v>
+        <v>0.348079</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.569936</v>
+        <v>0.576757</v>
       </c>
       <c r="C75" t="n">
-        <v>0.427118</v>
+        <v>0.428921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.352767</v>
+        <v>0.353607</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.588103</v>
+        <v>0.594489</v>
       </c>
       <c r="C76" t="n">
-        <v>0.437598</v>
+        <v>0.440538</v>
       </c>
       <c r="D76" t="n">
-        <v>0.357148</v>
+        <v>0.357399</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.612693</v>
+        <v>0.619539</v>
       </c>
       <c r="C77" t="n">
-        <v>0.45059</v>
+        <v>0.454208</v>
       </c>
       <c r="D77" t="n">
-        <v>0.364518</v>
+        <v>0.364923</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.63574</v>
+        <v>0.653224</v>
       </c>
       <c r="C78" t="n">
-        <v>0.40866</v>
+        <v>0.405142</v>
       </c>
       <c r="D78" t="n">
-        <v>0.358349</v>
+        <v>0.361186</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6909149999999999</v>
+        <v>0.682755</v>
       </c>
       <c r="C79" t="n">
-        <v>0.417812</v>
+        <v>0.411042</v>
       </c>
       <c r="D79" t="n">
-        <v>0.364431</v>
+        <v>0.364497</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.714662</v>
+        <v>0.715271</v>
       </c>
       <c r="C80" t="n">
-        <v>0.424981</v>
+        <v>0.432586</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377468</v>
+        <v>0.375574</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.75542</v>
+        <v>0.754571</v>
       </c>
       <c r="C81" t="n">
-        <v>0.439219</v>
+        <v>0.441251</v>
       </c>
       <c r="D81" t="n">
-        <v>0.378486</v>
+        <v>0.378891</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.790231</v>
+        <v>0.788185</v>
       </c>
       <c r="C82" t="n">
-        <v>0.455934</v>
+        <v>0.464734</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390404</v>
+        <v>0.392249</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.834731</v>
+        <v>0.838916</v>
       </c>
       <c r="C83" t="n">
-        <v>0.475242</v>
+        <v>0.480641</v>
       </c>
       <c r="D83" t="n">
-        <v>0.407104</v>
+        <v>0.403323</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.875941</v>
+        <v>0.878003</v>
       </c>
       <c r="C84" t="n">
-        <v>0.500549</v>
+        <v>0.5031870000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.414614</v>
+        <v>0.412574</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9209349999999999</v>
+        <v>0.923942</v>
       </c>
       <c r="C85" t="n">
-        <v>0.525083</v>
+        <v>0.5240590000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.424953</v>
+        <v>0.425222</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.984226</v>
+        <v>0.984394</v>
       </c>
       <c r="C86" t="n">
-        <v>0.546577</v>
+        <v>0.547006</v>
       </c>
       <c r="D86" t="n">
-        <v>0.444401</v>
+        <v>0.437852</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03787</v>
+        <v>1.03861</v>
       </c>
       <c r="C87" t="n">
-        <v>0.57602</v>
+        <v>0.57804</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459825</v>
+        <v>0.452319</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08017</v>
+        <v>1.08289</v>
       </c>
       <c r="C88" t="n">
-        <v>0.605389</v>
+        <v>0.604807</v>
       </c>
       <c r="D88" t="n">
-        <v>0.470071</v>
+        <v>0.475589</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14167</v>
+        <v>1.14255</v>
       </c>
       <c r="C89" t="n">
-        <v>0.641783</v>
+        <v>0.642581</v>
       </c>
       <c r="D89" t="n">
-        <v>0.493002</v>
+        <v>0.491707</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.19107</v>
+        <v>1.19393</v>
       </c>
       <c r="C90" t="n">
-        <v>0.676399</v>
+        <v>0.677217</v>
       </c>
       <c r="D90" t="n">
-        <v>0.511065</v>
+        <v>0.511195</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.25929</v>
+        <v>1.26049</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7216399999999999</v>
+        <v>0.72301</v>
       </c>
       <c r="D91" t="n">
-        <v>0.543457</v>
+        <v>0.536947</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.32292</v>
+        <v>1.32565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.736154</v>
+        <v>0.737326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.643212</v>
+        <v>0.644378</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35002</v>
+        <v>1.35195</v>
       </c>
       <c r="C93" t="n">
-        <v>0.766759</v>
+        <v>0.771034</v>
       </c>
       <c r="D93" t="n">
-        <v>0.671916</v>
+        <v>0.669771</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.3878</v>
+        <v>1.39025</v>
       </c>
       <c r="C94" t="n">
-        <v>0.798624</v>
+        <v>0.803859</v>
       </c>
       <c r="D94" t="n">
-        <v>0.693748</v>
+        <v>0.69341</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44068</v>
+        <v>1.44373</v>
       </c>
       <c r="C95" t="n">
-        <v>0.832716</v>
+        <v>0.838238</v>
       </c>
       <c r="D95" t="n">
-        <v>0.721181</v>
+        <v>0.720986</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48552</v>
+        <v>1.48893</v>
       </c>
       <c r="C96" t="n">
-        <v>0.868073</v>
+        <v>0.873439</v>
       </c>
       <c r="D96" t="n">
-        <v>0.743686</v>
+        <v>0.743749</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53215</v>
+        <v>1.53631</v>
       </c>
       <c r="C97" t="n">
-        <v>0.910659</v>
+        <v>0.911564</v>
       </c>
       <c r="D97" t="n">
-        <v>0.77242</v>
+        <v>0.773521</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.58696</v>
+        <v>1.5899</v>
       </c>
       <c r="C98" t="n">
-        <v>0.949313</v>
+        <v>0.951111</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7999849999999999</v>
+        <v>0.799984</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62993</v>
+        <v>1.63115</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9912840000000001</v>
+        <v>0.992464</v>
       </c>
       <c r="D99" t="n">
-        <v>0.82775</v>
+        <v>0.826693</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.67553</v>
+        <v>1.67426</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03249</v>
+        <v>1.03434</v>
       </c>
       <c r="D100" t="n">
-        <v>0.854476</v>
+        <v>0.8570489999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72298</v>
+        <v>1.72545</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06958</v>
+        <v>1.07204</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8802489999999999</v>
+        <v>0.884127</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76692</v>
+        <v>1.76989</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11531</v>
+        <v>1.11804</v>
       </c>
       <c r="D102" t="n">
-        <v>0.909301</v>
+        <v>0.909169</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80297</v>
+        <v>1.80614</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15394</v>
+        <v>1.15746</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9336989999999999</v>
+        <v>0.933961</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.85721</v>
+        <v>1.86239</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19552</v>
+        <v>1.19779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9609799999999999</v>
+        <v>0.961362</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90465</v>
+        <v>1.90522</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24192</v>
+        <v>1.24551</v>
       </c>
       <c r="D105" t="n">
-        <v>0.994905</v>
+        <v>0.996071</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.94572</v>
+        <v>1.9491</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28548</v>
+        <v>1.28858</v>
       </c>
       <c r="D106" t="n">
-        <v>1.0217</v>
+        <v>1.02225</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84575</v>
+        <v>1.84855</v>
       </c>
       <c r="C107" t="n">
-        <v>1.18191</v>
+        <v>1.1854</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06219</v>
+        <v>1.06452</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.86592</v>
+        <v>1.87381</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20865</v>
+        <v>1.21089</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08205</v>
+        <v>1.08492</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.90202</v>
+        <v>1.91113</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24219</v>
+        <v>1.24658</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10457</v>
+        <v>1.10825</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.94701</v>
+        <v>1.95703</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27208</v>
+        <v>1.2766</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12036</v>
+        <v>1.12293</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.97902</v>
+        <v>1.98793</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30068</v>
+        <v>1.30611</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14258</v>
+        <v>1.14677</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.01609</v>
+        <v>2.02232</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33685</v>
+        <v>1.34152</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16256</v>
+        <v>1.16598</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.05206</v>
+        <v>2.0575</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37363</v>
+        <v>1.37852</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18877</v>
+        <v>1.18946</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.0863</v>
+        <v>2.08928</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40433</v>
+        <v>1.40754</v>
       </c>
       <c r="D114" t="n">
-        <v>1.2066</v>
+        <v>1.20894</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.11525</v>
+        <v>2.12189</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44303</v>
+        <v>1.44782</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22842</v>
+        <v>1.23228</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15792</v>
+        <v>2.16224</v>
       </c>
       <c r="C116" t="n">
-        <v>1.47937</v>
+        <v>1.48353</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25141</v>
+        <v>1.253</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.19437</v>
+        <v>2.19859</v>
       </c>
       <c r="C117" t="n">
-        <v>1.51587</v>
+        <v>1.51856</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27388</v>
+        <v>1.27562</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.22982</v>
+        <v>2.23367</v>
       </c>
       <c r="C118" t="n">
-        <v>1.55815</v>
+        <v>1.56227</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29373</v>
+        <v>1.29537</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.26782</v>
+        <v>2.2706</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59746</v>
+        <v>1.60108</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31803</v>
+        <v>1.31869</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.422014</v>
+        <v>0.447842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338601</v>
+        <v>0.354476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.272283</v>
+        <v>0.27604</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433273</v>
+        <v>0.449059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.344866</v>
+        <v>0.35933</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275059</v>
+        <v>0.279754</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.449503</v>
+        <v>0.467109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.363095</v>
+        <v>0.381488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.284296</v>
+        <v>0.289165</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.457188</v>
+        <v>0.479247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.369517</v>
+        <v>0.389279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.287932</v>
+        <v>0.293782</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.462613</v>
+        <v>0.48864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378278</v>
+        <v>0.398264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292742</v>
+        <v>0.298437</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.473772</v>
+        <v>0.501876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.392799</v>
+        <v>0.418722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.300667</v>
+        <v>0.304029</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.489294</v>
+        <v>0.511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.412054</v>
+        <v>0.435405</v>
       </c>
       <c r="D8" t="n">
-        <v>0.310331</v>
+        <v>0.313834</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.504315</v>
+        <v>0.5283910000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.427187</v>
+        <v>0.455308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.319923</v>
+        <v>0.32486</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5140709999999999</v>
+        <v>0.53868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.453562</v>
+        <v>0.479463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.332875</v>
+        <v>0.339022</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.53654</v>
+        <v>0.562192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351846</v>
+        <v>0.37166</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273932</v>
+        <v>0.277502</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.403626</v>
+        <v>0.422372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.356533</v>
+        <v>0.372084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274316</v>
+        <v>0.277129</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.418261</v>
+        <v>0.438165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.368381</v>
+        <v>0.385049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286921</v>
+        <v>0.29208</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.422451</v>
+        <v>0.445185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.383969</v>
+        <v>0.407323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286076</v>
+        <v>0.292098</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.440877</v>
+        <v>0.466168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.398243</v>
+        <v>0.421858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.293141</v>
+        <v>0.299344</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.455234</v>
+        <v>0.479166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420021</v>
+        <v>0.441299</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298935</v>
+        <v>0.308623</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.47561</v>
+        <v>0.498464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.433033</v>
+        <v>0.456046</v>
       </c>
       <c r="D17" t="n">
-        <v>0.306966</v>
+        <v>0.313768</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.494017</v>
+        <v>0.511924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.447777</v>
+        <v>0.461906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.310753</v>
+        <v>0.318871</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.522569</v>
+        <v>0.534043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.469806</v>
+        <v>0.488967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320547</v>
+        <v>0.328574</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.527728</v>
+        <v>0.544334</v>
       </c>
       <c r="C20" t="n">
-        <v>0.500049</v>
+        <v>0.511683</v>
       </c>
       <c r="D20" t="n">
-        <v>0.333391</v>
+        <v>0.341819</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.558547</v>
+        <v>0.56799</v>
       </c>
       <c r="C21" t="n">
-        <v>0.519058</v>
+        <v>0.53301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.345142</v>
+        <v>0.354137</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.577424</v>
+        <v>0.586194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.548727</v>
+        <v>0.557755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358984</v>
+        <v>0.362043</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.618361</v>
+        <v>0.621895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.57082</v>
+        <v>0.58401</v>
       </c>
       <c r="D23" t="n">
-        <v>0.376033</v>
+        <v>0.377202</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.632417</v>
+        <v>0.6370479999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.59866</v>
+        <v>0.60646</v>
       </c>
       <c r="D24" t="n">
-        <v>0.385184</v>
+        <v>0.393905</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659635</v>
+        <v>0.66124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.625723</v>
+        <v>0.636896</v>
       </c>
       <c r="D25" t="n">
-        <v>0.395517</v>
+        <v>0.404731</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.690902</v>
+        <v>0.696176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.411568</v>
+        <v>0.414357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.291287</v>
+        <v>0.29337</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.512331</v>
+        <v>0.514697</v>
       </c>
       <c r="C27" t="n">
-        <v>0.416959</v>
+        <v>0.422372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.29464</v>
+        <v>0.298094</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.526019</v>
+        <v>0.5278929999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.431529</v>
+        <v>0.436228</v>
       </c>
       <c r="D28" t="n">
-        <v>0.301467</v>
+        <v>0.305505</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.544625</v>
+        <v>0.546603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.443105</v>
+        <v>0.447304</v>
       </c>
       <c r="D29" t="n">
-        <v>0.306632</v>
+        <v>0.311236</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.566675</v>
+        <v>0.568391</v>
       </c>
       <c r="C30" t="n">
-        <v>0.461578</v>
+        <v>0.46684</v>
       </c>
       <c r="D30" t="n">
-        <v>0.315686</v>
+        <v>0.318176</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.588319</v>
+        <v>0.590773</v>
       </c>
       <c r="C31" t="n">
-        <v>0.477737</v>
+        <v>0.485128</v>
       </c>
       <c r="D31" t="n">
-        <v>0.328775</v>
+        <v>0.332348</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.609097</v>
+        <v>0.610284</v>
       </c>
       <c r="C32" t="n">
-        <v>0.498145</v>
+        <v>0.5029130000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334587</v>
+        <v>0.340502</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.621308</v>
+        <v>0.624718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.518016</v>
+        <v>0.525922</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350778</v>
+        <v>0.355502</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.649377</v>
+        <v>0.652344</v>
       </c>
       <c r="C34" t="n">
-        <v>0.536181</v>
+        <v>0.547672</v>
       </c>
       <c r="D34" t="n">
-        <v>0.360103</v>
+        <v>0.363334</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.673743</v>
+        <v>0.67478</v>
       </c>
       <c r="C35" t="n">
-        <v>0.567335</v>
+        <v>0.57237</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371702</v>
+        <v>0.37349</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.691916</v>
+        <v>0.690485</v>
       </c>
       <c r="C36" t="n">
-        <v>0.590225</v>
+        <v>0.597824</v>
       </c>
       <c r="D36" t="n">
-        <v>0.385383</v>
+        <v>0.387626</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.720573</v>
+        <v>0.724067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.611448</v>
+        <v>0.623732</v>
       </c>
       <c r="D37" t="n">
-        <v>0.396247</v>
+        <v>0.399462</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7448669999999999</v>
+        <v>0.744762</v>
       </c>
       <c r="C38" t="n">
-        <v>0.64653</v>
+        <v>0.65051</v>
       </c>
       <c r="D38" t="n">
-        <v>0.413924</v>
+        <v>0.41589</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.782686</v>
+        <v>0.780023</v>
       </c>
       <c r="C39" t="n">
-        <v>0.674132</v>
+        <v>0.678114</v>
       </c>
       <c r="D39" t="n">
-        <v>0.424053</v>
+        <v>0.427007</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.800516</v>
+        <v>0.801665</v>
       </c>
       <c r="C40" t="n">
-        <v>0.480798</v>
+        <v>0.487759</v>
       </c>
       <c r="D40" t="n">
-        <v>0.354349</v>
+        <v>0.354712</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.582331</v>
+        <v>0.582018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.49757</v>
+        <v>0.500179</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361431</v>
+        <v>0.361549</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.605027</v>
+        <v>0.602074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.519039</v>
+        <v>0.520855</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369223</v>
+        <v>0.36959</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.618113</v>
+        <v>0.618234</v>
       </c>
       <c r="C43" t="n">
-        <v>0.531816</v>
+        <v>0.535413</v>
       </c>
       <c r="D43" t="n">
-        <v>0.375736</v>
+        <v>0.377076</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.631346</v>
+        <v>0.630933</v>
       </c>
       <c r="C44" t="n">
-        <v>0.556503</v>
+        <v>0.559697</v>
       </c>
       <c r="D44" t="n">
-        <v>0.386979</v>
+        <v>0.388685</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652922</v>
+        <v>0.652157</v>
       </c>
       <c r="C45" t="n">
-        <v>0.570441</v>
+        <v>0.573776</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397557</v>
+        <v>0.398168</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664286</v>
+        <v>0.663164</v>
       </c>
       <c r="C46" t="n">
-        <v>0.59288</v>
+        <v>0.595743</v>
       </c>
       <c r="D46" t="n">
-        <v>0.407798</v>
+        <v>0.40865</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.686509</v>
+        <v>0.683542</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6115</v>
+        <v>0.614495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418152</v>
+        <v>0.417176</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701531</v>
+        <v>0.698527</v>
       </c>
       <c r="C48" t="n">
-        <v>0.627138</v>
+        <v>0.630678</v>
       </c>
       <c r="D48" t="n">
-        <v>0.426906</v>
+        <v>0.428993</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7222150000000001</v>
+        <v>0.720054</v>
       </c>
       <c r="C49" t="n">
-        <v>0.651142</v>
+        <v>0.655334</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438465</v>
+        <v>0.439731</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.745146</v>
+        <v>0.742472</v>
       </c>
       <c r="C50" t="n">
-        <v>0.673529</v>
+        <v>0.677722</v>
       </c>
       <c r="D50" t="n">
-        <v>0.450344</v>
+        <v>0.451684</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.766292</v>
+        <v>0.764387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.700471</v>
+        <v>0.705302</v>
       </c>
       <c r="D51" t="n">
-        <v>0.46432</v>
+        <v>0.465963</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.790891</v>
+        <v>0.788354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.728371</v>
+        <v>0.7324929999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.478012</v>
+        <v>0.481204</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.811009</v>
+        <v>0.807559</v>
       </c>
       <c r="C53" t="n">
-        <v>0.752991</v>
+        <v>0.757463</v>
       </c>
       <c r="D53" t="n">
-        <v>0.491328</v>
+        <v>0.49255</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.834255</v>
+        <v>0.83184</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.550968</v>
       </c>
       <c r="D54" t="n">
-        <v>0.396817</v>
+        <v>0.397613</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.623602</v>
+        <v>0.622355</v>
       </c>
       <c r="C55" t="n">
-        <v>0.560912</v>
+        <v>0.562995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.40534</v>
+        <v>0.406323</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.640109</v>
+        <v>0.63763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.576423</v>
+        <v>0.579678</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412974</v>
+        <v>0.413865</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6525030000000001</v>
+        <v>0.651266</v>
       </c>
       <c r="C57" t="n">
-        <v>0.592075</v>
+        <v>0.595519</v>
       </c>
       <c r="D57" t="n">
-        <v>0.422011</v>
+        <v>0.422519</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.669397</v>
+        <v>0.667826</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6075660000000001</v>
+        <v>0.610812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427699</v>
+        <v>0.428648</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.686895</v>
+        <v>0.687179</v>
       </c>
       <c r="C59" t="n">
-        <v>0.625943</v>
+        <v>0.629301</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437267</v>
+        <v>0.438373</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.701595</v>
+        <v>0.700156</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6447850000000001</v>
+        <v>0.64811</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444294</v>
+        <v>0.445694</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720588</v>
+        <v>0.718618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.662895</v>
+        <v>0.666729</v>
       </c>
       <c r="D61" t="n">
-        <v>0.453865</v>
+        <v>0.454963</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737511</v>
+        <v>0.736134</v>
       </c>
       <c r="C62" t="n">
-        <v>0.679881</v>
+        <v>0.683303</v>
       </c>
       <c r="D62" t="n">
-        <v>0.464069</v>
+        <v>0.465106</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.759154</v>
+        <v>0.7578009999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.703359</v>
+        <v>0.70739</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475794</v>
+        <v>0.476907</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.770819</v>
+        <v>0.7684879999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.721568</v>
+        <v>0.725823</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486534</v>
+        <v>0.486674</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.797556</v>
+        <v>0.795506</v>
       </c>
       <c r="C65" t="n">
-        <v>0.751453</v>
+        <v>0.757212</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498825</v>
+        <v>0.499774</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.820655</v>
+        <v>0.817153</v>
       </c>
       <c r="C66" t="n">
-        <v>0.771613</v>
+        <v>0.776597</v>
       </c>
       <c r="D66" t="n">
-        <v>0.511888</v>
+        <v>0.51307</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850297</v>
+        <v>0.850294</v>
       </c>
       <c r="C67" t="n">
-        <v>0.804222</v>
+        <v>0.8080270000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.52612</v>
+        <v>0.527528</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.872256</v>
+        <v>0.868887</v>
       </c>
       <c r="C68" t="n">
-        <v>0.546829</v>
+        <v>0.549505</v>
       </c>
       <c r="D68" t="n">
-        <v>0.406743</v>
+        <v>0.407951</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.661894</v>
+        <v>0.663157</v>
       </c>
       <c r="C69" t="n">
-        <v>0.564768</v>
+        <v>0.568483</v>
       </c>
       <c r="D69" t="n">
-        <v>0.412985</v>
+        <v>0.41455</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.687099</v>
+        <v>0.685137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.589391</v>
+        <v>0.592706</v>
       </c>
       <c r="D70" t="n">
-        <v>0.424007</v>
+        <v>0.425017</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.713903</v>
+        <v>0.715655</v>
       </c>
       <c r="C71" t="n">
-        <v>0.610741</v>
+        <v>0.617048</v>
       </c>
       <c r="D71" t="n">
-        <v>0.43508</v>
+        <v>0.436816</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.737859</v>
+        <v>0.738028</v>
       </c>
       <c r="C72" t="n">
-        <v>0.634235</v>
+        <v>0.63903</v>
       </c>
       <c r="D72" t="n">
-        <v>0.44684</v>
+        <v>0.447879</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.765534</v>
+        <v>0.7606309999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.66532</v>
+        <v>0.668385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.457609</v>
+        <v>0.457879</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793257</v>
+        <v>0.791148</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689398</v>
+        <v>0.69398</v>
       </c>
       <c r="D74" t="n">
-        <v>0.467093</v>
+        <v>0.468905</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.823706</v>
+        <v>0.828251</v>
       </c>
       <c r="C75" t="n">
-        <v>0.722062</v>
+        <v>0.729403</v>
       </c>
       <c r="D75" t="n">
-        <v>0.480418</v>
+        <v>0.482596</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.860814</v>
+        <v>0.866347</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7544650000000001</v>
+        <v>0.764505</v>
       </c>
       <c r="D76" t="n">
-        <v>0.495713</v>
+        <v>0.49786</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.905411</v>
+        <v>0.908668</v>
       </c>
       <c r="C77" t="n">
-        <v>0.797004</v>
+        <v>0.803084</v>
       </c>
       <c r="D77" t="n">
-        <v>0.513483</v>
+        <v>0.513597</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.963569</v>
+        <v>0.97293</v>
       </c>
       <c r="C78" t="n">
-        <v>0.842243</v>
+        <v>0.85054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527586</v>
+        <v>0.5282</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02039</v>
+        <v>1.02562</v>
       </c>
       <c r="C79" t="n">
-        <v>0.887381</v>
+        <v>0.896905</v>
       </c>
       <c r="D79" t="n">
-        <v>0.547478</v>
+        <v>0.547573</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.09281</v>
+        <v>1.09548</v>
       </c>
       <c r="C80" t="n">
-        <v>0.950415</v>
+        <v>0.9574859999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.565895</v>
+        <v>0.567106</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.17316</v>
+        <v>1.15646</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02487</v>
+        <v>1.02266</v>
       </c>
       <c r="D81" t="n">
-        <v>0.591869</v>
+        <v>0.592664</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26109</v>
+        <v>1.24115</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09887</v>
+        <v>1.09488</v>
       </c>
       <c r="D82" t="n">
-        <v>0.61605</v>
+        <v>0.619009</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.35912</v>
+        <v>1.34653</v>
       </c>
       <c r="C83" t="n">
-        <v>0.785089</v>
+        <v>0.788457</v>
       </c>
       <c r="D83" t="n">
-        <v>0.486869</v>
+        <v>0.486057</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06431</v>
+        <v>1.06087</v>
       </c>
       <c r="C84" t="n">
-        <v>0.842205</v>
+        <v>0.8464699999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.503086</v>
+        <v>0.506665</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.15627</v>
+        <v>1.13566</v>
       </c>
       <c r="C85" t="n">
-        <v>0.898018</v>
+        <v>0.8950360000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.525037</v>
+        <v>0.52566</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.22958</v>
+        <v>1.21867</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9768829999999999</v>
+        <v>0.973627</v>
       </c>
       <c r="D86" t="n">
-        <v>0.550666</v>
+        <v>0.54622</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.32192</v>
+        <v>1.30865</v>
       </c>
       <c r="C87" t="n">
-        <v>1.05236</v>
+        <v>1.05266</v>
       </c>
       <c r="D87" t="n">
-        <v>0.580893</v>
+        <v>0.572148</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41768</v>
+        <v>1.41747</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1556</v>
+        <v>1.16014</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609082</v>
+        <v>0.613164</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.53252</v>
+        <v>1.5382</v>
       </c>
       <c r="C89" t="n">
-        <v>1.25119</v>
+        <v>1.25617</v>
       </c>
       <c r="D89" t="n">
-        <v>0.64006</v>
+        <v>0.642246</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.65797</v>
+        <v>1.66003</v>
       </c>
       <c r="C90" t="n">
-        <v>1.36048</v>
+        <v>1.36583</v>
       </c>
       <c r="D90" t="n">
-        <v>0.68619</v>
+        <v>0.686277</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79628</v>
+        <v>1.79951</v>
       </c>
       <c r="C91" t="n">
-        <v>1.488</v>
+        <v>1.4944</v>
       </c>
       <c r="D91" t="n">
-        <v>0.731186</v>
+        <v>0.735067</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.94249</v>
+        <v>1.94467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.62236</v>
+        <v>1.63084</v>
       </c>
       <c r="D92" t="n">
-        <v>0.785013</v>
+        <v>0.780203</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.09453</v>
+        <v>2.09911</v>
       </c>
       <c r="C93" t="n">
-        <v>1.75892</v>
+        <v>1.76944</v>
       </c>
       <c r="D93" t="n">
-        <v>0.834588</v>
+        <v>0.8371769999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.2392</v>
+        <v>2.24988</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91519</v>
+        <v>1.92814</v>
       </c>
       <c r="D94" t="n">
-        <v>0.883587</v>
+        <v>0.915212</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40894</v>
+        <v>2.46722</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07928</v>
+        <v>2.11485</v>
       </c>
       <c r="D95" t="n">
-        <v>0.968344</v>
+        <v>0.97862</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57124</v>
+        <v>2.59441</v>
       </c>
       <c r="C96" t="n">
-        <v>2.26942</v>
+        <v>2.2965</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03851</v>
+        <v>1.04978</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.75675</v>
+        <v>2.78434</v>
       </c>
       <c r="C97" t="n">
-        <v>1.42851</v>
+        <v>1.43903</v>
       </c>
       <c r="D97" t="n">
-        <v>0.793372</v>
+        <v>0.795969</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.05568</v>
+        <v>2.07262</v>
       </c>
       <c r="C98" t="n">
-        <v>1.52837</v>
+        <v>1.5434</v>
       </c>
       <c r="D98" t="n">
-        <v>0.830047</v>
+        <v>0.835791</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.16379</v>
+        <v>2.18493</v>
       </c>
       <c r="C99" t="n">
-        <v>1.61956</v>
+        <v>1.63713</v>
       </c>
       <c r="D99" t="n">
-        <v>0.892718</v>
+        <v>0.895776</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.27544</v>
+        <v>2.29292</v>
       </c>
       <c r="C100" t="n">
-        <v>1.73007</v>
+        <v>1.74861</v>
       </c>
       <c r="D100" t="n">
-        <v>0.941658</v>
+        <v>0.948474</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.41374</v>
+        <v>2.42983</v>
       </c>
       <c r="C101" t="n">
-        <v>1.84168</v>
+        <v>1.85894</v>
       </c>
       <c r="D101" t="n">
-        <v>0.997139</v>
+        <v>1.00146</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.5281</v>
+        <v>2.54036</v>
       </c>
       <c r="C102" t="n">
-        <v>1.96133</v>
+        <v>1.97897</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05889</v>
+        <v>1.06164</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.63781</v>
+        <v>2.65686</v>
       </c>
       <c r="C103" t="n">
-        <v>2.08586</v>
+        <v>2.10381</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12325</v>
+        <v>1.12949</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.77951</v>
+        <v>2.79641</v>
       </c>
       <c r="C104" t="n">
-        <v>2.21802</v>
+        <v>2.23702</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18809</v>
+        <v>1.19585</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.91243</v>
+        <v>2.92343</v>
       </c>
       <c r="C105" t="n">
-        <v>2.35751</v>
+        <v>2.37733</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23644</v>
+        <v>1.24172</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06514</v>
+        <v>3.07668</v>
       </c>
       <c r="C106" t="n">
-        <v>2.49572</v>
+        <v>2.51679</v>
       </c>
       <c r="D106" t="n">
-        <v>1.3096</v>
+        <v>1.3154</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.22506</v>
+        <v>3.23883</v>
       </c>
       <c r="C107" t="n">
-        <v>2.64379</v>
+        <v>2.66673</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38138</v>
+        <v>1.38922</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.38089</v>
+        <v>3.40063</v>
       </c>
       <c r="C108" t="n">
-        <v>2.81299</v>
+        <v>2.83673</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45993</v>
+        <v>1.4659</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.54571</v>
+        <v>3.56713</v>
       </c>
       <c r="C109" t="n">
-        <v>2.99451</v>
+        <v>3.01881</v>
       </c>
       <c r="D109" t="n">
-        <v>1.53594</v>
+        <v>1.53935</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.72538</v>
+        <v>3.74421</v>
       </c>
       <c r="C110" t="n">
-        <v>3.16266</v>
+        <v>3.18767</v>
       </c>
       <c r="D110" t="n">
-        <v>1.61739</v>
+        <v>1.62462</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89303</v>
+        <v>3.90523</v>
       </c>
       <c r="C111" t="n">
-        <v>2.08054</v>
+        <v>2.09614</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29862</v>
+        <v>1.30567</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.81413</v>
+        <v>2.83339</v>
       </c>
       <c r="C112" t="n">
-        <v>2.18281</v>
+        <v>2.19902</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34499</v>
+        <v>1.35371</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.92135</v>
+        <v>2.92718</v>
       </c>
       <c r="C113" t="n">
-        <v>2.29152</v>
+        <v>2.30896</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40094</v>
+        <v>1.41047</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.02717</v>
+        <v>3.04475</v>
       </c>
       <c r="C114" t="n">
-        <v>2.39432</v>
+        <v>2.41219</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44567</v>
+        <v>1.45216</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.14789</v>
+        <v>3.16598</v>
       </c>
       <c r="C115" t="n">
-        <v>2.50599</v>
+        <v>2.52444</v>
       </c>
       <c r="D115" t="n">
-        <v>1.49746</v>
+        <v>1.50514</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.26563</v>
+        <v>3.28181</v>
       </c>
       <c r="C116" t="n">
-        <v>2.62525</v>
+        <v>2.64123</v>
       </c>
       <c r="D116" t="n">
-        <v>1.55724</v>
+        <v>1.56331</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.36929</v>
+        <v>3.3872</v>
       </c>
       <c r="C117" t="n">
-        <v>2.75248</v>
+        <v>2.77089</v>
       </c>
       <c r="D117" t="n">
-        <v>1.62735</v>
+        <v>1.63825</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.50708</v>
+        <v>3.52174</v>
       </c>
       <c r="C118" t="n">
-        <v>2.89268</v>
+        <v>2.90895</v>
       </c>
       <c r="D118" t="n">
-        <v>1.69149</v>
+        <v>1.70291</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.63118</v>
+        <v>3.64629</v>
       </c>
       <c r="C119" t="n">
-        <v>3.01132</v>
+        <v>3.0425</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75547</v>
+        <v>1.7628</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304269</v>
+        <v>0.314188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.246509</v>
+        <v>0.251559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250404</v>
+        <v>0.252789</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.310129</v>
+        <v>0.314873</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252071</v>
+        <v>0.2545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252865</v>
+        <v>0.254978</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.316276</v>
+        <v>0.317987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.259433</v>
+        <v>0.261158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258067</v>
+        <v>0.260035</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.326268</v>
+        <v>0.326448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267871</v>
+        <v>0.268173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265967</v>
+        <v>0.266508</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.333792</v>
+        <v>0.335266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273028</v>
+        <v>0.274444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.270807</v>
+        <v>0.270679</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.338297</v>
+        <v>0.339262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230464</v>
+        <v>0.226114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23606</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.295472</v>
+        <v>0.287813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.234195</v>
+        <v>0.228117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239088</v>
+        <v>0.238879</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.304629</v>
+        <v>0.298521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236395</v>
+        <v>0.235472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242095</v>
+        <v>0.24166</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306146</v>
+        <v>0.302909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.241199</v>
+        <v>0.239257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246532</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.314021</v>
+        <v>0.307896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.247571</v>
+        <v>0.243694</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252922</v>
+        <v>0.247935</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317752</v>
+        <v>0.312173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249557</v>
+        <v>0.248688</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256596</v>
+        <v>0.254098</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.328069</v>
+        <v>0.321176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.255647</v>
+        <v>0.253107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.26134</v>
+        <v>0.257945</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.330334</v>
+        <v>0.325816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.263282</v>
+        <v>0.260446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267194</v>
+        <v>0.264285</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.337199</v>
+        <v>0.333163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.269339</v>
+        <v>0.266535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272899</v>
+        <v>0.269961</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34589</v>
+        <v>0.34208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277135</v>
+        <v>0.273002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279171</v>
+        <v>0.27549</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.353201</v>
+        <v>0.349061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.283685</v>
+        <v>0.279737</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285961</v>
+        <v>0.282158</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.35903</v>
+        <v>0.355927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.288989</v>
+        <v>0.286464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291736</v>
+        <v>0.288601</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.366488</v>
+        <v>0.364167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.296831</v>
+        <v>0.293681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.297744</v>
+        <v>0.294391</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.372258</v>
+        <v>0.371661</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30166</v>
+        <v>0.301195</v>
       </c>
       <c r="D20" t="n">
-        <v>0.301783</v>
+        <v>0.301103</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379074</v>
+        <v>0.379145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.251021</v>
+        <v>0.250927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.255783</v>
+        <v>0.255784</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.33055</v>
+        <v>0.331265</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255304</v>
+        <v>0.255928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261124</v>
+        <v>0.261536</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.33562</v>
+        <v>0.336301</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260901</v>
+        <v>0.260686</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265902</v>
+        <v>0.266322</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340062</v>
+        <v>0.340848</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26687</v>
+        <v>0.267408</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271049</v>
+        <v>0.272614</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345062</v>
+        <v>0.346114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270799</v>
+        <v>0.271414</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276372</v>
+        <v>0.276393</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351291</v>
+        <v>0.352131</v>
       </c>
       <c r="C26" t="n">
-        <v>0.276691</v>
+        <v>0.276889</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281938</v>
+        <v>0.282434</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356063</v>
+        <v>0.356699</v>
       </c>
       <c r="C27" t="n">
-        <v>0.282414</v>
+        <v>0.282609</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288616</v>
+        <v>0.287798</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361934</v>
+        <v>0.362777</v>
       </c>
       <c r="C28" t="n">
-        <v>0.289595</v>
+        <v>0.289463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294432</v>
+        <v>0.294622</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.367482</v>
+        <v>0.368401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297023</v>
+        <v>0.297107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302493</v>
+        <v>0.301002</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.373171</v>
+        <v>0.374601</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303328</v>
+        <v>0.303846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307428</v>
+        <v>0.307039</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380456</v>
+        <v>0.380924</v>
       </c>
       <c r="C31" t="n">
-        <v>0.309488</v>
+        <v>0.309607</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314348</v>
+        <v>0.314506</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.385335</v>
+        <v>0.386142</v>
       </c>
       <c r="C32" t="n">
-        <v>0.316596</v>
+        <v>0.316571</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319798</v>
+        <v>0.319776</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391128</v>
+        <v>0.391998</v>
       </c>
       <c r="C33" t="n">
-        <v>0.322502</v>
+        <v>0.322753</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326331</v>
+        <v>0.327175</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398101</v>
+        <v>0.398985</v>
       </c>
       <c r="C34" t="n">
-        <v>0.329306</v>
+        <v>0.328971</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331899</v>
+        <v>0.332921</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404641</v>
+        <v>0.40551</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265886</v>
+        <v>0.266135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272155</v>
+        <v>0.272023</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349599</v>
+        <v>0.350173</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270996</v>
+        <v>0.270569</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275632</v>
+        <v>0.275969</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353317</v>
+        <v>0.354115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275309</v>
+        <v>0.275784</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279818</v>
+        <v>0.280435</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35784</v>
+        <v>0.358816</v>
       </c>
       <c r="C38" t="n">
-        <v>0.281062</v>
+        <v>0.281946</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286744</v>
+        <v>0.287102</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.363001</v>
+        <v>0.363091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286237</v>
+        <v>0.286508</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290865</v>
+        <v>0.291169</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366993</v>
+        <v>0.367658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291642</v>
+        <v>0.291883</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298562</v>
+        <v>0.297539</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372205</v>
+        <v>0.372798</v>
       </c>
       <c r="C41" t="n">
-        <v>0.297585</v>
+        <v>0.298606</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302775</v>
+        <v>0.303771</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.377895</v>
+        <v>0.378568</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303178</v>
+        <v>0.30361</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309932</v>
+        <v>0.309525</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383433</v>
+        <v>0.384263</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309211</v>
+        <v>0.309563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314761</v>
+        <v>0.315148</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389657</v>
+        <v>0.390386</v>
       </c>
       <c r="C44" t="n">
-        <v>0.315868</v>
+        <v>0.317086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.32105</v>
+        <v>0.322414</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395415</v>
+        <v>0.396434</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322413</v>
+        <v>0.323475</v>
       </c>
       <c r="D45" t="n">
-        <v>0.326948</v>
+        <v>0.328051</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402041</v>
+        <v>0.402971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.328992</v>
+        <v>0.329527</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333255</v>
+        <v>0.334425</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.40784</v>
+        <v>0.408771</v>
       </c>
       <c r="C47" t="n">
-        <v>0.335329</v>
+        <v>0.335762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338681</v>
+        <v>0.338817</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414029</v>
+        <v>0.414679</v>
       </c>
       <c r="C48" t="n">
-        <v>0.341144</v>
+        <v>0.341508</v>
       </c>
       <c r="D48" t="n">
-        <v>0.34475</v>
+        <v>0.345043</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419926</v>
+        <v>0.42076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.347103</v>
+        <v>0.347165</v>
       </c>
       <c r="D49" t="n">
-        <v>0.350367</v>
+        <v>0.350159</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425439</v>
+        <v>0.426528</v>
       </c>
       <c r="C50" t="n">
-        <v>0.278675</v>
+        <v>0.278486</v>
       </c>
       <c r="D50" t="n">
-        <v>0.277007</v>
+        <v>0.276751</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.362695</v>
+        <v>0.363223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284528</v>
+        <v>0.283429</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281706</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367004</v>
+        <v>0.367112</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28848</v>
+        <v>0.289204</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286024</v>
+        <v>0.286154</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371723</v>
+        <v>0.371868</v>
       </c>
       <c r="C53" t="n">
-        <v>0.293899</v>
+        <v>0.293933</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291385</v>
+        <v>0.291254</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375841</v>
+        <v>0.376203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29977</v>
+        <v>0.2996</v>
       </c>
       <c r="D54" t="n">
-        <v>0.297263</v>
+        <v>0.296935</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380078</v>
+        <v>0.380732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.305482</v>
+        <v>0.305402</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302809</v>
+        <v>0.302686</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385508</v>
+        <v>0.385998</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31097</v>
+        <v>0.311289</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30824</v>
+        <v>0.308307</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391239</v>
+        <v>0.391826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.317011</v>
+        <v>0.317015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314407</v>
+        <v>0.314455</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397925</v>
+        <v>0.397745</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323206</v>
+        <v>0.322955</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320299</v>
+        <v>0.321241</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403104</v>
+        <v>0.403808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32964</v>
+        <v>0.32966</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326365</v>
+        <v>0.326784</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409475</v>
+        <v>0.410225</v>
       </c>
       <c r="C60" t="n">
-        <v>0.335719</v>
+        <v>0.335977</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332751</v>
+        <v>0.333517</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.415586</v>
+        <v>0.41601</v>
       </c>
       <c r="C61" t="n">
-        <v>0.342314</v>
+        <v>0.342299</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338581</v>
+        <v>0.339201</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421528</v>
+        <v>0.422087</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3479</v>
+        <v>0.348457</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344458</v>
+        <v>0.344313</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.427427</v>
+        <v>0.427875</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354076</v>
+        <v>0.354199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350263</v>
+        <v>0.35024</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433494</v>
+        <v>0.433868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.290139</v>
+        <v>0.290142</v>
       </c>
       <c r="D64" t="n">
-        <v>0.288726</v>
+        <v>0.289346</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.394671</v>
+        <v>0.402466</v>
       </c>
       <c r="C65" t="n">
-        <v>0.296167</v>
+        <v>0.297014</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298487</v>
+        <v>0.299272</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.404566</v>
+        <v>0.405526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302173</v>
+        <v>0.303379</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3011</v>
+        <v>0.302951</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.41129</v>
+        <v>0.414514</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310642</v>
+        <v>0.311158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307467</v>
+        <v>0.308393</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.420131</v>
+        <v>0.424366</v>
       </c>
       <c r="C68" t="n">
-        <v>0.316808</v>
+        <v>0.317939</v>
       </c>
       <c r="D68" t="n">
-        <v>0.315303</v>
+        <v>0.316467</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.431911</v>
+        <v>0.426703</v>
       </c>
       <c r="C69" t="n">
-        <v>0.323747</v>
+        <v>0.324961</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32154</v>
+        <v>0.323101</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.437972</v>
+        <v>0.436013</v>
       </c>
       <c r="C70" t="n">
-        <v>0.331813</v>
+        <v>0.33127</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32902</v>
+        <v>0.329638</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453608</v>
+        <v>0.449253</v>
       </c>
       <c r="C71" t="n">
-        <v>0.339643</v>
+        <v>0.338112</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338624</v>
+        <v>0.337688</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.468123</v>
+        <v>0.462162</v>
       </c>
       <c r="C72" t="n">
-        <v>0.349644</v>
+        <v>0.347408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.34767</v>
+        <v>0.346524</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.483005</v>
+        <v>0.480344</v>
       </c>
       <c r="C73" t="n">
-        <v>0.359558</v>
+        <v>0.358551</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355591</v>
+        <v>0.35548</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.499831</v>
+        <v>0.496196</v>
       </c>
       <c r="C74" t="n">
-        <v>0.370224</v>
+        <v>0.368204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365927</v>
+        <v>0.365936</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.518808</v>
+        <v>0.515586</v>
       </c>
       <c r="C75" t="n">
-        <v>0.382</v>
+        <v>0.380993</v>
       </c>
       <c r="D75" t="n">
-        <v>0.378222</v>
+        <v>0.378027</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.54221</v>
+        <v>0.534588</v>
       </c>
       <c r="C76" t="n">
-        <v>0.395514</v>
+        <v>0.392286</v>
       </c>
       <c r="D76" t="n">
-        <v>0.390703</v>
+        <v>0.388606</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.564164</v>
+        <v>0.559365</v>
       </c>
       <c r="C77" t="n">
-        <v>0.407103</v>
+        <v>0.404649</v>
       </c>
       <c r="D77" t="n">
-        <v>0.404713</v>
+        <v>0.400492</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.588744</v>
+        <v>0.587051</v>
       </c>
       <c r="C78" t="n">
-        <v>0.380358</v>
+        <v>0.380287</v>
       </c>
       <c r="D78" t="n">
-        <v>0.374602</v>
+        <v>0.37592</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.711481</v>
+        <v>0.711906</v>
       </c>
       <c r="C79" t="n">
-        <v>0.398038</v>
+        <v>0.391343</v>
       </c>
       <c r="D79" t="n">
-        <v>0.389017</v>
+        <v>0.390216</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.729965</v>
+        <v>0.731966</v>
       </c>
       <c r="C80" t="n">
-        <v>0.411619</v>
+        <v>0.406232</v>
       </c>
       <c r="D80" t="n">
-        <v>0.404904</v>
+        <v>0.398448</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.75822</v>
+        <v>0.753632</v>
       </c>
       <c r="C81" t="n">
-        <v>0.42857</v>
+        <v>0.422517</v>
       </c>
       <c r="D81" t="n">
-        <v>0.419161</v>
+        <v>0.413787</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.777515</v>
+        <v>0.772801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.44441</v>
+        <v>0.439675</v>
       </c>
       <c r="D82" t="n">
-        <v>0.436032</v>
+        <v>0.431987</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.800916</v>
+        <v>0.794947</v>
       </c>
       <c r="C83" t="n">
-        <v>0.463864</v>
+        <v>0.457395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.455397</v>
+        <v>0.44878</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.823356</v>
+        <v>0.824595</v>
       </c>
       <c r="C84" t="n">
-        <v>0.482094</v>
+        <v>0.477406</v>
       </c>
       <c r="D84" t="n">
-        <v>0.472603</v>
+        <v>0.47397</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.848836</v>
+        <v>0.848456</v>
       </c>
       <c r="C85" t="n">
-        <v>0.500219</v>
+        <v>0.501036</v>
       </c>
       <c r="D85" t="n">
-        <v>0.491838</v>
+        <v>0.49269</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873239</v>
+        <v>0.872479</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5216</v>
+        <v>0.521987</v>
       </c>
       <c r="D86" t="n">
-        <v>0.516046</v>
+        <v>0.514454</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.899255</v>
+        <v>0.900173</v>
       </c>
       <c r="C87" t="n">
-        <v>0.542639</v>
+        <v>0.541836</v>
       </c>
       <c r="D87" t="n">
-        <v>0.533917</v>
+        <v>0.532788</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.925511</v>
+        <v>0.926828</v>
       </c>
       <c r="C88" t="n">
-        <v>0.564213</v>
+        <v>0.564353</v>
       </c>
       <c r="D88" t="n">
-        <v>0.556245</v>
+        <v>0.554642</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9532350000000001</v>
+        <v>0.9540459999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.585914</v>
+        <v>0.586215</v>
       </c>
       <c r="D89" t="n">
-        <v>0.576275</v>
+        <v>0.577628</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.981697</v>
+        <v>0.983699</v>
       </c>
       <c r="C90" t="n">
-        <v>0.609344</v>
+        <v>0.610017</v>
       </c>
       <c r="D90" t="n">
-        <v>0.599565</v>
+        <v>0.600293</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01196</v>
+        <v>1.01363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.633023</v>
+        <v>0.632956</v>
       </c>
       <c r="D91" t="n">
-        <v>0.623437</v>
+        <v>0.623835</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0422</v>
+        <v>1.04457</v>
       </c>
       <c r="C92" t="n">
-        <v>0.650356</v>
+        <v>0.651589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.643062</v>
+        <v>0.643821</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15682</v>
+        <v>1.15891</v>
       </c>
       <c r="C93" t="n">
-        <v>0.664331</v>
+        <v>0.6689659999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.659614</v>
+        <v>0.661229</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16505</v>
+        <v>1.16744</v>
       </c>
       <c r="C94" t="n">
-        <v>0.682397</v>
+        <v>0.682378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.679047</v>
+        <v>0.679889</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17827</v>
+        <v>1.17568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.699545</v>
+        <v>0.698231</v>
       </c>
       <c r="D95" t="n">
-        <v>0.692485</v>
+        <v>0.690375</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18953</v>
+        <v>1.1919</v>
       </c>
       <c r="C96" t="n">
-        <v>0.715574</v>
+        <v>0.717099</v>
       </c>
       <c r="D96" t="n">
-        <v>0.707955</v>
+        <v>0.708915</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2039</v>
+        <v>1.20212</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7329639999999999</v>
+        <v>0.732553</v>
       </c>
       <c r="D97" t="n">
-        <v>0.72941</v>
+        <v>0.729166</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21911</v>
+        <v>1.21719</v>
       </c>
       <c r="C98" t="n">
-        <v>0.750373</v>
+        <v>0.750489</v>
       </c>
       <c r="D98" t="n">
-        <v>0.746634</v>
+        <v>0.746313</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23896</v>
+        <v>1.23711</v>
       </c>
       <c r="C99" t="n">
-        <v>0.769964</v>
+        <v>0.7699009999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.767011</v>
+        <v>0.766355</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25674</v>
+        <v>1.25478</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7893790000000001</v>
+        <v>0.789093</v>
       </c>
       <c r="D100" t="n">
-        <v>0.78576</v>
+        <v>0.78744</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27189</v>
+        <v>1.27059</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8093590000000001</v>
+        <v>0.809287</v>
       </c>
       <c r="D101" t="n">
-        <v>0.807709</v>
+        <v>0.8077260000000001</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.29177</v>
+        <v>1.2908</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8314859999999999</v>
+        <v>0.831107</v>
       </c>
       <c r="D102" t="n">
-        <v>0.828399</v>
+        <v>0.827811</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31741</v>
+        <v>1.31693</v>
       </c>
       <c r="C103" t="n">
-        <v>0.852846</v>
+        <v>0.853178</v>
       </c>
       <c r="D103" t="n">
-        <v>0.851303</v>
+        <v>0.851318</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34054</v>
+        <v>1.33955</v>
       </c>
       <c r="C104" t="n">
-        <v>0.875421</v>
+        <v>0.875907</v>
       </c>
       <c r="D104" t="n">
-        <v>0.874613</v>
+        <v>0.8749</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36472</v>
+        <v>1.36289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.898609</v>
+        <v>0.899375</v>
       </c>
       <c r="D105" t="n">
-        <v>0.898613</v>
+        <v>0.898822</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.39</v>
+        <v>1.3882</v>
       </c>
       <c r="C106" t="n">
-        <v>0.921441</v>
+        <v>0.922166</v>
       </c>
       <c r="D106" t="n">
-        <v>0.923844</v>
+        <v>0.9238769999999999</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.39351</v>
+        <v>1.39242</v>
       </c>
       <c r="C107" t="n">
-        <v>0.874131</v>
+        <v>0.874263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.869704</v>
+        <v>0.870409</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39813</v>
+        <v>1.39832</v>
       </c>
       <c r="C108" t="n">
-        <v>0.888888</v>
+        <v>0.8893799999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.884446</v>
+        <v>0.88519</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40688</v>
+        <v>1.40715</v>
       </c>
       <c r="C109" t="n">
-        <v>0.902904</v>
+        <v>0.904307</v>
       </c>
       <c r="D109" t="n">
-        <v>0.901496</v>
+        <v>0.902677</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41626</v>
+        <v>1.41492</v>
       </c>
       <c r="C110" t="n">
-        <v>0.919222</v>
+        <v>0.9193249999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.917764</v>
+        <v>0.917851</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4263</v>
+        <v>1.42587</v>
       </c>
       <c r="C111" t="n">
-        <v>0.935528</v>
+        <v>0.936903</v>
       </c>
       <c r="D111" t="n">
-        <v>0.931691</v>
+        <v>0.93285</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43792</v>
+        <v>1.43882</v>
       </c>
       <c r="C112" t="n">
-        <v>0.953321</v>
+        <v>0.954691</v>
       </c>
       <c r="D112" t="n">
-        <v>0.951368</v>
+        <v>0.951153</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4501</v>
+        <v>1.4495</v>
       </c>
       <c r="C113" t="n">
-        <v>0.97116</v>
+        <v>0.972743</v>
       </c>
       <c r="D113" t="n">
-        <v>0.969255</v>
+        <v>0.970557</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46679</v>
+        <v>1.46688</v>
       </c>
       <c r="C114" t="n">
-        <v>0.989743</v>
+        <v>0.991382</v>
       </c>
       <c r="D114" t="n">
-        <v>0.987011</v>
+        <v>0.988177</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4808</v>
+        <v>1.47938</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00918</v>
+        <v>1.01061</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00901</v>
+        <v>1.00836</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.4992</v>
+        <v>1.49729</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02957</v>
+        <v>1.03068</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02919</v>
+        <v>1.02816</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.52011</v>
+        <v>1.51878</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04906</v>
+        <v>1.05087</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05122</v>
+        <v>1.05054</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.54034</v>
+        <v>1.53848</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07167</v>
+        <v>1.07179</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06989</v>
+        <v>1.0694</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.55983</v>
+        <v>1.55858</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09234</v>
+        <v>1.0954</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09177</v>
+        <v>1.09187</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.27947</v>
+        <v>0.276821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22512</v>
+        <v>0.222455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207492</v>
+        <v>0.208037</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.283921</v>
+        <v>0.288577</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229558</v>
+        <v>0.228514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208836</v>
+        <v>0.210082</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.286319</v>
+        <v>0.291739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22934</v>
+        <v>0.230377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211895</v>
+        <v>0.212971</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291176</v>
+        <v>0.292956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236413</v>
+        <v>0.236276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213359</v>
+        <v>0.214242</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.292525</v>
+        <v>0.296171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240677</v>
+        <v>0.242334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218016</v>
+        <v>0.219874</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.300407</v>
+        <v>0.304247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222775</v>
+        <v>0.225908</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218846</v>
+        <v>0.219377</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.296301</v>
+        <v>0.295304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230689</v>
+        <v>0.227102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222759</v>
+        <v>0.222341</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301194</v>
+        <v>0.300453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234393</v>
+        <v>0.232327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.226105</v>
+        <v>0.22491</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.302396</v>
+        <v>0.303374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.237278</v>
+        <v>0.234678</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228451</v>
+        <v>0.227516</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.310243</v>
+        <v>0.307048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.234008</v>
+        <v>0.231579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227654</v>
+        <v>0.228677</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.313622</v>
+        <v>0.310984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244189</v>
+        <v>0.241808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23082</v>
+        <v>0.228251</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321006</v>
+        <v>0.325114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237355</v>
+        <v>0.239759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23035</v>
+        <v>0.231254</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.325224</v>
+        <v>0.32346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24577</v>
+        <v>0.245368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234554</v>
+        <v>0.232808</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.328808</v>
+        <v>0.330193</v>
       </c>
       <c r="C15" t="n">
-        <v>0.249199</v>
+        <v>0.249165</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235402</v>
+        <v>0.23658</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.334102</v>
+        <v>0.335358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.255503</v>
+        <v>0.255546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237983</v>
+        <v>0.238607</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.339768</v>
+        <v>0.342063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.258571</v>
+        <v>0.259536</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241932</v>
+        <v>0.242945</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34417</v>
+        <v>0.34463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.268708</v>
+        <v>0.267809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243987</v>
+        <v>0.243878</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.350193</v>
+        <v>0.349982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.272327</v>
+        <v>0.27081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247041</v>
+        <v>0.249231</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.35383</v>
+        <v>0.35576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278204</v>
+        <v>0.2784</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250194</v>
+        <v>0.248945</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.361251</v>
+        <v>0.362435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256254</v>
+        <v>0.255476</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250012</v>
+        <v>0.25306</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.346004</v>
+        <v>0.347216</v>
       </c>
       <c r="C22" t="n">
-        <v>0.266704</v>
+        <v>0.269436</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249022</v>
+        <v>0.254379</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.351568</v>
+        <v>0.356232</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266256</v>
+        <v>0.266826</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255767</v>
+        <v>0.255415</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.35772</v>
+        <v>0.36114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.274408</v>
+        <v>0.28453</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25995</v>
+        <v>0.260356</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.366023</v>
+        <v>0.367454</v>
       </c>
       <c r="C25" t="n">
-        <v>0.288565</v>
+        <v>0.294895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264968</v>
+        <v>0.268761</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368494</v>
+        <v>0.370386</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2931</v>
+        <v>0.294059</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268538</v>
+        <v>0.26915</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.37523</v>
+        <v>0.377664</v>
       </c>
       <c r="C27" t="n">
-        <v>0.303225</v>
+        <v>0.303419</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270718</v>
+        <v>0.273246</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.379061</v>
+        <v>0.380704</v>
       </c>
       <c r="C28" t="n">
-        <v>0.304456</v>
+        <v>0.305622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.273808</v>
+        <v>0.274736</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384038</v>
+        <v>0.387536</v>
       </c>
       <c r="C29" t="n">
-        <v>0.312105</v>
+        <v>0.313283</v>
       </c>
       <c r="D29" t="n">
-        <v>0.277973</v>
+        <v>0.280312</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.390985</v>
+        <v>0.39238</v>
       </c>
       <c r="C30" t="n">
-        <v>0.325548</v>
+        <v>0.324767</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283197</v>
+        <v>0.284327</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398626</v>
+        <v>0.399648</v>
       </c>
       <c r="C31" t="n">
-        <v>0.323175</v>
+        <v>0.323266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285478</v>
+        <v>0.285675</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.402012</v>
+        <v>0.401844</v>
       </c>
       <c r="C32" t="n">
-        <v>0.334385</v>
+        <v>0.334787</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289628</v>
+        <v>0.291532</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.410519</v>
+        <v>0.408138</v>
       </c>
       <c r="C33" t="n">
-        <v>0.346621</v>
+        <v>0.344725</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29527</v>
+        <v>0.294688</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410877</v>
+        <v>0.411538</v>
       </c>
       <c r="C34" t="n">
-        <v>0.352362</v>
+        <v>0.350725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.299831</v>
+        <v>0.299281</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419462</v>
+        <v>0.41969</v>
       </c>
       <c r="C35" t="n">
-        <v>0.286521</v>
+        <v>0.28613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27848</v>
+        <v>0.278641</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402077</v>
+        <v>0.402481</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291897</v>
+        <v>0.291983</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282242</v>
+        <v>0.281663</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.40763</v>
+        <v>0.407888</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297974</v>
+        <v>0.297969</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284142</v>
+        <v>0.284043</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409208</v>
+        <v>0.410128</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301056</v>
+        <v>0.303355</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28771</v>
+        <v>0.28735</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.414614</v>
+        <v>0.415358</v>
       </c>
       <c r="C39" t="n">
-        <v>0.307759</v>
+        <v>0.308099</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291626</v>
+        <v>0.290622</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418814</v>
+        <v>0.419105</v>
       </c>
       <c r="C40" t="n">
-        <v>0.312446</v>
+        <v>0.312388</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293105</v>
+        <v>0.29294</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.422056</v>
+        <v>0.423183</v>
       </c>
       <c r="C41" t="n">
-        <v>0.31647</v>
+        <v>0.318369</v>
       </c>
       <c r="D41" t="n">
-        <v>0.295021</v>
+        <v>0.294706</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.429868</v>
+        <v>0.430676</v>
       </c>
       <c r="C42" t="n">
-        <v>0.320022</v>
+        <v>0.320379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.297822</v>
+        <v>0.297403</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435606</v>
+        <v>0.436215</v>
       </c>
       <c r="C43" t="n">
-        <v>0.325714</v>
+        <v>0.326234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299479</v>
+        <v>0.299622</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440138</v>
+        <v>0.440843</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330743</v>
+        <v>0.33117</v>
       </c>
       <c r="D44" t="n">
-        <v>0.302341</v>
+        <v>0.302324</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442769</v>
+        <v>0.442536</v>
       </c>
       <c r="C45" t="n">
-        <v>0.335103</v>
+        <v>0.335463</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305743</v>
+        <v>0.305817</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449318</v>
+        <v>0.450125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.335834</v>
+        <v>0.336608</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306716</v>
+        <v>0.306166</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455441</v>
+        <v>0.4551</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343788</v>
+        <v>0.343798</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309355</v>
+        <v>0.310124</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.460812</v>
+        <v>0.46091</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349951</v>
+        <v>0.35039</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312919</v>
+        <v>0.312404</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.466028</v>
+        <v>0.466619</v>
       </c>
       <c r="C49" t="n">
-        <v>0.354715</v>
+        <v>0.355132</v>
       </c>
       <c r="D49" t="n">
-        <v>0.316676</v>
+        <v>0.31601</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476058</v>
+        <v>0.476684</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321795</v>
+        <v>0.321727</v>
       </c>
       <c r="D50" t="n">
-        <v>0.294122</v>
+        <v>0.293975</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429409</v>
+        <v>0.429933</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3265</v>
+        <v>0.326489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.297291</v>
+        <v>0.297506</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433172</v>
+        <v>0.433676</v>
       </c>
       <c r="C52" t="n">
-        <v>0.325596</v>
+        <v>0.329285</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297789</v>
+        <v>0.298405</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.443402</v>
+        <v>0.438945</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335573</v>
+        <v>0.335725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300524</v>
+        <v>0.300519</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442019</v>
+        <v>0.442296</v>
       </c>
       <c r="C54" t="n">
-        <v>0.33958</v>
+        <v>0.339908</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303926</v>
+        <v>0.304058</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.445131</v>
+        <v>0.44532</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346869</v>
+        <v>0.347076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305465</v>
+        <v>0.305473</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.45014</v>
+        <v>0.450378</v>
       </c>
       <c r="C56" t="n">
-        <v>0.346413</v>
+        <v>0.346496</v>
       </c>
       <c r="D56" t="n">
-        <v>0.308066</v>
+        <v>0.311706</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453057</v>
+        <v>0.453426</v>
       </c>
       <c r="C57" t="n">
-        <v>0.355515</v>
+        <v>0.355541</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310722</v>
+        <v>0.310917</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457421</v>
+        <v>0.456955</v>
       </c>
       <c r="C58" t="n">
-        <v>0.363341</v>
+        <v>0.363654</v>
       </c>
       <c r="D58" t="n">
-        <v>0.315096</v>
+        <v>0.314684</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461096</v>
+        <v>0.461357</v>
       </c>
       <c r="C59" t="n">
-        <v>0.370383</v>
+        <v>0.370669</v>
       </c>
       <c r="D59" t="n">
-        <v>0.319012</v>
+        <v>0.319062</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.46614</v>
+        <v>0.466287</v>
       </c>
       <c r="C60" t="n">
-        <v>0.376</v>
+        <v>0.376148</v>
       </c>
       <c r="D60" t="n">
-        <v>0.321589</v>
+        <v>0.321456</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.469796</v>
+        <v>0.469915</v>
       </c>
       <c r="C61" t="n">
-        <v>0.382197</v>
+        <v>0.382215</v>
       </c>
       <c r="D61" t="n">
-        <v>0.324168</v>
+        <v>0.324072</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477086</v>
+        <v>0.477521</v>
       </c>
       <c r="C62" t="n">
-        <v>0.387599</v>
+        <v>0.387887</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325879</v>
+        <v>0.326091</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.48214</v>
+        <v>0.482236</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393938</v>
+        <v>0.393699</v>
       </c>
       <c r="D63" t="n">
-        <v>0.329147</v>
+        <v>0.329218</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.487629</v>
+        <v>0.488214</v>
       </c>
       <c r="C64" t="n">
-        <v>0.353437</v>
+        <v>0.353214</v>
       </c>
       <c r="D64" t="n">
-        <v>0.324148</v>
+        <v>0.320476</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.462136</v>
+        <v>0.463213</v>
       </c>
       <c r="C65" t="n">
-        <v>0.361135</v>
+        <v>0.360665</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316715</v>
+        <v>0.317115</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467691</v>
+        <v>0.469146</v>
       </c>
       <c r="C66" t="n">
-        <v>0.363514</v>
+        <v>0.363504</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31924</v>
+        <v>0.31884</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.479539</v>
+        <v>0.479794</v>
       </c>
       <c r="C67" t="n">
-        <v>0.370822</v>
+        <v>0.370975</v>
       </c>
       <c r="D67" t="n">
-        <v>0.322297</v>
+        <v>0.32224</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.488061</v>
+        <v>0.490669</v>
       </c>
       <c r="C68" t="n">
-        <v>0.375486</v>
+        <v>0.375685</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325759</v>
+        <v>0.325586</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.494683</v>
+        <v>0.495687</v>
       </c>
       <c r="C69" t="n">
-        <v>0.380591</v>
+        <v>0.380567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.328283</v>
+        <v>0.32832</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.515458</v>
+        <v>0.512482</v>
       </c>
       <c r="C70" t="n">
-        <v>0.386016</v>
+        <v>0.386313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332029</v>
+        <v>0.332668</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.520929</v>
+        <v>0.525761</v>
       </c>
       <c r="C71" t="n">
-        <v>0.394507</v>
+        <v>0.394799</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335485</v>
+        <v>0.336039</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.530346</v>
+        <v>0.534479</v>
       </c>
       <c r="C72" t="n">
-        <v>0.40412</v>
+        <v>0.4046</v>
       </c>
       <c r="D72" t="n">
-        <v>0.340716</v>
+        <v>0.340801</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.549225</v>
+        <v>0.550982</v>
       </c>
       <c r="C73" t="n">
-        <v>0.41412</v>
+        <v>0.414702</v>
       </c>
       <c r="D73" t="n">
-        <v>0.346007</v>
+        <v>0.346889</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.566334</v>
+        <v>0.573751</v>
       </c>
       <c r="C74" t="n">
-        <v>0.42094</v>
+        <v>0.421352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348079</v>
+        <v>0.349445</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.576757</v>
+        <v>0.5888910000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.428921</v>
+        <v>0.429444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353607</v>
+        <v>0.355531</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.594489</v>
+        <v>0.60917</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440538</v>
+        <v>0.441731</v>
       </c>
       <c r="D76" t="n">
-        <v>0.357399</v>
+        <v>0.356977</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.619539</v>
+        <v>0.6243</v>
       </c>
       <c r="C77" t="n">
-        <v>0.454208</v>
+        <v>0.453958</v>
       </c>
       <c r="D77" t="n">
-        <v>0.364923</v>
+        <v>0.367228</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653224</v>
+        <v>0.653805</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405142</v>
+        <v>0.401428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.361186</v>
+        <v>0.362214</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.682755</v>
+        <v>0.698262</v>
       </c>
       <c r="C79" t="n">
-        <v>0.411042</v>
+        <v>0.413107</v>
       </c>
       <c r="D79" t="n">
-        <v>0.364497</v>
+        <v>0.366193</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.715271</v>
+        <v>0.715175</v>
       </c>
       <c r="C80" t="n">
-        <v>0.432586</v>
+        <v>0.430466</v>
       </c>
       <c r="D80" t="n">
-        <v>0.375574</v>
+        <v>0.371452</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.754571</v>
+        <v>0.761744</v>
       </c>
       <c r="C81" t="n">
-        <v>0.441251</v>
+        <v>0.439365</v>
       </c>
       <c r="D81" t="n">
-        <v>0.378891</v>
+        <v>0.383408</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.788185</v>
+        <v>0.792033</v>
       </c>
       <c r="C82" t="n">
-        <v>0.464734</v>
+        <v>0.461362</v>
       </c>
       <c r="D82" t="n">
-        <v>0.392249</v>
+        <v>0.395401</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.838916</v>
+        <v>0.847785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.480641</v>
+        <v>0.479985</v>
       </c>
       <c r="D83" t="n">
-        <v>0.403323</v>
+        <v>0.403239</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.878003</v>
+        <v>0.882833</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5031870000000001</v>
+        <v>0.502251</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412574</v>
+        <v>0.412415</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.923942</v>
+        <v>0.928856</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5240590000000001</v>
+        <v>0.52411</v>
       </c>
       <c r="D85" t="n">
-        <v>0.425222</v>
+        <v>0.423302</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.984394</v>
+        <v>0.987223</v>
       </c>
       <c r="C86" t="n">
-        <v>0.547006</v>
+        <v>0.54684</v>
       </c>
       <c r="D86" t="n">
-        <v>0.437852</v>
+        <v>0.439681</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03861</v>
+        <v>1.03868</v>
       </c>
       <c r="C87" t="n">
-        <v>0.57804</v>
+        <v>0.575699</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452319</v>
+        <v>0.460412</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08289</v>
+        <v>1.09188</v>
       </c>
       <c r="C88" t="n">
-        <v>0.604807</v>
+        <v>0.60538</v>
       </c>
       <c r="D88" t="n">
-        <v>0.475589</v>
+        <v>0.472409</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14255</v>
+        <v>1.14285</v>
       </c>
       <c r="C89" t="n">
-        <v>0.642581</v>
+        <v>0.641647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.491707</v>
+        <v>0.491112</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.19393</v>
+        <v>1.19487</v>
       </c>
       <c r="C90" t="n">
-        <v>0.677217</v>
+        <v>0.6778189999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.511195</v>
+        <v>0.510494</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.26049</v>
+        <v>1.26318</v>
       </c>
       <c r="C91" t="n">
-        <v>0.72301</v>
+        <v>0.723614</v>
       </c>
       <c r="D91" t="n">
-        <v>0.536947</v>
+        <v>0.538651</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.32565</v>
+        <v>1.32681</v>
       </c>
       <c r="C92" t="n">
-        <v>0.737326</v>
+        <v>0.741908</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644378</v>
+        <v>0.651817</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35195</v>
+        <v>1.35614</v>
       </c>
       <c r="C93" t="n">
-        <v>0.771034</v>
+        <v>0.773515</v>
       </c>
       <c r="D93" t="n">
-        <v>0.669771</v>
+        <v>0.673773</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39025</v>
+        <v>1.39628</v>
       </c>
       <c r="C94" t="n">
-        <v>0.803859</v>
+        <v>0.804964</v>
       </c>
       <c r="D94" t="n">
-        <v>0.69341</v>
+        <v>0.696464</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44373</v>
+        <v>1.44535</v>
       </c>
       <c r="C95" t="n">
-        <v>0.838238</v>
+        <v>0.838402</v>
       </c>
       <c r="D95" t="n">
-        <v>0.720986</v>
+        <v>0.7232189999999999</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48893</v>
+        <v>1.49097</v>
       </c>
       <c r="C96" t="n">
-        <v>0.873439</v>
+        <v>0.874155</v>
       </c>
       <c r="D96" t="n">
-        <v>0.743749</v>
+        <v>0.7474730000000001</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53631</v>
+        <v>1.53758</v>
       </c>
       <c r="C97" t="n">
-        <v>0.911564</v>
+        <v>0.911643</v>
       </c>
       <c r="D97" t="n">
-        <v>0.773521</v>
+        <v>0.774938</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.5899</v>
+        <v>1.58979</v>
       </c>
       <c r="C98" t="n">
-        <v>0.951111</v>
+        <v>0.949997</v>
       </c>
       <c r="D98" t="n">
-        <v>0.799984</v>
+        <v>0.79836</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.63115</v>
+        <v>1.63346</v>
       </c>
       <c r="C99" t="n">
-        <v>0.992464</v>
+        <v>0.9925040000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.826693</v>
+        <v>0.825996</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.67426</v>
+        <v>1.67923</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03434</v>
+        <v>1.03412</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8570489999999999</v>
+        <v>0.855201</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72545</v>
+        <v>1.72844</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07204</v>
+        <v>1.07085</v>
       </c>
       <c r="D101" t="n">
-        <v>0.884127</v>
+        <v>0.8815539999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76989</v>
+        <v>1.77274</v>
       </c>
       <c r="C102" t="n">
-        <v>1.11804</v>
+        <v>1.1166</v>
       </c>
       <c r="D102" t="n">
-        <v>0.909169</v>
+        <v>0.910127</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80614</v>
+        <v>1.80387</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15746</v>
+        <v>1.15547</v>
       </c>
       <c r="D103" t="n">
-        <v>0.933961</v>
+        <v>0.931894</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86239</v>
+        <v>1.85948</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19779</v>
+        <v>1.19664</v>
       </c>
       <c r="D104" t="n">
-        <v>0.961362</v>
+        <v>0.9610649999999999</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90522</v>
+        <v>1.90552</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24551</v>
+        <v>1.24442</v>
       </c>
       <c r="D105" t="n">
-        <v>0.996071</v>
+        <v>0.9961680000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.9491</v>
+        <v>1.9473</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28858</v>
+        <v>1.29357</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02225</v>
+        <v>1.02728</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84855</v>
+        <v>1.85448</v>
       </c>
       <c r="C107" t="n">
-        <v>1.1854</v>
+        <v>1.18853</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06452</v>
+        <v>1.06688</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.87381</v>
+        <v>1.87661</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21089</v>
+        <v>1.21603</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08492</v>
+        <v>1.08873</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91113</v>
+        <v>1.90933</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24658</v>
+        <v>1.24882</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10825</v>
+        <v>1.11009</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.95703</v>
+        <v>1.95675</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2766</v>
+        <v>1.27961</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12293</v>
+        <v>1.12441</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.98793</v>
+        <v>1.98901</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30611</v>
+        <v>1.3083</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14677</v>
+        <v>1.14885</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.02232</v>
+        <v>2.02621</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34152</v>
+        <v>1.34454</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16598</v>
+        <v>1.16894</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.0575</v>
+        <v>2.06088</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37852</v>
+        <v>1.38136</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18946</v>
+        <v>1.1947</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.08928</v>
+        <v>2.09762</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40754</v>
+        <v>1.41216</v>
       </c>
       <c r="D114" t="n">
-        <v>1.20894</v>
+        <v>1.21506</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.12189</v>
+        <v>2.12592</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44782</v>
+        <v>1.45231</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23228</v>
+        <v>1.23581</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.16224</v>
+        <v>2.16794</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48353</v>
+        <v>1.48782</v>
       </c>
       <c r="D116" t="n">
-        <v>1.253</v>
+        <v>1.25767</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.19859</v>
+        <v>2.20583</v>
       </c>
       <c r="C117" t="n">
-        <v>1.51856</v>
+        <v>1.5237</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27562</v>
+        <v>1.27932</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.23367</v>
+        <v>2.24044</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56227</v>
+        <v>1.56712</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29537</v>
+        <v>1.30077</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2706</v>
+        <v>2.2785</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60108</v>
+        <v>1.60702</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31869</v>
+        <v>1.32407</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.447842</v>
+        <v>0.442009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.354476</v>
+        <v>0.353672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27604</v>
+        <v>0.275162</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.449059</v>
+        <v>0.4487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.35933</v>
+        <v>0.359127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.279754</v>
+        <v>0.279989</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.467109</v>
+        <v>0.475781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.381488</v>
+        <v>0.384388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289165</v>
+        <v>0.289629</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479247</v>
+        <v>0.484684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.389279</v>
+        <v>0.390166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293782</v>
+        <v>0.293409</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.48864</v>
+        <v>0.497642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.398264</v>
+        <v>0.402968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.298437</v>
+        <v>0.297198</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.501876</v>
+        <v>0.511757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.418722</v>
+        <v>0.422525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304029</v>
+        <v>0.304624</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.511</v>
+        <v>0.520498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.435405</v>
+        <v>0.438344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313834</v>
+        <v>0.314227</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5283910000000001</v>
+        <v>0.541674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.455308</v>
+        <v>0.457779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.32486</v>
+        <v>0.325717</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.53868</v>
+        <v>0.5526219999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.479463</v>
+        <v>0.485059</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339022</v>
+        <v>0.341597</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.562192</v>
+        <v>0.577998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37166</v>
+        <v>0.37887</v>
       </c>
       <c r="D11" t="n">
-        <v>0.277502</v>
+        <v>0.277801</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.422372</v>
+        <v>0.425944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.372084</v>
+        <v>0.374975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277129</v>
+        <v>0.279136</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.438165</v>
+        <v>0.445957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.385049</v>
+        <v>0.389585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.29208</v>
+        <v>0.291745</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.445185</v>
+        <v>0.449386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.407323</v>
+        <v>0.404196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.292098</v>
+        <v>0.290164</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.466168</v>
+        <v>0.462096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.421858</v>
+        <v>0.422648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.299344</v>
+        <v>0.297345</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479166</v>
+        <v>0.475588</v>
       </c>
       <c r="C16" t="n">
-        <v>0.441299</v>
+        <v>0.442182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.308623</v>
+        <v>0.305245</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.498464</v>
+        <v>0.495795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.456046</v>
+        <v>0.454177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.313768</v>
+        <v>0.31339</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.511924</v>
+        <v>0.512436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.461906</v>
+        <v>0.468995</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318871</v>
+        <v>0.315654</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.534043</v>
+        <v>0.542727</v>
       </c>
       <c r="C19" t="n">
-        <v>0.488967</v>
+        <v>0.491432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.328574</v>
+        <v>0.330335</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.544334</v>
+        <v>0.551422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.511683</v>
+        <v>0.515487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341819</v>
+        <v>0.340756</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.56799</v>
+        <v>0.570845</v>
       </c>
       <c r="C21" t="n">
-        <v>0.53301</v>
+        <v>0.538523</v>
       </c>
       <c r="D21" t="n">
-        <v>0.354137</v>
+        <v>0.349993</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.586194</v>
+        <v>0.585585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.557755</v>
+        <v>0.559647</v>
       </c>
       <c r="D22" t="n">
-        <v>0.362043</v>
+        <v>0.362276</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.621895</v>
+        <v>0.626631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.58401</v>
+        <v>0.585914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.377202</v>
+        <v>0.378072</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6370479999999999</v>
+        <v>0.641702</v>
       </c>
       <c r="C24" t="n">
-        <v>0.60646</v>
+        <v>0.607414</v>
       </c>
       <c r="D24" t="n">
-        <v>0.393905</v>
+        <v>0.391232</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.66124</v>
+        <v>0.664429</v>
       </c>
       <c r="C25" t="n">
-        <v>0.636896</v>
+        <v>0.638576</v>
       </c>
       <c r="D25" t="n">
-        <v>0.404731</v>
+        <v>0.401355</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.696176</v>
+        <v>0.69887</v>
       </c>
       <c r="C26" t="n">
-        <v>0.414357</v>
+        <v>0.416472</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29337</v>
+        <v>0.292469</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.514697</v>
+        <v>0.517778</v>
       </c>
       <c r="C27" t="n">
-        <v>0.422372</v>
+        <v>0.421496</v>
       </c>
       <c r="D27" t="n">
-        <v>0.298094</v>
+        <v>0.297056</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5278929999999999</v>
+        <v>0.528276</v>
       </c>
       <c r="C28" t="n">
-        <v>0.436228</v>
+        <v>0.438817</v>
       </c>
       <c r="D28" t="n">
-        <v>0.305505</v>
+        <v>0.305661</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.546603</v>
+        <v>0.547277</v>
       </c>
       <c r="C29" t="n">
-        <v>0.447304</v>
+        <v>0.44811</v>
       </c>
       <c r="D29" t="n">
-        <v>0.311236</v>
+        <v>0.312029</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.568391</v>
+        <v>0.568491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.46684</v>
+        <v>0.467206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318176</v>
+        <v>0.319304</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.590773</v>
+        <v>0.591928</v>
       </c>
       <c r="C31" t="n">
-        <v>0.485128</v>
+        <v>0.484333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.332348</v>
+        <v>0.330645</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.610284</v>
+        <v>0.6100449999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5029130000000001</v>
+        <v>0.50222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340502</v>
+        <v>0.337725</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.624718</v>
+        <v>0.623405</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525922</v>
+        <v>0.523685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.355502</v>
+        <v>0.34937</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.652344</v>
+        <v>0.649895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.547672</v>
+        <v>0.546744</v>
       </c>
       <c r="D34" t="n">
-        <v>0.363334</v>
+        <v>0.358759</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.67478</v>
+        <v>0.669473</v>
       </c>
       <c r="C35" t="n">
-        <v>0.57237</v>
+        <v>0.571048</v>
       </c>
       <c r="D35" t="n">
-        <v>0.37349</v>
+        <v>0.370984</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.690485</v>
+        <v>0.691314</v>
       </c>
       <c r="C36" t="n">
-        <v>0.597824</v>
+        <v>0.597475</v>
       </c>
       <c r="D36" t="n">
-        <v>0.387626</v>
+        <v>0.385812</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.724067</v>
+        <v>0.723267</v>
       </c>
       <c r="C37" t="n">
-        <v>0.623732</v>
+        <v>0.62231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.399462</v>
+        <v>0.40113</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.744762</v>
+        <v>0.744655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.65051</v>
+        <v>0.649848</v>
       </c>
       <c r="D38" t="n">
-        <v>0.41589</v>
+        <v>0.415692</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.780023</v>
+        <v>0.7774720000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.678114</v>
+        <v>0.67862</v>
       </c>
       <c r="D39" t="n">
-        <v>0.427007</v>
+        <v>0.428418</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.801665</v>
+        <v>0.799467</v>
       </c>
       <c r="C40" t="n">
-        <v>0.487759</v>
+        <v>0.489697</v>
       </c>
       <c r="D40" t="n">
-        <v>0.354712</v>
+        <v>0.355681</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.582018</v>
+        <v>0.582709</v>
       </c>
       <c r="C41" t="n">
-        <v>0.500179</v>
+        <v>0.500881</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361549</v>
+        <v>0.362222</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.602074</v>
+        <v>0.602961</v>
       </c>
       <c r="C42" t="n">
-        <v>0.520855</v>
+        <v>0.522263</v>
       </c>
       <c r="D42" t="n">
-        <v>0.36959</v>
+        <v>0.370739</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.618234</v>
+        <v>0.619729</v>
       </c>
       <c r="C43" t="n">
-        <v>0.535413</v>
+        <v>0.535964</v>
       </c>
       <c r="D43" t="n">
-        <v>0.377076</v>
+        <v>0.376932</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.630933</v>
+        <v>0.63222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.559697</v>
+        <v>0.5608649999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.388685</v>
+        <v>0.390032</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652157</v>
+        <v>0.65327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.573776</v>
+        <v>0.57409</v>
       </c>
       <c r="D45" t="n">
-        <v>0.398168</v>
+        <v>0.398536</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.663164</v>
+        <v>0.664849</v>
       </c>
       <c r="C46" t="n">
-        <v>0.595743</v>
+        <v>0.596355</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40865</v>
+        <v>0.409059</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.683542</v>
+        <v>0.684987</v>
       </c>
       <c r="C47" t="n">
-        <v>0.614495</v>
+        <v>0.614694</v>
       </c>
       <c r="D47" t="n">
-        <v>0.417176</v>
+        <v>0.418309</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.698527</v>
+        <v>0.70228</v>
       </c>
       <c r="C48" t="n">
-        <v>0.630678</v>
+        <v>0.631533</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428993</v>
+        <v>0.429165</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.720054</v>
+        <v>0.721069</v>
       </c>
       <c r="C49" t="n">
-        <v>0.655334</v>
+        <v>0.655596</v>
       </c>
       <c r="D49" t="n">
-        <v>0.439731</v>
+        <v>0.439636</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.742472</v>
+        <v>0.744425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.677722</v>
+        <v>0.677882</v>
       </c>
       <c r="D50" t="n">
-        <v>0.451684</v>
+        <v>0.453521</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.764387</v>
+        <v>0.764769</v>
       </c>
       <c r="C51" t="n">
-        <v>0.705302</v>
+        <v>0.70429</v>
       </c>
       <c r="D51" t="n">
-        <v>0.465963</v>
+        <v>0.466741</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.788354</v>
+        <v>0.78898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7324929999999999</v>
+        <v>0.732981</v>
       </c>
       <c r="D52" t="n">
-        <v>0.481204</v>
+        <v>0.480255</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.807559</v>
+        <v>0.810084</v>
       </c>
       <c r="C53" t="n">
-        <v>0.757463</v>
+        <v>0.75743</v>
       </c>
       <c r="D53" t="n">
-        <v>0.49255</v>
+        <v>0.493461</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83184</v>
+        <v>0.83136</v>
       </c>
       <c r="C54" t="n">
-        <v>0.550968</v>
+        <v>0.550664</v>
       </c>
       <c r="D54" t="n">
-        <v>0.397613</v>
+        <v>0.398381</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622355</v>
+        <v>0.622169</v>
       </c>
       <c r="C55" t="n">
-        <v>0.562995</v>
+        <v>0.563435</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406323</v>
+        <v>0.406842</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.63763</v>
+        <v>0.639014</v>
       </c>
       <c r="C56" t="n">
-        <v>0.579678</v>
+        <v>0.5799029999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413865</v>
+        <v>0.41428</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.651266</v>
+        <v>0.6517500000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.595519</v>
+        <v>0.595305</v>
       </c>
       <c r="D57" t="n">
-        <v>0.422519</v>
+        <v>0.423029</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.667826</v>
+        <v>0.668492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.610812</v>
+        <v>0.61147</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428648</v>
+        <v>0.428838</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.687179</v>
+        <v>0.68588</v>
       </c>
       <c r="C59" t="n">
-        <v>0.629301</v>
+        <v>0.629857</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438373</v>
+        <v>0.438308</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.700156</v>
+        <v>0.70029</v>
       </c>
       <c r="C60" t="n">
-        <v>0.64811</v>
+        <v>0.648331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445694</v>
+        <v>0.445799</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.718618</v>
+        <v>0.719391</v>
       </c>
       <c r="C61" t="n">
-        <v>0.666729</v>
+        <v>0.666852</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454963</v>
+        <v>0.455599</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.736134</v>
+        <v>0.736687</v>
       </c>
       <c r="C62" t="n">
-        <v>0.683303</v>
+        <v>0.6834710000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.465106</v>
+        <v>0.465797</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7578009999999999</v>
+        <v>0.758126</v>
       </c>
       <c r="C63" t="n">
-        <v>0.70739</v>
+        <v>0.70731</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476907</v>
+        <v>0.477545</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7684879999999999</v>
+        <v>0.768946</v>
       </c>
       <c r="C64" t="n">
-        <v>0.725823</v>
+        <v>0.725652</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486674</v>
+        <v>0.487015</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.795506</v>
+        <v>0.793814</v>
       </c>
       <c r="C65" t="n">
-        <v>0.757212</v>
+        <v>0.756116</v>
       </c>
       <c r="D65" t="n">
-        <v>0.499774</v>
+        <v>0.500345</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.817153</v>
+        <v>0.815122</v>
       </c>
       <c r="C66" t="n">
-        <v>0.776597</v>
+        <v>0.775914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.51307</v>
+        <v>0.51341</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850294</v>
+        <v>0.845294</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8080270000000001</v>
+        <v>0.8067530000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.527528</v>
+        <v>0.527939</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.868887</v>
+        <v>0.867513</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549505</v>
+        <v>0.550139</v>
       </c>
       <c r="D68" t="n">
-        <v>0.407951</v>
+        <v>0.4083</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.663157</v>
+        <v>0.662648</v>
       </c>
       <c r="C69" t="n">
-        <v>0.568483</v>
+        <v>0.568586</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41455</v>
+        <v>0.414643</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.685137</v>
+        <v>0.684739</v>
       </c>
       <c r="C70" t="n">
-        <v>0.592706</v>
+        <v>0.592611</v>
       </c>
       <c r="D70" t="n">
-        <v>0.425017</v>
+        <v>0.425179</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.715655</v>
+        <v>0.713025</v>
       </c>
       <c r="C71" t="n">
-        <v>0.617048</v>
+        <v>0.614448</v>
       </c>
       <c r="D71" t="n">
-        <v>0.436816</v>
+        <v>0.437318</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.738028</v>
+        <v>0.734762</v>
       </c>
       <c r="C72" t="n">
-        <v>0.63903</v>
+        <v>0.63747</v>
       </c>
       <c r="D72" t="n">
-        <v>0.447879</v>
+        <v>0.448433</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7606309999999999</v>
+        <v>0.760087</v>
       </c>
       <c r="C73" t="n">
-        <v>0.668385</v>
+        <v>0.6682979999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.457879</v>
+        <v>0.4592</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.791148</v>
+        <v>0.78754</v>
       </c>
       <c r="C74" t="n">
-        <v>0.69398</v>
+        <v>0.691226</v>
       </c>
       <c r="D74" t="n">
-        <v>0.468905</v>
+        <v>0.468571</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.828251</v>
+        <v>0.8173010000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.729403</v>
+        <v>0.724239</v>
       </c>
       <c r="D75" t="n">
-        <v>0.482596</v>
+        <v>0.481634</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.866347</v>
+        <v>0.856427</v>
       </c>
       <c r="C76" t="n">
-        <v>0.764505</v>
+        <v>0.757532</v>
       </c>
       <c r="D76" t="n">
-        <v>0.49786</v>
+        <v>0.498611</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.908668</v>
+        <v>0.892228</v>
       </c>
       <c r="C77" t="n">
-        <v>0.803084</v>
+        <v>0.796185</v>
       </c>
       <c r="D77" t="n">
-        <v>0.513597</v>
+        <v>0.513148</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.97293</v>
+        <v>0.941928</v>
       </c>
       <c r="C78" t="n">
-        <v>0.85054</v>
+        <v>0.835019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5282</v>
+        <v>0.527244</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02562</v>
+        <v>0.996452</v>
       </c>
       <c r="C79" t="n">
-        <v>0.896905</v>
+        <v>0.882198</v>
       </c>
       <c r="D79" t="n">
-        <v>0.547573</v>
+        <v>0.543913</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.09548</v>
+        <v>1.07407</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9574859999999999</v>
+        <v>0.94614</v>
       </c>
       <c r="D80" t="n">
-        <v>0.567106</v>
+        <v>0.563067</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.15646</v>
+        <v>1.14162</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02266</v>
+        <v>1.01589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592664</v>
+        <v>0.587727</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24115</v>
+        <v>1.23109</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09488</v>
+        <v>1.08465</v>
       </c>
       <c r="D82" t="n">
-        <v>0.619009</v>
+        <v>0.611944</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.34653</v>
+        <v>1.33377</v>
       </c>
       <c r="C83" t="n">
-        <v>0.788457</v>
+        <v>0.785008</v>
       </c>
       <c r="D83" t="n">
-        <v>0.486057</v>
+        <v>0.489128</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06087</v>
+        <v>1.06089</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8464699999999999</v>
+        <v>0.84144</v>
       </c>
       <c r="D84" t="n">
-        <v>0.506665</v>
+        <v>0.505514</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.13566</v>
+        <v>1.13661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8950360000000001</v>
+        <v>0.890754</v>
       </c>
       <c r="D85" t="n">
-        <v>0.52566</v>
+        <v>0.519774</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21867</v>
+        <v>1.21623</v>
       </c>
       <c r="C86" t="n">
-        <v>0.973627</v>
+        <v>0.97501</v>
       </c>
       <c r="D86" t="n">
-        <v>0.54622</v>
+        <v>0.541991</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.30865</v>
+        <v>1.31522</v>
       </c>
       <c r="C87" t="n">
-        <v>1.05266</v>
+        <v>1.05715</v>
       </c>
       <c r="D87" t="n">
-        <v>0.572148</v>
+        <v>0.566513</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41747</v>
+        <v>1.43232</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16014</v>
+        <v>1.16746</v>
       </c>
       <c r="D88" t="n">
-        <v>0.613164</v>
+        <v>0.608541</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.5382</v>
+        <v>1.55298</v>
       </c>
       <c r="C89" t="n">
-        <v>1.25617</v>
+        <v>1.26496</v>
       </c>
       <c r="D89" t="n">
-        <v>0.642246</v>
+        <v>0.643239</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.66003</v>
+        <v>1.67039</v>
       </c>
       <c r="C90" t="n">
-        <v>1.36583</v>
+        <v>1.37146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.686277</v>
+        <v>0.681187</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79951</v>
+        <v>1.80551</v>
       </c>
       <c r="C91" t="n">
-        <v>1.4944</v>
+        <v>1.4992</v>
       </c>
       <c r="D91" t="n">
-        <v>0.735067</v>
+        <v>0.733645</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.94467</v>
+        <v>1.94933</v>
       </c>
       <c r="C92" t="n">
-        <v>1.63084</v>
+        <v>1.63662</v>
       </c>
       <c r="D92" t="n">
-        <v>0.780203</v>
+        <v>0.780157</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.09911</v>
+        <v>2.10374</v>
       </c>
       <c r="C93" t="n">
-        <v>1.76944</v>
+        <v>1.77606</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8371769999999999</v>
+        <v>0.8393969999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.24988</v>
+        <v>2.25751</v>
       </c>
       <c r="C94" t="n">
-        <v>1.92814</v>
+        <v>1.93449</v>
       </c>
       <c r="D94" t="n">
-        <v>0.915212</v>
+        <v>0.89018</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.46722</v>
+        <v>2.4269</v>
       </c>
       <c r="C95" t="n">
-        <v>2.11485</v>
+        <v>2.09711</v>
       </c>
       <c r="D95" t="n">
-        <v>0.97862</v>
+        <v>0.978467</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.59441</v>
+        <v>2.58294</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2965</v>
+        <v>2.28963</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04978</v>
+        <v>1.0489</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.78434</v>
+        <v>2.7775</v>
       </c>
       <c r="C97" t="n">
-        <v>1.43903</v>
+        <v>1.43119</v>
       </c>
       <c r="D97" t="n">
-        <v>0.795969</v>
+        <v>0.798115</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.07262</v>
+        <v>2.06248</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5434</v>
+        <v>1.53651</v>
       </c>
       <c r="D98" t="n">
-        <v>0.835791</v>
+        <v>0.834992</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.18493</v>
+        <v>2.17823</v>
       </c>
       <c r="C99" t="n">
-        <v>1.63713</v>
+        <v>1.62918</v>
       </c>
       <c r="D99" t="n">
-        <v>0.895776</v>
+        <v>0.894263</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.29292</v>
+        <v>2.28519</v>
       </c>
       <c r="C100" t="n">
-        <v>1.74861</v>
+        <v>1.74189</v>
       </c>
       <c r="D100" t="n">
-        <v>0.948474</v>
+        <v>0.943397</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.42983</v>
+        <v>2.42381</v>
       </c>
       <c r="C101" t="n">
-        <v>1.85894</v>
+        <v>1.85214</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00146</v>
+        <v>1.00154</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.54036</v>
+        <v>2.53749</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97897</v>
+        <v>1.97387</v>
       </c>
       <c r="D102" t="n">
-        <v>1.06164</v>
+        <v>1.06242</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.65686</v>
+        <v>2.64832</v>
       </c>
       <c r="C103" t="n">
-        <v>2.10381</v>
+        <v>2.09736</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12949</v>
+        <v>1.1313</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.79641</v>
+        <v>2.79388</v>
       </c>
       <c r="C104" t="n">
-        <v>2.23702</v>
+        <v>2.23125</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19585</v>
+        <v>1.19546</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.92343</v>
+        <v>2.91633</v>
       </c>
       <c r="C105" t="n">
-        <v>2.37733</v>
+        <v>2.37042</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24172</v>
+        <v>1.23956</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.07668</v>
+        <v>3.06511</v>
       </c>
       <c r="C106" t="n">
-        <v>2.51679</v>
+        <v>2.50946</v>
       </c>
       <c r="D106" t="n">
-        <v>1.3154</v>
+        <v>1.31186</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.23883</v>
+        <v>3.24012</v>
       </c>
       <c r="C107" t="n">
-        <v>2.66673</v>
+        <v>2.66038</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38922</v>
+        <v>1.38902</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.40063</v>
+        <v>3.3992</v>
       </c>
       <c r="C108" t="n">
-        <v>2.83673</v>
+        <v>2.83083</v>
       </c>
       <c r="D108" t="n">
-        <v>1.4659</v>
+        <v>1.4651</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.56713</v>
+        <v>3.56176</v>
       </c>
       <c r="C109" t="n">
-        <v>3.01881</v>
+        <v>3.01308</v>
       </c>
       <c r="D109" t="n">
-        <v>1.53935</v>
+        <v>1.54014</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74421</v>
+        <v>3.73298</v>
       </c>
       <c r="C110" t="n">
-        <v>3.18767</v>
+        <v>3.17402</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62462</v>
+        <v>1.62523</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.90523</v>
+        <v>3.90114</v>
       </c>
       <c r="C111" t="n">
-        <v>2.09614</v>
+        <v>2.09308</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30567</v>
+        <v>1.30603</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.83339</v>
+        <v>2.82849</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19902</v>
+        <v>2.19557</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35371</v>
+        <v>1.35162</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.92718</v>
+        <v>2.9354</v>
       </c>
       <c r="C113" t="n">
-        <v>2.30896</v>
+        <v>2.30285</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41047</v>
+        <v>1.4071</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04475</v>
+        <v>3.04147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.41219</v>
+        <v>2.40858</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45216</v>
+        <v>1.45292</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.16598</v>
+        <v>3.16405</v>
       </c>
       <c r="C115" t="n">
-        <v>2.52444</v>
+        <v>2.51833</v>
       </c>
       <c r="D115" t="n">
-        <v>1.50514</v>
+        <v>1.50197</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.28181</v>
+        <v>3.274</v>
       </c>
       <c r="C116" t="n">
-        <v>2.64123</v>
+        <v>2.63768</v>
       </c>
       <c r="D116" t="n">
-        <v>1.56331</v>
+        <v>1.56128</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.3872</v>
+        <v>3.3824</v>
       </c>
       <c r="C117" t="n">
-        <v>2.77089</v>
+        <v>2.7671</v>
       </c>
       <c r="D117" t="n">
-        <v>1.63825</v>
+        <v>1.63662</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.52174</v>
+        <v>3.52572</v>
       </c>
       <c r="C118" t="n">
-        <v>2.90895</v>
+        <v>2.89103</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70291</v>
+        <v>1.70207</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.64629</v>
+        <v>3.63466</v>
       </c>
       <c r="C119" t="n">
-        <v>3.0425</v>
+        <v>3.03856</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7628</v>
+        <v>1.76262</v>
       </c>
     </row>
   </sheetData>
